--- a/api/cp-dss-api/gateway/src/main/resources/reports/discharging/Vessel_1_Discharging_Plan_Template.xlsx
+++ b/api/cp-dss-api/gateway/src/main/resources/reports/discharging/Vessel_1_Discharging_Plan_Template.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Sanal\Codebase2\AOT-CP-DSS\api\cp-dss-api\gateway\src\main\resources\reports\discharging\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Sanal\Codebase\AOT-CP-DSS\api\cp-dss-api\gateway\src\main\resources\reports\discharging\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17316" windowHeight="6156" tabRatio="399" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17316" windowHeight="6156" tabRatio="399" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="CRUD - 021 pg1" sheetId="27" r:id="rId1"/>
@@ -42,7 +42,7 @@
     <definedName name="B" localSheetId="1">#REF!</definedName>
     <definedName name="B">#REF!</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'CRUD - 021 pg1'!$A$1:$Z$69</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">'CRUD - 021 pg3'!$A$1:$AM$98</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">'CRUD - 021 pg3'!$A$1:$AM$99</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'CRUD-022 pg2 '!$A$1:$Y$72</definedName>
     <definedName name="_xlnm.Print_Area">#REF!</definedName>
     <definedName name="SSSN_2NDOF" localSheetId="1">'CRUD-022 pg2 '!$L$67:$P$67</definedName>
@@ -1335,7 +1335,7 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">Author:
-jx:each(items="sheetThree.dischargingRates" var="dischargingRate" direction ="RIGHT" lastCell="H42")
+jx:each(items="sheetThree.tankToTanks" var="tankToTank" direction ="RIGHT" lastCell="H42")
 </t>
         </r>
       </text>
@@ -1351,11 +1351,27 @@
             <family val="2"/>
           </rPr>
           <t>Author:
-jx:area(lastCell="F52")</t>
+jx:area(lastCell="H43")</t>
         </r>
       </text>
     </comment>
-    <comment ref="C53" authorId="0" shapeId="0">
+    <comment ref="G43" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="12"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Author:
+jx:each(items="sheetThree.dischargingRates" var="dischargingRate" direction ="RIGHT" lastCell="H43")
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A44" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1366,22 +1382,147 @@
             <family val="2"/>
           </rPr>
           <t>Author:
-jx:area(lastCell="F54")</t>
+jx:area(lastCell="F53")</t>
         </r>
       </text>
     </comment>
-    <comment ref="E53" authorId="0" shapeId="0">
+    <comment ref="E44" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
             <b/>
-            <sz val="12"/>
+            <sz val="14"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
           <t>Author:
-jx:each(items="sheetThree.ballastTanks[0].cargoTankUllage.status" var="ballastTankStatus"  direction="RIGHT" lastCell="F53")</t>
+jx:each(items="sheetThree.cargoPumps[0].cargoTankUllage.status" var="cargoPumpStatus"  direction="RIGHT" lastCell="F45")</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E46" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="14"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:
+jx:each(items="sheetThree.cargoPumps[1].cargoTankUllage.status" var="cargoPumpStatus1"  direction="RIGHT" lastCell="F47")</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E48" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="14"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:
+jx:each(items="sheetThree.cargoPumps[2].cargoTankUllage.status" var="cargoPumpStatus2"  direction="RIGHT" lastCell="F49")</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E50" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="14"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:
+jx:each(items="sheetThree.cargoPumps[3].cargoTankUllage.status" var="cargoPumpStatus3"  direction="RIGHT" lastCell="F51")</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E52" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="14"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:
+jx:each(items="sheetThree.cargoPumps[4].cargoTankUllage.status" var="cargoPumpStatus4"  direction="RIGHT" lastCell="F53")</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C54" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:
+jx:area(lastCell="F55")</t>
         </r>
       </text>
     </comment>
@@ -1396,22 +1537,7 @@
             <family val="2"/>
           </rPr>
           <t>Author:
-jx:each(items="sheetThree.ballastTanks[0].cargoTankUllage.ullage" var="ballastTankUllage"  direction="RIGHT" lastCell="F54")</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C55" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Author:
-jx:area(lastCell="F56")</t>
+jx:each(items="sheetThree.ballastTanks[0].cargoTankUllage.status" var="ballastTankStatus"  direction="RIGHT" lastCell="F54")</t>
         </r>
       </text>
     </comment>
@@ -1426,7 +1552,22 @@
             <family val="2"/>
           </rPr>
           <t>Author:
-jx:each(items="sheetThree.ballastTanks[1].cargoTankUllage.status" var="ballastTankStatus1"  direction="RIGHT" lastCell="F55")</t>
+jx:each(items="sheetThree.ballastTanks[0].cargoTankUllage.ullage" var="ballastTankUllage"  direction="RIGHT" lastCell="F55")</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C56" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:
+jx:area(lastCell="F57")</t>
         </r>
       </text>
     </comment>
@@ -1441,22 +1582,7 @@
             <family val="2"/>
           </rPr>
           <t>Author:
-jx:each(items="sheetThree.ballastTanks[1].cargoTankUllage.ullage" var="ballastTankUllage1"  direction="RIGHT" lastCell="F56")</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C57" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Author:
-jx:area(lastCell="F58")</t>
+jx:each(items="sheetThree.ballastTanks[1].cargoTankUllage.status" var="ballastTankStatus1"  direction="RIGHT" lastCell="F56")</t>
         </r>
       </text>
     </comment>
@@ -1471,7 +1597,22 @@
             <family val="2"/>
           </rPr>
           <t>Author:
-jx:each(items="sheetThree.ballastTanks[2].cargoTankUllage.status" var="ballastTankStatus2"  direction="RIGHT" lastCell="F57")</t>
+jx:each(items="sheetThree.ballastTanks[1].cargoTankUllage.ullage" var="ballastTankUllage1"  direction="RIGHT" lastCell="F57")</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C58" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:
+jx:area(lastCell="F59")</t>
         </r>
       </text>
     </comment>
@@ -1486,22 +1627,7 @@
             <family val="2"/>
           </rPr>
           <t>Author:
-jx:each(items="sheetThree.ballastTanks[2].cargoTankUllage.ullage" var="ballastTankUllage2"  direction="RIGHT" lastCell="F58")</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C59" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Author:
-jx:area(lastCell="F60")</t>
+jx:each(items="sheetThree.ballastTanks[2].cargoTankUllage.status" var="ballastTankStatus2"  direction="RIGHT" lastCell="F58")</t>
         </r>
       </text>
     </comment>
@@ -1516,7 +1642,22 @@
             <family val="2"/>
           </rPr>
           <t>Author:
-jx:each(items="sheetThree.ballastTanks[3].cargoTankUllage.status" var="ballastTankStatus3"  direction="RIGHT" lastCell="F59")</t>
+jx:each(items="sheetThree.ballastTanks[2].cargoTankUllage.ullage" var="ballastTankUllage2"  direction="RIGHT" lastCell="F59")</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C60" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:
+jx:area(lastCell="F61")</t>
         </r>
       </text>
     </comment>
@@ -1531,22 +1672,7 @@
             <family val="2"/>
           </rPr>
           <t>Author:
-jx:each(items="sheetThree.ballastTanks[3].cargoTankUllage.ullage" var="ballastTankUllage3"  direction="RIGHT" lastCell="F60")</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C61" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Author:
-jx:area(lastCell="F62")</t>
+jx:each(items="sheetThree.ballastTanks[3].cargoTankUllage.status" var="ballastTankStatus3"  direction="RIGHT" lastCell="F60")</t>
         </r>
       </text>
     </comment>
@@ -1561,7 +1687,22 @@
             <family val="2"/>
           </rPr>
           <t>Author:
-jx:each(items="sheetThree.ballastTanks[4].cargoTankUllage.status" var="ballastTankStatus4"  direction="RIGHT" lastCell="F61")</t>
+jx:each(items="sheetThree.ballastTanks[3].cargoTankUllage.ullage" var="ballastTankUllage3"  direction="RIGHT" lastCell="F61")</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C62" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:
+jx:area(lastCell="F63")</t>
         </r>
       </text>
     </comment>
@@ -1576,22 +1717,7 @@
             <family val="2"/>
           </rPr>
           <t>Author:
-jx:each(items="sheetThree.ballastTanks[4].cargoTankUllage.ullage" var="ballastTankUllage4"  direction="RIGHT" lastCell="F62")</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C63" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Author:
-jx:area(lastCell="F64")</t>
+jx:each(items="sheetThree.ballastTanks[4].cargoTankUllage.status" var="ballastTankStatus4"  direction="RIGHT" lastCell="F62")</t>
         </r>
       </text>
     </comment>
@@ -1606,7 +1732,22 @@
             <family val="2"/>
           </rPr>
           <t>Author:
-jx:each(items="sheetThree.ballastTanks[5].cargoTankUllage.status" var="ballastTankStatus5"  direction="RIGHT" lastCell="F63")</t>
+jx:each(items="sheetThree.ballastTanks[4].cargoTankUllage.ullage" var="ballastTankUllage4"  direction="RIGHT" lastCell="F63")</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C64" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:
+jx:area(lastCell="F65")</t>
         </r>
       </text>
     </comment>
@@ -1621,22 +1762,7 @@
             <family val="2"/>
           </rPr>
           <t>Author:
-jx:each(items="sheetThree.ballastTanks[5].cargoTankUllage.ullage" var="ballastTankUllage5"  direction="RIGHT" lastCell="F64")</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C65" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Author:
-jx:area(lastCell="F66")</t>
+jx:each(items="sheetThree.ballastTanks[5].cargoTankUllage.status" var="ballastTankStatus5"  direction="RIGHT" lastCell="F64")</t>
         </r>
       </text>
     </comment>
@@ -1651,7 +1777,22 @@
             <family val="2"/>
           </rPr>
           <t>Author:
-jx:each(items="sheetThree.ballastTanks[6].cargoTankUllage.status" var="ballastTankStatus6"  direction="RIGHT" lastCell="F65")</t>
+jx:each(items="sheetThree.ballastTanks[5].cargoTankUllage.ullage" var="ballastTankUllage5"  direction="RIGHT" lastCell="F65")</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C66" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:
+jx:area(lastCell="F67")</t>
         </r>
       </text>
     </comment>
@@ -1666,22 +1807,7 @@
             <family val="2"/>
           </rPr>
           <t>Author:
-jx:each(items="sheetThree.ballastTanks[6].cargoTankUllage.ullage" var="ballastTankUllage6"  direction="RIGHT" lastCell="F66")</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C67" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Author:
-jx:area(lastCell="F68")</t>
+jx:each(items="sheetThree.ballastTanks[6].cargoTankUllage.status" var="ballastTankStatus6"  direction="RIGHT" lastCell="F66")</t>
         </r>
       </text>
     </comment>
@@ -1696,7 +1822,22 @@
             <family val="2"/>
           </rPr>
           <t>Author:
-jx:each(items="sheetThree.ballastTanks[7].cargoTankUllage.status" var="ballastTankStatus7"  direction="RIGHT" lastCell="F67")</t>
+jx:each(items="sheetThree.ballastTanks[6].cargoTankUllage.ullage" var="ballastTankUllage6"  direction="RIGHT" lastCell="F67")</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C68" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:
+jx:area(lastCell="F69")</t>
         </r>
       </text>
     </comment>
@@ -1711,22 +1852,7 @@
             <family val="2"/>
           </rPr>
           <t>Author:
-jx:each(items="sheetThree.ballastTanks[7].cargoTankUllage.ullage" var="ballastTankUllage7"  direction="RIGHT" lastCell="F68")</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C69" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Author:
-jx:area(lastCell="F70")</t>
+jx:each(items="sheetThree.ballastTanks[7].cargoTankUllage.status" var="ballastTankStatus7"  direction="RIGHT" lastCell="F68")</t>
         </r>
       </text>
     </comment>
@@ -1741,7 +1867,22 @@
             <family val="2"/>
           </rPr>
           <t>Author:
-jx:each(items="sheetThree.ballastTanks[8].cargoTankUllage.status" var="ballastTankStatus8"  direction="RIGHT" lastCell="F69")</t>
+jx:each(items="sheetThree.ballastTanks[7].cargoTankUllage.ullage" var="ballastTankUllage7"  direction="RIGHT" lastCell="F69")</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C70" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:
+jx:area(lastCell="F71")</t>
         </r>
       </text>
     </comment>
@@ -1756,22 +1897,7 @@
             <family val="2"/>
           </rPr>
           <t>Author:
-jx:each(items="sheetThree.ballastTanks[8].cargoTankUllage.ullage" var="ballastTankUllage8"  direction="RIGHT" lastCell="F70")</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C71" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Author:
-jx:area(lastCell="F72")</t>
+jx:each(items="sheetThree.ballastTanks[8].cargoTankUllage.status" var="ballastTankStatus8"  direction="RIGHT" lastCell="F70")</t>
         </r>
       </text>
     </comment>
@@ -1786,7 +1912,22 @@
             <family val="2"/>
           </rPr>
           <t>Author:
-jx:each(items="sheetThree.ballastTanks[9].cargoTankUllage.status" var="ballastTankStatus9"  direction="RIGHT" lastCell="F71")</t>
+jx:each(items="sheetThree.ballastTanks[8].cargoTankUllage.ullage" var="ballastTankUllage8"  direction="RIGHT" lastCell="F71")</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C72" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:
+jx:area(lastCell="F73")</t>
         </r>
       </text>
     </comment>
@@ -1801,22 +1942,7 @@
             <family val="2"/>
           </rPr>
           <t>Author:
-jx:each(items="sheetThree.ballastTanks[9].cargoTankUllage.ullage" var="ballastTankUllage9"  direction="RIGHT" lastCell="F72")</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C73" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Author:
-jx:area(lastCell="F74")</t>
+jx:each(items="sheetThree.ballastTanks[9].cargoTankUllage.status" var="ballastTankStatus9"  direction="RIGHT" lastCell="F72")</t>
         </r>
       </text>
     </comment>
@@ -1831,7 +1957,22 @@
             <family val="2"/>
           </rPr>
           <t>Author:
-jx:each(items="sheetThree.ballastTanks[10].cargoTankUllage.status" var="ballastTankStatus10"  direction="RIGHT" lastCell="F73")</t>
+jx:each(items="sheetThree.ballastTanks[9].cargoTankUllage.ullage" var="ballastTankUllage9"  direction="RIGHT" lastCell="F73")</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C74" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:
+jx:area(lastCell="F75")</t>
         </r>
       </text>
     </comment>
@@ -1846,22 +1987,7 @@
             <family val="2"/>
           </rPr>
           <t>Author:
-jx:each(items="sheetThree.ballastTanks[10].cargoTankUllage.ullage" var="ballastTankUllage10"  direction="RIGHT" lastCell="F74")</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C75" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Author:
-jx:area(lastCell="F76")</t>
+jx:each(items="sheetThree.ballastTanks[10].cargoTankUllage.status" var="ballastTankStatus10"  direction="RIGHT" lastCell="F74")</t>
         </r>
       </text>
     </comment>
@@ -1876,7 +2002,22 @@
             <family val="2"/>
           </rPr>
           <t>Author:
-jx:each(items="sheetThree.ballastTanks[11].cargoTankUllage.status" var="ballastTankStatus11"  direction="RIGHT" lastCell="F75")</t>
+jx:each(items="sheetThree.ballastTanks[10].cargoTankUllage.ullage" var="ballastTankUllage10"  direction="RIGHT" lastCell="F75")</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C76" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:
+jx:area(lastCell="F77")</t>
         </r>
       </text>
     </comment>
@@ -1891,22 +2032,7 @@
             <family val="2"/>
           </rPr>
           <t>Author:
-jx:each(items="sheetThree.ballastTanks[11].cargoTankUllage.ullage" var="ballastTankUllage11"  direction="RIGHT" lastCell="F76")</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C77" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Author:
-jx:area(lastCell="F78")</t>
+jx:each(items="sheetThree.ballastTanks[11].cargoTankUllage.status" var="ballastTankStatus11"  direction="RIGHT" lastCell="F76")</t>
         </r>
       </text>
     </comment>
@@ -1921,7 +2047,22 @@
             <family val="2"/>
           </rPr>
           <t>Author:
-jx:each(items="sheetThree.ballastTanks[12].cargoTankUllage.status" var="ballastTankStatus12"  direction="RIGHT" lastCell="F77")</t>
+jx:each(items="sheetThree.ballastTanks[11].cargoTankUllage.ullage" var="ballastTankUllage11"  direction="RIGHT" lastCell="F77")</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C78" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:
+jx:area(lastCell="F79")</t>
         </r>
       </text>
     </comment>
@@ -1936,22 +2077,7 @@
             <family val="2"/>
           </rPr>
           <t>Author:
-jx:each(items="sheetThree.ballastTanks[12].cargoTankUllage.ullage" var="ballastTankUllage12"  direction="RIGHT" lastCell="F78")</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C79" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Author:
-jx:area(lastCell="F80")</t>
+jx:each(items="sheetThree.ballastTanks[12].cargoTankUllage.status" var="ballastTankStatus12"  direction="RIGHT" lastCell="F78")</t>
         </r>
       </text>
     </comment>
@@ -1966,7 +2092,22 @@
             <family val="2"/>
           </rPr>
           <t>Author:
-jx:each(items="sheetThree.ballastTanks[13].cargoTankUllage.status" var="ballastTankStatus13"  direction="RIGHT" lastCell="F79")</t>
+jx:each(items="sheetThree.ballastTanks[12].cargoTankUllage.ullage" var="ballastTankUllage12"  direction="RIGHT" lastCell="F79")</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C80" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:
+jx:area(lastCell="F81")</t>
         </r>
       </text>
     </comment>
@@ -1981,22 +2122,7 @@
             <family val="2"/>
           </rPr>
           <t>Author:
-jx:each(items="sheetThree.ballastTanks[13].cargoTankUllage.ullage" var="ballastTankUllage13"  direction="RIGHT" lastCell="F80")</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C81" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Author:
-jx:area(lastCell="F82")</t>
+jx:each(items="sheetThree.ballastTanks[13].cargoTankUllage.status" var="ballastTankStatus13"  direction="RIGHT" lastCell="F80")</t>
         </r>
       </text>
     </comment>
@@ -2011,7 +2137,22 @@
             <family val="2"/>
           </rPr>
           <t>Author:
-jx:each(items="sheetThree.ballastTanks[14].cargoTankUllage.status" var="ballastTankStatus14"  direction="RIGHT" lastCell="F81")</t>
+jx:each(items="sheetThree.ballastTanks[13].cargoTankUllage.ullage" var="ballastTankUllage13"  direction="RIGHT" lastCell="F81")</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C82" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:
+jx:area(lastCell="F83")</t>
         </r>
       </text>
     </comment>
@@ -2026,11 +2167,76 @@
             <family val="2"/>
           </rPr>
           <t>Author:
-jx:each(items="sheetThree.ballastTanks[14].cargoTankUllage.ullage" var="ballastTankUllage14"  direction="RIGHT" lastCell="F82")</t>
+jx:each(items="sheetThree.ballastTanks[14].cargoTankUllage.status" var="ballastTankStatus14"  direction="RIGHT" lastCell="F82")</t>
         </r>
       </text>
     </comment>
-    <comment ref="A86" authorId="0" shapeId="0">
+    <comment ref="E83" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="12"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:
+jx:each(items="sheetThree.ballastTanks[14].cargoTankUllage.ullage" var="ballastTankUllage14"  direction="RIGHT" lastCell="F83")</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E85" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="14"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:
+jx:each(items="sheetThree.ballastPumps[0].cargoTankUllage.status" var="ballastPumpStatus"  direction="RIGHT" lastCell="F85")</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E86" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="14"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:
+jx:each(items="sheetThree.ballastPumps[1].cargoTankUllage.status" var="ballastPumpStatus1"  direction="RIGHT" lastCell="F86")</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A87" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2041,11 +2247,11 @@
             <family val="2"/>
           </rPr>
           <t>Author:
-jx:area(lastCell="F90")</t>
+jx:area(lastCell="F91")</t>
         </r>
       </text>
     </comment>
-    <comment ref="E86" authorId="0" shapeId="0">
+    <comment ref="E87" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2056,22 +2262,7 @@
             <family val="2"/>
           </rPr>
           <t>Author:
-jx:each(items="sheetThree.stabilityParams.fw"  var="fw"  direction="RIGHT" lastCell="F86")</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E87" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Author:
-jx:each(items="sheetThree.stabilityParams.after"  var="after"  direction="RIGHT" lastCell="F87")</t>
+jx:each(items="sheetThree.stabilityParams.fw"  var="fw"  direction="RIGHT" lastCell="F87")</t>
         </r>
       </text>
     </comment>
@@ -2086,7 +2277,7 @@
             <family val="2"/>
           </rPr>
           <t>Author:
-jx:each(items="sheetThree.stabilityParams.trim"  var="trim"  direction="RIGHT" lastCell="F88")</t>
+jx:each(items="sheetThree.stabilityParams.after"  var="after"  direction="RIGHT" lastCell="F88")</t>
         </r>
       </text>
     </comment>
@@ -2101,7 +2292,7 @@
             <family val="2"/>
           </rPr>
           <t>Author:
-jx:each(items="sheetThree.stabilityParams.ukc"  var="ukc"  direction="RIGHT" lastCell="F89")</t>
+jx:each(items="sheetThree.stabilityParams.trim"  var="trim"  direction="RIGHT" lastCell="F89")</t>
         </r>
       </text>
     </comment>
@@ -2116,22 +2307,7 @@
             <family val="2"/>
           </rPr>
           <t>Author:
-jx:each(items="sheetThree.stabilityParams.gm"  var="gm"  direction="RIGHT" lastCell="F90")</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="A91" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Author:
-jx:area(lastCell="F92")</t>
+jx:each(items="sheetThree.stabilityParams.ukc"  var="ukc"  direction="RIGHT" lastCell="F90")</t>
         </r>
       </text>
     </comment>
@@ -2146,7 +2322,22 @@
             <family val="2"/>
           </rPr>
           <t>Author:
-jx:each(items="sheetThree.stabilityParams.shearingForce"  var="sf"  direction="RIGHT" lastCell="F91")</t>
+jx:each(items="sheetThree.stabilityParams.gm"  var="gm"  direction="RIGHT" lastCell="F91")</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A92" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:
+jx:area(lastCell="F93")</t>
         </r>
       </text>
     </comment>
@@ -2161,7 +2352,22 @@
             <family val="2"/>
           </rPr>
           <t>Author:
-jx:each(items="sheetThree.stabilityParams.bm"  var="bm"  direction="RIGHT" lastCell="F92")</t>
+jx:each(items="sheetThree.stabilityParams.shearingForce"  var="sf"  direction="RIGHT" lastCell="F92")</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E93" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:
+jx:each(items="sheetThree.stabilityParams.bm"  var="bm"  direction="RIGHT" lastCell="F93")</t>
         </r>
       </text>
     </comment>
@@ -2170,7 +2376,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="637" uniqueCount="584">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="646" uniqueCount="593">
   <si>
     <t>TRIM</t>
   </si>
@@ -3754,12 +3960,6 @@
     <t>DISCHARGE  SEQUENCE @ ${sheetOne.portName}</t>
   </si>
   <si>
-    <t>DISCHARGING RATE(M3/HR)</t>
-  </si>
-  <si>
-    <t>DRIVE OIL TANK</t>
-  </si>
-  <si>
     <t>CARGO PUMP</t>
   </si>
   <si>
@@ -3950,6 +4150,39 @@
   <si>
     <t xml:space="preserve"> ${sheetTwo.ballastPumpCount}</t>
   </si>
+  <si>
+    <t>${tankToTank}</t>
+  </si>
+  <si>
+    <t>${cargoPumpStatus.colorCode}</t>
+  </si>
+  <si>
+    <t>${cargoPumpStatus1.colorCode}</t>
+  </si>
+  <si>
+    <t>${cargoPumpStatus2.colorCode}</t>
+  </si>
+  <si>
+    <t>${cargoPumpStatus3.colorCode}</t>
+  </si>
+  <si>
+    <t>${cargoPumpStatus4.colorCode}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TANK TO TANK TRANSFER     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">DRIVE OIL TANK                    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">DISCHARGING RATE(M3/HR) </t>
+  </si>
+  <si>
+    <t>${ballastPumpStatus.colorCode}</t>
+  </si>
+  <si>
+    <t>${ballastPumpStatus1.colorCode}</t>
+  </si>
 </sst>
 </file>
 
@@ -3975,7 +4208,7 @@
     <numFmt numFmtId="180" formatCode="#,##0.0"/>
     <numFmt numFmtId="181" formatCode="####.##"/>
   </numFmts>
-  <fonts count="56">
+  <fonts count="58">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -4358,8 +4591,21 @@
       <name val="Tahoma"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4387,6 +4633,17 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFCCECFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFEA8343"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5767,11 +6024,11 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="16" applyFont="1" applyFill="1" applyAlignment="1">
@@ -5792,7 +6049,15 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
@@ -5825,19 +6090,23 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="181" fontId="15" fillId="0" borderId="10" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="181" fontId="15" fillId="0" borderId="10" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="4" borderId="14" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5868,6 +6137,18 @@
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="16" applyFont="1" applyFill="1" applyAlignment="1"/>
@@ -6034,6 +6315,44 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="57" fillId="7" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="7" borderId="16" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="57" fillId="6" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="16" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="4" borderId="3" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="4" borderId="4" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="4" borderId="10" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="4" borderId="11" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="3" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="28" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="36" fillId="0" borderId="3" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -6074,26 +6393,6 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="3" borderId="16" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="3" borderId="14" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="3" borderId="9" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="3" borderId="6" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="3" borderId="11" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="43" fillId="4" borderId="14" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
@@ -6103,30 +6402,6 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="43" fillId="4" borderId="9" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="3" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="28" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="4" borderId="3" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="4" borderId="4" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="4" borderId="10" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="4" borderId="11" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -6266,14 +6541,29 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="172" fontId="41" fillId="0" borderId="0" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="3" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="171" fontId="41" fillId="2" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="28" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="171" fontId="36" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="49" fontId="43" fillId="4" borderId="14" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="43" fillId="4" borderId="9" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="43" fillId="4" borderId="7" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="43" fillId="4" borderId="2" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="36" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -6287,57 +6577,24 @@
     <xf numFmtId="0" fontId="36" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="172" fontId="41" fillId="0" borderId="0" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="41" fillId="2" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="36" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="4" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="49" fontId="37" fillId="0" borderId="14" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="49" fontId="37" fillId="0" borderId="9" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="37" fillId="0" borderId="3" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="37" fillId="0" borderId="5" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="43" fillId="4" borderId="7" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="43" fillId="4" borderId="2" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="15" fillId="0" borderId="10" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -7443,10 +7700,10 @@
           </xdr:nvGrpSpPr>
           <xdr:grpSpPr>
             <a:xfrm>
-              <a:off x="380552" y="3921610"/>
-              <a:ext cx="418203" cy="725635"/>
-              <a:chOff x="376566" y="3942670"/>
-              <a:chExt cx="297180" cy="732378"/>
+              <a:off x="380552" y="3921612"/>
+              <a:ext cx="418203" cy="725634"/>
+              <a:chOff x="376566" y="3942675"/>
+              <a:chExt cx="297180" cy="732368"/>
             </a:xfrm>
           </xdr:grpSpPr>
           <xdr:sp macro="" textlink="">
@@ -7465,7 +7722,7 @@
             </xdr:nvSpPr>
             <xdr:spPr bwMode="auto">
               <a:xfrm>
-                <a:off x="376566" y="3942670"/>
+                <a:off x="376566" y="3942675"/>
                 <a:ext cx="297180" cy="194983"/>
               </a:xfrm>
               <a:prstGeom prst="rect">
@@ -7549,7 +7806,7 @@
             </xdr:nvSpPr>
             <xdr:spPr bwMode="auto">
               <a:xfrm>
-                <a:off x="392430" y="4404370"/>
+                <a:off x="392430" y="4404365"/>
                 <a:ext cx="243840" cy="270678"/>
               </a:xfrm>
               <a:prstGeom prst="rect">
@@ -7581,67 +7838,6 @@
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>676275</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="118110" cy="220707"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="Text Box 16">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000288A0000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1">
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="2291715" y="8692515"/>
-          <a:ext cx="118110" cy="222885"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a14:hiddenLine>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -8132,7 +8328,7 @@
       <c r="F7" s="272"/>
       <c r="G7" s="272"/>
       <c r="H7" s="279" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="I7" s="279"/>
       <c r="J7" s="272" t="s">
@@ -8310,7 +8506,7 @@
       <c r="N12" s="29"/>
       <c r="O12" s="29"/>
       <c r="P12" s="292" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="Q12" s="292"/>
       <c r="R12" s="292"/>
@@ -10164,7 +10360,7 @@
       <c r="G49" s="199"/>
       <c r="H49" s="200"/>
       <c r="I49" s="323" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="J49" s="323"/>
       <c r="K49" s="323"/>
@@ -10200,7 +10396,7 @@
       <c r="G50" s="199"/>
       <c r="H50" s="200"/>
       <c r="I50" s="323" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="J50" s="323"/>
       <c r="K50" s="323"/>
@@ -10234,7 +10430,7 @@
       <c r="G51" s="199"/>
       <c r="H51" s="200"/>
       <c r="I51" s="323" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="J51" s="323"/>
       <c r="K51" s="323"/>
@@ -10268,7 +10464,7 @@
       <c r="G52" s="199"/>
       <c r="H52" s="200"/>
       <c r="I52" s="323" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="J52" s="323"/>
       <c r="K52" s="323"/>
@@ -10302,7 +10498,7 @@
       <c r="G53" s="199"/>
       <c r="H53" s="200"/>
       <c r="I53" s="323" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="J53" s="323"/>
       <c r="K53" s="323"/>
@@ -10336,7 +10532,7 @@
       <c r="G54" s="329"/>
       <c r="H54" s="330"/>
       <c r="I54" s="327" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="J54" s="327"/>
       <c r="K54" s="327"/>
@@ -10605,7 +10801,7 @@
       <c r="D62" s="325"/>
       <c r="E62" s="326"/>
       <c r="F62" s="317" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="G62" s="318"/>
       <c r="H62" s="318"/>
@@ -10641,7 +10837,7 @@
       <c r="D63" s="196"/>
       <c r="E63" s="197"/>
       <c r="F63" s="320" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="G63" s="320"/>
       <c r="H63" s="320"/>
@@ -10677,7 +10873,7 @@
       <c r="D64" s="325"/>
       <c r="E64" s="326"/>
       <c r="F64" s="320" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="G64" s="320"/>
       <c r="H64" s="320"/>
@@ -10713,7 +10909,7 @@
       <c r="D65" s="325"/>
       <c r="E65" s="326"/>
       <c r="F65" s="320" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="G65" s="320"/>
       <c r="H65" s="320"/>
@@ -10749,7 +10945,7 @@
       <c r="D66" s="325"/>
       <c r="E66" s="326"/>
       <c r="F66" s="320" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="G66" s="320"/>
       <c r="H66" s="320"/>
@@ -10785,7 +10981,7 @@
       <c r="D67" s="325"/>
       <c r="E67" s="326"/>
       <c r="F67" s="320" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="G67" s="320"/>
       <c r="H67" s="320"/>
@@ -10821,7 +11017,7 @@
       <c r="D68" s="325"/>
       <c r="E68" s="326"/>
       <c r="F68" s="317" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="G68" s="318"/>
       <c r="H68" s="318"/>
@@ -11117,8 +11313,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AJ74"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="Y21" sqref="Y21"/>
+    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4:H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5.6640625" defaultRowHeight="17.25" customHeight="1"/>
@@ -11177,207 +11373,207 @@
     </row>
     <row r="2" spans="1:24" s="219" customFormat="1" ht="18.75" customHeight="1">
       <c r="A2" s="218"/>
-      <c r="B2" s="421" t="s">
+      <c r="B2" s="427" t="s">
         <v>494</v>
       </c>
-      <c r="C2" s="374" t="s">
+      <c r="C2" s="377" t="s">
         <v>495</v>
       </c>
-      <c r="D2" s="375"/>
-      <c r="E2" s="375"/>
-      <c r="F2" s="375"/>
-      <c r="G2" s="375"/>
-      <c r="H2" s="376"/>
-      <c r="I2" s="415" t="s">
-        <v>571</v>
+      <c r="D2" s="378"/>
+      <c r="E2" s="378"/>
+      <c r="F2" s="378"/>
+      <c r="G2" s="378"/>
+      <c r="H2" s="379"/>
+      <c r="I2" s="421" t="s">
+        <v>569</v>
       </c>
-      <c r="J2" s="423"/>
-      <c r="K2" s="423"/>
-      <c r="L2" s="416"/>
-      <c r="M2" s="406" t="s">
+      <c r="J2" s="429"/>
+      <c r="K2" s="429"/>
+      <c r="L2" s="422"/>
+      <c r="M2" s="412" t="s">
         <v>496</v>
       </c>
-      <c r="N2" s="407"/>
-      <c r="O2" s="408"/>
-      <c r="P2" s="415" t="s">
+      <c r="N2" s="413"/>
+      <c r="O2" s="414"/>
+      <c r="P2" s="421" t="s">
         <v>497</v>
       </c>
-      <c r="Q2" s="416"/>
-      <c r="R2" s="415" t="s">
+      <c r="Q2" s="422"/>
+      <c r="R2" s="421" t="s">
         <v>498</v>
       </c>
-      <c r="S2" s="416"/>
-      <c r="T2" s="415" t="s">
+      <c r="S2" s="422"/>
+      <c r="T2" s="421" t="s">
         <v>499</v>
       </c>
-      <c r="U2" s="416"/>
-      <c r="V2" s="406" t="s">
+      <c r="U2" s="422"/>
+      <c r="V2" s="412" t="s">
         <v>500</v>
       </c>
-      <c r="W2" s="407"/>
-      <c r="X2" s="408"/>
+      <c r="W2" s="413"/>
+      <c r="X2" s="414"/>
     </row>
     <row r="3" spans="1:24" s="219" customFormat="1" ht="28.5" customHeight="1">
       <c r="A3" s="218"/>
-      <c r="B3" s="422"/>
-      <c r="C3" s="377"/>
-      <c r="D3" s="378"/>
-      <c r="E3" s="378"/>
-      <c r="F3" s="378"/>
-      <c r="G3" s="378"/>
-      <c r="H3" s="379"/>
-      <c r="I3" s="417"/>
-      <c r="J3" s="424"/>
-      <c r="K3" s="424"/>
-      <c r="L3" s="418"/>
-      <c r="M3" s="409"/>
-      <c r="N3" s="410"/>
-      <c r="O3" s="411"/>
-      <c r="P3" s="417"/>
-      <c r="Q3" s="418"/>
-      <c r="R3" s="417"/>
-      <c r="S3" s="418"/>
-      <c r="T3" s="417"/>
-      <c r="U3" s="418"/>
-      <c r="V3" s="409"/>
-      <c r="W3" s="410"/>
-      <c r="X3" s="411"/>
+      <c r="B3" s="428"/>
+      <c r="C3" s="380"/>
+      <c r="D3" s="381"/>
+      <c r="E3" s="381"/>
+      <c r="F3" s="381"/>
+      <c r="G3" s="381"/>
+      <c r="H3" s="382"/>
+      <c r="I3" s="423"/>
+      <c r="J3" s="430"/>
+      <c r="K3" s="430"/>
+      <c r="L3" s="424"/>
+      <c r="M3" s="415"/>
+      <c r="N3" s="416"/>
+      <c r="O3" s="417"/>
+      <c r="P3" s="423"/>
+      <c r="Q3" s="424"/>
+      <c r="R3" s="423"/>
+      <c r="S3" s="424"/>
+      <c r="T3" s="423"/>
+      <c r="U3" s="424"/>
+      <c r="V3" s="415"/>
+      <c r="W3" s="416"/>
+      <c r="X3" s="417"/>
     </row>
     <row r="4" spans="1:24" s="219" customFormat="1" ht="19.5" customHeight="1">
       <c r="A4" s="218"/>
       <c r="B4" s="250" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
-      <c r="C4" s="412" t="s">
+      <c r="C4" s="418" t="s">
+        <v>549</v>
+      </c>
+      <c r="D4" s="419"/>
+      <c r="E4" s="419"/>
+      <c r="F4" s="419"/>
+      <c r="G4" s="419"/>
+      <c r="H4" s="420"/>
+      <c r="I4" s="393" t="s">
+        <v>550</v>
+      </c>
+      <c r="J4" s="394"/>
+      <c r="K4" s="394"/>
+      <c r="L4" s="395"/>
+      <c r="M4" s="396" t="s">
         <v>551</v>
       </c>
-      <c r="D4" s="413"/>
-      <c r="E4" s="413"/>
-      <c r="F4" s="413"/>
-      <c r="G4" s="413"/>
-      <c r="H4" s="414"/>
-      <c r="I4" s="387" t="s">
+      <c r="N4" s="397"/>
+      <c r="O4" s="398"/>
+      <c r="P4" s="399" t="s">
         <v>552</v>
       </c>
-      <c r="J4" s="388"/>
-      <c r="K4" s="388"/>
-      <c r="L4" s="389"/>
-      <c r="M4" s="390" t="s">
+      <c r="Q4" s="400"/>
+      <c r="R4" s="425" t="s">
         <v>553</v>
       </c>
-      <c r="N4" s="391"/>
-      <c r="O4" s="392"/>
-      <c r="P4" s="393" t="s">
+      <c r="S4" s="426"/>
+      <c r="T4" s="418"/>
+      <c r="U4" s="420"/>
+      <c r="V4" s="418" t="s">
         <v>554</v>
       </c>
-      <c r="Q4" s="394"/>
-      <c r="R4" s="419" t="s">
-        <v>555</v>
-      </c>
-      <c r="S4" s="420"/>
-      <c r="T4" s="412"/>
-      <c r="U4" s="414"/>
-      <c r="V4" s="412" t="s">
-        <v>556</v>
-      </c>
-      <c r="W4" s="413"/>
-      <c r="X4" s="414"/>
+      <c r="W4" s="419"/>
+      <c r="X4" s="420"/>
     </row>
     <row r="5" spans="1:24" s="219" customFormat="1" ht="19.5" customHeight="1">
       <c r="A5" s="218"/>
       <c r="B5" s="220" t="s">
         <v>501</v>
       </c>
-      <c r="C5" s="380"/>
-      <c r="D5" s="382"/>
-      <c r="E5" s="382"/>
-      <c r="F5" s="382"/>
-      <c r="G5" s="382"/>
-      <c r="H5" s="381"/>
-      <c r="I5" s="398" t="s">
+      <c r="C5" s="383"/>
+      <c r="D5" s="385"/>
+      <c r="E5" s="385"/>
+      <c r="F5" s="385"/>
+      <c r="G5" s="385"/>
+      <c r="H5" s="384"/>
+      <c r="I5" s="404" t="s">
+        <v>555</v>
+      </c>
+      <c r="J5" s="405"/>
+      <c r="K5" s="405"/>
+      <c r="L5" s="406"/>
+      <c r="M5" s="407" t="s">
+        <v>556</v>
+      </c>
+      <c r="N5" s="408"/>
+      <c r="O5" s="409"/>
+      <c r="P5" s="410" t="s">
         <v>557</v>
       </c>
-      <c r="J5" s="399"/>
-      <c r="K5" s="399"/>
-      <c r="L5" s="400"/>
-      <c r="M5" s="401" t="s">
+      <c r="Q5" s="411"/>
+      <c r="R5" s="401" t="s">
         <v>558</v>
       </c>
-      <c r="N5" s="402"/>
-      <c r="O5" s="403"/>
-      <c r="P5" s="404" t="s">
-        <v>559</v>
-      </c>
-      <c r="Q5" s="405"/>
-      <c r="R5" s="395" t="s">
-        <v>560</v>
-      </c>
-      <c r="S5" s="381"/>
-      <c r="T5" s="380"/>
-      <c r="U5" s="381"/>
-      <c r="V5" s="380"/>
-      <c r="W5" s="382"/>
-      <c r="X5" s="381"/>
+      <c r="S5" s="384"/>
+      <c r="T5" s="383"/>
+      <c r="U5" s="384"/>
+      <c r="V5" s="383"/>
+      <c r="W5" s="385"/>
+      <c r="X5" s="384"/>
     </row>
     <row r="6" spans="1:24" s="219" customFormat="1" ht="30.75" customHeight="1">
       <c r="A6" s="218"/>
       <c r="B6" s="221"/>
-      <c r="C6" s="384"/>
-      <c r="D6" s="385"/>
-      <c r="E6" s="385"/>
-      <c r="F6" s="385"/>
-      <c r="G6" s="385"/>
-      <c r="H6" s="385"/>
-      <c r="I6" s="385"/>
-      <c r="J6" s="385"/>
-      <c r="K6" s="385"/>
-      <c r="L6" s="385"/>
-      <c r="M6" s="385"/>
-      <c r="N6" s="385"/>
-      <c r="O6" s="385"/>
-      <c r="P6" s="385"/>
-      <c r="Q6" s="385"/>
-      <c r="R6" s="385"/>
-      <c r="S6" s="385"/>
-      <c r="T6" s="385"/>
-      <c r="U6" s="385"/>
-      <c r="V6" s="385"/>
-      <c r="W6" s="385"/>
-      <c r="X6" s="386"/>
+      <c r="C6" s="390"/>
+      <c r="D6" s="391"/>
+      <c r="E6" s="391"/>
+      <c r="F6" s="391"/>
+      <c r="G6" s="391"/>
+      <c r="H6" s="391"/>
+      <c r="I6" s="391"/>
+      <c r="J6" s="391"/>
+      <c r="K6" s="391"/>
+      <c r="L6" s="391"/>
+      <c r="M6" s="391"/>
+      <c r="N6" s="391"/>
+      <c r="O6" s="391"/>
+      <c r="P6" s="391"/>
+      <c r="Q6" s="391"/>
+      <c r="R6" s="391"/>
+      <c r="S6" s="391"/>
+      <c r="T6" s="391"/>
+      <c r="U6" s="391"/>
+      <c r="V6" s="391"/>
+      <c r="W6" s="391"/>
+      <c r="X6" s="392"/>
     </row>
     <row r="7" spans="1:24" s="219" customFormat="1" ht="19.5" customHeight="1">
       <c r="A7" s="218"/>
-      <c r="B7" s="380" t="s">
+      <c r="B7" s="383" t="s">
         <v>502</v>
       </c>
-      <c r="C7" s="382"/>
+      <c r="C7" s="385"/>
       <c r="D7" s="222"/>
       <c r="E7" s="222"/>
       <c r="F7" s="222"/>
       <c r="G7" s="222"/>
       <c r="H7" s="223"/>
-      <c r="I7" s="387" t="s">
+      <c r="I7" s="393" t="s">
+        <v>555</v>
+      </c>
+      <c r="J7" s="394"/>
+      <c r="K7" s="394"/>
+      <c r="L7" s="395"/>
+      <c r="M7" s="396" t="s">
+        <v>556</v>
+      </c>
+      <c r="N7" s="397"/>
+      <c r="O7" s="398"/>
+      <c r="P7" s="399" t="s">
         <v>557</v>
       </c>
-      <c r="J7" s="388"/>
-      <c r="K7" s="388"/>
-      <c r="L7" s="389"/>
-      <c r="M7" s="390" t="s">
-        <v>558</v>
-      </c>
-      <c r="N7" s="391"/>
-      <c r="O7" s="392"/>
-      <c r="P7" s="393" t="s">
-        <v>559</v>
-      </c>
-      <c r="Q7" s="394"/>
-      <c r="R7" s="395"/>
-      <c r="S7" s="396"/>
-      <c r="T7" s="380"/>
-      <c r="U7" s="381"/>
-      <c r="V7" s="380"/>
-      <c r="W7" s="382"/>
-      <c r="X7" s="381"/>
+      <c r="Q7" s="400"/>
+      <c r="R7" s="401"/>
+      <c r="S7" s="402"/>
+      <c r="T7" s="383"/>
+      <c r="U7" s="384"/>
+      <c r="V7" s="383"/>
+      <c r="W7" s="385"/>
+      <c r="X7" s="384"/>
     </row>
     <row r="8" spans="1:24" s="219" customFormat="1" ht="19.5" customHeight="1">
       <c r="A8" s="218"/>
@@ -11418,22 +11614,22 @@
     <row r="10" spans="1:24" ht="19.5" customHeight="1">
       <c r="G10" s="231"/>
       <c r="H10" s="231"/>
-      <c r="O10" s="374" t="s">
-        <v>570</v>
+      <c r="O10" s="377" t="s">
+        <v>568</v>
       </c>
-      <c r="P10" s="375"/>
-      <c r="Q10" s="375"/>
-      <c r="R10" s="376"/>
-      <c r="S10" s="397" t="s">
+      <c r="P10" s="378"/>
+      <c r="Q10" s="378"/>
+      <c r="R10" s="379"/>
+      <c r="S10" s="403" t="s">
         <v>506</v>
       </c>
-      <c r="T10" s="397"/>
-      <c r="U10" s="397"/>
-      <c r="V10" s="397" t="s">
+      <c r="T10" s="403"/>
+      <c r="U10" s="403"/>
+      <c r="V10" s="403" t="s">
         <v>507</v>
       </c>
-      <c r="W10" s="397"/>
-      <c r="X10" s="397"/>
+      <c r="W10" s="403"/>
+      <c r="X10" s="403"/>
     </row>
     <row r="11" spans="1:24" ht="22.8" customHeight="1">
       <c r="B11" s="232" t="s">
@@ -11441,33 +11637,33 @@
       </c>
       <c r="C11" s="232"/>
       <c r="D11" s="232"/>
-      <c r="E11" s="503" t="s">
-        <v>561</v>
+      <c r="E11" s="372" t="s">
+        <v>559</v>
       </c>
-      <c r="F11" s="503"/>
-      <c r="G11" s="503"/>
-      <c r="H11" s="503"/>
-      <c r="I11" s="503"/>
-      <c r="J11" s="503"/>
+      <c r="F11" s="372"/>
+      <c r="G11" s="372"/>
+      <c r="H11" s="372"/>
+      <c r="I11" s="372"/>
+      <c r="J11" s="372"/>
       <c r="K11" s="252" t="s">
         <v>501</v>
       </c>
       <c r="L11" s="233" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="M11" s="251" t="s">
         <v>505</v>
       </c>
-      <c r="O11" s="377"/>
-      <c r="P11" s="378"/>
-      <c r="Q11" s="378"/>
-      <c r="R11" s="379"/>
-      <c r="S11" s="397"/>
-      <c r="T11" s="397"/>
-      <c r="U11" s="397"/>
-      <c r="V11" s="397"/>
-      <c r="W11" s="397"/>
-      <c r="X11" s="397"/>
+      <c r="O11" s="380"/>
+      <c r="P11" s="381"/>
+      <c r="Q11" s="381"/>
+      <c r="R11" s="382"/>
+      <c r="S11" s="403"/>
+      <c r="T11" s="403"/>
+      <c r="U11" s="403"/>
+      <c r="V11" s="403"/>
+      <c r="W11" s="403"/>
+      <c r="X11" s="403"/>
     </row>
     <row r="12" spans="1:24" ht="27.6" customHeight="1">
       <c r="B12" s="232" t="s">
@@ -11475,59 +11671,59 @@
       </c>
       <c r="C12" s="232"/>
       <c r="D12" s="232"/>
-      <c r="E12" s="370" t="s">
-        <v>562</v>
+      <c r="E12" s="373" t="s">
+        <v>560</v>
       </c>
-      <c r="F12" s="370"/>
-      <c r="G12" s="370"/>
-      <c r="H12" s="370"/>
-      <c r="I12" s="370"/>
-      <c r="J12" s="370"/>
+      <c r="F12" s="373"/>
+      <c r="G12" s="373"/>
+      <c r="H12" s="373"/>
+      <c r="I12" s="373"/>
+      <c r="J12" s="373"/>
       <c r="K12" s="253" t="s">
         <v>501</v>
       </c>
       <c r="L12" s="234" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="M12" s="251" t="s">
         <v>505</v>
       </c>
-      <c r="O12" s="504" t="s">
+      <c r="O12" s="374" t="s">
+        <v>562</v>
+      </c>
+      <c r="P12" s="375"/>
+      <c r="Q12" s="375"/>
+      <c r="R12" s="376"/>
+      <c r="S12" s="386" t="s">
+        <v>563</v>
+      </c>
+      <c r="T12" s="387"/>
+      <c r="U12" s="388"/>
+      <c r="V12" s="386" t="s">
         <v>564</v>
       </c>
-      <c r="P12" s="505"/>
-      <c r="Q12" s="505"/>
-      <c r="R12" s="506"/>
-      <c r="S12" s="371" t="s">
-        <v>565</v>
-      </c>
-      <c r="T12" s="372"/>
-      <c r="U12" s="373"/>
-      <c r="V12" s="371" t="s">
-        <v>566</v>
-      </c>
-      <c r="W12" s="372"/>
-      <c r="X12" s="373"/>
+      <c r="W12" s="387"/>
+      <c r="X12" s="388"/>
     </row>
     <row r="13" spans="1:24" ht="27" customHeight="1">
-      <c r="B13" s="383" t="s">
+      <c r="B13" s="389" t="s">
         <v>509</v>
       </c>
-      <c r="C13" s="383"/>
-      <c r="D13" s="383"/>
-      <c r="E13" s="370" t="s">
-        <v>563</v>
+      <c r="C13" s="389"/>
+      <c r="D13" s="389"/>
+      <c r="E13" s="373" t="s">
+        <v>561</v>
       </c>
-      <c r="F13" s="370"/>
-      <c r="G13" s="370"/>
-      <c r="H13" s="370"/>
-      <c r="I13" s="370"/>
-      <c r="J13" s="370"/>
+      <c r="F13" s="373"/>
+      <c r="G13" s="373"/>
+      <c r="H13" s="373"/>
+      <c r="I13" s="373"/>
+      <c r="J13" s="373"/>
       <c r="K13" s="253" t="s">
         <v>501</v>
       </c>
       <c r="L13" s="234" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="M13" s="251" t="s">
         <v>505</v>
@@ -11544,12 +11740,12 @@
       <c r="X13" s="235"/>
     </row>
     <row r="14" spans="1:24" ht="19.5" customHeight="1">
-      <c r="E14" s="369"/>
-      <c r="F14" s="369"/>
-      <c r="G14" s="369"/>
-      <c r="H14" s="369"/>
-      <c r="I14" s="369"/>
-      <c r="J14" s="369"/>
+      <c r="E14" s="371"/>
+      <c r="F14" s="371"/>
+      <c r="G14" s="371"/>
+      <c r="H14" s="371"/>
+      <c r="I14" s="371"/>
+      <c r="J14" s="371"/>
       <c r="O14" s="235"/>
       <c r="P14" s="235"/>
       <c r="Q14" s="235"/>
@@ -11562,21 +11758,21 @@
       <c r="X14" s="235"/>
     </row>
     <row r="15" spans="1:24" ht="18.75" customHeight="1">
-      <c r="A15" s="367"/>
-      <c r="B15" s="367"/>
-      <c r="C15" s="367" t="s">
+      <c r="A15" s="369"/>
+      <c r="B15" s="369"/>
+      <c r="C15" s="369" t="s">
         <v>510</v>
       </c>
-      <c r="D15" s="367"/>
+      <c r="D15" s="369"/>
       <c r="E15" s="217" t="s">
         <v>8</v>
       </c>
-      <c r="F15" s="368" t="s">
-        <v>572</v>
+      <c r="F15" s="370" t="s">
+        <v>570</v>
       </c>
-      <c r="G15" s="368"/>
-      <c r="H15" s="368"/>
-      <c r="I15" s="368"/>
+      <c r="G15" s="370"/>
+      <c r="H15" s="370"/>
+      <c r="I15" s="370"/>
       <c r="J15" s="217" t="s">
         <v>511</v>
       </c>
@@ -11592,21 +11788,21 @@
       <c r="X15" s="235"/>
     </row>
     <row r="16" spans="1:24" ht="19.5" customHeight="1">
-      <c r="A16" s="367"/>
-      <c r="B16" s="367"/>
-      <c r="C16" s="367" t="s">
+      <c r="A16" s="369"/>
+      <c r="B16" s="369"/>
+      <c r="C16" s="369" t="s">
         <v>512</v>
       </c>
-      <c r="D16" s="367"/>
+      <c r="D16" s="369"/>
       <c r="E16" s="217" t="s">
         <v>8</v>
       </c>
-      <c r="F16" s="368" t="s">
-        <v>573</v>
+      <c r="F16" s="370" t="s">
+        <v>571</v>
       </c>
-      <c r="G16" s="368"/>
-      <c r="H16" s="368"/>
-      <c r="I16" s="368"/>
+      <c r="G16" s="370"/>
+      <c r="H16" s="370"/>
+      <c r="I16" s="370"/>
       <c r="J16" s="217" t="s">
         <v>513</v>
       </c>
@@ -11622,21 +11818,21 @@
       <c r="X16" s="235"/>
     </row>
     <row r="17" spans="1:36" ht="19.5" customHeight="1">
-      <c r="A17" s="367"/>
-      <c r="B17" s="367"/>
-      <c r="C17" s="367" t="s">
+      <c r="A17" s="369"/>
+      <c r="B17" s="369"/>
+      <c r="C17" s="369" t="s">
         <v>514</v>
       </c>
-      <c r="D17" s="367"/>
+      <c r="D17" s="369"/>
       <c r="E17" s="217" t="s">
         <v>515</v>
       </c>
-      <c r="F17" s="368" t="s">
-        <v>574</v>
+      <c r="F17" s="370" t="s">
+        <v>572</v>
       </c>
-      <c r="G17" s="368"/>
-      <c r="H17" s="368"/>
-      <c r="I17" s="368"/>
+      <c r="G17" s="370"/>
+      <c r="H17" s="370"/>
+      <c r="I17" s="370"/>
       <c r="J17" s="217" t="s">
         <v>516</v>
       </c>
@@ -11680,9 +11876,9 @@
       <c r="C20" s="360"/>
       <c r="D20" s="360"/>
       <c r="E20" s="360"/>
-      <c r="F20" s="366"/>
+      <c r="F20" s="368"/>
       <c r="G20" s="351" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="H20" s="352"/>
       <c r="I20" s="352"/>
@@ -11692,10 +11888,10 @@
       <c r="M20" s="238" t="s">
         <v>519</v>
       </c>
-      <c r="N20" s="507" t="s">
-        <v>580</v>
+      <c r="N20" s="353" t="s">
+        <v>578</v>
       </c>
-      <c r="O20" s="508"/>
+      <c r="O20" s="354"/>
       <c r="P20" s="239"/>
       <c r="Q20" s="240" t="s">
         <v>435</v>
@@ -11703,7 +11899,7 @@
       <c r="R20" s="240"/>
       <c r="S20" s="241"/>
       <c r="T20" s="347" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="U20" s="347"/>
       <c r="V20" s="347"/>
@@ -11719,7 +11915,7 @@
       <c r="E21" s="357"/>
       <c r="F21" s="358"/>
       <c r="G21" s="351" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="H21" s="352"/>
       <c r="I21" s="352"/>
@@ -11729,10 +11925,10 @@
       <c r="M21" s="238" t="s">
         <v>519</v>
       </c>
-      <c r="N21" s="507" t="s">
-        <v>582</v>
+      <c r="N21" s="353" t="s">
+        <v>580</v>
       </c>
-      <c r="O21" s="508"/>
+      <c r="O21" s="354"/>
       <c r="P21" s="242"/>
       <c r="Q21" s="243" t="s">
         <v>436</v>
@@ -11740,7 +11936,7 @@
       <c r="R21" s="243"/>
       <c r="S21" s="244"/>
       <c r="T21" s="348" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="U21" s="348" t="s">
         <v>523</v>
@@ -11762,7 +11958,7 @@
       <c r="E22" s="360"/>
       <c r="F22" s="245"/>
       <c r="G22" s="349" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="H22" s="350"/>
       <c r="I22" s="350"/>
@@ -11772,21 +11968,21 @@
       <c r="M22" s="238" t="s">
         <v>519</v>
       </c>
-      <c r="N22" s="507" t="s">
-        <v>583</v>
+      <c r="N22" s="353" t="s">
+        <v>581</v>
       </c>
-      <c r="O22" s="508"/>
-      <c r="P22" s="353" t="s">
+      <c r="O22" s="354"/>
+      <c r="P22" s="361" t="s">
         <v>437</v>
       </c>
-      <c r="Q22" s="361"/>
-      <c r="R22" s="361"/>
-      <c r="S22" s="354"/>
-      <c r="T22" s="362"/>
-      <c r="U22" s="363"/>
-      <c r="V22" s="363"/>
-      <c r="W22" s="363"/>
-      <c r="X22" s="364"/>
+      <c r="Q22" s="362"/>
+      <c r="R22" s="362"/>
+      <c r="S22" s="363"/>
+      <c r="T22" s="364"/>
+      <c r="U22" s="365"/>
+      <c r="V22" s="365"/>
+      <c r="W22" s="365"/>
+      <c r="X22" s="366"/>
     </row>
     <row r="23" spans="1:36" ht="18.75" customHeight="1"/>
     <row r="24" spans="1:36" ht="18.75" customHeight="1">
@@ -11910,10 +12106,10 @@
     </row>
     <row r="28" spans="1:36" ht="19.5" customHeight="1">
       <c r="A28" s="211"/>
-      <c r="B28" s="365" t="s">
+      <c r="B28" s="367" t="s">
         <v>424</v>
       </c>
-      <c r="C28" s="365"/>
+      <c r="C28" s="367"/>
       <c r="D28" s="344" t="s">
         <v>55</v>
       </c>
@@ -13479,10 +13675,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BW1052"/>
+  <dimension ref="A1:BW1053"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C83" sqref="C83:D85"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A25" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G41" sqref="G41:H41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.33203125" defaultRowHeight="15.6"/>
@@ -13518,37 +13714,37 @@
       <c r="A2" s="106" t="s">
         <v>42</v>
       </c>
-      <c r="B2" s="466" t="s">
+      <c r="B2" s="471" t="s">
         <v>52</v>
       </c>
-      <c r="C2" s="466"/>
-      <c r="D2" s="466"/>
-      <c r="E2" s="449" t="s">
+      <c r="C2" s="471"/>
+      <c r="D2" s="471"/>
+      <c r="E2" s="454" t="s">
         <v>525</v>
       </c>
-      <c r="F2" s="450"/>
-      <c r="G2" s="450"/>
-      <c r="H2" s="450"/>
-      <c r="I2" s="450"/>
-      <c r="J2" s="450"/>
-      <c r="K2" s="450"/>
-      <c r="L2" s="450"/>
-      <c r="M2" s="450"/>
-      <c r="N2" s="450"/>
-      <c r="O2" s="450"/>
-      <c r="P2" s="450"/>
-      <c r="Q2" s="450"/>
-      <c r="R2" s="450"/>
-      <c r="S2" s="450"/>
-      <c r="T2" s="450"/>
-      <c r="U2" s="450"/>
-      <c r="V2" s="450"/>
-      <c r="W2" s="450"/>
-      <c r="X2" s="450"/>
-      <c r="Y2" s="450"/>
-      <c r="Z2" s="450"/>
-      <c r="AA2" s="450"/>
-      <c r="AB2" s="451"/>
+      <c r="F2" s="455"/>
+      <c r="G2" s="455"/>
+      <c r="H2" s="455"/>
+      <c r="I2" s="455"/>
+      <c r="J2" s="455"/>
+      <c r="K2" s="455"/>
+      <c r="L2" s="455"/>
+      <c r="M2" s="455"/>
+      <c r="N2" s="455"/>
+      <c r="O2" s="455"/>
+      <c r="P2" s="455"/>
+      <c r="Q2" s="455"/>
+      <c r="R2" s="455"/>
+      <c r="S2" s="455"/>
+      <c r="T2" s="455"/>
+      <c r="U2" s="455"/>
+      <c r="V2" s="455"/>
+      <c r="W2" s="455"/>
+      <c r="X2" s="455"/>
+      <c r="Y2" s="455"/>
+      <c r="Z2" s="455"/>
+      <c r="AA2" s="455"/>
+      <c r="AB2" s="456"/>
       <c r="AC2" s="107"/>
       <c r="AD2" s="107"/>
       <c r="AE2" s="107"/>
@@ -13558,54 +13754,54 @@
       <c r="AI2" s="108"/>
       <c r="AJ2" s="108"/>
       <c r="AP2" s="105"/>
-      <c r="BF2" s="467"/>
-      <c r="BG2" s="467"/>
-      <c r="BH2" s="467"/>
-      <c r="BI2" s="467"/>
-      <c r="BJ2" s="467"/>
-      <c r="BK2" s="467"/>
-      <c r="BL2" s="467"/>
-      <c r="BM2" s="467"/>
-      <c r="BN2" s="467"/>
-      <c r="BO2" s="467"/>
-      <c r="BP2" s="467"/>
-      <c r="BQ2" s="467"/>
-      <c r="BR2" s="467"/>
-      <c r="BS2" s="467"/>
+      <c r="BF2" s="472"/>
+      <c r="BG2" s="472"/>
+      <c r="BH2" s="472"/>
+      <c r="BI2" s="472"/>
+      <c r="BJ2" s="472"/>
+      <c r="BK2" s="472"/>
+      <c r="BL2" s="472"/>
+      <c r="BM2" s="472"/>
+      <c r="BN2" s="472"/>
+      <c r="BO2" s="472"/>
+      <c r="BP2" s="472"/>
+      <c r="BQ2" s="472"/>
+      <c r="BR2" s="472"/>
+      <c r="BS2" s="472"/>
     </row>
     <row r="3" spans="1:75" ht="46.8" customHeight="1" thickBot="1">
       <c r="A3" s="106" t="s">
         <v>43</v>
       </c>
-      <c r="B3" s="466" t="s">
+      <c r="B3" s="471" t="s">
         <v>53</v>
       </c>
-      <c r="C3" s="466"/>
-      <c r="D3" s="466"/>
-      <c r="E3" s="452"/>
-      <c r="F3" s="453"/>
-      <c r="G3" s="453"/>
-      <c r="H3" s="453"/>
-      <c r="I3" s="453"/>
-      <c r="J3" s="453"/>
-      <c r="K3" s="453"/>
-      <c r="L3" s="453"/>
-      <c r="M3" s="453"/>
-      <c r="N3" s="453"/>
-      <c r="O3" s="453"/>
-      <c r="P3" s="453"/>
-      <c r="Q3" s="453"/>
-      <c r="R3" s="453"/>
-      <c r="S3" s="453"/>
-      <c r="T3" s="453"/>
-      <c r="U3" s="453"/>
-      <c r="V3" s="453"/>
-      <c r="W3" s="453"/>
-      <c r="X3" s="453"/>
-      <c r="Y3" s="453"/>
-      <c r="Z3" s="453"/>
-      <c r="AA3" s="453"/>
-      <c r="AB3" s="454"/>
+      <c r="C3" s="471"/>
+      <c r="D3" s="471"/>
+      <c r="E3" s="457"/>
+      <c r="F3" s="458"/>
+      <c r="G3" s="458"/>
+      <c r="H3" s="458"/>
+      <c r="I3" s="458"/>
+      <c r="J3" s="458"/>
+      <c r="K3" s="458"/>
+      <c r="L3" s="458"/>
+      <c r="M3" s="458"/>
+      <c r="N3" s="458"/>
+      <c r="O3" s="458"/>
+      <c r="P3" s="458"/>
+      <c r="Q3" s="458"/>
+      <c r="R3" s="458"/>
+      <c r="S3" s="458"/>
+      <c r="T3" s="458"/>
+      <c r="U3" s="458"/>
+      <c r="V3" s="458"/>
+      <c r="W3" s="458"/>
+      <c r="X3" s="458"/>
+      <c r="Y3" s="458"/>
+      <c r="Z3" s="458"/>
+      <c r="AA3" s="458"/>
+      <c r="AB3" s="459"/>
       <c r="AC3" s="107"/>
       <c r="AD3" s="107"/>
       <c r="AE3" s="107"/>
@@ -13714,22 +13910,22 @@
       <c r="BO4" s="103"/>
     </row>
     <row r="5" spans="1:75" ht="18" customHeight="1">
-      <c r="A5" s="474" t="s">
+      <c r="A5" s="479" t="s">
         <v>295</v>
       </c>
-      <c r="B5" s="455" t="s">
+      <c r="B5" s="460" t="s">
         <v>388</v>
       </c>
-      <c r="C5" s="469" t="s">
+      <c r="C5" s="474" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="457" t="s">
+      <c r="D5" s="462" t="s">
         <v>389</v>
       </c>
-      <c r="E5" s="462" t="s">
+      <c r="E5" s="467" t="s">
         <v>385</v>
       </c>
-      <c r="F5" s="463"/>
+      <c r="F5" s="468"/>
       <c r="G5" s="113"/>
       <c r="H5" s="113"/>
       <c r="I5" s="113"/>
@@ -13756,10 +13952,10 @@
       <c r="AD5" s="117"/>
       <c r="AE5" s="118"/>
       <c r="AF5" s="118"/>
-      <c r="AG5" s="468"/>
-      <c r="AH5" s="468"/>
-      <c r="AI5" s="468"/>
-      <c r="AJ5" s="468"/>
+      <c r="AG5" s="473"/>
+      <c r="AH5" s="473"/>
+      <c r="AI5" s="473"/>
+      <c r="AJ5" s="473"/>
       <c r="AK5" s="119"/>
       <c r="AL5" s="120"/>
       <c r="AM5" s="121"/>
@@ -13801,12 +13997,12 @@
       <c r="BW5" s="121"/>
     </row>
     <row r="6" spans="1:75" ht="18" customHeight="1">
-      <c r="A6" s="475"/>
-      <c r="B6" s="456"/>
-      <c r="C6" s="470"/>
-      <c r="D6" s="458"/>
-      <c r="E6" s="464"/>
-      <c r="F6" s="465"/>
+      <c r="A6" s="480"/>
+      <c r="B6" s="461"/>
+      <c r="C6" s="475"/>
+      <c r="D6" s="463"/>
+      <c r="E6" s="469"/>
+      <c r="F6" s="470"/>
       <c r="G6" s="74"/>
       <c r="H6" s="74"/>
       <c r="I6" s="74"/>
@@ -13831,12 +14027,12 @@
       <c r="AB6" s="74"/>
       <c r="AC6" s="74"/>
       <c r="AD6" s="74"/>
-      <c r="AE6" s="471"/>
-      <c r="AF6" s="471"/>
+      <c r="AE6" s="476"/>
+      <c r="AF6" s="476"/>
       <c r="AG6" s="122"/>
       <c r="AH6" s="123"/>
-      <c r="AI6" s="471"/>
-      <c r="AJ6" s="471"/>
+      <c r="AI6" s="476"/>
+      <c r="AJ6" s="476"/>
       <c r="AK6" s="123"/>
       <c r="AL6" s="124"/>
       <c r="AM6" s="124"/>
@@ -13878,22 +14074,22 @@
       <c r="BW6" s="125"/>
     </row>
     <row r="7" spans="1:75">
-      <c r="A7" s="459" t="s">
+      <c r="A7" s="464" t="s">
         <v>303</v>
       </c>
-      <c r="B7" s="472" t="s">
+      <c r="B7" s="477" t="s">
         <v>304</v>
       </c>
-      <c r="C7" s="459" t="s">
+      <c r="C7" s="464" t="s">
         <v>305</v>
       </c>
-      <c r="D7" s="461" t="s">
+      <c r="D7" s="466" t="s">
         <v>306</v>
       </c>
-      <c r="E7" s="427" t="s">
+      <c r="E7" s="443" t="s">
         <v>440</v>
       </c>
-      <c r="F7" s="428"/>
+      <c r="F7" s="444"/>
       <c r="G7" s="74"/>
       <c r="H7" s="74"/>
       <c r="I7" s="74"/>
@@ -13943,14 +14139,14 @@
       <c r="BW7" s="132"/>
     </row>
     <row r="8" spans="1:75">
-      <c r="A8" s="459"/>
-      <c r="B8" s="473"/>
-      <c r="C8" s="459"/>
-      <c r="D8" s="461"/>
-      <c r="E8" s="427" t="s">
+      <c r="A8" s="464"/>
+      <c r="B8" s="478"/>
+      <c r="C8" s="464"/>
+      <c r="D8" s="466"/>
+      <c r="E8" s="443" t="s">
         <v>390</v>
       </c>
-      <c r="F8" s="428"/>
+      <c r="F8" s="444"/>
       <c r="G8" s="74"/>
       <c r="H8" s="74"/>
       <c r="I8" s="74"/>
@@ -13997,22 +14193,22 @@
       <c r="BW8" s="132"/>
     </row>
     <row r="9" spans="1:75" ht="15.6" customHeight="1">
-      <c r="A9" s="459" t="s">
+      <c r="A9" s="464" t="s">
         <v>307</v>
       </c>
-      <c r="B9" s="460" t="s">
+      <c r="B9" s="465" t="s">
         <v>308</v>
       </c>
-      <c r="C9" s="459" t="s">
+      <c r="C9" s="464" t="s">
         <v>309</v>
       </c>
-      <c r="D9" s="461" t="s">
+      <c r="D9" s="466" t="s">
         <v>310</v>
       </c>
-      <c r="E9" s="427" t="s">
+      <c r="E9" s="443" t="s">
         <v>441</v>
       </c>
-      <c r="F9" s="428"/>
+      <c r="F9" s="444"/>
       <c r="G9" s="74"/>
       <c r="H9" s="74"/>
       <c r="I9" s="74"/>
@@ -14059,14 +14255,14 @@
       <c r="BW9" s="132"/>
     </row>
     <row r="10" spans="1:75" ht="15.6" customHeight="1">
-      <c r="A10" s="459"/>
-      <c r="B10" s="460"/>
-      <c r="C10" s="459"/>
-      <c r="D10" s="461"/>
-      <c r="E10" s="427" t="s">
+      <c r="A10" s="464"/>
+      <c r="B10" s="465"/>
+      <c r="C10" s="464"/>
+      <c r="D10" s="466"/>
+      <c r="E10" s="443" t="s">
         <v>391</v>
       </c>
-      <c r="F10" s="428"/>
+      <c r="F10" s="444"/>
       <c r="G10" s="74"/>
       <c r="H10" s="74"/>
       <c r="I10" s="74"/>
@@ -14117,22 +14313,22 @@
       <c r="BW10" s="132"/>
     </row>
     <row r="11" spans="1:75" ht="15.6" customHeight="1">
-      <c r="A11" s="459" t="s">
+      <c r="A11" s="464" t="s">
         <v>311</v>
       </c>
-      <c r="B11" s="460" t="s">
+      <c r="B11" s="465" t="s">
         <v>312</v>
       </c>
-      <c r="C11" s="459" t="s">
+      <c r="C11" s="464" t="s">
         <v>313</v>
       </c>
-      <c r="D11" s="461" t="s">
+      <c r="D11" s="466" t="s">
         <v>314</v>
       </c>
-      <c r="E11" s="427" t="s">
+      <c r="E11" s="443" t="s">
         <v>442</v>
       </c>
-      <c r="F11" s="428"/>
+      <c r="F11" s="444"/>
       <c r="G11" s="74"/>
       <c r="H11" s="74"/>
       <c r="I11" s="74"/>
@@ -14184,14 +14380,14 @@
       <c r="BW11" s="132"/>
     </row>
     <row r="12" spans="1:75">
-      <c r="A12" s="459"/>
-      <c r="B12" s="460"/>
-      <c r="C12" s="459"/>
-      <c r="D12" s="461"/>
-      <c r="E12" s="427" t="s">
+      <c r="A12" s="464"/>
+      <c r="B12" s="465"/>
+      <c r="C12" s="464"/>
+      <c r="D12" s="466"/>
+      <c r="E12" s="443" t="s">
         <v>392</v>
       </c>
-      <c r="F12" s="428"/>
+      <c r="F12" s="444"/>
       <c r="G12" s="74"/>
       <c r="H12" s="74"/>
       <c r="I12" s="74"/>
@@ -14243,22 +14439,22 @@
       <c r="BW12" s="132"/>
     </row>
     <row r="13" spans="1:75" ht="15.6" customHeight="1">
-      <c r="A13" s="459" t="s">
+      <c r="A13" s="464" t="s">
         <v>315</v>
       </c>
-      <c r="B13" s="460" t="s">
+      <c r="B13" s="465" t="s">
         <v>316</v>
       </c>
-      <c r="C13" s="459" t="s">
+      <c r="C13" s="464" t="s">
         <v>317</v>
       </c>
-      <c r="D13" s="461" t="s">
+      <c r="D13" s="466" t="s">
         <v>318</v>
       </c>
-      <c r="E13" s="427" t="s">
+      <c r="E13" s="443" t="s">
         <v>443</v>
       </c>
-      <c r="F13" s="428"/>
+      <c r="F13" s="444"/>
       <c r="G13" s="74"/>
       <c r="H13" s="74"/>
       <c r="I13" s="74"/>
@@ -14310,14 +14506,14 @@
       <c r="BW13" s="132"/>
     </row>
     <row r="14" spans="1:75">
-      <c r="A14" s="459"/>
-      <c r="B14" s="460"/>
-      <c r="C14" s="459"/>
-      <c r="D14" s="461"/>
-      <c r="E14" s="427" t="s">
+      <c r="A14" s="464"/>
+      <c r="B14" s="465"/>
+      <c r="C14" s="464"/>
+      <c r="D14" s="466"/>
+      <c r="E14" s="443" t="s">
         <v>393</v>
       </c>
-      <c r="F14" s="428"/>
+      <c r="F14" s="444"/>
       <c r="G14" s="74"/>
       <c r="H14" s="74"/>
       <c r="I14" s="74"/>
@@ -14369,22 +14565,22 @@
       <c r="BW14" s="132"/>
     </row>
     <row r="15" spans="1:75" ht="15.6" customHeight="1">
-      <c r="A15" s="459" t="s">
+      <c r="A15" s="464" t="s">
         <v>319</v>
       </c>
-      <c r="B15" s="460" t="s">
+      <c r="B15" s="465" t="s">
         <v>320</v>
       </c>
-      <c r="C15" s="459" t="s">
+      <c r="C15" s="464" t="s">
         <v>321</v>
       </c>
-      <c r="D15" s="461" t="s">
+      <c r="D15" s="466" t="s">
         <v>322</v>
       </c>
-      <c r="E15" s="427" t="s">
+      <c r="E15" s="443" t="s">
         <v>444</v>
       </c>
-      <c r="F15" s="428"/>
+      <c r="F15" s="444"/>
       <c r="G15" s="74"/>
       <c r="H15" s="74"/>
       <c r="I15" s="74"/>
@@ -14436,14 +14632,14 @@
       <c r="BW15" s="132"/>
     </row>
     <row r="16" spans="1:75">
-      <c r="A16" s="459"/>
-      <c r="B16" s="460"/>
-      <c r="C16" s="459"/>
-      <c r="D16" s="461"/>
-      <c r="E16" s="427" t="s">
+      <c r="A16" s="464"/>
+      <c r="B16" s="465"/>
+      <c r="C16" s="464"/>
+      <c r="D16" s="466"/>
+      <c r="E16" s="443" t="s">
         <v>394</v>
       </c>
-      <c r="F16" s="428"/>
+      <c r="F16" s="444"/>
       <c r="G16" s="74"/>
       <c r="H16" s="74"/>
       <c r="I16" s="74"/>
@@ -14490,22 +14686,22 @@
       <c r="BW16" s="132"/>
     </row>
     <row r="17" spans="1:75" ht="15.6" customHeight="1">
-      <c r="A17" s="459" t="s">
+      <c r="A17" s="464" t="s">
         <v>323</v>
       </c>
-      <c r="B17" s="460" t="s">
+      <c r="B17" s="465" t="s">
         <v>324</v>
       </c>
-      <c r="C17" s="459" t="s">
+      <c r="C17" s="464" t="s">
         <v>325</v>
       </c>
-      <c r="D17" s="461" t="s">
+      <c r="D17" s="466" t="s">
         <v>326</v>
       </c>
-      <c r="E17" s="427" t="s">
+      <c r="E17" s="443" t="s">
         <v>445</v>
       </c>
-      <c r="F17" s="428"/>
+      <c r="F17" s="444"/>
       <c r="G17" s="74"/>
       <c r="H17" s="74"/>
       <c r="I17" s="74"/>
@@ -14552,14 +14748,14 @@
       <c r="BW17" s="132"/>
     </row>
     <row r="18" spans="1:75">
-      <c r="A18" s="459"/>
-      <c r="B18" s="460"/>
-      <c r="C18" s="459"/>
-      <c r="D18" s="461"/>
-      <c r="E18" s="427" t="s">
+      <c r="A18" s="464"/>
+      <c r="B18" s="465"/>
+      <c r="C18" s="464"/>
+      <c r="D18" s="466"/>
+      <c r="E18" s="443" t="s">
         <v>395</v>
       </c>
-      <c r="F18" s="428"/>
+      <c r="F18" s="444"/>
       <c r="G18" s="74"/>
       <c r="H18" s="74"/>
       <c r="I18" s="74"/>
@@ -14614,22 +14810,22 @@
       <c r="BW18" s="132"/>
     </row>
     <row r="19" spans="1:75" ht="15.6" customHeight="1">
-      <c r="A19" s="459" t="s">
+      <c r="A19" s="464" t="s">
         <v>327</v>
       </c>
-      <c r="B19" s="460" t="s">
+      <c r="B19" s="465" t="s">
         <v>328</v>
       </c>
-      <c r="C19" s="459" t="s">
+      <c r="C19" s="464" t="s">
         <v>329</v>
       </c>
-      <c r="D19" s="461" t="s">
+      <c r="D19" s="466" t="s">
         <v>330</v>
       </c>
-      <c r="E19" s="427" t="s">
+      <c r="E19" s="443" t="s">
         <v>446</v>
       </c>
-      <c r="F19" s="428"/>
+      <c r="F19" s="444"/>
       <c r="G19" s="74"/>
       <c r="H19" s="74"/>
       <c r="I19" s="74"/>
@@ -14676,14 +14872,14 @@
       <c r="BW19" s="132"/>
     </row>
     <row r="20" spans="1:75">
-      <c r="A20" s="459"/>
-      <c r="B20" s="460"/>
-      <c r="C20" s="459"/>
-      <c r="D20" s="461"/>
-      <c r="E20" s="427" t="s">
+      <c r="A20" s="464"/>
+      <c r="B20" s="465"/>
+      <c r="C20" s="464"/>
+      <c r="D20" s="466"/>
+      <c r="E20" s="443" t="s">
         <v>396</v>
       </c>
-      <c r="F20" s="428"/>
+      <c r="F20" s="444"/>
       <c r="G20" s="74"/>
       <c r="H20" s="74"/>
       <c r="I20" s="74"/>
@@ -14730,22 +14926,22 @@
       <c r="BW20" s="132"/>
     </row>
     <row r="21" spans="1:75" ht="15.6" customHeight="1">
-      <c r="A21" s="459" t="s">
+      <c r="A21" s="464" t="s">
         <v>331</v>
       </c>
-      <c r="B21" s="460" t="s">
+      <c r="B21" s="465" t="s">
         <v>332</v>
       </c>
-      <c r="C21" s="459" t="s">
+      <c r="C21" s="464" t="s">
         <v>333</v>
       </c>
-      <c r="D21" s="461" t="s">
+      <c r="D21" s="466" t="s">
         <v>334</v>
       </c>
-      <c r="E21" s="427" t="s">
+      <c r="E21" s="443" t="s">
         <v>447</v>
       </c>
-      <c r="F21" s="428"/>
+      <c r="F21" s="444"/>
       <c r="G21" s="74"/>
       <c r="H21" s="74"/>
       <c r="I21" s="74"/>
@@ -14792,14 +14988,14 @@
       <c r="BW21" s="132"/>
     </row>
     <row r="22" spans="1:75">
-      <c r="A22" s="459"/>
-      <c r="B22" s="460"/>
-      <c r="C22" s="459"/>
-      <c r="D22" s="461"/>
-      <c r="E22" s="427" t="s">
+      <c r="A22" s="464"/>
+      <c r="B22" s="465"/>
+      <c r="C22" s="464"/>
+      <c r="D22" s="466"/>
+      <c r="E22" s="443" t="s">
         <v>397</v>
       </c>
-      <c r="F22" s="428"/>
+      <c r="F22" s="444"/>
       <c r="G22" s="74"/>
       <c r="H22" s="74"/>
       <c r="I22" s="74"/>
@@ -14846,22 +15042,22 @@
       <c r="BW22" s="132"/>
     </row>
     <row r="23" spans="1:75" ht="15.6" customHeight="1">
-      <c r="A23" s="459" t="s">
+      <c r="A23" s="464" t="s">
         <v>335</v>
       </c>
-      <c r="B23" s="460" t="s">
+      <c r="B23" s="465" t="s">
         <v>336</v>
       </c>
-      <c r="C23" s="459" t="s">
+      <c r="C23" s="464" t="s">
         <v>337</v>
       </c>
-      <c r="D23" s="461" t="s">
+      <c r="D23" s="466" t="s">
         <v>338</v>
       </c>
-      <c r="E23" s="427" t="s">
+      <c r="E23" s="443" t="s">
         <v>448</v>
       </c>
-      <c r="F23" s="428"/>
+      <c r="F23" s="444"/>
       <c r="G23" s="74"/>
       <c r="H23" s="74"/>
       <c r="I23" s="74"/>
@@ -14908,14 +15104,14 @@
       <c r="BW23" s="132"/>
     </row>
     <row r="24" spans="1:75">
-      <c r="A24" s="459"/>
-      <c r="B24" s="460"/>
-      <c r="C24" s="459"/>
-      <c r="D24" s="461"/>
-      <c r="E24" s="427" t="s">
+      <c r="A24" s="464"/>
+      <c r="B24" s="465"/>
+      <c r="C24" s="464"/>
+      <c r="D24" s="466"/>
+      <c r="E24" s="443" t="s">
         <v>398</v>
       </c>
-      <c r="F24" s="428"/>
+      <c r="F24" s="444"/>
       <c r="G24" s="74"/>
       <c r="H24" s="74"/>
       <c r="I24" s="74"/>
@@ -14962,22 +15158,22 @@
       <c r="BW24" s="132"/>
     </row>
     <row r="25" spans="1:75" ht="15.6" customHeight="1">
-      <c r="A25" s="459" t="s">
+      <c r="A25" s="464" t="s">
         <v>339</v>
       </c>
-      <c r="B25" s="460" t="s">
+      <c r="B25" s="465" t="s">
         <v>340</v>
       </c>
-      <c r="C25" s="459" t="s">
+      <c r="C25" s="464" t="s">
         <v>341</v>
       </c>
-      <c r="D25" s="461" t="s">
+      <c r="D25" s="466" t="s">
         <v>342</v>
       </c>
-      <c r="E25" s="427" t="s">
+      <c r="E25" s="443" t="s">
         <v>449</v>
       </c>
-      <c r="F25" s="428"/>
+      <c r="F25" s="444"/>
       <c r="G25" s="74"/>
       <c r="H25" s="74"/>
       <c r="I25" s="74"/>
@@ -15024,14 +15220,14 @@
       <c r="BW25" s="132"/>
     </row>
     <row r="26" spans="1:75">
-      <c r="A26" s="459"/>
-      <c r="B26" s="460"/>
-      <c r="C26" s="459"/>
-      <c r="D26" s="461"/>
-      <c r="E26" s="427" t="s">
+      <c r="A26" s="464"/>
+      <c r="B26" s="465"/>
+      <c r="C26" s="464"/>
+      <c r="D26" s="466"/>
+      <c r="E26" s="443" t="s">
         <v>399</v>
       </c>
-      <c r="F26" s="428"/>
+      <c r="F26" s="444"/>
       <c r="G26" s="74"/>
       <c r="H26" s="74"/>
       <c r="I26" s="74"/>
@@ -15078,22 +15274,22 @@
       <c r="BW26" s="132"/>
     </row>
     <row r="27" spans="1:75" ht="15.6" customHeight="1">
-      <c r="A27" s="459" t="s">
+      <c r="A27" s="464" t="s">
         <v>343</v>
       </c>
-      <c r="B27" s="460" t="s">
+      <c r="B27" s="465" t="s">
         <v>344</v>
       </c>
-      <c r="C27" s="459" t="s">
+      <c r="C27" s="464" t="s">
         <v>345</v>
       </c>
-      <c r="D27" s="461" t="s">
+      <c r="D27" s="466" t="s">
         <v>346</v>
       </c>
-      <c r="E27" s="427" t="s">
+      <c r="E27" s="443" t="s">
         <v>450</v>
       </c>
-      <c r="F27" s="428"/>
+      <c r="F27" s="444"/>
       <c r="G27" s="74"/>
       <c r="H27" s="74"/>
       <c r="I27" s="74"/>
@@ -15140,14 +15336,14 @@
       <c r="BW27" s="132"/>
     </row>
     <row r="28" spans="1:75">
-      <c r="A28" s="459"/>
-      <c r="B28" s="460"/>
-      <c r="C28" s="459"/>
-      <c r="D28" s="461"/>
-      <c r="E28" s="427" t="s">
+      <c r="A28" s="464"/>
+      <c r="B28" s="465"/>
+      <c r="C28" s="464"/>
+      <c r="D28" s="466"/>
+      <c r="E28" s="443" t="s">
         <v>400</v>
       </c>
-      <c r="F28" s="428"/>
+      <c r="F28" s="444"/>
       <c r="G28" s="74"/>
       <c r="H28" s="74"/>
       <c r="I28" s="74"/>
@@ -15194,22 +15390,22 @@
       <c r="BW28" s="132"/>
     </row>
     <row r="29" spans="1:75" ht="15.6" customHeight="1">
-      <c r="A29" s="459" t="s">
+      <c r="A29" s="464" t="s">
         <v>347</v>
       </c>
-      <c r="B29" s="460" t="s">
+      <c r="B29" s="465" t="s">
         <v>348</v>
       </c>
-      <c r="C29" s="459" t="s">
+      <c r="C29" s="464" t="s">
         <v>349</v>
       </c>
-      <c r="D29" s="461" t="s">
+      <c r="D29" s="466" t="s">
         <v>350</v>
       </c>
-      <c r="E29" s="427" t="s">
+      <c r="E29" s="443" t="s">
         <v>451</v>
       </c>
-      <c r="F29" s="428"/>
+      <c r="F29" s="444"/>
       <c r="G29" s="74"/>
       <c r="H29" s="74"/>
       <c r="I29" s="74"/>
@@ -15256,14 +15452,14 @@
       <c r="BW29" s="132"/>
     </row>
     <row r="30" spans="1:75">
-      <c r="A30" s="459"/>
-      <c r="B30" s="460"/>
-      <c r="C30" s="459"/>
-      <c r="D30" s="461"/>
-      <c r="E30" s="427" t="s">
+      <c r="A30" s="464"/>
+      <c r="B30" s="465"/>
+      <c r="C30" s="464"/>
+      <c r="D30" s="466"/>
+      <c r="E30" s="443" t="s">
         <v>401</v>
       </c>
-      <c r="F30" s="428"/>
+      <c r="F30" s="444"/>
       <c r="G30" s="74"/>
       <c r="H30" s="74"/>
       <c r="I30" s="74"/>
@@ -15310,22 +15506,22 @@
       <c r="BW30" s="132"/>
     </row>
     <row r="31" spans="1:75" ht="15.6" customHeight="1">
-      <c r="A31" s="459" t="s">
+      <c r="A31" s="464" t="s">
         <v>351</v>
       </c>
-      <c r="B31" s="460" t="s">
+      <c r="B31" s="465" t="s">
         <v>352</v>
       </c>
-      <c r="C31" s="459" t="s">
+      <c r="C31" s="464" t="s">
         <v>353</v>
       </c>
-      <c r="D31" s="461" t="s">
+      <c r="D31" s="466" t="s">
         <v>354</v>
       </c>
-      <c r="E31" s="427" t="s">
+      <c r="E31" s="443" t="s">
         <v>452</v>
       </c>
-      <c r="F31" s="428"/>
+      <c r="F31" s="444"/>
       <c r="G31" s="74"/>
       <c r="H31" s="74"/>
       <c r="I31" s="74"/>
@@ -15372,14 +15568,14 @@
       <c r="BW31" s="132"/>
     </row>
     <row r="32" spans="1:75">
-      <c r="A32" s="459"/>
-      <c r="B32" s="460"/>
-      <c r="C32" s="459"/>
-      <c r="D32" s="461"/>
-      <c r="E32" s="427" t="s">
+      <c r="A32" s="464"/>
+      <c r="B32" s="465"/>
+      <c r="C32" s="464"/>
+      <c r="D32" s="466"/>
+      <c r="E32" s="443" t="s">
         <v>402</v>
       </c>
-      <c r="F32" s="428"/>
+      <c r="F32" s="444"/>
       <c r="G32" s="74"/>
       <c r="H32" s="74"/>
       <c r="I32" s="74"/>
@@ -15426,22 +15622,22 @@
       <c r="BW32" s="132"/>
     </row>
     <row r="33" spans="1:75" ht="15.6" customHeight="1">
-      <c r="A33" s="459" t="s">
+      <c r="A33" s="464" t="s">
         <v>355</v>
       </c>
-      <c r="B33" s="460" t="s">
+      <c r="B33" s="465" t="s">
         <v>356</v>
       </c>
-      <c r="C33" s="459" t="s">
+      <c r="C33" s="464" t="s">
         <v>357</v>
       </c>
-      <c r="D33" s="461" t="s">
+      <c r="D33" s="466" t="s">
         <v>358</v>
       </c>
-      <c r="E33" s="427" t="s">
+      <c r="E33" s="443" t="s">
         <v>453</v>
       </c>
-      <c r="F33" s="428"/>
+      <c r="F33" s="444"/>
       <c r="G33" s="74"/>
       <c r="H33" s="74"/>
       <c r="I33" s="74"/>
@@ -15488,14 +15684,14 @@
       <c r="BW33" s="132"/>
     </row>
     <row r="34" spans="1:75">
-      <c r="A34" s="459"/>
-      <c r="B34" s="460"/>
-      <c r="C34" s="459"/>
-      <c r="D34" s="461"/>
-      <c r="E34" s="427" t="s">
+      <c r="A34" s="464"/>
+      <c r="B34" s="465"/>
+      <c r="C34" s="464"/>
+      <c r="D34" s="466"/>
+      <c r="E34" s="443" t="s">
         <v>403</v>
       </c>
-      <c r="F34" s="428"/>
+      <c r="F34" s="444"/>
       <c r="G34" s="74"/>
       <c r="H34" s="74"/>
       <c r="I34" s="74"/>
@@ -15542,22 +15738,22 @@
       <c r="BW34" s="132"/>
     </row>
     <row r="35" spans="1:75" ht="15.6" customHeight="1">
-      <c r="A35" s="459" t="s">
+      <c r="A35" s="464" t="s">
         <v>359</v>
       </c>
-      <c r="B35" s="460" t="s">
+      <c r="B35" s="465" t="s">
         <v>360</v>
       </c>
-      <c r="C35" s="459" t="s">
+      <c r="C35" s="464" t="s">
         <v>361</v>
       </c>
-      <c r="D35" s="461" t="s">
+      <c r="D35" s="466" t="s">
         <v>362</v>
       </c>
-      <c r="E35" s="427" t="s">
+      <c r="E35" s="443" t="s">
         <v>454</v>
       </c>
-      <c r="F35" s="428"/>
+      <c r="F35" s="444"/>
       <c r="G35" s="74"/>
       <c r="H35" s="74"/>
       <c r="I35" s="74"/>
@@ -15604,14 +15800,14 @@
       <c r="BW35" s="132"/>
     </row>
     <row r="36" spans="1:75">
-      <c r="A36" s="459"/>
-      <c r="B36" s="460"/>
-      <c r="C36" s="459"/>
-      <c r="D36" s="461"/>
-      <c r="E36" s="427" t="s">
+      <c r="A36" s="464"/>
+      <c r="B36" s="465"/>
+      <c r="C36" s="464"/>
+      <c r="D36" s="466"/>
+      <c r="E36" s="443" t="s">
         <v>404</v>
       </c>
-      <c r="F36" s="428"/>
+      <c r="F36" s="444"/>
       <c r="G36" s="74"/>
       <c r="H36" s="74"/>
       <c r="I36" s="74"/>
@@ -15658,22 +15854,22 @@
       <c r="BW36" s="132"/>
     </row>
     <row r="37" spans="1:75" ht="15.6" customHeight="1">
-      <c r="A37" s="459" t="s">
+      <c r="A37" s="464" t="s">
         <v>363</v>
       </c>
-      <c r="B37" s="460" t="s">
+      <c r="B37" s="465" t="s">
         <v>364</v>
       </c>
-      <c r="C37" s="459" t="s">
+      <c r="C37" s="464" t="s">
         <v>365</v>
       </c>
-      <c r="D37" s="461" t="s">
+      <c r="D37" s="466" t="s">
         <v>366</v>
       </c>
-      <c r="E37" s="427" t="s">
+      <c r="E37" s="443" t="s">
         <v>455</v>
       </c>
-      <c r="F37" s="428"/>
+      <c r="F37" s="444"/>
       <c r="G37" s="74"/>
       <c r="H37" s="74"/>
       <c r="I37" s="74"/>
@@ -15720,14 +15916,14 @@
       <c r="BW37" s="132"/>
     </row>
     <row r="38" spans="1:75">
-      <c r="A38" s="459"/>
-      <c r="B38" s="460"/>
-      <c r="C38" s="459"/>
-      <c r="D38" s="461"/>
-      <c r="E38" s="427" t="s">
+      <c r="A38" s="464"/>
+      <c r="B38" s="465"/>
+      <c r="C38" s="464"/>
+      <c r="D38" s="466"/>
+      <c r="E38" s="443" t="s">
         <v>405</v>
       </c>
-      <c r="F38" s="428"/>
+      <c r="F38" s="444"/>
       <c r="G38" s="74"/>
       <c r="H38" s="74"/>
       <c r="I38" s="74"/>
@@ -15774,22 +15970,22 @@
       <c r="BW38" s="132"/>
     </row>
     <row r="39" spans="1:75" ht="15.6" customHeight="1">
-      <c r="A39" s="459" t="s">
+      <c r="A39" s="464" t="s">
         <v>367</v>
       </c>
-      <c r="B39" s="460" t="s">
+      <c r="B39" s="465" t="s">
         <v>368</v>
       </c>
-      <c r="C39" s="459" t="s">
+      <c r="C39" s="464" t="s">
         <v>369</v>
       </c>
-      <c r="D39" s="461" t="s">
+      <c r="D39" s="466" t="s">
         <v>370</v>
       </c>
-      <c r="E39" s="427" t="s">
+      <c r="E39" s="443" t="s">
         <v>456</v>
       </c>
-      <c r="F39" s="428"/>
+      <c r="F39" s="444"/>
       <c r="G39" s="74"/>
       <c r="H39" s="74"/>
       <c r="I39" s="74"/>
@@ -15836,14 +16032,14 @@
       <c r="BW39" s="132"/>
     </row>
     <row r="40" spans="1:75">
-      <c r="A40" s="459"/>
-      <c r="B40" s="460"/>
-      <c r="C40" s="459"/>
-      <c r="D40" s="461"/>
-      <c r="E40" s="427" t="s">
+      <c r="A40" s="464"/>
+      <c r="B40" s="465"/>
+      <c r="C40" s="464"/>
+      <c r="D40" s="466"/>
+      <c r="E40" s="443" t="s">
         <v>406</v>
       </c>
-      <c r="F40" s="428"/>
+      <c r="F40" s="444"/>
       <c r="G40" s="74"/>
       <c r="H40" s="74"/>
       <c r="I40" s="74"/>
@@ -15913,19 +16109,19 @@
       <c r="BV40" s="134"/>
       <c r="BW40" s="134"/>
     </row>
-    <row r="41" spans="1:75" ht="45.75" customHeight="1">
-      <c r="A41" s="445" t="s">
-        <v>527</v>
+    <row r="41" spans="1:75" ht="22.2" customHeight="1">
+      <c r="A41" s="435" t="s">
+        <v>589</v>
       </c>
-      <c r="B41" s="446"/>
-      <c r="C41" s="446"/>
-      <c r="D41" s="446"/>
-      <c r="E41" s="447"/>
-      <c r="F41" s="448"/>
-      <c r="G41" s="443" t="s">
-        <v>534</v>
+      <c r="B41" s="436"/>
+      <c r="C41" s="436"/>
+      <c r="D41" s="436"/>
+      <c r="E41" s="437"/>
+      <c r="F41" s="438"/>
+      <c r="G41" s="439" t="s">
+        <v>532</v>
       </c>
-      <c r="H41" s="444"/>
+      <c r="H41" s="440"/>
       <c r="I41" s="74"/>
       <c r="J41" s="74"/>
       <c r="K41" s="74"/>
@@ -15992,19 +16188,19 @@
       <c r="BV41" s="105"/>
       <c r="BW41" s="105"/>
     </row>
-    <row r="42" spans="1:75" ht="45.75" customHeight="1">
-      <c r="A42" s="440" t="s">
-        <v>526</v>
+    <row r="42" spans="1:75" ht="21.6" customHeight="1">
+      <c r="A42" s="435" t="s">
+        <v>588</v>
       </c>
-      <c r="B42" s="441"/>
-      <c r="C42" s="441"/>
-      <c r="D42" s="441"/>
-      <c r="E42" s="441"/>
-      <c r="F42" s="442"/>
-      <c r="G42" s="425" t="s">
-        <v>550</v>
+      <c r="B42" s="436"/>
+      <c r="C42" s="436"/>
+      <c r="D42" s="436"/>
+      <c r="E42" s="437"/>
+      <c r="F42" s="438"/>
+      <c r="G42" s="439" t="s">
+        <v>582</v>
       </c>
-      <c r="H42" s="426"/>
+      <c r="H42" s="440"/>
       <c r="I42" s="74"/>
       <c r="J42" s="74"/>
       <c r="K42" s="74"/>
@@ -16071,19 +16267,19 @@
       <c r="BV42" s="105"/>
       <c r="BW42" s="105"/>
     </row>
-    <row r="43" spans="1:75">
-      <c r="A43" s="429" t="s">
-        <v>528</v>
+    <row r="43" spans="1:75" ht="37.799999999999997" customHeight="1">
+      <c r="A43" s="451" t="s">
+        <v>590</v>
       </c>
-      <c r="B43" s="430"/>
-      <c r="C43" s="435" t="s">
-        <v>529</v>
+      <c r="B43" s="452"/>
+      <c r="C43" s="452"/>
+      <c r="D43" s="452"/>
+      <c r="E43" s="452"/>
+      <c r="F43" s="453"/>
+      <c r="G43" s="441" t="s">
+        <v>548</v>
       </c>
-      <c r="D43" s="435"/>
-      <c r="E43" s="427"/>
-      <c r="F43" s="428"/>
-      <c r="G43" s="187"/>
-      <c r="H43" s="187"/>
+      <c r="H43" s="442"/>
       <c r="I43" s="74"/>
       <c r="J43" s="74"/>
       <c r="K43" s="74"/>
@@ -16151,12 +16347,18 @@
       <c r="BW43" s="105"/>
     </row>
     <row r="44" spans="1:75">
-      <c r="A44" s="431"/>
-      <c r="B44" s="432"/>
-      <c r="C44" s="435"/>
-      <c r="D44" s="435"/>
-      <c r="E44" s="427"/>
-      <c r="F44" s="428"/>
+      <c r="A44" s="445" t="s">
+        <v>526</v>
+      </c>
+      <c r="B44" s="446"/>
+      <c r="C44" s="431" t="s">
+        <v>527</v>
+      </c>
+      <c r="D44" s="432"/>
+      <c r="E44" s="443" t="s">
+        <v>583</v>
+      </c>
+      <c r="F44" s="444"/>
       <c r="G44" s="187"/>
       <c r="H44" s="187"/>
       <c r="I44" s="74"/>
@@ -16225,15 +16427,13 @@
       <c r="BV44" s="105"/>
       <c r="BW44" s="105"/>
     </row>
-    <row r="45" spans="1:75">
-      <c r="A45" s="431"/>
-      <c r="B45" s="432"/>
-      <c r="C45" s="435" t="s">
-        <v>530</v>
-      </c>
-      <c r="D45" s="435"/>
-      <c r="E45" s="427"/>
-      <c r="F45" s="428"/>
+    <row r="45" spans="1:75" ht="15.6" hidden="1" customHeight="1">
+      <c r="A45" s="447"/>
+      <c r="B45" s="448"/>
+      <c r="C45" s="431"/>
+      <c r="D45" s="432"/>
+      <c r="E45" s="443"/>
+      <c r="F45" s="444"/>
       <c r="G45" s="187"/>
       <c r="H45" s="187"/>
       <c r="I45" s="74"/>
@@ -16303,12 +16503,16 @@
       <c r="BW45" s="105"/>
     </row>
     <row r="46" spans="1:75">
-      <c r="A46" s="431"/>
-      <c r="B46" s="432"/>
-      <c r="C46" s="435"/>
-      <c r="D46" s="435"/>
-      <c r="E46" s="427"/>
-      <c r="F46" s="428"/>
+      <c r="A46" s="447"/>
+      <c r="B46" s="448"/>
+      <c r="C46" s="431" t="s">
+        <v>528</v>
+      </c>
+      <c r="D46" s="432"/>
+      <c r="E46" s="443" t="s">
+        <v>584</v>
+      </c>
+      <c r="F46" s="444"/>
       <c r="G46" s="187"/>
       <c r="H46" s="187"/>
       <c r="I46" s="74"/>
@@ -16377,15 +16581,13 @@
       <c r="BV46" s="105"/>
       <c r="BW46" s="105"/>
     </row>
-    <row r="47" spans="1:75">
-      <c r="A47" s="431"/>
-      <c r="B47" s="432"/>
-      <c r="C47" s="436" t="s">
-        <v>531</v>
-      </c>
-      <c r="D47" s="437"/>
-      <c r="E47" s="427"/>
-      <c r="F47" s="428"/>
+    <row r="47" spans="1:75" ht="15.6" hidden="1" customHeight="1">
+      <c r="A47" s="447"/>
+      <c r="B47" s="448"/>
+      <c r="C47" s="431"/>
+      <c r="D47" s="432"/>
+      <c r="E47" s="443"/>
+      <c r="F47" s="444"/>
       <c r="G47" s="187"/>
       <c r="H47" s="187"/>
       <c r="I47" s="74"/>
@@ -16455,12 +16657,16 @@
       <c r="BW47" s="105"/>
     </row>
     <row r="48" spans="1:75">
-      <c r="A48" s="431"/>
-      <c r="B48" s="432"/>
-      <c r="C48" s="438"/>
-      <c r="D48" s="439"/>
-      <c r="E48" s="427"/>
-      <c r="F48" s="428"/>
+      <c r="A48" s="447"/>
+      <c r="B48" s="448"/>
+      <c r="C48" s="431" t="s">
+        <v>529</v>
+      </c>
+      <c r="D48" s="432"/>
+      <c r="E48" s="443" t="s">
+        <v>585</v>
+      </c>
+      <c r="F48" s="444"/>
       <c r="G48" s="187"/>
       <c r="H48" s="187"/>
       <c r="I48" s="74"/>
@@ -16529,15 +16735,13 @@
       <c r="BV48" s="105"/>
       <c r="BW48" s="105"/>
     </row>
-    <row r="49" spans="1:75">
-      <c r="A49" s="431"/>
-      <c r="B49" s="432"/>
-      <c r="C49" s="436" t="s">
-        <v>532</v>
-      </c>
-      <c r="D49" s="437"/>
-      <c r="E49" s="427"/>
-      <c r="F49" s="428"/>
+    <row r="49" spans="1:75" ht="15.6" hidden="1" customHeight="1">
+      <c r="A49" s="447"/>
+      <c r="B49" s="448"/>
+      <c r="C49" s="431"/>
+      <c r="D49" s="432"/>
+      <c r="E49" s="443"/>
+      <c r="F49" s="444"/>
       <c r="G49" s="187"/>
       <c r="H49" s="187"/>
       <c r="I49" s="74"/>
@@ -16607,12 +16811,16 @@
       <c r="BW49" s="105"/>
     </row>
     <row r="50" spans="1:75">
-      <c r="A50" s="431"/>
-      <c r="B50" s="432"/>
-      <c r="C50" s="438"/>
-      <c r="D50" s="439"/>
-      <c r="E50" s="427"/>
-      <c r="F50" s="428"/>
+      <c r="A50" s="447"/>
+      <c r="B50" s="448"/>
+      <c r="C50" s="431" t="s">
+        <v>530</v>
+      </c>
+      <c r="D50" s="432"/>
+      <c r="E50" s="443" t="s">
+        <v>586</v>
+      </c>
+      <c r="F50" s="444"/>
       <c r="G50" s="187"/>
       <c r="H50" s="187"/>
       <c r="I50" s="74"/>
@@ -16681,15 +16889,13 @@
       <c r="BV50" s="105"/>
       <c r="BW50" s="105"/>
     </row>
-    <row r="51" spans="1:75">
-      <c r="A51" s="431"/>
-      <c r="B51" s="432"/>
-      <c r="C51" s="436" t="s">
-        <v>533</v>
-      </c>
-      <c r="D51" s="437"/>
-      <c r="E51" s="427"/>
-      <c r="F51" s="428"/>
+    <row r="51" spans="1:75" ht="15.6" hidden="1" customHeight="1">
+      <c r="A51" s="447"/>
+      <c r="B51" s="448"/>
+      <c r="C51" s="431"/>
+      <c r="D51" s="432"/>
+      <c r="E51" s="443"/>
+      <c r="F51" s="444"/>
       <c r="G51" s="187"/>
       <c r="H51" s="187"/>
       <c r="I51" s="74"/>
@@ -16759,12 +16965,16 @@
       <c r="BW51" s="105"/>
     </row>
     <row r="52" spans="1:75">
-      <c r="A52" s="433"/>
-      <c r="B52" s="434"/>
-      <c r="C52" s="438"/>
-      <c r="D52" s="439"/>
-      <c r="E52" s="427"/>
-      <c r="F52" s="428"/>
+      <c r="A52" s="447"/>
+      <c r="B52" s="448"/>
+      <c r="C52" s="431" t="s">
+        <v>531</v>
+      </c>
+      <c r="D52" s="432"/>
+      <c r="E52" s="443" t="s">
+        <v>587</v>
+      </c>
+      <c r="F52" s="444"/>
       <c r="G52" s="187"/>
       <c r="H52" s="187"/>
       <c r="I52" s="74"/>
@@ -16833,21 +17043,15 @@
       <c r="BV52" s="105"/>
       <c r="BW52" s="105"/>
     </row>
-    <row r="53" spans="1:75" s="136" customFormat="1" ht="15" customHeight="1">
-      <c r="A53" s="499" t="s">
-        <v>302</v>
-      </c>
-      <c r="B53" s="500"/>
-      <c r="C53" s="501" t="s">
-        <v>371</v>
-      </c>
-      <c r="D53" s="502"/>
-      <c r="E53" s="427" t="s">
-        <v>457</v>
-      </c>
-      <c r="F53" s="428"/>
-      <c r="G53" s="74"/>
-      <c r="H53" s="74"/>
+    <row r="53" spans="1:75" ht="15.6" hidden="1" customHeight="1">
+      <c r="A53" s="449"/>
+      <c r="B53" s="450"/>
+      <c r="C53" s="433"/>
+      <c r="D53" s="434"/>
+      <c r="E53" s="443"/>
+      <c r="F53" s="444"/>
+      <c r="G53" s="187"/>
+      <c r="H53" s="187"/>
       <c r="I53" s="74"/>
       <c r="J53" s="74"/>
       <c r="K53" s="74"/>
@@ -16870,59 +17074,63 @@
       <c r="AD53" s="74"/>
       <c r="AE53" s="74"/>
       <c r="AF53" s="74"/>
-      <c r="AG53" s="129"/>
-      <c r="AH53" s="129"/>
-      <c r="AI53" s="129"/>
-      <c r="AJ53" s="129"/>
-      <c r="AK53" s="129"/>
-      <c r="AL53" s="129"/>
+      <c r="AG53" s="74"/>
+      <c r="AH53" s="74"/>
+      <c r="AI53" s="74"/>
+      <c r="AJ53" s="74"/>
+      <c r="AK53" s="74"/>
+      <c r="AL53" s="74"/>
       <c r="AM53" s="129"/>
       <c r="AN53" s="129"/>
-      <c r="AO53" s="137"/>
-      <c r="AP53" s="137"/>
-      <c r="AQ53" s="138"/>
-      <c r="AR53" s="138"/>
-      <c r="AS53" s="139"/>
-      <c r="AT53" s="137"/>
-      <c r="AU53" s="137"/>
-      <c r="AV53" s="137"/>
-      <c r="AW53" s="137"/>
-      <c r="AX53" s="137"/>
-      <c r="AY53" s="137"/>
-      <c r="AZ53" s="137"/>
-      <c r="BA53" s="137"/>
-      <c r="BB53" s="137"/>
-      <c r="BC53" s="137"/>
-      <c r="BD53" s="137"/>
-      <c r="BE53" s="137"/>
-      <c r="BF53" s="138"/>
-      <c r="BG53" s="138"/>
-      <c r="BH53" s="139"/>
-      <c r="BI53" s="137"/>
-      <c r="BJ53" s="137"/>
-      <c r="BK53" s="137"/>
-      <c r="BL53" s="137"/>
-      <c r="BM53" s="137"/>
-      <c r="BN53" s="137"/>
-      <c r="BO53" s="138"/>
-      <c r="BP53" s="139"/>
-      <c r="BQ53" s="137"/>
-      <c r="BR53" s="137"/>
-      <c r="BS53" s="140"/>
-      <c r="BT53" s="139"/>
-      <c r="BU53" s="137"/>
-      <c r="BV53" s="137"/>
-      <c r="BW53" s="137"/>
-    </row>
-    <row r="54" spans="1:75" s="136" customFormat="1" ht="15.6" customHeight="1">
-      <c r="A54" s="499"/>
-      <c r="B54" s="500"/>
-      <c r="C54" s="493"/>
-      <c r="D54" s="494"/>
-      <c r="E54" s="427" t="s">
-        <v>407</v>
+      <c r="AO53" s="108"/>
+      <c r="AP53" s="108"/>
+      <c r="AQ53" s="108"/>
+      <c r="AR53" s="108"/>
+      <c r="AS53" s="108"/>
+      <c r="AT53" s="108"/>
+      <c r="AU53" s="108"/>
+      <c r="AV53" s="108"/>
+      <c r="AW53" s="108"/>
+      <c r="AX53" s="108"/>
+      <c r="AY53" s="135"/>
+      <c r="AZ53" s="108"/>
+      <c r="BA53" s="108"/>
+      <c r="BB53" s="108"/>
+      <c r="BC53" s="108"/>
+      <c r="BD53" s="108"/>
+      <c r="BE53" s="108"/>
+      <c r="BF53" s="108"/>
+      <c r="BG53" s="109"/>
+      <c r="BH53" s="108"/>
+      <c r="BI53" s="108"/>
+      <c r="BJ53" s="108"/>
+      <c r="BK53" s="108"/>
+      <c r="BL53" s="108"/>
+      <c r="BM53" s="108"/>
+      <c r="BN53" s="108"/>
+      <c r="BO53" s="108"/>
+      <c r="BP53" s="108"/>
+      <c r="BQ53" s="105"/>
+      <c r="BR53" s="125"/>
+      <c r="BS53" s="105"/>
+      <c r="BT53" s="105"/>
+      <c r="BU53" s="105"/>
+      <c r="BV53" s="105"/>
+      <c r="BW53" s="105"/>
+    </row>
+    <row r="54" spans="1:75" s="136" customFormat="1" ht="15" customHeight="1">
+      <c r="A54" s="495" t="s">
+        <v>302</v>
       </c>
-      <c r="F54" s="428"/>
+      <c r="B54" s="496"/>
+      <c r="C54" s="499" t="s">
+        <v>371</v>
+      </c>
+      <c r="D54" s="500"/>
+      <c r="E54" s="443" t="s">
+        <v>457</v>
+      </c>
+      <c r="F54" s="444"/>
       <c r="G54" s="74"/>
       <c r="H54" s="74"/>
       <c r="I54" s="74"/>
@@ -16992,16 +17200,14 @@
       <c r="BW54" s="137"/>
     </row>
     <row r="55" spans="1:75" s="136" customFormat="1" ht="15.6" customHeight="1">
-      <c r="A55" s="499"/>
-      <c r="B55" s="500"/>
-      <c r="C55" s="491" t="s">
-        <v>372</v>
+      <c r="A55" s="497"/>
+      <c r="B55" s="498"/>
+      <c r="C55" s="501"/>
+      <c r="D55" s="502"/>
+      <c r="E55" s="443" t="s">
+        <v>407</v>
       </c>
-      <c r="D55" s="492"/>
-      <c r="E55" s="427" t="s">
-        <v>458</v>
-      </c>
-      <c r="F55" s="428"/>
+      <c r="F55" s="444"/>
       <c r="G55" s="74"/>
       <c r="H55" s="74"/>
       <c r="I55" s="74"/>
@@ -17038,8 +17244,8 @@
       <c r="AP55" s="137"/>
       <c r="AQ55" s="138"/>
       <c r="AR55" s="138"/>
-      <c r="AS55" s="138"/>
-      <c r="AT55" s="138"/>
+      <c r="AS55" s="139"/>
+      <c r="AT55" s="137"/>
       <c r="AU55" s="137"/>
       <c r="AV55" s="137"/>
       <c r="AW55" s="137"/>
@@ -17052,18 +17258,18 @@
       <c r="BD55" s="137"/>
       <c r="BE55" s="137"/>
       <c r="BF55" s="138"/>
-      <c r="BG55" s="137"/>
-      <c r="BH55" s="137"/>
-      <c r="BI55" s="138"/>
+      <c r="BG55" s="138"/>
+      <c r="BH55" s="139"/>
+      <c r="BI55" s="137"/>
       <c r="BJ55" s="137"/>
       <c r="BK55" s="137"/>
       <c r="BL55" s="137"/>
       <c r="BM55" s="137"/>
       <c r="BN55" s="137"/>
-      <c r="BO55" s="137"/>
-      <c r="BP55" s="137"/>
+      <c r="BO55" s="138"/>
+      <c r="BP55" s="139"/>
       <c r="BQ55" s="137"/>
-      <c r="BR55" s="138"/>
+      <c r="BR55" s="137"/>
       <c r="BS55" s="140"/>
       <c r="BT55" s="139"/>
       <c r="BU55" s="137"/>
@@ -17071,14 +17277,16 @@
       <c r="BW55" s="137"/>
     </row>
     <row r="56" spans="1:75" s="136" customFormat="1" ht="15.6" customHeight="1">
-      <c r="A56" s="499"/>
-      <c r="B56" s="500"/>
-      <c r="C56" s="493"/>
-      <c r="D56" s="494"/>
-      <c r="E56" s="427" t="s">
-        <v>408</v>
+      <c r="A56" s="497"/>
+      <c r="B56" s="498"/>
+      <c r="C56" s="499" t="s">
+        <v>372</v>
       </c>
-      <c r="F56" s="428"/>
+      <c r="D56" s="500"/>
+      <c r="E56" s="443" t="s">
+        <v>458</v>
+      </c>
+      <c r="F56" s="444"/>
       <c r="G56" s="74"/>
       <c r="H56" s="74"/>
       <c r="I56" s="74"/>
@@ -17148,16 +17356,14 @@
       <c r="BW56" s="137"/>
     </row>
     <row r="57" spans="1:75" s="136" customFormat="1" ht="15.6" customHeight="1">
-      <c r="A57" s="499"/>
-      <c r="B57" s="500"/>
-      <c r="C57" s="491" t="s">
-        <v>373</v>
+      <c r="A57" s="497"/>
+      <c r="B57" s="498"/>
+      <c r="C57" s="501"/>
+      <c r="D57" s="502"/>
+      <c r="E57" s="443" t="s">
+        <v>408</v>
       </c>
-      <c r="D57" s="492"/>
-      <c r="E57" s="427" t="s">
-        <v>459</v>
-      </c>
-      <c r="F57" s="428"/>
+      <c r="F57" s="444"/>
       <c r="G57" s="74"/>
       <c r="H57" s="74"/>
       <c r="I57" s="74"/>
@@ -17182,20 +17388,20 @@
       <c r="AD57" s="74"/>
       <c r="AE57" s="74"/>
       <c r="AF57" s="74"/>
-      <c r="AG57" s="476"/>
-      <c r="AH57" s="476"/>
-      <c r="AI57" s="476"/>
-      <c r="AJ57" s="476"/>
-      <c r="AK57" s="137"/>
-      <c r="AL57" s="137"/>
-      <c r="AM57" s="137"/>
-      <c r="AN57" s="138"/>
+      <c r="AG57" s="129"/>
+      <c r="AH57" s="129"/>
+      <c r="AI57" s="129"/>
+      <c r="AJ57" s="129"/>
+      <c r="AK57" s="129"/>
+      <c r="AL57" s="129"/>
+      <c r="AM57" s="129"/>
+      <c r="AN57" s="129"/>
       <c r="AO57" s="137"/>
       <c r="AP57" s="137"/>
-      <c r="AQ57" s="137"/>
-      <c r="AR57" s="137"/>
-      <c r="AS57" s="137"/>
-      <c r="AT57" s="137"/>
+      <c r="AQ57" s="138"/>
+      <c r="AR57" s="138"/>
+      <c r="AS57" s="138"/>
+      <c r="AT57" s="138"/>
       <c r="AU57" s="137"/>
       <c r="AV57" s="137"/>
       <c r="AW57" s="137"/>
@@ -17207,10 +17413,10 @@
       <c r="BC57" s="137"/>
       <c r="BD57" s="137"/>
       <c r="BE57" s="137"/>
-      <c r="BF57" s="137"/>
+      <c r="BF57" s="138"/>
       <c r="BG57" s="137"/>
       <c r="BH57" s="137"/>
-      <c r="BI57" s="137"/>
+      <c r="BI57" s="138"/>
       <c r="BJ57" s="137"/>
       <c r="BK57" s="137"/>
       <c r="BL57" s="137"/>
@@ -17227,14 +17433,16 @@
       <c r="BW57" s="137"/>
     </row>
     <row r="58" spans="1:75" s="136" customFormat="1" ht="15.6" customHeight="1">
-      <c r="A58" s="499"/>
-      <c r="B58" s="500"/>
-      <c r="C58" s="493"/>
-      <c r="D58" s="494"/>
-      <c r="E58" s="427" t="s">
-        <v>409</v>
+      <c r="A58" s="497"/>
+      <c r="B58" s="498"/>
+      <c r="C58" s="499" t="s">
+        <v>373</v>
       </c>
-      <c r="F58" s="428"/>
+      <c r="D58" s="500"/>
+      <c r="E58" s="443" t="s">
+        <v>459</v>
+      </c>
+      <c r="F58" s="444"/>
       <c r="G58" s="74"/>
       <c r="H58" s="74"/>
       <c r="I58" s="74"/>
@@ -17259,10 +17467,10 @@
       <c r="AD58" s="74"/>
       <c r="AE58" s="74"/>
       <c r="AF58" s="74"/>
-      <c r="AG58" s="141"/>
-      <c r="AH58" s="141"/>
-      <c r="AI58" s="141"/>
-      <c r="AJ58" s="141"/>
+      <c r="AG58" s="481"/>
+      <c r="AH58" s="481"/>
+      <c r="AI58" s="481"/>
+      <c r="AJ58" s="481"/>
       <c r="AK58" s="137"/>
       <c r="AL58" s="137"/>
       <c r="AM58" s="137"/>
@@ -17304,16 +17512,14 @@
       <c r="BW58" s="137"/>
     </row>
     <row r="59" spans="1:75" s="136" customFormat="1" ht="15.6" customHeight="1">
-      <c r="A59" s="499"/>
-      <c r="B59" s="500"/>
-      <c r="C59" s="491" t="s">
-        <v>374</v>
+      <c r="A59" s="497"/>
+      <c r="B59" s="498"/>
+      <c r="C59" s="501"/>
+      <c r="D59" s="502"/>
+      <c r="E59" s="443" t="s">
+        <v>409</v>
       </c>
-      <c r="D59" s="492"/>
-      <c r="E59" s="427" t="s">
-        <v>460</v>
-      </c>
-      <c r="F59" s="428"/>
+      <c r="F59" s="444"/>
       <c r="G59" s="74"/>
       <c r="H59" s="74"/>
       <c r="I59" s="74"/>
@@ -17338,17 +17544,17 @@
       <c r="AD59" s="74"/>
       <c r="AE59" s="74"/>
       <c r="AF59" s="74"/>
-      <c r="AG59" s="476"/>
-      <c r="AH59" s="476"/>
-      <c r="AI59" s="476"/>
-      <c r="AJ59" s="476"/>
+      <c r="AG59" s="141"/>
+      <c r="AH59" s="141"/>
+      <c r="AI59" s="141"/>
+      <c r="AJ59" s="141"/>
       <c r="AK59" s="137"/>
       <c r="AL59" s="137"/>
       <c r="AM59" s="137"/>
       <c r="AN59" s="138"/>
       <c r="AO59" s="137"/>
       <c r="AP59" s="137"/>
-      <c r="AQ59" s="138"/>
+      <c r="AQ59" s="137"/>
       <c r="AR59" s="137"/>
       <c r="AS59" s="137"/>
       <c r="AT59" s="137"/>
@@ -17363,7 +17569,7 @@
       <c r="BC59" s="137"/>
       <c r="BD59" s="137"/>
       <c r="BE59" s="137"/>
-      <c r="BF59" s="138"/>
+      <c r="BF59" s="137"/>
       <c r="BG59" s="137"/>
       <c r="BH59" s="137"/>
       <c r="BI59" s="137"/>
@@ -17375,7 +17581,7 @@
       <c r="BO59" s="137"/>
       <c r="BP59" s="137"/>
       <c r="BQ59" s="137"/>
-      <c r="BR59" s="139"/>
+      <c r="BR59" s="138"/>
       <c r="BS59" s="140"/>
       <c r="BT59" s="139"/>
       <c r="BU59" s="137"/>
@@ -17383,14 +17589,16 @@
       <c r="BW59" s="137"/>
     </row>
     <row r="60" spans="1:75" s="136" customFormat="1" ht="15.6" customHeight="1">
-      <c r="A60" s="499"/>
-      <c r="B60" s="500"/>
-      <c r="C60" s="493"/>
-      <c r="D60" s="494"/>
-      <c r="E60" s="427" t="s">
-        <v>410</v>
+      <c r="A60" s="497"/>
+      <c r="B60" s="498"/>
+      <c r="C60" s="499" t="s">
+        <v>374</v>
       </c>
-      <c r="F60" s="428"/>
+      <c r="D60" s="500"/>
+      <c r="E60" s="443" t="s">
+        <v>460</v>
+      </c>
+      <c r="F60" s="444"/>
       <c r="G60" s="74"/>
       <c r="H60" s="74"/>
       <c r="I60" s="74"/>
@@ -17415,10 +17623,10 @@
       <c r="AD60" s="74"/>
       <c r="AE60" s="74"/>
       <c r="AF60" s="74"/>
-      <c r="AG60" s="141"/>
-      <c r="AH60" s="141"/>
-      <c r="AI60" s="141"/>
-      <c r="AJ60" s="141"/>
+      <c r="AG60" s="481"/>
+      <c r="AH60" s="481"/>
+      <c r="AI60" s="481"/>
+      <c r="AJ60" s="481"/>
       <c r="AK60" s="137"/>
       <c r="AL60" s="137"/>
       <c r="AM60" s="137"/>
@@ -17460,16 +17668,14 @@
       <c r="BW60" s="137"/>
     </row>
     <row r="61" spans="1:75" s="136" customFormat="1" ht="15.6" customHeight="1">
-      <c r="A61" s="499"/>
-      <c r="B61" s="500"/>
-      <c r="C61" s="491" t="s">
-        <v>375</v>
+      <c r="A61" s="497"/>
+      <c r="B61" s="498"/>
+      <c r="C61" s="501"/>
+      <c r="D61" s="502"/>
+      <c r="E61" s="443" t="s">
+        <v>410</v>
       </c>
-      <c r="D61" s="492"/>
-      <c r="E61" s="427" t="s">
-        <v>461</v>
-      </c>
-      <c r="F61" s="428"/>
+      <c r="F61" s="444"/>
       <c r="G61" s="74"/>
       <c r="H61" s="74"/>
       <c r="I61" s="74"/>
@@ -17494,17 +17700,17 @@
       <c r="AD61" s="74"/>
       <c r="AE61" s="74"/>
       <c r="AF61" s="74"/>
-      <c r="AG61" s="476"/>
-      <c r="AH61" s="476"/>
-      <c r="AI61" s="476"/>
-      <c r="AJ61" s="476"/>
+      <c r="AG61" s="141"/>
+      <c r="AH61" s="141"/>
+      <c r="AI61" s="141"/>
+      <c r="AJ61" s="141"/>
       <c r="AK61" s="137"/>
       <c r="AL61" s="137"/>
       <c r="AM61" s="137"/>
       <c r="AN61" s="138"/>
       <c r="AO61" s="137"/>
       <c r="AP61" s="137"/>
-      <c r="AQ61" s="137"/>
+      <c r="AQ61" s="138"/>
       <c r="AR61" s="137"/>
       <c r="AS61" s="137"/>
       <c r="AT61" s="137"/>
@@ -17519,7 +17725,7 @@
       <c r="BC61" s="137"/>
       <c r="BD61" s="137"/>
       <c r="BE61" s="137"/>
-      <c r="BF61" s="137"/>
+      <c r="BF61" s="138"/>
       <c r="BG61" s="137"/>
       <c r="BH61" s="137"/>
       <c r="BI61" s="137"/>
@@ -17539,14 +17745,16 @@
       <c r="BW61" s="137"/>
     </row>
     <row r="62" spans="1:75" s="136" customFormat="1" ht="15.6" customHeight="1">
-      <c r="A62" s="499"/>
-      <c r="B62" s="500"/>
-      <c r="C62" s="493"/>
-      <c r="D62" s="494"/>
-      <c r="E62" s="427" t="s">
-        <v>411</v>
+      <c r="A62" s="497"/>
+      <c r="B62" s="498"/>
+      <c r="C62" s="499" t="s">
+        <v>375</v>
       </c>
-      <c r="F62" s="428"/>
+      <c r="D62" s="500"/>
+      <c r="E62" s="443" t="s">
+        <v>461</v>
+      </c>
+      <c r="F62" s="444"/>
       <c r="G62" s="74"/>
       <c r="H62" s="74"/>
       <c r="I62" s="74"/>
@@ -17571,10 +17779,10 @@
       <c r="AD62" s="74"/>
       <c r="AE62" s="74"/>
       <c r="AF62" s="74"/>
-      <c r="AG62" s="141"/>
-      <c r="AH62" s="141"/>
-      <c r="AI62" s="141"/>
-      <c r="AJ62" s="141"/>
+      <c r="AG62" s="481"/>
+      <c r="AH62" s="481"/>
+      <c r="AI62" s="481"/>
+      <c r="AJ62" s="481"/>
       <c r="AK62" s="137"/>
       <c r="AL62" s="137"/>
       <c r="AM62" s="137"/>
@@ -17616,16 +17824,14 @@
       <c r="BW62" s="137"/>
     </row>
     <row r="63" spans="1:75" s="136" customFormat="1" ht="15.6" customHeight="1">
-      <c r="A63" s="499"/>
-      <c r="B63" s="500"/>
-      <c r="C63" s="491" t="s">
-        <v>376</v>
+      <c r="A63" s="497"/>
+      <c r="B63" s="498"/>
+      <c r="C63" s="501"/>
+      <c r="D63" s="502"/>
+      <c r="E63" s="443" t="s">
+        <v>411</v>
       </c>
-      <c r="D63" s="492"/>
-      <c r="E63" s="427" t="s">
-        <v>462</v>
-      </c>
-      <c r="F63" s="428"/>
+      <c r="F63" s="444"/>
       <c r="G63" s="74"/>
       <c r="H63" s="74"/>
       <c r="I63" s="74"/>
@@ -17650,17 +17856,17 @@
       <c r="AD63" s="74"/>
       <c r="AE63" s="74"/>
       <c r="AF63" s="74"/>
-      <c r="AG63" s="476"/>
-      <c r="AH63" s="476"/>
-      <c r="AI63" s="476"/>
-      <c r="AJ63" s="476"/>
+      <c r="AG63" s="141"/>
+      <c r="AH63" s="141"/>
+      <c r="AI63" s="141"/>
+      <c r="AJ63" s="141"/>
       <c r="AK63" s="137"/>
       <c r="AL63" s="137"/>
       <c r="AM63" s="137"/>
       <c r="AN63" s="138"/>
       <c r="AO63" s="137"/>
       <c r="AP63" s="137"/>
-      <c r="AQ63" s="138"/>
+      <c r="AQ63" s="137"/>
       <c r="AR63" s="137"/>
       <c r="AS63" s="137"/>
       <c r="AT63" s="137"/>
@@ -17675,7 +17881,7 @@
       <c r="BC63" s="137"/>
       <c r="BD63" s="137"/>
       <c r="BE63" s="137"/>
-      <c r="BF63" s="138"/>
+      <c r="BF63" s="137"/>
       <c r="BG63" s="137"/>
       <c r="BH63" s="137"/>
       <c r="BI63" s="137"/>
@@ -17695,14 +17901,16 @@
       <c r="BW63" s="137"/>
     </row>
     <row r="64" spans="1:75" s="136" customFormat="1" ht="15.6" customHeight="1">
-      <c r="A64" s="499"/>
-      <c r="B64" s="500"/>
-      <c r="C64" s="493"/>
-      <c r="D64" s="494"/>
-      <c r="E64" s="427" t="s">
-        <v>412</v>
+      <c r="A64" s="497"/>
+      <c r="B64" s="498"/>
+      <c r="C64" s="499" t="s">
+        <v>376</v>
       </c>
-      <c r="F64" s="428"/>
+      <c r="D64" s="500"/>
+      <c r="E64" s="443" t="s">
+        <v>462</v>
+      </c>
+      <c r="F64" s="444"/>
       <c r="G64" s="74"/>
       <c r="H64" s="74"/>
       <c r="I64" s="74"/>
@@ -17727,10 +17935,10 @@
       <c r="AD64" s="74"/>
       <c r="AE64" s="74"/>
       <c r="AF64" s="74"/>
-      <c r="AG64" s="141"/>
-      <c r="AH64" s="141"/>
-      <c r="AI64" s="141"/>
-      <c r="AJ64" s="141"/>
+      <c r="AG64" s="481"/>
+      <c r="AH64" s="481"/>
+      <c r="AI64" s="481"/>
+      <c r="AJ64" s="481"/>
       <c r="AK64" s="137"/>
       <c r="AL64" s="137"/>
       <c r="AM64" s="137"/>
@@ -17772,16 +17980,14 @@
       <c r="BW64" s="137"/>
     </row>
     <row r="65" spans="1:75" s="136" customFormat="1" ht="15.6" customHeight="1">
-      <c r="A65" s="499"/>
-      <c r="B65" s="500"/>
-      <c r="C65" s="491" t="s">
-        <v>377</v>
+      <c r="A65" s="497"/>
+      <c r="B65" s="498"/>
+      <c r="C65" s="501"/>
+      <c r="D65" s="502"/>
+      <c r="E65" s="443" t="s">
+        <v>412</v>
       </c>
-      <c r="D65" s="492"/>
-      <c r="E65" s="427" t="s">
-        <v>463</v>
-      </c>
-      <c r="F65" s="428"/>
+      <c r="F65" s="444"/>
       <c r="G65" s="74"/>
       <c r="H65" s="74"/>
       <c r="I65" s="74"/>
@@ -17806,17 +18012,17 @@
       <c r="AD65" s="74"/>
       <c r="AE65" s="74"/>
       <c r="AF65" s="74"/>
-      <c r="AG65" s="476"/>
-      <c r="AH65" s="476"/>
-      <c r="AI65" s="476"/>
-      <c r="AJ65" s="476"/>
+      <c r="AG65" s="141"/>
+      <c r="AH65" s="141"/>
+      <c r="AI65" s="141"/>
+      <c r="AJ65" s="141"/>
       <c r="AK65" s="137"/>
       <c r="AL65" s="137"/>
       <c r="AM65" s="137"/>
       <c r="AN65" s="138"/>
       <c r="AO65" s="137"/>
       <c r="AP65" s="137"/>
-      <c r="AQ65" s="137"/>
+      <c r="AQ65" s="138"/>
       <c r="AR65" s="137"/>
       <c r="AS65" s="137"/>
       <c r="AT65" s="137"/>
@@ -17831,7 +18037,7 @@
       <c r="BC65" s="137"/>
       <c r="BD65" s="137"/>
       <c r="BE65" s="137"/>
-      <c r="BF65" s="137"/>
+      <c r="BF65" s="138"/>
       <c r="BG65" s="137"/>
       <c r="BH65" s="137"/>
       <c r="BI65" s="137"/>
@@ -17851,14 +18057,16 @@
       <c r="BW65" s="137"/>
     </row>
     <row r="66" spans="1:75" s="136" customFormat="1" ht="15.6" customHeight="1">
-      <c r="A66" s="499"/>
-      <c r="B66" s="500"/>
-      <c r="C66" s="493"/>
-      <c r="D66" s="494"/>
-      <c r="E66" s="427" t="s">
-        <v>413</v>
+      <c r="A66" s="497"/>
+      <c r="B66" s="498"/>
+      <c r="C66" s="499" t="s">
+        <v>377</v>
       </c>
-      <c r="F66" s="428"/>
+      <c r="D66" s="500"/>
+      <c r="E66" s="443" t="s">
+        <v>463</v>
+      </c>
+      <c r="F66" s="444"/>
       <c r="G66" s="74"/>
       <c r="H66" s="74"/>
       <c r="I66" s="74"/>
@@ -17883,10 +18091,10 @@
       <c r="AD66" s="74"/>
       <c r="AE66" s="74"/>
       <c r="AF66" s="74"/>
-      <c r="AG66" s="141"/>
-      <c r="AH66" s="141"/>
-      <c r="AI66" s="141"/>
-      <c r="AJ66" s="141"/>
+      <c r="AG66" s="481"/>
+      <c r="AH66" s="481"/>
+      <c r="AI66" s="481"/>
+      <c r="AJ66" s="481"/>
       <c r="AK66" s="137"/>
       <c r="AL66" s="137"/>
       <c r="AM66" s="137"/>
@@ -17928,16 +18136,14 @@
       <c r="BW66" s="137"/>
     </row>
     <row r="67" spans="1:75" s="136" customFormat="1" ht="15.6" customHeight="1">
-      <c r="A67" s="499"/>
-      <c r="B67" s="500"/>
-      <c r="C67" s="491" t="s">
-        <v>378</v>
+      <c r="A67" s="497"/>
+      <c r="B67" s="498"/>
+      <c r="C67" s="501"/>
+      <c r="D67" s="502"/>
+      <c r="E67" s="443" t="s">
+        <v>413</v>
       </c>
-      <c r="D67" s="492"/>
-      <c r="E67" s="427" t="s">
-        <v>464</v>
-      </c>
-      <c r="F67" s="428"/>
+      <c r="F67" s="444"/>
       <c r="G67" s="74"/>
       <c r="H67" s="74"/>
       <c r="I67" s="74"/>
@@ -17962,17 +18168,17 @@
       <c r="AD67" s="74"/>
       <c r="AE67" s="74"/>
       <c r="AF67" s="74"/>
-      <c r="AG67" s="476"/>
-      <c r="AH67" s="476"/>
-      <c r="AI67" s="476"/>
-      <c r="AJ67" s="476"/>
+      <c r="AG67" s="141"/>
+      <c r="AH67" s="141"/>
+      <c r="AI67" s="141"/>
+      <c r="AJ67" s="141"/>
       <c r="AK67" s="137"/>
       <c r="AL67" s="137"/>
       <c r="AM67" s="137"/>
       <c r="AN67" s="138"/>
       <c r="AO67" s="137"/>
       <c r="AP67" s="137"/>
-      <c r="AQ67" s="138"/>
+      <c r="AQ67" s="137"/>
       <c r="AR67" s="137"/>
       <c r="AS67" s="137"/>
       <c r="AT67" s="137"/>
@@ -17987,7 +18193,7 @@
       <c r="BC67" s="137"/>
       <c r="BD67" s="137"/>
       <c r="BE67" s="137"/>
-      <c r="BF67" s="138"/>
+      <c r="BF67" s="137"/>
       <c r="BG67" s="137"/>
       <c r="BH67" s="137"/>
       <c r="BI67" s="137"/>
@@ -18007,14 +18213,16 @@
       <c r="BW67" s="137"/>
     </row>
     <row r="68" spans="1:75" s="136" customFormat="1" ht="15.6" customHeight="1">
-      <c r="A68" s="499"/>
-      <c r="B68" s="500"/>
-      <c r="C68" s="493"/>
-      <c r="D68" s="494"/>
-      <c r="E68" s="427" t="s">
-        <v>414</v>
+      <c r="A68" s="497"/>
+      <c r="B68" s="498"/>
+      <c r="C68" s="499" t="s">
+        <v>378</v>
       </c>
-      <c r="F68" s="428"/>
+      <c r="D68" s="500"/>
+      <c r="E68" s="443" t="s">
+        <v>464</v>
+      </c>
+      <c r="F68" s="444"/>
       <c r="G68" s="74"/>
       <c r="H68" s="74"/>
       <c r="I68" s="74"/>
@@ -18039,10 +18247,10 @@
       <c r="AD68" s="74"/>
       <c r="AE68" s="74"/>
       <c r="AF68" s="74"/>
-      <c r="AG68" s="141"/>
-      <c r="AH68" s="141"/>
-      <c r="AI68" s="141"/>
-      <c r="AJ68" s="141"/>
+      <c r="AG68" s="481"/>
+      <c r="AH68" s="481"/>
+      <c r="AI68" s="481"/>
+      <c r="AJ68" s="481"/>
       <c r="AK68" s="137"/>
       <c r="AL68" s="137"/>
       <c r="AM68" s="137"/>
@@ -18084,16 +18292,14 @@
       <c r="BW68" s="137"/>
     </row>
     <row r="69" spans="1:75" s="136" customFormat="1" ht="15.6" customHeight="1">
-      <c r="A69" s="499"/>
-      <c r="B69" s="500"/>
-      <c r="C69" s="491" t="s">
-        <v>379</v>
+      <c r="A69" s="497"/>
+      <c r="B69" s="498"/>
+      <c r="C69" s="501"/>
+      <c r="D69" s="502"/>
+      <c r="E69" s="443" t="s">
+        <v>414</v>
       </c>
-      <c r="D69" s="492"/>
-      <c r="E69" s="427" t="s">
-        <v>465</v>
-      </c>
-      <c r="F69" s="428"/>
+      <c r="F69" s="444"/>
       <c r="G69" s="74"/>
       <c r="H69" s="74"/>
       <c r="I69" s="74"/>
@@ -18118,17 +18324,17 @@
       <c r="AD69" s="74"/>
       <c r="AE69" s="74"/>
       <c r="AF69" s="74"/>
-      <c r="AG69" s="476"/>
-      <c r="AH69" s="476"/>
-      <c r="AI69" s="476"/>
-      <c r="AJ69" s="476"/>
+      <c r="AG69" s="141"/>
+      <c r="AH69" s="141"/>
+      <c r="AI69" s="141"/>
+      <c r="AJ69" s="141"/>
       <c r="AK69" s="137"/>
-      <c r="AL69" s="139"/>
+      <c r="AL69" s="137"/>
       <c r="AM69" s="137"/>
       <c r="AN69" s="138"/>
       <c r="AO69" s="137"/>
       <c r="AP69" s="137"/>
-      <c r="AQ69" s="137"/>
+      <c r="AQ69" s="138"/>
       <c r="AR69" s="137"/>
       <c r="AS69" s="137"/>
       <c r="AT69" s="137"/>
@@ -18143,7 +18349,7 @@
       <c r="BC69" s="137"/>
       <c r="BD69" s="137"/>
       <c r="BE69" s="137"/>
-      <c r="BF69" s="137"/>
+      <c r="BF69" s="138"/>
       <c r="BG69" s="137"/>
       <c r="BH69" s="137"/>
       <c r="BI69" s="137"/>
@@ -18155,7 +18361,7 @@
       <c r="BO69" s="137"/>
       <c r="BP69" s="137"/>
       <c r="BQ69" s="137"/>
-      <c r="BR69" s="142"/>
+      <c r="BR69" s="139"/>
       <c r="BS69" s="140"/>
       <c r="BT69" s="139"/>
       <c r="BU69" s="137"/>
@@ -18163,14 +18369,16 @@
       <c r="BW69" s="137"/>
     </row>
     <row r="70" spans="1:75" s="136" customFormat="1" ht="15.6" customHeight="1">
-      <c r="A70" s="499"/>
-      <c r="B70" s="500"/>
-      <c r="C70" s="493"/>
-      <c r="D70" s="494"/>
-      <c r="E70" s="427" t="s">
-        <v>415</v>
+      <c r="A70" s="497"/>
+      <c r="B70" s="498"/>
+      <c r="C70" s="499" t="s">
+        <v>379</v>
       </c>
-      <c r="F70" s="428"/>
+      <c r="D70" s="500"/>
+      <c r="E70" s="443" t="s">
+        <v>465</v>
+      </c>
+      <c r="F70" s="444"/>
       <c r="G70" s="74"/>
       <c r="H70" s="74"/>
       <c r="I70" s="74"/>
@@ -18195,10 +18403,10 @@
       <c r="AD70" s="74"/>
       <c r="AE70" s="74"/>
       <c r="AF70" s="74"/>
-      <c r="AG70" s="141"/>
-      <c r="AH70" s="141"/>
-      <c r="AI70" s="141"/>
-      <c r="AJ70" s="141"/>
+      <c r="AG70" s="481"/>
+      <c r="AH70" s="481"/>
+      <c r="AI70" s="481"/>
+      <c r="AJ70" s="481"/>
       <c r="AK70" s="137"/>
       <c r="AL70" s="139"/>
       <c r="AM70" s="137"/>
@@ -18240,16 +18448,14 @@
       <c r="BW70" s="137"/>
     </row>
     <row r="71" spans="1:75" s="136" customFormat="1" ht="15.6" customHeight="1">
-      <c r="A71" s="499"/>
-      <c r="B71" s="500"/>
-      <c r="C71" s="491" t="s">
-        <v>380</v>
+      <c r="A71" s="497"/>
+      <c r="B71" s="498"/>
+      <c r="C71" s="501"/>
+      <c r="D71" s="502"/>
+      <c r="E71" s="443" t="s">
+        <v>415</v>
       </c>
-      <c r="D71" s="492"/>
-      <c r="E71" s="427" t="s">
-        <v>466</v>
-      </c>
-      <c r="F71" s="428"/>
+      <c r="F71" s="444"/>
       <c r="G71" s="74"/>
       <c r="H71" s="74"/>
       <c r="I71" s="74"/>
@@ -18274,17 +18480,17 @@
       <c r="AD71" s="74"/>
       <c r="AE71" s="74"/>
       <c r="AF71" s="74"/>
-      <c r="AG71" s="476"/>
-      <c r="AH71" s="476"/>
-      <c r="AI71" s="476"/>
-      <c r="AJ71" s="476"/>
+      <c r="AG71" s="141"/>
+      <c r="AH71" s="141"/>
+      <c r="AI71" s="141"/>
+      <c r="AJ71" s="141"/>
       <c r="AK71" s="137"/>
-      <c r="AL71" s="138"/>
+      <c r="AL71" s="139"/>
       <c r="AM71" s="137"/>
       <c r="AN71" s="138"/>
       <c r="AO71" s="137"/>
       <c r="AP71" s="137"/>
-      <c r="AQ71" s="138"/>
+      <c r="AQ71" s="137"/>
       <c r="AR71" s="137"/>
       <c r="AS71" s="137"/>
       <c r="AT71" s="137"/>
@@ -18299,7 +18505,7 @@
       <c r="BC71" s="137"/>
       <c r="BD71" s="137"/>
       <c r="BE71" s="137"/>
-      <c r="BF71" s="138"/>
+      <c r="BF71" s="137"/>
       <c r="BG71" s="137"/>
       <c r="BH71" s="137"/>
       <c r="BI71" s="137"/>
@@ -18311,7 +18517,7 @@
       <c r="BO71" s="137"/>
       <c r="BP71" s="137"/>
       <c r="BQ71" s="137"/>
-      <c r="BR71" s="139"/>
+      <c r="BR71" s="142"/>
       <c r="BS71" s="140"/>
       <c r="BT71" s="139"/>
       <c r="BU71" s="137"/>
@@ -18319,14 +18525,16 @@
       <c r="BW71" s="137"/>
     </row>
     <row r="72" spans="1:75" s="136" customFormat="1" ht="15.6" customHeight="1">
-      <c r="A72" s="499"/>
-      <c r="B72" s="500"/>
-      <c r="C72" s="493"/>
-      <c r="D72" s="494"/>
-      <c r="E72" s="427" t="s">
-        <v>416</v>
+      <c r="A72" s="497"/>
+      <c r="B72" s="498"/>
+      <c r="C72" s="499" t="s">
+        <v>380</v>
       </c>
-      <c r="F72" s="428"/>
+      <c r="D72" s="500"/>
+      <c r="E72" s="443" t="s">
+        <v>466</v>
+      </c>
+      <c r="F72" s="444"/>
       <c r="G72" s="74"/>
       <c r="H72" s="74"/>
       <c r="I72" s="74"/>
@@ -18351,10 +18559,10 @@
       <c r="AD72" s="74"/>
       <c r="AE72" s="74"/>
       <c r="AF72" s="74"/>
-      <c r="AG72" s="141"/>
-      <c r="AH72" s="141"/>
-      <c r="AI72" s="141"/>
-      <c r="AJ72" s="141"/>
+      <c r="AG72" s="481"/>
+      <c r="AH72" s="481"/>
+      <c r="AI72" s="481"/>
+      <c r="AJ72" s="481"/>
       <c r="AK72" s="137"/>
       <c r="AL72" s="138"/>
       <c r="AM72" s="137"/>
@@ -18396,16 +18604,14 @@
       <c r="BW72" s="137"/>
     </row>
     <row r="73" spans="1:75" s="136" customFormat="1" ht="15.6" customHeight="1">
-      <c r="A73" s="499"/>
-      <c r="B73" s="500"/>
-      <c r="C73" s="491" t="s">
-        <v>381</v>
+      <c r="A73" s="497"/>
+      <c r="B73" s="498"/>
+      <c r="C73" s="501"/>
+      <c r="D73" s="502"/>
+      <c r="E73" s="443" t="s">
+        <v>416</v>
       </c>
-      <c r="D73" s="492"/>
-      <c r="E73" s="427" t="s">
-        <v>467</v>
-      </c>
-      <c r="F73" s="428"/>
+      <c r="F73" s="444"/>
       <c r="G73" s="74"/>
       <c r="H73" s="74"/>
       <c r="I73" s="74"/>
@@ -18430,17 +18636,17 @@
       <c r="AD73" s="74"/>
       <c r="AE73" s="74"/>
       <c r="AF73" s="74"/>
-      <c r="AG73" s="476"/>
-      <c r="AH73" s="476"/>
-      <c r="AI73" s="476"/>
-      <c r="AJ73" s="476"/>
-      <c r="AK73" s="143"/>
-      <c r="AL73" s="139"/>
+      <c r="AG73" s="141"/>
+      <c r="AH73" s="141"/>
+      <c r="AI73" s="141"/>
+      <c r="AJ73" s="141"/>
+      <c r="AK73" s="137"/>
+      <c r="AL73" s="138"/>
       <c r="AM73" s="137"/>
       <c r="AN73" s="138"/>
       <c r="AO73" s="137"/>
       <c r="AP73" s="137"/>
-      <c r="AQ73" s="137"/>
+      <c r="AQ73" s="138"/>
       <c r="AR73" s="137"/>
       <c r="AS73" s="137"/>
       <c r="AT73" s="137"/>
@@ -18455,7 +18661,7 @@
       <c r="BC73" s="137"/>
       <c r="BD73" s="137"/>
       <c r="BE73" s="137"/>
-      <c r="BF73" s="137"/>
+      <c r="BF73" s="138"/>
       <c r="BG73" s="137"/>
       <c r="BH73" s="137"/>
       <c r="BI73" s="137"/>
@@ -18467,7 +18673,7 @@
       <c r="BO73" s="137"/>
       <c r="BP73" s="137"/>
       <c r="BQ73" s="137"/>
-      <c r="BR73" s="142"/>
+      <c r="BR73" s="139"/>
       <c r="BS73" s="140"/>
       <c r="BT73" s="139"/>
       <c r="BU73" s="137"/>
@@ -18475,14 +18681,16 @@
       <c r="BW73" s="137"/>
     </row>
     <row r="74" spans="1:75" s="136" customFormat="1" ht="15.6" customHeight="1">
-      <c r="A74" s="499"/>
-      <c r="B74" s="500"/>
-      <c r="C74" s="493"/>
-      <c r="D74" s="494"/>
-      <c r="E74" s="427" t="s">
-        <v>417</v>
+      <c r="A74" s="497"/>
+      <c r="B74" s="498"/>
+      <c r="C74" s="499" t="s">
+        <v>381</v>
       </c>
-      <c r="F74" s="428"/>
+      <c r="D74" s="500"/>
+      <c r="E74" s="443" t="s">
+        <v>467</v>
+      </c>
+      <c r="F74" s="444"/>
       <c r="G74" s="74"/>
       <c r="H74" s="74"/>
       <c r="I74" s="74"/>
@@ -18507,10 +18715,10 @@
       <c r="AD74" s="74"/>
       <c r="AE74" s="74"/>
       <c r="AF74" s="74"/>
-      <c r="AG74" s="141"/>
-      <c r="AH74" s="141"/>
-      <c r="AI74" s="141"/>
-      <c r="AJ74" s="141"/>
+      <c r="AG74" s="481"/>
+      <c r="AH74" s="481"/>
+      <c r="AI74" s="481"/>
+      <c r="AJ74" s="481"/>
       <c r="AK74" s="143"/>
       <c r="AL74" s="139"/>
       <c r="AM74" s="137"/>
@@ -18552,16 +18760,14 @@
       <c r="BW74" s="137"/>
     </row>
     <row r="75" spans="1:75" s="136" customFormat="1" ht="15.6" customHeight="1">
-      <c r="A75" s="499"/>
-      <c r="B75" s="500"/>
-      <c r="C75" s="491" t="s">
-        <v>382</v>
+      <c r="A75" s="497"/>
+      <c r="B75" s="498"/>
+      <c r="C75" s="501"/>
+      <c r="D75" s="502"/>
+      <c r="E75" s="443" t="s">
+        <v>417</v>
       </c>
-      <c r="D75" s="492"/>
-      <c r="E75" s="427" t="s">
-        <v>468</v>
-      </c>
-      <c r="F75" s="428"/>
+      <c r="F75" s="444"/>
       <c r="G75" s="74"/>
       <c r="H75" s="74"/>
       <c r="I75" s="74"/>
@@ -18586,17 +18792,17 @@
       <c r="AD75" s="74"/>
       <c r="AE75" s="74"/>
       <c r="AF75" s="74"/>
-      <c r="AG75" s="476"/>
-      <c r="AH75" s="476"/>
-      <c r="AI75" s="476"/>
-      <c r="AJ75" s="476"/>
-      <c r="AK75" s="137"/>
-      <c r="AL75" s="138"/>
+      <c r="AG75" s="141"/>
+      <c r="AH75" s="141"/>
+      <c r="AI75" s="141"/>
+      <c r="AJ75" s="141"/>
+      <c r="AK75" s="143"/>
+      <c r="AL75" s="139"/>
       <c r="AM75" s="137"/>
       <c r="AN75" s="138"/>
       <c r="AO75" s="137"/>
       <c r="AP75" s="137"/>
-      <c r="AQ75" s="138"/>
+      <c r="AQ75" s="137"/>
       <c r="AR75" s="137"/>
       <c r="AS75" s="137"/>
       <c r="AT75" s="137"/>
@@ -18611,7 +18817,7 @@
       <c r="BC75" s="137"/>
       <c r="BD75" s="137"/>
       <c r="BE75" s="137"/>
-      <c r="BF75" s="138"/>
+      <c r="BF75" s="137"/>
       <c r="BG75" s="137"/>
       <c r="BH75" s="137"/>
       <c r="BI75" s="137"/>
@@ -18623,7 +18829,7 @@
       <c r="BO75" s="137"/>
       <c r="BP75" s="137"/>
       <c r="BQ75" s="137"/>
-      <c r="BR75" s="139"/>
+      <c r="BR75" s="142"/>
       <c r="BS75" s="140"/>
       <c r="BT75" s="139"/>
       <c r="BU75" s="137"/>
@@ -18631,14 +18837,16 @@
       <c r="BW75" s="137"/>
     </row>
     <row r="76" spans="1:75" s="136" customFormat="1" ht="15.6" customHeight="1">
-      <c r="A76" s="499"/>
-      <c r="B76" s="500"/>
-      <c r="C76" s="493"/>
-      <c r="D76" s="494"/>
-      <c r="E76" s="427" t="s">
-        <v>418</v>
+      <c r="A76" s="497"/>
+      <c r="B76" s="498"/>
+      <c r="C76" s="499" t="s">
+        <v>382</v>
       </c>
-      <c r="F76" s="428"/>
+      <c r="D76" s="500"/>
+      <c r="E76" s="443" t="s">
+        <v>468</v>
+      </c>
+      <c r="F76" s="444"/>
       <c r="G76" s="74"/>
       <c r="H76" s="74"/>
       <c r="I76" s="74"/>
@@ -18663,10 +18871,10 @@
       <c r="AD76" s="74"/>
       <c r="AE76" s="74"/>
       <c r="AF76" s="74"/>
-      <c r="AG76" s="141"/>
-      <c r="AH76" s="141"/>
-      <c r="AI76" s="141"/>
-      <c r="AJ76" s="141"/>
+      <c r="AG76" s="481"/>
+      <c r="AH76" s="481"/>
+      <c r="AI76" s="481"/>
+      <c r="AJ76" s="481"/>
       <c r="AK76" s="137"/>
       <c r="AL76" s="138"/>
       <c r="AM76" s="137"/>
@@ -18708,16 +18916,14 @@
       <c r="BW76" s="137"/>
     </row>
     <row r="77" spans="1:75" s="136" customFormat="1" ht="15.6" customHeight="1">
-      <c r="A77" s="499"/>
-      <c r="B77" s="500"/>
-      <c r="C77" s="491" t="s">
-        <v>383</v>
+      <c r="A77" s="497"/>
+      <c r="B77" s="498"/>
+      <c r="C77" s="501"/>
+      <c r="D77" s="502"/>
+      <c r="E77" s="443" t="s">
+        <v>418</v>
       </c>
-      <c r="D77" s="492"/>
-      <c r="E77" s="427" t="s">
-        <v>469</v>
-      </c>
-      <c r="F77" s="428"/>
+      <c r="F77" s="444"/>
       <c r="G77" s="74"/>
       <c r="H77" s="74"/>
       <c r="I77" s="74"/>
@@ -18742,17 +18948,17 @@
       <c r="AD77" s="74"/>
       <c r="AE77" s="74"/>
       <c r="AF77" s="74"/>
-      <c r="AG77" s="476"/>
-      <c r="AH77" s="476"/>
-      <c r="AI77" s="476"/>
-      <c r="AJ77" s="476"/>
-      <c r="AK77" s="143"/>
-      <c r="AL77" s="139"/>
+      <c r="AG77" s="141"/>
+      <c r="AH77" s="141"/>
+      <c r="AI77" s="141"/>
+      <c r="AJ77" s="141"/>
+      <c r="AK77" s="137"/>
+      <c r="AL77" s="138"/>
       <c r="AM77" s="137"/>
       <c r="AN77" s="138"/>
       <c r="AO77" s="137"/>
       <c r="AP77" s="137"/>
-      <c r="AQ77" s="137"/>
+      <c r="AQ77" s="138"/>
       <c r="AR77" s="137"/>
       <c r="AS77" s="137"/>
       <c r="AT77" s="137"/>
@@ -18767,7 +18973,7 @@
       <c r="BC77" s="137"/>
       <c r="BD77" s="137"/>
       <c r="BE77" s="137"/>
-      <c r="BF77" s="137"/>
+      <c r="BF77" s="138"/>
       <c r="BG77" s="137"/>
       <c r="BH77" s="137"/>
       <c r="BI77" s="137"/>
@@ -18779,7 +18985,7 @@
       <c r="BO77" s="137"/>
       <c r="BP77" s="137"/>
       <c r="BQ77" s="137"/>
-      <c r="BR77" s="142"/>
+      <c r="BR77" s="139"/>
       <c r="BS77" s="140"/>
       <c r="BT77" s="139"/>
       <c r="BU77" s="137"/>
@@ -18787,14 +18993,16 @@
       <c r="BW77" s="137"/>
     </row>
     <row r="78" spans="1:75" s="136" customFormat="1" ht="15.6" customHeight="1">
-      <c r="A78" s="499"/>
-      <c r="B78" s="500"/>
-      <c r="C78" s="493"/>
-      <c r="D78" s="494"/>
-      <c r="E78" s="427" t="s">
-        <v>419</v>
+      <c r="A78" s="497"/>
+      <c r="B78" s="498"/>
+      <c r="C78" s="499" t="s">
+        <v>383</v>
       </c>
-      <c r="F78" s="428"/>
+      <c r="D78" s="500"/>
+      <c r="E78" s="443" t="s">
+        <v>469</v>
+      </c>
+      <c r="F78" s="444"/>
       <c r="G78" s="74"/>
       <c r="H78" s="74"/>
       <c r="I78" s="74"/>
@@ -18819,10 +19027,10 @@
       <c r="AD78" s="74"/>
       <c r="AE78" s="74"/>
       <c r="AF78" s="74"/>
-      <c r="AG78" s="141"/>
-      <c r="AH78" s="141"/>
-      <c r="AI78" s="141"/>
-      <c r="AJ78" s="141"/>
+      <c r="AG78" s="481"/>
+      <c r="AH78" s="481"/>
+      <c r="AI78" s="481"/>
+      <c r="AJ78" s="481"/>
       <c r="AK78" s="143"/>
       <c r="AL78" s="139"/>
       <c r="AM78" s="137"/>
@@ -18864,16 +19072,14 @@
       <c r="BW78" s="137"/>
     </row>
     <row r="79" spans="1:75" s="136" customFormat="1" ht="15.6" customHeight="1">
-      <c r="A79" s="499"/>
-      <c r="B79" s="500"/>
-      <c r="C79" s="491" t="s">
-        <v>384</v>
+      <c r="A79" s="497"/>
+      <c r="B79" s="498"/>
+      <c r="C79" s="501"/>
+      <c r="D79" s="502"/>
+      <c r="E79" s="443" t="s">
+        <v>419</v>
       </c>
-      <c r="D79" s="492"/>
-      <c r="E79" s="427" t="s">
-        <v>470</v>
-      </c>
-      <c r="F79" s="428"/>
+      <c r="F79" s="444"/>
       <c r="G79" s="74"/>
       <c r="H79" s="74"/>
       <c r="I79" s="74"/>
@@ -18881,8 +19087,6 @@
       <c r="K79" s="74"/>
       <c r="L79" s="74"/>
       <c r="M79" s="74"/>
-      <c r="N79" s="74"/>
-      <c r="O79" s="74"/>
       <c r="P79" s="74"/>
       <c r="Q79" s="74"/>
       <c r="R79" s="74"/>
@@ -18900,12 +19104,12 @@
       <c r="AD79" s="74"/>
       <c r="AE79" s="74"/>
       <c r="AF79" s="74"/>
-      <c r="AG79" s="476"/>
-      <c r="AH79" s="476"/>
-      <c r="AI79" s="476"/>
-      <c r="AJ79" s="476"/>
-      <c r="AK79" s="138"/>
-      <c r="AL79" s="138"/>
+      <c r="AG79" s="141"/>
+      <c r="AH79" s="141"/>
+      <c r="AI79" s="141"/>
+      <c r="AJ79" s="141"/>
+      <c r="AK79" s="143"/>
+      <c r="AL79" s="139"/>
       <c r="AM79" s="137"/>
       <c r="AN79" s="138"/>
       <c r="AO79" s="137"/>
@@ -18937,22 +19141,24 @@
       <c r="BO79" s="137"/>
       <c r="BP79" s="137"/>
       <c r="BQ79" s="137"/>
-      <c r="BR79" s="139"/>
+      <c r="BR79" s="142"/>
       <c r="BS79" s="140"/>
-      <c r="BT79" s="137"/>
+      <c r="BT79" s="139"/>
       <c r="BU79" s="137"/>
       <c r="BV79" s="137"/>
       <c r="BW79" s="137"/>
     </row>
     <row r="80" spans="1:75" s="136" customFormat="1" ht="15.6" customHeight="1">
-      <c r="A80" s="499"/>
-      <c r="B80" s="500"/>
-      <c r="C80" s="493"/>
-      <c r="D80" s="494"/>
-      <c r="E80" s="427" t="s">
-        <v>420</v>
+      <c r="A80" s="497"/>
+      <c r="B80" s="498"/>
+      <c r="C80" s="499" t="s">
+        <v>384</v>
       </c>
-      <c r="F80" s="428"/>
+      <c r="D80" s="500"/>
+      <c r="E80" s="443" t="s">
+        <v>470</v>
+      </c>
+      <c r="F80" s="444"/>
       <c r="G80" s="74"/>
       <c r="H80" s="74"/>
       <c r="I80" s="74"/>
@@ -18979,10 +19185,10 @@
       <c r="AD80" s="74"/>
       <c r="AE80" s="74"/>
       <c r="AF80" s="74"/>
-      <c r="AG80" s="141"/>
-      <c r="AH80" s="141"/>
-      <c r="AI80" s="141"/>
-      <c r="AJ80" s="141"/>
+      <c r="AG80" s="481"/>
+      <c r="AH80" s="481"/>
+      <c r="AI80" s="481"/>
+      <c r="AJ80" s="481"/>
       <c r="AK80" s="138"/>
       <c r="AL80" s="138"/>
       <c r="AM80" s="137"/>
@@ -19024,16 +19230,14 @@
       <c r="BW80" s="137"/>
     </row>
     <row r="81" spans="1:75" s="136" customFormat="1" ht="15.6" customHeight="1">
-      <c r="A81" s="499"/>
-      <c r="B81" s="500"/>
-      <c r="C81" s="491" t="s">
-        <v>386</v>
+      <c r="A81" s="497"/>
+      <c r="B81" s="498"/>
+      <c r="C81" s="501"/>
+      <c r="D81" s="502"/>
+      <c r="E81" s="443" t="s">
+        <v>420</v>
       </c>
-      <c r="D81" s="492"/>
-      <c r="E81" s="427" t="s">
-        <v>471</v>
-      </c>
-      <c r="F81" s="428"/>
+      <c r="F81" s="444"/>
       <c r="G81" s="74"/>
       <c r="H81" s="74"/>
       <c r="I81" s="74"/>
@@ -19105,14 +19309,16 @@
       <c r="BW81" s="137"/>
     </row>
     <row r="82" spans="1:75" s="136" customFormat="1" ht="15.6" customHeight="1">
-      <c r="A82" s="499"/>
-      <c r="B82" s="500"/>
-      <c r="C82" s="493"/>
-      <c r="D82" s="494"/>
-      <c r="E82" s="427" t="s">
-        <v>421</v>
+      <c r="A82" s="497"/>
+      <c r="B82" s="498"/>
+      <c r="C82" s="499" t="s">
+        <v>386</v>
       </c>
-      <c r="F82" s="428"/>
+      <c r="D82" s="500"/>
+      <c r="E82" s="443" t="s">
+        <v>471</v>
+      </c>
+      <c r="F82" s="444"/>
       <c r="G82" s="74"/>
       <c r="H82" s="74"/>
       <c r="I82" s="74"/>
@@ -19183,15 +19389,15 @@
       <c r="BV82" s="137"/>
       <c r="BW82" s="137"/>
     </row>
-    <row r="83" spans="1:75" s="136" customFormat="1" ht="18">
-      <c r="A83" s="184"/>
-      <c r="B83" s="185"/>
-      <c r="C83" s="497" t="s">
-        <v>31</v>
+    <row r="83" spans="1:75" s="136" customFormat="1" ht="15.6" customHeight="1">
+      <c r="A83" s="497"/>
+      <c r="B83" s="498"/>
+      <c r="C83" s="501"/>
+      <c r="D83" s="502"/>
+      <c r="E83" s="443" t="s">
+        <v>421</v>
       </c>
-      <c r="D83" s="498"/>
-      <c r="E83" s="427"/>
-      <c r="F83" s="428"/>
+      <c r="F83" s="444"/>
       <c r="G83" s="74"/>
       <c r="H83" s="74"/>
       <c r="I83" s="74"/>
@@ -19218,10 +19424,10 @@
       <c r="AD83" s="74"/>
       <c r="AE83" s="74"/>
       <c r="AF83" s="74"/>
-      <c r="AG83" s="186"/>
-      <c r="AH83" s="186"/>
-      <c r="AI83" s="186"/>
-      <c r="AJ83" s="186"/>
+      <c r="AG83" s="141"/>
+      <c r="AH83" s="141"/>
+      <c r="AI83" s="141"/>
+      <c r="AJ83" s="141"/>
       <c r="AK83" s="138"/>
       <c r="AL83" s="138"/>
       <c r="AM83" s="137"/>
@@ -19265,15 +19471,15 @@
     <row r="84" spans="1:75" s="136" customFormat="1" ht="18">
       <c r="A84" s="184"/>
       <c r="B84" s="185"/>
-      <c r="C84" s="497" t="s">
-        <v>3</v>
+      <c r="C84" s="431" t="s">
+        <v>31</v>
       </c>
-      <c r="D84" s="498"/>
-      <c r="E84" s="427"/>
-      <c r="F84" s="428"/>
+      <c r="D84" s="432"/>
+      <c r="E84" s="506"/>
+      <c r="F84" s="444"/>
       <c r="G84" s="74"/>
-      <c r="H84" s="74"/>
-      <c r="I84" s="74"/>
+      <c r="H84"/>
+      <c r="I84"/>
       <c r="J84" s="74"/>
       <c r="K84" s="74"/>
       <c r="L84" s="74"/>
@@ -19344,15 +19550,17 @@
     <row r="85" spans="1:75" s="136" customFormat="1" ht="18">
       <c r="A85" s="184"/>
       <c r="B85" s="185"/>
-      <c r="C85" s="497" t="s">
-        <v>4</v>
+      <c r="C85" s="431" t="s">
+        <v>3</v>
       </c>
-      <c r="D85" s="498"/>
-      <c r="E85" s="427"/>
-      <c r="F85" s="428"/>
+      <c r="D85" s="432"/>
+      <c r="E85" s="493" t="s">
+        <v>591</v>
+      </c>
+      <c r="F85" s="494"/>
       <c r="G85" s="74"/>
-      <c r="H85" s="74"/>
-      <c r="I85" s="74"/>
+      <c r="H85"/>
+      <c r="I85"/>
       <c r="J85" s="74"/>
       <c r="K85" s="74"/>
       <c r="L85" s="74"/>
@@ -19420,22 +19628,20 @@
       <c r="BV85" s="137"/>
       <c r="BW85" s="137"/>
     </row>
-    <row r="86" spans="1:75" s="136" customFormat="1" ht="27" customHeight="1">
-      <c r="A86" s="429" t="s">
-        <v>1</v>
+    <row r="86" spans="1:75" s="136" customFormat="1" ht="18">
+      <c r="A86" s="184"/>
+      <c r="B86" s="185"/>
+      <c r="C86" s="431" t="s">
+        <v>4</v>
       </c>
-      <c r="B86" s="430"/>
-      <c r="C86" s="495" t="s">
-        <v>5</v>
+      <c r="D86" s="432"/>
+      <c r="E86" s="493" t="s">
+        <v>592</v>
       </c>
-      <c r="D86" s="496"/>
-      <c r="E86" s="427" t="s">
-        <v>296</v>
-      </c>
-      <c r="F86" s="428"/>
+      <c r="F86" s="494"/>
       <c r="G86" s="74"/>
-      <c r="H86" s="74"/>
-      <c r="I86" s="74"/>
+      <c r="H86"/>
+      <c r="I86"/>
       <c r="J86" s="74"/>
       <c r="K86" s="74"/>
       <c r="L86" s="74"/>
@@ -19459,14 +19665,14 @@
       <c r="AD86" s="74"/>
       <c r="AE86" s="74"/>
       <c r="AF86" s="74"/>
-      <c r="AG86" s="489"/>
-      <c r="AH86" s="489"/>
-      <c r="AI86" s="489"/>
-      <c r="AJ86" s="489"/>
-      <c r="AK86" s="143"/>
-      <c r="AL86" s="137"/>
+      <c r="AG86" s="186"/>
+      <c r="AH86" s="186"/>
+      <c r="AI86" s="186"/>
+      <c r="AJ86" s="186"/>
+      <c r="AK86" s="138"/>
+      <c r="AL86" s="138"/>
       <c r="AM86" s="137"/>
-      <c r="AN86" s="137"/>
+      <c r="AN86" s="138"/>
       <c r="AO86" s="137"/>
       <c r="AP86" s="137"/>
       <c r="AQ86" s="137"/>
@@ -19496,27 +19702,29 @@
       <c r="BO86" s="137"/>
       <c r="BP86" s="137"/>
       <c r="BQ86" s="137"/>
-      <c r="BR86" s="137"/>
-      <c r="BS86" s="137"/>
+      <c r="BR86" s="139"/>
+      <c r="BS86" s="140"/>
       <c r="BT86" s="137"/>
       <c r="BU86" s="137"/>
       <c r="BV86" s="137"/>
       <c r="BW86" s="137"/>
     </row>
     <row r="87" spans="1:75" s="136" customFormat="1" ht="27" customHeight="1">
-      <c r="A87" s="431"/>
-      <c r="B87" s="432"/>
-      <c r="C87" s="495" t="s">
-        <v>6</v>
+      <c r="A87" s="445" t="s">
+        <v>1</v>
       </c>
-      <c r="D87" s="496"/>
-      <c r="E87" s="427" t="s">
-        <v>297</v>
+      <c r="B87" s="446"/>
+      <c r="C87" s="507" t="s">
+        <v>5</v>
       </c>
-      <c r="F87" s="428"/>
+      <c r="D87" s="508"/>
+      <c r="E87" s="443" t="s">
+        <v>296</v>
+      </c>
+      <c r="F87" s="444"/>
       <c r="G87" s="74"/>
-      <c r="H87" s="74"/>
-      <c r="I87" s="74"/>
+      <c r="H87"/>
+      <c r="I87"/>
       <c r="J87" s="74"/>
       <c r="K87" s="74"/>
       <c r="L87" s="74"/>
@@ -19540,10 +19748,10 @@
       <c r="AD87" s="74"/>
       <c r="AE87" s="74"/>
       <c r="AF87" s="74"/>
-      <c r="AG87" s="489"/>
-      <c r="AH87" s="489"/>
-      <c r="AI87" s="489"/>
-      <c r="AJ87" s="489"/>
+      <c r="AG87" s="504"/>
+      <c r="AH87" s="504"/>
+      <c r="AI87" s="504"/>
+      <c r="AJ87" s="504"/>
       <c r="AK87" s="143"/>
       <c r="AL87" s="137"/>
       <c r="AM87" s="137"/>
@@ -19585,16 +19793,16 @@
       <c r="BW87" s="137"/>
     </row>
     <row r="88" spans="1:75" s="136" customFormat="1" ht="27" customHeight="1">
-      <c r="A88" s="431"/>
-      <c r="B88" s="432"/>
-      <c r="C88" s="495" t="s">
-        <v>0</v>
+      <c r="A88" s="447"/>
+      <c r="B88" s="448"/>
+      <c r="C88" s="507" t="s">
+        <v>6</v>
       </c>
-      <c r="D88" s="496"/>
-      <c r="E88" s="427" t="s">
-        <v>298</v>
+      <c r="D88" s="508"/>
+      <c r="E88" s="443" t="s">
+        <v>297</v>
       </c>
-      <c r="F88" s="428"/>
+      <c r="F88" s="444"/>
       <c r="G88" s="74"/>
       <c r="H88" s="74"/>
       <c r="I88" s="74"/>
@@ -19621,10 +19829,10 @@
       <c r="AD88" s="74"/>
       <c r="AE88" s="74"/>
       <c r="AF88" s="74"/>
-      <c r="AG88" s="490"/>
-      <c r="AH88" s="490"/>
-      <c r="AI88" s="490"/>
-      <c r="AJ88" s="490"/>
+      <c r="AG88" s="504"/>
+      <c r="AH88" s="504"/>
+      <c r="AI88" s="504"/>
+      <c r="AJ88" s="504"/>
       <c r="AK88" s="143"/>
       <c r="AL88" s="137"/>
       <c r="AM88" s="137"/>
@@ -19666,16 +19874,16 @@
       <c r="BW88" s="137"/>
     </row>
     <row r="89" spans="1:75" s="136" customFormat="1" ht="27" customHeight="1">
-      <c r="A89" s="431"/>
-      <c r="B89" s="432"/>
-      <c r="C89" s="495" t="s">
-        <v>48</v>
+      <c r="A89" s="447"/>
+      <c r="B89" s="448"/>
+      <c r="C89" s="507" t="s">
+        <v>0</v>
       </c>
-      <c r="D89" s="496"/>
-      <c r="E89" s="427" t="s">
-        <v>299</v>
+      <c r="D89" s="508"/>
+      <c r="E89" s="443" t="s">
+        <v>298</v>
       </c>
-      <c r="F89" s="428"/>
+      <c r="F89" s="444"/>
       <c r="G89" s="74"/>
       <c r="H89" s="74"/>
       <c r="I89" s="74"/>
@@ -19702,10 +19910,10 @@
       <c r="AD89" s="74"/>
       <c r="AE89" s="74"/>
       <c r="AF89" s="74"/>
-      <c r="AG89" s="144"/>
-      <c r="AH89" s="144"/>
-      <c r="AI89" s="144"/>
-      <c r="AJ89" s="144"/>
+      <c r="AG89" s="505"/>
+      <c r="AH89" s="505"/>
+      <c r="AI89" s="505"/>
+      <c r="AJ89" s="505"/>
       <c r="AK89" s="143"/>
       <c r="AL89" s="137"/>
       <c r="AM89" s="137"/>
@@ -19747,16 +19955,16 @@
       <c r="BW89" s="137"/>
     </row>
     <row r="90" spans="1:75" s="136" customFormat="1" ht="27" customHeight="1">
-      <c r="A90" s="431"/>
-      <c r="B90" s="432"/>
-      <c r="C90" s="495" t="s">
-        <v>34</v>
+      <c r="A90" s="447"/>
+      <c r="B90" s="448"/>
+      <c r="C90" s="507" t="s">
+        <v>48</v>
       </c>
-      <c r="D90" s="496"/>
-      <c r="E90" s="427" t="s">
-        <v>387</v>
+      <c r="D90" s="508"/>
+      <c r="E90" s="443" t="s">
+        <v>299</v>
       </c>
-      <c r="F90" s="428"/>
+      <c r="F90" s="444"/>
       <c r="G90" s="74"/>
       <c r="H90" s="74"/>
       <c r="I90" s="74"/>
@@ -19783,10 +19991,10 @@
       <c r="AD90" s="74"/>
       <c r="AE90" s="74"/>
       <c r="AF90" s="74"/>
-      <c r="AG90" s="490"/>
-      <c r="AH90" s="490"/>
-      <c r="AI90" s="490"/>
-      <c r="AJ90" s="490"/>
+      <c r="AG90" s="144"/>
+      <c r="AH90" s="144"/>
+      <c r="AI90" s="144"/>
+      <c r="AJ90" s="144"/>
       <c r="AK90" s="143"/>
       <c r="AL90" s="137"/>
       <c r="AM90" s="137"/>
@@ -19827,17 +20035,17 @@
       <c r="BV90" s="137"/>
       <c r="BW90" s="137"/>
     </row>
-    <row r="91" spans="1:75" s="136" customFormat="1" ht="32.25" customHeight="1">
-      <c r="A91" s="487" t="s">
-        <v>44</v>
+    <row r="91" spans="1:75" s="136" customFormat="1" ht="27" customHeight="1">
+      <c r="A91" s="447"/>
+      <c r="B91" s="448"/>
+      <c r="C91" s="507" t="s">
+        <v>34</v>
       </c>
-      <c r="B91" s="487"/>
-      <c r="C91" s="487"/>
-      <c r="D91" s="487"/>
-      <c r="E91" s="427" t="s">
-        <v>300</v>
+      <c r="D91" s="508"/>
+      <c r="E91" s="443" t="s">
+        <v>387</v>
       </c>
-      <c r="F91" s="428"/>
+      <c r="F91" s="444"/>
       <c r="G91" s="74"/>
       <c r="H91" s="74"/>
       <c r="I91" s="74"/>
@@ -19864,10 +20072,10 @@
       <c r="AD91" s="74"/>
       <c r="AE91" s="74"/>
       <c r="AF91" s="74"/>
-      <c r="AG91" s="488"/>
-      <c r="AH91" s="488"/>
-      <c r="AI91" s="488"/>
-      <c r="AJ91" s="488"/>
+      <c r="AG91" s="505"/>
+      <c r="AH91" s="505"/>
+      <c r="AI91" s="505"/>
+      <c r="AJ91" s="505"/>
       <c r="AK91" s="143"/>
       <c r="AL91" s="137"/>
       <c r="AM91" s="137"/>
@@ -19909,16 +20117,16 @@
       <c r="BW91" s="137"/>
     </row>
     <row r="92" spans="1:75" s="136" customFormat="1" ht="32.25" customHeight="1">
-      <c r="A92" s="487" t="s">
-        <v>45</v>
+      <c r="A92" s="492" t="s">
+        <v>44</v>
       </c>
-      <c r="B92" s="487"/>
-      <c r="C92" s="487"/>
-      <c r="D92" s="487"/>
-      <c r="E92" s="427" t="s">
-        <v>301</v>
+      <c r="B92" s="492"/>
+      <c r="C92" s="492"/>
+      <c r="D92" s="492"/>
+      <c r="E92" s="443" t="s">
+        <v>300</v>
       </c>
-      <c r="F92" s="428"/>
+      <c r="F92" s="444"/>
       <c r="G92" s="74"/>
       <c r="H92" s="74"/>
       <c r="I92" s="74"/>
@@ -19945,10 +20153,10 @@
       <c r="AD92" s="74"/>
       <c r="AE92" s="74"/>
       <c r="AF92" s="74"/>
-      <c r="AG92" s="488"/>
-      <c r="AH92" s="488"/>
-      <c r="AI92" s="488"/>
-      <c r="AJ92" s="488"/>
+      <c r="AG92" s="503"/>
+      <c r="AH92" s="503"/>
+      <c r="AI92" s="503"/>
+      <c r="AJ92" s="503"/>
       <c r="AK92" s="143"/>
       <c r="AL92" s="137"/>
       <c r="AM92" s="137"/>
@@ -19989,68 +20197,105 @@
       <c r="BV92" s="137"/>
       <c r="BW92" s="137"/>
     </row>
-    <row r="93" spans="1:75" ht="14.1" customHeight="1">
-      <c r="A93" s="145"/>
-      <c r="B93" s="145"/>
-      <c r="C93" s="145"/>
-      <c r="D93" s="146"/>
-      <c r="E93" s="146"/>
-      <c r="F93" s="146"/>
-      <c r="G93" s="477"/>
-      <c r="H93" s="477"/>
-      <c r="I93" s="477"/>
-      <c r="J93" s="146"/>
-      <c r="K93" s="146"/>
-      <c r="L93" s="146"/>
-      <c r="M93" s="146"/>
-      <c r="N93" s="146"/>
-      <c r="O93" s="477"/>
-      <c r="P93" s="477"/>
-      <c r="Q93" s="477"/>
-      <c r="R93" s="146"/>
-      <c r="S93" s="146"/>
-      <c r="T93" s="146"/>
-      <c r="U93" s="146"/>
-      <c r="V93" s="146"/>
-      <c r="W93" s="146"/>
-      <c r="X93" s="146"/>
-      <c r="Y93" s="146"/>
-      <c r="Z93" s="146"/>
-      <c r="AA93" s="146"/>
-      <c r="AB93" s="146"/>
-      <c r="AH93" s="105"/>
-      <c r="AP93" s="105"/>
-      <c r="BP93" s="105"/>
-      <c r="BQ93" s="105"/>
-      <c r="BR93" s="105"/>
-      <c r="BS93" s="105"/>
-      <c r="BT93" s="105"/>
-      <c r="BU93" s="105"/>
-      <c r="BV93" s="105"/>
-      <c r="BW93" s="105"/>
-    </row>
-    <row r="94" spans="1:75" ht="14.1" customHeight="1" thickBot="1">
+    <row r="93" spans="1:75" s="136" customFormat="1" ht="32.25" customHeight="1">
+      <c r="A93" s="492" t="s">
+        <v>45</v>
+      </c>
+      <c r="B93" s="492"/>
+      <c r="C93" s="492"/>
+      <c r="D93" s="492"/>
+      <c r="E93" s="443" t="s">
+        <v>301</v>
+      </c>
+      <c r="F93" s="444"/>
+      <c r="G93" s="74"/>
+      <c r="H93" s="74"/>
+      <c r="I93" s="74"/>
+      <c r="J93" s="74"/>
+      <c r="K93" s="74"/>
+      <c r="L93" s="74"/>
+      <c r="M93" s="74"/>
+      <c r="N93" s="74"/>
+      <c r="O93" s="74"/>
+      <c r="P93" s="74"/>
+      <c r="Q93" s="74"/>
+      <c r="R93" s="74"/>
+      <c r="S93" s="74"/>
+      <c r="T93" s="74"/>
+      <c r="U93" s="74"/>
+      <c r="V93" s="74"/>
+      <c r="W93" s="74"/>
+      <c r="X93" s="74"/>
+      <c r="Y93" s="74"/>
+      <c r="Z93" s="74"/>
+      <c r="AA93" s="74"/>
+      <c r="AB93" s="74"/>
+      <c r="AC93" s="74"/>
+      <c r="AD93" s="74"/>
+      <c r="AE93" s="74"/>
+      <c r="AF93" s="74"/>
+      <c r="AG93" s="503"/>
+      <c r="AH93" s="503"/>
+      <c r="AI93" s="503"/>
+      <c r="AJ93" s="503"/>
+      <c r="AK93" s="143"/>
+      <c r="AL93" s="137"/>
+      <c r="AM93" s="137"/>
+      <c r="AN93" s="137"/>
+      <c r="AO93" s="137"/>
+      <c r="AP93" s="137"/>
+      <c r="AQ93" s="137"/>
+      <c r="AR93" s="137"/>
+      <c r="AS93" s="137"/>
+      <c r="AT93" s="137"/>
+      <c r="AU93" s="137"/>
+      <c r="AV93" s="137"/>
+      <c r="AW93" s="137"/>
+      <c r="AX93" s="137"/>
+      <c r="AY93" s="137"/>
+      <c r="AZ93" s="137"/>
+      <c r="BA93" s="137"/>
+      <c r="BB93" s="137"/>
+      <c r="BC93" s="137"/>
+      <c r="BD93" s="137"/>
+      <c r="BE93" s="137"/>
+      <c r="BF93" s="137"/>
+      <c r="BG93" s="137"/>
+      <c r="BH93" s="137"/>
+      <c r="BI93" s="137"/>
+      <c r="BJ93" s="137"/>
+      <c r="BK93" s="137"/>
+      <c r="BL93" s="137"/>
+      <c r="BM93" s="137"/>
+      <c r="BN93" s="137"/>
+      <c r="BO93" s="137"/>
+      <c r="BP93" s="137"/>
+      <c r="BQ93" s="137"/>
+      <c r="BR93" s="137"/>
+      <c r="BS93" s="137"/>
+      <c r="BT93" s="137"/>
+      <c r="BU93" s="137"/>
+      <c r="BV93" s="137"/>
+      <c r="BW93" s="137"/>
+    </row>
+    <row r="94" spans="1:75" ht="14.1" customHeight="1">
       <c r="A94" s="145"/>
-      <c r="B94" s="154" t="s">
-        <v>438</v>
-      </c>
-      <c r="C94" s="153"/>
-      <c r="D94" s="486" t="s">
-        <v>54</v>
-      </c>
-      <c r="E94" s="486"/>
+      <c r="B94" s="145"/>
+      <c r="C94" s="145"/>
+      <c r="D94" s="146"/>
+      <c r="E94" s="146"/>
       <c r="F94" s="146"/>
-      <c r="G94" s="152"/>
-      <c r="H94" s="152"/>
-      <c r="I94" s="152"/>
+      <c r="G94" s="482"/>
+      <c r="H94" s="482"/>
+      <c r="I94" s="482"/>
       <c r="J94" s="146"/>
       <c r="K94" s="146"/>
       <c r="L94" s="146"/>
       <c r="M94" s="146"/>
       <c r="N94" s="146"/>
-      <c r="O94" s="152"/>
-      <c r="P94" s="152"/>
-      <c r="Q94" s="152"/>
+      <c r="O94" s="482"/>
+      <c r="P94" s="482"/>
+      <c r="Q94" s="482"/>
       <c r="R94" s="146"/>
       <c r="S94" s="146"/>
       <c r="T94" s="146"/>
@@ -20073,16 +20318,16 @@
       <c r="BV94" s="105"/>
       <c r="BW94" s="105"/>
     </row>
-    <row r="95" spans="1:75" ht="13.8" customHeight="1" thickBot="1">
+    <row r="95" spans="1:75" ht="14.1" customHeight="1" thickBot="1">
       <c r="A95" s="145"/>
-      <c r="B95" s="155" t="s">
-        <v>439</v>
+      <c r="B95" s="154" t="s">
+        <v>438</v>
       </c>
       <c r="C95" s="153"/>
-      <c r="D95" s="486" t="s">
-        <v>55</v>
+      <c r="D95" s="491" t="s">
+        <v>54</v>
       </c>
-      <c r="E95" s="486"/>
+      <c r="E95" s="491"/>
       <c r="F95" s="146"/>
       <c r="G95" s="152"/>
       <c r="H95" s="152"/>
@@ -20117,24 +20362,28 @@
       <c r="BV95" s="105"/>
       <c r="BW95" s="105"/>
     </row>
-    <row r="96" spans="1:75" ht="14.1" customHeight="1">
+    <row r="96" spans="1:75" ht="13.8" customHeight="1" thickBot="1">
       <c r="A96" s="145"/>
-      <c r="B96" s="145"/>
-      <c r="C96" s="145"/>
-      <c r="D96" s="146"/>
-      <c r="E96" s="146"/>
+      <c r="B96" s="155" t="s">
+        <v>439</v>
+      </c>
+      <c r="C96" s="153"/>
+      <c r="D96" s="491" t="s">
+        <v>55</v>
+      </c>
+      <c r="E96" s="491"/>
       <c r="F96" s="146"/>
-      <c r="G96" s="479"/>
-      <c r="H96" s="479"/>
-      <c r="I96" s="479"/>
+      <c r="G96" s="152"/>
+      <c r="H96" s="152"/>
+      <c r="I96" s="152"/>
       <c r="J96" s="146"/>
       <c r="K96" s="146"/>
       <c r="L96" s="146"/>
       <c r="M96" s="146"/>
       <c r="N96" s="146"/>
-      <c r="O96" s="147"/>
-      <c r="P96" s="146"/>
-      <c r="Q96" s="146"/>
+      <c r="O96" s="152"/>
+      <c r="P96" s="152"/>
+      <c r="Q96" s="152"/>
       <c r="R96" s="146"/>
       <c r="S96" s="146"/>
       <c r="T96" s="146"/>
@@ -20159,43 +20408,34 @@
     </row>
     <row r="97" spans="1:75" ht="14.1" customHeight="1">
       <c r="A97" s="145"/>
-      <c r="B97" s="478" t="s">
-        <v>36</v>
-      </c>
-      <c r="C97" s="480"/>
-      <c r="D97" s="481"/>
-      <c r="E97" s="481"/>
-      <c r="F97" s="481"/>
-      <c r="G97" s="481"/>
-      <c r="H97" s="481"/>
-      <c r="I97" s="481"/>
-      <c r="J97" s="481"/>
-      <c r="K97" s="481"/>
-      <c r="L97" s="481"/>
-      <c r="M97" s="481"/>
-      <c r="N97" s="481"/>
-      <c r="O97" s="481"/>
-      <c r="P97" s="481"/>
-      <c r="Q97" s="481"/>
-      <c r="R97" s="481"/>
-      <c r="S97" s="481"/>
-      <c r="T97" s="481"/>
-      <c r="U97" s="481"/>
-      <c r="V97" s="481"/>
-      <c r="W97" s="481"/>
-      <c r="X97" s="481"/>
-      <c r="Y97" s="481"/>
-      <c r="Z97" s="481"/>
-      <c r="AA97" s="481"/>
-      <c r="AB97" s="482"/>
-      <c r="AC97" s="148"/>
-      <c r="AD97" s="148"/>
-      <c r="AE97" s="148"/>
-      <c r="AF97" s="148"/>
-      <c r="AG97" s="148"/>
-      <c r="AH97" s="148"/>
-      <c r="AI97" s="148"/>
-      <c r="AJ97" s="149"/>
+      <c r="B97" s="145"/>
+      <c r="C97" s="145"/>
+      <c r="D97" s="146"/>
+      <c r="E97" s="146"/>
+      <c r="F97" s="146"/>
+      <c r="G97" s="484"/>
+      <c r="H97" s="484"/>
+      <c r="I97" s="484"/>
+      <c r="J97" s="146"/>
+      <c r="K97" s="146"/>
+      <c r="L97" s="146"/>
+      <c r="M97" s="146"/>
+      <c r="N97" s="146"/>
+      <c r="O97" s="147"/>
+      <c r="P97" s="146"/>
+      <c r="Q97" s="146"/>
+      <c r="R97" s="146"/>
+      <c r="S97" s="146"/>
+      <c r="T97" s="146"/>
+      <c r="U97" s="146"/>
+      <c r="V97" s="146"/>
+      <c r="W97" s="146"/>
+      <c r="X97" s="146"/>
+      <c r="Y97" s="146"/>
+      <c r="Z97" s="146"/>
+      <c r="AA97" s="146"/>
+      <c r="AB97" s="146"/>
+      <c r="AH97" s="105"/>
       <c r="AP97" s="105"/>
       <c r="BP97" s="105"/>
       <c r="BQ97" s="105"/>
@@ -20206,35 +20446,37 @@
       <c r="BV97" s="105"/>
       <c r="BW97" s="105"/>
     </row>
-    <row r="98" spans="1:75" ht="28.5" customHeight="1">
+    <row r="98" spans="1:75" ht="14.1" customHeight="1">
       <c r="A98" s="145"/>
-      <c r="B98" s="478"/>
-      <c r="C98" s="483"/>
-      <c r="D98" s="484"/>
-      <c r="E98" s="484"/>
-      <c r="F98" s="484"/>
-      <c r="G98" s="484"/>
-      <c r="H98" s="484"/>
-      <c r="I98" s="484"/>
-      <c r="J98" s="484"/>
-      <c r="K98" s="484"/>
-      <c r="L98" s="484"/>
-      <c r="M98" s="484"/>
-      <c r="N98" s="484"/>
-      <c r="O98" s="484"/>
-      <c r="P98" s="484"/>
-      <c r="Q98" s="484"/>
-      <c r="R98" s="484"/>
-      <c r="S98" s="484"/>
-      <c r="T98" s="484"/>
-      <c r="U98" s="484"/>
-      <c r="V98" s="484"/>
-      <c r="W98" s="484"/>
-      <c r="X98" s="484"/>
-      <c r="Y98" s="484"/>
-      <c r="Z98" s="484"/>
-      <c r="AA98" s="484"/>
-      <c r="AB98" s="485"/>
+      <c r="B98" s="483" t="s">
+        <v>36</v>
+      </c>
+      <c r="C98" s="485"/>
+      <c r="D98" s="486"/>
+      <c r="E98" s="486"/>
+      <c r="F98" s="486"/>
+      <c r="G98" s="486"/>
+      <c r="H98" s="486"/>
+      <c r="I98" s="486"/>
+      <c r="J98" s="486"/>
+      <c r="K98" s="486"/>
+      <c r="L98" s="486"/>
+      <c r="M98" s="486"/>
+      <c r="N98" s="486"/>
+      <c r="O98" s="486"/>
+      <c r="P98" s="486"/>
+      <c r="Q98" s="486"/>
+      <c r="R98" s="486"/>
+      <c r="S98" s="486"/>
+      <c r="T98" s="486"/>
+      <c r="U98" s="486"/>
+      <c r="V98" s="486"/>
+      <c r="W98" s="486"/>
+      <c r="X98" s="486"/>
+      <c r="Y98" s="486"/>
+      <c r="Z98" s="486"/>
+      <c r="AA98" s="486"/>
+      <c r="AB98" s="487"/>
       <c r="AC98" s="148"/>
       <c r="AD98" s="148"/>
       <c r="AE98" s="148"/>
@@ -20244,30 +20486,55 @@
       <c r="AI98" s="148"/>
       <c r="AJ98" s="149"/>
       <c r="AP98" s="105"/>
-    </row>
-    <row r="99" spans="1:75" ht="14.1" customHeight="1">
-      <c r="M99" s="105"/>
-      <c r="N99" s="105"/>
-      <c r="O99" s="105"/>
-      <c r="P99" s="105"/>
-      <c r="Q99" s="105"/>
-      <c r="R99" s="105"/>
-      <c r="S99" s="150"/>
-      <c r="T99" s="105"/>
-      <c r="U99" s="105"/>
-      <c r="V99" s="105"/>
-      <c r="W99" s="105"/>
-      <c r="X99" s="105"/>
-      <c r="Y99" s="105"/>
-      <c r="Z99" s="105"/>
-      <c r="AA99" s="105"/>
-      <c r="AB99" s="105"/>
-      <c r="AH99" s="105"/>
+      <c r="BP98" s="105"/>
+      <c r="BQ98" s="105"/>
+      <c r="BR98" s="105"/>
+      <c r="BS98" s="105"/>
+      <c r="BT98" s="105"/>
+      <c r="BU98" s="105"/>
+      <c r="BV98" s="105"/>
+      <c r="BW98" s="105"/>
+    </row>
+    <row r="99" spans="1:75" ht="28.5" customHeight="1">
+      <c r="A99" s="145"/>
+      <c r="B99" s="483"/>
+      <c r="C99" s="488"/>
+      <c r="D99" s="489"/>
+      <c r="E99" s="489"/>
+      <c r="F99" s="489"/>
+      <c r="G99" s="489"/>
+      <c r="H99" s="489"/>
+      <c r="I99" s="489"/>
+      <c r="J99" s="489"/>
+      <c r="K99" s="489"/>
+      <c r="L99" s="489"/>
+      <c r="M99" s="489"/>
+      <c r="N99" s="489"/>
+      <c r="O99" s="489"/>
+      <c r="P99" s="489"/>
+      <c r="Q99" s="489"/>
+      <c r="R99" s="489"/>
+      <c r="S99" s="489"/>
+      <c r="T99" s="489"/>
+      <c r="U99" s="489"/>
+      <c r="V99" s="489"/>
+      <c r="W99" s="489"/>
+      <c r="X99" s="489"/>
+      <c r="Y99" s="489"/>
+      <c r="Z99" s="489"/>
+      <c r="AA99" s="489"/>
+      <c r="AB99" s="490"/>
+      <c r="AC99" s="148"/>
+      <c r="AD99" s="148"/>
+      <c r="AE99" s="148"/>
+      <c r="AF99" s="148"/>
+      <c r="AG99" s="148"/>
+      <c r="AH99" s="148"/>
+      <c r="AI99" s="148"/>
+      <c r="AJ99" s="149"/>
       <c r="AP99" s="105"/>
     </row>
     <row r="100" spans="1:75" ht="14.1" customHeight="1">
-      <c r="K100" s="103"/>
-      <c r="L100" s="103"/>
       <c r="M100" s="105"/>
       <c r="N100" s="105"/>
       <c r="O100" s="105"/>
@@ -20286,31 +20553,6 @@
       <c r="AB100" s="105"/>
       <c r="AH100" s="105"/>
       <c r="AP100" s="105"/>
-      <c r="AQ100" s="103"/>
-      <c r="AR100" s="103"/>
-      <c r="AS100" s="103"/>
-      <c r="AT100" s="103"/>
-      <c r="AU100" s="103"/>
-      <c r="AV100" s="103"/>
-      <c r="AW100" s="103"/>
-      <c r="AX100" s="103"/>
-      <c r="AY100" s="103"/>
-      <c r="AZ100" s="103"/>
-      <c r="BA100" s="103"/>
-      <c r="BB100" s="103"/>
-      <c r="BC100" s="103"/>
-      <c r="BD100" s="103"/>
-      <c r="BE100" s="103"/>
-      <c r="BF100" s="103"/>
-      <c r="BG100" s="103"/>
-      <c r="BH100" s="103"/>
-      <c r="BI100" s="103"/>
-      <c r="BJ100" s="103"/>
-      <c r="BK100" s="103"/>
-      <c r="BL100" s="103"/>
-      <c r="BM100" s="103"/>
-      <c r="BN100" s="103"/>
-      <c r="BO100" s="103"/>
     </row>
     <row r="101" spans="1:75" ht="14.1" customHeight="1">
       <c r="K101" s="103"/>
@@ -20547,7 +20789,7 @@
       <c r="BN105" s="103"/>
       <c r="BO105" s="103"/>
     </row>
-    <row r="106" spans="1:75">
+    <row r="106" spans="1:75" ht="14.1" customHeight="1">
       <c r="K106" s="103"/>
       <c r="L106" s="103"/>
       <c r="M106" s="105"/>
@@ -65056,26 +65298,60 @@
       <c r="BN1052" s="103"/>
       <c r="BO1052" s="103"/>
     </row>
+    <row r="1053" spans="11:67">
+      <c r="K1053" s="103"/>
+      <c r="L1053" s="103"/>
+      <c r="M1053" s="105"/>
+      <c r="N1053" s="105"/>
+      <c r="O1053" s="105"/>
+      <c r="P1053" s="105"/>
+      <c r="Q1053" s="105"/>
+      <c r="R1053" s="105"/>
+      <c r="S1053" s="150"/>
+      <c r="T1053" s="105"/>
+      <c r="U1053" s="105"/>
+      <c r="V1053" s="105"/>
+      <c r="W1053" s="105"/>
+      <c r="X1053" s="105"/>
+      <c r="Y1053" s="105"/>
+      <c r="Z1053" s="105"/>
+      <c r="AA1053" s="105"/>
+      <c r="AB1053" s="105"/>
+      <c r="AH1053" s="105"/>
+      <c r="AP1053" s="105"/>
+      <c r="AQ1053" s="103"/>
+      <c r="AR1053" s="103"/>
+      <c r="AS1053" s="103"/>
+      <c r="AT1053" s="103"/>
+      <c r="AU1053" s="103"/>
+      <c r="AV1053" s="103"/>
+      <c r="AW1053" s="103"/>
+      <c r="AX1053" s="103"/>
+      <c r="AY1053" s="103"/>
+      <c r="AZ1053" s="103"/>
+      <c r="BA1053" s="103"/>
+      <c r="BB1053" s="103"/>
+      <c r="BC1053" s="103"/>
+      <c r="BD1053" s="103"/>
+      <c r="BE1053" s="103"/>
+      <c r="BF1053" s="103"/>
+      <c r="BG1053" s="103"/>
+      <c r="BH1053" s="103"/>
+      <c r="BI1053" s="103"/>
+      <c r="BJ1053" s="103"/>
+      <c r="BK1053" s="103"/>
+      <c r="BL1053" s="103"/>
+      <c r="BM1053" s="103"/>
+      <c r="BN1053" s="103"/>
+      <c r="BO1053" s="103"/>
+    </row>
   </sheetData>
   <sheetProtection formatColumns="0" formatRows="0"/>
-  <mergeCells count="244">
-    <mergeCell ref="C85:D85"/>
-    <mergeCell ref="A53:B82"/>
-    <mergeCell ref="C53:D54"/>
-    <mergeCell ref="C55:D56"/>
-    <mergeCell ref="C57:D58"/>
-    <mergeCell ref="E64:F64"/>
-    <mergeCell ref="E65:F65"/>
-    <mergeCell ref="C59:D60"/>
-    <mergeCell ref="C61:D62"/>
-    <mergeCell ref="C63:D64"/>
-    <mergeCell ref="C65:D66"/>
-    <mergeCell ref="C67:D68"/>
-    <mergeCell ref="C69:D70"/>
-    <mergeCell ref="C71:D72"/>
-    <mergeCell ref="C73:D74"/>
-    <mergeCell ref="C75:D76"/>
-    <mergeCell ref="E66:F66"/>
+  <mergeCells count="251">
+    <mergeCell ref="C70:D71"/>
+    <mergeCell ref="C72:D73"/>
+    <mergeCell ref="C74:D75"/>
+    <mergeCell ref="C76:D77"/>
     <mergeCell ref="E67:F67"/>
     <mergeCell ref="E68:F68"/>
     <mergeCell ref="E69:F69"/>
@@ -65087,78 +65363,90 @@
     <mergeCell ref="E75:F75"/>
     <mergeCell ref="E76:F76"/>
     <mergeCell ref="E77:F77"/>
+    <mergeCell ref="C56:D57"/>
+    <mergeCell ref="C58:D59"/>
+    <mergeCell ref="E65:F65"/>
+    <mergeCell ref="E66:F66"/>
+    <mergeCell ref="C60:D61"/>
+    <mergeCell ref="C62:D63"/>
+    <mergeCell ref="C64:D65"/>
+    <mergeCell ref="C66:D67"/>
+    <mergeCell ref="C68:D69"/>
     <mergeCell ref="E78:F78"/>
     <mergeCell ref="E79:F79"/>
-    <mergeCell ref="C77:D78"/>
-    <mergeCell ref="E83:F83"/>
+    <mergeCell ref="E80:F80"/>
+    <mergeCell ref="C78:D79"/>
     <mergeCell ref="E84:F84"/>
-    <mergeCell ref="E91:F91"/>
-    <mergeCell ref="A91:D91"/>
-    <mergeCell ref="C86:D86"/>
+    <mergeCell ref="E85:F85"/>
+    <mergeCell ref="E92:F92"/>
+    <mergeCell ref="A92:D92"/>
     <mergeCell ref="C87:D87"/>
     <mergeCell ref="C88:D88"/>
     <mergeCell ref="C89:D89"/>
     <mergeCell ref="C90:D90"/>
-    <mergeCell ref="E80:F80"/>
-    <mergeCell ref="E86:F86"/>
+    <mergeCell ref="C91:D91"/>
+    <mergeCell ref="E81:F81"/>
     <mergeCell ref="E87:F87"/>
     <mergeCell ref="E88:F88"/>
     <mergeCell ref="E89:F89"/>
     <mergeCell ref="E90:F90"/>
-    <mergeCell ref="A86:B90"/>
-    <mergeCell ref="E81:F81"/>
+    <mergeCell ref="E91:F91"/>
+    <mergeCell ref="A87:B91"/>
     <mergeCell ref="E82:F82"/>
-    <mergeCell ref="C79:D80"/>
-    <mergeCell ref="C81:D82"/>
-    <mergeCell ref="E85:F85"/>
-    <mergeCell ref="C83:D83"/>
+    <mergeCell ref="E83:F83"/>
+    <mergeCell ref="C80:D81"/>
+    <mergeCell ref="C82:D83"/>
+    <mergeCell ref="E86:F86"/>
     <mergeCell ref="C84:D84"/>
-    <mergeCell ref="AG92:AH92"/>
-    <mergeCell ref="AI92:AJ92"/>
-    <mergeCell ref="AG86:AH86"/>
-    <mergeCell ref="AI86:AJ86"/>
+    <mergeCell ref="C85:D85"/>
+    <mergeCell ref="C86:D86"/>
+    <mergeCell ref="A54:B83"/>
+    <mergeCell ref="C54:D55"/>
+    <mergeCell ref="AG93:AH93"/>
+    <mergeCell ref="AI93:AJ93"/>
     <mergeCell ref="AG87:AH87"/>
     <mergeCell ref="AI87:AJ87"/>
     <mergeCell ref="AG88:AH88"/>
+    <mergeCell ref="AI88:AJ88"/>
+    <mergeCell ref="AG89:AH89"/>
+    <mergeCell ref="AG92:AH92"/>
+    <mergeCell ref="AI89:AJ89"/>
+    <mergeCell ref="AI91:AJ91"/>
     <mergeCell ref="AG91:AH91"/>
-    <mergeCell ref="AI88:AJ88"/>
-    <mergeCell ref="AI90:AJ90"/>
-    <mergeCell ref="AG90:AH90"/>
-    <mergeCell ref="AI91:AJ91"/>
-    <mergeCell ref="G93:I93"/>
-    <mergeCell ref="O93:Q93"/>
-    <mergeCell ref="B97:B98"/>
-    <mergeCell ref="G96:I96"/>
-    <mergeCell ref="C97:AB98"/>
+    <mergeCell ref="AI92:AJ92"/>
+    <mergeCell ref="AG78:AH78"/>
+    <mergeCell ref="AI78:AJ78"/>
+    <mergeCell ref="AG80:AH80"/>
+    <mergeCell ref="AI80:AJ80"/>
+    <mergeCell ref="AG66:AH66"/>
+    <mergeCell ref="AI66:AJ66"/>
+    <mergeCell ref="G94:I94"/>
+    <mergeCell ref="O94:Q94"/>
+    <mergeCell ref="B98:B99"/>
+    <mergeCell ref="G97:I97"/>
+    <mergeCell ref="C98:AB99"/>
+    <mergeCell ref="D96:E96"/>
     <mergeCell ref="D95:E95"/>
-    <mergeCell ref="D94:E94"/>
-    <mergeCell ref="E92:F92"/>
-    <mergeCell ref="A92:D92"/>
-    <mergeCell ref="AG77:AH77"/>
-    <mergeCell ref="AI77:AJ77"/>
-    <mergeCell ref="AG79:AH79"/>
-    <mergeCell ref="AI79:AJ79"/>
-    <mergeCell ref="AG65:AH65"/>
-    <mergeCell ref="AI65:AJ65"/>
-    <mergeCell ref="AG67:AH67"/>
-    <mergeCell ref="AI67:AJ67"/>
-    <mergeCell ref="AG69:AH69"/>
-    <mergeCell ref="AI69:AJ69"/>
-    <mergeCell ref="AG71:AH71"/>
-    <mergeCell ref="AI71:AJ71"/>
-    <mergeCell ref="AG73:AH73"/>
-    <mergeCell ref="AI73:AJ73"/>
-    <mergeCell ref="AG75:AH75"/>
-    <mergeCell ref="AI75:AJ75"/>
-    <mergeCell ref="AG57:AH57"/>
-    <mergeCell ref="AI57:AJ57"/>
-    <mergeCell ref="AG59:AH59"/>
-    <mergeCell ref="AI59:AJ59"/>
-    <mergeCell ref="AG61:AH61"/>
-    <mergeCell ref="AI61:AJ61"/>
-    <mergeCell ref="AG63:AH63"/>
-    <mergeCell ref="AI63:AJ63"/>
-    <mergeCell ref="E53:F53"/>
+    <mergeCell ref="E93:F93"/>
+    <mergeCell ref="A93:D93"/>
+    <mergeCell ref="AG68:AH68"/>
+    <mergeCell ref="AI68:AJ68"/>
+    <mergeCell ref="AG70:AH70"/>
+    <mergeCell ref="AI70:AJ70"/>
+    <mergeCell ref="AG72:AH72"/>
+    <mergeCell ref="AI72:AJ72"/>
+    <mergeCell ref="AG74:AH74"/>
+    <mergeCell ref="AI74:AJ74"/>
+    <mergeCell ref="AG76:AH76"/>
+    <mergeCell ref="AI76:AJ76"/>
+    <mergeCell ref="AG58:AH58"/>
+    <mergeCell ref="AI58:AJ58"/>
+    <mergeCell ref="AG60:AH60"/>
+    <mergeCell ref="AI60:AJ60"/>
+    <mergeCell ref="AG62:AH62"/>
+    <mergeCell ref="AI62:AJ62"/>
+    <mergeCell ref="AG64:AH64"/>
+    <mergeCell ref="AI64:AJ64"/>
     <mergeCell ref="E54:F54"/>
     <mergeCell ref="E55:F55"/>
     <mergeCell ref="E56:F56"/>
@@ -65169,6 +65457,7 @@
     <mergeCell ref="E61:F61"/>
     <mergeCell ref="E62:F62"/>
     <mergeCell ref="E63:F63"/>
+    <mergeCell ref="E64:F64"/>
     <mergeCell ref="E37:F37"/>
     <mergeCell ref="E38:F38"/>
     <mergeCell ref="E39:F39"/>
@@ -65285,24 +65574,31 @@
     <mergeCell ref="C31:C32"/>
     <mergeCell ref="D31:D32"/>
     <mergeCell ref="A33:A34"/>
+    <mergeCell ref="C53:D53"/>
+    <mergeCell ref="A42:F42"/>
     <mergeCell ref="G42:H42"/>
-    <mergeCell ref="E43:F43"/>
+    <mergeCell ref="G43:H43"/>
     <mergeCell ref="E44:F44"/>
     <mergeCell ref="E45:F45"/>
     <mergeCell ref="E46:F46"/>
     <mergeCell ref="E47:F47"/>
-    <mergeCell ref="A43:B52"/>
     <mergeCell ref="E48:F48"/>
+    <mergeCell ref="A44:B53"/>
     <mergeCell ref="E49:F49"/>
     <mergeCell ref="E50:F50"/>
     <mergeCell ref="E51:F51"/>
     <mergeCell ref="E52:F52"/>
-    <mergeCell ref="C43:D44"/>
-    <mergeCell ref="C45:D46"/>
-    <mergeCell ref="C47:D48"/>
-    <mergeCell ref="C49:D50"/>
-    <mergeCell ref="C51:D52"/>
-    <mergeCell ref="A42:F42"/>
+    <mergeCell ref="E53:F53"/>
+    <mergeCell ref="A43:F43"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="C45:D45"/>
+    <mergeCell ref="C46:D46"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="C51:D51"/>
+    <mergeCell ref="C52:D52"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.118110236220472" right="0.118110236220472" top="0.35433070866141703" bottom="0.55118110236220497" header="0.31496062992126" footer="0.31496062992126"/>
@@ -65313,27 +65609,17 @@
   <colBreaks count="1" manualBreakCount="1">
     <brk id="28" max="1048575" man="1"/>
   </colBreaks>
-  <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
 </p:properties>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101004D4CCBE22655944796F59B17B9006C15" ma:contentTypeVersion="" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="f481576c72d824a80c867b56d5274a41">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="b7c6cbfa-29cf-4ada-90bf-db8e550dae8d" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="3bc755a260c778b5f630b987d93a78f8" ns2:_="">
     <xsd:import namespace="b7c6cbfa-29cf-4ada-90bf-db8e550dae8d"/>
@@ -65511,15 +65797,16 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5458833A-D997-4113-BB83-F938CBB9D86E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ECA946AD-4EA3-4FCA-B864-262800288FDF}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
@@ -65535,7 +65822,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{82807CA0-8C25-4FF6-8C67-D0A8F7400434}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -65551,4 +65838,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5458833A-D997-4113-BB83-F938CBB9D86E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/api/cp-dss-api/gateway/src/main/resources/reports/discharging/Vessel_1_Discharging_Plan_Template.xlsx
+++ b/api/cp-dss-api/gateway/src/main/resources/reports/discharging/Vessel_1_Discharging_Plan_Template.xlsx
@@ -3699,57 +3699,6 @@
     <t>CHIEF OFFICER:</t>
   </si>
   <si>
-    <t>${cargoTankStatus.colorCode}</t>
-  </si>
-  <si>
-    <t>${cargoTankStatus1.colorCode}</t>
-  </si>
-  <si>
-    <t>${cargoTankStatus2.colorCode}</t>
-  </si>
-  <si>
-    <t>${cargoTankStatus3.colorCode}</t>
-  </si>
-  <si>
-    <t>${cargoTankStatus4.colorCode}</t>
-  </si>
-  <si>
-    <t>${cargoTankStatus5.colorCode}</t>
-  </si>
-  <si>
-    <t>${cargoTankStatus6.colorCode}</t>
-  </si>
-  <si>
-    <t>${cargoTankStatus7.colorCode}</t>
-  </si>
-  <si>
-    <t>${cargoTankStatus8.colorCode}</t>
-  </si>
-  <si>
-    <t>${cargoTankStatus9.colorCode}</t>
-  </si>
-  <si>
-    <t>${cargoTankStatus10.colorCode}</t>
-  </si>
-  <si>
-    <t>${cargoTankStatus11.colorCode}</t>
-  </si>
-  <si>
-    <t>${cargoTankStatus12.colorCode}</t>
-  </si>
-  <si>
-    <t>${cargoTankStatus13.colorCode}</t>
-  </si>
-  <si>
-    <t>${cargoTankStatus14.colorCode}</t>
-  </si>
-  <si>
-    <t>${cargoTankStatus15.colorCode}</t>
-  </si>
-  <si>
-    <t>${cargoTankStatus16.colorCode}</t>
-  </si>
-  <si>
     <t>${ballastTankStatus.colorCode}</t>
   </si>
   <si>
@@ -4182,6 +4131,57 @@
   </si>
   <si>
     <t>${ballastPumpStatus1.colorCode}</t>
+  </si>
+  <si>
+    <t>${cargoTankStatus.colorCode},${cargoTankStatus.cowType}</t>
+  </si>
+  <si>
+    <t>${cargoTankStatus1.colorCode},${cargoTankStatus1.cowType}</t>
+  </si>
+  <si>
+    <t>${cargoTankStatus2.colorCode},${cargoTankStatus2.cowType}</t>
+  </si>
+  <si>
+    <t>${cargoTankStatus3.colorCode},${cargoTankStatus3.cowType}</t>
+  </si>
+  <si>
+    <t>${cargoTankStatus4.colorCode},${cargoTankStatus4.cowType}</t>
+  </si>
+  <si>
+    <t>${cargoTankStatus5.colorCode},${cargoTankStatus5.cowType}</t>
+  </si>
+  <si>
+    <t>${cargoTankStatus6.colorCode},${cargoTankStatus6.cowType}</t>
+  </si>
+  <si>
+    <t>${cargoTankStatus7.colorCode},${cargoTankStatus7.cowType}</t>
+  </si>
+  <si>
+    <t>${cargoTankStatus8.colorCode},${cargoTankStatus8.cowType}</t>
+  </si>
+  <si>
+    <t>${cargoTankStatus9.colorCode},${cargoTankStatus9.cowType}</t>
+  </si>
+  <si>
+    <t>${cargoTankStatus10.colorCode},${cargoTankStatus10.cowType}</t>
+  </si>
+  <si>
+    <t>${cargoTankStatus11.colorCode},${cargoTankStatus11.cowType}</t>
+  </si>
+  <si>
+    <t>${cargoTankStatus12.colorCode},${cargoTankStatus12.cowType}</t>
+  </si>
+  <si>
+    <t>${cargoTankStatus13.colorCode},${cargoTankStatus13.cowType}</t>
+  </si>
+  <si>
+    <t>${cargoTankStatus14.colorCode},${cargoTankStatus14.cowType}</t>
+  </si>
+  <si>
+    <t>${cargoTankStatus15.colorCode},${cargoTankStatus15.cowType}</t>
+  </si>
+  <si>
+    <t>${cargoTankStatus16.colorCode},${cargoTankStatus16.cowType}</t>
   </si>
 </sst>
 </file>
@@ -5650,20 +5650,39 @@
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="173" fontId="29" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="173" fontId="29" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
     </xf>
     <xf numFmtId="173" fontId="29" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="173" fontId="29" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="173" fontId="29" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="173" fontId="29" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="173" fontId="29" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="16" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="16" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="9" fontId="48" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -5674,68 +5693,22 @@
       <alignment horizontal="right" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="174" fontId="47" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="174" fontId="47" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" wrapText="1"/>
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="14" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" wrapText="1"/>
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="8" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="173" fontId="29" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="9" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" wrapText="1" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" wrapText="1" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="173" fontId="29" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="173" fontId="33" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="173" fontId="33" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="173" fontId="33" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
     </xf>
     <xf numFmtId="173" fontId="33" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
@@ -5748,196 +5721,6 @@
     <xf numFmtId="173" fontId="33" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="176" fontId="24" fillId="0" borderId="10" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="174" fontId="47" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="174" fontId="47" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="174" fontId="47" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="174" fontId="47" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="3" fontId="33" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="33" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="173" fontId="29" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="173" fontId="34" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="4" fontId="20" fillId="2" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="8" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="16" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="16" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="16" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="14" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="8" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="9" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -5984,129 +5767,233 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" wrapText="1" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" wrapText="1" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="173" fontId="29" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="173" fontId="29" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="173" fontId="33" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="173" fontId="33" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="173" fontId="33" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="174" fontId="47" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="174" fontId="47" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="174" fontId="47" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="174" fontId="47" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="4" fontId="20" fillId="2" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="8" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="16" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="173" fontId="29" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="173" fontId="34" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="3" fontId="33" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="3" fontId="33" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="176" fontId="24" fillId="0" borderId="10" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="16" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="16" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="18" fillId="0" borderId="3" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="18" fillId="0" borderId="4" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="16" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="16" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="16" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="16" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="16" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="174" fontId="47" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="8" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="15" fillId="0" borderId="10" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="174" fontId="47" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="181" fontId="15" fillId="0" borderId="10" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" textRotation="45"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" textRotation="45"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="4" borderId="14" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -6127,116 +6014,28 @@
     <xf numFmtId="0" fontId="15" fillId="4" borderId="11" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="16" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="177" fontId="18" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="177" fontId="18" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="177" fontId="18" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="179" fontId="18" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="179" fontId="18" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="178" fontId="18" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="178" fontId="18" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="16" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="18" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="177" fontId="18" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="177" fontId="18" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="179" fontId="18" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="179" fontId="18" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -6275,20 +6074,36 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="177" fontId="18" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="177" fontId="18" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="177" fontId="18" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="179" fontId="18" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="179" fontId="18" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="178" fontId="18" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -6299,67 +6114,218 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" textRotation="45"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" textRotation="45"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="177" fontId="18" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="177" fontId="18" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="177" fontId="18" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="179" fontId="18" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="179" fontId="18" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="178" fontId="18" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="16" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="181" fontId="15" fillId="0" borderId="10" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="178" fontId="18" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="16" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="8" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="15" fillId="0" borderId="10" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="57" fillId="7" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="7" borderId="16" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="57" fillId="6" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="16" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="4" borderId="3" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="16" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="16" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="4" borderId="4" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="16" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="4" borderId="10" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="4" borderId="11" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="3" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="16" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="28" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="16" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="3" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="3" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="28" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="4" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="16" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="16" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="36" fillId="0" borderId="3" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" wrapText="1"/>
@@ -6367,6 +6333,30 @@
     </xf>
     <xf numFmtId="0" fontId="36" fillId="0" borderId="28" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="4" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="3" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="28" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="4" borderId="16" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="37" fillId="0" borderId="14" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="37" fillId="0" borderId="9" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="49" fontId="37" fillId="4" borderId="14" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -6385,118 +6375,37 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="37" fillId="4" borderId="6" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="57" fillId="7" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="7" borderId="16" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="37" fillId="4" borderId="11" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="49" fontId="43" fillId="4" borderId="14" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="4" borderId="14" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="49" fontId="43" fillId="4" borderId="9" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="4" borderId="8" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="49" fontId="43" fillId="4" borderId="7" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="4" borderId="9" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="49" fontId="43" fillId="4" borderId="2" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="4" borderId="21" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
+    <xf numFmtId="172" fontId="41" fillId="0" borderId="0" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="4" borderId="20" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
+    <xf numFmtId="171" fontId="41" fillId="2" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="4" borderId="22" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="4" borderId="23" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="4" borderId="24" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="4" borderId="25" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="4" borderId="19" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="4" borderId="15" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="4" borderId="1" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="4" borderId="6" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="3" borderId="1" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="3" borderId="29" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="3" borderId="6" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="3" borderId="30" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="9" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="38" fontId="23" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="171" fontId="36" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="4" borderId="19" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="4" borderId="15" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="4" borderId="17" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="4" borderId="18" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="170" fontId="36" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -6537,64 +6446,155 @@
     <xf numFmtId="0" fontId="45" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="19" fillId="4" borderId="16" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="4" borderId="17" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="4" borderId="18" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="9" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="38" fontId="23" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="4" borderId="19" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="4" borderId="15" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="3" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="28" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="4" borderId="3" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="4" borderId="4" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="4" borderId="10" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="4" borderId="11" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="4" borderId="21" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="4" borderId="20" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="4" borderId="22" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="4" borderId="23" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="4" borderId="24" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="4" borderId="25" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="4" borderId="19" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="4" borderId="15" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="4" borderId="1" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="4" borderId="6" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="3" borderId="1" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="3" borderId="29" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="3" borderId="6" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="3" borderId="30" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="57" fillId="6" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="16" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="36" fillId="0" borderId="3" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="28" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="37" fillId="4" borderId="6" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="28" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="37" fillId="4" borderId="11" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="43" fillId="4" borderId="14" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="43" fillId="4" borderId="9" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="43" fillId="4" borderId="7" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="43" fillId="4" borderId="2" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="172" fontId="41" fillId="0" borderId="0" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="41" fillId="2" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="36" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="4" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="37" fillId="0" borderId="14" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="43" fillId="4" borderId="14" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="37" fillId="0" borderId="9" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="43" fillId="4" borderId="8" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="4" borderId="9" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -6723,7 +6723,7 @@
         <xdr:cNvPr id="30643" name="Line 59">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{26C26646-7311-46E9-9E78-CC1D2B3F626E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{26C26646-7311-46E9-9E78-CC1D2B3F626E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6777,7 +6777,7 @@
         <xdr:cNvPr id="30644" name="Line 60">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B49276F8-0941-4D7D-8146-C269E6ACE4D6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B49276F8-0941-4D7D-8146-C269E6ACE4D6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6831,7 +6831,7 @@
         <xdr:cNvPr id="30645" name="Line 62">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{49720863-AFF1-493D-8C5B-3E8A332597CC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{49720863-AFF1-493D-8C5B-3E8A332597CC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6885,7 +6885,7 @@
         <xdr:cNvPr id="30646" name="Line 62">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7695EED5-68DE-4941-B396-30D3C770B8B0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7695EED5-68DE-4941-B396-30D3C770B8B0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6939,7 +6939,7 @@
         <xdr:cNvPr id="30647" name="Line 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD58331C-81A7-4159-9782-8A7161F85FB4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD58331C-81A7-4159-9782-8A7161F85FB4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6993,7 +6993,7 @@
         <xdr:cNvPr id="30648" name="Line 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D0300261-277A-4B07-916A-FC3A4EA535EC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D0300261-277A-4B07-916A-FC3A4EA535EC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7047,7 +7047,7 @@
         <xdr:cNvPr id="30649" name="Line 62">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{92E06221-417C-4981-B737-76380BAE82BA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{92E06221-417C-4981-B737-76380BAE82BA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7101,7 +7101,7 @@
         <xdr:cNvPr id="30650" name="Line 62">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EC93D721-69B8-4DB6-8611-B0CA263C6701}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EC93D721-69B8-4DB6-8611-B0CA263C6701}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7155,7 +7155,7 @@
         <xdr:cNvPr id="30651" name="Line 62">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8FFC3F25-367F-4CB6-8861-0D589CD691A0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8FFC3F25-367F-4CB6-8861-0D589CD691A0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7209,7 +7209,7 @@
         <xdr:cNvPr id="30652" name="Line 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{132B4608-E2CC-4568-8160-0038A8B8A9B4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{132B4608-E2CC-4568-8160-0038A8B8A9B4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7263,7 +7263,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{95E86656-9F63-45D0-BC52-81A2571E9B65}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{95E86656-9F63-45D0-BC52-81A2571E9B65}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7313,7 +7313,7 @@
         <xdr:cNvPr id="17" name="Line 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{132B4608-E2CC-4568-8160-0038A8B8A9B4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{132B4608-E2CC-4568-8160-0038A8B8A9B4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7367,7 +7367,7 @@
         <xdr:cNvPr id="19" name="Line 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{132B4608-E2CC-4568-8160-0038A8B8A9B4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{132B4608-E2CC-4568-8160-0038A8B8A9B4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7421,7 +7421,7 @@
         <xdr:cNvPr id="21" name="Line 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{132B4608-E2CC-4568-8160-0038A8B8A9B4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{132B4608-E2CC-4568-8160-0038A8B8A9B4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7475,7 +7475,7 @@
         <xdr:cNvPr id="16" name="Line 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{132B4608-E2CC-4568-8160-0038A8B8A9B4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{132B4608-E2CC-4568-8160-0038A8B8A9B4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7529,7 +7529,7 @@
         <xdr:cNvPr id="18" name="Line 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{132B4608-E2CC-4568-8160-0038A8B8A9B4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{132B4608-E2CC-4568-8160-0038A8B8A9B4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7583,7 +7583,7 @@
         <xdr:cNvPr id="29" name="Line 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{132B4608-E2CC-4568-8160-0038A8B8A9B4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{132B4608-E2CC-4568-8160-0038A8B8A9B4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7637,7 +7637,7 @@
         <xdr:cNvPr id="30" name="Line 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{132B4608-E2CC-4568-8160-0038A8B8A9B4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{132B4608-E2CC-4568-8160-0038A8B8A9B4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7700,10 +7700,10 @@
           </xdr:nvGrpSpPr>
           <xdr:grpSpPr>
             <a:xfrm>
-              <a:off x="380552" y="3921612"/>
+              <a:off x="380552" y="3921604"/>
               <a:ext cx="418203" cy="725634"/>
-              <a:chOff x="376566" y="3942675"/>
-              <a:chExt cx="297180" cy="732368"/>
+              <a:chOff x="376566" y="3942678"/>
+              <a:chExt cx="297180" cy="732370"/>
             </a:xfrm>
           </xdr:grpSpPr>
           <xdr:sp macro="" textlink="">
@@ -7714,7 +7714,7 @@
                     <a14:compatExt spid="_x0000_s33793"/>
                   </a:ext>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-0000056C0000}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-0000056C0000}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -7722,7 +7722,7 @@
             </xdr:nvSpPr>
             <xdr:spPr bwMode="auto">
               <a:xfrm>
-                <a:off x="376566" y="3942675"/>
+                <a:off x="376566" y="3942678"/>
                 <a:ext cx="297180" cy="194983"/>
               </a:xfrm>
               <a:prstGeom prst="rect">
@@ -7756,7 +7756,7 @@
                     <a14:compatExt spid="_x0000_s33794"/>
                   </a:ext>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-0000066C0000}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-0000066C0000}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -7798,7 +7798,7 @@
                     <a14:compatExt spid="_x0000_s33795"/>
                   </a:ext>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-0000076C0000}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-0000076C0000}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -7806,8 +7806,8 @@
             </xdr:nvSpPr>
             <xdr:spPr bwMode="auto">
               <a:xfrm>
-                <a:off x="392430" y="4404365"/>
-                <a:ext cx="243840" cy="270678"/>
+                <a:off x="392430" y="4404369"/>
+                <a:ext cx="243840" cy="270679"/>
               </a:xfrm>
               <a:prstGeom prst="rect">
                 <a:avLst/>
@@ -8187,12 +8187,12 @@
       <c r="I3" s="10"/>
       <c r="J3" s="9"/>
       <c r="K3" s="9"/>
-      <c r="L3" s="269" t="s">
-        <v>487</v>
+      <c r="L3" s="335" t="s">
+        <v>470</v>
       </c>
-      <c r="M3" s="269"/>
-      <c r="N3" s="269"/>
-      <c r="O3" s="269"/>
+      <c r="M3" s="335"/>
+      <c r="N3" s="335"/>
+      <c r="O3" s="335"/>
       <c r="P3" s="9"/>
       <c r="Q3" s="9"/>
       <c r="R3" s="9"/>
@@ -8212,13 +8212,13 @@
         <v>30</v>
       </c>
       <c r="C4" s="9"/>
-      <c r="D4" s="271" t="s">
+      <c r="D4" s="337" t="s">
         <v>52</v>
       </c>
-      <c r="E4" s="271"/>
-      <c r="F4" s="271"/>
-      <c r="G4" s="271"/>
-      <c r="H4" s="271"/>
+      <c r="E4" s="337"/>
+      <c r="F4" s="337"/>
+      <c r="G4" s="337"/>
+      <c r="H4" s="337"/>
       <c r="I4" s="9"/>
       <c r="J4" s="9"/>
       <c r="K4" s="9"/>
@@ -8245,13 +8245,13 @@
         <v>28</v>
       </c>
       <c r="C5" s="13"/>
-      <c r="D5" s="302" t="s">
+      <c r="D5" s="334" t="s">
         <v>53</v>
       </c>
-      <c r="E5" s="302"/>
-      <c r="F5" s="302"/>
-      <c r="G5" s="302"/>
-      <c r="H5" s="302"/>
+      <c r="E5" s="334"/>
+      <c r="F5" s="334"/>
+      <c r="G5" s="334"/>
+      <c r="H5" s="334"/>
       <c r="I5" s="14"/>
       <c r="J5" s="14"/>
       <c r="K5" s="14"/>
@@ -8269,13 +8269,13 @@
       <c r="U5" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="V5" s="286" t="s">
+      <c r="V5" s="325" t="s">
         <v>56</v>
       </c>
-      <c r="W5" s="286"/>
-      <c r="X5" s="286"/>
-      <c r="Y5" s="286"/>
-      <c r="Z5" s="286"/>
+      <c r="W5" s="325"/>
+      <c r="X5" s="325"/>
+      <c r="Y5" s="325"/>
+      <c r="Z5" s="325"/>
       <c r="AA5" s="10"/>
       <c r="AB5" s="18"/>
     </row>
@@ -8305,13 +8305,13 @@
       <c r="U6" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="V6" s="287" t="s">
+      <c r="V6" s="326" t="s">
         <v>57</v>
       </c>
-      <c r="W6" s="287"/>
-      <c r="X6" s="287"/>
-      <c r="Y6" s="287"/>
-      <c r="Z6" s="287"/>
+      <c r="W6" s="326"/>
+      <c r="X6" s="326"/>
+      <c r="Y6" s="326"/>
+      <c r="Z6" s="326"/>
       <c r="AA6" s="10"/>
       <c r="AB6" s="18"/>
     </row>
@@ -8320,24 +8320,24 @@
       <c r="B7" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="C7" s="272" t="s">
+      <c r="C7" s="338" t="s">
         <v>54</v>
       </c>
-      <c r="D7" s="272"/>
-      <c r="E7" s="272"/>
-      <c r="F7" s="272"/>
-      <c r="G7" s="272"/>
-      <c r="H7" s="279" t="s">
-        <v>540</v>
+      <c r="D7" s="338"/>
+      <c r="E7" s="338"/>
+      <c r="F7" s="338"/>
+      <c r="G7" s="338"/>
+      <c r="H7" s="339" t="s">
+        <v>523</v>
       </c>
-      <c r="I7" s="279"/>
-      <c r="J7" s="272" t="s">
+      <c r="I7" s="339"/>
+      <c r="J7" s="338" t="s">
         <v>55</v>
       </c>
-      <c r="K7" s="272"/>
-      <c r="L7" s="272"/>
-      <c r="M7" s="272"/>
-      <c r="N7" s="272"/>
+      <c r="K7" s="338"/>
+      <c r="L7" s="338"/>
+      <c r="M7" s="338"/>
+      <c r="N7" s="338"/>
       <c r="O7" s="21"/>
       <c r="P7" s="21"/>
       <c r="Q7" s="21"/>
@@ -8349,13 +8349,13 @@
       <c r="U7" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="V7" s="287" t="s">
+      <c r="V7" s="326" t="s">
         <v>58</v>
       </c>
-      <c r="W7" s="287"/>
-      <c r="X7" s="287"/>
-      <c r="Y7" s="287"/>
-      <c r="Z7" s="287"/>
+      <c r="W7" s="326"/>
+      <c r="X7" s="326"/>
+      <c r="Y7" s="326"/>
+      <c r="Z7" s="326"/>
       <c r="AA7" s="10"/>
       <c r="AB7" s="18"/>
     </row>
@@ -8435,21 +8435,21 @@
       <c r="M10" s="22"/>
       <c r="N10" s="22"/>
       <c r="O10" s="22"/>
-      <c r="P10" s="296" t="s">
+      <c r="P10" s="332" t="s">
         <v>50</v>
       </c>
-      <c r="Q10" s="296"/>
-      <c r="R10" s="296"/>
-      <c r="S10" s="296"/>
-      <c r="T10" s="296"/>
-      <c r="U10" s="296"/>
-      <c r="V10" s="296"/>
-      <c r="W10" s="296"/>
-      <c r="X10" s="296"/>
-      <c r="Y10" s="293" t="s">
+      <c r="Q10" s="332"/>
+      <c r="R10" s="332"/>
+      <c r="S10" s="332"/>
+      <c r="T10" s="332"/>
+      <c r="U10" s="332"/>
+      <c r="V10" s="332"/>
+      <c r="W10" s="332"/>
+      <c r="X10" s="332"/>
+      <c r="Y10" s="329" t="s">
         <v>59</v>
       </c>
-      <c r="Z10" s="293"/>
+      <c r="Z10" s="329"/>
       <c r="AB10" s="18"/>
     </row>
     <row r="11" spans="1:32" ht="17.25" customHeight="1">
@@ -8472,21 +8472,21 @@
       <c r="M11" s="25"/>
       <c r="N11" s="25"/>
       <c r="O11" s="26"/>
-      <c r="P11" s="297" t="s">
+      <c r="P11" s="333" t="s">
         <v>46</v>
       </c>
-      <c r="Q11" s="297"/>
-      <c r="R11" s="297"/>
-      <c r="S11" s="297"/>
-      <c r="T11" s="297"/>
-      <c r="U11" s="297"/>
-      <c r="V11" s="297"/>
-      <c r="W11" s="294" t="s">
-        <v>486</v>
+      <c r="Q11" s="333"/>
+      <c r="R11" s="333"/>
+      <c r="S11" s="333"/>
+      <c r="T11" s="333"/>
+      <c r="U11" s="333"/>
+      <c r="V11" s="333"/>
+      <c r="W11" s="330" t="s">
+        <v>469</v>
       </c>
-      <c r="X11" s="294"/>
-      <c r="Y11" s="294"/>
-      <c r="Z11" s="294"/>
+      <c r="X11" s="330"/>
+      <c r="Y11" s="330"/>
+      <c r="Z11" s="330"/>
       <c r="AA11" s="27"/>
     </row>
     <row r="12" spans="1:32" s="27" customFormat="1" ht="17.25" customHeight="1">
@@ -8505,19 +8505,19 @@
       <c r="M12" s="29"/>
       <c r="N12" s="29"/>
       <c r="O12" s="29"/>
-      <c r="P12" s="292" t="s">
-        <v>539</v>
+      <c r="P12" s="328" t="s">
+        <v>522</v>
       </c>
-      <c r="Q12" s="292"/>
-      <c r="R12" s="292"/>
-      <c r="S12" s="292"/>
-      <c r="T12" s="292"/>
-      <c r="U12" s="292"/>
-      <c r="V12" s="292"/>
-      <c r="W12" s="292"/>
-      <c r="X12" s="292"/>
-      <c r="Y12" s="292"/>
-      <c r="Z12" s="292"/>
+      <c r="Q12" s="328"/>
+      <c r="R12" s="328"/>
+      <c r="S12" s="328"/>
+      <c r="T12" s="328"/>
+      <c r="U12" s="328"/>
+      <c r="V12" s="328"/>
+      <c r="W12" s="328"/>
+      <c r="X12" s="328"/>
+      <c r="Y12" s="328"/>
+      <c r="Z12" s="328"/>
     </row>
     <row r="13" spans="1:32" s="27" customFormat="1" ht="17.25" customHeight="1">
       <c r="A13" s="28"/>
@@ -8578,8 +8578,8 @@
       <c r="G15" s="162" t="s">
         <v>238</v>
       </c>
-      <c r="H15" s="284"/>
-      <c r="I15" s="285"/>
+      <c r="H15" s="265"/>
+      <c r="I15" s="266"/>
       <c r="J15" s="37" t="s">
         <v>239</v>
       </c>
@@ -8587,8 +8587,8 @@
       <c r="L15" s="162" t="s">
         <v>240</v>
       </c>
-      <c r="M15" s="284"/>
-      <c r="N15" s="285"/>
+      <c r="M15" s="265"/>
+      <c r="N15" s="266"/>
       <c r="O15" s="37" t="s">
         <v>241</v>
       </c>
@@ -8596,12 +8596,12 @@
       <c r="Q15" s="39"/>
       <c r="R15" s="29"/>
       <c r="S15" s="29"/>
-      <c r="T15" s="291" t="s">
+      <c r="T15" s="323" t="s">
         <v>37</v>
       </c>
-      <c r="U15" s="291"/>
-      <c r="V15" s="291"/>
-      <c r="W15" s="291"/>
+      <c r="U15" s="323"/>
+      <c r="V15" s="323"/>
+      <c r="W15" s="323"/>
       <c r="X15" s="40"/>
       <c r="Y15" s="41"/>
       <c r="Z15" s="32"/>
@@ -8609,47 +8609,47 @@
     <row r="16" spans="1:32" s="27" customFormat="1" ht="12" customHeight="1">
       <c r="A16" s="42"/>
       <c r="B16" s="43"/>
-      <c r="C16" s="254" t="s">
+      <c r="C16" s="257" t="s">
         <v>73</v>
       </c>
-      <c r="D16" s="255"/>
-      <c r="E16" s="254" t="s">
+      <c r="D16" s="292"/>
+      <c r="E16" s="257" t="s">
         <v>101</v>
       </c>
-      <c r="F16" s="268"/>
-      <c r="G16" s="254" t="s">
+      <c r="F16" s="258"/>
+      <c r="G16" s="257" t="s">
         <v>129</v>
       </c>
-      <c r="H16" s="255"/>
-      <c r="I16" s="268"/>
-      <c r="J16" s="254" t="s">
+      <c r="H16" s="292"/>
+      <c r="I16" s="258"/>
+      <c r="J16" s="257" t="s">
         <v>157</v>
       </c>
-      <c r="K16" s="268"/>
-      <c r="L16" s="254" t="s">
+      <c r="K16" s="258"/>
+      <c r="L16" s="257" t="s">
         <v>185</v>
       </c>
-      <c r="M16" s="255"/>
-      <c r="N16" s="268"/>
-      <c r="O16" s="254" t="s">
+      <c r="M16" s="292"/>
+      <c r="N16" s="258"/>
+      <c r="O16" s="257" t="s">
         <v>213</v>
       </c>
-      <c r="P16" s="268"/>
+      <c r="P16" s="258"/>
       <c r="Q16" s="43"/>
       <c r="S16" s="29"/>
-      <c r="T16" s="295" t="s">
+      <c r="T16" s="331" t="s">
         <v>60</v>
       </c>
-      <c r="U16" s="295"/>
-      <c r="V16" s="295"/>
-      <c r="W16" s="295"/>
+      <c r="U16" s="331"/>
+      <c r="V16" s="331"/>
+      <c r="W16" s="331"/>
       <c r="X16" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="Y16" s="305" t="s">
+      <c r="Y16" s="316" t="s">
         <v>68</v>
       </c>
-      <c r="Z16" s="305"/>
+      <c r="Z16" s="316"/>
       <c r="AF16" s="62"/>
     </row>
     <row r="17" spans="1:45" s="27" customFormat="1" ht="12" customHeight="1">
@@ -8670,10 +8670,10 @@
       <c r="G17" s="159" t="s">
         <v>254</v>
       </c>
-      <c r="H17" s="280" t="s">
+      <c r="H17" s="300" t="s">
         <v>130</v>
       </c>
-      <c r="I17" s="281"/>
+      <c r="I17" s="301"/>
       <c r="J17" s="44" t="s">
         <v>257</v>
       </c>
@@ -8683,10 +8683,10 @@
       <c r="L17" s="159" t="s">
         <v>260</v>
       </c>
-      <c r="M17" s="280" t="s">
+      <c r="M17" s="300" t="s">
         <v>186</v>
       </c>
-      <c r="N17" s="281"/>
+      <c r="N17" s="301"/>
       <c r="O17" s="44" t="s">
         <v>263</v>
       </c>
@@ -8694,7 +8694,7 @@
         <v>214</v>
       </c>
       <c r="Q17" s="179" t="s">
-        <v>479</v>
+        <v>462</v>
       </c>
       <c r="S17" s="29"/>
       <c r="T17" s="42"/>
@@ -8715,40 +8715,40 @@
     <row r="18" spans="1:45" s="27" customFormat="1" ht="12" customHeight="1">
       <c r="A18" s="42"/>
       <c r="B18" s="49"/>
-      <c r="C18" s="256" t="s">
+      <c r="C18" s="255" t="s">
         <v>75</v>
       </c>
-      <c r="D18" s="257"/>
-      <c r="E18" s="256" t="s">
+      <c r="D18" s="287"/>
+      <c r="E18" s="255" t="s">
         <v>103</v>
       </c>
-      <c r="F18" s="265"/>
-      <c r="G18" s="256" t="s">
+      <c r="F18" s="256"/>
+      <c r="G18" s="255" t="s">
         <v>131</v>
       </c>
-      <c r="H18" s="257"/>
-      <c r="I18" s="265"/>
-      <c r="J18" s="257" t="s">
+      <c r="H18" s="287"/>
+      <c r="I18" s="256"/>
+      <c r="J18" s="287" t="s">
         <v>159</v>
       </c>
-      <c r="K18" s="257"/>
-      <c r="L18" s="273" t="s">
+      <c r="K18" s="287"/>
+      <c r="L18" s="293" t="s">
         <v>187</v>
       </c>
-      <c r="M18" s="274"/>
-      <c r="N18" s="275"/>
-      <c r="O18" s="257" t="s">
+      <c r="M18" s="294"/>
+      <c r="N18" s="295"/>
+      <c r="O18" s="287" t="s">
         <v>215</v>
       </c>
-      <c r="P18" s="257"/>
-      <c r="Q18" s="304" t="s">
-        <v>474</v>
+      <c r="P18" s="287"/>
+      <c r="Q18" s="321" t="s">
+        <v>457</v>
       </c>
       <c r="S18" s="29"/>
-      <c r="T18" s="288"/>
-      <c r="U18" s="288"/>
-      <c r="V18" s="288"/>
-      <c r="W18" s="288"/>
+      <c r="T18" s="327"/>
+      <c r="U18" s="327"/>
+      <c r="V18" s="327"/>
+      <c r="W18" s="327"/>
       <c r="X18" s="40"/>
       <c r="Y18" s="48"/>
       <c r="Z18" s="32"/>
@@ -8760,7 +8760,7 @@
     <row r="19" spans="1:45" s="27" customFormat="1" ht="12" customHeight="1">
       <c r="A19" s="42"/>
       <c r="B19" s="179" t="s">
-        <v>476</v>
+        <v>459</v>
       </c>
       <c r="C19" s="163" t="s">
         <v>76</v>
@@ -8777,10 +8777,10 @@
       <c r="G19" s="165" t="s">
         <v>132</v>
       </c>
-      <c r="H19" s="289" t="s">
+      <c r="H19" s="296" t="s">
         <v>133</v>
       </c>
-      <c r="I19" s="290"/>
+      <c r="I19" s="297"/>
       <c r="J19" s="163" t="s">
         <v>160</v>
       </c>
@@ -8790,22 +8790,22 @@
       <c r="L19" s="163" t="s">
         <v>188</v>
       </c>
-      <c r="M19" s="289" t="s">
+      <c r="M19" s="296" t="s">
         <v>189</v>
       </c>
-      <c r="N19" s="290"/>
+      <c r="N19" s="297"/>
       <c r="O19" s="166" t="s">
         <v>216</v>
       </c>
       <c r="P19" s="164" t="s">
         <v>217</v>
       </c>
-      <c r="Q19" s="304"/>
+      <c r="Q19" s="321"/>
       <c r="S19" s="29"/>
-      <c r="T19" s="288"/>
-      <c r="U19" s="288"/>
-      <c r="V19" s="288"/>
-      <c r="W19" s="288"/>
+      <c r="T19" s="327"/>
+      <c r="U19" s="327"/>
+      <c r="V19" s="327"/>
+      <c r="W19" s="327"/>
       <c r="X19" s="40"/>
       <c r="Y19" s="48"/>
       <c r="Z19" s="32"/>
@@ -8816,30 +8816,30 @@
       <c r="AD19"/>
       <c r="AE19"/>
       <c r="AF19" s="182" t="s">
-        <v>477</v>
+        <v>460</v>
       </c>
       <c r="AG19"/>
     </row>
     <row r="20" spans="1:45" s="27" customFormat="1" ht="12" customHeight="1">
       <c r="A20" s="42"/>
-      <c r="B20" s="270" t="s">
+      <c r="B20" s="336" t="s">
         <v>72</v>
       </c>
       <c r="C20" s="50" t="s">
         <v>249</v>
       </c>
-      <c r="D20" s="262" t="s">
+      <c r="D20" s="342" t="s">
         <v>78</v>
       </c>
-      <c r="E20" s="263"/>
-      <c r="F20" s="264"/>
+      <c r="E20" s="288"/>
+      <c r="F20" s="343"/>
       <c r="G20" s="160" t="s">
         <v>253</v>
       </c>
-      <c r="H20" s="298" t="s">
+      <c r="H20" s="261" t="s">
         <v>106</v>
       </c>
-      <c r="I20" s="299"/>
+      <c r="I20" s="262"/>
       <c r="J20" s="50" t="s">
         <v>255</v>
       </c>
@@ -8849,10 +8849,10 @@
       <c r="L20" s="53" t="s">
         <v>258</v>
       </c>
-      <c r="M20" s="266" t="s">
+      <c r="M20" s="285" t="s">
         <v>162</v>
       </c>
-      <c r="N20" s="267"/>
+      <c r="N20" s="286"/>
       <c r="O20" s="53" t="s">
         <v>261</v>
       </c>
@@ -8861,48 +8861,48 @@
       </c>
       <c r="Q20" s="172"/>
       <c r="S20" s="29"/>
-      <c r="T20" s="288"/>
-      <c r="U20" s="288"/>
-      <c r="V20" s="288"/>
-      <c r="W20" s="288"/>
+      <c r="T20" s="327"/>
+      <c r="U20" s="327"/>
+      <c r="V20" s="327"/>
+      <c r="W20" s="327"/>
       <c r="X20" s="40"/>
       <c r="Y20" s="48"/>
       <c r="Z20" s="32"/>
       <c r="AA20" s="42"/>
       <c r="AD20"/>
       <c r="AE20"/>
-      <c r="AF20" s="308" t="s">
-        <v>478</v>
+      <c r="AF20" s="320" t="s">
+        <v>461</v>
       </c>
       <c r="AG20"/>
     </row>
     <row r="21" spans="1:45" s="27" customFormat="1" ht="12" customHeight="1">
       <c r="A21" s="42"/>
-      <c r="B21" s="270"/>
-      <c r="C21" s="256" t="s">
+      <c r="B21" s="336"/>
+      <c r="C21" s="255" t="s">
         <v>79</v>
       </c>
-      <c r="D21" s="257"/>
-      <c r="E21" s="257"/>
-      <c r="F21" s="265"/>
-      <c r="G21" s="256" t="s">
+      <c r="D21" s="287"/>
+      <c r="E21" s="287"/>
+      <c r="F21" s="256"/>
+      <c r="G21" s="255" t="s">
         <v>107</v>
       </c>
-      <c r="H21" s="257"/>
-      <c r="I21" s="265"/>
-      <c r="J21" s="273" t="s">
+      <c r="H21" s="287"/>
+      <c r="I21" s="256"/>
+      <c r="J21" s="293" t="s">
         <v>135</v>
       </c>
-      <c r="K21" s="275"/>
-      <c r="L21" s="273" t="s">
+      <c r="K21" s="295"/>
+      <c r="L21" s="293" t="s">
         <v>163</v>
       </c>
-      <c r="M21" s="274"/>
-      <c r="N21" s="275"/>
-      <c r="O21" s="273" t="s">
+      <c r="M21" s="294"/>
+      <c r="N21" s="295"/>
+      <c r="O21" s="293" t="s">
         <v>191</v>
       </c>
-      <c r="P21" s="275"/>
+      <c r="P21" s="295"/>
       <c r="Q21" s="173"/>
       <c r="S21" s="29"/>
       <c r="T21" s="29"/>
@@ -8915,7 +8915,7 @@
       <c r="AA21" s="42"/>
       <c r="AD21"/>
       <c r="AE21"/>
-      <c r="AF21" s="308"/>
+      <c r="AF21" s="320"/>
       <c r="AG21"/>
     </row>
     <row r="22" spans="1:45" s="27" customFormat="1" ht="12" customHeight="1">
@@ -8924,18 +8924,18 @@
       <c r="C22" s="167" t="s">
         <v>80</v>
       </c>
-      <c r="D22" s="258" t="s">
+      <c r="D22" s="263" t="s">
         <v>81</v>
       </c>
-      <c r="E22" s="258"/>
-      <c r="F22" s="259"/>
+      <c r="E22" s="263"/>
+      <c r="F22" s="264"/>
       <c r="G22" s="168" t="s">
         <v>108</v>
       </c>
-      <c r="H22" s="258" t="s">
+      <c r="H22" s="263" t="s">
         <v>109</v>
       </c>
-      <c r="I22" s="259"/>
+      <c r="I22" s="264"/>
       <c r="J22" s="169" t="s">
         <v>136</v>
       </c>
@@ -8945,10 +8945,10 @@
       <c r="L22" s="169" t="s">
         <v>164</v>
       </c>
-      <c r="M22" s="258" t="s">
+      <c r="M22" s="263" t="s">
         <v>165</v>
       </c>
-      <c r="N22" s="259"/>
+      <c r="N22" s="264"/>
       <c r="O22" s="171" t="s">
         <v>192</v>
       </c>
@@ -8987,10 +8987,10 @@
       <c r="G23" s="160" t="s">
         <v>256</v>
       </c>
-      <c r="H23" s="298" t="s">
+      <c r="H23" s="261" t="s">
         <v>138</v>
       </c>
-      <c r="I23" s="299"/>
+      <c r="I23" s="262"/>
       <c r="J23" s="50" t="s">
         <v>259</v>
       </c>
@@ -9000,10 +9000,10 @@
       <c r="L23" s="160" t="s">
         <v>262</v>
       </c>
-      <c r="M23" s="298" t="s">
+      <c r="M23" s="261" t="s">
         <v>194</v>
       </c>
-      <c r="N23" s="299"/>
+      <c r="N23" s="262"/>
       <c r="O23" s="50" t="s">
         <v>264</v>
       </c>
@@ -9011,7 +9011,7 @@
         <v>218</v>
       </c>
       <c r="Q23" s="179" t="s">
-        <v>480</v>
+        <v>463</v>
       </c>
       <c r="S23" s="29"/>
       <c r="T23" s="31" t="s">
@@ -9033,42 +9033,42 @@
     <row r="24" spans="1:45" s="27" customFormat="1" ht="12" customHeight="1">
       <c r="A24" s="42"/>
       <c r="B24" s="43"/>
-      <c r="C24" s="256" t="s">
+      <c r="C24" s="255" t="s">
         <v>83</v>
       </c>
-      <c r="D24" s="257"/>
-      <c r="E24" s="256" t="s">
+      <c r="D24" s="287"/>
+      <c r="E24" s="255" t="s">
         <v>111</v>
       </c>
-      <c r="F24" s="257"/>
-      <c r="G24" s="276" t="s">
+      <c r="F24" s="287"/>
+      <c r="G24" s="270" t="s">
         <v>139</v>
       </c>
-      <c r="H24" s="277"/>
-      <c r="I24" s="278"/>
-      <c r="J24" s="256" t="s">
+      <c r="H24" s="271"/>
+      <c r="I24" s="272"/>
+      <c r="J24" s="255" t="s">
         <v>167</v>
       </c>
-      <c r="K24" s="257"/>
-      <c r="L24" s="276" t="s">
+      <c r="K24" s="287"/>
+      <c r="L24" s="270" t="s">
         <v>195</v>
       </c>
-      <c r="M24" s="277"/>
-      <c r="N24" s="278"/>
-      <c r="O24" s="256" t="s">
+      <c r="M24" s="271"/>
+      <c r="N24" s="272"/>
+      <c r="O24" s="255" t="s">
         <v>219</v>
       </c>
-      <c r="P24" s="257"/>
-      <c r="Q24" s="304" t="s">
-        <v>472</v>
+      <c r="P24" s="287"/>
+      <c r="Q24" s="321" t="s">
+        <v>455</v>
       </c>
       <c r="S24" s="29"/>
-      <c r="T24" s="306" t="s">
+      <c r="T24" s="302" t="s">
         <v>233</v>
       </c>
-      <c r="U24" s="306"/>
-      <c r="V24" s="306"/>
-      <c r="W24" s="306"/>
+      <c r="U24" s="302"/>
+      <c r="V24" s="302"/>
+      <c r="W24" s="302"/>
       <c r="X24" s="40"/>
       <c r="Y24" s="57" t="s">
         <v>234</v>
@@ -9099,10 +9099,10 @@
       <c r="G25" s="165" t="s">
         <v>140</v>
       </c>
-      <c r="H25" s="300" t="s">
+      <c r="H25" s="298" t="s">
         <v>141</v>
       </c>
-      <c r="I25" s="301"/>
+      <c r="I25" s="299"/>
       <c r="J25" s="163" t="s">
         <v>168</v>
       </c>
@@ -9112,17 +9112,17 @@
       <c r="L25" s="163" t="s">
         <v>196</v>
       </c>
-      <c r="M25" s="260" t="s">
+      <c r="M25" s="340" t="s">
         <v>197</v>
       </c>
-      <c r="N25" s="261"/>
+      <c r="N25" s="341"/>
       <c r="O25" s="163" t="s">
         <v>220</v>
       </c>
       <c r="P25" s="164" t="s">
         <v>221</v>
       </c>
-      <c r="Q25" s="304"/>
+      <c r="Q25" s="321"/>
       <c r="S25" s="29"/>
       <c r="T25" s="29"/>
       <c r="U25" s="29"/>
@@ -9152,8 +9152,8 @@
       <c r="G26" s="161" t="s">
         <v>244</v>
       </c>
-      <c r="H26" s="282"/>
-      <c r="I26" s="283"/>
+      <c r="H26" s="290"/>
+      <c r="I26" s="291"/>
       <c r="J26" s="58" t="s">
         <v>245</v>
       </c>
@@ -9161,19 +9161,19 @@
       <c r="L26" s="161" t="s">
         <v>246</v>
       </c>
-      <c r="M26" s="282"/>
-      <c r="N26" s="283"/>
+      <c r="M26" s="290"/>
+      <c r="N26" s="291"/>
       <c r="O26" s="34" t="s">
         <v>247</v>
       </c>
       <c r="P26" s="61"/>
       <c r="Q26" s="43"/>
       <c r="S26" s="29"/>
-      <c r="T26" s="307" t="s">
+      <c r="T26" s="322" t="s">
         <v>38</v>
       </c>
-      <c r="U26" s="307"/>
-      <c r="V26" s="307"/>
+      <c r="U26" s="322"/>
+      <c r="V26" s="322"/>
       <c r="W26" s="32" t="s">
         <v>8</v>
       </c>
@@ -9192,40 +9192,40 @@
     <row r="27" spans="1:45" s="27" customFormat="1" ht="12" customHeight="1">
       <c r="A27" s="42"/>
       <c r="B27" s="33"/>
-      <c r="C27" s="254" t="s">
+      <c r="C27" s="257" t="s">
         <v>86</v>
       </c>
-      <c r="D27" s="255"/>
-      <c r="E27" s="254" t="s">
+      <c r="D27" s="292"/>
+      <c r="E27" s="257" t="s">
         <v>114</v>
       </c>
-      <c r="F27" s="255"/>
-      <c r="G27" s="254" t="s">
+      <c r="F27" s="292"/>
+      <c r="G27" s="257" t="s">
         <v>142</v>
       </c>
-      <c r="H27" s="255"/>
-      <c r="I27" s="268"/>
-      <c r="J27" s="254" t="s">
+      <c r="H27" s="292"/>
+      <c r="I27" s="258"/>
+      <c r="J27" s="257" t="s">
         <v>170</v>
       </c>
-      <c r="K27" s="255"/>
-      <c r="L27" s="254" t="s">
+      <c r="K27" s="292"/>
+      <c r="L27" s="257" t="s">
         <v>198</v>
       </c>
-      <c r="M27" s="255"/>
-      <c r="N27" s="268"/>
-      <c r="O27" s="254" t="s">
+      <c r="M27" s="292"/>
+      <c r="N27" s="258"/>
+      <c r="O27" s="257" t="s">
         <v>222</v>
       </c>
-      <c r="P27" s="268"/>
+      <c r="P27" s="258"/>
       <c r="Q27" s="62"/>
       <c r="R27" s="29"/>
       <c r="S27" s="31"/>
-      <c r="T27" s="307" t="s">
+      <c r="T27" s="322" t="s">
         <v>61</v>
       </c>
-      <c r="U27" s="307"/>
-      <c r="V27" s="307"/>
+      <c r="U27" s="322"/>
+      <c r="V27" s="322"/>
       <c r="W27" s="32" t="s">
         <v>8</v>
       </c>
@@ -9261,11 +9261,11 @@
       <c r="Q28" s="62"/>
       <c r="R28" s="29"/>
       <c r="S28" s="31"/>
-      <c r="T28" s="306" t="s">
+      <c r="T28" s="302" t="s">
         <v>40</v>
       </c>
-      <c r="U28" s="306"/>
-      <c r="V28" s="306"/>
+      <c r="U28" s="302"/>
+      <c r="V28" s="302"/>
       <c r="W28" s="32" t="s">
         <v>8</v>
       </c>
@@ -9384,12 +9384,12 @@
       <c r="Q31" s="25"/>
       <c r="R31" s="65"/>
       <c r="S31" s="69"/>
-      <c r="T31" s="291" t="s">
+      <c r="T31" s="323" t="s">
         <v>37</v>
       </c>
-      <c r="U31" s="291"/>
-      <c r="V31" s="291"/>
-      <c r="W31" s="291"/>
+      <c r="U31" s="323"/>
+      <c r="V31" s="323"/>
+      <c r="W31" s="323"/>
       <c r="X31" s="67"/>
       <c r="Y31" s="68"/>
       <c r="Z31" s="32"/>
@@ -9420,32 +9420,32 @@
       <c r="Q32" s="70"/>
       <c r="R32" s="70"/>
       <c r="S32" s="70"/>
-      <c r="T32" s="309" t="s">
+      <c r="T32" s="324" t="s">
         <v>69</v>
       </c>
-      <c r="U32" s="309"/>
-      <c r="V32" s="309"/>
-      <c r="W32" s="309"/>
+      <c r="U32" s="324"/>
+      <c r="V32" s="324"/>
+      <c r="W32" s="324"/>
       <c r="X32" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="Y32" s="305" t="s">
+      <c r="Y32" s="316" t="s">
         <v>70</v>
       </c>
-      <c r="Z32" s="305"/>
+      <c r="Z32" s="316"/>
       <c r="AD32"/>
       <c r="AE32"/>
       <c r="AF32"/>
       <c r="AG32"/>
       <c r="AH32"/>
       <c r="AI32"/>
-      <c r="AJ32" s="310"/>
-      <c r="AK32" s="310"/>
+      <c r="AJ32" s="314"/>
+      <c r="AK32" s="314"/>
       <c r="AL32" s="72"/>
       <c r="AM32" s="72"/>
       <c r="AN32" s="72"/>
-      <c r="AO32" s="310"/>
-      <c r="AP32" s="310"/>
+      <c r="AO32" s="314"/>
+      <c r="AP32" s="314"/>
       <c r="AQ32" s="72"/>
       <c r="AR32" s="72"/>
       <c r="AS32" s="72"/>
@@ -9464,8 +9464,8 @@
       <c r="G33" s="162" t="s">
         <v>267</v>
       </c>
-      <c r="H33" s="284"/>
-      <c r="I33" s="285"/>
+      <c r="H33" s="265"/>
+      <c r="I33" s="266"/>
       <c r="J33" s="156" t="s">
         <v>268</v>
       </c>
@@ -9473,8 +9473,8 @@
       <c r="L33" s="162" t="s">
         <v>269</v>
       </c>
-      <c r="M33" s="284"/>
-      <c r="N33" s="285"/>
+      <c r="M33" s="265"/>
+      <c r="N33" s="266"/>
       <c r="O33" s="156" t="s">
         <v>270</v>
       </c>
@@ -9496,46 +9496,46 @@
       <c r="AG33"/>
       <c r="AH33"/>
       <c r="AI33"/>
-      <c r="AJ33" s="311"/>
-      <c r="AK33" s="311"/>
-      <c r="AL33" s="311"/>
-      <c r="AM33" s="311"/>
-      <c r="AN33" s="311"/>
-      <c r="AO33" s="311"/>
-      <c r="AP33" s="311"/>
-      <c r="AQ33" s="311"/>
-      <c r="AR33" s="311"/>
-      <c r="AS33" s="311"/>
+      <c r="AJ33" s="313"/>
+      <c r="AK33" s="313"/>
+      <c r="AL33" s="313"/>
+      <c r="AM33" s="313"/>
+      <c r="AN33" s="313"/>
+      <c r="AO33" s="313"/>
+      <c r="AP33" s="313"/>
+      <c r="AQ33" s="313"/>
+      <c r="AR33" s="313"/>
+      <c r="AS33" s="313"/>
     </row>
     <row r="34" spans="1:45" s="27" customFormat="1" ht="12" customHeight="1">
       <c r="A34" s="75"/>
       <c r="B34" s="43"/>
-      <c r="C34" s="254" t="s">
+      <c r="C34" s="257" t="s">
         <v>87</v>
       </c>
-      <c r="D34" s="268"/>
-      <c r="E34" s="254" t="s">
+      <c r="D34" s="258"/>
+      <c r="E34" s="257" t="s">
         <v>115</v>
       </c>
-      <c r="F34" s="268"/>
-      <c r="G34" s="254" t="s">
+      <c r="F34" s="258"/>
+      <c r="G34" s="257" t="s">
         <v>143</v>
       </c>
-      <c r="H34" s="255"/>
-      <c r="I34" s="268"/>
-      <c r="J34" s="254" t="s">
+      <c r="H34" s="292"/>
+      <c r="I34" s="258"/>
+      <c r="J34" s="257" t="s">
         <v>171</v>
       </c>
-      <c r="K34" s="268"/>
-      <c r="L34" s="254" t="s">
+      <c r="K34" s="258"/>
+      <c r="L34" s="257" t="s">
         <v>199</v>
       </c>
-      <c r="M34" s="255"/>
-      <c r="N34" s="268"/>
-      <c r="O34" s="254" t="s">
+      <c r="M34" s="292"/>
+      <c r="N34" s="258"/>
+      <c r="O34" s="257" t="s">
         <v>223</v>
       </c>
-      <c r="P34" s="268"/>
+      <c r="P34" s="258"/>
       <c r="Q34" s="43"/>
       <c r="S34" s="73"/>
       <c r="T34" s="74"/>
@@ -9553,13 +9553,13 @@
       <c r="AG34"/>
       <c r="AH34"/>
       <c r="AI34"/>
-      <c r="AJ34" s="312"/>
-      <c r="AK34" s="312"/>
+      <c r="AJ34" s="317"/>
+      <c r="AK34" s="317"/>
       <c r="AL34" s="77"/>
       <c r="AM34" s="76"/>
       <c r="AN34" s="77"/>
-      <c r="AO34" s="312"/>
-      <c r="AP34" s="312"/>
+      <c r="AO34" s="317"/>
+      <c r="AP34" s="317"/>
       <c r="AQ34" s="77"/>
       <c r="AR34" s="76"/>
       <c r="AS34" s="77"/>
@@ -9582,10 +9582,10 @@
       <c r="G35" s="159" t="s">
         <v>273</v>
       </c>
-      <c r="H35" s="280" t="s">
+      <c r="H35" s="300" t="s">
         <v>144</v>
       </c>
-      <c r="I35" s="281"/>
+      <c r="I35" s="301"/>
       <c r="J35" s="159" t="s">
         <v>274</v>
       </c>
@@ -9595,10 +9595,10 @@
       <c r="L35" s="159" t="s">
         <v>275</v>
       </c>
-      <c r="M35" s="280" t="s">
+      <c r="M35" s="300" t="s">
         <v>200</v>
       </c>
-      <c r="N35" s="281"/>
+      <c r="N35" s="301"/>
       <c r="O35" s="159" t="s">
         <v>276</v>
       </c>
@@ -9606,7 +9606,7 @@
         <v>224</v>
       </c>
       <c r="Q35" s="183" t="s">
-        <v>481</v>
+        <v>464</v>
       </c>
       <c r="S35" s="73"/>
       <c r="T35" s="74"/>
@@ -9627,48 +9627,48 @@
       <c r="AG35"/>
       <c r="AH35"/>
       <c r="AI35"/>
-      <c r="AJ35" s="311"/>
-      <c r="AK35" s="311"/>
-      <c r="AL35" s="311"/>
-      <c r="AM35" s="311"/>
-      <c r="AN35" s="311"/>
-      <c r="AO35" s="277"/>
-      <c r="AP35" s="277"/>
-      <c r="AQ35" s="277"/>
-      <c r="AR35" s="313"/>
-      <c r="AS35" s="313"/>
+      <c r="AJ35" s="313"/>
+      <c r="AK35" s="313"/>
+      <c r="AL35" s="313"/>
+      <c r="AM35" s="313"/>
+      <c r="AN35" s="313"/>
+      <c r="AO35" s="271"/>
+      <c r="AP35" s="271"/>
+      <c r="AQ35" s="271"/>
+      <c r="AR35" s="318"/>
+      <c r="AS35" s="318"/>
     </row>
     <row r="36" spans="1:45" s="27" customFormat="1" ht="12" customHeight="1">
       <c r="A36" s="75"/>
       <c r="B36" s="43"/>
-      <c r="C36" s="256" t="s">
+      <c r="C36" s="255" t="s">
         <v>89</v>
       </c>
-      <c r="D36" s="265"/>
-      <c r="E36" s="256" t="s">
+      <c r="D36" s="256"/>
+      <c r="E36" s="255" t="s">
         <v>117</v>
       </c>
-      <c r="F36" s="265"/>
-      <c r="G36" s="256" t="s">
+      <c r="F36" s="256"/>
+      <c r="G36" s="255" t="s">
         <v>145</v>
       </c>
-      <c r="H36" s="257"/>
-      <c r="I36" s="265"/>
-      <c r="J36" s="256" t="s">
+      <c r="H36" s="287"/>
+      <c r="I36" s="256"/>
+      <c r="J36" s="255" t="s">
         <v>173</v>
       </c>
-      <c r="K36" s="265"/>
-      <c r="L36" s="273" t="s">
+      <c r="K36" s="256"/>
+      <c r="L36" s="293" t="s">
         <v>201</v>
       </c>
-      <c r="M36" s="274"/>
-      <c r="N36" s="275"/>
-      <c r="O36" s="256" t="s">
+      <c r="M36" s="294"/>
+      <c r="N36" s="295"/>
+      <c r="O36" s="255" t="s">
         <v>225</v>
       </c>
-      <c r="P36" s="265"/>
-      <c r="Q36" s="304" t="s">
-        <v>475</v>
+      <c r="P36" s="256"/>
+      <c r="Q36" s="321" t="s">
+        <v>458</v>
       </c>
       <c r="S36" s="73"/>
       <c r="T36" s="74"/>
@@ -9700,7 +9700,7 @@
     <row r="37" spans="1:45" s="27" customFormat="1" ht="12" customHeight="1">
       <c r="A37" s="75"/>
       <c r="B37" s="181" t="s">
-        <v>482</v>
+        <v>465</v>
       </c>
       <c r="C37" s="163" t="s">
         <v>90</v>
@@ -9717,10 +9717,10 @@
       <c r="G37" s="163" t="s">
         <v>146</v>
       </c>
-      <c r="H37" s="289" t="s">
+      <c r="H37" s="296" t="s">
         <v>147</v>
       </c>
-      <c r="I37" s="290"/>
+      <c r="I37" s="297"/>
       <c r="J37" s="163" t="s">
         <v>174</v>
       </c>
@@ -9730,17 +9730,17 @@
       <c r="L37" s="163" t="s">
         <v>202</v>
       </c>
-      <c r="M37" s="289" t="s">
+      <c r="M37" s="296" t="s">
         <v>203</v>
       </c>
-      <c r="N37" s="290"/>
+      <c r="N37" s="297"/>
       <c r="O37" s="166" t="s">
         <v>226</v>
       </c>
       <c r="P37" s="164" t="s">
         <v>227</v>
       </c>
-      <c r="Q37" s="304"/>
+      <c r="Q37" s="321"/>
       <c r="S37" s="83"/>
       <c r="T37" s="74"/>
       <c r="U37" s="74"/>
@@ -9754,42 +9754,42 @@
         <v>32</v>
       </c>
       <c r="AF37" s="182" t="s">
-        <v>484</v>
+        <v>467</v>
       </c>
       <c r="AG37" s="176"/>
       <c r="AH37" s="176"/>
       <c r="AI37" s="176"/>
-      <c r="AJ37" s="303"/>
-      <c r="AK37" s="303"/>
+      <c r="AJ37" s="315"/>
+      <c r="AK37" s="315"/>
       <c r="AL37" s="77"/>
       <c r="AM37" s="55"/>
       <c r="AN37" s="78"/>
       <c r="AO37" s="55"/>
-      <c r="AP37" s="314"/>
-      <c r="AQ37" s="314"/>
+      <c r="AP37" s="319"/>
+      <c r="AQ37" s="319"/>
       <c r="AR37" s="55"/>
       <c r="AS37" s="77"/>
     </row>
     <row r="38" spans="1:45" s="27" customFormat="1" ht="12" customHeight="1">
       <c r="A38" s="75"/>
-      <c r="B38" s="270" t="s">
+      <c r="B38" s="336" t="s">
         <v>232</v>
       </c>
       <c r="C38" s="157" t="s">
         <v>277</v>
       </c>
-      <c r="D38" s="263" t="s">
+      <c r="D38" s="288" t="s">
         <v>92</v>
       </c>
-      <c r="E38" s="263"/>
-      <c r="F38" s="343"/>
+      <c r="E38" s="288"/>
+      <c r="F38" s="289"/>
       <c r="G38" s="160" t="s">
         <v>278</v>
       </c>
-      <c r="H38" s="298" t="s">
+      <c r="H38" s="261" t="s">
         <v>120</v>
       </c>
-      <c r="I38" s="299"/>
+      <c r="I38" s="262"/>
       <c r="J38" s="157" t="s">
         <v>279</v>
       </c>
@@ -9799,10 +9799,10 @@
       <c r="L38" s="53" t="s">
         <v>280</v>
       </c>
-      <c r="M38" s="266" t="s">
+      <c r="M38" s="285" t="s">
         <v>176</v>
       </c>
-      <c r="N38" s="267"/>
+      <c r="N38" s="286"/>
       <c r="O38" s="53" t="s">
         <v>281</v>
       </c>
@@ -9818,50 +9818,50 @@
       <c r="X38" s="29"/>
       <c r="Y38" s="84"/>
       <c r="Z38" s="29"/>
-      <c r="AF38" s="308" t="s">
-        <v>485</v>
+      <c r="AF38" s="320" t="s">
+        <v>468</v>
       </c>
       <c r="AG38" s="175"/>
       <c r="AH38" s="175"/>
       <c r="AI38" s="175"/>
-      <c r="AJ38" s="311"/>
-      <c r="AK38" s="311"/>
-      <c r="AL38" s="311"/>
-      <c r="AM38" s="277"/>
-      <c r="AN38" s="277"/>
-      <c r="AO38" s="277"/>
-      <c r="AP38" s="277"/>
-      <c r="AQ38" s="277"/>
-      <c r="AR38" s="277"/>
-      <c r="AS38" s="277"/>
+      <c r="AJ38" s="313"/>
+      <c r="AK38" s="313"/>
+      <c r="AL38" s="313"/>
+      <c r="AM38" s="271"/>
+      <c r="AN38" s="271"/>
+      <c r="AO38" s="271"/>
+      <c r="AP38" s="271"/>
+      <c r="AQ38" s="271"/>
+      <c r="AR38" s="271"/>
+      <c r="AS38" s="271"/>
     </row>
     <row r="39" spans="1:45" s="27" customFormat="1" ht="12" customHeight="1">
       <c r="A39" s="75"/>
-      <c r="B39" s="270"/>
-      <c r="C39" s="256" t="s">
+      <c r="B39" s="336"/>
+      <c r="C39" s="255" t="s">
         <v>93</v>
       </c>
-      <c r="D39" s="257"/>
-      <c r="E39" s="257"/>
-      <c r="F39" s="265"/>
-      <c r="G39" s="256" t="s">
+      <c r="D39" s="287"/>
+      <c r="E39" s="287"/>
+      <c r="F39" s="256"/>
+      <c r="G39" s="255" t="s">
         <v>121</v>
       </c>
-      <c r="H39" s="257"/>
-      <c r="I39" s="265"/>
-      <c r="J39" s="273" t="s">
+      <c r="H39" s="287"/>
+      <c r="I39" s="256"/>
+      <c r="J39" s="293" t="s">
         <v>149</v>
       </c>
-      <c r="K39" s="275"/>
-      <c r="L39" s="273" t="s">
+      <c r="K39" s="295"/>
+      <c r="L39" s="293" t="s">
         <v>177</v>
       </c>
-      <c r="M39" s="274"/>
-      <c r="N39" s="275"/>
-      <c r="O39" s="273" t="s">
+      <c r="M39" s="294"/>
+      <c r="N39" s="295"/>
+      <c r="O39" s="293" t="s">
         <v>205</v>
       </c>
-      <c r="P39" s="275"/>
+      <c r="P39" s="295"/>
       <c r="Q39" s="173"/>
       <c r="S39" s="83"/>
       <c r="T39" s="31" t="s">
@@ -9873,7 +9873,7 @@
       <c r="X39" s="29"/>
       <c r="Y39" s="84"/>
       <c r="Z39" s="32"/>
-      <c r="AF39" s="308"/>
+      <c r="AF39" s="320"/>
       <c r="AG39" s="177"/>
       <c r="AH39" s="177"/>
       <c r="AI39" s="82"/>
@@ -9894,18 +9894,18 @@
       <c r="C40" s="167" t="s">
         <v>94</v>
       </c>
-      <c r="D40" s="258" t="s">
+      <c r="D40" s="263" t="s">
         <v>95</v>
       </c>
-      <c r="E40" s="258"/>
-      <c r="F40" s="259"/>
+      <c r="E40" s="263"/>
+      <c r="F40" s="264"/>
       <c r="G40" s="168" t="s">
         <v>122</v>
       </c>
-      <c r="H40" s="258" t="s">
+      <c r="H40" s="263" t="s">
         <v>123</v>
       </c>
-      <c r="I40" s="259"/>
+      <c r="I40" s="264"/>
       <c r="J40" s="169" t="s">
         <v>150</v>
       </c>
@@ -9915,10 +9915,10 @@
       <c r="L40" s="169" t="s">
         <v>178</v>
       </c>
-      <c r="M40" s="258" t="s">
+      <c r="M40" s="263" t="s">
         <v>179</v>
       </c>
-      <c r="N40" s="259"/>
+      <c r="N40" s="264"/>
       <c r="O40" s="171" t="s">
         <v>206</v>
       </c>
@@ -9927,12 +9927,12 @@
       </c>
       <c r="Q40" s="56"/>
       <c r="S40" s="25"/>
-      <c r="T40" s="306" t="s">
+      <c r="T40" s="302" t="s">
         <v>233</v>
       </c>
-      <c r="U40" s="306"/>
-      <c r="V40" s="306"/>
-      <c r="W40" s="306"/>
+      <c r="U40" s="302"/>
+      <c r="V40" s="302"/>
+      <c r="W40" s="302"/>
       <c r="X40" s="40"/>
       <c r="Y40" s="85" t="s">
         <v>71</v>
@@ -9942,13 +9942,13 @@
       <c r="AG40" s="77"/>
       <c r="AH40" s="177"/>
       <c r="AI40" s="176"/>
-      <c r="AJ40" s="303"/>
-      <c r="AK40" s="303"/>
+      <c r="AJ40" s="315"/>
+      <c r="AK40" s="315"/>
       <c r="AL40" s="77"/>
       <c r="AM40" s="55"/>
       <c r="AN40" s="77"/>
-      <c r="AO40" s="303"/>
-      <c r="AP40" s="303"/>
+      <c r="AO40" s="315"/>
+      <c r="AP40" s="315"/>
       <c r="AQ40" s="77"/>
       <c r="AR40" s="55"/>
       <c r="AS40" s="77"/>
@@ -9971,10 +9971,10 @@
       <c r="G41" s="160" t="s">
         <v>284</v>
       </c>
-      <c r="H41" s="298" t="s">
+      <c r="H41" s="261" t="s">
         <v>152</v>
       </c>
-      <c r="I41" s="299"/>
+      <c r="I41" s="262"/>
       <c r="J41" s="157" t="s">
         <v>285</v>
       </c>
@@ -9984,10 +9984,10 @@
       <c r="L41" s="160" t="s">
         <v>286</v>
       </c>
-      <c r="M41" s="298" t="s">
+      <c r="M41" s="261" t="s">
         <v>208</v>
       </c>
-      <c r="N41" s="299"/>
+      <c r="N41" s="262"/>
       <c r="O41" s="157" t="s">
         <v>287</v>
       </c>
@@ -9995,7 +9995,7 @@
         <v>228</v>
       </c>
       <c r="Q41" s="183" t="s">
-        <v>483</v>
+        <v>466</v>
       </c>
       <c r="S41" s="70"/>
       <c r="T41" s="29"/>
@@ -10009,55 +10009,55 @@
       <c r="AG41" s="174"/>
       <c r="AH41" s="174"/>
       <c r="AI41" s="174"/>
-      <c r="AJ41" s="277"/>
-      <c r="AK41" s="277"/>
-      <c r="AL41" s="277"/>
-      <c r="AM41" s="311"/>
-      <c r="AN41" s="311"/>
-      <c r="AO41" s="277"/>
-      <c r="AP41" s="277"/>
-      <c r="AQ41" s="277"/>
-      <c r="AR41" s="277"/>
-      <c r="AS41" s="277"/>
+      <c r="AJ41" s="271"/>
+      <c r="AK41" s="271"/>
+      <c r="AL41" s="271"/>
+      <c r="AM41" s="313"/>
+      <c r="AN41" s="313"/>
+      <c r="AO41" s="271"/>
+      <c r="AP41" s="271"/>
+      <c r="AQ41" s="271"/>
+      <c r="AR41" s="271"/>
+      <c r="AS41" s="271"/>
     </row>
     <row r="42" spans="1:45" s="27" customFormat="1" ht="12" customHeight="1">
       <c r="A42" s="75"/>
       <c r="B42" s="43"/>
-      <c r="C42" s="256" t="s">
+      <c r="C42" s="255" t="s">
         <v>97</v>
       </c>
-      <c r="D42" s="265"/>
-      <c r="E42" s="256" t="s">
+      <c r="D42" s="256"/>
+      <c r="E42" s="255" t="s">
         <v>125</v>
       </c>
-      <c r="F42" s="265"/>
-      <c r="G42" s="276" t="s">
+      <c r="F42" s="256"/>
+      <c r="G42" s="270" t="s">
         <v>153</v>
       </c>
-      <c r="H42" s="277"/>
-      <c r="I42" s="278"/>
-      <c r="J42" s="256" t="s">
+      <c r="H42" s="271"/>
+      <c r="I42" s="272"/>
+      <c r="J42" s="255" t="s">
         <v>181</v>
       </c>
-      <c r="K42" s="265"/>
-      <c r="L42" s="276" t="s">
+      <c r="K42" s="256"/>
+      <c r="L42" s="270" t="s">
         <v>209</v>
       </c>
-      <c r="M42" s="277"/>
-      <c r="N42" s="278"/>
-      <c r="O42" s="256" t="s">
+      <c r="M42" s="271"/>
+      <c r="N42" s="272"/>
+      <c r="O42" s="255" t="s">
         <v>229</v>
       </c>
-      <c r="P42" s="265"/>
-      <c r="Q42" s="304" t="s">
-        <v>473</v>
+      <c r="P42" s="256"/>
+      <c r="Q42" s="321" t="s">
+        <v>456</v>
       </c>
       <c r="S42" s="29"/>
-      <c r="T42" s="307" t="s">
+      <c r="T42" s="322" t="s">
         <v>38</v>
       </c>
-      <c r="U42" s="307"/>
-      <c r="V42" s="307"/>
+      <c r="U42" s="322"/>
+      <c r="V42" s="322"/>
       <c r="W42" s="32" t="s">
         <v>8</v>
       </c>
@@ -10099,10 +10099,10 @@
       <c r="G43" s="163" t="s">
         <v>154</v>
       </c>
-      <c r="H43" s="300" t="s">
+      <c r="H43" s="298" t="s">
         <v>155</v>
       </c>
-      <c r="I43" s="301"/>
+      <c r="I43" s="299"/>
       <c r="J43" s="163" t="s">
         <v>182</v>
       </c>
@@ -10112,23 +10112,23 @@
       <c r="L43" s="163" t="s">
         <v>210</v>
       </c>
-      <c r="M43" s="289" t="s">
+      <c r="M43" s="296" t="s">
         <v>211</v>
       </c>
-      <c r="N43" s="290"/>
+      <c r="N43" s="297"/>
       <c r="O43" s="163" t="s">
         <v>230</v>
       </c>
       <c r="P43" s="164" t="s">
         <v>231</v>
       </c>
-      <c r="Q43" s="304"/>
+      <c r="Q43" s="321"/>
       <c r="S43" s="29"/>
-      <c r="T43" s="307" t="s">
+      <c r="T43" s="322" t="s">
         <v>61</v>
       </c>
-      <c r="U43" s="307"/>
-      <c r="V43" s="307"/>
+      <c r="U43" s="322"/>
+      <c r="V43" s="322"/>
       <c r="W43" s="32" t="s">
         <v>8</v>
       </c>
@@ -10141,13 +10141,13 @@
       <c r="AG43" s="178"/>
       <c r="AH43" s="178"/>
       <c r="AI43" s="178"/>
-      <c r="AJ43" s="310"/>
-      <c r="AK43" s="310"/>
+      <c r="AJ43" s="314"/>
+      <c r="AK43" s="314"/>
       <c r="AL43" s="72"/>
       <c r="AM43" s="72"/>
       <c r="AN43" s="72"/>
-      <c r="AO43" s="310"/>
-      <c r="AP43" s="310"/>
+      <c r="AO43" s="314"/>
+      <c r="AP43" s="314"/>
       <c r="AQ43" s="72"/>
       <c r="AR43" s="72"/>
       <c r="AS43" s="72"/>
@@ -10166,8 +10166,8 @@
       <c r="G44" s="162" t="s">
         <v>290</v>
       </c>
-      <c r="H44" s="284"/>
-      <c r="I44" s="285"/>
+      <c r="H44" s="265"/>
+      <c r="I44" s="266"/>
       <c r="J44" s="58" t="s">
         <v>291</v>
       </c>
@@ -10175,19 +10175,19 @@
       <c r="L44" s="162" t="s">
         <v>292</v>
       </c>
-      <c r="M44" s="284"/>
-      <c r="N44" s="285"/>
+      <c r="M44" s="265"/>
+      <c r="N44" s="266"/>
       <c r="O44" s="34" t="s">
         <v>293</v>
       </c>
       <c r="P44" s="61"/>
       <c r="Q44" s="43"/>
       <c r="S44" s="29"/>
-      <c r="T44" s="306" t="s">
+      <c r="T44" s="302" t="s">
         <v>40</v>
       </c>
-      <c r="U44" s="306"/>
-      <c r="V44" s="306"/>
+      <c r="U44" s="302"/>
+      <c r="V44" s="302"/>
       <c r="W44" s="32" t="s">
         <v>8</v>
       </c>
@@ -10203,46 +10203,46 @@
       <c r="AG44" s="175"/>
       <c r="AH44" s="175"/>
       <c r="AI44" s="175"/>
-      <c r="AJ44" s="311"/>
-      <c r="AK44" s="311"/>
-      <c r="AL44" s="311"/>
-      <c r="AM44" s="311"/>
-      <c r="AN44" s="311"/>
-      <c r="AO44" s="311"/>
-      <c r="AP44" s="311"/>
-      <c r="AQ44" s="311"/>
-      <c r="AR44" s="311"/>
-      <c r="AS44" s="311"/>
+      <c r="AJ44" s="313"/>
+      <c r="AK44" s="313"/>
+      <c r="AL44" s="313"/>
+      <c r="AM44" s="313"/>
+      <c r="AN44" s="313"/>
+      <c r="AO44" s="313"/>
+      <c r="AP44" s="313"/>
+      <c r="AQ44" s="313"/>
+      <c r="AR44" s="313"/>
+      <c r="AS44" s="313"/>
     </row>
     <row r="45" spans="1:45" s="27" customFormat="1" ht="12" customHeight="1">
       <c r="A45" s="42"/>
       <c r="B45" s="33"/>
-      <c r="C45" s="254" t="s">
+      <c r="C45" s="257" t="s">
         <v>100</v>
       </c>
-      <c r="D45" s="268"/>
-      <c r="E45" s="254" t="s">
+      <c r="D45" s="258"/>
+      <c r="E45" s="257" t="s">
         <v>128</v>
       </c>
-      <c r="F45" s="268"/>
-      <c r="G45" s="254" t="s">
+      <c r="F45" s="258"/>
+      <c r="G45" s="257" t="s">
         <v>156</v>
       </c>
-      <c r="H45" s="255"/>
-      <c r="I45" s="268"/>
-      <c r="J45" s="254" t="s">
+      <c r="H45" s="292"/>
+      <c r="I45" s="258"/>
+      <c r="J45" s="257" t="s">
         <v>184</v>
       </c>
-      <c r="K45" s="268"/>
-      <c r="L45" s="254" t="s">
+      <c r="K45" s="258"/>
+      <c r="L45" s="257" t="s">
         <v>212</v>
       </c>
-      <c r="M45" s="255"/>
-      <c r="N45" s="268"/>
-      <c r="O45" s="254" t="s">
+      <c r="M45" s="292"/>
+      <c r="N45" s="258"/>
+      <c r="O45" s="257" t="s">
         <v>294</v>
       </c>
-      <c r="P45" s="268"/>
+      <c r="P45" s="258"/>
       <c r="Q45" s="62"/>
       <c r="R45" s="29"/>
       <c r="S45" s="31"/>
@@ -10257,18 +10257,18 @@
     <row r="46" spans="1:45" ht="17.25" customHeight="1">
       <c r="A46" s="18"/>
       <c r="B46" s="88"/>
-      <c r="C46" s="322"/>
-      <c r="D46" s="322"/>
-      <c r="E46" s="322"/>
-      <c r="F46" s="322"/>
-      <c r="G46" s="322"/>
-      <c r="H46" s="322"/>
-      <c r="I46" s="322"/>
-      <c r="J46" s="322"/>
-      <c r="K46" s="322"/>
-      <c r="L46" s="322"/>
-      <c r="M46" s="322"/>
-      <c r="N46" s="322"/>
+      <c r="C46" s="254"/>
+      <c r="D46" s="254"/>
+      <c r="E46" s="254"/>
+      <c r="F46" s="254"/>
+      <c r="G46" s="254"/>
+      <c r="H46" s="254"/>
+      <c r="I46" s="254"/>
+      <c r="J46" s="254"/>
+      <c r="K46" s="254"/>
+      <c r="L46" s="254"/>
+      <c r="M46" s="254"/>
+      <c r="N46" s="254"/>
       <c r="O46" s="71"/>
       <c r="P46" s="70"/>
       <c r="Q46" s="70"/>
@@ -10325,20 +10325,20 @@
       <c r="F48" s="90"/>
       <c r="G48" s="90"/>
       <c r="H48" s="90"/>
-      <c r="I48" s="321"/>
-      <c r="J48" s="321"/>
-      <c r="K48" s="321"/>
-      <c r="L48" s="321"/>
-      <c r="M48" s="331" t="s">
+      <c r="I48" s="309"/>
+      <c r="J48" s="309"/>
+      <c r="K48" s="309"/>
+      <c r="L48" s="309"/>
+      <c r="M48" s="273" t="s">
         <v>15</v>
       </c>
-      <c r="N48" s="332"/>
-      <c r="O48" s="332"/>
-      <c r="P48" s="332"/>
-      <c r="Q48" s="332"/>
-      <c r="R48" s="332"/>
-      <c r="S48" s="332"/>
-      <c r="T48" s="333"/>
+      <c r="N48" s="274"/>
+      <c r="O48" s="274"/>
+      <c r="P48" s="274"/>
+      <c r="Q48" s="274"/>
+      <c r="R48" s="274"/>
+      <c r="S48" s="274"/>
+      <c r="T48" s="275"/>
       <c r="U48" s="93"/>
       <c r="V48" s="93"/>
       <c r="W48" s="93"/>
@@ -10359,22 +10359,22 @@
       <c r="F49" s="199"/>
       <c r="G49" s="199"/>
       <c r="H49" s="200"/>
-      <c r="I49" s="323" t="s">
-        <v>535</v>
+      <c r="I49" s="260" t="s">
+        <v>518</v>
       </c>
-      <c r="J49" s="323"/>
-      <c r="K49" s="323"/>
-      <c r="L49" s="323"/>
-      <c r="M49" s="334" t="s">
+      <c r="J49" s="260"/>
+      <c r="K49" s="260"/>
+      <c r="L49" s="260"/>
+      <c r="M49" s="276" t="s">
         <v>235</v>
       </c>
-      <c r="N49" s="335"/>
-      <c r="O49" s="335"/>
-      <c r="P49" s="335"/>
-      <c r="Q49" s="335"/>
-      <c r="R49" s="335"/>
-      <c r="S49" s="335"/>
-      <c r="T49" s="336"/>
+      <c r="N49" s="277"/>
+      <c r="O49" s="277"/>
+      <c r="P49" s="277"/>
+      <c r="Q49" s="277"/>
+      <c r="R49" s="277"/>
+      <c r="S49" s="277"/>
+      <c r="T49" s="278"/>
       <c r="U49" s="93"/>
       <c r="V49" s="93"/>
       <c r="W49" s="93"/>
@@ -10395,20 +10395,20 @@
       <c r="F50" s="199"/>
       <c r="G50" s="199"/>
       <c r="H50" s="200"/>
-      <c r="I50" s="323" t="s">
-        <v>536</v>
+      <c r="I50" s="260" t="s">
+        <v>519</v>
       </c>
-      <c r="J50" s="323"/>
-      <c r="K50" s="323"/>
-      <c r="L50" s="323"/>
-      <c r="M50" s="337"/>
-      <c r="N50" s="338"/>
-      <c r="O50" s="338"/>
-      <c r="P50" s="338"/>
-      <c r="Q50" s="338"/>
-      <c r="R50" s="338"/>
-      <c r="S50" s="338"/>
-      <c r="T50" s="339"/>
+      <c r="J50" s="260"/>
+      <c r="K50" s="260"/>
+      <c r="L50" s="260"/>
+      <c r="M50" s="279"/>
+      <c r="N50" s="280"/>
+      <c r="O50" s="280"/>
+      <c r="P50" s="280"/>
+      <c r="Q50" s="280"/>
+      <c r="R50" s="280"/>
+      <c r="S50" s="280"/>
+      <c r="T50" s="281"/>
       <c r="U50" s="94"/>
       <c r="V50" s="93"/>
       <c r="W50" s="93"/>
@@ -10422,27 +10422,27 @@
       <c r="A51" s="92"/>
       <c r="B51" s="201"/>
       <c r="C51" s="199" t="s">
-        <v>488</v>
+        <v>471</v>
       </c>
       <c r="D51" s="199"/>
       <c r="E51" s="199"/>
       <c r="F51" s="199"/>
       <c r="G51" s="199"/>
       <c r="H51" s="200"/>
-      <c r="I51" s="323" t="s">
-        <v>533</v>
+      <c r="I51" s="260" t="s">
+        <v>516</v>
       </c>
-      <c r="J51" s="323"/>
-      <c r="K51" s="323"/>
-      <c r="L51" s="323"/>
-      <c r="M51" s="337"/>
-      <c r="N51" s="338"/>
-      <c r="O51" s="338"/>
-      <c r="P51" s="338"/>
-      <c r="Q51" s="338"/>
-      <c r="R51" s="338"/>
-      <c r="S51" s="338"/>
-      <c r="T51" s="339"/>
+      <c r="J51" s="260"/>
+      <c r="K51" s="260"/>
+      <c r="L51" s="260"/>
+      <c r="M51" s="279"/>
+      <c r="N51" s="280"/>
+      <c r="O51" s="280"/>
+      <c r="P51" s="280"/>
+      <c r="Q51" s="280"/>
+      <c r="R51" s="280"/>
+      <c r="S51" s="280"/>
+      <c r="T51" s="281"/>
       <c r="U51" s="94"/>
       <c r="V51" s="93"/>
       <c r="W51" s="93"/>
@@ -10463,20 +10463,20 @@
       <c r="F52" s="199"/>
       <c r="G52" s="199"/>
       <c r="H52" s="200"/>
-      <c r="I52" s="323" t="s">
-        <v>537</v>
+      <c r="I52" s="260" t="s">
+        <v>520</v>
       </c>
-      <c r="J52" s="323"/>
-      <c r="K52" s="323"/>
-      <c r="L52" s="323"/>
-      <c r="M52" s="337"/>
-      <c r="N52" s="338"/>
-      <c r="O52" s="338"/>
-      <c r="P52" s="338"/>
-      <c r="Q52" s="338"/>
-      <c r="R52" s="338"/>
-      <c r="S52" s="338"/>
-      <c r="T52" s="339"/>
+      <c r="J52" s="260"/>
+      <c r="K52" s="260"/>
+      <c r="L52" s="260"/>
+      <c r="M52" s="279"/>
+      <c r="N52" s="280"/>
+      <c r="O52" s="280"/>
+      <c r="P52" s="280"/>
+      <c r="Q52" s="280"/>
+      <c r="R52" s="280"/>
+      <c r="S52" s="280"/>
+      <c r="T52" s="281"/>
       <c r="U52" s="94"/>
       <c r="V52" s="93"/>
       <c r="W52" s="93"/>
@@ -10497,20 +10497,20 @@
       <c r="F53" s="199"/>
       <c r="G53" s="199"/>
       <c r="H53" s="200"/>
-      <c r="I53" s="323" t="s">
-        <v>534</v>
+      <c r="I53" s="260" t="s">
+        <v>517</v>
       </c>
-      <c r="J53" s="323"/>
-      <c r="K53" s="323"/>
-      <c r="L53" s="323"/>
-      <c r="M53" s="337"/>
-      <c r="N53" s="338"/>
-      <c r="O53" s="338"/>
-      <c r="P53" s="338"/>
-      <c r="Q53" s="338"/>
-      <c r="R53" s="338"/>
-      <c r="S53" s="338"/>
-      <c r="T53" s="339"/>
+      <c r="J53" s="260"/>
+      <c r="K53" s="260"/>
+      <c r="L53" s="260"/>
+      <c r="M53" s="279"/>
+      <c r="N53" s="280"/>
+      <c r="O53" s="280"/>
+      <c r="P53" s="280"/>
+      <c r="Q53" s="280"/>
+      <c r="R53" s="280"/>
+      <c r="S53" s="280"/>
+      <c r="T53" s="281"/>
       <c r="U53" s="94"/>
       <c r="V53" s="93"/>
       <c r="W53" s="93"/>
@@ -10522,29 +10522,29 @@
     </row>
     <row r="54" spans="1:30" ht="13.2" customHeight="1">
       <c r="A54" s="92"/>
-      <c r="B54" s="328" t="s">
+      <c r="B54" s="267" t="s">
         <v>20</v>
       </c>
-      <c r="C54" s="329"/>
-      <c r="D54" s="329"/>
-      <c r="E54" s="329"/>
-      <c r="F54" s="329"/>
-      <c r="G54" s="329"/>
-      <c r="H54" s="330"/>
-      <c r="I54" s="327" t="s">
-        <v>538</v>
+      <c r="C54" s="268"/>
+      <c r="D54" s="268"/>
+      <c r="E54" s="268"/>
+      <c r="F54" s="268"/>
+      <c r="G54" s="268"/>
+      <c r="H54" s="269"/>
+      <c r="I54" s="259" t="s">
+        <v>521</v>
       </c>
-      <c r="J54" s="327"/>
-      <c r="K54" s="327"/>
-      <c r="L54" s="327"/>
-      <c r="M54" s="337"/>
-      <c r="N54" s="338"/>
-      <c r="O54" s="338"/>
-      <c r="P54" s="338"/>
-      <c r="Q54" s="338"/>
-      <c r="R54" s="338"/>
-      <c r="S54" s="338"/>
-      <c r="T54" s="339"/>
+      <c r="J54" s="259"/>
+      <c r="K54" s="259"/>
+      <c r="L54" s="259"/>
+      <c r="M54" s="279"/>
+      <c r="N54" s="280"/>
+      <c r="O54" s="280"/>
+      <c r="P54" s="280"/>
+      <c r="Q54" s="280"/>
+      <c r="R54" s="280"/>
+      <c r="S54" s="280"/>
+      <c r="T54" s="281"/>
       <c r="U54" s="94"/>
       <c r="V54" s="93"/>
       <c r="W54" s="93"/>
@@ -10567,18 +10567,18 @@
       <c r="F55" s="203"/>
       <c r="G55" s="203"/>
       <c r="H55" s="204"/>
-      <c r="I55" s="327"/>
-      <c r="J55" s="327"/>
-      <c r="K55" s="327"/>
-      <c r="L55" s="327"/>
-      <c r="M55" s="337"/>
-      <c r="N55" s="338"/>
-      <c r="O55" s="338"/>
-      <c r="P55" s="338"/>
-      <c r="Q55" s="338"/>
-      <c r="R55" s="338"/>
-      <c r="S55" s="338"/>
-      <c r="T55" s="339"/>
+      <c r="I55" s="259"/>
+      <c r="J55" s="259"/>
+      <c r="K55" s="259"/>
+      <c r="L55" s="259"/>
+      <c r="M55" s="279"/>
+      <c r="N55" s="280"/>
+      <c r="O55" s="280"/>
+      <c r="P55" s="280"/>
+      <c r="Q55" s="280"/>
+      <c r="R55" s="280"/>
+      <c r="S55" s="280"/>
+      <c r="T55" s="281"/>
       <c r="U55" s="94"/>
       <c r="V55" s="93"/>
       <c r="W55" s="93"/>
@@ -10601,18 +10601,18 @@
       <c r="F56" s="203"/>
       <c r="G56" s="203"/>
       <c r="H56" s="204"/>
-      <c r="I56" s="327"/>
-      <c r="J56" s="327"/>
-      <c r="K56" s="327"/>
-      <c r="L56" s="327"/>
-      <c r="M56" s="337"/>
-      <c r="N56" s="338"/>
-      <c r="O56" s="338"/>
-      <c r="P56" s="338"/>
-      <c r="Q56" s="338"/>
-      <c r="R56" s="338"/>
-      <c r="S56" s="338"/>
-      <c r="T56" s="339"/>
+      <c r="I56" s="259"/>
+      <c r="J56" s="259"/>
+      <c r="K56" s="259"/>
+      <c r="L56" s="259"/>
+      <c r="M56" s="279"/>
+      <c r="N56" s="280"/>
+      <c r="O56" s="280"/>
+      <c r="P56" s="280"/>
+      <c r="Q56" s="280"/>
+      <c r="R56" s="280"/>
+      <c r="S56" s="280"/>
+      <c r="T56" s="281"/>
       <c r="U56" s="94"/>
       <c r="V56" s="93"/>
       <c r="W56" s="93"/>
@@ -10635,18 +10635,18 @@
       <c r="F57" s="203"/>
       <c r="G57" s="203"/>
       <c r="H57" s="204"/>
-      <c r="I57" s="327"/>
-      <c r="J57" s="327"/>
-      <c r="K57" s="327"/>
-      <c r="L57" s="327"/>
-      <c r="M57" s="337"/>
-      <c r="N57" s="338"/>
-      <c r="O57" s="338"/>
-      <c r="P57" s="338"/>
-      <c r="Q57" s="338"/>
-      <c r="R57" s="338"/>
-      <c r="S57" s="338"/>
-      <c r="T57" s="339"/>
+      <c r="I57" s="259"/>
+      <c r="J57" s="259"/>
+      <c r="K57" s="259"/>
+      <c r="L57" s="259"/>
+      <c r="M57" s="279"/>
+      <c r="N57" s="280"/>
+      <c r="O57" s="280"/>
+      <c r="P57" s="280"/>
+      <c r="Q57" s="280"/>
+      <c r="R57" s="280"/>
+      <c r="S57" s="280"/>
+      <c r="T57" s="281"/>
       <c r="U57" s="94"/>
       <c r="V57" s="93"/>
       <c r="W57" s="93"/>
@@ -10669,18 +10669,18 @@
       <c r="F58" s="203"/>
       <c r="G58" s="203"/>
       <c r="H58" s="204"/>
-      <c r="I58" s="327"/>
-      <c r="J58" s="327"/>
-      <c r="K58" s="327"/>
-      <c r="L58" s="327"/>
-      <c r="M58" s="337"/>
-      <c r="N58" s="338"/>
-      <c r="O58" s="338"/>
-      <c r="P58" s="338"/>
-      <c r="Q58" s="338"/>
-      <c r="R58" s="338"/>
-      <c r="S58" s="338"/>
-      <c r="T58" s="339"/>
+      <c r="I58" s="259"/>
+      <c r="J58" s="259"/>
+      <c r="K58" s="259"/>
+      <c r="L58" s="259"/>
+      <c r="M58" s="279"/>
+      <c r="N58" s="280"/>
+      <c r="O58" s="280"/>
+      <c r="P58" s="280"/>
+      <c r="Q58" s="280"/>
+      <c r="R58" s="280"/>
+      <c r="S58" s="280"/>
+      <c r="T58" s="281"/>
       <c r="U58" s="94"/>
       <c r="V58" s="93"/>
       <c r="W58" s="93"/>
@@ -10703,18 +10703,18 @@
       <c r="F59" s="205"/>
       <c r="G59" s="205"/>
       <c r="H59" s="206"/>
-      <c r="I59" s="327"/>
-      <c r="J59" s="327"/>
-      <c r="K59" s="327"/>
-      <c r="L59" s="327"/>
-      <c r="M59" s="340"/>
-      <c r="N59" s="341"/>
-      <c r="O59" s="341"/>
-      <c r="P59" s="341"/>
-      <c r="Q59" s="341"/>
-      <c r="R59" s="341"/>
-      <c r="S59" s="341"/>
-      <c r="T59" s="342"/>
+      <c r="I59" s="259"/>
+      <c r="J59" s="259"/>
+      <c r="K59" s="259"/>
+      <c r="L59" s="259"/>
+      <c r="M59" s="282"/>
+      <c r="N59" s="283"/>
+      <c r="O59" s="283"/>
+      <c r="P59" s="283"/>
+      <c r="Q59" s="283"/>
+      <c r="R59" s="283"/>
+      <c r="S59" s="283"/>
+      <c r="T59" s="284"/>
       <c r="U59" s="94"/>
       <c r="V59" s="93"/>
       <c r="W59" s="93"/>
@@ -10761,7 +10761,7 @@
         <v>24</v>
       </c>
       <c r="B61" s="208" t="s">
-        <v>489</v>
+        <v>472</v>
       </c>
       <c r="C61" s="96"/>
       <c r="D61" s="96"/>
@@ -10794,19 +10794,19 @@
     </row>
     <row r="62" spans="1:30" ht="17.25" customHeight="1">
       <c r="A62" s="27"/>
-      <c r="B62" s="324" t="s">
+      <c r="B62" s="310" t="s">
         <v>25</v>
       </c>
-      <c r="C62" s="325"/>
-      <c r="D62" s="325"/>
-      <c r="E62" s="326"/>
-      <c r="F62" s="317" t="s">
-        <v>541</v>
+      <c r="C62" s="311"/>
+      <c r="D62" s="311"/>
+      <c r="E62" s="312"/>
+      <c r="F62" s="305" t="s">
+        <v>524</v>
       </c>
-      <c r="G62" s="318"/>
-      <c r="H62" s="318"/>
-      <c r="I62" s="318"/>
-      <c r="J62" s="319"/>
+      <c r="G62" s="306"/>
+      <c r="H62" s="306"/>
+      <c r="I62" s="306"/>
+      <c r="J62" s="307"/>
       <c r="K62" s="189"/>
       <c r="L62" s="189"/>
       <c r="M62" s="189"/>
@@ -10831,18 +10831,18 @@
     <row r="63" spans="1:30" ht="17.25" customHeight="1">
       <c r="A63" s="27"/>
       <c r="B63" s="195" t="s">
-        <v>491</v>
+        <v>474</v>
       </c>
       <c r="C63" s="196"/>
       <c r="D63" s="196"/>
       <c r="E63" s="197"/>
-      <c r="F63" s="320" t="s">
-        <v>542</v>
+      <c r="F63" s="308" t="s">
+        <v>525</v>
       </c>
-      <c r="G63" s="320"/>
-      <c r="H63" s="320"/>
-      <c r="I63" s="320"/>
-      <c r="J63" s="320"/>
+      <c r="G63" s="308"/>
+      <c r="H63" s="308"/>
+      <c r="I63" s="308"/>
+      <c r="J63" s="308"/>
       <c r="K63" s="189"/>
       <c r="L63" s="189"/>
       <c r="M63" s="189"/>
@@ -10866,19 +10866,19 @@
     </row>
     <row r="64" spans="1:30" ht="17.25" customHeight="1">
       <c r="A64" s="27"/>
-      <c r="B64" s="324" t="s">
+      <c r="B64" s="310" t="s">
         <v>26</v>
       </c>
-      <c r="C64" s="325"/>
-      <c r="D64" s="325"/>
-      <c r="E64" s="326"/>
-      <c r="F64" s="320" t="s">
-        <v>543</v>
+      <c r="C64" s="311"/>
+      <c r="D64" s="311"/>
+      <c r="E64" s="312"/>
+      <c r="F64" s="308" t="s">
+        <v>526</v>
       </c>
-      <c r="G64" s="320"/>
-      <c r="H64" s="320"/>
-      <c r="I64" s="320"/>
-      <c r="J64" s="320"/>
+      <c r="G64" s="308"/>
+      <c r="H64" s="308"/>
+      <c r="I64" s="308"/>
+      <c r="J64" s="308"/>
       <c r="K64" s="189"/>
       <c r="L64" s="189"/>
       <c r="M64" s="189"/>
@@ -10902,19 +10902,19 @@
     </row>
     <row r="65" spans="1:30" ht="17.25" customHeight="1">
       <c r="A65" s="27"/>
-      <c r="B65" s="324" t="s">
+      <c r="B65" s="310" t="s">
         <v>41</v>
       </c>
-      <c r="C65" s="325"/>
-      <c r="D65" s="325"/>
-      <c r="E65" s="326"/>
-      <c r="F65" s="320" t="s">
-        <v>544</v>
+      <c r="C65" s="311"/>
+      <c r="D65" s="311"/>
+      <c r="E65" s="312"/>
+      <c r="F65" s="308" t="s">
+        <v>527</v>
       </c>
-      <c r="G65" s="320"/>
-      <c r="H65" s="320"/>
-      <c r="I65" s="320"/>
-      <c r="J65" s="320"/>
+      <c r="G65" s="308"/>
+      <c r="H65" s="308"/>
+      <c r="I65" s="308"/>
+      <c r="J65" s="308"/>
       <c r="K65" s="192"/>
       <c r="L65" s="192"/>
       <c r="M65" s="192"/>
@@ -10938,19 +10938,19 @@
     </row>
     <row r="66" spans="1:30" ht="17.25" customHeight="1">
       <c r="A66" s="27"/>
-      <c r="B66" s="324" t="s">
-        <v>490</v>
+      <c r="B66" s="310" t="s">
+        <v>473</v>
       </c>
-      <c r="C66" s="325"/>
-      <c r="D66" s="325"/>
-      <c r="E66" s="326"/>
-      <c r="F66" s="320" t="s">
-        <v>545</v>
+      <c r="C66" s="311"/>
+      <c r="D66" s="311"/>
+      <c r="E66" s="312"/>
+      <c r="F66" s="308" t="s">
+        <v>528</v>
       </c>
-      <c r="G66" s="320"/>
-      <c r="H66" s="320"/>
-      <c r="I66" s="320"/>
-      <c r="J66" s="320"/>
+      <c r="G66" s="308"/>
+      <c r="H66" s="308"/>
+      <c r="I66" s="308"/>
+      <c r="J66" s="308"/>
       <c r="K66" s="192"/>
       <c r="L66" s="192"/>
       <c r="M66" s="192"/>
@@ -10974,19 +10974,19 @@
     </row>
     <row r="67" spans="1:30" ht="17.25" customHeight="1">
       <c r="A67" s="27"/>
-      <c r="B67" s="324" t="s">
-        <v>492</v>
+      <c r="B67" s="310" t="s">
+        <v>475</v>
       </c>
-      <c r="C67" s="325"/>
-      <c r="D67" s="325"/>
-      <c r="E67" s="326"/>
-      <c r="F67" s="320" t="s">
-        <v>546</v>
+      <c r="C67" s="311"/>
+      <c r="D67" s="311"/>
+      <c r="E67" s="312"/>
+      <c r="F67" s="308" t="s">
+        <v>529</v>
       </c>
-      <c r="G67" s="320"/>
-      <c r="H67" s="320"/>
-      <c r="I67" s="320"/>
-      <c r="J67" s="320"/>
+      <c r="G67" s="308"/>
+      <c r="H67" s="308"/>
+      <c r="I67" s="308"/>
+      <c r="J67" s="308"/>
       <c r="K67" s="194"/>
       <c r="L67" s="194"/>
       <c r="M67" s="194"/>
@@ -11010,19 +11010,19 @@
     </row>
     <row r="68" spans="1:30" ht="13.5" customHeight="1">
       <c r="A68" s="27"/>
-      <c r="B68" s="324" t="s">
+      <c r="B68" s="310" t="s">
         <v>27</v>
       </c>
-      <c r="C68" s="325"/>
-      <c r="D68" s="325"/>
-      <c r="E68" s="326"/>
-      <c r="F68" s="317" t="s">
-        <v>547</v>
+      <c r="C68" s="311"/>
+      <c r="D68" s="311"/>
+      <c r="E68" s="312"/>
+      <c r="F68" s="305" t="s">
+        <v>530</v>
       </c>
-      <c r="G68" s="318"/>
-      <c r="H68" s="318"/>
-      <c r="I68" s="318"/>
-      <c r="J68" s="319"/>
+      <c r="G68" s="306"/>
+      <c r="H68" s="306"/>
+      <c r="I68" s="306"/>
+      <c r="J68" s="307"/>
       <c r="K68" s="188"/>
       <c r="L68" s="189"/>
       <c r="M68" s="189"/>
@@ -11082,10 +11082,10 @@
       <c r="N70" s="101"/>
     </row>
     <row r="71" spans="1:30" ht="17.25" customHeight="1">
-      <c r="J71" s="315"/>
-      <c r="K71" s="316"/>
-      <c r="L71" s="316"/>
-      <c r="M71" s="316"/>
+      <c r="J71" s="303"/>
+      <c r="K71" s="304"/>
+      <c r="L71" s="304"/>
+      <c r="M71" s="304"/>
       <c r="W71" s="102"/>
     </row>
     <row r="73" spans="1:30" ht="17.25" customHeight="1">
@@ -11096,6 +11096,174 @@
   </sheetData>
   <sheetProtection selectLockedCells="1"/>
   <mergeCells count="192">
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="M25:N25"/>
+    <mergeCell ref="M22:N22"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="C21:F21"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="M20:N20"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="L3:O3"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="B38:B39"/>
+    <mergeCell ref="L34:N34"/>
+    <mergeCell ref="O16:P16"/>
+    <mergeCell ref="O18:P18"/>
+    <mergeCell ref="D4:H4"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="J7:N7"/>
+    <mergeCell ref="L16:N16"/>
+    <mergeCell ref="L21:N21"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="J27:K27"/>
+    <mergeCell ref="J39:K39"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="H35:I35"/>
+    <mergeCell ref="M26:N26"/>
+    <mergeCell ref="H33:I33"/>
+    <mergeCell ref="M33:N33"/>
+    <mergeCell ref="M35:N35"/>
+    <mergeCell ref="V5:Z5"/>
+    <mergeCell ref="V6:Z6"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="L18:N18"/>
+    <mergeCell ref="T18:W18"/>
+    <mergeCell ref="O21:P21"/>
+    <mergeCell ref="T19:W19"/>
+    <mergeCell ref="T20:W20"/>
+    <mergeCell ref="V7:Z7"/>
+    <mergeCell ref="M19:N19"/>
+    <mergeCell ref="T15:W15"/>
+    <mergeCell ref="P12:Z12"/>
+    <mergeCell ref="Y10:Z10"/>
+    <mergeCell ref="W11:Z11"/>
+    <mergeCell ref="T16:W16"/>
+    <mergeCell ref="P10:X10"/>
+    <mergeCell ref="P11:V11"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="M23:N23"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="D5:H5"/>
+    <mergeCell ref="AJ40:AK40"/>
+    <mergeCell ref="AO40:AP40"/>
+    <mergeCell ref="Q18:Q19"/>
+    <mergeCell ref="Y16:Z16"/>
+    <mergeCell ref="O39:P39"/>
+    <mergeCell ref="T24:W24"/>
+    <mergeCell ref="O24:P24"/>
+    <mergeCell ref="O34:P34"/>
+    <mergeCell ref="T43:V43"/>
+    <mergeCell ref="T27:V27"/>
+    <mergeCell ref="T28:V28"/>
+    <mergeCell ref="T42:V42"/>
+    <mergeCell ref="T40:W40"/>
+    <mergeCell ref="O27:P27"/>
+    <mergeCell ref="T31:W31"/>
+    <mergeCell ref="T26:V26"/>
+    <mergeCell ref="O42:P42"/>
+    <mergeCell ref="O36:P36"/>
+    <mergeCell ref="AF20:AF21"/>
+    <mergeCell ref="Q24:Q25"/>
+    <mergeCell ref="Q42:Q43"/>
+    <mergeCell ref="T32:W32"/>
+    <mergeCell ref="Q36:Q37"/>
+    <mergeCell ref="AR38:AS38"/>
+    <mergeCell ref="AJ37:AK37"/>
+    <mergeCell ref="AJ32:AK32"/>
+    <mergeCell ref="Y32:Z32"/>
+    <mergeCell ref="AR33:AS33"/>
+    <mergeCell ref="AJ34:AK34"/>
+    <mergeCell ref="AO34:AP34"/>
+    <mergeCell ref="AJ35:AL35"/>
+    <mergeCell ref="AM35:AN35"/>
+    <mergeCell ref="AO35:AQ35"/>
+    <mergeCell ref="AR35:AS35"/>
+    <mergeCell ref="AP37:AQ37"/>
+    <mergeCell ref="AJ38:AL38"/>
+    <mergeCell ref="AM38:AN38"/>
+    <mergeCell ref="AO38:AQ38"/>
+    <mergeCell ref="AO32:AP32"/>
+    <mergeCell ref="AJ33:AL33"/>
+    <mergeCell ref="AM33:AN33"/>
+    <mergeCell ref="AO33:AQ33"/>
+    <mergeCell ref="AF38:AF39"/>
+    <mergeCell ref="AR44:AS44"/>
+    <mergeCell ref="AJ43:AK43"/>
+    <mergeCell ref="AO43:AP43"/>
+    <mergeCell ref="AR41:AS41"/>
+    <mergeCell ref="AJ44:AL44"/>
+    <mergeCell ref="AM44:AN44"/>
+    <mergeCell ref="AO44:AQ44"/>
+    <mergeCell ref="AO41:AQ41"/>
+    <mergeCell ref="AJ41:AL41"/>
+    <mergeCell ref="AM41:AN41"/>
+    <mergeCell ref="T44:V44"/>
+    <mergeCell ref="J71:M71"/>
+    <mergeCell ref="F68:J68"/>
+    <mergeCell ref="F66:J66"/>
+    <mergeCell ref="F67:J67"/>
+    <mergeCell ref="E45:F45"/>
+    <mergeCell ref="G45:I45"/>
+    <mergeCell ref="F64:J64"/>
+    <mergeCell ref="F63:J63"/>
+    <mergeCell ref="F65:J65"/>
+    <mergeCell ref="I48:L48"/>
+    <mergeCell ref="J45:K45"/>
+    <mergeCell ref="K46:L46"/>
+    <mergeCell ref="F62:J62"/>
+    <mergeCell ref="I52:L52"/>
+    <mergeCell ref="L45:N45"/>
+    <mergeCell ref="O45:P45"/>
+    <mergeCell ref="B62:E62"/>
+    <mergeCell ref="B64:E64"/>
+    <mergeCell ref="B65:E65"/>
+    <mergeCell ref="B66:E66"/>
+    <mergeCell ref="B67:E67"/>
+    <mergeCell ref="B68:E68"/>
+    <mergeCell ref="I53:L53"/>
+    <mergeCell ref="C39:F39"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="H37:I37"/>
+    <mergeCell ref="M37:N37"/>
+    <mergeCell ref="H41:I41"/>
+    <mergeCell ref="D40:F40"/>
+    <mergeCell ref="G34:I34"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="M15:N15"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="L27:N27"/>
+    <mergeCell ref="M46:N46"/>
+    <mergeCell ref="L39:N39"/>
+    <mergeCell ref="M43:N43"/>
+    <mergeCell ref="H43:I43"/>
+    <mergeCell ref="H44:I44"/>
+    <mergeCell ref="I46:J46"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="L24:N24"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="M17:N17"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="L36:N36"/>
+    <mergeCell ref="J34:K34"/>
+    <mergeCell ref="J42:K42"/>
     <mergeCell ref="C46:F46"/>
     <mergeCell ref="E36:F36"/>
     <mergeCell ref="G46:H46"/>
@@ -11120,174 +11288,6 @@
     <mergeCell ref="G36:I36"/>
     <mergeCell ref="J36:K36"/>
     <mergeCell ref="D38:F38"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="M15:N15"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="L27:N27"/>
-    <mergeCell ref="M46:N46"/>
-    <mergeCell ref="L39:N39"/>
-    <mergeCell ref="M43:N43"/>
-    <mergeCell ref="H43:I43"/>
-    <mergeCell ref="H44:I44"/>
-    <mergeCell ref="I46:J46"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="L24:N24"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="M17:N17"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="L36:N36"/>
-    <mergeCell ref="J34:K34"/>
-    <mergeCell ref="J42:K42"/>
-    <mergeCell ref="C39:F39"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="H37:I37"/>
-    <mergeCell ref="M37:N37"/>
-    <mergeCell ref="H41:I41"/>
-    <mergeCell ref="D40:F40"/>
-    <mergeCell ref="G34:I34"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="T44:V44"/>
-    <mergeCell ref="J71:M71"/>
-    <mergeCell ref="F68:J68"/>
-    <mergeCell ref="F66:J66"/>
-    <mergeCell ref="F67:J67"/>
-    <mergeCell ref="E45:F45"/>
-    <mergeCell ref="G45:I45"/>
-    <mergeCell ref="F64:J64"/>
-    <mergeCell ref="F63:J63"/>
-    <mergeCell ref="F65:J65"/>
-    <mergeCell ref="I48:L48"/>
-    <mergeCell ref="J45:K45"/>
-    <mergeCell ref="K46:L46"/>
-    <mergeCell ref="F62:J62"/>
-    <mergeCell ref="I52:L52"/>
-    <mergeCell ref="L45:N45"/>
-    <mergeCell ref="O45:P45"/>
-    <mergeCell ref="B62:E62"/>
-    <mergeCell ref="B64:E64"/>
-    <mergeCell ref="B65:E65"/>
-    <mergeCell ref="B66:E66"/>
-    <mergeCell ref="B67:E67"/>
-    <mergeCell ref="B68:E68"/>
-    <mergeCell ref="I53:L53"/>
-    <mergeCell ref="AR44:AS44"/>
-    <mergeCell ref="AJ43:AK43"/>
-    <mergeCell ref="AO43:AP43"/>
-    <mergeCell ref="AR41:AS41"/>
-    <mergeCell ref="AJ44:AL44"/>
-    <mergeCell ref="AM44:AN44"/>
-    <mergeCell ref="AO44:AQ44"/>
-    <mergeCell ref="AO41:AQ41"/>
-    <mergeCell ref="AJ41:AL41"/>
-    <mergeCell ref="AM41:AN41"/>
-    <mergeCell ref="AR38:AS38"/>
-    <mergeCell ref="AJ37:AK37"/>
-    <mergeCell ref="AJ32:AK32"/>
-    <mergeCell ref="Y32:Z32"/>
-    <mergeCell ref="AR33:AS33"/>
-    <mergeCell ref="AJ34:AK34"/>
-    <mergeCell ref="AO34:AP34"/>
-    <mergeCell ref="AJ35:AL35"/>
-    <mergeCell ref="AM35:AN35"/>
-    <mergeCell ref="AO35:AQ35"/>
-    <mergeCell ref="AR35:AS35"/>
-    <mergeCell ref="AP37:AQ37"/>
-    <mergeCell ref="AJ38:AL38"/>
-    <mergeCell ref="AM38:AN38"/>
-    <mergeCell ref="AO38:AQ38"/>
-    <mergeCell ref="AO32:AP32"/>
-    <mergeCell ref="AJ33:AL33"/>
-    <mergeCell ref="AM33:AN33"/>
-    <mergeCell ref="AO33:AQ33"/>
-    <mergeCell ref="AF38:AF39"/>
-    <mergeCell ref="AJ40:AK40"/>
-    <mergeCell ref="AO40:AP40"/>
-    <mergeCell ref="Q18:Q19"/>
-    <mergeCell ref="Y16:Z16"/>
-    <mergeCell ref="O39:P39"/>
-    <mergeCell ref="T24:W24"/>
-    <mergeCell ref="O24:P24"/>
-    <mergeCell ref="O34:P34"/>
-    <mergeCell ref="T43:V43"/>
-    <mergeCell ref="T27:V27"/>
-    <mergeCell ref="T28:V28"/>
-    <mergeCell ref="T42:V42"/>
-    <mergeCell ref="T40:W40"/>
-    <mergeCell ref="O27:P27"/>
-    <mergeCell ref="T31:W31"/>
-    <mergeCell ref="T26:V26"/>
-    <mergeCell ref="O42:P42"/>
-    <mergeCell ref="O36:P36"/>
-    <mergeCell ref="AF20:AF21"/>
-    <mergeCell ref="Q24:Q25"/>
-    <mergeCell ref="Q42:Q43"/>
-    <mergeCell ref="T32:W32"/>
-    <mergeCell ref="Q36:Q37"/>
-    <mergeCell ref="M33:N33"/>
-    <mergeCell ref="M35:N35"/>
-    <mergeCell ref="V5:Z5"/>
-    <mergeCell ref="V6:Z6"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="L18:N18"/>
-    <mergeCell ref="T18:W18"/>
-    <mergeCell ref="O21:P21"/>
-    <mergeCell ref="T19:W19"/>
-    <mergeCell ref="T20:W20"/>
-    <mergeCell ref="V7:Z7"/>
-    <mergeCell ref="M19:N19"/>
-    <mergeCell ref="T15:W15"/>
-    <mergeCell ref="P12:Z12"/>
-    <mergeCell ref="Y10:Z10"/>
-    <mergeCell ref="W11:Z11"/>
-    <mergeCell ref="T16:W16"/>
-    <mergeCell ref="P10:X10"/>
-    <mergeCell ref="P11:V11"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="M23:N23"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="D5:H5"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="L3:O3"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="B38:B39"/>
-    <mergeCell ref="L34:N34"/>
-    <mergeCell ref="O16:P16"/>
-    <mergeCell ref="O18:P18"/>
-    <mergeCell ref="D4:H4"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="J7:N7"/>
-    <mergeCell ref="L16:N16"/>
-    <mergeCell ref="L21:N21"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J24:K24"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="J27:K27"/>
-    <mergeCell ref="J39:K39"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="H35:I35"/>
-    <mergeCell ref="M26:N26"/>
-    <mergeCell ref="H33:I33"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="M25:N25"/>
-    <mergeCell ref="M22:N22"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="C21:F21"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="M20:N20"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <dataValidations disablePrompts="1" count="1">
@@ -11346,7 +11346,7 @@
         <v>5</v>
       </c>
       <c r="B1" s="248" t="s">
-        <v>493</v>
+        <v>476</v>
       </c>
       <c r="C1" s="215"/>
       <c r="D1" s="215"/>
@@ -11373,207 +11373,207 @@
     </row>
     <row r="2" spans="1:24" s="219" customFormat="1" ht="18.75" customHeight="1">
       <c r="A2" s="218"/>
-      <c r="B2" s="427" t="s">
-        <v>494</v>
+      <c r="B2" s="344" t="s">
+        <v>477</v>
       </c>
-      <c r="C2" s="377" t="s">
-        <v>495</v>
+      <c r="C2" s="346" t="s">
+        <v>478</v>
       </c>
-      <c r="D2" s="378"/>
-      <c r="E2" s="378"/>
-      <c r="F2" s="378"/>
-      <c r="G2" s="378"/>
-      <c r="H2" s="379"/>
-      <c r="I2" s="421" t="s">
-        <v>569</v>
+      <c r="D2" s="347"/>
+      <c r="E2" s="347"/>
+      <c r="F2" s="347"/>
+      <c r="G2" s="347"/>
+      <c r="H2" s="348"/>
+      <c r="I2" s="352" t="s">
+        <v>552</v>
       </c>
-      <c r="J2" s="429"/>
-      <c r="K2" s="429"/>
-      <c r="L2" s="422"/>
-      <c r="M2" s="412" t="s">
-        <v>496</v>
+      <c r="J2" s="353"/>
+      <c r="K2" s="353"/>
+      <c r="L2" s="354"/>
+      <c r="M2" s="358" t="s">
+        <v>479</v>
       </c>
-      <c r="N2" s="413"/>
-      <c r="O2" s="414"/>
-      <c r="P2" s="421" t="s">
-        <v>497</v>
+      <c r="N2" s="359"/>
+      <c r="O2" s="360"/>
+      <c r="P2" s="352" t="s">
+        <v>480</v>
       </c>
-      <c r="Q2" s="422"/>
-      <c r="R2" s="421" t="s">
-        <v>498</v>
+      <c r="Q2" s="354"/>
+      <c r="R2" s="352" t="s">
+        <v>481</v>
       </c>
-      <c r="S2" s="422"/>
-      <c r="T2" s="421" t="s">
-        <v>499</v>
+      <c r="S2" s="354"/>
+      <c r="T2" s="352" t="s">
+        <v>482</v>
       </c>
-      <c r="U2" s="422"/>
-      <c r="V2" s="412" t="s">
-        <v>500</v>
+      <c r="U2" s="354"/>
+      <c r="V2" s="358" t="s">
+        <v>483</v>
       </c>
-      <c r="W2" s="413"/>
-      <c r="X2" s="414"/>
+      <c r="W2" s="359"/>
+      <c r="X2" s="360"/>
     </row>
     <row r="3" spans="1:24" s="219" customFormat="1" ht="28.5" customHeight="1">
       <c r="A3" s="218"/>
-      <c r="B3" s="428"/>
-      <c r="C3" s="380"/>
-      <c r="D3" s="381"/>
-      <c r="E3" s="381"/>
-      <c r="F3" s="381"/>
-      <c r="G3" s="381"/>
-      <c r="H3" s="382"/>
-      <c r="I3" s="423"/>
-      <c r="J3" s="430"/>
-      <c r="K3" s="430"/>
-      <c r="L3" s="424"/>
-      <c r="M3" s="415"/>
-      <c r="N3" s="416"/>
-      <c r="O3" s="417"/>
-      <c r="P3" s="423"/>
-      <c r="Q3" s="424"/>
-      <c r="R3" s="423"/>
-      <c r="S3" s="424"/>
-      <c r="T3" s="423"/>
-      <c r="U3" s="424"/>
-      <c r="V3" s="415"/>
-      <c r="W3" s="416"/>
-      <c r="X3" s="417"/>
+      <c r="B3" s="345"/>
+      <c r="C3" s="349"/>
+      <c r="D3" s="350"/>
+      <c r="E3" s="350"/>
+      <c r="F3" s="350"/>
+      <c r="G3" s="350"/>
+      <c r="H3" s="351"/>
+      <c r="I3" s="355"/>
+      <c r="J3" s="356"/>
+      <c r="K3" s="356"/>
+      <c r="L3" s="357"/>
+      <c r="M3" s="361"/>
+      <c r="N3" s="362"/>
+      <c r="O3" s="363"/>
+      <c r="P3" s="355"/>
+      <c r="Q3" s="357"/>
+      <c r="R3" s="355"/>
+      <c r="S3" s="357"/>
+      <c r="T3" s="355"/>
+      <c r="U3" s="357"/>
+      <c r="V3" s="361"/>
+      <c r="W3" s="362"/>
+      <c r="X3" s="363"/>
     </row>
     <row r="4" spans="1:24" s="219" customFormat="1" ht="19.5" customHeight="1">
       <c r="A4" s="218"/>
       <c r="B4" s="250" t="s">
-        <v>573</v>
+        <v>556</v>
       </c>
-      <c r="C4" s="418" t="s">
-        <v>549</v>
+      <c r="C4" s="364" t="s">
+        <v>532</v>
       </c>
-      <c r="D4" s="419"/>
-      <c r="E4" s="419"/>
-      <c r="F4" s="419"/>
-      <c r="G4" s="419"/>
-      <c r="H4" s="420"/>
-      <c r="I4" s="393" t="s">
-        <v>550</v>
+      <c r="D4" s="365"/>
+      <c r="E4" s="365"/>
+      <c r="F4" s="365"/>
+      <c r="G4" s="365"/>
+      <c r="H4" s="366"/>
+      <c r="I4" s="367" t="s">
+        <v>533</v>
       </c>
-      <c r="J4" s="394"/>
-      <c r="K4" s="394"/>
-      <c r="L4" s="395"/>
-      <c r="M4" s="396" t="s">
-        <v>551</v>
+      <c r="J4" s="368"/>
+      <c r="K4" s="368"/>
+      <c r="L4" s="369"/>
+      <c r="M4" s="370" t="s">
+        <v>534</v>
       </c>
-      <c r="N4" s="397"/>
-      <c r="O4" s="398"/>
-      <c r="P4" s="399" t="s">
-        <v>552</v>
+      <c r="N4" s="371"/>
+      <c r="O4" s="372"/>
+      <c r="P4" s="373" t="s">
+        <v>535</v>
       </c>
-      <c r="Q4" s="400"/>
-      <c r="R4" s="425" t="s">
-        <v>553</v>
+      <c r="Q4" s="374"/>
+      <c r="R4" s="375" t="s">
+        <v>536</v>
       </c>
-      <c r="S4" s="426"/>
-      <c r="T4" s="418"/>
-      <c r="U4" s="420"/>
-      <c r="V4" s="418" t="s">
-        <v>554</v>
+      <c r="S4" s="376"/>
+      <c r="T4" s="364"/>
+      <c r="U4" s="366"/>
+      <c r="V4" s="364" t="s">
+        <v>537</v>
       </c>
-      <c r="W4" s="419"/>
-      <c r="X4" s="420"/>
+      <c r="W4" s="365"/>
+      <c r="X4" s="366"/>
     </row>
     <row r="5" spans="1:24" s="219" customFormat="1" ht="19.5" customHeight="1">
       <c r="A5" s="218"/>
       <c r="B5" s="220" t="s">
-        <v>501</v>
+        <v>484</v>
       </c>
-      <c r="C5" s="383"/>
-      <c r="D5" s="385"/>
-      <c r="E5" s="385"/>
-      <c r="F5" s="385"/>
-      <c r="G5" s="385"/>
-      <c r="H5" s="384"/>
-      <c r="I5" s="404" t="s">
-        <v>555</v>
+      <c r="C5" s="377"/>
+      <c r="D5" s="378"/>
+      <c r="E5" s="378"/>
+      <c r="F5" s="378"/>
+      <c r="G5" s="378"/>
+      <c r="H5" s="379"/>
+      <c r="I5" s="380" t="s">
+        <v>538</v>
       </c>
-      <c r="J5" s="405"/>
-      <c r="K5" s="405"/>
-      <c r="L5" s="406"/>
-      <c r="M5" s="407" t="s">
-        <v>556</v>
+      <c r="J5" s="381"/>
+      <c r="K5" s="381"/>
+      <c r="L5" s="382"/>
+      <c r="M5" s="383" t="s">
+        <v>539</v>
       </c>
-      <c r="N5" s="408"/>
-      <c r="O5" s="409"/>
-      <c r="P5" s="410" t="s">
-        <v>557</v>
+      <c r="N5" s="384"/>
+      <c r="O5" s="385"/>
+      <c r="P5" s="386" t="s">
+        <v>540</v>
       </c>
-      <c r="Q5" s="411"/>
-      <c r="R5" s="401" t="s">
-        <v>558</v>
+      <c r="Q5" s="387"/>
+      <c r="R5" s="388" t="s">
+        <v>541</v>
       </c>
-      <c r="S5" s="384"/>
-      <c r="T5" s="383"/>
-      <c r="U5" s="384"/>
-      <c r="V5" s="383"/>
-      <c r="W5" s="385"/>
-      <c r="X5" s="384"/>
+      <c r="S5" s="379"/>
+      <c r="T5" s="377"/>
+      <c r="U5" s="379"/>
+      <c r="V5" s="377"/>
+      <c r="W5" s="378"/>
+      <c r="X5" s="379"/>
     </row>
     <row r="6" spans="1:24" s="219" customFormat="1" ht="30.75" customHeight="1">
       <c r="A6" s="218"/>
       <c r="B6" s="221"/>
-      <c r="C6" s="390"/>
-      <c r="D6" s="391"/>
-      <c r="E6" s="391"/>
-      <c r="F6" s="391"/>
-      <c r="G6" s="391"/>
-      <c r="H6" s="391"/>
-      <c r="I6" s="391"/>
-      <c r="J6" s="391"/>
-      <c r="K6" s="391"/>
-      <c r="L6" s="391"/>
-      <c r="M6" s="391"/>
-      <c r="N6" s="391"/>
-      <c r="O6" s="391"/>
-      <c r="P6" s="391"/>
-      <c r="Q6" s="391"/>
-      <c r="R6" s="391"/>
-      <c r="S6" s="391"/>
-      <c r="T6" s="391"/>
-      <c r="U6" s="391"/>
-      <c r="V6" s="391"/>
-      <c r="W6" s="391"/>
-      <c r="X6" s="392"/>
+      <c r="C6" s="394"/>
+      <c r="D6" s="395"/>
+      <c r="E6" s="395"/>
+      <c r="F6" s="395"/>
+      <c r="G6" s="395"/>
+      <c r="H6" s="395"/>
+      <c r="I6" s="395"/>
+      <c r="J6" s="395"/>
+      <c r="K6" s="395"/>
+      <c r="L6" s="395"/>
+      <c r="M6" s="395"/>
+      <c r="N6" s="395"/>
+      <c r="O6" s="395"/>
+      <c r="P6" s="395"/>
+      <c r="Q6" s="395"/>
+      <c r="R6" s="395"/>
+      <c r="S6" s="395"/>
+      <c r="T6" s="395"/>
+      <c r="U6" s="395"/>
+      <c r="V6" s="395"/>
+      <c r="W6" s="395"/>
+      <c r="X6" s="396"/>
     </row>
     <row r="7" spans="1:24" s="219" customFormat="1" ht="19.5" customHeight="1">
       <c r="A7" s="218"/>
-      <c r="B7" s="383" t="s">
-        <v>502</v>
+      <c r="B7" s="377" t="s">
+        <v>485</v>
       </c>
-      <c r="C7" s="385"/>
+      <c r="C7" s="378"/>
       <c r="D7" s="222"/>
       <c r="E7" s="222"/>
       <c r="F7" s="222"/>
       <c r="G7" s="222"/>
       <c r="H7" s="223"/>
-      <c r="I7" s="393" t="s">
-        <v>555</v>
+      <c r="I7" s="367" t="s">
+        <v>538</v>
       </c>
-      <c r="J7" s="394"/>
-      <c r="K7" s="394"/>
-      <c r="L7" s="395"/>
-      <c r="M7" s="396" t="s">
-        <v>556</v>
+      <c r="J7" s="368"/>
+      <c r="K7" s="368"/>
+      <c r="L7" s="369"/>
+      <c r="M7" s="370" t="s">
+        <v>539</v>
       </c>
-      <c r="N7" s="397"/>
-      <c r="O7" s="398"/>
-      <c r="P7" s="399" t="s">
-        <v>557</v>
+      <c r="N7" s="371"/>
+      <c r="O7" s="372"/>
+      <c r="P7" s="373" t="s">
+        <v>540</v>
       </c>
-      <c r="Q7" s="400"/>
-      <c r="R7" s="401"/>
-      <c r="S7" s="402"/>
-      <c r="T7" s="383"/>
-      <c r="U7" s="384"/>
-      <c r="V7" s="383"/>
-      <c r="W7" s="385"/>
-      <c r="X7" s="384"/>
+      <c r="Q7" s="374"/>
+      <c r="R7" s="388"/>
+      <c r="S7" s="397"/>
+      <c r="T7" s="377"/>
+      <c r="U7" s="379"/>
+      <c r="V7" s="377"/>
+      <c r="W7" s="378"/>
+      <c r="X7" s="379"/>
     </row>
     <row r="8" spans="1:24" s="219" customFormat="1" ht="19.5" customHeight="1">
       <c r="A8" s="218"/>
@@ -11605,128 +11605,128 @@
       <c r="A9" s="214">
         <v>6</v>
       </c>
-      <c r="B9" s="355" t="s">
-        <v>503</v>
+      <c r="B9" s="406" t="s">
+        <v>486</v>
       </c>
-      <c r="C9" s="355"/>
-      <c r="D9" s="355"/>
+      <c r="C9" s="406"/>
+      <c r="D9" s="406"/>
     </row>
     <row r="10" spans="1:24" ht="19.5" customHeight="1">
       <c r="G10" s="231"/>
       <c r="H10" s="231"/>
-      <c r="O10" s="377" t="s">
-        <v>568</v>
+      <c r="O10" s="346" t="s">
+        <v>551</v>
       </c>
-      <c r="P10" s="378"/>
-      <c r="Q10" s="378"/>
-      <c r="R10" s="379"/>
-      <c r="S10" s="403" t="s">
-        <v>506</v>
+      <c r="P10" s="347"/>
+      <c r="Q10" s="347"/>
+      <c r="R10" s="348"/>
+      <c r="S10" s="398" t="s">
+        <v>489</v>
       </c>
-      <c r="T10" s="403"/>
-      <c r="U10" s="403"/>
-      <c r="V10" s="403" t="s">
-        <v>507</v>
+      <c r="T10" s="398"/>
+      <c r="U10" s="398"/>
+      <c r="V10" s="398" t="s">
+        <v>490</v>
       </c>
-      <c r="W10" s="403"/>
-      <c r="X10" s="403"/>
+      <c r="W10" s="398"/>
+      <c r="X10" s="398"/>
     </row>
     <row r="11" spans="1:24" ht="22.8" customHeight="1">
       <c r="B11" s="232" t="s">
-        <v>504</v>
+        <v>487</v>
       </c>
       <c r="C11" s="232"/>
       <c r="D11" s="232"/>
-      <c r="E11" s="372" t="s">
-        <v>559</v>
+      <c r="E11" s="400" t="s">
+        <v>542</v>
       </c>
-      <c r="F11" s="372"/>
-      <c r="G11" s="372"/>
-      <c r="H11" s="372"/>
-      <c r="I11" s="372"/>
-      <c r="J11" s="372"/>
+      <c r="F11" s="400"/>
+      <c r="G11" s="400"/>
+      <c r="H11" s="400"/>
+      <c r="I11" s="400"/>
+      <c r="J11" s="400"/>
       <c r="K11" s="252" t="s">
-        <v>501</v>
+        <v>484</v>
       </c>
       <c r="L11" s="233" t="s">
-        <v>574</v>
+        <v>557</v>
       </c>
       <c r="M11" s="251" t="s">
-        <v>505</v>
+        <v>488</v>
       </c>
-      <c r="O11" s="380"/>
-      <c r="P11" s="381"/>
-      <c r="Q11" s="381"/>
-      <c r="R11" s="382"/>
-      <c r="S11" s="403"/>
-      <c r="T11" s="403"/>
-      <c r="U11" s="403"/>
-      <c r="V11" s="403"/>
-      <c r="W11" s="403"/>
-      <c r="X11" s="403"/>
+      <c r="O11" s="349"/>
+      <c r="P11" s="350"/>
+      <c r="Q11" s="350"/>
+      <c r="R11" s="351"/>
+      <c r="S11" s="398"/>
+      <c r="T11" s="398"/>
+      <c r="U11" s="398"/>
+      <c r="V11" s="398"/>
+      <c r="W11" s="398"/>
+      <c r="X11" s="398"/>
     </row>
     <row r="12" spans="1:24" ht="27.6" customHeight="1">
       <c r="B12" s="232" t="s">
-        <v>508</v>
+        <v>491</v>
       </c>
       <c r="C12" s="232"/>
       <c r="D12" s="232"/>
-      <c r="E12" s="373" t="s">
-        <v>560</v>
+      <c r="E12" s="393" t="s">
+        <v>543</v>
       </c>
-      <c r="F12" s="373"/>
-      <c r="G12" s="373"/>
-      <c r="H12" s="373"/>
-      <c r="I12" s="373"/>
-      <c r="J12" s="373"/>
+      <c r="F12" s="393"/>
+      <c r="G12" s="393"/>
+      <c r="H12" s="393"/>
+      <c r="I12" s="393"/>
+      <c r="J12" s="393"/>
       <c r="K12" s="253" t="s">
-        <v>501</v>
+        <v>484</v>
       </c>
       <c r="L12" s="234" t="s">
-        <v>575</v>
+        <v>558</v>
       </c>
       <c r="M12" s="251" t="s">
-        <v>505</v>
+        <v>488</v>
       </c>
-      <c r="O12" s="374" t="s">
-        <v>562</v>
+      <c r="O12" s="401" t="s">
+        <v>545</v>
       </c>
-      <c r="P12" s="375"/>
-      <c r="Q12" s="375"/>
-      <c r="R12" s="376"/>
-      <c r="S12" s="386" t="s">
-        <v>563</v>
+      <c r="P12" s="402"/>
+      <c r="Q12" s="402"/>
+      <c r="R12" s="403"/>
+      <c r="S12" s="389" t="s">
+        <v>546</v>
       </c>
-      <c r="T12" s="387"/>
-      <c r="U12" s="388"/>
-      <c r="V12" s="386" t="s">
-        <v>564</v>
+      <c r="T12" s="390"/>
+      <c r="U12" s="391"/>
+      <c r="V12" s="389" t="s">
+        <v>547</v>
       </c>
-      <c r="W12" s="387"/>
-      <c r="X12" s="388"/>
+      <c r="W12" s="390"/>
+      <c r="X12" s="391"/>
     </row>
     <row r="13" spans="1:24" ht="27" customHeight="1">
-      <c r="B13" s="389" t="s">
-        <v>509</v>
+      <c r="B13" s="392" t="s">
+        <v>492</v>
       </c>
-      <c r="C13" s="389"/>
-      <c r="D13" s="389"/>
-      <c r="E13" s="373" t="s">
-        <v>561</v>
+      <c r="C13" s="392"/>
+      <c r="D13" s="392"/>
+      <c r="E13" s="393" t="s">
+        <v>544</v>
       </c>
-      <c r="F13" s="373"/>
-      <c r="G13" s="373"/>
-      <c r="H13" s="373"/>
-      <c r="I13" s="373"/>
-      <c r="J13" s="373"/>
+      <c r="F13" s="393"/>
+      <c r="G13" s="393"/>
+      <c r="H13" s="393"/>
+      <c r="I13" s="393"/>
+      <c r="J13" s="393"/>
       <c r="K13" s="253" t="s">
-        <v>501</v>
+        <v>484</v>
       </c>
       <c r="L13" s="234" t="s">
-        <v>576</v>
+        <v>559</v>
       </c>
       <c r="M13" s="251" t="s">
-        <v>505</v>
+        <v>488</v>
       </c>
       <c r="O13" s="235"/>
       <c r="P13" s="235"/>
@@ -11740,12 +11740,12 @@
       <c r="X13" s="235"/>
     </row>
     <row r="14" spans="1:24" ht="19.5" customHeight="1">
-      <c r="E14" s="371"/>
-      <c r="F14" s="371"/>
-      <c r="G14" s="371"/>
-      <c r="H14" s="371"/>
-      <c r="I14" s="371"/>
-      <c r="J14" s="371"/>
+      <c r="E14" s="399"/>
+      <c r="F14" s="399"/>
+      <c r="G14" s="399"/>
+      <c r="H14" s="399"/>
+      <c r="I14" s="399"/>
+      <c r="J14" s="399"/>
       <c r="O14" s="235"/>
       <c r="P14" s="235"/>
       <c r="Q14" s="235"/>
@@ -11758,23 +11758,23 @@
       <c r="X14" s="235"/>
     </row>
     <row r="15" spans="1:24" ht="18.75" customHeight="1">
-      <c r="A15" s="369"/>
-      <c r="B15" s="369"/>
-      <c r="C15" s="369" t="s">
-        <v>510</v>
+      <c r="A15" s="404"/>
+      <c r="B15" s="404"/>
+      <c r="C15" s="404" t="s">
+        <v>493</v>
       </c>
-      <c r="D15" s="369"/>
+      <c r="D15" s="404"/>
       <c r="E15" s="217" t="s">
         <v>8</v>
       </c>
-      <c r="F15" s="370" t="s">
-        <v>570</v>
+      <c r="F15" s="405" t="s">
+        <v>553</v>
       </c>
-      <c r="G15" s="370"/>
-      <c r="H15" s="370"/>
-      <c r="I15" s="370"/>
+      <c r="G15" s="405"/>
+      <c r="H15" s="405"/>
+      <c r="I15" s="405"/>
       <c r="J15" s="217" t="s">
-        <v>511</v>
+        <v>494</v>
       </c>
       <c r="O15" s="235"/>
       <c r="P15" s="235"/>
@@ -11788,23 +11788,23 @@
       <c r="X15" s="235"/>
     </row>
     <row r="16" spans="1:24" ht="19.5" customHeight="1">
-      <c r="A16" s="369"/>
-      <c r="B16" s="369"/>
-      <c r="C16" s="369" t="s">
-        <v>512</v>
+      <c r="A16" s="404"/>
+      <c r="B16" s="404"/>
+      <c r="C16" s="404" t="s">
+        <v>495</v>
       </c>
-      <c r="D16" s="369"/>
+      <c r="D16" s="404"/>
       <c r="E16" s="217" t="s">
         <v>8</v>
       </c>
-      <c r="F16" s="370" t="s">
-        <v>571</v>
+      <c r="F16" s="405" t="s">
+        <v>554</v>
       </c>
-      <c r="G16" s="370"/>
-      <c r="H16" s="370"/>
-      <c r="I16" s="370"/>
+      <c r="G16" s="405"/>
+      <c r="H16" s="405"/>
+      <c r="I16" s="405"/>
       <c r="J16" s="217" t="s">
-        <v>513</v>
+        <v>496</v>
       </c>
       <c r="O16" s="235"/>
       <c r="P16" s="235"/>
@@ -11818,23 +11818,23 @@
       <c r="X16" s="235"/>
     </row>
     <row r="17" spans="1:36" ht="19.5" customHeight="1">
-      <c r="A17" s="369"/>
-      <c r="B17" s="369"/>
-      <c r="C17" s="369" t="s">
-        <v>514</v>
+      <c r="A17" s="404"/>
+      <c r="B17" s="404"/>
+      <c r="C17" s="404" t="s">
+        <v>497</v>
       </c>
-      <c r="D17" s="369"/>
+      <c r="D17" s="404"/>
       <c r="E17" s="217" t="s">
-        <v>515</v>
+        <v>498</v>
       </c>
-      <c r="F17" s="370" t="s">
-        <v>572</v>
+      <c r="F17" s="405" t="s">
+        <v>555</v>
       </c>
-      <c r="G17" s="370"/>
-      <c r="H17" s="370"/>
-      <c r="I17" s="370"/>
+      <c r="G17" s="405"/>
+      <c r="H17" s="405"/>
+      <c r="I17" s="405"/>
       <c r="J17" s="217" t="s">
-        <v>516</v>
+        <v>499</v>
       </c>
     </row>
     <row r="18" spans="1:36" ht="18.75" customHeight="1">
@@ -11847,7 +11847,7 @@
         <v>7</v>
       </c>
       <c r="B19" s="247" t="s">
-        <v>517</v>
+        <v>500</v>
       </c>
       <c r="C19" s="247"/>
       <c r="D19" s="247"/>
@@ -11870,119 +11870,119 @@
       <c r="U19" s="216"/>
     </row>
     <row r="20" spans="1:36" ht="19.5" customHeight="1">
-      <c r="B20" s="359" t="s">
-        <v>518</v>
+      <c r="B20" s="414" t="s">
+        <v>501</v>
       </c>
-      <c r="C20" s="360"/>
-      <c r="D20" s="360"/>
-      <c r="E20" s="360"/>
-      <c r="F20" s="368"/>
-      <c r="G20" s="351" t="s">
-        <v>577</v>
+      <c r="C20" s="415"/>
+      <c r="D20" s="415"/>
+      <c r="E20" s="415"/>
+      <c r="F20" s="424"/>
+      <c r="G20" s="429" t="s">
+        <v>560</v>
       </c>
-      <c r="H20" s="352"/>
-      <c r="I20" s="352"/>
-      <c r="J20" s="352"/>
-      <c r="K20" s="352"/>
-      <c r="L20" s="352"/>
+      <c r="H20" s="430"/>
+      <c r="I20" s="430"/>
+      <c r="J20" s="430"/>
+      <c r="K20" s="430"/>
+      <c r="L20" s="430"/>
       <c r="M20" s="238" t="s">
-        <v>519</v>
+        <v>502</v>
       </c>
-      <c r="N20" s="353" t="s">
-        <v>578</v>
+      <c r="N20" s="412" t="s">
+        <v>561</v>
       </c>
-      <c r="O20" s="354"/>
+      <c r="O20" s="413"/>
       <c r="P20" s="239"/>
       <c r="Q20" s="240" t="s">
         <v>435</v>
       </c>
       <c r="R20" s="240"/>
       <c r="S20" s="241"/>
-      <c r="T20" s="347" t="s">
-        <v>565</v>
+      <c r="T20" s="425" t="s">
+        <v>548</v>
       </c>
-      <c r="U20" s="347"/>
-      <c r="V20" s="347"/>
-      <c r="W20" s="347"/>
-      <c r="X20" s="347"/>
+      <c r="U20" s="425"/>
+      <c r="V20" s="425"/>
+      <c r="W20" s="425"/>
+      <c r="X20" s="425"/>
     </row>
     <row r="21" spans="1:36" ht="19.5" customHeight="1">
-      <c r="B21" s="356" t="s">
-        <v>522</v>
+      <c r="B21" s="409" t="s">
+        <v>505</v>
       </c>
-      <c r="C21" s="357"/>
-      <c r="D21" s="357"/>
-      <c r="E21" s="357"/>
-      <c r="F21" s="358"/>
-      <c r="G21" s="351" t="s">
-        <v>579</v>
+      <c r="C21" s="410"/>
+      <c r="D21" s="410"/>
+      <c r="E21" s="410"/>
+      <c r="F21" s="411"/>
+      <c r="G21" s="429" t="s">
+        <v>562</v>
       </c>
-      <c r="H21" s="352"/>
-      <c r="I21" s="352"/>
-      <c r="J21" s="352"/>
-      <c r="K21" s="352"/>
-      <c r="L21" s="352"/>
+      <c r="H21" s="430"/>
+      <c r="I21" s="430"/>
+      <c r="J21" s="430"/>
+      <c r="K21" s="430"/>
+      <c r="L21" s="430"/>
       <c r="M21" s="238" t="s">
-        <v>519</v>
+        <v>502</v>
       </c>
-      <c r="N21" s="353" t="s">
-        <v>580</v>
+      <c r="N21" s="412" t="s">
+        <v>563</v>
       </c>
-      <c r="O21" s="354"/>
+      <c r="O21" s="413"/>
       <c r="P21" s="242"/>
       <c r="Q21" s="243" t="s">
         <v>436</v>
       </c>
       <c r="R21" s="243"/>
       <c r="S21" s="244"/>
-      <c r="T21" s="348" t="s">
-        <v>566</v>
+      <c r="T21" s="426" t="s">
+        <v>549</v>
       </c>
-      <c r="U21" s="348" t="s">
-        <v>523</v>
+      <c r="U21" s="426" t="s">
+        <v>506</v>
       </c>
-      <c r="V21" s="348" t="s">
-        <v>520</v>
+      <c r="V21" s="426" t="s">
+        <v>503</v>
       </c>
-      <c r="W21" s="348" t="s">
-        <v>521</v>
+      <c r="W21" s="426" t="s">
+        <v>504</v>
       </c>
-      <c r="X21" s="348"/>
+      <c r="X21" s="426"/>
     </row>
     <row r="22" spans="1:36" ht="18.75" customHeight="1">
-      <c r="B22" s="359" t="s">
-        <v>524</v>
+      <c r="B22" s="414" t="s">
+        <v>507</v>
       </c>
-      <c r="C22" s="360"/>
-      <c r="D22" s="360"/>
-      <c r="E22" s="360"/>
+      <c r="C22" s="415"/>
+      <c r="D22" s="415"/>
+      <c r="E22" s="415"/>
       <c r="F22" s="245"/>
-      <c r="G22" s="349" t="s">
-        <v>567</v>
+      <c r="G22" s="427" t="s">
+        <v>550</v>
       </c>
-      <c r="H22" s="350"/>
-      <c r="I22" s="350"/>
-      <c r="J22" s="350"/>
-      <c r="K22" s="350"/>
-      <c r="L22" s="350"/>
+      <c r="H22" s="428"/>
+      <c r="I22" s="428"/>
+      <c r="J22" s="428"/>
+      <c r="K22" s="428"/>
+      <c r="L22" s="428"/>
       <c r="M22" s="238" t="s">
-        <v>519</v>
+        <v>502</v>
       </c>
-      <c r="N22" s="353" t="s">
-        <v>581</v>
+      <c r="N22" s="412" t="s">
+        <v>564</v>
       </c>
-      <c r="O22" s="354"/>
-      <c r="P22" s="361" t="s">
+      <c r="O22" s="413"/>
+      <c r="P22" s="416" t="s">
         <v>437</v>
       </c>
-      <c r="Q22" s="362"/>
-      <c r="R22" s="362"/>
-      <c r="S22" s="363"/>
-      <c r="T22" s="364"/>
-      <c r="U22" s="365"/>
-      <c r="V22" s="365"/>
-      <c r="W22" s="365"/>
-      <c r="X22" s="366"/>
+      <c r="Q22" s="417"/>
+      <c r="R22" s="417"/>
+      <c r="S22" s="418"/>
+      <c r="T22" s="419"/>
+      <c r="U22" s="420"/>
+      <c r="V22" s="420"/>
+      <c r="W22" s="420"/>
+      <c r="X22" s="421"/>
     </row>
     <row r="23" spans="1:36" ht="18.75" customHeight="1"/>
     <row r="24" spans="1:36" ht="18.75" customHeight="1">
@@ -12106,17 +12106,17 @@
     </row>
     <row r="28" spans="1:36" ht="19.5" customHeight="1">
       <c r="A28" s="211"/>
-      <c r="B28" s="367" t="s">
+      <c r="B28" s="422" t="s">
         <v>424</v>
       </c>
-      <c r="C28" s="367"/>
-      <c r="D28" s="344" t="s">
+      <c r="C28" s="422"/>
+      <c r="D28" s="423" t="s">
         <v>55</v>
       </c>
-      <c r="E28" s="344"/>
-      <c r="F28" s="344"/>
-      <c r="G28" s="344"/>
-      <c r="H28" s="344"/>
+      <c r="E28" s="423"/>
+      <c r="F28" s="423"/>
+      <c r="G28" s="423"/>
+      <c r="H28" s="423"/>
       <c r="I28" s="2"/>
       <c r="J28" s="2"/>
       <c r="K28" s="2"/>
@@ -12128,13 +12128,13 @@
       <c r="Q28" s="209" t="s">
         <v>425</v>
       </c>
-      <c r="R28" s="344" t="s">
+      <c r="R28" s="423" t="s">
         <v>54</v>
       </c>
-      <c r="S28" s="344"/>
-      <c r="T28" s="344"/>
-      <c r="U28" s="344"/>
-      <c r="V28" s="344"/>
+      <c r="S28" s="423"/>
+      <c r="T28" s="423"/>
+      <c r="U28" s="423"/>
+      <c r="V28" s="423"/>
       <c r="W28" s="210"/>
       <c r="X28" s="4"/>
       <c r="Y28" s="235"/>
@@ -12175,31 +12175,31 @@
       <c r="B30" s="209" t="s">
         <v>426</v>
       </c>
-      <c r="C30" s="345"/>
-      <c r="D30" s="345"/>
-      <c r="E30" s="345"/>
-      <c r="F30" s="345"/>
-      <c r="G30" s="345"/>
+      <c r="C30" s="407"/>
+      <c r="D30" s="407"/>
+      <c r="E30" s="407"/>
+      <c r="F30" s="407"/>
+      <c r="G30" s="407"/>
       <c r="H30" s="2"/>
       <c r="I30" s="1" t="s">
         <v>427</v>
       </c>
-      <c r="J30" s="345"/>
-      <c r="K30" s="345"/>
-      <c r="L30" s="345"/>
-      <c r="M30" s="345"/>
-      <c r="N30" s="345"/>
-      <c r="O30" s="345"/>
+      <c r="J30" s="407"/>
+      <c r="K30" s="407"/>
+      <c r="L30" s="407"/>
+      <c r="M30" s="407"/>
+      <c r="N30" s="407"/>
+      <c r="O30" s="407"/>
       <c r="P30" s="2"/>
       <c r="Q30" s="1" t="s">
         <v>428</v>
       </c>
-      <c r="R30" s="346"/>
-      <c r="S30" s="346"/>
-      <c r="T30" s="346"/>
-      <c r="U30" s="346"/>
-      <c r="V30" s="346"/>
-      <c r="W30" s="346"/>
+      <c r="R30" s="408"/>
+      <c r="S30" s="408"/>
+      <c r="T30" s="408"/>
+      <c r="U30" s="408"/>
+      <c r="V30" s="408"/>
+      <c r="W30" s="408"/>
       <c r="X30" s="4"/>
       <c r="Y30" s="235"/>
       <c r="Z30" s="235"/>
@@ -12210,31 +12210,31 @@
       <c r="B31" s="209" t="s">
         <v>429</v>
       </c>
-      <c r="C31" s="345"/>
-      <c r="D31" s="345"/>
-      <c r="E31" s="345"/>
-      <c r="F31" s="345"/>
-      <c r="G31" s="345"/>
+      <c r="C31" s="407"/>
+      <c r="D31" s="407"/>
+      <c r="E31" s="407"/>
+      <c r="F31" s="407"/>
+      <c r="G31" s="407"/>
       <c r="H31" s="2"/>
       <c r="I31" s="1" t="s">
         <v>430</v>
       </c>
-      <c r="J31" s="345"/>
-      <c r="K31" s="345"/>
-      <c r="L31" s="345"/>
-      <c r="M31" s="345"/>
-      <c r="N31" s="345"/>
-      <c r="O31" s="345"/>
+      <c r="J31" s="407"/>
+      <c r="K31" s="407"/>
+      <c r="L31" s="407"/>
+      <c r="M31" s="407"/>
+      <c r="N31" s="407"/>
+      <c r="O31" s="407"/>
       <c r="P31" s="2"/>
       <c r="Q31" s="1" t="s">
         <v>431</v>
       </c>
-      <c r="R31" s="346"/>
-      <c r="S31" s="346"/>
-      <c r="T31" s="346"/>
-      <c r="U31" s="346"/>
-      <c r="V31" s="346"/>
-      <c r="W31" s="346"/>
+      <c r="R31" s="408"/>
+      <c r="S31" s="408"/>
+      <c r="T31" s="408"/>
+      <c r="U31" s="408"/>
+      <c r="V31" s="408"/>
+      <c r="W31" s="408"/>
       <c r="X31" s="4"/>
       <c r="Y31" s="235"/>
       <c r="Z31" s="235"/>
@@ -12248,31 +12248,31 @@
       <c r="B32" s="209" t="s">
         <v>432</v>
       </c>
-      <c r="C32" s="345"/>
-      <c r="D32" s="345"/>
-      <c r="E32" s="345"/>
-      <c r="F32" s="345"/>
-      <c r="G32" s="345"/>
+      <c r="C32" s="407"/>
+      <c r="D32" s="407"/>
+      <c r="E32" s="407"/>
+      <c r="F32" s="407"/>
+      <c r="G32" s="407"/>
       <c r="H32" s="2"/>
       <c r="I32" s="1" t="s">
         <v>433</v>
       </c>
-      <c r="J32" s="345"/>
-      <c r="K32" s="345"/>
-      <c r="L32" s="345"/>
-      <c r="M32" s="345"/>
-      <c r="N32" s="345"/>
-      <c r="O32" s="345"/>
+      <c r="J32" s="407"/>
+      <c r="K32" s="407"/>
+      <c r="L32" s="407"/>
+      <c r="M32" s="407"/>
+      <c r="N32" s="407"/>
+      <c r="O32" s="407"/>
       <c r="P32" s="2"/>
       <c r="Q32" s="1" t="s">
         <v>434</v>
       </c>
-      <c r="R32" s="346"/>
-      <c r="S32" s="346"/>
-      <c r="T32" s="346"/>
-      <c r="U32" s="346"/>
-      <c r="V32" s="346"/>
-      <c r="W32" s="346"/>
+      <c r="R32" s="408"/>
+      <c r="S32" s="408"/>
+      <c r="T32" s="408"/>
+      <c r="U32" s="408"/>
+      <c r="V32" s="408"/>
+      <c r="W32" s="408"/>
       <c r="X32" s="4"/>
       <c r="Y32" s="235"/>
       <c r="Z32" s="235"/>
@@ -13501,26 +13501,44 @@
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" selectLockedCells="1"/>
   <mergeCells count="74">
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:H3"/>
-    <mergeCell ref="I2:L3"/>
-    <mergeCell ref="M2:O3"/>
-    <mergeCell ref="P2:Q3"/>
-    <mergeCell ref="V2:X3"/>
-    <mergeCell ref="C4:H4"/>
-    <mergeCell ref="I4:L4"/>
-    <mergeCell ref="M4:O4"/>
-    <mergeCell ref="P4:Q4"/>
-    <mergeCell ref="T4:U4"/>
-    <mergeCell ref="V4:X4"/>
-    <mergeCell ref="R2:S3"/>
-    <mergeCell ref="T2:U3"/>
-    <mergeCell ref="R4:S4"/>
-    <mergeCell ref="C5:H5"/>
-    <mergeCell ref="I5:L5"/>
-    <mergeCell ref="M5:O5"/>
-    <mergeCell ref="P5:Q5"/>
-    <mergeCell ref="R5:S5"/>
+    <mergeCell ref="R28:V28"/>
+    <mergeCell ref="C30:G30"/>
+    <mergeCell ref="J30:O30"/>
+    <mergeCell ref="R30:W30"/>
+    <mergeCell ref="T20:X20"/>
+    <mergeCell ref="T21:X21"/>
+    <mergeCell ref="G22:L22"/>
+    <mergeCell ref="G20:L20"/>
+    <mergeCell ref="G21:L21"/>
+    <mergeCell ref="N20:O20"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="C32:G32"/>
+    <mergeCell ref="J32:O32"/>
+    <mergeCell ref="R32:W32"/>
+    <mergeCell ref="C31:G31"/>
+    <mergeCell ref="J31:O31"/>
+    <mergeCell ref="R31:W31"/>
+    <mergeCell ref="B21:F21"/>
+    <mergeCell ref="N21:O21"/>
+    <mergeCell ref="B22:E22"/>
+    <mergeCell ref="N22:O22"/>
+    <mergeCell ref="P22:S22"/>
+    <mergeCell ref="T22:X22"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:H28"/>
+    <mergeCell ref="B20:F20"/>
+    <mergeCell ref="A15:B17"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="F15:I15"/>
+    <mergeCell ref="F16:I16"/>
+    <mergeCell ref="F17:I17"/>
+    <mergeCell ref="E14:J14"/>
+    <mergeCell ref="E11:J11"/>
+    <mergeCell ref="E12:J12"/>
+    <mergeCell ref="O12:R12"/>
+    <mergeCell ref="O10:R11"/>
     <mergeCell ref="T5:U5"/>
     <mergeCell ref="V5:X5"/>
     <mergeCell ref="S12:U12"/>
@@ -13537,44 +13555,26 @@
     <mergeCell ref="V7:X7"/>
     <mergeCell ref="S10:U11"/>
     <mergeCell ref="V10:X11"/>
-    <mergeCell ref="E14:J14"/>
-    <mergeCell ref="E11:J11"/>
-    <mergeCell ref="E12:J12"/>
-    <mergeCell ref="O12:R12"/>
-    <mergeCell ref="O10:R11"/>
-    <mergeCell ref="A15:B17"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="F15:I15"/>
-    <mergeCell ref="F16:I16"/>
-    <mergeCell ref="F17:I17"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="C32:G32"/>
-    <mergeCell ref="J32:O32"/>
-    <mergeCell ref="R32:W32"/>
-    <mergeCell ref="C31:G31"/>
-    <mergeCell ref="J31:O31"/>
-    <mergeCell ref="R31:W31"/>
-    <mergeCell ref="B21:F21"/>
-    <mergeCell ref="N21:O21"/>
-    <mergeCell ref="B22:E22"/>
-    <mergeCell ref="N22:O22"/>
-    <mergeCell ref="P22:S22"/>
-    <mergeCell ref="T22:X22"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:H28"/>
-    <mergeCell ref="B20:F20"/>
-    <mergeCell ref="R28:V28"/>
-    <mergeCell ref="C30:G30"/>
-    <mergeCell ref="J30:O30"/>
-    <mergeCell ref="R30:W30"/>
-    <mergeCell ref="T20:X20"/>
-    <mergeCell ref="T21:X21"/>
-    <mergeCell ref="G22:L22"/>
-    <mergeCell ref="G20:L20"/>
-    <mergeCell ref="G21:L21"/>
-    <mergeCell ref="N20:O20"/>
+    <mergeCell ref="C5:H5"/>
+    <mergeCell ref="I5:L5"/>
+    <mergeCell ref="M5:O5"/>
+    <mergeCell ref="P5:Q5"/>
+    <mergeCell ref="R5:S5"/>
+    <mergeCell ref="V2:X3"/>
+    <mergeCell ref="C4:H4"/>
+    <mergeCell ref="I4:L4"/>
+    <mergeCell ref="M4:O4"/>
+    <mergeCell ref="P4:Q4"/>
+    <mergeCell ref="T4:U4"/>
+    <mergeCell ref="V4:X4"/>
+    <mergeCell ref="R2:S3"/>
+    <mergeCell ref="T2:U3"/>
+    <mergeCell ref="R4:S4"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:H3"/>
+    <mergeCell ref="I2:L3"/>
+    <mergeCell ref="M2:O3"/>
+    <mergeCell ref="P2:Q3"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="W21">
@@ -13677,8 +13677,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BW1053"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A25" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G41" sqref="G41:H41"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E39" sqref="E39:F39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.33203125" defaultRowHeight="15.6"/>
@@ -13714,37 +13714,37 @@
       <c r="A2" s="106" t="s">
         <v>42</v>
       </c>
-      <c r="B2" s="471" t="s">
+      <c r="B2" s="475" t="s">
         <v>52</v>
       </c>
-      <c r="C2" s="471"/>
-      <c r="D2" s="471"/>
-      <c r="E2" s="454" t="s">
-        <v>525</v>
+      <c r="C2" s="475"/>
+      <c r="D2" s="475"/>
+      <c r="E2" s="486" t="s">
+        <v>508</v>
       </c>
-      <c r="F2" s="455"/>
-      <c r="G2" s="455"/>
-      <c r="H2" s="455"/>
-      <c r="I2" s="455"/>
-      <c r="J2" s="455"/>
-      <c r="K2" s="455"/>
-      <c r="L2" s="455"/>
-      <c r="M2" s="455"/>
-      <c r="N2" s="455"/>
-      <c r="O2" s="455"/>
-      <c r="P2" s="455"/>
-      <c r="Q2" s="455"/>
-      <c r="R2" s="455"/>
-      <c r="S2" s="455"/>
-      <c r="T2" s="455"/>
-      <c r="U2" s="455"/>
-      <c r="V2" s="455"/>
-      <c r="W2" s="455"/>
-      <c r="X2" s="455"/>
-      <c r="Y2" s="455"/>
-      <c r="Z2" s="455"/>
-      <c r="AA2" s="455"/>
-      <c r="AB2" s="456"/>
+      <c r="F2" s="487"/>
+      <c r="G2" s="487"/>
+      <c r="H2" s="487"/>
+      <c r="I2" s="487"/>
+      <c r="J2" s="487"/>
+      <c r="K2" s="487"/>
+      <c r="L2" s="487"/>
+      <c r="M2" s="487"/>
+      <c r="N2" s="487"/>
+      <c r="O2" s="487"/>
+      <c r="P2" s="487"/>
+      <c r="Q2" s="487"/>
+      <c r="R2" s="487"/>
+      <c r="S2" s="487"/>
+      <c r="T2" s="487"/>
+      <c r="U2" s="487"/>
+      <c r="V2" s="487"/>
+      <c r="W2" s="487"/>
+      <c r="X2" s="487"/>
+      <c r="Y2" s="487"/>
+      <c r="Z2" s="487"/>
+      <c r="AA2" s="487"/>
+      <c r="AB2" s="488"/>
       <c r="AC2" s="107"/>
       <c r="AD2" s="107"/>
       <c r="AE2" s="107"/>
@@ -13754,54 +13754,54 @@
       <c r="AI2" s="108"/>
       <c r="AJ2" s="108"/>
       <c r="AP2" s="105"/>
-      <c r="BF2" s="472"/>
-      <c r="BG2" s="472"/>
-      <c r="BH2" s="472"/>
-      <c r="BI2" s="472"/>
-      <c r="BJ2" s="472"/>
-      <c r="BK2" s="472"/>
-      <c r="BL2" s="472"/>
-      <c r="BM2" s="472"/>
-      <c r="BN2" s="472"/>
-      <c r="BO2" s="472"/>
-      <c r="BP2" s="472"/>
-      <c r="BQ2" s="472"/>
-      <c r="BR2" s="472"/>
-      <c r="BS2" s="472"/>
+      <c r="BF2" s="476"/>
+      <c r="BG2" s="476"/>
+      <c r="BH2" s="476"/>
+      <c r="BI2" s="476"/>
+      <c r="BJ2" s="476"/>
+      <c r="BK2" s="476"/>
+      <c r="BL2" s="476"/>
+      <c r="BM2" s="476"/>
+      <c r="BN2" s="476"/>
+      <c r="BO2" s="476"/>
+      <c r="BP2" s="476"/>
+      <c r="BQ2" s="476"/>
+      <c r="BR2" s="476"/>
+      <c r="BS2" s="476"/>
     </row>
     <row r="3" spans="1:75" ht="46.8" customHeight="1" thickBot="1">
       <c r="A3" s="106" t="s">
         <v>43</v>
       </c>
-      <c r="B3" s="471" t="s">
+      <c r="B3" s="475" t="s">
         <v>53</v>
       </c>
-      <c r="C3" s="471"/>
-      <c r="D3" s="471"/>
-      <c r="E3" s="457"/>
-      <c r="F3" s="458"/>
-      <c r="G3" s="458"/>
-      <c r="H3" s="458"/>
-      <c r="I3" s="458"/>
-      <c r="J3" s="458"/>
-      <c r="K3" s="458"/>
-      <c r="L3" s="458"/>
-      <c r="M3" s="458"/>
-      <c r="N3" s="458"/>
-      <c r="O3" s="458"/>
-      <c r="P3" s="458"/>
-      <c r="Q3" s="458"/>
-      <c r="R3" s="458"/>
-      <c r="S3" s="458"/>
-      <c r="T3" s="458"/>
-      <c r="U3" s="458"/>
-      <c r="V3" s="458"/>
-      <c r="W3" s="458"/>
-      <c r="X3" s="458"/>
-      <c r="Y3" s="458"/>
-      <c r="Z3" s="458"/>
-      <c r="AA3" s="458"/>
-      <c r="AB3" s="459"/>
+      <c r="C3" s="475"/>
+      <c r="D3" s="475"/>
+      <c r="E3" s="489"/>
+      <c r="F3" s="490"/>
+      <c r="G3" s="490"/>
+      <c r="H3" s="490"/>
+      <c r="I3" s="490"/>
+      <c r="J3" s="490"/>
+      <c r="K3" s="490"/>
+      <c r="L3" s="490"/>
+      <c r="M3" s="490"/>
+      <c r="N3" s="490"/>
+      <c r="O3" s="490"/>
+      <c r="P3" s="490"/>
+      <c r="Q3" s="490"/>
+      <c r="R3" s="490"/>
+      <c r="S3" s="490"/>
+      <c r="T3" s="490"/>
+      <c r="U3" s="490"/>
+      <c r="V3" s="490"/>
+      <c r="W3" s="490"/>
+      <c r="X3" s="490"/>
+      <c r="Y3" s="490"/>
+      <c r="Z3" s="490"/>
+      <c r="AA3" s="490"/>
+      <c r="AB3" s="491"/>
       <c r="AC3" s="107"/>
       <c r="AD3" s="107"/>
       <c r="AE3" s="107"/>
@@ -13910,22 +13910,22 @@
       <c r="BO4" s="103"/>
     </row>
     <row r="5" spans="1:75" ht="18" customHeight="1">
-      <c r="A5" s="479" t="s">
+      <c r="A5" s="472" t="s">
         <v>295</v>
       </c>
-      <c r="B5" s="460" t="s">
+      <c r="B5" s="492" t="s">
         <v>388</v>
       </c>
-      <c r="C5" s="474" t="s">
+      <c r="C5" s="478" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="462" t="s">
+      <c r="D5" s="494" t="s">
         <v>389</v>
       </c>
-      <c r="E5" s="467" t="s">
+      <c r="E5" s="496" t="s">
         <v>385</v>
       </c>
-      <c r="F5" s="468"/>
+      <c r="F5" s="497"/>
       <c r="G5" s="113"/>
       <c r="H5" s="113"/>
       <c r="I5" s="113"/>
@@ -13952,10 +13952,10 @@
       <c r="AD5" s="117"/>
       <c r="AE5" s="118"/>
       <c r="AF5" s="118"/>
-      <c r="AG5" s="473"/>
-      <c r="AH5" s="473"/>
-      <c r="AI5" s="473"/>
-      <c r="AJ5" s="473"/>
+      <c r="AG5" s="477"/>
+      <c r="AH5" s="477"/>
+      <c r="AI5" s="477"/>
+      <c r="AJ5" s="477"/>
       <c r="AK5" s="119"/>
       <c r="AL5" s="120"/>
       <c r="AM5" s="121"/>
@@ -13997,12 +13997,12 @@
       <c r="BW5" s="121"/>
     </row>
     <row r="6" spans="1:75" ht="18" customHeight="1">
-      <c r="A6" s="480"/>
-      <c r="B6" s="461"/>
-      <c r="C6" s="475"/>
-      <c r="D6" s="463"/>
-      <c r="E6" s="469"/>
-      <c r="F6" s="470"/>
+      <c r="A6" s="473"/>
+      <c r="B6" s="493"/>
+      <c r="C6" s="479"/>
+      <c r="D6" s="495"/>
+      <c r="E6" s="498"/>
+      <c r="F6" s="499"/>
       <c r="G6" s="74"/>
       <c r="H6" s="74"/>
       <c r="I6" s="74"/>
@@ -14027,12 +14027,12 @@
       <c r="AB6" s="74"/>
       <c r="AC6" s="74"/>
       <c r="AD6" s="74"/>
-      <c r="AE6" s="476"/>
-      <c r="AF6" s="476"/>
+      <c r="AE6" s="467"/>
+      <c r="AF6" s="467"/>
       <c r="AG6" s="122"/>
       <c r="AH6" s="123"/>
-      <c r="AI6" s="476"/>
-      <c r="AJ6" s="476"/>
+      <c r="AI6" s="467"/>
+      <c r="AJ6" s="467"/>
       <c r="AK6" s="123"/>
       <c r="AL6" s="124"/>
       <c r="AM6" s="124"/>
@@ -14074,22 +14074,22 @@
       <c r="BW6" s="125"/>
     </row>
     <row r="7" spans="1:75">
-      <c r="A7" s="464" t="s">
+      <c r="A7" s="468" t="s">
         <v>303</v>
       </c>
-      <c r="B7" s="477" t="s">
+      <c r="B7" s="469" t="s">
         <v>304</v>
       </c>
-      <c r="C7" s="464" t="s">
+      <c r="C7" s="468" t="s">
         <v>305</v>
       </c>
-      <c r="D7" s="466" t="s">
+      <c r="D7" s="471" t="s">
         <v>306</v>
       </c>
-      <c r="E7" s="443" t="s">
-        <v>440</v>
+      <c r="E7" s="435" t="s">
+        <v>576</v>
       </c>
-      <c r="F7" s="444"/>
+      <c r="F7" s="436"/>
       <c r="G7" s="74"/>
       <c r="H7" s="74"/>
       <c r="I7" s="74"/>
@@ -14139,14 +14139,14 @@
       <c r="BW7" s="132"/>
     </row>
     <row r="8" spans="1:75">
-      <c r="A8" s="464"/>
-      <c r="B8" s="478"/>
-      <c r="C8" s="464"/>
-      <c r="D8" s="466"/>
-      <c r="E8" s="443" t="s">
+      <c r="A8" s="468"/>
+      <c r="B8" s="470"/>
+      <c r="C8" s="468"/>
+      <c r="D8" s="471"/>
+      <c r="E8" s="435" t="s">
         <v>390</v>
       </c>
-      <c r="F8" s="444"/>
+      <c r="F8" s="436"/>
       <c r="G8" s="74"/>
       <c r="H8" s="74"/>
       <c r="I8" s="74"/>
@@ -14193,22 +14193,22 @@
       <c r="BW8" s="132"/>
     </row>
     <row r="9" spans="1:75" ht="15.6" customHeight="1">
-      <c r="A9" s="464" t="s">
+      <c r="A9" s="468" t="s">
         <v>307</v>
       </c>
-      <c r="B9" s="465" t="s">
+      <c r="B9" s="474" t="s">
         <v>308</v>
       </c>
-      <c r="C9" s="464" t="s">
+      <c r="C9" s="468" t="s">
         <v>309</v>
       </c>
-      <c r="D9" s="466" t="s">
+      <c r="D9" s="471" t="s">
         <v>310</v>
       </c>
-      <c r="E9" s="443" t="s">
-        <v>441</v>
+      <c r="E9" s="435" t="s">
+        <v>577</v>
       </c>
-      <c r="F9" s="444"/>
+      <c r="F9" s="436"/>
       <c r="G9" s="74"/>
       <c r="H9" s="74"/>
       <c r="I9" s="74"/>
@@ -14255,14 +14255,14 @@
       <c r="BW9" s="132"/>
     </row>
     <row r="10" spans="1:75" ht="15.6" customHeight="1">
-      <c r="A10" s="464"/>
-      <c r="B10" s="465"/>
-      <c r="C10" s="464"/>
-      <c r="D10" s="466"/>
-      <c r="E10" s="443" t="s">
+      <c r="A10" s="468"/>
+      <c r="B10" s="474"/>
+      <c r="C10" s="468"/>
+      <c r="D10" s="471"/>
+      <c r="E10" s="435" t="s">
         <v>391</v>
       </c>
-      <c r="F10" s="444"/>
+      <c r="F10" s="436"/>
       <c r="G10" s="74"/>
       <c r="H10" s="74"/>
       <c r="I10" s="74"/>
@@ -14313,22 +14313,22 @@
       <c r="BW10" s="132"/>
     </row>
     <row r="11" spans="1:75" ht="15.6" customHeight="1">
-      <c r="A11" s="464" t="s">
+      <c r="A11" s="468" t="s">
         <v>311</v>
       </c>
-      <c r="B11" s="465" t="s">
+      <c r="B11" s="474" t="s">
         <v>312</v>
       </c>
-      <c r="C11" s="464" t="s">
+      <c r="C11" s="468" t="s">
         <v>313</v>
       </c>
-      <c r="D11" s="466" t="s">
+      <c r="D11" s="471" t="s">
         <v>314</v>
       </c>
-      <c r="E11" s="443" t="s">
-        <v>442</v>
+      <c r="E11" s="435" t="s">
+        <v>578</v>
       </c>
-      <c r="F11" s="444"/>
+      <c r="F11" s="436"/>
       <c r="G11" s="74"/>
       <c r="H11" s="74"/>
       <c r="I11" s="74"/>
@@ -14380,14 +14380,14 @@
       <c r="BW11" s="132"/>
     </row>
     <row r="12" spans="1:75">
-      <c r="A12" s="464"/>
-      <c r="B12" s="465"/>
-      <c r="C12" s="464"/>
-      <c r="D12" s="466"/>
-      <c r="E12" s="443" t="s">
+      <c r="A12" s="468"/>
+      <c r="B12" s="474"/>
+      <c r="C12" s="468"/>
+      <c r="D12" s="471"/>
+      <c r="E12" s="435" t="s">
         <v>392</v>
       </c>
-      <c r="F12" s="444"/>
+      <c r="F12" s="436"/>
       <c r="G12" s="74"/>
       <c r="H12" s="74"/>
       <c r="I12" s="74"/>
@@ -14439,22 +14439,22 @@
       <c r="BW12" s="132"/>
     </row>
     <row r="13" spans="1:75" ht="15.6" customHeight="1">
-      <c r="A13" s="464" t="s">
+      <c r="A13" s="468" t="s">
         <v>315</v>
       </c>
-      <c r="B13" s="465" t="s">
+      <c r="B13" s="474" t="s">
         <v>316</v>
       </c>
-      <c r="C13" s="464" t="s">
+      <c r="C13" s="468" t="s">
         <v>317</v>
       </c>
-      <c r="D13" s="466" t="s">
+      <c r="D13" s="471" t="s">
         <v>318</v>
       </c>
-      <c r="E13" s="443" t="s">
-        <v>443</v>
+      <c r="E13" s="435" t="s">
+        <v>579</v>
       </c>
-      <c r="F13" s="444"/>
+      <c r="F13" s="436"/>
       <c r="G13" s="74"/>
       <c r="H13" s="74"/>
       <c r="I13" s="74"/>
@@ -14506,14 +14506,14 @@
       <c r="BW13" s="132"/>
     </row>
     <row r="14" spans="1:75">
-      <c r="A14" s="464"/>
-      <c r="B14" s="465"/>
-      <c r="C14" s="464"/>
-      <c r="D14" s="466"/>
-      <c r="E14" s="443" t="s">
+      <c r="A14" s="468"/>
+      <c r="B14" s="474"/>
+      <c r="C14" s="468"/>
+      <c r="D14" s="471"/>
+      <c r="E14" s="435" t="s">
         <v>393</v>
       </c>
-      <c r="F14" s="444"/>
+      <c r="F14" s="436"/>
       <c r="G14" s="74"/>
       <c r="H14" s="74"/>
       <c r="I14" s="74"/>
@@ -14565,22 +14565,22 @@
       <c r="BW14" s="132"/>
     </row>
     <row r="15" spans="1:75" ht="15.6" customHeight="1">
-      <c r="A15" s="464" t="s">
+      <c r="A15" s="468" t="s">
         <v>319</v>
       </c>
-      <c r="B15" s="465" t="s">
+      <c r="B15" s="474" t="s">
         <v>320</v>
       </c>
-      <c r="C15" s="464" t="s">
+      <c r="C15" s="468" t="s">
         <v>321</v>
       </c>
-      <c r="D15" s="466" t="s">
+      <c r="D15" s="471" t="s">
         <v>322</v>
       </c>
-      <c r="E15" s="443" t="s">
-        <v>444</v>
+      <c r="E15" s="435" t="s">
+        <v>580</v>
       </c>
-      <c r="F15" s="444"/>
+      <c r="F15" s="436"/>
       <c r="G15" s="74"/>
       <c r="H15" s="74"/>
       <c r="I15" s="74"/>
@@ -14632,14 +14632,14 @@
       <c r="BW15" s="132"/>
     </row>
     <row r="16" spans="1:75">
-      <c r="A16" s="464"/>
-      <c r="B16" s="465"/>
-      <c r="C16" s="464"/>
-      <c r="D16" s="466"/>
-      <c r="E16" s="443" t="s">
+      <c r="A16" s="468"/>
+      <c r="B16" s="474"/>
+      <c r="C16" s="468"/>
+      <c r="D16" s="471"/>
+      <c r="E16" s="435" t="s">
         <v>394</v>
       </c>
-      <c r="F16" s="444"/>
+      <c r="F16" s="436"/>
       <c r="G16" s="74"/>
       <c r="H16" s="74"/>
       <c r="I16" s="74"/>
@@ -14686,22 +14686,22 @@
       <c r="BW16" s="132"/>
     </row>
     <row r="17" spans="1:75" ht="15.6" customHeight="1">
-      <c r="A17" s="464" t="s">
+      <c r="A17" s="468" t="s">
         <v>323</v>
       </c>
-      <c r="B17" s="465" t="s">
+      <c r="B17" s="474" t="s">
         <v>324</v>
       </c>
-      <c r="C17" s="464" t="s">
+      <c r="C17" s="468" t="s">
         <v>325</v>
       </c>
-      <c r="D17" s="466" t="s">
+      <c r="D17" s="471" t="s">
         <v>326</v>
       </c>
-      <c r="E17" s="443" t="s">
-        <v>445</v>
+      <c r="E17" s="435" t="s">
+        <v>581</v>
       </c>
-      <c r="F17" s="444"/>
+      <c r="F17" s="436"/>
       <c r="G17" s="74"/>
       <c r="H17" s="74"/>
       <c r="I17" s="74"/>
@@ -14748,14 +14748,14 @@
       <c r="BW17" s="132"/>
     </row>
     <row r="18" spans="1:75">
-      <c r="A18" s="464"/>
-      <c r="B18" s="465"/>
-      <c r="C18" s="464"/>
-      <c r="D18" s="466"/>
-      <c r="E18" s="443" t="s">
+      <c r="A18" s="468"/>
+      <c r="B18" s="474"/>
+      <c r="C18" s="468"/>
+      <c r="D18" s="471"/>
+      <c r="E18" s="435" t="s">
         <v>395</v>
       </c>
-      <c r="F18" s="444"/>
+      <c r="F18" s="436"/>
       <c r="G18" s="74"/>
       <c r="H18" s="74"/>
       <c r="I18" s="74"/>
@@ -14810,22 +14810,22 @@
       <c r="BW18" s="132"/>
     </row>
     <row r="19" spans="1:75" ht="15.6" customHeight="1">
-      <c r="A19" s="464" t="s">
+      <c r="A19" s="468" t="s">
         <v>327</v>
       </c>
-      <c r="B19" s="465" t="s">
+      <c r="B19" s="474" t="s">
         <v>328</v>
       </c>
-      <c r="C19" s="464" t="s">
+      <c r="C19" s="468" t="s">
         <v>329</v>
       </c>
-      <c r="D19" s="466" t="s">
+      <c r="D19" s="471" t="s">
         <v>330</v>
       </c>
-      <c r="E19" s="443" t="s">
-        <v>446</v>
+      <c r="E19" s="435" t="s">
+        <v>582</v>
       </c>
-      <c r="F19" s="444"/>
+      <c r="F19" s="436"/>
       <c r="G19" s="74"/>
       <c r="H19" s="74"/>
       <c r="I19" s="74"/>
@@ -14872,14 +14872,14 @@
       <c r="BW19" s="132"/>
     </row>
     <row r="20" spans="1:75">
-      <c r="A20" s="464"/>
-      <c r="B20" s="465"/>
-      <c r="C20" s="464"/>
-      <c r="D20" s="466"/>
-      <c r="E20" s="443" t="s">
+      <c r="A20" s="468"/>
+      <c r="B20" s="474"/>
+      <c r="C20" s="468"/>
+      <c r="D20" s="471"/>
+      <c r="E20" s="435" t="s">
         <v>396</v>
       </c>
-      <c r="F20" s="444"/>
+      <c r="F20" s="436"/>
       <c r="G20" s="74"/>
       <c r="H20" s="74"/>
       <c r="I20" s="74"/>
@@ -14926,22 +14926,22 @@
       <c r="BW20" s="132"/>
     </row>
     <row r="21" spans="1:75" ht="15.6" customHeight="1">
-      <c r="A21" s="464" t="s">
+      <c r="A21" s="468" t="s">
         <v>331</v>
       </c>
-      <c r="B21" s="465" t="s">
+      <c r="B21" s="474" t="s">
         <v>332</v>
       </c>
-      <c r="C21" s="464" t="s">
+      <c r="C21" s="468" t="s">
         <v>333</v>
       </c>
-      <c r="D21" s="466" t="s">
+      <c r="D21" s="471" t="s">
         <v>334</v>
       </c>
-      <c r="E21" s="443" t="s">
-        <v>447</v>
+      <c r="E21" s="435" t="s">
+        <v>583</v>
       </c>
-      <c r="F21" s="444"/>
+      <c r="F21" s="436"/>
       <c r="G21" s="74"/>
       <c r="H21" s="74"/>
       <c r="I21" s="74"/>
@@ -14988,14 +14988,14 @@
       <c r="BW21" s="132"/>
     </row>
     <row r="22" spans="1:75">
-      <c r="A22" s="464"/>
-      <c r="B22" s="465"/>
-      <c r="C22" s="464"/>
-      <c r="D22" s="466"/>
-      <c r="E22" s="443" t="s">
+      <c r="A22" s="468"/>
+      <c r="B22" s="474"/>
+      <c r="C22" s="468"/>
+      <c r="D22" s="471"/>
+      <c r="E22" s="435" t="s">
         <v>397</v>
       </c>
-      <c r="F22" s="444"/>
+      <c r="F22" s="436"/>
       <c r="G22" s="74"/>
       <c r="H22" s="74"/>
       <c r="I22" s="74"/>
@@ -15042,22 +15042,22 @@
       <c r="BW22" s="132"/>
     </row>
     <row r="23" spans="1:75" ht="15.6" customHeight="1">
-      <c r="A23" s="464" t="s">
+      <c r="A23" s="468" t="s">
         <v>335</v>
       </c>
-      <c r="B23" s="465" t="s">
+      <c r="B23" s="474" t="s">
         <v>336</v>
       </c>
-      <c r="C23" s="464" t="s">
+      <c r="C23" s="468" t="s">
         <v>337</v>
       </c>
-      <c r="D23" s="466" t="s">
+      <c r="D23" s="471" t="s">
         <v>338</v>
       </c>
-      <c r="E23" s="443" t="s">
-        <v>448</v>
+      <c r="E23" s="435" t="s">
+        <v>584</v>
       </c>
-      <c r="F23" s="444"/>
+      <c r="F23" s="436"/>
       <c r="G23" s="74"/>
       <c r="H23" s="74"/>
       <c r="I23" s="74"/>
@@ -15104,14 +15104,14 @@
       <c r="BW23" s="132"/>
     </row>
     <row r="24" spans="1:75">
-      <c r="A24" s="464"/>
-      <c r="B24" s="465"/>
-      <c r="C24" s="464"/>
-      <c r="D24" s="466"/>
-      <c r="E24" s="443" t="s">
+      <c r="A24" s="468"/>
+      <c r="B24" s="474"/>
+      <c r="C24" s="468"/>
+      <c r="D24" s="471"/>
+      <c r="E24" s="435" t="s">
         <v>398</v>
       </c>
-      <c r="F24" s="444"/>
+      <c r="F24" s="436"/>
       <c r="G24" s="74"/>
       <c r="H24" s="74"/>
       <c r="I24" s="74"/>
@@ -15158,22 +15158,22 @@
       <c r="BW24" s="132"/>
     </row>
     <row r="25" spans="1:75" ht="15.6" customHeight="1">
-      <c r="A25" s="464" t="s">
+      <c r="A25" s="468" t="s">
         <v>339</v>
       </c>
-      <c r="B25" s="465" t="s">
+      <c r="B25" s="474" t="s">
         <v>340</v>
       </c>
-      <c r="C25" s="464" t="s">
+      <c r="C25" s="468" t="s">
         <v>341</v>
       </c>
-      <c r="D25" s="466" t="s">
+      <c r="D25" s="471" t="s">
         <v>342</v>
       </c>
-      <c r="E25" s="443" t="s">
-        <v>449</v>
+      <c r="E25" s="435" t="s">
+        <v>585</v>
       </c>
-      <c r="F25" s="444"/>
+      <c r="F25" s="436"/>
       <c r="G25" s="74"/>
       <c r="H25" s="74"/>
       <c r="I25" s="74"/>
@@ -15220,14 +15220,14 @@
       <c r="BW25" s="132"/>
     </row>
     <row r="26" spans="1:75">
-      <c r="A26" s="464"/>
-      <c r="B26" s="465"/>
-      <c r="C26" s="464"/>
-      <c r="D26" s="466"/>
-      <c r="E26" s="443" t="s">
+      <c r="A26" s="468"/>
+      <c r="B26" s="474"/>
+      <c r="C26" s="468"/>
+      <c r="D26" s="471"/>
+      <c r="E26" s="435" t="s">
         <v>399</v>
       </c>
-      <c r="F26" s="444"/>
+      <c r="F26" s="436"/>
       <c r="G26" s="74"/>
       <c r="H26" s="74"/>
       <c r="I26" s="74"/>
@@ -15274,22 +15274,22 @@
       <c r="BW26" s="132"/>
     </row>
     <row r="27" spans="1:75" ht="15.6" customHeight="1">
-      <c r="A27" s="464" t="s">
+      <c r="A27" s="468" t="s">
         <v>343</v>
       </c>
-      <c r="B27" s="465" t="s">
+      <c r="B27" s="474" t="s">
         <v>344</v>
       </c>
-      <c r="C27" s="464" t="s">
+      <c r="C27" s="468" t="s">
         <v>345</v>
       </c>
-      <c r="D27" s="466" t="s">
+      <c r="D27" s="471" t="s">
         <v>346</v>
       </c>
-      <c r="E27" s="443" t="s">
-        <v>450</v>
+      <c r="E27" s="435" t="s">
+        <v>586</v>
       </c>
-      <c r="F27" s="444"/>
+      <c r="F27" s="436"/>
       <c r="G27" s="74"/>
       <c r="H27" s="74"/>
       <c r="I27" s="74"/>
@@ -15336,14 +15336,14 @@
       <c r="BW27" s="132"/>
     </row>
     <row r="28" spans="1:75">
-      <c r="A28" s="464"/>
-      <c r="B28" s="465"/>
-      <c r="C28" s="464"/>
-      <c r="D28" s="466"/>
-      <c r="E28" s="443" t="s">
+      <c r="A28" s="468"/>
+      <c r="B28" s="474"/>
+      <c r="C28" s="468"/>
+      <c r="D28" s="471"/>
+      <c r="E28" s="435" t="s">
         <v>400</v>
       </c>
-      <c r="F28" s="444"/>
+      <c r="F28" s="436"/>
       <c r="G28" s="74"/>
       <c r="H28" s="74"/>
       <c r="I28" s="74"/>
@@ -15390,22 +15390,22 @@
       <c r="BW28" s="132"/>
     </row>
     <row r="29" spans="1:75" ht="15.6" customHeight="1">
-      <c r="A29" s="464" t="s">
+      <c r="A29" s="468" t="s">
         <v>347</v>
       </c>
-      <c r="B29" s="465" t="s">
+      <c r="B29" s="474" t="s">
         <v>348</v>
       </c>
-      <c r="C29" s="464" t="s">
+      <c r="C29" s="468" t="s">
         <v>349</v>
       </c>
-      <c r="D29" s="466" t="s">
+      <c r="D29" s="471" t="s">
         <v>350</v>
       </c>
-      <c r="E29" s="443" t="s">
-        <v>451</v>
+      <c r="E29" s="435" t="s">
+        <v>587</v>
       </c>
-      <c r="F29" s="444"/>
+      <c r="F29" s="436"/>
       <c r="G29" s="74"/>
       <c r="H29" s="74"/>
       <c r="I29" s="74"/>
@@ -15452,14 +15452,14 @@
       <c r="BW29" s="132"/>
     </row>
     <row r="30" spans="1:75">
-      <c r="A30" s="464"/>
-      <c r="B30" s="465"/>
-      <c r="C30" s="464"/>
-      <c r="D30" s="466"/>
-      <c r="E30" s="443" t="s">
+      <c r="A30" s="468"/>
+      <c r="B30" s="474"/>
+      <c r="C30" s="468"/>
+      <c r="D30" s="471"/>
+      <c r="E30" s="435" t="s">
         <v>401</v>
       </c>
-      <c r="F30" s="444"/>
+      <c r="F30" s="436"/>
       <c r="G30" s="74"/>
       <c r="H30" s="74"/>
       <c r="I30" s="74"/>
@@ -15506,22 +15506,22 @@
       <c r="BW30" s="132"/>
     </row>
     <row r="31" spans="1:75" ht="15.6" customHeight="1">
-      <c r="A31" s="464" t="s">
+      <c r="A31" s="468" t="s">
         <v>351</v>
       </c>
-      <c r="B31" s="465" t="s">
+      <c r="B31" s="474" t="s">
         <v>352</v>
       </c>
-      <c r="C31" s="464" t="s">
+      <c r="C31" s="468" t="s">
         <v>353</v>
       </c>
-      <c r="D31" s="466" t="s">
+      <c r="D31" s="471" t="s">
         <v>354</v>
       </c>
-      <c r="E31" s="443" t="s">
-        <v>452</v>
+      <c r="E31" s="435" t="s">
+        <v>588</v>
       </c>
-      <c r="F31" s="444"/>
+      <c r="F31" s="436"/>
       <c r="G31" s="74"/>
       <c r="H31" s="74"/>
       <c r="I31" s="74"/>
@@ -15568,14 +15568,14 @@
       <c r="BW31" s="132"/>
     </row>
     <row r="32" spans="1:75">
-      <c r="A32" s="464"/>
-      <c r="B32" s="465"/>
-      <c r="C32" s="464"/>
-      <c r="D32" s="466"/>
-      <c r="E32" s="443" t="s">
+      <c r="A32" s="468"/>
+      <c r="B32" s="474"/>
+      <c r="C32" s="468"/>
+      <c r="D32" s="471"/>
+      <c r="E32" s="435" t="s">
         <v>402</v>
       </c>
-      <c r="F32" s="444"/>
+      <c r="F32" s="436"/>
       <c r="G32" s="74"/>
       <c r="H32" s="74"/>
       <c r="I32" s="74"/>
@@ -15622,22 +15622,22 @@
       <c r="BW32" s="132"/>
     </row>
     <row r="33" spans="1:75" ht="15.6" customHeight="1">
-      <c r="A33" s="464" t="s">
+      <c r="A33" s="468" t="s">
         <v>355</v>
       </c>
-      <c r="B33" s="465" t="s">
+      <c r="B33" s="474" t="s">
         <v>356</v>
       </c>
-      <c r="C33" s="464" t="s">
+      <c r="C33" s="468" t="s">
         <v>357</v>
       </c>
-      <c r="D33" s="466" t="s">
+      <c r="D33" s="471" t="s">
         <v>358</v>
       </c>
-      <c r="E33" s="443" t="s">
-        <v>453</v>
+      <c r="E33" s="435" t="s">
+        <v>589</v>
       </c>
-      <c r="F33" s="444"/>
+      <c r="F33" s="436"/>
       <c r="G33" s="74"/>
       <c r="H33" s="74"/>
       <c r="I33" s="74"/>
@@ -15684,14 +15684,14 @@
       <c r="BW33" s="132"/>
     </row>
     <row r="34" spans="1:75">
-      <c r="A34" s="464"/>
-      <c r="B34" s="465"/>
-      <c r="C34" s="464"/>
-      <c r="D34" s="466"/>
-      <c r="E34" s="443" t="s">
+      <c r="A34" s="468"/>
+      <c r="B34" s="474"/>
+      <c r="C34" s="468"/>
+      <c r="D34" s="471"/>
+      <c r="E34" s="435" t="s">
         <v>403</v>
       </c>
-      <c r="F34" s="444"/>
+      <c r="F34" s="436"/>
       <c r="G34" s="74"/>
       <c r="H34" s="74"/>
       <c r="I34" s="74"/>
@@ -15738,22 +15738,22 @@
       <c r="BW34" s="132"/>
     </row>
     <row r="35" spans="1:75" ht="15.6" customHeight="1">
-      <c r="A35" s="464" t="s">
+      <c r="A35" s="468" t="s">
         <v>359</v>
       </c>
-      <c r="B35" s="465" t="s">
+      <c r="B35" s="474" t="s">
         <v>360</v>
       </c>
-      <c r="C35" s="464" t="s">
+      <c r="C35" s="468" t="s">
         <v>361</v>
       </c>
-      <c r="D35" s="466" t="s">
+      <c r="D35" s="471" t="s">
         <v>362</v>
       </c>
-      <c r="E35" s="443" t="s">
-        <v>454</v>
+      <c r="E35" s="435" t="s">
+        <v>590</v>
       </c>
-      <c r="F35" s="444"/>
+      <c r="F35" s="436"/>
       <c r="G35" s="74"/>
       <c r="H35" s="74"/>
       <c r="I35" s="74"/>
@@ -15800,14 +15800,14 @@
       <c r="BW35" s="132"/>
     </row>
     <row r="36" spans="1:75">
-      <c r="A36" s="464"/>
-      <c r="B36" s="465"/>
-      <c r="C36" s="464"/>
-      <c r="D36" s="466"/>
-      <c r="E36" s="443" t="s">
+      <c r="A36" s="468"/>
+      <c r="B36" s="474"/>
+      <c r="C36" s="468"/>
+      <c r="D36" s="471"/>
+      <c r="E36" s="435" t="s">
         <v>404</v>
       </c>
-      <c r="F36" s="444"/>
+      <c r="F36" s="436"/>
       <c r="G36" s="74"/>
       <c r="H36" s="74"/>
       <c r="I36" s="74"/>
@@ -15854,22 +15854,22 @@
       <c r="BW36" s="132"/>
     </row>
     <row r="37" spans="1:75" ht="15.6" customHeight="1">
-      <c r="A37" s="464" t="s">
+      <c r="A37" s="468" t="s">
         <v>363</v>
       </c>
-      <c r="B37" s="465" t="s">
+      <c r="B37" s="474" t="s">
         <v>364</v>
       </c>
-      <c r="C37" s="464" t="s">
+      <c r="C37" s="468" t="s">
         <v>365</v>
       </c>
-      <c r="D37" s="466" t="s">
+      <c r="D37" s="471" t="s">
         <v>366</v>
       </c>
-      <c r="E37" s="443" t="s">
-        <v>455</v>
+      <c r="E37" s="435" t="s">
+        <v>591</v>
       </c>
-      <c r="F37" s="444"/>
+      <c r="F37" s="436"/>
       <c r="G37" s="74"/>
       <c r="H37" s="74"/>
       <c r="I37" s="74"/>
@@ -15916,14 +15916,14 @@
       <c r="BW37" s="132"/>
     </row>
     <row r="38" spans="1:75">
-      <c r="A38" s="464"/>
-      <c r="B38" s="465"/>
-      <c r="C38" s="464"/>
-      <c r="D38" s="466"/>
-      <c r="E38" s="443" t="s">
+      <c r="A38" s="468"/>
+      <c r="B38" s="474"/>
+      <c r="C38" s="468"/>
+      <c r="D38" s="471"/>
+      <c r="E38" s="435" t="s">
         <v>405</v>
       </c>
-      <c r="F38" s="444"/>
+      <c r="F38" s="436"/>
       <c r="G38" s="74"/>
       <c r="H38" s="74"/>
       <c r="I38" s="74"/>
@@ -15970,22 +15970,22 @@
       <c r="BW38" s="132"/>
     </row>
     <row r="39" spans="1:75" ht="15.6" customHeight="1">
-      <c r="A39" s="464" t="s">
+      <c r="A39" s="468" t="s">
         <v>367</v>
       </c>
-      <c r="B39" s="465" t="s">
+      <c r="B39" s="474" t="s">
         <v>368</v>
       </c>
-      <c r="C39" s="464" t="s">
+      <c r="C39" s="468" t="s">
         <v>369</v>
       </c>
-      <c r="D39" s="466" t="s">
+      <c r="D39" s="471" t="s">
         <v>370</v>
       </c>
-      <c r="E39" s="443" t="s">
-        <v>456</v>
+      <c r="E39" s="435" t="s">
+        <v>592</v>
       </c>
-      <c r="F39" s="444"/>
+      <c r="F39" s="436"/>
       <c r="G39" s="74"/>
       <c r="H39" s="74"/>
       <c r="I39" s="74"/>
@@ -16032,14 +16032,14 @@
       <c r="BW39" s="132"/>
     </row>
     <row r="40" spans="1:75">
-      <c r="A40" s="464"/>
-      <c r="B40" s="465"/>
-      <c r="C40" s="464"/>
-      <c r="D40" s="466"/>
-      <c r="E40" s="443" t="s">
+      <c r="A40" s="468"/>
+      <c r="B40" s="474"/>
+      <c r="C40" s="468"/>
+      <c r="D40" s="471"/>
+      <c r="E40" s="435" t="s">
         <v>406</v>
       </c>
-      <c r="F40" s="444"/>
+      <c r="F40" s="436"/>
       <c r="G40" s="74"/>
       <c r="H40" s="74"/>
       <c r="I40" s="74"/>
@@ -16110,18 +16110,18 @@
       <c r="BW40" s="134"/>
     </row>
     <row r="41" spans="1:75" ht="22.2" customHeight="1">
-      <c r="A41" s="435" t="s">
-        <v>589</v>
+      <c r="A41" s="482" t="s">
+        <v>572</v>
       </c>
-      <c r="B41" s="436"/>
-      <c r="C41" s="436"/>
-      <c r="D41" s="436"/>
-      <c r="E41" s="437"/>
-      <c r="F41" s="438"/>
-      <c r="G41" s="439" t="s">
-        <v>532</v>
+      <c r="B41" s="483"/>
+      <c r="C41" s="483"/>
+      <c r="D41" s="483"/>
+      <c r="E41" s="484"/>
+      <c r="F41" s="485"/>
+      <c r="G41" s="480" t="s">
+        <v>515</v>
       </c>
-      <c r="H41" s="440"/>
+      <c r="H41" s="481"/>
       <c r="I41" s="74"/>
       <c r="J41" s="74"/>
       <c r="K41" s="74"/>
@@ -16189,18 +16189,18 @@
       <c r="BW41" s="105"/>
     </row>
     <row r="42" spans="1:75" ht="21.6" customHeight="1">
-      <c r="A42" s="435" t="s">
-        <v>588</v>
+      <c r="A42" s="482" t="s">
+        <v>571</v>
       </c>
-      <c r="B42" s="436"/>
-      <c r="C42" s="436"/>
-      <c r="D42" s="436"/>
-      <c r="E42" s="437"/>
-      <c r="F42" s="438"/>
-      <c r="G42" s="439" t="s">
-        <v>582</v>
+      <c r="B42" s="483"/>
+      <c r="C42" s="483"/>
+      <c r="D42" s="483"/>
+      <c r="E42" s="484"/>
+      <c r="F42" s="485"/>
+      <c r="G42" s="480" t="s">
+        <v>565</v>
       </c>
-      <c r="H42" s="440"/>
+      <c r="H42" s="481"/>
       <c r="I42" s="74"/>
       <c r="J42" s="74"/>
       <c r="K42" s="74"/>
@@ -16268,18 +16268,18 @@
       <c r="BW42" s="105"/>
     </row>
     <row r="43" spans="1:75" ht="37.799999999999997" customHeight="1">
-      <c r="A43" s="451" t="s">
-        <v>590</v>
+      <c r="A43" s="506" t="s">
+        <v>573</v>
       </c>
-      <c r="B43" s="452"/>
-      <c r="C43" s="452"/>
-      <c r="D43" s="452"/>
-      <c r="E43" s="452"/>
-      <c r="F43" s="453"/>
-      <c r="G43" s="441" t="s">
-        <v>548</v>
+      <c r="B43" s="507"/>
+      <c r="C43" s="507"/>
+      <c r="D43" s="507"/>
+      <c r="E43" s="507"/>
+      <c r="F43" s="508"/>
+      <c r="G43" s="502" t="s">
+        <v>531</v>
       </c>
-      <c r="H43" s="442"/>
+      <c r="H43" s="503"/>
       <c r="I43" s="74"/>
       <c r="J43" s="74"/>
       <c r="K43" s="74"/>
@@ -16347,18 +16347,18 @@
       <c r="BW43" s="105"/>
     </row>
     <row r="44" spans="1:75">
-      <c r="A44" s="445" t="s">
-        <v>526</v>
+      <c r="A44" s="443" t="s">
+        <v>509</v>
       </c>
-      <c r="B44" s="446"/>
-      <c r="C44" s="431" t="s">
-        <v>527</v>
+      <c r="B44" s="444"/>
+      <c r="C44" s="447" t="s">
+        <v>510</v>
       </c>
-      <c r="D44" s="432"/>
-      <c r="E44" s="443" t="s">
-        <v>583</v>
+      <c r="D44" s="448"/>
+      <c r="E44" s="435" t="s">
+        <v>566</v>
       </c>
-      <c r="F44" s="444"/>
+      <c r="F44" s="436"/>
       <c r="G44" s="187"/>
       <c r="H44" s="187"/>
       <c r="I44" s="74"/>
@@ -16428,12 +16428,12 @@
       <c r="BW44" s="105"/>
     </row>
     <row r="45" spans="1:75" ht="15.6" hidden="1" customHeight="1">
-      <c r="A45" s="447"/>
-      <c r="B45" s="448"/>
-      <c r="C45" s="431"/>
-      <c r="D45" s="432"/>
-      <c r="E45" s="443"/>
-      <c r="F45" s="444"/>
+      <c r="A45" s="445"/>
+      <c r="B45" s="446"/>
+      <c r="C45" s="447"/>
+      <c r="D45" s="448"/>
+      <c r="E45" s="435"/>
+      <c r="F45" s="436"/>
       <c r="G45" s="187"/>
       <c r="H45" s="187"/>
       <c r="I45" s="74"/>
@@ -16503,16 +16503,16 @@
       <c r="BW45" s="105"/>
     </row>
     <row r="46" spans="1:75">
-      <c r="A46" s="447"/>
-      <c r="B46" s="448"/>
-      <c r="C46" s="431" t="s">
-        <v>528</v>
+      <c r="A46" s="445"/>
+      <c r="B46" s="446"/>
+      <c r="C46" s="447" t="s">
+        <v>511</v>
       </c>
-      <c r="D46" s="432"/>
-      <c r="E46" s="443" t="s">
-        <v>584</v>
+      <c r="D46" s="448"/>
+      <c r="E46" s="435" t="s">
+        <v>567</v>
       </c>
-      <c r="F46" s="444"/>
+      <c r="F46" s="436"/>
       <c r="G46" s="187"/>
       <c r="H46" s="187"/>
       <c r="I46" s="74"/>
@@ -16582,12 +16582,12 @@
       <c r="BW46" s="105"/>
     </row>
     <row r="47" spans="1:75" ht="15.6" hidden="1" customHeight="1">
-      <c r="A47" s="447"/>
-      <c r="B47" s="448"/>
-      <c r="C47" s="431"/>
-      <c r="D47" s="432"/>
-      <c r="E47" s="443"/>
-      <c r="F47" s="444"/>
+      <c r="A47" s="445"/>
+      <c r="B47" s="446"/>
+      <c r="C47" s="447"/>
+      <c r="D47" s="448"/>
+      <c r="E47" s="435"/>
+      <c r="F47" s="436"/>
       <c r="G47" s="187"/>
       <c r="H47" s="187"/>
       <c r="I47" s="74"/>
@@ -16657,16 +16657,16 @@
       <c r="BW47" s="105"/>
     </row>
     <row r="48" spans="1:75">
-      <c r="A48" s="447"/>
-      <c r="B48" s="448"/>
-      <c r="C48" s="431" t="s">
-        <v>529</v>
+      <c r="A48" s="445"/>
+      <c r="B48" s="446"/>
+      <c r="C48" s="447" t="s">
+        <v>512</v>
       </c>
-      <c r="D48" s="432"/>
-      <c r="E48" s="443" t="s">
-        <v>585</v>
+      <c r="D48" s="448"/>
+      <c r="E48" s="435" t="s">
+        <v>568</v>
       </c>
-      <c r="F48" s="444"/>
+      <c r="F48" s="436"/>
       <c r="G48" s="187"/>
       <c r="H48" s="187"/>
       <c r="I48" s="74"/>
@@ -16736,12 +16736,12 @@
       <c r="BW48" s="105"/>
     </row>
     <row r="49" spans="1:75" ht="15.6" hidden="1" customHeight="1">
-      <c r="A49" s="447"/>
-      <c r="B49" s="448"/>
-      <c r="C49" s="431"/>
-      <c r="D49" s="432"/>
-      <c r="E49" s="443"/>
-      <c r="F49" s="444"/>
+      <c r="A49" s="445"/>
+      <c r="B49" s="446"/>
+      <c r="C49" s="447"/>
+      <c r="D49" s="448"/>
+      <c r="E49" s="435"/>
+      <c r="F49" s="436"/>
       <c r="G49" s="187"/>
       <c r="H49" s="187"/>
       <c r="I49" s="74"/>
@@ -16811,16 +16811,16 @@
       <c r="BW49" s="105"/>
     </row>
     <row r="50" spans="1:75">
-      <c r="A50" s="447"/>
-      <c r="B50" s="448"/>
-      <c r="C50" s="431" t="s">
-        <v>530</v>
+      <c r="A50" s="445"/>
+      <c r="B50" s="446"/>
+      <c r="C50" s="447" t="s">
+        <v>513</v>
       </c>
-      <c r="D50" s="432"/>
-      <c r="E50" s="443" t="s">
-        <v>586</v>
+      <c r="D50" s="448"/>
+      <c r="E50" s="435" t="s">
+        <v>569</v>
       </c>
-      <c r="F50" s="444"/>
+      <c r="F50" s="436"/>
       <c r="G50" s="187"/>
       <c r="H50" s="187"/>
       <c r="I50" s="74"/>
@@ -16890,12 +16890,12 @@
       <c r="BW50" s="105"/>
     </row>
     <row r="51" spans="1:75" ht="15.6" hidden="1" customHeight="1">
-      <c r="A51" s="447"/>
-      <c r="B51" s="448"/>
-      <c r="C51" s="431"/>
-      <c r="D51" s="432"/>
-      <c r="E51" s="443"/>
-      <c r="F51" s="444"/>
+      <c r="A51" s="445"/>
+      <c r="B51" s="446"/>
+      <c r="C51" s="447"/>
+      <c r="D51" s="448"/>
+      <c r="E51" s="435"/>
+      <c r="F51" s="436"/>
       <c r="G51" s="187"/>
       <c r="H51" s="187"/>
       <c r="I51" s="74"/>
@@ -16965,16 +16965,16 @@
       <c r="BW51" s="105"/>
     </row>
     <row r="52" spans="1:75">
-      <c r="A52" s="447"/>
-      <c r="B52" s="448"/>
-      <c r="C52" s="431" t="s">
-        <v>531</v>
+      <c r="A52" s="445"/>
+      <c r="B52" s="446"/>
+      <c r="C52" s="447" t="s">
+        <v>514</v>
       </c>
-      <c r="D52" s="432"/>
-      <c r="E52" s="443" t="s">
-        <v>587</v>
+      <c r="D52" s="448"/>
+      <c r="E52" s="435" t="s">
+        <v>570</v>
       </c>
-      <c r="F52" s="444"/>
+      <c r="F52" s="436"/>
       <c r="G52" s="187"/>
       <c r="H52" s="187"/>
       <c r="I52" s="74"/>
@@ -17044,12 +17044,12 @@
       <c r="BW52" s="105"/>
     </row>
     <row r="53" spans="1:75" ht="15.6" hidden="1" customHeight="1">
-      <c r="A53" s="449"/>
-      <c r="B53" s="450"/>
-      <c r="C53" s="433"/>
-      <c r="D53" s="434"/>
-      <c r="E53" s="443"/>
-      <c r="F53" s="444"/>
+      <c r="A53" s="504"/>
+      <c r="B53" s="505"/>
+      <c r="C53" s="500"/>
+      <c r="D53" s="501"/>
+      <c r="E53" s="435"/>
+      <c r="F53" s="436"/>
       <c r="G53" s="187"/>
       <c r="H53" s="187"/>
       <c r="I53" s="74"/>
@@ -17119,18 +17119,18 @@
       <c r="BW53" s="105"/>
     </row>
     <row r="54" spans="1:75" s="136" customFormat="1" ht="15" customHeight="1">
-      <c r="A54" s="495" t="s">
+      <c r="A54" s="449" t="s">
         <v>302</v>
       </c>
-      <c r="B54" s="496"/>
-      <c r="C54" s="499" t="s">
+      <c r="B54" s="450"/>
+      <c r="C54" s="431" t="s">
         <v>371</v>
       </c>
-      <c r="D54" s="500"/>
-      <c r="E54" s="443" t="s">
-        <v>457</v>
+      <c r="D54" s="432"/>
+      <c r="E54" s="435" t="s">
+        <v>440</v>
       </c>
-      <c r="F54" s="444"/>
+      <c r="F54" s="436"/>
       <c r="G54" s="74"/>
       <c r="H54" s="74"/>
       <c r="I54" s="74"/>
@@ -17200,14 +17200,14 @@
       <c r="BW54" s="137"/>
     </row>
     <row r="55" spans="1:75" s="136" customFormat="1" ht="15.6" customHeight="1">
-      <c r="A55" s="497"/>
-      <c r="B55" s="498"/>
-      <c r="C55" s="501"/>
-      <c r="D55" s="502"/>
-      <c r="E55" s="443" t="s">
+      <c r="A55" s="451"/>
+      <c r="B55" s="452"/>
+      <c r="C55" s="433"/>
+      <c r="D55" s="434"/>
+      <c r="E55" s="435" t="s">
         <v>407</v>
       </c>
-      <c r="F55" s="444"/>
+      <c r="F55" s="436"/>
       <c r="G55" s="74"/>
       <c r="H55" s="74"/>
       <c r="I55" s="74"/>
@@ -17277,16 +17277,16 @@
       <c r="BW55" s="137"/>
     </row>
     <row r="56" spans="1:75" s="136" customFormat="1" ht="15.6" customHeight="1">
-      <c r="A56" s="497"/>
-      <c r="B56" s="498"/>
-      <c r="C56" s="499" t="s">
+      <c r="A56" s="451"/>
+      <c r="B56" s="452"/>
+      <c r="C56" s="431" t="s">
         <v>372</v>
       </c>
-      <c r="D56" s="500"/>
-      <c r="E56" s="443" t="s">
-        <v>458</v>
+      <c r="D56" s="432"/>
+      <c r="E56" s="435" t="s">
+        <v>441</v>
       </c>
-      <c r="F56" s="444"/>
+      <c r="F56" s="436"/>
       <c r="G56" s="74"/>
       <c r="H56" s="74"/>
       <c r="I56" s="74"/>
@@ -17356,14 +17356,14 @@
       <c r="BW56" s="137"/>
     </row>
     <row r="57" spans="1:75" s="136" customFormat="1" ht="15.6" customHeight="1">
-      <c r="A57" s="497"/>
-      <c r="B57" s="498"/>
-      <c r="C57" s="501"/>
-      <c r="D57" s="502"/>
-      <c r="E57" s="443" t="s">
+      <c r="A57" s="451"/>
+      <c r="B57" s="452"/>
+      <c r="C57" s="433"/>
+      <c r="D57" s="434"/>
+      <c r="E57" s="435" t="s">
         <v>408</v>
       </c>
-      <c r="F57" s="444"/>
+      <c r="F57" s="436"/>
       <c r="G57" s="74"/>
       <c r="H57" s="74"/>
       <c r="I57" s="74"/>
@@ -17433,16 +17433,16 @@
       <c r="BW57" s="137"/>
     </row>
     <row r="58" spans="1:75" s="136" customFormat="1" ht="15.6" customHeight="1">
-      <c r="A58" s="497"/>
-      <c r="B58" s="498"/>
-      <c r="C58" s="499" t="s">
+      <c r="A58" s="451"/>
+      <c r="B58" s="452"/>
+      <c r="C58" s="431" t="s">
         <v>373</v>
       </c>
-      <c r="D58" s="500"/>
-      <c r="E58" s="443" t="s">
-        <v>459</v>
+      <c r="D58" s="432"/>
+      <c r="E58" s="435" t="s">
+        <v>442</v>
       </c>
-      <c r="F58" s="444"/>
+      <c r="F58" s="436"/>
       <c r="G58" s="74"/>
       <c r="H58" s="74"/>
       <c r="I58" s="74"/>
@@ -17467,10 +17467,10 @@
       <c r="AD58" s="74"/>
       <c r="AE58" s="74"/>
       <c r="AF58" s="74"/>
-      <c r="AG58" s="481"/>
-      <c r="AH58" s="481"/>
-      <c r="AI58" s="481"/>
-      <c r="AJ58" s="481"/>
+      <c r="AG58" s="456"/>
+      <c r="AH58" s="456"/>
+      <c r="AI58" s="456"/>
+      <c r="AJ58" s="456"/>
       <c r="AK58" s="137"/>
       <c r="AL58" s="137"/>
       <c r="AM58" s="137"/>
@@ -17512,14 +17512,14 @@
       <c r="BW58" s="137"/>
     </row>
     <row r="59" spans="1:75" s="136" customFormat="1" ht="15.6" customHeight="1">
-      <c r="A59" s="497"/>
-      <c r="B59" s="498"/>
-      <c r="C59" s="501"/>
-      <c r="D59" s="502"/>
-      <c r="E59" s="443" t="s">
+      <c r="A59" s="451"/>
+      <c r="B59" s="452"/>
+      <c r="C59" s="433"/>
+      <c r="D59" s="434"/>
+      <c r="E59" s="435" t="s">
         <v>409</v>
       </c>
-      <c r="F59" s="444"/>
+      <c r="F59" s="436"/>
       <c r="G59" s="74"/>
       <c r="H59" s="74"/>
       <c r="I59" s="74"/>
@@ -17589,16 +17589,16 @@
       <c r="BW59" s="137"/>
     </row>
     <row r="60" spans="1:75" s="136" customFormat="1" ht="15.6" customHeight="1">
-      <c r="A60" s="497"/>
-      <c r="B60" s="498"/>
-      <c r="C60" s="499" t="s">
+      <c r="A60" s="451"/>
+      <c r="B60" s="452"/>
+      <c r="C60" s="431" t="s">
         <v>374</v>
       </c>
-      <c r="D60" s="500"/>
-      <c r="E60" s="443" t="s">
-        <v>460</v>
+      <c r="D60" s="432"/>
+      <c r="E60" s="435" t="s">
+        <v>443</v>
       </c>
-      <c r="F60" s="444"/>
+      <c r="F60" s="436"/>
       <c r="G60" s="74"/>
       <c r="H60" s="74"/>
       <c r="I60" s="74"/>
@@ -17623,10 +17623,10 @@
       <c r="AD60" s="74"/>
       <c r="AE60" s="74"/>
       <c r="AF60" s="74"/>
-      <c r="AG60" s="481"/>
-      <c r="AH60" s="481"/>
-      <c r="AI60" s="481"/>
-      <c r="AJ60" s="481"/>
+      <c r="AG60" s="456"/>
+      <c r="AH60" s="456"/>
+      <c r="AI60" s="456"/>
+      <c r="AJ60" s="456"/>
       <c r="AK60" s="137"/>
       <c r="AL60" s="137"/>
       <c r="AM60" s="137"/>
@@ -17668,14 +17668,14 @@
       <c r="BW60" s="137"/>
     </row>
     <row r="61" spans="1:75" s="136" customFormat="1" ht="15.6" customHeight="1">
-      <c r="A61" s="497"/>
-      <c r="B61" s="498"/>
-      <c r="C61" s="501"/>
-      <c r="D61" s="502"/>
-      <c r="E61" s="443" t="s">
+      <c r="A61" s="451"/>
+      <c r="B61" s="452"/>
+      <c r="C61" s="433"/>
+      <c r="D61" s="434"/>
+      <c r="E61" s="435" t="s">
         <v>410</v>
       </c>
-      <c r="F61" s="444"/>
+      <c r="F61" s="436"/>
       <c r="G61" s="74"/>
       <c r="H61" s="74"/>
       <c r="I61" s="74"/>
@@ -17745,16 +17745,16 @@
       <c r="BW61" s="137"/>
     </row>
     <row r="62" spans="1:75" s="136" customFormat="1" ht="15.6" customHeight="1">
-      <c r="A62" s="497"/>
-      <c r="B62" s="498"/>
-      <c r="C62" s="499" t="s">
+      <c r="A62" s="451"/>
+      <c r="B62" s="452"/>
+      <c r="C62" s="431" t="s">
         <v>375</v>
       </c>
-      <c r="D62" s="500"/>
-      <c r="E62" s="443" t="s">
-        <v>461</v>
+      <c r="D62" s="432"/>
+      <c r="E62" s="435" t="s">
+        <v>444</v>
       </c>
-      <c r="F62" s="444"/>
+      <c r="F62" s="436"/>
       <c r="G62" s="74"/>
       <c r="H62" s="74"/>
       <c r="I62" s="74"/>
@@ -17779,10 +17779,10 @@
       <c r="AD62" s="74"/>
       <c r="AE62" s="74"/>
       <c r="AF62" s="74"/>
-      <c r="AG62" s="481"/>
-      <c r="AH62" s="481"/>
-      <c r="AI62" s="481"/>
-      <c r="AJ62" s="481"/>
+      <c r="AG62" s="456"/>
+      <c r="AH62" s="456"/>
+      <c r="AI62" s="456"/>
+      <c r="AJ62" s="456"/>
       <c r="AK62" s="137"/>
       <c r="AL62" s="137"/>
       <c r="AM62" s="137"/>
@@ -17824,14 +17824,14 @@
       <c r="BW62" s="137"/>
     </row>
     <row r="63" spans="1:75" s="136" customFormat="1" ht="15.6" customHeight="1">
-      <c r="A63" s="497"/>
-      <c r="B63" s="498"/>
-      <c r="C63" s="501"/>
-      <c r="D63" s="502"/>
-      <c r="E63" s="443" t="s">
+      <c r="A63" s="451"/>
+      <c r="B63" s="452"/>
+      <c r="C63" s="433"/>
+      <c r="D63" s="434"/>
+      <c r="E63" s="435" t="s">
         <v>411</v>
       </c>
-      <c r="F63" s="444"/>
+      <c r="F63" s="436"/>
       <c r="G63" s="74"/>
       <c r="H63" s="74"/>
       <c r="I63" s="74"/>
@@ -17901,16 +17901,16 @@
       <c r="BW63" s="137"/>
     </row>
     <row r="64" spans="1:75" s="136" customFormat="1" ht="15.6" customHeight="1">
-      <c r="A64" s="497"/>
-      <c r="B64" s="498"/>
-      <c r="C64" s="499" t="s">
+      <c r="A64" s="451"/>
+      <c r="B64" s="452"/>
+      <c r="C64" s="431" t="s">
         <v>376</v>
       </c>
-      <c r="D64" s="500"/>
-      <c r="E64" s="443" t="s">
-        <v>462</v>
+      <c r="D64" s="432"/>
+      <c r="E64" s="435" t="s">
+        <v>445</v>
       </c>
-      <c r="F64" s="444"/>
+      <c r="F64" s="436"/>
       <c r="G64" s="74"/>
       <c r="H64" s="74"/>
       <c r="I64" s="74"/>
@@ -17935,10 +17935,10 @@
       <c r="AD64" s="74"/>
       <c r="AE64" s="74"/>
       <c r="AF64" s="74"/>
-      <c r="AG64" s="481"/>
-      <c r="AH64" s="481"/>
-      <c r="AI64" s="481"/>
-      <c r="AJ64" s="481"/>
+      <c r="AG64" s="456"/>
+      <c r="AH64" s="456"/>
+      <c r="AI64" s="456"/>
+      <c r="AJ64" s="456"/>
       <c r="AK64" s="137"/>
       <c r="AL64" s="137"/>
       <c r="AM64" s="137"/>
@@ -17980,14 +17980,14 @@
       <c r="BW64" s="137"/>
     </row>
     <row r="65" spans="1:75" s="136" customFormat="1" ht="15.6" customHeight="1">
-      <c r="A65" s="497"/>
-      <c r="B65" s="498"/>
-      <c r="C65" s="501"/>
-      <c r="D65" s="502"/>
-      <c r="E65" s="443" t="s">
+      <c r="A65" s="451"/>
+      <c r="B65" s="452"/>
+      <c r="C65" s="433"/>
+      <c r="D65" s="434"/>
+      <c r="E65" s="435" t="s">
         <v>412</v>
       </c>
-      <c r="F65" s="444"/>
+      <c r="F65" s="436"/>
       <c r="G65" s="74"/>
       <c r="H65" s="74"/>
       <c r="I65" s="74"/>
@@ -18057,16 +18057,16 @@
       <c r="BW65" s="137"/>
     </row>
     <row r="66" spans="1:75" s="136" customFormat="1" ht="15.6" customHeight="1">
-      <c r="A66" s="497"/>
-      <c r="B66" s="498"/>
-      <c r="C66" s="499" t="s">
+      <c r="A66" s="451"/>
+      <c r="B66" s="452"/>
+      <c r="C66" s="431" t="s">
         <v>377</v>
       </c>
-      <c r="D66" s="500"/>
-      <c r="E66" s="443" t="s">
-        <v>463</v>
+      <c r="D66" s="432"/>
+      <c r="E66" s="435" t="s">
+        <v>446</v>
       </c>
-      <c r="F66" s="444"/>
+      <c r="F66" s="436"/>
       <c r="G66" s="74"/>
       <c r="H66" s="74"/>
       <c r="I66" s="74"/>
@@ -18091,10 +18091,10 @@
       <c r="AD66" s="74"/>
       <c r="AE66" s="74"/>
       <c r="AF66" s="74"/>
-      <c r="AG66" s="481"/>
-      <c r="AH66" s="481"/>
-      <c r="AI66" s="481"/>
-      <c r="AJ66" s="481"/>
+      <c r="AG66" s="456"/>
+      <c r="AH66" s="456"/>
+      <c r="AI66" s="456"/>
+      <c r="AJ66" s="456"/>
       <c r="AK66" s="137"/>
       <c r="AL66" s="137"/>
       <c r="AM66" s="137"/>
@@ -18136,14 +18136,14 @@
       <c r="BW66" s="137"/>
     </row>
     <row r="67" spans="1:75" s="136" customFormat="1" ht="15.6" customHeight="1">
-      <c r="A67" s="497"/>
-      <c r="B67" s="498"/>
-      <c r="C67" s="501"/>
-      <c r="D67" s="502"/>
-      <c r="E67" s="443" t="s">
+      <c r="A67" s="451"/>
+      <c r="B67" s="452"/>
+      <c r="C67" s="433"/>
+      <c r="D67" s="434"/>
+      <c r="E67" s="435" t="s">
         <v>413</v>
       </c>
-      <c r="F67" s="444"/>
+      <c r="F67" s="436"/>
       <c r="G67" s="74"/>
       <c r="H67" s="74"/>
       <c r="I67" s="74"/>
@@ -18213,16 +18213,16 @@
       <c r="BW67" s="137"/>
     </row>
     <row r="68" spans="1:75" s="136" customFormat="1" ht="15.6" customHeight="1">
-      <c r="A68" s="497"/>
-      <c r="B68" s="498"/>
-      <c r="C68" s="499" t="s">
+      <c r="A68" s="451"/>
+      <c r="B68" s="452"/>
+      <c r="C68" s="431" t="s">
         <v>378</v>
       </c>
-      <c r="D68" s="500"/>
-      <c r="E68" s="443" t="s">
-        <v>464</v>
+      <c r="D68" s="432"/>
+      <c r="E68" s="435" t="s">
+        <v>447</v>
       </c>
-      <c r="F68" s="444"/>
+      <c r="F68" s="436"/>
       <c r="G68" s="74"/>
       <c r="H68" s="74"/>
       <c r="I68" s="74"/>
@@ -18247,10 +18247,10 @@
       <c r="AD68" s="74"/>
       <c r="AE68" s="74"/>
       <c r="AF68" s="74"/>
-      <c r="AG68" s="481"/>
-      <c r="AH68" s="481"/>
-      <c r="AI68" s="481"/>
-      <c r="AJ68" s="481"/>
+      <c r="AG68" s="456"/>
+      <c r="AH68" s="456"/>
+      <c r="AI68" s="456"/>
+      <c r="AJ68" s="456"/>
       <c r="AK68" s="137"/>
       <c r="AL68" s="137"/>
       <c r="AM68" s="137"/>
@@ -18292,14 +18292,14 @@
       <c r="BW68" s="137"/>
     </row>
     <row r="69" spans="1:75" s="136" customFormat="1" ht="15.6" customHeight="1">
-      <c r="A69" s="497"/>
-      <c r="B69" s="498"/>
-      <c r="C69" s="501"/>
-      <c r="D69" s="502"/>
-      <c r="E69" s="443" t="s">
+      <c r="A69" s="451"/>
+      <c r="B69" s="452"/>
+      <c r="C69" s="433"/>
+      <c r="D69" s="434"/>
+      <c r="E69" s="435" t="s">
         <v>414</v>
       </c>
-      <c r="F69" s="444"/>
+      <c r="F69" s="436"/>
       <c r="G69" s="74"/>
       <c r="H69" s="74"/>
       <c r="I69" s="74"/>
@@ -18369,16 +18369,16 @@
       <c r="BW69" s="137"/>
     </row>
     <row r="70" spans="1:75" s="136" customFormat="1" ht="15.6" customHeight="1">
-      <c r="A70" s="497"/>
-      <c r="B70" s="498"/>
-      <c r="C70" s="499" t="s">
+      <c r="A70" s="451"/>
+      <c r="B70" s="452"/>
+      <c r="C70" s="431" t="s">
         <v>379</v>
       </c>
-      <c r="D70" s="500"/>
-      <c r="E70" s="443" t="s">
-        <v>465</v>
+      <c r="D70" s="432"/>
+      <c r="E70" s="435" t="s">
+        <v>448</v>
       </c>
-      <c r="F70" s="444"/>
+      <c r="F70" s="436"/>
       <c r="G70" s="74"/>
       <c r="H70" s="74"/>
       <c r="I70" s="74"/>
@@ -18403,10 +18403,10 @@
       <c r="AD70" s="74"/>
       <c r="AE70" s="74"/>
       <c r="AF70" s="74"/>
-      <c r="AG70" s="481"/>
-      <c r="AH70" s="481"/>
-      <c r="AI70" s="481"/>
-      <c r="AJ70" s="481"/>
+      <c r="AG70" s="456"/>
+      <c r="AH70" s="456"/>
+      <c r="AI70" s="456"/>
+      <c r="AJ70" s="456"/>
       <c r="AK70" s="137"/>
       <c r="AL70" s="139"/>
       <c r="AM70" s="137"/>
@@ -18448,14 +18448,14 @@
       <c r="BW70" s="137"/>
     </row>
     <row r="71" spans="1:75" s="136" customFormat="1" ht="15.6" customHeight="1">
-      <c r="A71" s="497"/>
-      <c r="B71" s="498"/>
-      <c r="C71" s="501"/>
-      <c r="D71" s="502"/>
-      <c r="E71" s="443" t="s">
+      <c r="A71" s="451"/>
+      <c r="B71" s="452"/>
+      <c r="C71" s="433"/>
+      <c r="D71" s="434"/>
+      <c r="E71" s="435" t="s">
         <v>415</v>
       </c>
-      <c r="F71" s="444"/>
+      <c r="F71" s="436"/>
       <c r="G71" s="74"/>
       <c r="H71" s="74"/>
       <c r="I71" s="74"/>
@@ -18525,16 +18525,16 @@
       <c r="BW71" s="137"/>
     </row>
     <row r="72" spans="1:75" s="136" customFormat="1" ht="15.6" customHeight="1">
-      <c r="A72" s="497"/>
-      <c r="B72" s="498"/>
-      <c r="C72" s="499" t="s">
+      <c r="A72" s="451"/>
+      <c r="B72" s="452"/>
+      <c r="C72" s="431" t="s">
         <v>380</v>
       </c>
-      <c r="D72" s="500"/>
-      <c r="E72" s="443" t="s">
-        <v>466</v>
+      <c r="D72" s="432"/>
+      <c r="E72" s="435" t="s">
+        <v>449</v>
       </c>
-      <c r="F72" s="444"/>
+      <c r="F72" s="436"/>
       <c r="G72" s="74"/>
       <c r="H72" s="74"/>
       <c r="I72" s="74"/>
@@ -18559,10 +18559,10 @@
       <c r="AD72" s="74"/>
       <c r="AE72" s="74"/>
       <c r="AF72" s="74"/>
-      <c r="AG72" s="481"/>
-      <c r="AH72" s="481"/>
-      <c r="AI72" s="481"/>
-      <c r="AJ72" s="481"/>
+      <c r="AG72" s="456"/>
+      <c r="AH72" s="456"/>
+      <c r="AI72" s="456"/>
+      <c r="AJ72" s="456"/>
       <c r="AK72" s="137"/>
       <c r="AL72" s="138"/>
       <c r="AM72" s="137"/>
@@ -18604,14 +18604,14 @@
       <c r="BW72" s="137"/>
     </row>
     <row r="73" spans="1:75" s="136" customFormat="1" ht="15.6" customHeight="1">
-      <c r="A73" s="497"/>
-      <c r="B73" s="498"/>
-      <c r="C73" s="501"/>
-      <c r="D73" s="502"/>
-      <c r="E73" s="443" t="s">
+      <c r="A73" s="451"/>
+      <c r="B73" s="452"/>
+      <c r="C73" s="433"/>
+      <c r="D73" s="434"/>
+      <c r="E73" s="435" t="s">
         <v>416</v>
       </c>
-      <c r="F73" s="444"/>
+      <c r="F73" s="436"/>
       <c r="G73" s="74"/>
       <c r="H73" s="74"/>
       <c r="I73" s="74"/>
@@ -18681,16 +18681,16 @@
       <c r="BW73" s="137"/>
     </row>
     <row r="74" spans="1:75" s="136" customFormat="1" ht="15.6" customHeight="1">
-      <c r="A74" s="497"/>
-      <c r="B74" s="498"/>
-      <c r="C74" s="499" t="s">
+      <c r="A74" s="451"/>
+      <c r="B74" s="452"/>
+      <c r="C74" s="431" t="s">
         <v>381</v>
       </c>
-      <c r="D74" s="500"/>
-      <c r="E74" s="443" t="s">
-        <v>467</v>
+      <c r="D74" s="432"/>
+      <c r="E74" s="435" t="s">
+        <v>450</v>
       </c>
-      <c r="F74" s="444"/>
+      <c r="F74" s="436"/>
       <c r="G74" s="74"/>
       <c r="H74" s="74"/>
       <c r="I74" s="74"/>
@@ -18715,10 +18715,10 @@
       <c r="AD74" s="74"/>
       <c r="AE74" s="74"/>
       <c r="AF74" s="74"/>
-      <c r="AG74" s="481"/>
-      <c r="AH74" s="481"/>
-      <c r="AI74" s="481"/>
-      <c r="AJ74" s="481"/>
+      <c r="AG74" s="456"/>
+      <c r="AH74" s="456"/>
+      <c r="AI74" s="456"/>
+      <c r="AJ74" s="456"/>
       <c r="AK74" s="143"/>
       <c r="AL74" s="139"/>
       <c r="AM74" s="137"/>
@@ -18760,14 +18760,14 @@
       <c r="BW74" s="137"/>
     </row>
     <row r="75" spans="1:75" s="136" customFormat="1" ht="15.6" customHeight="1">
-      <c r="A75" s="497"/>
-      <c r="B75" s="498"/>
-      <c r="C75" s="501"/>
-      <c r="D75" s="502"/>
-      <c r="E75" s="443" t="s">
+      <c r="A75" s="451"/>
+      <c r="B75" s="452"/>
+      <c r="C75" s="433"/>
+      <c r="D75" s="434"/>
+      <c r="E75" s="435" t="s">
         <v>417</v>
       </c>
-      <c r="F75" s="444"/>
+      <c r="F75" s="436"/>
       <c r="G75" s="74"/>
       <c r="H75" s="74"/>
       <c r="I75" s="74"/>
@@ -18837,16 +18837,16 @@
       <c r="BW75" s="137"/>
     </row>
     <row r="76" spans="1:75" s="136" customFormat="1" ht="15.6" customHeight="1">
-      <c r="A76" s="497"/>
-      <c r="B76" s="498"/>
-      <c r="C76" s="499" t="s">
+      <c r="A76" s="451"/>
+      <c r="B76" s="452"/>
+      <c r="C76" s="431" t="s">
         <v>382</v>
       </c>
-      <c r="D76" s="500"/>
-      <c r="E76" s="443" t="s">
-        <v>468</v>
+      <c r="D76" s="432"/>
+      <c r="E76" s="435" t="s">
+        <v>451</v>
       </c>
-      <c r="F76" s="444"/>
+      <c r="F76" s="436"/>
       <c r="G76" s="74"/>
       <c r="H76" s="74"/>
       <c r="I76" s="74"/>
@@ -18871,10 +18871,10 @@
       <c r="AD76" s="74"/>
       <c r="AE76" s="74"/>
       <c r="AF76" s="74"/>
-      <c r="AG76" s="481"/>
-      <c r="AH76" s="481"/>
-      <c r="AI76" s="481"/>
-      <c r="AJ76" s="481"/>
+      <c r="AG76" s="456"/>
+      <c r="AH76" s="456"/>
+      <c r="AI76" s="456"/>
+      <c r="AJ76" s="456"/>
       <c r="AK76" s="137"/>
       <c r="AL76" s="138"/>
       <c r="AM76" s="137"/>
@@ -18916,14 +18916,14 @@
       <c r="BW76" s="137"/>
     </row>
     <row r="77" spans="1:75" s="136" customFormat="1" ht="15.6" customHeight="1">
-      <c r="A77" s="497"/>
-      <c r="B77" s="498"/>
-      <c r="C77" s="501"/>
-      <c r="D77" s="502"/>
-      <c r="E77" s="443" t="s">
+      <c r="A77" s="451"/>
+      <c r="B77" s="452"/>
+      <c r="C77" s="433"/>
+      <c r="D77" s="434"/>
+      <c r="E77" s="435" t="s">
         <v>418</v>
       </c>
-      <c r="F77" s="444"/>
+      <c r="F77" s="436"/>
       <c r="G77" s="74"/>
       <c r="H77" s="74"/>
       <c r="I77" s="74"/>
@@ -18993,16 +18993,16 @@
       <c r="BW77" s="137"/>
     </row>
     <row r="78" spans="1:75" s="136" customFormat="1" ht="15.6" customHeight="1">
-      <c r="A78" s="497"/>
-      <c r="B78" s="498"/>
-      <c r="C78" s="499" t="s">
+      <c r="A78" s="451"/>
+      <c r="B78" s="452"/>
+      <c r="C78" s="431" t="s">
         <v>383</v>
       </c>
-      <c r="D78" s="500"/>
-      <c r="E78" s="443" t="s">
-        <v>469</v>
+      <c r="D78" s="432"/>
+      <c r="E78" s="435" t="s">
+        <v>452</v>
       </c>
-      <c r="F78" s="444"/>
+      <c r="F78" s="436"/>
       <c r="G78" s="74"/>
       <c r="H78" s="74"/>
       <c r="I78" s="74"/>
@@ -19027,10 +19027,10 @@
       <c r="AD78" s="74"/>
       <c r="AE78" s="74"/>
       <c r="AF78" s="74"/>
-      <c r="AG78" s="481"/>
-      <c r="AH78" s="481"/>
-      <c r="AI78" s="481"/>
-      <c r="AJ78" s="481"/>
+      <c r="AG78" s="456"/>
+      <c r="AH78" s="456"/>
+      <c r="AI78" s="456"/>
+      <c r="AJ78" s="456"/>
       <c r="AK78" s="143"/>
       <c r="AL78" s="139"/>
       <c r="AM78" s="137"/>
@@ -19072,14 +19072,14 @@
       <c r="BW78" s="137"/>
     </row>
     <row r="79" spans="1:75" s="136" customFormat="1" ht="15.6" customHeight="1">
-      <c r="A79" s="497"/>
-      <c r="B79" s="498"/>
-      <c r="C79" s="501"/>
-      <c r="D79" s="502"/>
-      <c r="E79" s="443" t="s">
+      <c r="A79" s="451"/>
+      <c r="B79" s="452"/>
+      <c r="C79" s="433"/>
+      <c r="D79" s="434"/>
+      <c r="E79" s="435" t="s">
         <v>419</v>
       </c>
-      <c r="F79" s="444"/>
+      <c r="F79" s="436"/>
       <c r="G79" s="74"/>
       <c r="H79" s="74"/>
       <c r="I79" s="74"/>
@@ -19149,16 +19149,16 @@
       <c r="BW79" s="137"/>
     </row>
     <row r="80" spans="1:75" s="136" customFormat="1" ht="15.6" customHeight="1">
-      <c r="A80" s="497"/>
-      <c r="B80" s="498"/>
-      <c r="C80" s="499" t="s">
+      <c r="A80" s="451"/>
+      <c r="B80" s="452"/>
+      <c r="C80" s="431" t="s">
         <v>384</v>
       </c>
-      <c r="D80" s="500"/>
-      <c r="E80" s="443" t="s">
-        <v>470</v>
+      <c r="D80" s="432"/>
+      <c r="E80" s="435" t="s">
+        <v>453</v>
       </c>
-      <c r="F80" s="444"/>
+      <c r="F80" s="436"/>
       <c r="G80" s="74"/>
       <c r="H80" s="74"/>
       <c r="I80" s="74"/>
@@ -19185,10 +19185,10 @@
       <c r="AD80" s="74"/>
       <c r="AE80" s="74"/>
       <c r="AF80" s="74"/>
-      <c r="AG80" s="481"/>
-      <c r="AH80" s="481"/>
-      <c r="AI80" s="481"/>
-      <c r="AJ80" s="481"/>
+      <c r="AG80" s="456"/>
+      <c r="AH80" s="456"/>
+      <c r="AI80" s="456"/>
+      <c r="AJ80" s="456"/>
       <c r="AK80" s="138"/>
       <c r="AL80" s="138"/>
       <c r="AM80" s="137"/>
@@ -19230,14 +19230,14 @@
       <c r="BW80" s="137"/>
     </row>
     <row r="81" spans="1:75" s="136" customFormat="1" ht="15.6" customHeight="1">
-      <c r="A81" s="497"/>
-      <c r="B81" s="498"/>
-      <c r="C81" s="501"/>
-      <c r="D81" s="502"/>
-      <c r="E81" s="443" t="s">
+      <c r="A81" s="451"/>
+      <c r="B81" s="452"/>
+      <c r="C81" s="433"/>
+      <c r="D81" s="434"/>
+      <c r="E81" s="435" t="s">
         <v>420</v>
       </c>
-      <c r="F81" s="444"/>
+      <c r="F81" s="436"/>
       <c r="G81" s="74"/>
       <c r="H81" s="74"/>
       <c r="I81" s="74"/>
@@ -19309,16 +19309,16 @@
       <c r="BW81" s="137"/>
     </row>
     <row r="82" spans="1:75" s="136" customFormat="1" ht="15.6" customHeight="1">
-      <c r="A82" s="497"/>
-      <c r="B82" s="498"/>
-      <c r="C82" s="499" t="s">
+      <c r="A82" s="451"/>
+      <c r="B82" s="452"/>
+      <c r="C82" s="431" t="s">
         <v>386</v>
       </c>
-      <c r="D82" s="500"/>
-      <c r="E82" s="443" t="s">
-        <v>471</v>
+      <c r="D82" s="432"/>
+      <c r="E82" s="435" t="s">
+        <v>454</v>
       </c>
-      <c r="F82" s="444"/>
+      <c r="F82" s="436"/>
       <c r="G82" s="74"/>
       <c r="H82" s="74"/>
       <c r="I82" s="74"/>
@@ -19390,14 +19390,14 @@
       <c r="BW82" s="137"/>
     </row>
     <row r="83" spans="1:75" s="136" customFormat="1" ht="15.6" customHeight="1">
-      <c r="A83" s="497"/>
-      <c r="B83" s="498"/>
-      <c r="C83" s="501"/>
-      <c r="D83" s="502"/>
-      <c r="E83" s="443" t="s">
+      <c r="A83" s="451"/>
+      <c r="B83" s="452"/>
+      <c r="C83" s="433"/>
+      <c r="D83" s="434"/>
+      <c r="E83" s="435" t="s">
         <v>421</v>
       </c>
-      <c r="F83" s="444"/>
+      <c r="F83" s="436"/>
       <c r="G83" s="74"/>
       <c r="H83" s="74"/>
       <c r="I83" s="74"/>
@@ -19471,12 +19471,12 @@
     <row r="84" spans="1:75" s="136" customFormat="1" ht="18">
       <c r="A84" s="184"/>
       <c r="B84" s="185"/>
-      <c r="C84" s="431" t="s">
+      <c r="C84" s="447" t="s">
         <v>31</v>
       </c>
-      <c r="D84" s="432"/>
-      <c r="E84" s="506"/>
-      <c r="F84" s="444"/>
+      <c r="D84" s="448"/>
+      <c r="E84" s="437"/>
+      <c r="F84" s="436"/>
       <c r="G84" s="74"/>
       <c r="H84"/>
       <c r="I84"/>
@@ -19550,14 +19550,14 @@
     <row r="85" spans="1:75" s="136" customFormat="1" ht="18">
       <c r="A85" s="184"/>
       <c r="B85" s="185"/>
-      <c r="C85" s="431" t="s">
+      <c r="C85" s="447" t="s">
         <v>3</v>
       </c>
-      <c r="D85" s="432"/>
-      <c r="E85" s="493" t="s">
-        <v>591</v>
+      <c r="D85" s="448"/>
+      <c r="E85" s="438" t="s">
+        <v>574</v>
       </c>
-      <c r="F85" s="494"/>
+      <c r="F85" s="439"/>
       <c r="G85" s="74"/>
       <c r="H85"/>
       <c r="I85"/>
@@ -19631,14 +19631,14 @@
     <row r="86" spans="1:75" s="136" customFormat="1" ht="18">
       <c r="A86" s="184"/>
       <c r="B86" s="185"/>
-      <c r="C86" s="431" t="s">
+      <c r="C86" s="447" t="s">
         <v>4</v>
       </c>
-      <c r="D86" s="432"/>
-      <c r="E86" s="493" t="s">
-        <v>592</v>
+      <c r="D86" s="448"/>
+      <c r="E86" s="438" t="s">
+        <v>575</v>
       </c>
-      <c r="F86" s="494"/>
+      <c r="F86" s="439"/>
       <c r="G86" s="74"/>
       <c r="H86"/>
       <c r="I86"/>
@@ -19710,18 +19710,18 @@
       <c r="BW86" s="137"/>
     </row>
     <row r="87" spans="1:75" s="136" customFormat="1" ht="27" customHeight="1">
-      <c r="A87" s="445" t="s">
+      <c r="A87" s="443" t="s">
         <v>1</v>
       </c>
-      <c r="B87" s="446"/>
-      <c r="C87" s="507" t="s">
+      <c r="B87" s="444"/>
+      <c r="C87" s="441" t="s">
         <v>5</v>
       </c>
-      <c r="D87" s="508"/>
-      <c r="E87" s="443" t="s">
+      <c r="D87" s="442"/>
+      <c r="E87" s="435" t="s">
         <v>296</v>
       </c>
-      <c r="F87" s="444"/>
+      <c r="F87" s="436"/>
       <c r="G87" s="74"/>
       <c r="H87"/>
       <c r="I87"/>
@@ -19748,10 +19748,10 @@
       <c r="AD87" s="74"/>
       <c r="AE87" s="74"/>
       <c r="AF87" s="74"/>
-      <c r="AG87" s="504"/>
-      <c r="AH87" s="504"/>
-      <c r="AI87" s="504"/>
-      <c r="AJ87" s="504"/>
+      <c r="AG87" s="454"/>
+      <c r="AH87" s="454"/>
+      <c r="AI87" s="454"/>
+      <c r="AJ87" s="454"/>
       <c r="AK87" s="143"/>
       <c r="AL87" s="137"/>
       <c r="AM87" s="137"/>
@@ -19793,16 +19793,16 @@
       <c r="BW87" s="137"/>
     </row>
     <row r="88" spans="1:75" s="136" customFormat="1" ht="27" customHeight="1">
-      <c r="A88" s="447"/>
-      <c r="B88" s="448"/>
-      <c r="C88" s="507" t="s">
+      <c r="A88" s="445"/>
+      <c r="B88" s="446"/>
+      <c r="C88" s="441" t="s">
         <v>6</v>
       </c>
-      <c r="D88" s="508"/>
-      <c r="E88" s="443" t="s">
+      <c r="D88" s="442"/>
+      <c r="E88" s="435" t="s">
         <v>297</v>
       </c>
-      <c r="F88" s="444"/>
+      <c r="F88" s="436"/>
       <c r="G88" s="74"/>
       <c r="H88" s="74"/>
       <c r="I88" s="74"/>
@@ -19829,10 +19829,10 @@
       <c r="AD88" s="74"/>
       <c r="AE88" s="74"/>
       <c r="AF88" s="74"/>
-      <c r="AG88" s="504"/>
-      <c r="AH88" s="504"/>
-      <c r="AI88" s="504"/>
-      <c r="AJ88" s="504"/>
+      <c r="AG88" s="454"/>
+      <c r="AH88" s="454"/>
+      <c r="AI88" s="454"/>
+      <c r="AJ88" s="454"/>
       <c r="AK88" s="143"/>
       <c r="AL88" s="137"/>
       <c r="AM88" s="137"/>
@@ -19874,16 +19874,16 @@
       <c r="BW88" s="137"/>
     </row>
     <row r="89" spans="1:75" s="136" customFormat="1" ht="27" customHeight="1">
-      <c r="A89" s="447"/>
-      <c r="B89" s="448"/>
-      <c r="C89" s="507" t="s">
+      <c r="A89" s="445"/>
+      <c r="B89" s="446"/>
+      <c r="C89" s="441" t="s">
         <v>0</v>
       </c>
-      <c r="D89" s="508"/>
-      <c r="E89" s="443" t="s">
+      <c r="D89" s="442"/>
+      <c r="E89" s="435" t="s">
         <v>298</v>
       </c>
-      <c r="F89" s="444"/>
+      <c r="F89" s="436"/>
       <c r="G89" s="74"/>
       <c r="H89" s="74"/>
       <c r="I89" s="74"/>
@@ -19910,10 +19910,10 @@
       <c r="AD89" s="74"/>
       <c r="AE89" s="74"/>
       <c r="AF89" s="74"/>
-      <c r="AG89" s="505"/>
-      <c r="AH89" s="505"/>
-      <c r="AI89" s="505"/>
-      <c r="AJ89" s="505"/>
+      <c r="AG89" s="455"/>
+      <c r="AH89" s="455"/>
+      <c r="AI89" s="455"/>
+      <c r="AJ89" s="455"/>
       <c r="AK89" s="143"/>
       <c r="AL89" s="137"/>
       <c r="AM89" s="137"/>
@@ -19955,16 +19955,16 @@
       <c r="BW89" s="137"/>
     </row>
     <row r="90" spans="1:75" s="136" customFormat="1" ht="27" customHeight="1">
-      <c r="A90" s="447"/>
-      <c r="B90" s="448"/>
-      <c r="C90" s="507" t="s">
+      <c r="A90" s="445"/>
+      <c r="B90" s="446"/>
+      <c r="C90" s="441" t="s">
         <v>48</v>
       </c>
-      <c r="D90" s="508"/>
-      <c r="E90" s="443" t="s">
+      <c r="D90" s="442"/>
+      <c r="E90" s="435" t="s">
         <v>299</v>
       </c>
-      <c r="F90" s="444"/>
+      <c r="F90" s="436"/>
       <c r="G90" s="74"/>
       <c r="H90" s="74"/>
       <c r="I90" s="74"/>
@@ -20036,16 +20036,16 @@
       <c r="BW90" s="137"/>
     </row>
     <row r="91" spans="1:75" s="136" customFormat="1" ht="27" customHeight="1">
-      <c r="A91" s="447"/>
-      <c r="B91" s="448"/>
-      <c r="C91" s="507" t="s">
+      <c r="A91" s="445"/>
+      <c r="B91" s="446"/>
+      <c r="C91" s="441" t="s">
         <v>34</v>
       </c>
-      <c r="D91" s="508"/>
-      <c r="E91" s="443" t="s">
+      <c r="D91" s="442"/>
+      <c r="E91" s="435" t="s">
         <v>387</v>
       </c>
-      <c r="F91" s="444"/>
+      <c r="F91" s="436"/>
       <c r="G91" s="74"/>
       <c r="H91" s="74"/>
       <c r="I91" s="74"/>
@@ -20072,10 +20072,10 @@
       <c r="AD91" s="74"/>
       <c r="AE91" s="74"/>
       <c r="AF91" s="74"/>
-      <c r="AG91" s="505"/>
-      <c r="AH91" s="505"/>
-      <c r="AI91" s="505"/>
-      <c r="AJ91" s="505"/>
+      <c r="AG91" s="455"/>
+      <c r="AH91" s="455"/>
+      <c r="AI91" s="455"/>
+      <c r="AJ91" s="455"/>
       <c r="AK91" s="143"/>
       <c r="AL91" s="137"/>
       <c r="AM91" s="137"/>
@@ -20117,16 +20117,16 @@
       <c r="BW91" s="137"/>
     </row>
     <row r="92" spans="1:75" s="136" customFormat="1" ht="32.25" customHeight="1">
-      <c r="A92" s="492" t="s">
+      <c r="A92" s="440" t="s">
         <v>44</v>
       </c>
-      <c r="B92" s="492"/>
-      <c r="C92" s="492"/>
-      <c r="D92" s="492"/>
-      <c r="E92" s="443" t="s">
+      <c r="B92" s="440"/>
+      <c r="C92" s="440"/>
+      <c r="D92" s="440"/>
+      <c r="E92" s="435" t="s">
         <v>300</v>
       </c>
-      <c r="F92" s="444"/>
+      <c r="F92" s="436"/>
       <c r="G92" s="74"/>
       <c r="H92" s="74"/>
       <c r="I92" s="74"/>
@@ -20153,10 +20153,10 @@
       <c r="AD92" s="74"/>
       <c r="AE92" s="74"/>
       <c r="AF92" s="74"/>
-      <c r="AG92" s="503"/>
-      <c r="AH92" s="503"/>
-      <c r="AI92" s="503"/>
-      <c r="AJ92" s="503"/>
+      <c r="AG92" s="453"/>
+      <c r="AH92" s="453"/>
+      <c r="AI92" s="453"/>
+      <c r="AJ92" s="453"/>
       <c r="AK92" s="143"/>
       <c r="AL92" s="137"/>
       <c r="AM92" s="137"/>
@@ -20198,16 +20198,16 @@
       <c r="BW92" s="137"/>
     </row>
     <row r="93" spans="1:75" s="136" customFormat="1" ht="32.25" customHeight="1">
-      <c r="A93" s="492" t="s">
+      <c r="A93" s="440" t="s">
         <v>45</v>
       </c>
-      <c r="B93" s="492"/>
-      <c r="C93" s="492"/>
-      <c r="D93" s="492"/>
-      <c r="E93" s="443" t="s">
+      <c r="B93" s="440"/>
+      <c r="C93" s="440"/>
+      <c r="D93" s="440"/>
+      <c r="E93" s="435" t="s">
         <v>301</v>
       </c>
-      <c r="F93" s="444"/>
+      <c r="F93" s="436"/>
       <c r="G93" s="74"/>
       <c r="H93" s="74"/>
       <c r="I93" s="74"/>
@@ -20234,10 +20234,10 @@
       <c r="AD93" s="74"/>
       <c r="AE93" s="74"/>
       <c r="AF93" s="74"/>
-      <c r="AG93" s="503"/>
-      <c r="AH93" s="503"/>
-      <c r="AI93" s="503"/>
-      <c r="AJ93" s="503"/>
+      <c r="AG93" s="453"/>
+      <c r="AH93" s="453"/>
+      <c r="AI93" s="453"/>
+      <c r="AJ93" s="453"/>
       <c r="AK93" s="143"/>
       <c r="AL93" s="137"/>
       <c r="AM93" s="137"/>
@@ -20285,17 +20285,17 @@
       <c r="D94" s="146"/>
       <c r="E94" s="146"/>
       <c r="F94" s="146"/>
-      <c r="G94" s="482"/>
-      <c r="H94" s="482"/>
-      <c r="I94" s="482"/>
+      <c r="G94" s="457"/>
+      <c r="H94" s="457"/>
+      <c r="I94" s="457"/>
       <c r="J94" s="146"/>
       <c r="K94" s="146"/>
       <c r="L94" s="146"/>
       <c r="M94" s="146"/>
       <c r="N94" s="146"/>
-      <c r="O94" s="482"/>
-      <c r="P94" s="482"/>
-      <c r="Q94" s="482"/>
+      <c r="O94" s="457"/>
+      <c r="P94" s="457"/>
+      <c r="Q94" s="457"/>
       <c r="R94" s="146"/>
       <c r="S94" s="146"/>
       <c r="T94" s="146"/>
@@ -20324,10 +20324,10 @@
         <v>438</v>
       </c>
       <c r="C95" s="153"/>
-      <c r="D95" s="491" t="s">
+      <c r="D95" s="466" t="s">
         <v>54</v>
       </c>
-      <c r="E95" s="491"/>
+      <c r="E95" s="466"/>
       <c r="F95" s="146"/>
       <c r="G95" s="152"/>
       <c r="H95" s="152"/>
@@ -20368,10 +20368,10 @@
         <v>439</v>
       </c>
       <c r="C96" s="153"/>
-      <c r="D96" s="491" t="s">
+      <c r="D96" s="466" t="s">
         <v>55</v>
       </c>
-      <c r="E96" s="491"/>
+      <c r="E96" s="466"/>
       <c r="F96" s="146"/>
       <c r="G96" s="152"/>
       <c r="H96" s="152"/>
@@ -20413,9 +20413,9 @@
       <c r="D97" s="146"/>
       <c r="E97" s="146"/>
       <c r="F97" s="146"/>
-      <c r="G97" s="484"/>
-      <c r="H97" s="484"/>
-      <c r="I97" s="484"/>
+      <c r="G97" s="459"/>
+      <c r="H97" s="459"/>
+      <c r="I97" s="459"/>
       <c r="J97" s="146"/>
       <c r="K97" s="146"/>
       <c r="L97" s="146"/>
@@ -20448,35 +20448,35 @@
     </row>
     <row r="98" spans="1:75" ht="14.1" customHeight="1">
       <c r="A98" s="145"/>
-      <c r="B98" s="483" t="s">
+      <c r="B98" s="458" t="s">
         <v>36</v>
       </c>
-      <c r="C98" s="485"/>
-      <c r="D98" s="486"/>
-      <c r="E98" s="486"/>
-      <c r="F98" s="486"/>
-      <c r="G98" s="486"/>
-      <c r="H98" s="486"/>
-      <c r="I98" s="486"/>
-      <c r="J98" s="486"/>
-      <c r="K98" s="486"/>
-      <c r="L98" s="486"/>
-      <c r="M98" s="486"/>
-      <c r="N98" s="486"/>
-      <c r="O98" s="486"/>
-      <c r="P98" s="486"/>
-      <c r="Q98" s="486"/>
-      <c r="R98" s="486"/>
-      <c r="S98" s="486"/>
-      <c r="T98" s="486"/>
-      <c r="U98" s="486"/>
-      <c r="V98" s="486"/>
-      <c r="W98" s="486"/>
-      <c r="X98" s="486"/>
-      <c r="Y98" s="486"/>
-      <c r="Z98" s="486"/>
-      <c r="AA98" s="486"/>
-      <c r="AB98" s="487"/>
+      <c r="C98" s="460"/>
+      <c r="D98" s="461"/>
+      <c r="E98" s="461"/>
+      <c r="F98" s="461"/>
+      <c r="G98" s="461"/>
+      <c r="H98" s="461"/>
+      <c r="I98" s="461"/>
+      <c r="J98" s="461"/>
+      <c r="K98" s="461"/>
+      <c r="L98" s="461"/>
+      <c r="M98" s="461"/>
+      <c r="N98" s="461"/>
+      <c r="O98" s="461"/>
+      <c r="P98" s="461"/>
+      <c r="Q98" s="461"/>
+      <c r="R98" s="461"/>
+      <c r="S98" s="461"/>
+      <c r="T98" s="461"/>
+      <c r="U98" s="461"/>
+      <c r="V98" s="461"/>
+      <c r="W98" s="461"/>
+      <c r="X98" s="461"/>
+      <c r="Y98" s="461"/>
+      <c r="Z98" s="461"/>
+      <c r="AA98" s="461"/>
+      <c r="AB98" s="462"/>
       <c r="AC98" s="148"/>
       <c r="AD98" s="148"/>
       <c r="AE98" s="148"/>
@@ -20497,33 +20497,33 @@
     </row>
     <row r="99" spans="1:75" ht="28.5" customHeight="1">
       <c r="A99" s="145"/>
-      <c r="B99" s="483"/>
-      <c r="C99" s="488"/>
-      <c r="D99" s="489"/>
-      <c r="E99" s="489"/>
-      <c r="F99" s="489"/>
-      <c r="G99" s="489"/>
-      <c r="H99" s="489"/>
-      <c r="I99" s="489"/>
-      <c r="J99" s="489"/>
-      <c r="K99" s="489"/>
-      <c r="L99" s="489"/>
-      <c r="M99" s="489"/>
-      <c r="N99" s="489"/>
-      <c r="O99" s="489"/>
-      <c r="P99" s="489"/>
-      <c r="Q99" s="489"/>
-      <c r="R99" s="489"/>
-      <c r="S99" s="489"/>
-      <c r="T99" s="489"/>
-      <c r="U99" s="489"/>
-      <c r="V99" s="489"/>
-      <c r="W99" s="489"/>
-      <c r="X99" s="489"/>
-      <c r="Y99" s="489"/>
-      <c r="Z99" s="489"/>
-      <c r="AA99" s="489"/>
-      <c r="AB99" s="490"/>
+      <c r="B99" s="458"/>
+      <c r="C99" s="463"/>
+      <c r="D99" s="464"/>
+      <c r="E99" s="464"/>
+      <c r="F99" s="464"/>
+      <c r="G99" s="464"/>
+      <c r="H99" s="464"/>
+      <c r="I99" s="464"/>
+      <c r="J99" s="464"/>
+      <c r="K99" s="464"/>
+      <c r="L99" s="464"/>
+      <c r="M99" s="464"/>
+      <c r="N99" s="464"/>
+      <c r="O99" s="464"/>
+      <c r="P99" s="464"/>
+      <c r="Q99" s="464"/>
+      <c r="R99" s="464"/>
+      <c r="S99" s="464"/>
+      <c r="T99" s="464"/>
+      <c r="U99" s="464"/>
+      <c r="V99" s="464"/>
+      <c r="W99" s="464"/>
+      <c r="X99" s="464"/>
+      <c r="Y99" s="464"/>
+      <c r="Z99" s="464"/>
+      <c r="AA99" s="464"/>
+      <c r="AB99" s="465"/>
       <c r="AC99" s="148"/>
       <c r="AD99" s="148"/>
       <c r="AE99" s="148"/>
@@ -65348,30 +65348,209 @@
   </sheetData>
   <sheetProtection formatColumns="0" formatRows="0"/>
   <mergeCells count="251">
-    <mergeCell ref="C70:D71"/>
-    <mergeCell ref="C72:D73"/>
-    <mergeCell ref="C74:D75"/>
-    <mergeCell ref="C76:D77"/>
-    <mergeCell ref="E67:F67"/>
-    <mergeCell ref="E68:F68"/>
-    <mergeCell ref="E69:F69"/>
-    <mergeCell ref="E70:F70"/>
-    <mergeCell ref="E71:F71"/>
-    <mergeCell ref="E72:F72"/>
-    <mergeCell ref="E73:F73"/>
-    <mergeCell ref="E74:F74"/>
-    <mergeCell ref="E75:F75"/>
-    <mergeCell ref="E76:F76"/>
-    <mergeCell ref="E77:F77"/>
-    <mergeCell ref="C56:D57"/>
-    <mergeCell ref="C58:D59"/>
-    <mergeCell ref="E65:F65"/>
-    <mergeCell ref="E66:F66"/>
-    <mergeCell ref="C60:D61"/>
-    <mergeCell ref="C62:D63"/>
-    <mergeCell ref="C64:D65"/>
-    <mergeCell ref="C66:D67"/>
-    <mergeCell ref="C68:D69"/>
+    <mergeCell ref="C52:D52"/>
+    <mergeCell ref="C53:D53"/>
+    <mergeCell ref="A42:F42"/>
+    <mergeCell ref="G42:H42"/>
+    <mergeCell ref="G43:H43"/>
+    <mergeCell ref="E44:F44"/>
+    <mergeCell ref="E45:F45"/>
+    <mergeCell ref="E46:F46"/>
+    <mergeCell ref="E47:F47"/>
+    <mergeCell ref="E48:F48"/>
+    <mergeCell ref="A44:B53"/>
+    <mergeCell ref="E49:F49"/>
+    <mergeCell ref="E50:F50"/>
+    <mergeCell ref="E51:F51"/>
+    <mergeCell ref="E52:F52"/>
+    <mergeCell ref="E53:F53"/>
+    <mergeCell ref="A43:F43"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="C45:D45"/>
+    <mergeCell ref="C46:D46"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="C51:D51"/>
+    <mergeCell ref="G41:H41"/>
+    <mergeCell ref="A41:F41"/>
+    <mergeCell ref="E2:AB3"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="C39:C40"/>
+    <mergeCell ref="D39:D40"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="C35:C36"/>
+    <mergeCell ref="D35:D36"/>
+    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="C37:C38"/>
+    <mergeCell ref="D37:D38"/>
+    <mergeCell ref="E5:F6"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="D33:D34"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="BF2:BS2"/>
+    <mergeCell ref="AG5:AJ5"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="E38:F38"/>
+    <mergeCell ref="E39:F39"/>
+    <mergeCell ref="E40:F40"/>
+    <mergeCell ref="AE6:AF6"/>
+    <mergeCell ref="AI6:AJ6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="AG58:AH58"/>
+    <mergeCell ref="AI58:AJ58"/>
+    <mergeCell ref="AG60:AH60"/>
+    <mergeCell ref="AI60:AJ60"/>
+    <mergeCell ref="AG62:AH62"/>
+    <mergeCell ref="AI62:AJ62"/>
+    <mergeCell ref="AG64:AH64"/>
+    <mergeCell ref="AI64:AJ64"/>
+    <mergeCell ref="E54:F54"/>
+    <mergeCell ref="E55:F55"/>
+    <mergeCell ref="E56:F56"/>
+    <mergeCell ref="E57:F57"/>
+    <mergeCell ref="E58:F58"/>
+    <mergeCell ref="E59:F59"/>
+    <mergeCell ref="E60:F60"/>
+    <mergeCell ref="E61:F61"/>
+    <mergeCell ref="E62:F62"/>
+    <mergeCell ref="E63:F63"/>
+    <mergeCell ref="E64:F64"/>
+    <mergeCell ref="AG68:AH68"/>
+    <mergeCell ref="AI68:AJ68"/>
+    <mergeCell ref="AG70:AH70"/>
+    <mergeCell ref="AI70:AJ70"/>
+    <mergeCell ref="AG72:AH72"/>
+    <mergeCell ref="AI72:AJ72"/>
+    <mergeCell ref="AG74:AH74"/>
+    <mergeCell ref="AI74:AJ74"/>
+    <mergeCell ref="AG76:AH76"/>
+    <mergeCell ref="AI76:AJ76"/>
+    <mergeCell ref="G94:I94"/>
+    <mergeCell ref="O94:Q94"/>
+    <mergeCell ref="B98:B99"/>
+    <mergeCell ref="G97:I97"/>
+    <mergeCell ref="C98:AB99"/>
+    <mergeCell ref="D96:E96"/>
+    <mergeCell ref="D95:E95"/>
+    <mergeCell ref="E93:F93"/>
+    <mergeCell ref="A93:D93"/>
+    <mergeCell ref="E86:F86"/>
+    <mergeCell ref="C84:D84"/>
+    <mergeCell ref="C85:D85"/>
+    <mergeCell ref="C86:D86"/>
+    <mergeCell ref="A54:B83"/>
+    <mergeCell ref="C54:D55"/>
+    <mergeCell ref="AG93:AH93"/>
+    <mergeCell ref="AI93:AJ93"/>
+    <mergeCell ref="AG87:AH87"/>
+    <mergeCell ref="AI87:AJ87"/>
+    <mergeCell ref="AG88:AH88"/>
+    <mergeCell ref="AI88:AJ88"/>
+    <mergeCell ref="AG89:AH89"/>
+    <mergeCell ref="AG92:AH92"/>
+    <mergeCell ref="AI89:AJ89"/>
+    <mergeCell ref="AI91:AJ91"/>
+    <mergeCell ref="AG91:AH91"/>
+    <mergeCell ref="AI92:AJ92"/>
+    <mergeCell ref="AG78:AH78"/>
+    <mergeCell ref="AI78:AJ78"/>
+    <mergeCell ref="AG80:AH80"/>
+    <mergeCell ref="AI80:AJ80"/>
+    <mergeCell ref="AG66:AH66"/>
+    <mergeCell ref="AI66:AJ66"/>
     <mergeCell ref="E78:F78"/>
     <mergeCell ref="E79:F79"/>
     <mergeCell ref="E80:F80"/>
@@ -65396,209 +65575,30 @@
     <mergeCell ref="E83:F83"/>
     <mergeCell ref="C80:D81"/>
     <mergeCell ref="C82:D83"/>
-    <mergeCell ref="E86:F86"/>
-    <mergeCell ref="C84:D84"/>
-    <mergeCell ref="C85:D85"/>
-    <mergeCell ref="C86:D86"/>
-    <mergeCell ref="A54:B83"/>
-    <mergeCell ref="C54:D55"/>
-    <mergeCell ref="AG93:AH93"/>
-    <mergeCell ref="AI93:AJ93"/>
-    <mergeCell ref="AG87:AH87"/>
-    <mergeCell ref="AI87:AJ87"/>
-    <mergeCell ref="AG88:AH88"/>
-    <mergeCell ref="AI88:AJ88"/>
-    <mergeCell ref="AG89:AH89"/>
-    <mergeCell ref="AG92:AH92"/>
-    <mergeCell ref="AI89:AJ89"/>
-    <mergeCell ref="AI91:AJ91"/>
-    <mergeCell ref="AG91:AH91"/>
-    <mergeCell ref="AI92:AJ92"/>
-    <mergeCell ref="AG78:AH78"/>
-    <mergeCell ref="AI78:AJ78"/>
-    <mergeCell ref="AG80:AH80"/>
-    <mergeCell ref="AI80:AJ80"/>
-    <mergeCell ref="AG66:AH66"/>
-    <mergeCell ref="AI66:AJ66"/>
-    <mergeCell ref="G94:I94"/>
-    <mergeCell ref="O94:Q94"/>
-    <mergeCell ref="B98:B99"/>
-    <mergeCell ref="G97:I97"/>
-    <mergeCell ref="C98:AB99"/>
-    <mergeCell ref="D96:E96"/>
-    <mergeCell ref="D95:E95"/>
-    <mergeCell ref="E93:F93"/>
-    <mergeCell ref="A93:D93"/>
-    <mergeCell ref="AG68:AH68"/>
-    <mergeCell ref="AI68:AJ68"/>
-    <mergeCell ref="AG70:AH70"/>
-    <mergeCell ref="AI70:AJ70"/>
-    <mergeCell ref="AG72:AH72"/>
-    <mergeCell ref="AI72:AJ72"/>
-    <mergeCell ref="AG74:AH74"/>
-    <mergeCell ref="AI74:AJ74"/>
-    <mergeCell ref="AG76:AH76"/>
-    <mergeCell ref="AI76:AJ76"/>
-    <mergeCell ref="AG58:AH58"/>
-    <mergeCell ref="AI58:AJ58"/>
-    <mergeCell ref="AG60:AH60"/>
-    <mergeCell ref="AI60:AJ60"/>
-    <mergeCell ref="AG62:AH62"/>
-    <mergeCell ref="AI62:AJ62"/>
-    <mergeCell ref="AG64:AH64"/>
-    <mergeCell ref="AI64:AJ64"/>
-    <mergeCell ref="E54:F54"/>
-    <mergeCell ref="E55:F55"/>
-    <mergeCell ref="E56:F56"/>
-    <mergeCell ref="E57:F57"/>
-    <mergeCell ref="E58:F58"/>
-    <mergeCell ref="E59:F59"/>
-    <mergeCell ref="E60:F60"/>
-    <mergeCell ref="E61:F61"/>
-    <mergeCell ref="E62:F62"/>
-    <mergeCell ref="E63:F63"/>
-    <mergeCell ref="E64:F64"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="E38:F38"/>
-    <mergeCell ref="E39:F39"/>
-    <mergeCell ref="E40:F40"/>
-    <mergeCell ref="AE6:AF6"/>
-    <mergeCell ref="AI6:AJ6"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="BF2:BS2"/>
-    <mergeCell ref="AG5:AJ5"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="C33:C34"/>
-    <mergeCell ref="D33:D34"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="G41:H41"/>
-    <mergeCell ref="A41:F41"/>
-    <mergeCell ref="E2:AB3"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="A39:A40"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="C39:C40"/>
-    <mergeCell ref="D39:D40"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="C35:C36"/>
-    <mergeCell ref="D35:D36"/>
-    <mergeCell ref="A37:A38"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="C37:C38"/>
-    <mergeCell ref="D37:D38"/>
-    <mergeCell ref="E5:F6"/>
-    <mergeCell ref="D29:D30"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="C31:C32"/>
-    <mergeCell ref="D31:D32"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="C53:D53"/>
-    <mergeCell ref="A42:F42"/>
-    <mergeCell ref="G42:H42"/>
-    <mergeCell ref="G43:H43"/>
-    <mergeCell ref="E44:F44"/>
-    <mergeCell ref="E45:F45"/>
-    <mergeCell ref="E46:F46"/>
-    <mergeCell ref="E47:F47"/>
-    <mergeCell ref="E48:F48"/>
-    <mergeCell ref="A44:B53"/>
-    <mergeCell ref="E49:F49"/>
-    <mergeCell ref="E50:F50"/>
-    <mergeCell ref="E51:F51"/>
-    <mergeCell ref="E52:F52"/>
-    <mergeCell ref="E53:F53"/>
-    <mergeCell ref="A43:F43"/>
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="C45:D45"/>
-    <mergeCell ref="C46:D46"/>
-    <mergeCell ref="C47:D47"/>
-    <mergeCell ref="C48:D48"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="C50:D50"/>
-    <mergeCell ref="C51:D51"/>
-    <mergeCell ref="C52:D52"/>
+    <mergeCell ref="C56:D57"/>
+    <mergeCell ref="C58:D59"/>
+    <mergeCell ref="E65:F65"/>
+    <mergeCell ref="E66:F66"/>
+    <mergeCell ref="C60:D61"/>
+    <mergeCell ref="C62:D63"/>
+    <mergeCell ref="C64:D65"/>
+    <mergeCell ref="C66:D67"/>
+    <mergeCell ref="C68:D69"/>
+    <mergeCell ref="C70:D71"/>
+    <mergeCell ref="C72:D73"/>
+    <mergeCell ref="C74:D75"/>
+    <mergeCell ref="C76:D77"/>
+    <mergeCell ref="E67:F67"/>
+    <mergeCell ref="E68:F68"/>
+    <mergeCell ref="E69:F69"/>
+    <mergeCell ref="E70:F70"/>
+    <mergeCell ref="E71:F71"/>
+    <mergeCell ref="E72:F72"/>
+    <mergeCell ref="E73:F73"/>
+    <mergeCell ref="E74:F74"/>
+    <mergeCell ref="E75:F75"/>
+    <mergeCell ref="E76:F76"/>
+    <mergeCell ref="E77:F77"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.118110236220472" right="0.118110236220472" top="0.35433070866141703" bottom="0.55118110236220497" header="0.31496062992126" footer="0.31496062992126"/>
@@ -65614,9 +65614,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -65798,26 +65801,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ECA946AD-4EA3-4FCA-B864-262800288FDF}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5458833A-D997-4113-BB83-F938CBB9D86E}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="b7c6cbfa-29cf-4ada-90bf-db8e550dae8d"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -65841,9 +65833,17 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5458833A-D997-4113-BB83-F938CBB9D86E}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ECA946AD-4EA3-4FCA-B864-262800288FDF}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="b7c6cbfa-29cf-4ada-90bf-db8e550dae8d"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/api/cp-dss-api/gateway/src/main/resources/reports/discharging/Vessel_1_Discharging_Plan_Template.xlsx
+++ b/api/cp-dss-api/gateway/src/main/resources/reports/discharging/Vessel_1_Discharging_Plan_Template.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17316" windowHeight="6156" tabRatio="399" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17316" windowHeight="6156" tabRatio="399"/>
   </bookViews>
   <sheets>
     <sheet name="CRUD - 021 pg1" sheetId="27" r:id="rId1"/>
@@ -2186,6 +2186,31 @@
         </r>
       </text>
     </comment>
+    <comment ref="E84" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="14"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:
+jx:each(items="sheetThree.ballastPumps[0].cargoTankUllage.status" var="ballastPumpStatus"  direction="RIGHT" lastCell="F84")</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="E85" authorId="0" shapeId="0">
       <text>
         <r>
@@ -2197,7 +2222,7 @@
             <family val="2"/>
           </rPr>
           <t>Author:
-jx:each(items="sheetThree.ballastPumps[0].cargoTankUllage.status" var="ballastPumpStatus"  direction="RIGHT" lastCell="F85")</t>
+jx:each(items="sheetThree.ballastPumps[1].cargoTankUllage.status" var="ballastPumpStatus1"  direction="RIGHT" lastCell="F85")</t>
         </r>
         <r>
           <rPr>
@@ -2222,7 +2247,7 @@
             <family val="2"/>
           </rPr>
           <t>Author:
-jx:each(items="sheetThree.ballastPumps[1].cargoTankUllage.status" var="ballastPumpStatus1"  direction="RIGHT" lastCell="F86")</t>
+jx:each(items="sheetThree.ballastPumps[2].cargoTankUllage.status" var="ballastPumpStatus2"  direction="RIGHT" lastCell="F86")</t>
         </r>
         <r>
           <rPr>
@@ -2376,7 +2401,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="646" uniqueCount="593">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="650" uniqueCount="597">
   <si>
     <t>TRIM</t>
   </si>
@@ -4133,55 +4158,67 @@
     <t>${ballastPumpStatus1.colorCode}</t>
   </si>
   <si>
-    <t>${cargoTankStatus.colorCode},${cargoTankStatus.cowType}</t>
+    <t>${cargoTankStatus.colorCode} ${cargoTankStatus.cowType}</t>
   </si>
   <si>
-    <t>${cargoTankStatus1.colorCode},${cargoTankStatus1.cowType}</t>
+    <t>${cargoTankStatus1.colorCode} ${cargoTankStatus1.cowType}</t>
   </si>
   <si>
-    <t>${cargoTankStatus2.colorCode},${cargoTankStatus2.cowType}</t>
+    <t>${cargoTankStatus2.colorCode} ${cargoTankStatus2.cowType}</t>
   </si>
   <si>
-    <t>${cargoTankStatus3.colorCode},${cargoTankStatus3.cowType}</t>
+    <t>${cargoTankStatus3.colorCode} ${cargoTankStatus3.cowType}</t>
   </si>
   <si>
-    <t>${cargoTankStatus4.colorCode},${cargoTankStatus4.cowType}</t>
+    <t>${cargoTankStatus4.colorCode} ${cargoTankStatus4.cowType}</t>
   </si>
   <si>
-    <t>${cargoTankStatus5.colorCode},${cargoTankStatus5.cowType}</t>
+    <t>${cargoTankStatus5.colorCode} ${cargoTankStatus5.cowType}</t>
   </si>
   <si>
-    <t>${cargoTankStatus6.colorCode},${cargoTankStatus6.cowType}</t>
+    <t>${cargoTankStatus6.colorCode} ${cargoTankStatus6.cowType}</t>
   </si>
   <si>
-    <t>${cargoTankStatus7.colorCode},${cargoTankStatus7.cowType}</t>
+    <t>${cargoTankStatus7.colorCode} ${cargoTankStatus7.cowType}</t>
   </si>
   <si>
-    <t>${cargoTankStatus8.colorCode},${cargoTankStatus8.cowType}</t>
+    <t>${cargoTankStatus8.colorCode} ${cargoTankStatus8.cowType}</t>
   </si>
   <si>
-    <t>${cargoTankStatus9.colorCode},${cargoTankStatus9.cowType}</t>
+    <t>${cargoTankStatus9.colorCode} ${cargoTankStatus9.cowType}</t>
   </si>
   <si>
-    <t>${cargoTankStatus10.colorCode},${cargoTankStatus10.cowType}</t>
+    <t>${cargoTankStatus10.colorCode} ${cargoTankStatus10.cowType}</t>
   </si>
   <si>
-    <t>${cargoTankStatus11.colorCode},${cargoTankStatus11.cowType}</t>
+    <t>${cargoTankStatus11.colorCode} ${cargoTankStatus11.cowType}</t>
   </si>
   <si>
-    <t>${cargoTankStatus12.colorCode},${cargoTankStatus12.cowType}</t>
+    <t>${cargoTankStatus12.colorCode} ${cargoTankStatus12.cowType}</t>
   </si>
   <si>
-    <t>${cargoTankStatus13.colorCode},${cargoTankStatus13.cowType}</t>
+    <t>${cargoTankStatus13.colorCode} ${cargoTankStatus13.cowType}</t>
   </si>
   <si>
-    <t>${cargoTankStatus14.colorCode},${cargoTankStatus14.cowType}</t>
+    <t>${cargoTankStatus14.colorCode} ${cargoTankStatus14.cowType}</t>
   </si>
   <si>
-    <t>${cargoTankStatus15.colorCode},${cargoTankStatus15.cowType}</t>
+    <t>${cargoTankStatus15.colorCode} ${cargoTankStatus15.cowType}</t>
   </si>
   <si>
-    <t>${cargoTankStatus16.colorCode},${cargoTankStatus16.cowType}</t>
+    <t>${cargoTankStatus16.colorCode} ${cargoTankStatus16.cowType}</t>
+  </si>
+  <si>
+    <t>COW TOP WASH :</t>
+  </si>
+  <si>
+    <t>COW FULL WASH :</t>
+  </si>
+  <si>
+    <t>COW BOTTOM WASH :</t>
+  </si>
+  <si>
+    <t>${ballastPumpStatus2.colorCode}</t>
   </si>
 </sst>
 </file>
@@ -5012,7 +5049,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="509">
+  <cellXfs count="511">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -5634,10 +5671,6 @@
     <xf numFmtId="0" fontId="51" fillId="0" borderId="10" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="16" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
@@ -5648,6 +5681,10 @@
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="16" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -6335,10 +6372,6 @@
       <alignment horizontal="right" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="4" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="36" fillId="0" borderId="3" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
@@ -6468,7 +6501,19 @@
     <xf numFmtId="0" fontId="37" fillId="4" borderId="18" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="37" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="4" borderId="19" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="4" borderId="15" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -6480,12 +6525,6 @@
     <xf numFmtId="38" fontId="23" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="4" borderId="19" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="4" borderId="15" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="43" fillId="0" borderId="3" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -6562,6 +6601,9 @@
     <xf numFmtId="0" fontId="40" fillId="3" borderId="30" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" wrapText="1"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="57" fillId="6" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -7700,10 +7742,10 @@
           </xdr:nvGrpSpPr>
           <xdr:grpSpPr>
             <a:xfrm>
-              <a:off x="380552" y="3921604"/>
+              <a:off x="380552" y="3921619"/>
               <a:ext cx="418203" cy="725634"/>
-              <a:chOff x="376566" y="3942678"/>
-              <a:chExt cx="297180" cy="732370"/>
+              <a:chOff x="376566" y="3942676"/>
+              <a:chExt cx="297180" cy="732365"/>
             </a:xfrm>
           </xdr:grpSpPr>
           <xdr:sp macro="" textlink="">
@@ -7722,7 +7764,7 @@
             </xdr:nvSpPr>
             <xdr:spPr bwMode="auto">
               <a:xfrm>
-                <a:off x="376566" y="3942678"/>
+                <a:off x="376566" y="3942676"/>
                 <a:ext cx="297180" cy="194983"/>
               </a:xfrm>
               <a:prstGeom prst="rect">
@@ -7806,7 +7848,7 @@
             </xdr:nvSpPr>
             <xdr:spPr bwMode="auto">
               <a:xfrm>
-                <a:off x="392430" y="4404369"/>
+                <a:off x="392430" y="4404362"/>
                 <a:ext cx="243840" cy="270679"/>
               </a:xfrm>
               <a:prstGeom prst="rect">
@@ -7838,6 +7880,143 @@
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>591678</xdr:colOff>
+      <xdr:row>100</xdr:row>
+      <xdr:rowOff>133187</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>820249</xdr:colOff>
+      <xdr:row>102</xdr:row>
+      <xdr:rowOff>15871</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8758525" y="21603658"/>
+          <a:ext cx="228571" cy="241270"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>333778</xdr:colOff>
+      <xdr:row>100</xdr:row>
+      <xdr:rowOff>120489</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>562349</xdr:colOff>
+      <xdr:row>102</xdr:row>
+      <xdr:rowOff>28570</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5891896" y="21590960"/>
+          <a:ext cx="228571" cy="266667"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>219318</xdr:colOff>
+      <xdr:row>100</xdr:row>
+      <xdr:rowOff>133187</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>447889</xdr:colOff>
+      <xdr:row>102</xdr:row>
+      <xdr:rowOff>15871</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3105953" y="21603658"/>
+          <a:ext cx="228571" cy="241270"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -8131,7 +8310,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:AS73"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="17.25" customHeight="1"/>
   <cols>
@@ -11313,9 +11492,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AJ74"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4:H4"/>
-    </sheetView>
+    <sheetView showGridLines="0" showRowColHeaders="0" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5.6640625" defaultRowHeight="17.25" customHeight="1"/>
   <cols>
@@ -11441,7 +11618,7 @@
     </row>
     <row r="4" spans="1:24" s="219" customFormat="1" ht="19.5" customHeight="1">
       <c r="A4" s="218"/>
-      <c r="B4" s="250" t="s">
+      <c r="B4" s="253" t="s">
         <v>556</v>
       </c>
       <c r="C4" s="364" t="s">
@@ -11645,13 +11822,13 @@
       <c r="H11" s="400"/>
       <c r="I11" s="400"/>
       <c r="J11" s="400"/>
-      <c r="K11" s="252" t="s">
+      <c r="K11" s="251" t="s">
         <v>484</v>
       </c>
       <c r="L11" s="233" t="s">
         <v>557</v>
       </c>
-      <c r="M11" s="251" t="s">
+      <c r="M11" s="250" t="s">
         <v>488</v>
       </c>
       <c r="O11" s="349"/>
@@ -11679,13 +11856,13 @@
       <c r="H12" s="393"/>
       <c r="I12" s="393"/>
       <c r="J12" s="393"/>
-      <c r="K12" s="253" t="s">
+      <c r="K12" s="252" t="s">
         <v>484</v>
       </c>
       <c r="L12" s="234" t="s">
         <v>558</v>
       </c>
-      <c r="M12" s="251" t="s">
+      <c r="M12" s="250" t="s">
         <v>488</v>
       </c>
       <c r="O12" s="401" t="s">
@@ -11719,13 +11896,13 @@
       <c r="H13" s="393"/>
       <c r="I13" s="393"/>
       <c r="J13" s="393"/>
-      <c r="K13" s="253" t="s">
+      <c r="K13" s="252" t="s">
         <v>484</v>
       </c>
       <c r="L13" s="234" t="s">
         <v>559</v>
       </c>
-      <c r="M13" s="251" t="s">
+      <c r="M13" s="250" t="s">
         <v>488</v>
       </c>
       <c r="O13" s="235"/>
@@ -13677,9 +13854,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BW1053"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E39" sqref="E39:F39"/>
-    </sheetView>
+    <sheetView showGridLines="0" showRowColHeaders="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.33203125" defaultRowHeight="15.6"/>
   <cols>
@@ -13714,37 +13889,37 @@
       <c r="A2" s="106" t="s">
         <v>42</v>
       </c>
-      <c r="B2" s="475" t="s">
+      <c r="B2" s="478" t="s">
         <v>52</v>
       </c>
-      <c r="C2" s="475"/>
-      <c r="D2" s="475"/>
-      <c r="E2" s="486" t="s">
+      <c r="C2" s="478"/>
+      <c r="D2" s="478"/>
+      <c r="E2" s="487" t="s">
         <v>508</v>
       </c>
-      <c r="F2" s="487"/>
-      <c r="G2" s="487"/>
-      <c r="H2" s="487"/>
-      <c r="I2" s="487"/>
-      <c r="J2" s="487"/>
-      <c r="K2" s="487"/>
-      <c r="L2" s="487"/>
-      <c r="M2" s="487"/>
-      <c r="N2" s="487"/>
-      <c r="O2" s="487"/>
-      <c r="P2" s="487"/>
-      <c r="Q2" s="487"/>
-      <c r="R2" s="487"/>
-      <c r="S2" s="487"/>
-      <c r="T2" s="487"/>
-      <c r="U2" s="487"/>
-      <c r="V2" s="487"/>
-      <c r="W2" s="487"/>
-      <c r="X2" s="487"/>
-      <c r="Y2" s="487"/>
-      <c r="Z2" s="487"/>
-      <c r="AA2" s="487"/>
-      <c r="AB2" s="488"/>
+      <c r="F2" s="488"/>
+      <c r="G2" s="488"/>
+      <c r="H2" s="488"/>
+      <c r="I2" s="488"/>
+      <c r="J2" s="488"/>
+      <c r="K2" s="488"/>
+      <c r="L2" s="488"/>
+      <c r="M2" s="488"/>
+      <c r="N2" s="488"/>
+      <c r="O2" s="488"/>
+      <c r="P2" s="488"/>
+      <c r="Q2" s="488"/>
+      <c r="R2" s="488"/>
+      <c r="S2" s="488"/>
+      <c r="T2" s="488"/>
+      <c r="U2" s="488"/>
+      <c r="V2" s="488"/>
+      <c r="W2" s="488"/>
+      <c r="X2" s="488"/>
+      <c r="Y2" s="488"/>
+      <c r="Z2" s="488"/>
+      <c r="AA2" s="488"/>
+      <c r="AB2" s="489"/>
       <c r="AC2" s="107"/>
       <c r="AD2" s="107"/>
       <c r="AE2" s="107"/>
@@ -13754,54 +13929,54 @@
       <c r="AI2" s="108"/>
       <c r="AJ2" s="108"/>
       <c r="AP2" s="105"/>
-      <c r="BF2" s="476"/>
-      <c r="BG2" s="476"/>
-      <c r="BH2" s="476"/>
-      <c r="BI2" s="476"/>
-      <c r="BJ2" s="476"/>
-      <c r="BK2" s="476"/>
-      <c r="BL2" s="476"/>
-      <c r="BM2" s="476"/>
-      <c r="BN2" s="476"/>
-      <c r="BO2" s="476"/>
-      <c r="BP2" s="476"/>
-      <c r="BQ2" s="476"/>
-      <c r="BR2" s="476"/>
-      <c r="BS2" s="476"/>
+      <c r="BF2" s="479"/>
+      <c r="BG2" s="479"/>
+      <c r="BH2" s="479"/>
+      <c r="BI2" s="479"/>
+      <c r="BJ2" s="479"/>
+      <c r="BK2" s="479"/>
+      <c r="BL2" s="479"/>
+      <c r="BM2" s="479"/>
+      <c r="BN2" s="479"/>
+      <c r="BO2" s="479"/>
+      <c r="BP2" s="479"/>
+      <c r="BQ2" s="479"/>
+      <c r="BR2" s="479"/>
+      <c r="BS2" s="479"/>
     </row>
     <row r="3" spans="1:75" ht="46.8" customHeight="1" thickBot="1">
       <c r="A3" s="106" t="s">
         <v>43</v>
       </c>
-      <c r="B3" s="475" t="s">
+      <c r="B3" s="478" t="s">
         <v>53</v>
       </c>
-      <c r="C3" s="475"/>
-      <c r="D3" s="475"/>
-      <c r="E3" s="489"/>
-      <c r="F3" s="490"/>
-      <c r="G3" s="490"/>
-      <c r="H3" s="490"/>
-      <c r="I3" s="490"/>
-      <c r="J3" s="490"/>
-      <c r="K3" s="490"/>
-      <c r="L3" s="490"/>
-      <c r="M3" s="490"/>
-      <c r="N3" s="490"/>
-      <c r="O3" s="490"/>
-      <c r="P3" s="490"/>
-      <c r="Q3" s="490"/>
-      <c r="R3" s="490"/>
-      <c r="S3" s="490"/>
-      <c r="T3" s="490"/>
-      <c r="U3" s="490"/>
-      <c r="V3" s="490"/>
-      <c r="W3" s="490"/>
-      <c r="X3" s="490"/>
-      <c r="Y3" s="490"/>
-      <c r="Z3" s="490"/>
-      <c r="AA3" s="490"/>
-      <c r="AB3" s="491"/>
+      <c r="C3" s="478"/>
+      <c r="D3" s="478"/>
+      <c r="E3" s="490"/>
+      <c r="F3" s="491"/>
+      <c r="G3" s="491"/>
+      <c r="H3" s="491"/>
+      <c r="I3" s="491"/>
+      <c r="J3" s="491"/>
+      <c r="K3" s="491"/>
+      <c r="L3" s="491"/>
+      <c r="M3" s="491"/>
+      <c r="N3" s="491"/>
+      <c r="O3" s="491"/>
+      <c r="P3" s="491"/>
+      <c r="Q3" s="491"/>
+      <c r="R3" s="491"/>
+      <c r="S3" s="491"/>
+      <c r="T3" s="491"/>
+      <c r="U3" s="491"/>
+      <c r="V3" s="491"/>
+      <c r="W3" s="491"/>
+      <c r="X3" s="491"/>
+      <c r="Y3" s="491"/>
+      <c r="Z3" s="491"/>
+      <c r="AA3" s="491"/>
+      <c r="AB3" s="492"/>
       <c r="AC3" s="107"/>
       <c r="AD3" s="107"/>
       <c r="AE3" s="107"/>
@@ -13910,22 +14085,22 @@
       <c r="BO4" s="103"/>
     </row>
     <row r="5" spans="1:75" ht="18" customHeight="1">
-      <c r="A5" s="472" t="s">
+      <c r="A5" s="471" t="s">
         <v>295</v>
       </c>
-      <c r="B5" s="492" t="s">
+      <c r="B5" s="493" t="s">
         <v>388</v>
       </c>
-      <c r="C5" s="478" t="s">
+      <c r="C5" s="476" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="494" t="s">
+      <c r="D5" s="495" t="s">
         <v>389</v>
       </c>
-      <c r="E5" s="496" t="s">
+      <c r="E5" s="497" t="s">
         <v>385</v>
       </c>
-      <c r="F5" s="497"/>
+      <c r="F5" s="498"/>
       <c r="G5" s="113"/>
       <c r="H5" s="113"/>
       <c r="I5" s="113"/>
@@ -13952,10 +14127,10 @@
       <c r="AD5" s="117"/>
       <c r="AE5" s="118"/>
       <c r="AF5" s="118"/>
-      <c r="AG5" s="477"/>
-      <c r="AH5" s="477"/>
-      <c r="AI5" s="477"/>
-      <c r="AJ5" s="477"/>
+      <c r="AG5" s="480"/>
+      <c r="AH5" s="480"/>
+      <c r="AI5" s="480"/>
+      <c r="AJ5" s="480"/>
       <c r="AK5" s="119"/>
       <c r="AL5" s="120"/>
       <c r="AM5" s="121"/>
@@ -13997,12 +14172,12 @@
       <c r="BW5" s="121"/>
     </row>
     <row r="6" spans="1:75" ht="18" customHeight="1">
-      <c r="A6" s="473"/>
-      <c r="B6" s="493"/>
-      <c r="C6" s="479"/>
-      <c r="D6" s="495"/>
-      <c r="E6" s="498"/>
-      <c r="F6" s="499"/>
+      <c r="A6" s="472"/>
+      <c r="B6" s="494"/>
+      <c r="C6" s="477"/>
+      <c r="D6" s="496"/>
+      <c r="E6" s="499"/>
+      <c r="F6" s="500"/>
       <c r="G6" s="74"/>
       <c r="H6" s="74"/>
       <c r="I6" s="74"/>
@@ -14027,12 +14202,12 @@
       <c r="AB6" s="74"/>
       <c r="AC6" s="74"/>
       <c r="AD6" s="74"/>
-      <c r="AE6" s="467"/>
-      <c r="AF6" s="467"/>
+      <c r="AE6" s="466"/>
+      <c r="AF6" s="466"/>
       <c r="AG6" s="122"/>
       <c r="AH6" s="123"/>
-      <c r="AI6" s="467"/>
-      <c r="AJ6" s="467"/>
+      <c r="AI6" s="466"/>
+      <c r="AJ6" s="466"/>
       <c r="AK6" s="123"/>
       <c r="AL6" s="124"/>
       <c r="AM6" s="124"/>
@@ -14074,16 +14249,16 @@
       <c r="BW6" s="125"/>
     </row>
     <row r="7" spans="1:75">
-      <c r="A7" s="468" t="s">
+      <c r="A7" s="467" t="s">
         <v>303</v>
       </c>
-      <c r="B7" s="469" t="s">
+      <c r="B7" s="468" t="s">
         <v>304</v>
       </c>
-      <c r="C7" s="468" t="s">
+      <c r="C7" s="467" t="s">
         <v>305</v>
       </c>
-      <c r="D7" s="471" t="s">
+      <c r="D7" s="470" t="s">
         <v>306</v>
       </c>
       <c r="E7" s="435" t="s">
@@ -14139,10 +14314,10 @@
       <c r="BW7" s="132"/>
     </row>
     <row r="8" spans="1:75">
-      <c r="A8" s="468"/>
-      <c r="B8" s="470"/>
-      <c r="C8" s="468"/>
-      <c r="D8" s="471"/>
+      <c r="A8" s="467"/>
+      <c r="B8" s="469"/>
+      <c r="C8" s="467"/>
+      <c r="D8" s="470"/>
       <c r="E8" s="435" t="s">
         <v>390</v>
       </c>
@@ -14193,16 +14368,16 @@
       <c r="BW8" s="132"/>
     </row>
     <row r="9" spans="1:75" ht="15.6" customHeight="1">
-      <c r="A9" s="468" t="s">
+      <c r="A9" s="473" t="s">
         <v>307</v>
       </c>
-      <c r="B9" s="474" t="s">
+      <c r="B9" s="468" t="s">
         <v>308</v>
       </c>
-      <c r="C9" s="468" t="s">
+      <c r="C9" s="473" t="s">
         <v>309</v>
       </c>
-      <c r="D9" s="471" t="s">
+      <c r="D9" s="473" t="s">
         <v>310</v>
       </c>
       <c r="E9" s="435" t="s">
@@ -14255,10 +14430,10 @@
       <c r="BW9" s="132"/>
     </row>
     <row r="10" spans="1:75" ht="15.6" customHeight="1">
-      <c r="A10" s="468"/>
-      <c r="B10" s="474"/>
-      <c r="C10" s="468"/>
-      <c r="D10" s="471"/>
+      <c r="A10" s="474"/>
+      <c r="B10" s="469"/>
+      <c r="C10" s="474"/>
+      <c r="D10" s="474"/>
       <c r="E10" s="435" t="s">
         <v>391</v>
       </c>
@@ -14313,16 +14488,16 @@
       <c r="BW10" s="132"/>
     </row>
     <row r="11" spans="1:75" ht="15.6" customHeight="1">
-      <c r="A11" s="468" t="s">
+      <c r="A11" s="473" t="s">
         <v>311</v>
       </c>
-      <c r="B11" s="474" t="s">
+      <c r="B11" s="468" t="s">
         <v>312</v>
       </c>
-      <c r="C11" s="468" t="s">
+      <c r="C11" s="473" t="s">
         <v>313</v>
       </c>
-      <c r="D11" s="471" t="s">
+      <c r="D11" s="473" t="s">
         <v>314</v>
       </c>
       <c r="E11" s="435" t="s">
@@ -14379,11 +14554,11 @@
       <c r="BV11" s="132"/>
       <c r="BW11" s="132"/>
     </row>
-    <row r="12" spans="1:75">
-      <c r="A12" s="468"/>
-      <c r="B12" s="474"/>
-      <c r="C12" s="468"/>
-      <c r="D12" s="471"/>
+    <row r="12" spans="1:75" ht="15.6" customHeight="1">
+      <c r="A12" s="474"/>
+      <c r="B12" s="469"/>
+      <c r="C12" s="474"/>
+      <c r="D12" s="474"/>
       <c r="E12" s="435" t="s">
         <v>392</v>
       </c>
@@ -14439,16 +14614,16 @@
       <c r="BW12" s="132"/>
     </row>
     <row r="13" spans="1:75" ht="15.6" customHeight="1">
-      <c r="A13" s="468" t="s">
+      <c r="A13" s="467" t="s">
         <v>315</v>
       </c>
-      <c r="B13" s="474" t="s">
+      <c r="B13" s="475" t="s">
         <v>316</v>
       </c>
-      <c r="C13" s="468" t="s">
+      <c r="C13" s="467" t="s">
         <v>317</v>
       </c>
-      <c r="D13" s="471" t="s">
+      <c r="D13" s="470" t="s">
         <v>318</v>
       </c>
       <c r="E13" s="435" t="s">
@@ -14506,10 +14681,10 @@
       <c r="BW13" s="132"/>
     </row>
     <row r="14" spans="1:75">
-      <c r="A14" s="468"/>
-      <c r="B14" s="474"/>
-      <c r="C14" s="468"/>
-      <c r="D14" s="471"/>
+      <c r="A14" s="467"/>
+      <c r="B14" s="475"/>
+      <c r="C14" s="467"/>
+      <c r="D14" s="470"/>
       <c r="E14" s="435" t="s">
         <v>393</v>
       </c>
@@ -14565,16 +14740,16 @@
       <c r="BW14" s="132"/>
     </row>
     <row r="15" spans="1:75" ht="15.6" customHeight="1">
-      <c r="A15" s="468" t="s">
+      <c r="A15" s="473" t="s">
         <v>319</v>
       </c>
-      <c r="B15" s="474" t="s">
+      <c r="B15" s="468" t="s">
         <v>320</v>
       </c>
-      <c r="C15" s="468" t="s">
+      <c r="C15" s="473" t="s">
         <v>321</v>
       </c>
-      <c r="D15" s="471" t="s">
+      <c r="D15" s="473" t="s">
         <v>322</v>
       </c>
       <c r="E15" s="435" t="s">
@@ -14631,11 +14806,11 @@
       <c r="BV15" s="132"/>
       <c r="BW15" s="132"/>
     </row>
-    <row r="16" spans="1:75">
-      <c r="A16" s="468"/>
-      <c r="B16" s="474"/>
-      <c r="C16" s="468"/>
-      <c r="D16" s="471"/>
+    <row r="16" spans="1:75" ht="15.6" customHeight="1">
+      <c r="A16" s="474"/>
+      <c r="B16" s="469"/>
+      <c r="C16" s="474"/>
+      <c r="D16" s="474"/>
       <c r="E16" s="435" t="s">
         <v>394</v>
       </c>
@@ -14686,16 +14861,16 @@
       <c r="BW16" s="132"/>
     </row>
     <row r="17" spans="1:75" ht="15.6" customHeight="1">
-      <c r="A17" s="468" t="s">
+      <c r="A17" s="467" t="s">
         <v>323</v>
       </c>
-      <c r="B17" s="474" t="s">
+      <c r="B17" s="475" t="s">
         <v>324</v>
       </c>
-      <c r="C17" s="468" t="s">
+      <c r="C17" s="467" t="s">
         <v>325</v>
       </c>
-      <c r="D17" s="471" t="s">
+      <c r="D17" s="470" t="s">
         <v>326</v>
       </c>
       <c r="E17" s="435" t="s">
@@ -14748,10 +14923,10 @@
       <c r="BW17" s="132"/>
     </row>
     <row r="18" spans="1:75">
-      <c r="A18" s="468"/>
-      <c r="B18" s="474"/>
-      <c r="C18" s="468"/>
-      <c r="D18" s="471"/>
+      <c r="A18" s="467"/>
+      <c r="B18" s="475"/>
+      <c r="C18" s="467"/>
+      <c r="D18" s="470"/>
       <c r="E18" s="435" t="s">
         <v>395</v>
       </c>
@@ -14810,16 +14985,16 @@
       <c r="BW18" s="132"/>
     </row>
     <row r="19" spans="1:75" ht="15.6" customHeight="1">
-      <c r="A19" s="468" t="s">
+      <c r="A19" s="473" t="s">
         <v>327</v>
       </c>
-      <c r="B19" s="474" t="s">
+      <c r="B19" s="468" t="s">
         <v>328</v>
       </c>
-      <c r="C19" s="468" t="s">
+      <c r="C19" s="473" t="s">
         <v>329</v>
       </c>
-      <c r="D19" s="471" t="s">
+      <c r="D19" s="473" t="s">
         <v>330</v>
       </c>
       <c r="E19" s="435" t="s">
@@ -14871,11 +15046,11 @@
       <c r="BV19" s="132"/>
       <c r="BW19" s="132"/>
     </row>
-    <row r="20" spans="1:75">
-      <c r="A20" s="468"/>
-      <c r="B20" s="474"/>
-      <c r="C20" s="468"/>
-      <c r="D20" s="471"/>
+    <row r="20" spans="1:75" ht="15.6" customHeight="1">
+      <c r="A20" s="474"/>
+      <c r="B20" s="469"/>
+      <c r="C20" s="474"/>
+      <c r="D20" s="474"/>
       <c r="E20" s="435" t="s">
         <v>396</v>
       </c>
@@ -14926,16 +15101,16 @@
       <c r="BW20" s="132"/>
     </row>
     <row r="21" spans="1:75" ht="15.6" customHeight="1">
-      <c r="A21" s="468" t="s">
+      <c r="A21" s="467" t="s">
         <v>331</v>
       </c>
-      <c r="B21" s="474" t="s">
+      <c r="B21" s="475" t="s">
         <v>332</v>
       </c>
-      <c r="C21" s="468" t="s">
+      <c r="C21" s="467" t="s">
         <v>333</v>
       </c>
-      <c r="D21" s="471" t="s">
+      <c r="D21" s="470" t="s">
         <v>334</v>
       </c>
       <c r="E21" s="435" t="s">
@@ -14988,10 +15163,10 @@
       <c r="BW21" s="132"/>
     </row>
     <row r="22" spans="1:75">
-      <c r="A22" s="468"/>
-      <c r="B22" s="474"/>
-      <c r="C22" s="468"/>
-      <c r="D22" s="471"/>
+      <c r="A22" s="467"/>
+      <c r="B22" s="475"/>
+      <c r="C22" s="467"/>
+      <c r="D22" s="470"/>
       <c r="E22" s="435" t="s">
         <v>397</v>
       </c>
@@ -15042,16 +15217,16 @@
       <c r="BW22" s="132"/>
     </row>
     <row r="23" spans="1:75" ht="15.6" customHeight="1">
-      <c r="A23" s="468" t="s">
+      <c r="A23" s="473" t="s">
         <v>335</v>
       </c>
-      <c r="B23" s="474" t="s">
+      <c r="B23" s="468" t="s">
         <v>336</v>
       </c>
-      <c r="C23" s="468" t="s">
+      <c r="C23" s="473" t="s">
         <v>337</v>
       </c>
-      <c r="D23" s="471" t="s">
+      <c r="D23" s="473" t="s">
         <v>338</v>
       </c>
       <c r="E23" s="435" t="s">
@@ -15103,11 +15278,11 @@
       <c r="BV23" s="132"/>
       <c r="BW23" s="132"/>
     </row>
-    <row r="24" spans="1:75">
-      <c r="A24" s="468"/>
-      <c r="B24" s="474"/>
-      <c r="C24" s="468"/>
-      <c r="D24" s="471"/>
+    <row r="24" spans="1:75" ht="15.6" customHeight="1">
+      <c r="A24" s="474"/>
+      <c r="B24" s="469"/>
+      <c r="C24" s="474"/>
+      <c r="D24" s="474"/>
       <c r="E24" s="435" t="s">
         <v>398</v>
       </c>
@@ -15158,16 +15333,16 @@
       <c r="BW24" s="132"/>
     </row>
     <row r="25" spans="1:75" ht="15.6" customHeight="1">
-      <c r="A25" s="468" t="s">
+      <c r="A25" s="467" t="s">
         <v>339</v>
       </c>
-      <c r="B25" s="474" t="s">
+      <c r="B25" s="475" t="s">
         <v>340</v>
       </c>
-      <c r="C25" s="468" t="s">
+      <c r="C25" s="467" t="s">
         <v>341</v>
       </c>
-      <c r="D25" s="471" t="s">
+      <c r="D25" s="470" t="s">
         <v>342</v>
       </c>
       <c r="E25" s="435" t="s">
@@ -15220,10 +15395,10 @@
       <c r="BW25" s="132"/>
     </row>
     <row r="26" spans="1:75">
-      <c r="A26" s="468"/>
-      <c r="B26" s="474"/>
-      <c r="C26" s="468"/>
-      <c r="D26" s="471"/>
+      <c r="A26" s="467"/>
+      <c r="B26" s="475"/>
+      <c r="C26" s="467"/>
+      <c r="D26" s="470"/>
       <c r="E26" s="435" t="s">
         <v>399</v>
       </c>
@@ -15274,16 +15449,16 @@
       <c r="BW26" s="132"/>
     </row>
     <row r="27" spans="1:75" ht="15.6" customHeight="1">
-      <c r="A27" s="468" t="s">
+      <c r="A27" s="473" t="s">
         <v>343</v>
       </c>
-      <c r="B27" s="474" t="s">
+      <c r="B27" s="468" t="s">
         <v>344</v>
       </c>
-      <c r="C27" s="468" t="s">
+      <c r="C27" s="473" t="s">
         <v>345</v>
       </c>
-      <c r="D27" s="471" t="s">
+      <c r="D27" s="473" t="s">
         <v>346</v>
       </c>
       <c r="E27" s="435" t="s">
@@ -15335,11 +15510,11 @@
       <c r="BV27" s="132"/>
       <c r="BW27" s="132"/>
     </row>
-    <row r="28" spans="1:75">
-      <c r="A28" s="468"/>
-      <c r="B28" s="474"/>
-      <c r="C28" s="468"/>
-      <c r="D28" s="471"/>
+    <row r="28" spans="1:75" ht="15.6" customHeight="1">
+      <c r="A28" s="474"/>
+      <c r="B28" s="469"/>
+      <c r="C28" s="474"/>
+      <c r="D28" s="474"/>
       <c r="E28" s="435" t="s">
         <v>400</v>
       </c>
@@ -15390,16 +15565,16 @@
       <c r="BW28" s="132"/>
     </row>
     <row r="29" spans="1:75" ht="15.6" customHeight="1">
-      <c r="A29" s="468" t="s">
+      <c r="A29" s="467" t="s">
         <v>347</v>
       </c>
-      <c r="B29" s="474" t="s">
+      <c r="B29" s="475" t="s">
         <v>348</v>
       </c>
-      <c r="C29" s="468" t="s">
+      <c r="C29" s="467" t="s">
         <v>349</v>
       </c>
-      <c r="D29" s="471" t="s">
+      <c r="D29" s="470" t="s">
         <v>350</v>
       </c>
       <c r="E29" s="435" t="s">
@@ -15452,10 +15627,10 @@
       <c r="BW29" s="132"/>
     </row>
     <row r="30" spans="1:75">
-      <c r="A30" s="468"/>
-      <c r="B30" s="474"/>
-      <c r="C30" s="468"/>
-      <c r="D30" s="471"/>
+      <c r="A30" s="467"/>
+      <c r="B30" s="475"/>
+      <c r="C30" s="467"/>
+      <c r="D30" s="470"/>
       <c r="E30" s="435" t="s">
         <v>401</v>
       </c>
@@ -15506,16 +15681,16 @@
       <c r="BW30" s="132"/>
     </row>
     <row r="31" spans="1:75" ht="15.6" customHeight="1">
-      <c r="A31" s="468" t="s">
+      <c r="A31" s="467" t="s">
         <v>351</v>
       </c>
-      <c r="B31" s="474" t="s">
+      <c r="B31" s="475" t="s">
         <v>352</v>
       </c>
-      <c r="C31" s="468" t="s">
+      <c r="C31" s="467" t="s">
         <v>353</v>
       </c>
-      <c r="D31" s="471" t="s">
+      <c r="D31" s="470" t="s">
         <v>354</v>
       </c>
       <c r="E31" s="435" t="s">
@@ -15568,10 +15743,10 @@
       <c r="BW31" s="132"/>
     </row>
     <row r="32" spans="1:75">
-      <c r="A32" s="468"/>
-      <c r="B32" s="474"/>
-      <c r="C32" s="468"/>
-      <c r="D32" s="471"/>
+      <c r="A32" s="467"/>
+      <c r="B32" s="475"/>
+      <c r="C32" s="467"/>
+      <c r="D32" s="470"/>
       <c r="E32" s="435" t="s">
         <v>402</v>
       </c>
@@ -15622,16 +15797,16 @@
       <c r="BW32" s="132"/>
     </row>
     <row r="33" spans="1:75" ht="15.6" customHeight="1">
-      <c r="A33" s="468" t="s">
+      <c r="A33" s="467" t="s">
         <v>355</v>
       </c>
-      <c r="B33" s="474" t="s">
+      <c r="B33" s="475" t="s">
         <v>356</v>
       </c>
-      <c r="C33" s="468" t="s">
+      <c r="C33" s="467" t="s">
         <v>357</v>
       </c>
-      <c r="D33" s="471" t="s">
+      <c r="D33" s="470" t="s">
         <v>358</v>
       </c>
       <c r="E33" s="435" t="s">
@@ -15684,10 +15859,10 @@
       <c r="BW33" s="132"/>
     </row>
     <row r="34" spans="1:75">
-      <c r="A34" s="468"/>
-      <c r="B34" s="474"/>
-      <c r="C34" s="468"/>
-      <c r="D34" s="471"/>
+      <c r="A34" s="467"/>
+      <c r="B34" s="475"/>
+      <c r="C34" s="467"/>
+      <c r="D34" s="470"/>
       <c r="E34" s="435" t="s">
         <v>403</v>
       </c>
@@ -15738,16 +15913,16 @@
       <c r="BW34" s="132"/>
     </row>
     <row r="35" spans="1:75" ht="15.6" customHeight="1">
-      <c r="A35" s="468" t="s">
+      <c r="A35" s="467" t="s">
         <v>359</v>
       </c>
-      <c r="B35" s="474" t="s">
+      <c r="B35" s="475" t="s">
         <v>360</v>
       </c>
-      <c r="C35" s="468" t="s">
+      <c r="C35" s="467" t="s">
         <v>361</v>
       </c>
-      <c r="D35" s="471" t="s">
+      <c r="D35" s="470" t="s">
         <v>362</v>
       </c>
       <c r="E35" s="435" t="s">
@@ -15800,10 +15975,10 @@
       <c r="BW35" s="132"/>
     </row>
     <row r="36" spans="1:75">
-      <c r="A36" s="468"/>
-      <c r="B36" s="474"/>
-      <c r="C36" s="468"/>
-      <c r="D36" s="471"/>
+      <c r="A36" s="467"/>
+      <c r="B36" s="475"/>
+      <c r="C36" s="467"/>
+      <c r="D36" s="470"/>
       <c r="E36" s="435" t="s">
         <v>404</v>
       </c>
@@ -15854,16 +16029,16 @@
       <c r="BW36" s="132"/>
     </row>
     <row r="37" spans="1:75" ht="15.6" customHeight="1">
-      <c r="A37" s="468" t="s">
+      <c r="A37" s="467" t="s">
         <v>363</v>
       </c>
-      <c r="B37" s="474" t="s">
+      <c r="B37" s="475" t="s">
         <v>364</v>
       </c>
-      <c r="C37" s="468" t="s">
+      <c r="C37" s="467" t="s">
         <v>365</v>
       </c>
-      <c r="D37" s="471" t="s">
+      <c r="D37" s="470" t="s">
         <v>366</v>
       </c>
       <c r="E37" s="435" t="s">
@@ -15916,10 +16091,10 @@
       <c r="BW37" s="132"/>
     </row>
     <row r="38" spans="1:75">
-      <c r="A38" s="468"/>
-      <c r="B38" s="474"/>
-      <c r="C38" s="468"/>
-      <c r="D38" s="471"/>
+      <c r="A38" s="467"/>
+      <c r="B38" s="475"/>
+      <c r="C38" s="467"/>
+      <c r="D38" s="470"/>
       <c r="E38" s="435" t="s">
         <v>405</v>
       </c>
@@ -15970,16 +16145,16 @@
       <c r="BW38" s="132"/>
     </row>
     <row r="39" spans="1:75" ht="15.6" customHeight="1">
-      <c r="A39" s="468" t="s">
+      <c r="A39" s="467" t="s">
         <v>367</v>
       </c>
-      <c r="B39" s="474" t="s">
+      <c r="B39" s="475" t="s">
         <v>368</v>
       </c>
-      <c r="C39" s="468" t="s">
+      <c r="C39" s="467" t="s">
         <v>369</v>
       </c>
-      <c r="D39" s="471" t="s">
+      <c r="D39" s="470" t="s">
         <v>370</v>
       </c>
       <c r="E39" s="435" t="s">
@@ -16032,10 +16207,10 @@
       <c r="BW39" s="132"/>
     </row>
     <row r="40" spans="1:75">
-      <c r="A40" s="468"/>
-      <c r="B40" s="474"/>
-      <c r="C40" s="468"/>
-      <c r="D40" s="471"/>
+      <c r="A40" s="467"/>
+      <c r="B40" s="475"/>
+      <c r="C40" s="467"/>
+      <c r="D40" s="470"/>
       <c r="E40" s="435" t="s">
         <v>406</v>
       </c>
@@ -16110,18 +16285,18 @@
       <c r="BW40" s="134"/>
     </row>
     <row r="41" spans="1:75" ht="22.2" customHeight="1">
-      <c r="A41" s="482" t="s">
+      <c r="A41" s="483" t="s">
         <v>572</v>
       </c>
-      <c r="B41" s="483"/>
-      <c r="C41" s="483"/>
-      <c r="D41" s="483"/>
-      <c r="E41" s="484"/>
-      <c r="F41" s="485"/>
-      <c r="G41" s="480" t="s">
+      <c r="B41" s="484"/>
+      <c r="C41" s="484"/>
+      <c r="D41" s="484"/>
+      <c r="E41" s="485"/>
+      <c r="F41" s="486"/>
+      <c r="G41" s="481" t="s">
         <v>515</v>
       </c>
-      <c r="H41" s="481"/>
+      <c r="H41" s="482"/>
       <c r="I41" s="74"/>
       <c r="J41" s="74"/>
       <c r="K41" s="74"/>
@@ -16189,18 +16364,18 @@
       <c r="BW41" s="105"/>
     </row>
     <row r="42" spans="1:75" ht="21.6" customHeight="1">
-      <c r="A42" s="482" t="s">
+      <c r="A42" s="483" t="s">
         <v>571</v>
       </c>
-      <c r="B42" s="483"/>
-      <c r="C42" s="483"/>
-      <c r="D42" s="483"/>
-      <c r="E42" s="484"/>
-      <c r="F42" s="485"/>
-      <c r="G42" s="480" t="s">
+      <c r="B42" s="484"/>
+      <c r="C42" s="484"/>
+      <c r="D42" s="484"/>
+      <c r="E42" s="485"/>
+      <c r="F42" s="486"/>
+      <c r="G42" s="481" t="s">
         <v>565</v>
       </c>
-      <c r="H42" s="481"/>
+      <c r="H42" s="482"/>
       <c r="I42" s="74"/>
       <c r="J42" s="74"/>
       <c r="K42" s="74"/>
@@ -16268,18 +16443,18 @@
       <c r="BW42" s="105"/>
     </row>
     <row r="43" spans="1:75" ht="37.799999999999997" customHeight="1">
-      <c r="A43" s="506" t="s">
+      <c r="A43" s="508" t="s">
         <v>573</v>
       </c>
-      <c r="B43" s="507"/>
-      <c r="C43" s="507"/>
-      <c r="D43" s="507"/>
-      <c r="E43" s="507"/>
-      <c r="F43" s="508"/>
-      <c r="G43" s="502" t="s">
+      <c r="B43" s="509"/>
+      <c r="C43" s="509"/>
+      <c r="D43" s="509"/>
+      <c r="E43" s="509"/>
+      <c r="F43" s="510"/>
+      <c r="G43" s="504" t="s">
         <v>531</v>
       </c>
-      <c r="H43" s="503"/>
+      <c r="H43" s="505"/>
       <c r="I43" s="74"/>
       <c r="J43" s="74"/>
       <c r="K43" s="74"/>
@@ -16347,14 +16522,14 @@
       <c r="BW43" s="105"/>
     </row>
     <row r="44" spans="1:75">
-      <c r="A44" s="443" t="s">
+      <c r="A44" s="442" t="s">
         <v>509</v>
       </c>
-      <c r="B44" s="444"/>
-      <c r="C44" s="447" t="s">
+      <c r="B44" s="443"/>
+      <c r="C44" s="446" t="s">
         <v>510</v>
       </c>
-      <c r="D44" s="448"/>
+      <c r="D44" s="447"/>
       <c r="E44" s="435" t="s">
         <v>566</v>
       </c>
@@ -16428,10 +16603,10 @@
       <c r="BW44" s="105"/>
     </row>
     <row r="45" spans="1:75" ht="15.6" hidden="1" customHeight="1">
-      <c r="A45" s="445"/>
-      <c r="B45" s="446"/>
-      <c r="C45" s="447"/>
-      <c r="D45" s="448"/>
+      <c r="A45" s="444"/>
+      <c r="B45" s="445"/>
+      <c r="C45" s="446"/>
+      <c r="D45" s="447"/>
       <c r="E45" s="435"/>
       <c r="F45" s="436"/>
       <c r="G45" s="187"/>
@@ -16503,12 +16678,12 @@
       <c r="BW45" s="105"/>
     </row>
     <row r="46" spans="1:75">
-      <c r="A46" s="445"/>
-      <c r="B46" s="446"/>
-      <c r="C46" s="447" t="s">
+      <c r="A46" s="444"/>
+      <c r="B46" s="445"/>
+      <c r="C46" s="446" t="s">
         <v>511</v>
       </c>
-      <c r="D46" s="448"/>
+      <c r="D46" s="447"/>
       <c r="E46" s="435" t="s">
         <v>567</v>
       </c>
@@ -16582,10 +16757,10 @@
       <c r="BW46" s="105"/>
     </row>
     <row r="47" spans="1:75" ht="15.6" hidden="1" customHeight="1">
-      <c r="A47" s="445"/>
-      <c r="B47" s="446"/>
-      <c r="C47" s="447"/>
-      <c r="D47" s="448"/>
+      <c r="A47" s="444"/>
+      <c r="B47" s="445"/>
+      <c r="C47" s="446"/>
+      <c r="D47" s="447"/>
       <c r="E47" s="435"/>
       <c r="F47" s="436"/>
       <c r="G47" s="187"/>
@@ -16657,12 +16832,12 @@
       <c r="BW47" s="105"/>
     </row>
     <row r="48" spans="1:75">
-      <c r="A48" s="445"/>
-      <c r="B48" s="446"/>
-      <c r="C48" s="447" t="s">
+      <c r="A48" s="444"/>
+      <c r="B48" s="445"/>
+      <c r="C48" s="446" t="s">
         <v>512</v>
       </c>
-      <c r="D48" s="448"/>
+      <c r="D48" s="447"/>
       <c r="E48" s="435" t="s">
         <v>568</v>
       </c>
@@ -16736,10 +16911,10 @@
       <c r="BW48" s="105"/>
     </row>
     <row r="49" spans="1:75" ht="15.6" hidden="1" customHeight="1">
-      <c r="A49" s="445"/>
-      <c r="B49" s="446"/>
-      <c r="C49" s="447"/>
-      <c r="D49" s="448"/>
+      <c r="A49" s="444"/>
+      <c r="B49" s="445"/>
+      <c r="C49" s="446"/>
+      <c r="D49" s="447"/>
       <c r="E49" s="435"/>
       <c r="F49" s="436"/>
       <c r="G49" s="187"/>
@@ -16811,12 +16986,12 @@
       <c r="BW49" s="105"/>
     </row>
     <row r="50" spans="1:75">
-      <c r="A50" s="445"/>
-      <c r="B50" s="446"/>
-      <c r="C50" s="447" t="s">
+      <c r="A50" s="444"/>
+      <c r="B50" s="445"/>
+      <c r="C50" s="446" t="s">
         <v>513</v>
       </c>
-      <c r="D50" s="448"/>
+      <c r="D50" s="447"/>
       <c r="E50" s="435" t="s">
         <v>569</v>
       </c>
@@ -16890,10 +17065,10 @@
       <c r="BW50" s="105"/>
     </row>
     <row r="51" spans="1:75" ht="15.6" hidden="1" customHeight="1">
-      <c r="A51" s="445"/>
-      <c r="B51" s="446"/>
-      <c r="C51" s="447"/>
-      <c r="D51" s="448"/>
+      <c r="A51" s="444"/>
+      <c r="B51" s="445"/>
+      <c r="C51" s="446"/>
+      <c r="D51" s="447"/>
       <c r="E51" s="435"/>
       <c r="F51" s="436"/>
       <c r="G51" s="187"/>
@@ -16965,12 +17140,12 @@
       <c r="BW51" s="105"/>
     </row>
     <row r="52" spans="1:75">
-      <c r="A52" s="445"/>
-      <c r="B52" s="446"/>
-      <c r="C52" s="447" t="s">
+      <c r="A52" s="444"/>
+      <c r="B52" s="445"/>
+      <c r="C52" s="446" t="s">
         <v>514</v>
       </c>
-      <c r="D52" s="448"/>
+      <c r="D52" s="447"/>
       <c r="E52" s="435" t="s">
         <v>570</v>
       </c>
@@ -17044,10 +17219,10 @@
       <c r="BW52" s="105"/>
     </row>
     <row r="53" spans="1:75" ht="15.6" hidden="1" customHeight="1">
-      <c r="A53" s="504"/>
-      <c r="B53" s="505"/>
-      <c r="C53" s="500"/>
-      <c r="D53" s="501"/>
+      <c r="A53" s="506"/>
+      <c r="B53" s="507"/>
+      <c r="C53" s="502"/>
+      <c r="D53" s="503"/>
       <c r="E53" s="435"/>
       <c r="F53" s="436"/>
       <c r="G53" s="187"/>
@@ -17119,10 +17294,10 @@
       <c r="BW53" s="105"/>
     </row>
     <row r="54" spans="1:75" s="136" customFormat="1" ht="15" customHeight="1">
-      <c r="A54" s="449" t="s">
+      <c r="A54" s="448" t="s">
         <v>302</v>
       </c>
-      <c r="B54" s="450"/>
+      <c r="B54" s="449"/>
       <c r="C54" s="431" t="s">
         <v>371</v>
       </c>
@@ -17200,8 +17375,8 @@
       <c r="BW54" s="137"/>
     </row>
     <row r="55" spans="1:75" s="136" customFormat="1" ht="15.6" customHeight="1">
-      <c r="A55" s="451"/>
-      <c r="B55" s="452"/>
+      <c r="A55" s="450"/>
+      <c r="B55" s="451"/>
       <c r="C55" s="433"/>
       <c r="D55" s="434"/>
       <c r="E55" s="435" t="s">
@@ -17277,8 +17452,8 @@
       <c r="BW55" s="137"/>
     </row>
     <row r="56" spans="1:75" s="136" customFormat="1" ht="15.6" customHeight="1">
-      <c r="A56" s="451"/>
-      <c r="B56" s="452"/>
+      <c r="A56" s="450"/>
+      <c r="B56" s="451"/>
       <c r="C56" s="431" t="s">
         <v>372</v>
       </c>
@@ -17356,8 +17531,8 @@
       <c r="BW56" s="137"/>
     </row>
     <row r="57" spans="1:75" s="136" customFormat="1" ht="15.6" customHeight="1">
-      <c r="A57" s="451"/>
-      <c r="B57" s="452"/>
+      <c r="A57" s="450"/>
+      <c r="B57" s="451"/>
       <c r="C57" s="433"/>
       <c r="D57" s="434"/>
       <c r="E57" s="435" t="s">
@@ -17433,8 +17608,8 @@
       <c r="BW57" s="137"/>
     </row>
     <row r="58" spans="1:75" s="136" customFormat="1" ht="15.6" customHeight="1">
-      <c r="A58" s="451"/>
-      <c r="B58" s="452"/>
+      <c r="A58" s="450"/>
+      <c r="B58" s="451"/>
       <c r="C58" s="431" t="s">
         <v>373</v>
       </c>
@@ -17467,10 +17642,10 @@
       <c r="AD58" s="74"/>
       <c r="AE58" s="74"/>
       <c r="AF58" s="74"/>
-      <c r="AG58" s="456"/>
-      <c r="AH58" s="456"/>
-      <c r="AI58" s="456"/>
-      <c r="AJ58" s="456"/>
+      <c r="AG58" s="455"/>
+      <c r="AH58" s="455"/>
+      <c r="AI58" s="455"/>
+      <c r="AJ58" s="455"/>
       <c r="AK58" s="137"/>
       <c r="AL58" s="137"/>
       <c r="AM58" s="137"/>
@@ -17512,8 +17687,8 @@
       <c r="BW58" s="137"/>
     </row>
     <row r="59" spans="1:75" s="136" customFormat="1" ht="15.6" customHeight="1">
-      <c r="A59" s="451"/>
-      <c r="B59" s="452"/>
+      <c r="A59" s="450"/>
+      <c r="B59" s="451"/>
       <c r="C59" s="433"/>
       <c r="D59" s="434"/>
       <c r="E59" s="435" t="s">
@@ -17589,8 +17764,8 @@
       <c r="BW59" s="137"/>
     </row>
     <row r="60" spans="1:75" s="136" customFormat="1" ht="15.6" customHeight="1">
-      <c r="A60" s="451"/>
-      <c r="B60" s="452"/>
+      <c r="A60" s="450"/>
+      <c r="B60" s="451"/>
       <c r="C60" s="431" t="s">
         <v>374</v>
       </c>
@@ -17623,10 +17798,10 @@
       <c r="AD60" s="74"/>
       <c r="AE60" s="74"/>
       <c r="AF60" s="74"/>
-      <c r="AG60" s="456"/>
-      <c r="AH60" s="456"/>
-      <c r="AI60" s="456"/>
-      <c r="AJ60" s="456"/>
+      <c r="AG60" s="455"/>
+      <c r="AH60" s="455"/>
+      <c r="AI60" s="455"/>
+      <c r="AJ60" s="455"/>
       <c r="AK60" s="137"/>
       <c r="AL60" s="137"/>
       <c r="AM60" s="137"/>
@@ -17668,8 +17843,8 @@
       <c r="BW60" s="137"/>
     </row>
     <row r="61" spans="1:75" s="136" customFormat="1" ht="15.6" customHeight="1">
-      <c r="A61" s="451"/>
-      <c r="B61" s="452"/>
+      <c r="A61" s="450"/>
+      <c r="B61" s="451"/>
       <c r="C61" s="433"/>
       <c r="D61" s="434"/>
       <c r="E61" s="435" t="s">
@@ -17745,8 +17920,8 @@
       <c r="BW61" s="137"/>
     </row>
     <row r="62" spans="1:75" s="136" customFormat="1" ht="15.6" customHeight="1">
-      <c r="A62" s="451"/>
-      <c r="B62" s="452"/>
+      <c r="A62" s="450"/>
+      <c r="B62" s="451"/>
       <c r="C62" s="431" t="s">
         <v>375</v>
       </c>
@@ -17779,10 +17954,10 @@
       <c r="AD62" s="74"/>
       <c r="AE62" s="74"/>
       <c r="AF62" s="74"/>
-      <c r="AG62" s="456"/>
-      <c r="AH62" s="456"/>
-      <c r="AI62" s="456"/>
-      <c r="AJ62" s="456"/>
+      <c r="AG62" s="455"/>
+      <c r="AH62" s="455"/>
+      <c r="AI62" s="455"/>
+      <c r="AJ62" s="455"/>
       <c r="AK62" s="137"/>
       <c r="AL62" s="137"/>
       <c r="AM62" s="137"/>
@@ -17824,8 +17999,8 @@
       <c r="BW62" s="137"/>
     </row>
     <row r="63" spans="1:75" s="136" customFormat="1" ht="15.6" customHeight="1">
-      <c r="A63" s="451"/>
-      <c r="B63" s="452"/>
+      <c r="A63" s="450"/>
+      <c r="B63" s="451"/>
       <c r="C63" s="433"/>
       <c r="D63" s="434"/>
       <c r="E63" s="435" t="s">
@@ -17901,8 +18076,8 @@
       <c r="BW63" s="137"/>
     </row>
     <row r="64" spans="1:75" s="136" customFormat="1" ht="15.6" customHeight="1">
-      <c r="A64" s="451"/>
-      <c r="B64" s="452"/>
+      <c r="A64" s="450"/>
+      <c r="B64" s="451"/>
       <c r="C64" s="431" t="s">
         <v>376</v>
       </c>
@@ -17935,10 +18110,10 @@
       <c r="AD64" s="74"/>
       <c r="AE64" s="74"/>
       <c r="AF64" s="74"/>
-      <c r="AG64" s="456"/>
-      <c r="AH64" s="456"/>
-      <c r="AI64" s="456"/>
-      <c r="AJ64" s="456"/>
+      <c r="AG64" s="455"/>
+      <c r="AH64" s="455"/>
+      <c r="AI64" s="455"/>
+      <c r="AJ64" s="455"/>
       <c r="AK64" s="137"/>
       <c r="AL64" s="137"/>
       <c r="AM64" s="137"/>
@@ -17980,8 +18155,8 @@
       <c r="BW64" s="137"/>
     </row>
     <row r="65" spans="1:75" s="136" customFormat="1" ht="15.6" customHeight="1">
-      <c r="A65" s="451"/>
-      <c r="B65" s="452"/>
+      <c r="A65" s="450"/>
+      <c r="B65" s="451"/>
       <c r="C65" s="433"/>
       <c r="D65" s="434"/>
       <c r="E65" s="435" t="s">
@@ -18057,8 +18232,8 @@
       <c r="BW65" s="137"/>
     </row>
     <row r="66" spans="1:75" s="136" customFormat="1" ht="15.6" customHeight="1">
-      <c r="A66" s="451"/>
-      <c r="B66" s="452"/>
+      <c r="A66" s="450"/>
+      <c r="B66" s="451"/>
       <c r="C66" s="431" t="s">
         <v>377</v>
       </c>
@@ -18091,10 +18266,10 @@
       <c r="AD66" s="74"/>
       <c r="AE66" s="74"/>
       <c r="AF66" s="74"/>
-      <c r="AG66" s="456"/>
-      <c r="AH66" s="456"/>
-      <c r="AI66" s="456"/>
-      <c r="AJ66" s="456"/>
+      <c r="AG66" s="455"/>
+      <c r="AH66" s="455"/>
+      <c r="AI66" s="455"/>
+      <c r="AJ66" s="455"/>
       <c r="AK66" s="137"/>
       <c r="AL66" s="137"/>
       <c r="AM66" s="137"/>
@@ -18136,8 +18311,8 @@
       <c r="BW66" s="137"/>
     </row>
     <row r="67" spans="1:75" s="136" customFormat="1" ht="15.6" customHeight="1">
-      <c r="A67" s="451"/>
-      <c r="B67" s="452"/>
+      <c r="A67" s="450"/>
+      <c r="B67" s="451"/>
       <c r="C67" s="433"/>
       <c r="D67" s="434"/>
       <c r="E67" s="435" t="s">
@@ -18213,8 +18388,8 @@
       <c r="BW67" s="137"/>
     </row>
     <row r="68" spans="1:75" s="136" customFormat="1" ht="15.6" customHeight="1">
-      <c r="A68" s="451"/>
-      <c r="B68" s="452"/>
+      <c r="A68" s="450"/>
+      <c r="B68" s="451"/>
       <c r="C68" s="431" t="s">
         <v>378</v>
       </c>
@@ -18247,10 +18422,10 @@
       <c r="AD68" s="74"/>
       <c r="AE68" s="74"/>
       <c r="AF68" s="74"/>
-      <c r="AG68" s="456"/>
-      <c r="AH68" s="456"/>
-      <c r="AI68" s="456"/>
-      <c r="AJ68" s="456"/>
+      <c r="AG68" s="455"/>
+      <c r="AH68" s="455"/>
+      <c r="AI68" s="455"/>
+      <c r="AJ68" s="455"/>
       <c r="AK68" s="137"/>
       <c r="AL68" s="137"/>
       <c r="AM68" s="137"/>
@@ -18292,8 +18467,8 @@
       <c r="BW68" s="137"/>
     </row>
     <row r="69" spans="1:75" s="136" customFormat="1" ht="15.6" customHeight="1">
-      <c r="A69" s="451"/>
-      <c r="B69" s="452"/>
+      <c r="A69" s="450"/>
+      <c r="B69" s="451"/>
       <c r="C69" s="433"/>
       <c r="D69" s="434"/>
       <c r="E69" s="435" t="s">
@@ -18369,8 +18544,8 @@
       <c r="BW69" s="137"/>
     </row>
     <row r="70" spans="1:75" s="136" customFormat="1" ht="15.6" customHeight="1">
-      <c r="A70" s="451"/>
-      <c r="B70" s="452"/>
+      <c r="A70" s="450"/>
+      <c r="B70" s="451"/>
       <c r="C70" s="431" t="s">
         <v>379</v>
       </c>
@@ -18403,10 +18578,10 @@
       <c r="AD70" s="74"/>
       <c r="AE70" s="74"/>
       <c r="AF70" s="74"/>
-      <c r="AG70" s="456"/>
-      <c r="AH70" s="456"/>
-      <c r="AI70" s="456"/>
-      <c r="AJ70" s="456"/>
+      <c r="AG70" s="455"/>
+      <c r="AH70" s="455"/>
+      <c r="AI70" s="455"/>
+      <c r="AJ70" s="455"/>
       <c r="AK70" s="137"/>
       <c r="AL70" s="139"/>
       <c r="AM70" s="137"/>
@@ -18448,8 +18623,8 @@
       <c r="BW70" s="137"/>
     </row>
     <row r="71" spans="1:75" s="136" customFormat="1" ht="15.6" customHeight="1">
-      <c r="A71" s="451"/>
-      <c r="B71" s="452"/>
+      <c r="A71" s="450"/>
+      <c r="B71" s="451"/>
       <c r="C71" s="433"/>
       <c r="D71" s="434"/>
       <c r="E71" s="435" t="s">
@@ -18525,8 +18700,8 @@
       <c r="BW71" s="137"/>
     </row>
     <row r="72" spans="1:75" s="136" customFormat="1" ht="15.6" customHeight="1">
-      <c r="A72" s="451"/>
-      <c r="B72" s="452"/>
+      <c r="A72" s="450"/>
+      <c r="B72" s="451"/>
       <c r="C72" s="431" t="s">
         <v>380</v>
       </c>
@@ -18559,10 +18734,10 @@
       <c r="AD72" s="74"/>
       <c r="AE72" s="74"/>
       <c r="AF72" s="74"/>
-      <c r="AG72" s="456"/>
-      <c r="AH72" s="456"/>
-      <c r="AI72" s="456"/>
-      <c r="AJ72" s="456"/>
+      <c r="AG72" s="455"/>
+      <c r="AH72" s="455"/>
+      <c r="AI72" s="455"/>
+      <c r="AJ72" s="455"/>
       <c r="AK72" s="137"/>
       <c r="AL72" s="138"/>
       <c r="AM72" s="137"/>
@@ -18604,8 +18779,8 @@
       <c r="BW72" s="137"/>
     </row>
     <row r="73" spans="1:75" s="136" customFormat="1" ht="15.6" customHeight="1">
-      <c r="A73" s="451"/>
-      <c r="B73" s="452"/>
+      <c r="A73" s="450"/>
+      <c r="B73" s="451"/>
       <c r="C73" s="433"/>
       <c r="D73" s="434"/>
       <c r="E73" s="435" t="s">
@@ -18681,8 +18856,8 @@
       <c r="BW73" s="137"/>
     </row>
     <row r="74" spans="1:75" s="136" customFormat="1" ht="15.6" customHeight="1">
-      <c r="A74" s="451"/>
-      <c r="B74" s="452"/>
+      <c r="A74" s="450"/>
+      <c r="B74" s="451"/>
       <c r="C74" s="431" t="s">
         <v>381</v>
       </c>
@@ -18715,10 +18890,10 @@
       <c r="AD74" s="74"/>
       <c r="AE74" s="74"/>
       <c r="AF74" s="74"/>
-      <c r="AG74" s="456"/>
-      <c r="AH74" s="456"/>
-      <c r="AI74" s="456"/>
-      <c r="AJ74" s="456"/>
+      <c r="AG74" s="455"/>
+      <c r="AH74" s="455"/>
+      <c r="AI74" s="455"/>
+      <c r="AJ74" s="455"/>
       <c r="AK74" s="143"/>
       <c r="AL74" s="139"/>
       <c r="AM74" s="137"/>
@@ -18760,8 +18935,8 @@
       <c r="BW74" s="137"/>
     </row>
     <row r="75" spans="1:75" s="136" customFormat="1" ht="15.6" customHeight="1">
-      <c r="A75" s="451"/>
-      <c r="B75" s="452"/>
+      <c r="A75" s="450"/>
+      <c r="B75" s="451"/>
       <c r="C75" s="433"/>
       <c r="D75" s="434"/>
       <c r="E75" s="435" t="s">
@@ -18837,8 +19012,8 @@
       <c r="BW75" s="137"/>
     </row>
     <row r="76" spans="1:75" s="136" customFormat="1" ht="15.6" customHeight="1">
-      <c r="A76" s="451"/>
-      <c r="B76" s="452"/>
+      <c r="A76" s="450"/>
+      <c r="B76" s="451"/>
       <c r="C76" s="431" t="s">
         <v>382</v>
       </c>
@@ -18871,10 +19046,10 @@
       <c r="AD76" s="74"/>
       <c r="AE76" s="74"/>
       <c r="AF76" s="74"/>
-      <c r="AG76" s="456"/>
-      <c r="AH76" s="456"/>
-      <c r="AI76" s="456"/>
-      <c r="AJ76" s="456"/>
+      <c r="AG76" s="455"/>
+      <c r="AH76" s="455"/>
+      <c r="AI76" s="455"/>
+      <c r="AJ76" s="455"/>
       <c r="AK76" s="137"/>
       <c r="AL76" s="138"/>
       <c r="AM76" s="137"/>
@@ -18916,8 +19091,8 @@
       <c r="BW76" s="137"/>
     </row>
     <row r="77" spans="1:75" s="136" customFormat="1" ht="15.6" customHeight="1">
-      <c r="A77" s="451"/>
-      <c r="B77" s="452"/>
+      <c r="A77" s="450"/>
+      <c r="B77" s="451"/>
       <c r="C77" s="433"/>
       <c r="D77" s="434"/>
       <c r="E77" s="435" t="s">
@@ -18993,8 +19168,8 @@
       <c r="BW77" s="137"/>
     </row>
     <row r="78" spans="1:75" s="136" customFormat="1" ht="15.6" customHeight="1">
-      <c r="A78" s="451"/>
-      <c r="B78" s="452"/>
+      <c r="A78" s="450"/>
+      <c r="B78" s="451"/>
       <c r="C78" s="431" t="s">
         <v>383</v>
       </c>
@@ -19027,10 +19202,10 @@
       <c r="AD78" s="74"/>
       <c r="AE78" s="74"/>
       <c r="AF78" s="74"/>
-      <c r="AG78" s="456"/>
-      <c r="AH78" s="456"/>
-      <c r="AI78" s="456"/>
-      <c r="AJ78" s="456"/>
+      <c r="AG78" s="455"/>
+      <c r="AH78" s="455"/>
+      <c r="AI78" s="455"/>
+      <c r="AJ78" s="455"/>
       <c r="AK78" s="143"/>
       <c r="AL78" s="139"/>
       <c r="AM78" s="137"/>
@@ -19072,8 +19247,8 @@
       <c r="BW78" s="137"/>
     </row>
     <row r="79" spans="1:75" s="136" customFormat="1" ht="15.6" customHeight="1">
-      <c r="A79" s="451"/>
-      <c r="B79" s="452"/>
+      <c r="A79" s="450"/>
+      <c r="B79" s="451"/>
       <c r="C79" s="433"/>
       <c r="D79" s="434"/>
       <c r="E79" s="435" t="s">
@@ -19149,8 +19324,8 @@
       <c r="BW79" s="137"/>
     </row>
     <row r="80" spans="1:75" s="136" customFormat="1" ht="15.6" customHeight="1">
-      <c r="A80" s="451"/>
-      <c r="B80" s="452"/>
+      <c r="A80" s="450"/>
+      <c r="B80" s="451"/>
       <c r="C80" s="431" t="s">
         <v>384</v>
       </c>
@@ -19185,10 +19360,10 @@
       <c r="AD80" s="74"/>
       <c r="AE80" s="74"/>
       <c r="AF80" s="74"/>
-      <c r="AG80" s="456"/>
-      <c r="AH80" s="456"/>
-      <c r="AI80" s="456"/>
-      <c r="AJ80" s="456"/>
+      <c r="AG80" s="455"/>
+      <c r="AH80" s="455"/>
+      <c r="AI80" s="455"/>
+      <c r="AJ80" s="455"/>
       <c r="AK80" s="138"/>
       <c r="AL80" s="138"/>
       <c r="AM80" s="137"/>
@@ -19230,8 +19405,8 @@
       <c r="BW80" s="137"/>
     </row>
     <row r="81" spans="1:75" s="136" customFormat="1" ht="15.6" customHeight="1">
-      <c r="A81" s="451"/>
-      <c r="B81" s="452"/>
+      <c r="A81" s="450"/>
+      <c r="B81" s="451"/>
       <c r="C81" s="433"/>
       <c r="D81" s="434"/>
       <c r="E81" s="435" t="s">
@@ -19309,8 +19484,8 @@
       <c r="BW81" s="137"/>
     </row>
     <row r="82" spans="1:75" s="136" customFormat="1" ht="15.6" customHeight="1">
-      <c r="A82" s="451"/>
-      <c r="B82" s="452"/>
+      <c r="A82" s="450"/>
+      <c r="B82" s="451"/>
       <c r="C82" s="431" t="s">
         <v>386</v>
       </c>
@@ -19390,8 +19565,8 @@
       <c r="BW82" s="137"/>
     </row>
     <row r="83" spans="1:75" s="136" customFormat="1" ht="15.6" customHeight="1">
-      <c r="A83" s="451"/>
-      <c r="B83" s="452"/>
+      <c r="A83" s="450"/>
+      <c r="B83" s="451"/>
       <c r="C83" s="433"/>
       <c r="D83" s="434"/>
       <c r="E83" s="435" t="s">
@@ -19471,12 +19646,14 @@
     <row r="84" spans="1:75" s="136" customFormat="1" ht="18">
       <c r="A84" s="184"/>
       <c r="B84" s="185"/>
-      <c r="C84" s="447" t="s">
+      <c r="C84" s="446" t="s">
         <v>31</v>
       </c>
-      <c r="D84" s="448"/>
-      <c r="E84" s="437"/>
-      <c r="F84" s="436"/>
+      <c r="D84" s="447"/>
+      <c r="E84" s="437" t="s">
+        <v>574</v>
+      </c>
+      <c r="F84" s="438"/>
       <c r="G84" s="74"/>
       <c r="H84"/>
       <c r="I84"/>
@@ -19550,14 +19727,14 @@
     <row r="85" spans="1:75" s="136" customFormat="1" ht="18">
       <c r="A85" s="184"/>
       <c r="B85" s="185"/>
-      <c r="C85" s="447" t="s">
+      <c r="C85" s="446" t="s">
         <v>3</v>
       </c>
-      <c r="D85" s="448"/>
-      <c r="E85" s="438" t="s">
-        <v>574</v>
+      <c r="D85" s="447"/>
+      <c r="E85" s="437" t="s">
+        <v>575</v>
       </c>
-      <c r="F85" s="439"/>
+      <c r="F85" s="438"/>
       <c r="G85" s="74"/>
       <c r="H85"/>
       <c r="I85"/>
@@ -19631,14 +19808,14 @@
     <row r="86" spans="1:75" s="136" customFormat="1" ht="18">
       <c r="A86" s="184"/>
       <c r="B86" s="185"/>
-      <c r="C86" s="447" t="s">
+      <c r="C86" s="446" t="s">
         <v>4</v>
       </c>
-      <c r="D86" s="448"/>
-      <c r="E86" s="438" t="s">
-        <v>575</v>
+      <c r="D86" s="447"/>
+      <c r="E86" s="437" t="s">
+        <v>596</v>
       </c>
-      <c r="F86" s="439"/>
+      <c r="F86" s="438"/>
       <c r="G86" s="74"/>
       <c r="H86"/>
       <c r="I86"/>
@@ -19710,14 +19887,14 @@
       <c r="BW86" s="137"/>
     </row>
     <row r="87" spans="1:75" s="136" customFormat="1" ht="27" customHeight="1">
-      <c r="A87" s="443" t="s">
+      <c r="A87" s="442" t="s">
         <v>1</v>
       </c>
-      <c r="B87" s="444"/>
-      <c r="C87" s="441" t="s">
+      <c r="B87" s="443"/>
+      <c r="C87" s="440" t="s">
         <v>5</v>
       </c>
-      <c r="D87" s="442"/>
+      <c r="D87" s="441"/>
       <c r="E87" s="435" t="s">
         <v>296</v>
       </c>
@@ -19748,10 +19925,10 @@
       <c r="AD87" s="74"/>
       <c r="AE87" s="74"/>
       <c r="AF87" s="74"/>
-      <c r="AG87" s="454"/>
-      <c r="AH87" s="454"/>
-      <c r="AI87" s="454"/>
-      <c r="AJ87" s="454"/>
+      <c r="AG87" s="453"/>
+      <c r="AH87" s="453"/>
+      <c r="AI87" s="453"/>
+      <c r="AJ87" s="453"/>
       <c r="AK87" s="143"/>
       <c r="AL87" s="137"/>
       <c r="AM87" s="137"/>
@@ -19793,12 +19970,12 @@
       <c r="BW87" s="137"/>
     </row>
     <row r="88" spans="1:75" s="136" customFormat="1" ht="27" customHeight="1">
-      <c r="A88" s="445"/>
-      <c r="B88" s="446"/>
-      <c r="C88" s="441" t="s">
+      <c r="A88" s="444"/>
+      <c r="B88" s="445"/>
+      <c r="C88" s="440" t="s">
         <v>6</v>
       </c>
-      <c r="D88" s="442"/>
+      <c r="D88" s="441"/>
       <c r="E88" s="435" t="s">
         <v>297</v>
       </c>
@@ -19829,10 +20006,10 @@
       <c r="AD88" s="74"/>
       <c r="AE88" s="74"/>
       <c r="AF88" s="74"/>
-      <c r="AG88" s="454"/>
-      <c r="AH88" s="454"/>
-      <c r="AI88" s="454"/>
-      <c r="AJ88" s="454"/>
+      <c r="AG88" s="453"/>
+      <c r="AH88" s="453"/>
+      <c r="AI88" s="453"/>
+      <c r="AJ88" s="453"/>
       <c r="AK88" s="143"/>
       <c r="AL88" s="137"/>
       <c r="AM88" s="137"/>
@@ -19874,12 +20051,12 @@
       <c r="BW88" s="137"/>
     </row>
     <row r="89" spans="1:75" s="136" customFormat="1" ht="27" customHeight="1">
-      <c r="A89" s="445"/>
-      <c r="B89" s="446"/>
-      <c r="C89" s="441" t="s">
+      <c r="A89" s="444"/>
+      <c r="B89" s="445"/>
+      <c r="C89" s="440" t="s">
         <v>0</v>
       </c>
-      <c r="D89" s="442"/>
+      <c r="D89" s="441"/>
       <c r="E89" s="435" t="s">
         <v>298</v>
       </c>
@@ -19910,10 +20087,10 @@
       <c r="AD89" s="74"/>
       <c r="AE89" s="74"/>
       <c r="AF89" s="74"/>
-      <c r="AG89" s="455"/>
-      <c r="AH89" s="455"/>
-      <c r="AI89" s="455"/>
-      <c r="AJ89" s="455"/>
+      <c r="AG89" s="454"/>
+      <c r="AH89" s="454"/>
+      <c r="AI89" s="454"/>
+      <c r="AJ89" s="454"/>
       <c r="AK89" s="143"/>
       <c r="AL89" s="137"/>
       <c r="AM89" s="137"/>
@@ -19955,12 +20132,12 @@
       <c r="BW89" s="137"/>
     </row>
     <row r="90" spans="1:75" s="136" customFormat="1" ht="27" customHeight="1">
-      <c r="A90" s="445"/>
-      <c r="B90" s="446"/>
-      <c r="C90" s="441" t="s">
+      <c r="A90" s="444"/>
+      <c r="B90" s="445"/>
+      <c r="C90" s="440" t="s">
         <v>48</v>
       </c>
-      <c r="D90" s="442"/>
+      <c r="D90" s="441"/>
       <c r="E90" s="435" t="s">
         <v>299</v>
       </c>
@@ -20036,12 +20213,12 @@
       <c r="BW90" s="137"/>
     </row>
     <row r="91" spans="1:75" s="136" customFormat="1" ht="27" customHeight="1">
-      <c r="A91" s="445"/>
-      <c r="B91" s="446"/>
-      <c r="C91" s="441" t="s">
+      <c r="A91" s="444"/>
+      <c r="B91" s="445"/>
+      <c r="C91" s="440" t="s">
         <v>34</v>
       </c>
-      <c r="D91" s="442"/>
+      <c r="D91" s="441"/>
       <c r="E91" s="435" t="s">
         <v>387</v>
       </c>
@@ -20072,10 +20249,10 @@
       <c r="AD91" s="74"/>
       <c r="AE91" s="74"/>
       <c r="AF91" s="74"/>
-      <c r="AG91" s="455"/>
-      <c r="AH91" s="455"/>
-      <c r="AI91" s="455"/>
-      <c r="AJ91" s="455"/>
+      <c r="AG91" s="454"/>
+      <c r="AH91" s="454"/>
+      <c r="AI91" s="454"/>
+      <c r="AJ91" s="454"/>
       <c r="AK91" s="143"/>
       <c r="AL91" s="137"/>
       <c r="AM91" s="137"/>
@@ -20117,12 +20294,12 @@
       <c r="BW91" s="137"/>
     </row>
     <row r="92" spans="1:75" s="136" customFormat="1" ht="32.25" customHeight="1">
-      <c r="A92" s="440" t="s">
+      <c r="A92" s="439" t="s">
         <v>44</v>
       </c>
-      <c r="B92" s="440"/>
-      <c r="C92" s="440"/>
-      <c r="D92" s="440"/>
+      <c r="B92" s="439"/>
+      <c r="C92" s="439"/>
+      <c r="D92" s="439"/>
       <c r="E92" s="435" t="s">
         <v>300</v>
       </c>
@@ -20153,10 +20330,10 @@
       <c r="AD92" s="74"/>
       <c r="AE92" s="74"/>
       <c r="AF92" s="74"/>
-      <c r="AG92" s="453"/>
-      <c r="AH92" s="453"/>
-      <c r="AI92" s="453"/>
-      <c r="AJ92" s="453"/>
+      <c r="AG92" s="452"/>
+      <c r="AH92" s="452"/>
+      <c r="AI92" s="452"/>
+      <c r="AJ92" s="452"/>
       <c r="AK92" s="143"/>
       <c r="AL92" s="137"/>
       <c r="AM92" s="137"/>
@@ -20198,12 +20375,12 @@
       <c r="BW92" s="137"/>
     </row>
     <row r="93" spans="1:75" s="136" customFormat="1" ht="32.25" customHeight="1">
-      <c r="A93" s="440" t="s">
+      <c r="A93" s="439" t="s">
         <v>45</v>
       </c>
-      <c r="B93" s="440"/>
-      <c r="C93" s="440"/>
-      <c r="D93" s="440"/>
+      <c r="B93" s="439"/>
+      <c r="C93" s="439"/>
+      <c r="D93" s="439"/>
       <c r="E93" s="435" t="s">
         <v>301</v>
       </c>
@@ -20234,10 +20411,10 @@
       <c r="AD93" s="74"/>
       <c r="AE93" s="74"/>
       <c r="AF93" s="74"/>
-      <c r="AG93" s="453"/>
-      <c r="AH93" s="453"/>
-      <c r="AI93" s="453"/>
-      <c r="AJ93" s="453"/>
+      <c r="AG93" s="452"/>
+      <c r="AH93" s="452"/>
+      <c r="AI93" s="452"/>
+      <c r="AJ93" s="452"/>
       <c r="AK93" s="143"/>
       <c r="AL93" s="137"/>
       <c r="AM93" s="137"/>
@@ -20285,17 +20462,17 @@
       <c r="D94" s="146"/>
       <c r="E94" s="146"/>
       <c r="F94" s="146"/>
-      <c r="G94" s="457"/>
-      <c r="H94" s="457"/>
-      <c r="I94" s="457"/>
+      <c r="G94" s="456"/>
+      <c r="H94" s="456"/>
+      <c r="I94" s="456"/>
       <c r="J94" s="146"/>
       <c r="K94" s="146"/>
       <c r="L94" s="146"/>
       <c r="M94" s="146"/>
       <c r="N94" s="146"/>
-      <c r="O94" s="457"/>
-      <c r="P94" s="457"/>
-      <c r="Q94" s="457"/>
+      <c r="O94" s="456"/>
+      <c r="P94" s="456"/>
+      <c r="Q94" s="456"/>
       <c r="R94" s="146"/>
       <c r="S94" s="146"/>
       <c r="T94" s="146"/>
@@ -20324,10 +20501,10 @@
         <v>438</v>
       </c>
       <c r="C95" s="153"/>
-      <c r="D95" s="466" t="s">
+      <c r="D95" s="465" t="s">
         <v>54</v>
       </c>
-      <c r="E95" s="466"/>
+      <c r="E95" s="465"/>
       <c r="F95" s="146"/>
       <c r="G95" s="152"/>
       <c r="H95" s="152"/>
@@ -20368,10 +20545,10 @@
         <v>439</v>
       </c>
       <c r="C96" s="153"/>
-      <c r="D96" s="466" t="s">
+      <c r="D96" s="465" t="s">
         <v>55</v>
       </c>
-      <c r="E96" s="466"/>
+      <c r="E96" s="465"/>
       <c r="F96" s="146"/>
       <c r="G96" s="152"/>
       <c r="H96" s="152"/>
@@ -20413,9 +20590,9 @@
       <c r="D97" s="146"/>
       <c r="E97" s="146"/>
       <c r="F97" s="146"/>
-      <c r="G97" s="459"/>
-      <c r="H97" s="459"/>
-      <c r="I97" s="459"/>
+      <c r="G97" s="458"/>
+      <c r="H97" s="458"/>
+      <c r="I97" s="458"/>
       <c r="J97" s="146"/>
       <c r="K97" s="146"/>
       <c r="L97" s="146"/>
@@ -20448,35 +20625,35 @@
     </row>
     <row r="98" spans="1:75" ht="14.1" customHeight="1">
       <c r="A98" s="145"/>
-      <c r="B98" s="458" t="s">
+      <c r="B98" s="457" t="s">
         <v>36</v>
       </c>
-      <c r="C98" s="460"/>
-      <c r="D98" s="461"/>
-      <c r="E98" s="461"/>
-      <c r="F98" s="461"/>
-      <c r="G98" s="461"/>
-      <c r="H98" s="461"/>
-      <c r="I98" s="461"/>
-      <c r="J98" s="461"/>
-      <c r="K98" s="461"/>
-      <c r="L98" s="461"/>
-      <c r="M98" s="461"/>
-      <c r="N98" s="461"/>
-      <c r="O98" s="461"/>
-      <c r="P98" s="461"/>
-      <c r="Q98" s="461"/>
-      <c r="R98" s="461"/>
-      <c r="S98" s="461"/>
-      <c r="T98" s="461"/>
-      <c r="U98" s="461"/>
-      <c r="V98" s="461"/>
-      <c r="W98" s="461"/>
-      <c r="X98" s="461"/>
-      <c r="Y98" s="461"/>
-      <c r="Z98" s="461"/>
-      <c r="AA98" s="461"/>
-      <c r="AB98" s="462"/>
+      <c r="C98" s="459"/>
+      <c r="D98" s="460"/>
+      <c r="E98" s="460"/>
+      <c r="F98" s="460"/>
+      <c r="G98" s="460"/>
+      <c r="H98" s="460"/>
+      <c r="I98" s="460"/>
+      <c r="J98" s="460"/>
+      <c r="K98" s="460"/>
+      <c r="L98" s="460"/>
+      <c r="M98" s="460"/>
+      <c r="N98" s="460"/>
+      <c r="O98" s="460"/>
+      <c r="P98" s="460"/>
+      <c r="Q98" s="460"/>
+      <c r="R98" s="460"/>
+      <c r="S98" s="460"/>
+      <c r="T98" s="460"/>
+      <c r="U98" s="460"/>
+      <c r="V98" s="460"/>
+      <c r="W98" s="460"/>
+      <c r="X98" s="460"/>
+      <c r="Y98" s="460"/>
+      <c r="Z98" s="460"/>
+      <c r="AA98" s="460"/>
+      <c r="AB98" s="461"/>
       <c r="AC98" s="148"/>
       <c r="AD98" s="148"/>
       <c r="AE98" s="148"/>
@@ -20497,33 +20674,33 @@
     </row>
     <row r="99" spans="1:75" ht="28.5" customHeight="1">
       <c r="A99" s="145"/>
-      <c r="B99" s="458"/>
-      <c r="C99" s="463"/>
-      <c r="D99" s="464"/>
-      <c r="E99" s="464"/>
-      <c r="F99" s="464"/>
-      <c r="G99" s="464"/>
-      <c r="H99" s="464"/>
-      <c r="I99" s="464"/>
-      <c r="J99" s="464"/>
-      <c r="K99" s="464"/>
-      <c r="L99" s="464"/>
-      <c r="M99" s="464"/>
-      <c r="N99" s="464"/>
-      <c r="O99" s="464"/>
-      <c r="P99" s="464"/>
-      <c r="Q99" s="464"/>
-      <c r="R99" s="464"/>
-      <c r="S99" s="464"/>
-      <c r="T99" s="464"/>
-      <c r="U99" s="464"/>
-      <c r="V99" s="464"/>
-      <c r="W99" s="464"/>
-      <c r="X99" s="464"/>
-      <c r="Y99" s="464"/>
-      <c r="Z99" s="464"/>
-      <c r="AA99" s="464"/>
-      <c r="AB99" s="465"/>
+      <c r="B99" s="457"/>
+      <c r="C99" s="462"/>
+      <c r="D99" s="463"/>
+      <c r="E99" s="463"/>
+      <c r="F99" s="463"/>
+      <c r="G99" s="463"/>
+      <c r="H99" s="463"/>
+      <c r="I99" s="463"/>
+      <c r="J99" s="463"/>
+      <c r="K99" s="463"/>
+      <c r="L99" s="463"/>
+      <c r="M99" s="463"/>
+      <c r="N99" s="463"/>
+      <c r="O99" s="463"/>
+      <c r="P99" s="463"/>
+      <c r="Q99" s="463"/>
+      <c r="R99" s="463"/>
+      <c r="S99" s="463"/>
+      <c r="T99" s="463"/>
+      <c r="U99" s="463"/>
+      <c r="V99" s="463"/>
+      <c r="W99" s="463"/>
+      <c r="X99" s="463"/>
+      <c r="Y99" s="463"/>
+      <c r="Z99" s="463"/>
+      <c r="AA99" s="463"/>
+      <c r="AB99" s="464"/>
       <c r="AC99" s="148"/>
       <c r="AD99" s="148"/>
       <c r="AE99" s="148"/>
@@ -20534,7 +20711,7 @@
       <c r="AJ99" s="149"/>
       <c r="AP99" s="105"/>
     </row>
-    <row r="100" spans="1:75" ht="14.1" customHeight="1">
+    <row r="100" spans="1:75" ht="13.8" customHeight="1">
       <c r="M100" s="105"/>
       <c r="N100" s="105"/>
       <c r="O100" s="105"/>
@@ -20555,8 +20732,15 @@
       <c r="AP100" s="105"/>
     </row>
     <row r="101" spans="1:75" ht="14.1" customHeight="1">
-      <c r="K101" s="103"/>
-      <c r="L101" s="103"/>
+      <c r="C101" s="105"/>
+      <c r="D101" s="105"/>
+      <c r="E101" s="105"/>
+      <c r="F101" s="105"/>
+      <c r="G101" s="105"/>
+      <c r="H101" s="105"/>
+      <c r="I101" s="105"/>
+      <c r="J101" s="105"/>
+      <c r="K101" s="105"/>
       <c r="M101" s="105"/>
       <c r="N101" s="105"/>
       <c r="O101" s="105"/>
@@ -20602,8 +20786,21 @@
       <c r="BO101" s="103"/>
     </row>
     <row r="102" spans="1:75" ht="14.1" customHeight="1">
-      <c r="K102" s="103"/>
-      <c r="L102" s="103"/>
+      <c r="C102" s="501" t="s">
+        <v>593</v>
+      </c>
+      <c r="D102" s="501"/>
+      <c r="E102" s="105"/>
+      <c r="F102" s="501" t="s">
+        <v>594</v>
+      </c>
+      <c r="G102" s="501"/>
+      <c r="H102" s="105"/>
+      <c r="I102" s="501" t="s">
+        <v>595</v>
+      </c>
+      <c r="J102" s="501"/>
+      <c r="K102" s="105"/>
       <c r="M102" s="105"/>
       <c r="N102" s="105"/>
       <c r="O102" s="105"/>
@@ -20649,8 +20846,15 @@
       <c r="BO102" s="103"/>
     </row>
     <row r="103" spans="1:75" ht="14.1" customHeight="1">
-      <c r="K103" s="103"/>
-      <c r="L103" s="103"/>
+      <c r="C103" s="105"/>
+      <c r="D103" s="105"/>
+      <c r="E103" s="105"/>
+      <c r="F103" s="105"/>
+      <c r="G103" s="105"/>
+      <c r="H103" s="105"/>
+      <c r="I103" s="105"/>
+      <c r="J103" s="105"/>
+      <c r="K103" s="105"/>
       <c r="M103" s="105"/>
       <c r="N103" s="105"/>
       <c r="O103" s="105"/>
@@ -20695,7 +20899,7 @@
       <c r="BN103" s="103"/>
       <c r="BO103" s="103"/>
     </row>
-    <row r="104" spans="1:75" ht="14.1" customHeight="1">
+    <row r="104" spans="1:75" ht="13.8" customHeight="1">
       <c r="K104" s="103"/>
       <c r="L104" s="103"/>
       <c r="M104" s="105"/>
@@ -65347,7 +65551,10 @@
     </row>
   </sheetData>
   <sheetProtection formatColumns="0" formatRows="0"/>
-  <mergeCells count="251">
+  <mergeCells count="254">
+    <mergeCell ref="C102:D102"/>
+    <mergeCell ref="F102:G102"/>
+    <mergeCell ref="I102:J102"/>
     <mergeCell ref="C52:D52"/>
     <mergeCell ref="C53:D53"/>
     <mergeCell ref="A42:F42"/>
@@ -65420,6 +65627,18 @@
     <mergeCell ref="B17:B18"/>
     <mergeCell ref="C17:C18"/>
     <mergeCell ref="D17:D18"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="BF2:BS2"/>
+    <mergeCell ref="AG5:AJ5"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="E15:F15"/>
     <mergeCell ref="A19:A20"/>
     <mergeCell ref="B19:B20"/>
     <mergeCell ref="C19:C20"/>
@@ -65429,15 +65648,6 @@
     <mergeCell ref="C21:C22"/>
     <mergeCell ref="C27:C28"/>
     <mergeCell ref="D27:D28"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="BF2:BS2"/>
-    <mergeCell ref="AG5:AJ5"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="E26:F26"/>
     <mergeCell ref="E36:F36"/>
     <mergeCell ref="C5:C6"/>
     <mergeCell ref="E16:F16"/>
@@ -65462,9 +65672,6 @@
     <mergeCell ref="E35:F35"/>
     <mergeCell ref="E11:F11"/>
     <mergeCell ref="E12:F12"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="E15:F15"/>
     <mergeCell ref="E37:F37"/>
     <mergeCell ref="E38:F38"/>
     <mergeCell ref="E39:F39"/>
@@ -65609,20 +65816,12 @@
   <colBreaks count="1" manualBreakCount="1">
     <brk id="28" max="1048575" man="1"/>
   </colBreaks>
-  <legacyDrawing r:id="rId2"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101004D4CCBE22655944796F59B17B9006C15" ma:contentTypeVersion="" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="f481576c72d824a80c867b56d5274a41">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="b7c6cbfa-29cf-4ada-90bf-db8e550dae8d" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="3bc755a260c778b5f630b987d93a78f8" ns2:_="">
     <xsd:import namespace="b7c6cbfa-29cf-4ada-90bf-db8e550dae8d"/>
@@ -65800,21 +65999,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
 </p:properties>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5458833A-D997-4113-BB83-F938CBB9D86E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{82807CA0-8C25-4FF6-8C67-D0A8F7400434}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -65832,7 +66032,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ECA946AD-4EA3-4FCA-B864-262800288FDF}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
@@ -65846,4 +66046,12 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5458833A-D997-4113-BB83-F938CBB9D86E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/api/cp-dss-api/gateway/src/main/resources/reports/discharging/Vessel_1_Discharging_Plan_Template.xlsx
+++ b/api/cp-dss-api/gateway/src/main/resources/reports/discharging/Vessel_1_Discharging_Plan_Template.xlsx
@@ -3955,12 +3955,6 @@
     <t>${driveOilTank}</t>
   </si>
   <si>
-    <t>${sheetOne.berthDetails.maxManifoldPressure}</t>
-  </si>
-  <si>
-    <t>${sheetOne.berthDetails.airPurge}</t>
-  </si>
-  <si>
     <t>${berthDetails.berthName}</t>
   </si>
   <si>
@@ -4219,6 +4213,12 @@
   </si>
   <si>
     <t>${ballastPumpStatus2.colorCode}</t>
+  </si>
+  <si>
+    <t>${berthDetails.maxManifoldPressure}</t>
+  </si>
+  <si>
+    <t>${berthDetails.airPurge}</t>
   </si>
 </sst>
 </file>
@@ -7742,10 +7742,10 @@
           </xdr:nvGrpSpPr>
           <xdr:grpSpPr>
             <a:xfrm>
-              <a:off x="380552" y="3921619"/>
-              <a:ext cx="418203" cy="725634"/>
+              <a:off x="380552" y="3921607"/>
+              <a:ext cx="418203" cy="725643"/>
               <a:chOff x="376566" y="3942676"/>
-              <a:chExt cx="297180" cy="732365"/>
+              <a:chExt cx="297180" cy="732369"/>
             </a:xfrm>
           </xdr:grpSpPr>
           <xdr:sp macro="" textlink="">
@@ -7848,7 +7848,7 @@
             </xdr:nvSpPr>
             <xdr:spPr bwMode="auto">
               <a:xfrm>
-                <a:off x="392430" y="4404362"/>
+                <a:off x="392430" y="4404366"/>
                 <a:ext cx="243840" cy="270679"/>
               </a:xfrm>
               <a:prstGeom prst="rect">
@@ -8507,7 +8507,7 @@
       <c r="F7" s="338"/>
       <c r="G7" s="338"/>
       <c r="H7" s="339" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="I7" s="339"/>
       <c r="J7" s="338" t="s">
@@ -8685,7 +8685,7 @@
       <c r="N12" s="29"/>
       <c r="O12" s="29"/>
       <c r="P12" s="328" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="Q12" s="328"/>
       <c r="R12" s="328"/>
@@ -10539,7 +10539,7 @@
       <c r="G49" s="199"/>
       <c r="H49" s="200"/>
       <c r="I49" s="260" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="J49" s="260"/>
       <c r="K49" s="260"/>
@@ -10575,7 +10575,7 @@
       <c r="G50" s="199"/>
       <c r="H50" s="200"/>
       <c r="I50" s="260" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="J50" s="260"/>
       <c r="K50" s="260"/>
@@ -10609,7 +10609,7 @@
       <c r="G51" s="199"/>
       <c r="H51" s="200"/>
       <c r="I51" s="260" t="s">
-        <v>516</v>
+        <v>595</v>
       </c>
       <c r="J51" s="260"/>
       <c r="K51" s="260"/>
@@ -10643,7 +10643,7 @@
       <c r="G52" s="199"/>
       <c r="H52" s="200"/>
       <c r="I52" s="260" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="J52" s="260"/>
       <c r="K52" s="260"/>
@@ -10677,7 +10677,7 @@
       <c r="G53" s="199"/>
       <c r="H53" s="200"/>
       <c r="I53" s="260" t="s">
-        <v>517</v>
+        <v>596</v>
       </c>
       <c r="J53" s="260"/>
       <c r="K53" s="260"/>
@@ -10711,7 +10711,7 @@
       <c r="G54" s="268"/>
       <c r="H54" s="269"/>
       <c r="I54" s="259" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="J54" s="259"/>
       <c r="K54" s="259"/>
@@ -10980,7 +10980,7 @@
       <c r="D62" s="311"/>
       <c r="E62" s="312"/>
       <c r="F62" s="305" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="G62" s="306"/>
       <c r="H62" s="306"/>
@@ -11016,7 +11016,7 @@
       <c r="D63" s="196"/>
       <c r="E63" s="197"/>
       <c r="F63" s="308" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="G63" s="308"/>
       <c r="H63" s="308"/>
@@ -11052,7 +11052,7 @@
       <c r="D64" s="311"/>
       <c r="E64" s="312"/>
       <c r="F64" s="308" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="G64" s="308"/>
       <c r="H64" s="308"/>
@@ -11088,7 +11088,7 @@
       <c r="D65" s="311"/>
       <c r="E65" s="312"/>
       <c r="F65" s="308" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="G65" s="308"/>
       <c r="H65" s="308"/>
@@ -11124,7 +11124,7 @@
       <c r="D66" s="311"/>
       <c r="E66" s="312"/>
       <c r="F66" s="308" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="G66" s="308"/>
       <c r="H66" s="308"/>
@@ -11160,7 +11160,7 @@
       <c r="D67" s="311"/>
       <c r="E67" s="312"/>
       <c r="F67" s="308" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="G67" s="308"/>
       <c r="H67" s="308"/>
@@ -11196,7 +11196,7 @@
       <c r="D68" s="311"/>
       <c r="E68" s="312"/>
       <c r="F68" s="305" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="G68" s="306"/>
       <c r="H68" s="306"/>
@@ -11562,7 +11562,7 @@
       <c r="G2" s="347"/>
       <c r="H2" s="348"/>
       <c r="I2" s="352" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="J2" s="353"/>
       <c r="K2" s="353"/>
@@ -11619,10 +11619,10 @@
     <row r="4" spans="1:24" s="219" customFormat="1" ht="19.5" customHeight="1">
       <c r="A4" s="218"/>
       <c r="B4" s="253" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="C4" s="364" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="D4" s="365"/>
       <c r="E4" s="365"/>
@@ -11630,28 +11630,28 @@
       <c r="G4" s="365"/>
       <c r="H4" s="366"/>
       <c r="I4" s="367" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="J4" s="368"/>
       <c r="K4" s="368"/>
       <c r="L4" s="369"/>
       <c r="M4" s="370" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="N4" s="371"/>
       <c r="O4" s="372"/>
       <c r="P4" s="373" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="Q4" s="374"/>
       <c r="R4" s="375" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="S4" s="376"/>
       <c r="T4" s="364"/>
       <c r="U4" s="366"/>
       <c r="V4" s="364" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="W4" s="365"/>
       <c r="X4" s="366"/>
@@ -11668,22 +11668,22 @@
       <c r="G5" s="378"/>
       <c r="H5" s="379"/>
       <c r="I5" s="380" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="J5" s="381"/>
       <c r="K5" s="381"/>
       <c r="L5" s="382"/>
       <c r="M5" s="383" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="N5" s="384"/>
       <c r="O5" s="385"/>
       <c r="P5" s="386" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="Q5" s="387"/>
       <c r="R5" s="388" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="S5" s="379"/>
       <c r="T5" s="377"/>
@@ -11730,18 +11730,18 @@
       <c r="G7" s="222"/>
       <c r="H7" s="223"/>
       <c r="I7" s="367" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="J7" s="368"/>
       <c r="K7" s="368"/>
       <c r="L7" s="369"/>
       <c r="M7" s="370" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="N7" s="371"/>
       <c r="O7" s="372"/>
       <c r="P7" s="373" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="Q7" s="374"/>
       <c r="R7" s="388"/>
@@ -11792,7 +11792,7 @@
       <c r="G10" s="231"/>
       <c r="H10" s="231"/>
       <c r="O10" s="346" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="P10" s="347"/>
       <c r="Q10" s="347"/>
@@ -11815,7 +11815,7 @@
       <c r="C11" s="232"/>
       <c r="D11" s="232"/>
       <c r="E11" s="400" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="F11" s="400"/>
       <c r="G11" s="400"/>
@@ -11826,7 +11826,7 @@
         <v>484</v>
       </c>
       <c r="L11" s="233" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="M11" s="250" t="s">
         <v>488</v>
@@ -11849,7 +11849,7 @@
       <c r="C12" s="232"/>
       <c r="D12" s="232"/>
       <c r="E12" s="393" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="F12" s="393"/>
       <c r="G12" s="393"/>
@@ -11860,24 +11860,24 @@
         <v>484</v>
       </c>
       <c r="L12" s="234" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="M12" s="250" t="s">
         <v>488</v>
       </c>
       <c r="O12" s="401" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="P12" s="402"/>
       <c r="Q12" s="402"/>
       <c r="R12" s="403"/>
       <c r="S12" s="389" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="T12" s="390"/>
       <c r="U12" s="391"/>
       <c r="V12" s="389" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="W12" s="390"/>
       <c r="X12" s="391"/>
@@ -11889,7 +11889,7 @@
       <c r="C13" s="392"/>
       <c r="D13" s="392"/>
       <c r="E13" s="393" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="F13" s="393"/>
       <c r="G13" s="393"/>
@@ -11900,7 +11900,7 @@
         <v>484</v>
       </c>
       <c r="L13" s="234" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="M13" s="250" t="s">
         <v>488</v>
@@ -11945,7 +11945,7 @@
         <v>8</v>
       </c>
       <c r="F15" s="405" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="G15" s="405"/>
       <c r="H15" s="405"/>
@@ -11975,7 +11975,7 @@
         <v>8</v>
       </c>
       <c r="F16" s="405" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="G16" s="405"/>
       <c r="H16" s="405"/>
@@ -12005,7 +12005,7 @@
         <v>498</v>
       </c>
       <c r="F17" s="405" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="G17" s="405"/>
       <c r="H17" s="405"/>
@@ -12055,7 +12055,7 @@
       <c r="E20" s="415"/>
       <c r="F20" s="424"/>
       <c r="G20" s="429" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="H20" s="430"/>
       <c r="I20" s="430"/>
@@ -12066,7 +12066,7 @@
         <v>502</v>
       </c>
       <c r="N20" s="412" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="O20" s="413"/>
       <c r="P20" s="239"/>
@@ -12076,7 +12076,7 @@
       <c r="R20" s="240"/>
       <c r="S20" s="241"/>
       <c r="T20" s="425" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="U20" s="425"/>
       <c r="V20" s="425"/>
@@ -12092,7 +12092,7 @@
       <c r="E21" s="410"/>
       <c r="F21" s="411"/>
       <c r="G21" s="429" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="H21" s="430"/>
       <c r="I21" s="430"/>
@@ -12103,7 +12103,7 @@
         <v>502</v>
       </c>
       <c r="N21" s="412" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="O21" s="413"/>
       <c r="P21" s="242"/>
@@ -12113,7 +12113,7 @@
       <c r="R21" s="243"/>
       <c r="S21" s="244"/>
       <c r="T21" s="426" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="U21" s="426" t="s">
         <v>506</v>
@@ -12135,7 +12135,7 @@
       <c r="E22" s="415"/>
       <c r="F22" s="245"/>
       <c r="G22" s="427" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="H22" s="428"/>
       <c r="I22" s="428"/>
@@ -12146,7 +12146,7 @@
         <v>502</v>
       </c>
       <c r="N22" s="412" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="O22" s="413"/>
       <c r="P22" s="416" t="s">
@@ -14262,7 +14262,7 @@
         <v>306</v>
       </c>
       <c r="E7" s="435" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="F7" s="436"/>
       <c r="G7" s="74"/>
@@ -14381,7 +14381,7 @@
         <v>310</v>
       </c>
       <c r="E9" s="435" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="F9" s="436"/>
       <c r="G9" s="74"/>
@@ -14501,7 +14501,7 @@
         <v>314</v>
       </c>
       <c r="E11" s="435" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="F11" s="436"/>
       <c r="G11" s="74"/>
@@ -14627,7 +14627,7 @@
         <v>318</v>
       </c>
       <c r="E13" s="435" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="F13" s="436"/>
       <c r="G13" s="74"/>
@@ -14753,7 +14753,7 @@
         <v>322</v>
       </c>
       <c r="E15" s="435" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="F15" s="436"/>
       <c r="G15" s="74"/>
@@ -14874,7 +14874,7 @@
         <v>326</v>
       </c>
       <c r="E17" s="435" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="F17" s="436"/>
       <c r="G17" s="74"/>
@@ -14998,7 +14998,7 @@
         <v>330</v>
       </c>
       <c r="E19" s="435" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="F19" s="436"/>
       <c r="G19" s="74"/>
@@ -15114,7 +15114,7 @@
         <v>334</v>
       </c>
       <c r="E21" s="435" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="F21" s="436"/>
       <c r="G21" s="74"/>
@@ -15230,7 +15230,7 @@
         <v>338</v>
       </c>
       <c r="E23" s="435" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="F23" s="436"/>
       <c r="G23" s="74"/>
@@ -15346,7 +15346,7 @@
         <v>342</v>
       </c>
       <c r="E25" s="435" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="F25" s="436"/>
       <c r="G25" s="74"/>
@@ -15462,7 +15462,7 @@
         <v>346</v>
       </c>
       <c r="E27" s="435" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="F27" s="436"/>
       <c r="G27" s="74"/>
@@ -15578,7 +15578,7 @@
         <v>350</v>
       </c>
       <c r="E29" s="435" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="F29" s="436"/>
       <c r="G29" s="74"/>
@@ -15694,7 +15694,7 @@
         <v>354</v>
       </c>
       <c r="E31" s="435" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="F31" s="436"/>
       <c r="G31" s="74"/>
@@ -15810,7 +15810,7 @@
         <v>358</v>
       </c>
       <c r="E33" s="435" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="F33" s="436"/>
       <c r="G33" s="74"/>
@@ -15926,7 +15926,7 @@
         <v>362</v>
       </c>
       <c r="E35" s="435" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="F35" s="436"/>
       <c r="G35" s="74"/>
@@ -16042,7 +16042,7 @@
         <v>366</v>
       </c>
       <c r="E37" s="435" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="F37" s="436"/>
       <c r="G37" s="74"/>
@@ -16158,7 +16158,7 @@
         <v>370</v>
       </c>
       <c r="E39" s="435" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="F39" s="436"/>
       <c r="G39" s="74"/>
@@ -16286,7 +16286,7 @@
     </row>
     <row r="41" spans="1:75" ht="22.2" customHeight="1">
       <c r="A41" s="483" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="B41" s="484"/>
       <c r="C41" s="484"/>
@@ -16365,7 +16365,7 @@
     </row>
     <row r="42" spans="1:75" ht="21.6" customHeight="1">
       <c r="A42" s="483" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="B42" s="484"/>
       <c r="C42" s="484"/>
@@ -16373,7 +16373,7 @@
       <c r="E42" s="485"/>
       <c r="F42" s="486"/>
       <c r="G42" s="481" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="H42" s="482"/>
       <c r="I42" s="74"/>
@@ -16444,7 +16444,7 @@
     </row>
     <row r="43" spans="1:75" ht="37.799999999999997" customHeight="1">
       <c r="A43" s="508" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="B43" s="509"/>
       <c r="C43" s="509"/>
@@ -16452,7 +16452,7 @@
       <c r="E43" s="509"/>
       <c r="F43" s="510"/>
       <c r="G43" s="504" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="H43" s="505"/>
       <c r="I43" s="74"/>
@@ -16531,7 +16531,7 @@
       </c>
       <c r="D44" s="447"/>
       <c r="E44" s="435" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="F44" s="436"/>
       <c r="G44" s="187"/>
@@ -16685,7 +16685,7 @@
       </c>
       <c r="D46" s="447"/>
       <c r="E46" s="435" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="F46" s="436"/>
       <c r="G46" s="187"/>
@@ -16839,7 +16839,7 @@
       </c>
       <c r="D48" s="447"/>
       <c r="E48" s="435" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="F48" s="436"/>
       <c r="G48" s="187"/>
@@ -16993,7 +16993,7 @@
       </c>
       <c r="D50" s="447"/>
       <c r="E50" s="435" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="F50" s="436"/>
       <c r="G50" s="187"/>
@@ -17147,7 +17147,7 @@
       </c>
       <c r="D52" s="447"/>
       <c r="E52" s="435" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="F52" s="436"/>
       <c r="G52" s="187"/>
@@ -19651,7 +19651,7 @@
       </c>
       <c r="D84" s="447"/>
       <c r="E84" s="437" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="F84" s="438"/>
       <c r="G84" s="74"/>
@@ -19732,7 +19732,7 @@
       </c>
       <c r="D85" s="447"/>
       <c r="E85" s="437" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="F85" s="438"/>
       <c r="G85" s="74"/>
@@ -19813,7 +19813,7 @@
       </c>
       <c r="D86" s="447"/>
       <c r="E86" s="437" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="F86" s="438"/>
       <c r="G86" s="74"/>
@@ -20787,17 +20787,17 @@
     </row>
     <row r="102" spans="1:75" ht="14.1" customHeight="1">
       <c r="C102" s="501" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="D102" s="501"/>
       <c r="E102" s="105"/>
       <c r="F102" s="501" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="G102" s="501"/>
       <c r="H102" s="105"/>
       <c r="I102" s="501" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="J102" s="501"/>
       <c r="K102" s="105"/>

--- a/api/cp-dss-api/gateway/src/main/resources/reports/discharging/Vessel_1_Discharging_Plan_Template.xlsx
+++ b/api/cp-dss-api/gateway/src/main/resources/reports/discharging/Vessel_1_Discharging_Plan_Template.xlsx
@@ -365,7 +365,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Author:
 jx:area(lastCell="X4")</t>
@@ -395,7 +395,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Author:
 jx:area(lastCell="X12")</t>
@@ -1404,7 +1404,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 </t>
@@ -1429,7 +1429,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 </t>
@@ -1454,7 +1454,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 </t>
@@ -1479,7 +1479,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 </t>
@@ -1504,7 +1504,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 </t>
@@ -2204,7 +2204,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 </t>
@@ -2229,7 +2229,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 </t>
@@ -2254,7 +2254,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 </t>
@@ -3304,12 +3304,6 @@
     <t>${ukc}</t>
   </si>
   <si>
-    <t>${sf}</t>
-  </si>
-  <si>
-    <t>${bm}</t>
-  </si>
-  <si>
     <t>BALLAST TANKS</t>
   </si>
   <si>
@@ -4220,6 +4214,14 @@
   <si>
     <t>${berthDetails.airPurge}</t>
   </si>
+  <si>
+    <t>${sf.frameNumber}/
+${sf.percentage}%</t>
+  </si>
+  <si>
+    <t>${bm.frameNumber}/
+${bm.percentage}%</t>
+  </si>
 </sst>
 </file>
 
@@ -4245,7 +4247,7 @@
     <numFmt numFmtId="180" formatCode="#,##0.0"/>
     <numFmt numFmtId="181" formatCode="####.##"/>
   </numFmts>
-  <fonts count="58">
+  <fonts count="57">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -4622,17 +4624,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <color indexed="81"/>
       <name val="Tahoma"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -5687,39 +5682,20 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="173" fontId="29" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="173" fontId="29" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="173" fontId="29" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="173" fontId="29" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="173" fontId="29" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="173" fontId="29" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="173" fontId="29" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="16" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="16" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="9" fontId="48" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -5730,22 +5706,68 @@
       <alignment horizontal="right" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="174" fontId="47" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="174" fontId="47" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="14" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="173" fontId="29" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="8" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" wrapText="1" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" wrapText="1" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="173" fontId="29" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="173" fontId="33" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="9" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="173" fontId="33" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="173" fontId="33" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="173" fontId="33" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
@@ -5758,6 +5780,196 @@
     <xf numFmtId="173" fontId="33" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="176" fontId="24" fillId="0" borderId="10" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="174" fontId="47" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="174" fontId="47" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="174" fontId="47" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="174" fontId="47" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="3" fontId="33" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="33" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="173" fontId="29" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="173" fontId="34" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="4" fontId="20" fillId="2" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="8" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="16" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="16" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="16" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="14" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="8" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="9" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -5804,233 +6016,129 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" wrapText="1" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" wrapText="1" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="173" fontId="29" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="173" fontId="29" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="16" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="16" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="3" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="4" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="16" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="16" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="16" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="173" fontId="33" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="16" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="16" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="173" fontId="33" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="8" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="15" fillId="0" borderId="10" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="181" fontId="15" fillId="0" borderId="10" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="173" fontId="33" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="174" fontId="47" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="174" fontId="47" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="174" fontId="47" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="174" fontId="47" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="4" fontId="20" fillId="2" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="8" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="16" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="173" fontId="29" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="173" fontId="34" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="3" fontId="33" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="3" fontId="33" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="176" fontId="24" fillId="0" borderId="10" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="174" fontId="47" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="174" fontId="47" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" textRotation="45"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" textRotation="45"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="4" borderId="14" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -6051,28 +6159,116 @@
     <xf numFmtId="0" fontId="15" fillId="4" borderId="11" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="16" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="177" fontId="18" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="177" fontId="18" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="177" fontId="18" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="179" fontId="18" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="179" fontId="18" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="178" fontId="18" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="178" fontId="18" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="16" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="18" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="177" fontId="18" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="177" fontId="18" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="179" fontId="18" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="179" fontId="18" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -6111,36 +6307,20 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="177" fontId="18" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="177" fontId="18" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="177" fontId="18" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="179" fontId="18" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="179" fontId="18" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="178" fontId="18" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -6151,218 +6331,70 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" textRotation="45"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" textRotation="45"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="177" fontId="18" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="177" fontId="18" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="7" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="7" borderId="16" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="177" fontId="18" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="56" fillId="6" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="16" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="179" fontId="18" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="179" fontId="18" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="178" fontId="18" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="43" fillId="4" borderId="3" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="43" fillId="4" borderId="4" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="43" fillId="4" borderId="10" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="16" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="181" fontId="15" fillId="0" borderId="10" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="43" fillId="4" borderId="11" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="178" fontId="18" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="16" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="8" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="15" fillId="0" borderId="10" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="3" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="28" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="3" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="28" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="16" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="16" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="16" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="16" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="16" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="18" fillId="0" borderId="3" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="18" fillId="0" borderId="4" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="16" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="16" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="36" fillId="0" borderId="3" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" wrapText="1"/>
@@ -6370,26 +6402,6 @@
     </xf>
     <xf numFmtId="0" fontId="36" fillId="0" borderId="28" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="3" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="28" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="19" fillId="4" borderId="16" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="37" fillId="0" borderId="14" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="37" fillId="0" borderId="9" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="49" fontId="37" fillId="4" borderId="14" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -6408,37 +6420,124 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="57" fillId="7" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="37" fillId="4" borderId="6" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="37" fillId="4" borderId="11" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="4" borderId="14" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="4" borderId="8" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="4" borderId="9" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="4" borderId="21" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="4" borderId="20" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="4" borderId="22" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="4" borderId="23" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="4" borderId="24" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="4" borderId="25" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="4" borderId="19" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="4" borderId="15" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="4" borderId="1" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="4" borderId="6" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="7" borderId="16" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="3" borderId="1" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="43" fillId="4" borderId="14" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="40" fillId="3" borderId="29" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="43" fillId="4" borderId="9" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="40" fillId="3" borderId="6" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="43" fillId="4" borderId="7" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="40" fillId="3" borderId="30" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="43" fillId="4" borderId="2" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="9" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="38" fontId="23" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="172" fontId="41" fillId="0" borderId="0" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="37" fillId="4" borderId="19" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="171" fontId="41" fillId="2" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="37" fillId="4" borderId="15" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="171" fontId="36" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="4" borderId="17" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="4" borderId="18" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="170" fontId="36" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -6479,164 +6578,60 @@
     <xf numFmtId="0" fontId="45" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="4" borderId="17" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="4" borderId="18" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="4" borderId="19" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="4" borderId="15" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="9" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="38" fontId="23" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="3" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="28" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="4" borderId="3" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="4" borderId="4" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="4" borderId="10" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="4" borderId="11" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="4" borderId="21" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="4" borderId="20" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="4" borderId="22" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="4" borderId="23" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="4" borderId="24" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="4" borderId="25" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="4" borderId="19" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="4" borderId="15" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="4" borderId="1" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="4" borderId="6" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="3" borderId="1" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="3" borderId="29" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="3" borderId="6" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="3" borderId="30" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="57" fillId="6" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="16" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="19" fillId="4" borderId="16" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="36" fillId="0" borderId="3" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="28" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="43" fillId="4" borderId="14" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="28" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="43" fillId="4" borderId="9" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="37" fillId="4" borderId="6" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="43" fillId="4" borderId="7" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="43" fillId="4" borderId="2" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="172" fontId="41" fillId="0" borderId="0" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="41" fillId="2" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="36" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="37" fillId="0" borderId="14" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="37" fillId="4" borderId="11" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="4" borderId="14" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="4" borderId="8" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="4" borderId="9" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="37" fillId="0" borderId="9" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -6765,7 +6760,7 @@
         <xdr:cNvPr id="30643" name="Line 59">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{26C26646-7311-46E9-9E78-CC1D2B3F626E}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{26C26646-7311-46E9-9E78-CC1D2B3F626E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6819,7 +6814,7 @@
         <xdr:cNvPr id="30644" name="Line 60">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B49276F8-0941-4D7D-8146-C269E6ACE4D6}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B49276F8-0941-4D7D-8146-C269E6ACE4D6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6873,7 +6868,7 @@
         <xdr:cNvPr id="30645" name="Line 62">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{49720863-AFF1-493D-8C5B-3E8A332597CC}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{49720863-AFF1-493D-8C5B-3E8A332597CC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6927,7 +6922,7 @@
         <xdr:cNvPr id="30646" name="Line 62">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7695EED5-68DE-4941-B396-30D3C770B8B0}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7695EED5-68DE-4941-B396-30D3C770B8B0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6981,7 +6976,7 @@
         <xdr:cNvPr id="30647" name="Line 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD58331C-81A7-4159-9782-8A7161F85FB4}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD58331C-81A7-4159-9782-8A7161F85FB4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7035,7 +7030,7 @@
         <xdr:cNvPr id="30648" name="Line 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D0300261-277A-4B07-916A-FC3A4EA535EC}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D0300261-277A-4B07-916A-FC3A4EA535EC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7089,7 +7084,7 @@
         <xdr:cNvPr id="30649" name="Line 62">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{92E06221-417C-4981-B737-76380BAE82BA}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{92E06221-417C-4981-B737-76380BAE82BA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7143,7 +7138,7 @@
         <xdr:cNvPr id="30650" name="Line 62">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EC93D721-69B8-4DB6-8611-B0CA263C6701}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EC93D721-69B8-4DB6-8611-B0CA263C6701}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7197,7 +7192,7 @@
         <xdr:cNvPr id="30651" name="Line 62">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8FFC3F25-367F-4CB6-8861-0D589CD691A0}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8FFC3F25-367F-4CB6-8861-0D589CD691A0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7251,7 +7246,7 @@
         <xdr:cNvPr id="30652" name="Line 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{132B4608-E2CC-4568-8160-0038A8B8A9B4}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{132B4608-E2CC-4568-8160-0038A8B8A9B4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7305,7 +7300,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{95E86656-9F63-45D0-BC52-81A2571E9B65}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{95E86656-9F63-45D0-BC52-81A2571E9B65}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7355,7 +7350,7 @@
         <xdr:cNvPr id="17" name="Line 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{132B4608-E2CC-4568-8160-0038A8B8A9B4}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{132B4608-E2CC-4568-8160-0038A8B8A9B4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7409,7 +7404,7 @@
         <xdr:cNvPr id="19" name="Line 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{132B4608-E2CC-4568-8160-0038A8B8A9B4}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{132B4608-E2CC-4568-8160-0038A8B8A9B4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7463,7 +7458,7 @@
         <xdr:cNvPr id="21" name="Line 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{132B4608-E2CC-4568-8160-0038A8B8A9B4}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{132B4608-E2CC-4568-8160-0038A8B8A9B4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7517,7 +7512,7 @@
         <xdr:cNvPr id="16" name="Line 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{132B4608-E2CC-4568-8160-0038A8B8A9B4}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{132B4608-E2CC-4568-8160-0038A8B8A9B4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7571,7 +7566,7 @@
         <xdr:cNvPr id="18" name="Line 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{132B4608-E2CC-4568-8160-0038A8B8A9B4}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{132B4608-E2CC-4568-8160-0038A8B8A9B4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7625,7 +7620,7 @@
         <xdr:cNvPr id="29" name="Line 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{132B4608-E2CC-4568-8160-0038A8B8A9B4}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{132B4608-E2CC-4568-8160-0038A8B8A9B4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7679,7 +7674,7 @@
         <xdr:cNvPr id="30" name="Line 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{132B4608-E2CC-4568-8160-0038A8B8A9B4}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{132B4608-E2CC-4568-8160-0038A8B8A9B4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7742,10 +7737,10 @@
           </xdr:nvGrpSpPr>
           <xdr:grpSpPr>
             <a:xfrm>
-              <a:off x="380552" y="3921607"/>
-              <a:ext cx="418203" cy="725643"/>
-              <a:chOff x="376566" y="3942676"/>
-              <a:chExt cx="297180" cy="732369"/>
+              <a:off x="380552" y="3921604"/>
+              <a:ext cx="418203" cy="725651"/>
+              <a:chOff x="376566" y="3942673"/>
+              <a:chExt cx="297180" cy="732377"/>
             </a:xfrm>
           </xdr:grpSpPr>
           <xdr:sp macro="" textlink="">
@@ -7756,7 +7751,7 @@
                     <a14:compatExt spid="_x0000_s33793"/>
                   </a:ext>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-0000056C0000}"/>
+                    <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-0000056C0000}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -7764,7 +7759,7 @@
             </xdr:nvSpPr>
             <xdr:spPr bwMode="auto">
               <a:xfrm>
-                <a:off x="376566" y="3942676"/>
+                <a:off x="376566" y="3942673"/>
                 <a:ext cx="297180" cy="194983"/>
               </a:xfrm>
               <a:prstGeom prst="rect">
@@ -7798,7 +7793,7 @@
                     <a14:compatExt spid="_x0000_s33794"/>
                   </a:ext>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-0000066C0000}"/>
+                    <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-0000066C0000}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -7840,7 +7835,7 @@
                     <a14:compatExt spid="_x0000_s33795"/>
                   </a:ext>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-0000076C0000}"/>
+                    <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-0000076C0000}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -7848,7 +7843,7 @@
             </xdr:nvSpPr>
             <xdr:spPr bwMode="auto">
               <a:xfrm>
-                <a:off x="392430" y="4404366"/>
+                <a:off x="392430" y="4404371"/>
                 <a:ext cx="243840" cy="270679"/>
               </a:xfrm>
               <a:prstGeom prst="rect">
@@ -8366,12 +8361,12 @@
       <c r="I3" s="10"/>
       <c r="J3" s="9"/>
       <c r="K3" s="9"/>
-      <c r="L3" s="335" t="s">
-        <v>470</v>
+      <c r="L3" s="269" t="s">
+        <v>468</v>
       </c>
-      <c r="M3" s="335"/>
-      <c r="N3" s="335"/>
-      <c r="O3" s="335"/>
+      <c r="M3" s="269"/>
+      <c r="N3" s="269"/>
+      <c r="O3" s="269"/>
       <c r="P3" s="9"/>
       <c r="Q3" s="9"/>
       <c r="R3" s="9"/>
@@ -8391,13 +8386,13 @@
         <v>30</v>
       </c>
       <c r="C4" s="9"/>
-      <c r="D4" s="337" t="s">
+      <c r="D4" s="271" t="s">
         <v>52</v>
       </c>
-      <c r="E4" s="337"/>
-      <c r="F4" s="337"/>
-      <c r="G4" s="337"/>
-      <c r="H4" s="337"/>
+      <c r="E4" s="271"/>
+      <c r="F4" s="271"/>
+      <c r="G4" s="271"/>
+      <c r="H4" s="271"/>
       <c r="I4" s="9"/>
       <c r="J4" s="9"/>
       <c r="K4" s="9"/>
@@ -8424,13 +8419,13 @@
         <v>28</v>
       </c>
       <c r="C5" s="13"/>
-      <c r="D5" s="334" t="s">
+      <c r="D5" s="302" t="s">
         <v>53</v>
       </c>
-      <c r="E5" s="334"/>
-      <c r="F5" s="334"/>
-      <c r="G5" s="334"/>
-      <c r="H5" s="334"/>
+      <c r="E5" s="302"/>
+      <c r="F5" s="302"/>
+      <c r="G5" s="302"/>
+      <c r="H5" s="302"/>
       <c r="I5" s="14"/>
       <c r="J5" s="14"/>
       <c r="K5" s="14"/>
@@ -8448,13 +8443,13 @@
       <c r="U5" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="V5" s="325" t="s">
+      <c r="V5" s="286" t="s">
         <v>56</v>
       </c>
-      <c r="W5" s="325"/>
-      <c r="X5" s="325"/>
-      <c r="Y5" s="325"/>
-      <c r="Z5" s="325"/>
+      <c r="W5" s="286"/>
+      <c r="X5" s="286"/>
+      <c r="Y5" s="286"/>
+      <c r="Z5" s="286"/>
       <c r="AA5" s="10"/>
       <c r="AB5" s="18"/>
     </row>
@@ -8484,13 +8479,13 @@
       <c r="U6" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="V6" s="326" t="s">
+      <c r="V6" s="287" t="s">
         <v>57</v>
       </c>
-      <c r="W6" s="326"/>
-      <c r="X6" s="326"/>
-      <c r="Y6" s="326"/>
-      <c r="Z6" s="326"/>
+      <c r="W6" s="287"/>
+      <c r="X6" s="287"/>
+      <c r="Y6" s="287"/>
+      <c r="Z6" s="287"/>
       <c r="AA6" s="10"/>
       <c r="AB6" s="18"/>
     </row>
@@ -8499,24 +8494,24 @@
       <c r="B7" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="C7" s="338" t="s">
+      <c r="C7" s="272" t="s">
         <v>54</v>
       </c>
-      <c r="D7" s="338"/>
-      <c r="E7" s="338"/>
-      <c r="F7" s="338"/>
-      <c r="G7" s="338"/>
-      <c r="H7" s="339" t="s">
-        <v>521</v>
+      <c r="D7" s="272"/>
+      <c r="E7" s="272"/>
+      <c r="F7" s="272"/>
+      <c r="G7" s="272"/>
+      <c r="H7" s="279" t="s">
+        <v>519</v>
       </c>
-      <c r="I7" s="339"/>
-      <c r="J7" s="338" t="s">
+      <c r="I7" s="279"/>
+      <c r="J7" s="272" t="s">
         <v>55</v>
       </c>
-      <c r="K7" s="338"/>
-      <c r="L7" s="338"/>
-      <c r="M7" s="338"/>
-      <c r="N7" s="338"/>
+      <c r="K7" s="272"/>
+      <c r="L7" s="272"/>
+      <c r="M7" s="272"/>
+      <c r="N7" s="272"/>
       <c r="O7" s="21"/>
       <c r="P7" s="21"/>
       <c r="Q7" s="21"/>
@@ -8528,13 +8523,13 @@
       <c r="U7" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="V7" s="326" t="s">
+      <c r="V7" s="287" t="s">
         <v>58</v>
       </c>
-      <c r="W7" s="326"/>
-      <c r="X7" s="326"/>
-      <c r="Y7" s="326"/>
-      <c r="Z7" s="326"/>
+      <c r="W7" s="287"/>
+      <c r="X7" s="287"/>
+      <c r="Y7" s="287"/>
+      <c r="Z7" s="287"/>
       <c r="AA7" s="10"/>
       <c r="AB7" s="18"/>
     </row>
@@ -8614,21 +8609,21 @@
       <c r="M10" s="22"/>
       <c r="N10" s="22"/>
       <c r="O10" s="22"/>
-      <c r="P10" s="332" t="s">
+      <c r="P10" s="296" t="s">
         <v>50</v>
       </c>
-      <c r="Q10" s="332"/>
-      <c r="R10" s="332"/>
-      <c r="S10" s="332"/>
-      <c r="T10" s="332"/>
-      <c r="U10" s="332"/>
-      <c r="V10" s="332"/>
-      <c r="W10" s="332"/>
-      <c r="X10" s="332"/>
-      <c r="Y10" s="329" t="s">
+      <c r="Q10" s="296"/>
+      <c r="R10" s="296"/>
+      <c r="S10" s="296"/>
+      <c r="T10" s="296"/>
+      <c r="U10" s="296"/>
+      <c r="V10" s="296"/>
+      <c r="W10" s="296"/>
+      <c r="X10" s="296"/>
+      <c r="Y10" s="293" t="s">
         <v>59</v>
       </c>
-      <c r="Z10" s="329"/>
+      <c r="Z10" s="293"/>
       <c r="AB10" s="18"/>
     </row>
     <row r="11" spans="1:32" ht="17.25" customHeight="1">
@@ -8651,21 +8646,21 @@
       <c r="M11" s="25"/>
       <c r="N11" s="25"/>
       <c r="O11" s="26"/>
-      <c r="P11" s="333" t="s">
+      <c r="P11" s="297" t="s">
         <v>46</v>
       </c>
-      <c r="Q11" s="333"/>
-      <c r="R11" s="333"/>
-      <c r="S11" s="333"/>
-      <c r="T11" s="333"/>
-      <c r="U11" s="333"/>
-      <c r="V11" s="333"/>
-      <c r="W11" s="330" t="s">
-        <v>469</v>
+      <c r="Q11" s="297"/>
+      <c r="R11" s="297"/>
+      <c r="S11" s="297"/>
+      <c r="T11" s="297"/>
+      <c r="U11" s="297"/>
+      <c r="V11" s="297"/>
+      <c r="W11" s="294" t="s">
+        <v>467</v>
       </c>
-      <c r="X11" s="330"/>
-      <c r="Y11" s="330"/>
-      <c r="Z11" s="330"/>
+      <c r="X11" s="294"/>
+      <c r="Y11" s="294"/>
+      <c r="Z11" s="294"/>
       <c r="AA11" s="27"/>
     </row>
     <row r="12" spans="1:32" s="27" customFormat="1" ht="17.25" customHeight="1">
@@ -8684,19 +8679,19 @@
       <c r="M12" s="29"/>
       <c r="N12" s="29"/>
       <c r="O12" s="29"/>
-      <c r="P12" s="328" t="s">
-        <v>520</v>
+      <c r="P12" s="292" t="s">
+        <v>518</v>
       </c>
-      <c r="Q12" s="328"/>
-      <c r="R12" s="328"/>
-      <c r="S12" s="328"/>
-      <c r="T12" s="328"/>
-      <c r="U12" s="328"/>
-      <c r="V12" s="328"/>
-      <c r="W12" s="328"/>
-      <c r="X12" s="328"/>
-      <c r="Y12" s="328"/>
-      <c r="Z12" s="328"/>
+      <c r="Q12" s="292"/>
+      <c r="R12" s="292"/>
+      <c r="S12" s="292"/>
+      <c r="T12" s="292"/>
+      <c r="U12" s="292"/>
+      <c r="V12" s="292"/>
+      <c r="W12" s="292"/>
+      <c r="X12" s="292"/>
+      <c r="Y12" s="292"/>
+      <c r="Z12" s="292"/>
     </row>
     <row r="13" spans="1:32" s="27" customFormat="1" ht="17.25" customHeight="1">
       <c r="A13" s="28"/>
@@ -8757,8 +8752,8 @@
       <c r="G15" s="162" t="s">
         <v>238</v>
       </c>
-      <c r="H15" s="265"/>
-      <c r="I15" s="266"/>
+      <c r="H15" s="284"/>
+      <c r="I15" s="285"/>
       <c r="J15" s="37" t="s">
         <v>239</v>
       </c>
@@ -8766,8 +8761,8 @@
       <c r="L15" s="162" t="s">
         <v>240</v>
       </c>
-      <c r="M15" s="265"/>
-      <c r="N15" s="266"/>
+      <c r="M15" s="284"/>
+      <c r="N15" s="285"/>
       <c r="O15" s="37" t="s">
         <v>241</v>
       </c>
@@ -8775,12 +8770,12 @@
       <c r="Q15" s="39"/>
       <c r="R15" s="29"/>
       <c r="S15" s="29"/>
-      <c r="T15" s="323" t="s">
+      <c r="T15" s="291" t="s">
         <v>37</v>
       </c>
-      <c r="U15" s="323"/>
-      <c r="V15" s="323"/>
-      <c r="W15" s="323"/>
+      <c r="U15" s="291"/>
+      <c r="V15" s="291"/>
+      <c r="W15" s="291"/>
       <c r="X15" s="40"/>
       <c r="Y15" s="41"/>
       <c r="Z15" s="32"/>
@@ -8788,47 +8783,47 @@
     <row r="16" spans="1:32" s="27" customFormat="1" ht="12" customHeight="1">
       <c r="A16" s="42"/>
       <c r="B16" s="43"/>
-      <c r="C16" s="257" t="s">
+      <c r="C16" s="254" t="s">
         <v>73</v>
       </c>
-      <c r="D16" s="292"/>
-      <c r="E16" s="257" t="s">
+      <c r="D16" s="255"/>
+      <c r="E16" s="254" t="s">
         <v>101</v>
       </c>
-      <c r="F16" s="258"/>
-      <c r="G16" s="257" t="s">
+      <c r="F16" s="268"/>
+      <c r="G16" s="254" t="s">
         <v>129</v>
       </c>
-      <c r="H16" s="292"/>
-      <c r="I16" s="258"/>
-      <c r="J16" s="257" t="s">
+      <c r="H16" s="255"/>
+      <c r="I16" s="268"/>
+      <c r="J16" s="254" t="s">
         <v>157</v>
       </c>
-      <c r="K16" s="258"/>
-      <c r="L16" s="257" t="s">
+      <c r="K16" s="268"/>
+      <c r="L16" s="254" t="s">
         <v>185</v>
       </c>
-      <c r="M16" s="292"/>
-      <c r="N16" s="258"/>
-      <c r="O16" s="257" t="s">
+      <c r="M16" s="255"/>
+      <c r="N16" s="268"/>
+      <c r="O16" s="254" t="s">
         <v>213</v>
       </c>
-      <c r="P16" s="258"/>
+      <c r="P16" s="268"/>
       <c r="Q16" s="43"/>
       <c r="S16" s="29"/>
-      <c r="T16" s="331" t="s">
+      <c r="T16" s="295" t="s">
         <v>60</v>
       </c>
-      <c r="U16" s="331"/>
-      <c r="V16" s="331"/>
-      <c r="W16" s="331"/>
+      <c r="U16" s="295"/>
+      <c r="V16" s="295"/>
+      <c r="W16" s="295"/>
       <c r="X16" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="Y16" s="316" t="s">
+      <c r="Y16" s="305" t="s">
         <v>68</v>
       </c>
-      <c r="Z16" s="316"/>
+      <c r="Z16" s="305"/>
       <c r="AF16" s="62"/>
     </row>
     <row r="17" spans="1:45" s="27" customFormat="1" ht="12" customHeight="1">
@@ -8849,10 +8844,10 @@
       <c r="G17" s="159" t="s">
         <v>254</v>
       </c>
-      <c r="H17" s="300" t="s">
+      <c r="H17" s="280" t="s">
         <v>130</v>
       </c>
-      <c r="I17" s="301"/>
+      <c r="I17" s="281"/>
       <c r="J17" s="44" t="s">
         <v>257</v>
       </c>
@@ -8862,10 +8857,10 @@
       <c r="L17" s="159" t="s">
         <v>260</v>
       </c>
-      <c r="M17" s="300" t="s">
+      <c r="M17" s="280" t="s">
         <v>186</v>
       </c>
-      <c r="N17" s="301"/>
+      <c r="N17" s="281"/>
       <c r="O17" s="44" t="s">
         <v>263</v>
       </c>
@@ -8873,7 +8868,7 @@
         <v>214</v>
       </c>
       <c r="Q17" s="179" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="S17" s="29"/>
       <c r="T17" s="42"/>
@@ -8894,40 +8889,40 @@
     <row r="18" spans="1:45" s="27" customFormat="1" ht="12" customHeight="1">
       <c r="A18" s="42"/>
       <c r="B18" s="49"/>
-      <c r="C18" s="255" t="s">
+      <c r="C18" s="256" t="s">
         <v>75</v>
       </c>
-      <c r="D18" s="287"/>
-      <c r="E18" s="255" t="s">
+      <c r="D18" s="257"/>
+      <c r="E18" s="256" t="s">
         <v>103</v>
       </c>
-      <c r="F18" s="256"/>
-      <c r="G18" s="255" t="s">
+      <c r="F18" s="265"/>
+      <c r="G18" s="256" t="s">
         <v>131</v>
       </c>
-      <c r="H18" s="287"/>
-      <c r="I18" s="256"/>
-      <c r="J18" s="287" t="s">
+      <c r="H18" s="257"/>
+      <c r="I18" s="265"/>
+      <c r="J18" s="257" t="s">
         <v>159</v>
       </c>
-      <c r="K18" s="287"/>
-      <c r="L18" s="293" t="s">
+      <c r="K18" s="257"/>
+      <c r="L18" s="273" t="s">
         <v>187</v>
       </c>
-      <c r="M18" s="294"/>
-      <c r="N18" s="295"/>
-      <c r="O18" s="287" t="s">
+      <c r="M18" s="274"/>
+      <c r="N18" s="275"/>
+      <c r="O18" s="257" t="s">
         <v>215</v>
       </c>
-      <c r="P18" s="287"/>
-      <c r="Q18" s="321" t="s">
-        <v>457</v>
+      <c r="P18" s="257"/>
+      <c r="Q18" s="304" t="s">
+        <v>455</v>
       </c>
       <c r="S18" s="29"/>
-      <c r="T18" s="327"/>
-      <c r="U18" s="327"/>
-      <c r="V18" s="327"/>
-      <c r="W18" s="327"/>
+      <c r="T18" s="288"/>
+      <c r="U18" s="288"/>
+      <c r="V18" s="288"/>
+      <c r="W18" s="288"/>
       <c r="X18" s="40"/>
       <c r="Y18" s="48"/>
       <c r="Z18" s="32"/>
@@ -8939,7 +8934,7 @@
     <row r="19" spans="1:45" s="27" customFormat="1" ht="12" customHeight="1">
       <c r="A19" s="42"/>
       <c r="B19" s="179" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="C19" s="163" t="s">
         <v>76</v>
@@ -8956,10 +8951,10 @@
       <c r="G19" s="165" t="s">
         <v>132</v>
       </c>
-      <c r="H19" s="296" t="s">
+      <c r="H19" s="289" t="s">
         <v>133</v>
       </c>
-      <c r="I19" s="297"/>
+      <c r="I19" s="290"/>
       <c r="J19" s="163" t="s">
         <v>160</v>
       </c>
@@ -8969,22 +8964,22 @@
       <c r="L19" s="163" t="s">
         <v>188</v>
       </c>
-      <c r="M19" s="296" t="s">
+      <c r="M19" s="289" t="s">
         <v>189</v>
       </c>
-      <c r="N19" s="297"/>
+      <c r="N19" s="290"/>
       <c r="O19" s="166" t="s">
         <v>216</v>
       </c>
       <c r="P19" s="164" t="s">
         <v>217</v>
       </c>
-      <c r="Q19" s="321"/>
+      <c r="Q19" s="304"/>
       <c r="S19" s="29"/>
-      <c r="T19" s="327"/>
-      <c r="U19" s="327"/>
-      <c r="V19" s="327"/>
-      <c r="W19" s="327"/>
+      <c r="T19" s="288"/>
+      <c r="U19" s="288"/>
+      <c r="V19" s="288"/>
+      <c r="W19" s="288"/>
       <c r="X19" s="40"/>
       <c r="Y19" s="48"/>
       <c r="Z19" s="32"/>
@@ -8995,30 +8990,30 @@
       <c r="AD19"/>
       <c r="AE19"/>
       <c r="AF19" s="182" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="AG19"/>
     </row>
     <row r="20" spans="1:45" s="27" customFormat="1" ht="12" customHeight="1">
       <c r="A20" s="42"/>
-      <c r="B20" s="336" t="s">
+      <c r="B20" s="270" t="s">
         <v>72</v>
       </c>
       <c r="C20" s="50" t="s">
         <v>249</v>
       </c>
-      <c r="D20" s="342" t="s">
+      <c r="D20" s="262" t="s">
         <v>78</v>
       </c>
-      <c r="E20" s="288"/>
-      <c r="F20" s="343"/>
+      <c r="E20" s="263"/>
+      <c r="F20" s="264"/>
       <c r="G20" s="160" t="s">
         <v>253</v>
       </c>
-      <c r="H20" s="261" t="s">
+      <c r="H20" s="298" t="s">
         <v>106</v>
       </c>
-      <c r="I20" s="262"/>
+      <c r="I20" s="299"/>
       <c r="J20" s="50" t="s">
         <v>255</v>
       </c>
@@ -9028,10 +9023,10 @@
       <c r="L20" s="53" t="s">
         <v>258</v>
       </c>
-      <c r="M20" s="285" t="s">
+      <c r="M20" s="266" t="s">
         <v>162</v>
       </c>
-      <c r="N20" s="286"/>
+      <c r="N20" s="267"/>
       <c r="O20" s="53" t="s">
         <v>261</v>
       </c>
@@ -9040,48 +9035,48 @@
       </c>
       <c r="Q20" s="172"/>
       <c r="S20" s="29"/>
-      <c r="T20" s="327"/>
-      <c r="U20" s="327"/>
-      <c r="V20" s="327"/>
-      <c r="W20" s="327"/>
+      <c r="T20" s="288"/>
+      <c r="U20" s="288"/>
+      <c r="V20" s="288"/>
+      <c r="W20" s="288"/>
       <c r="X20" s="40"/>
       <c r="Y20" s="48"/>
       <c r="Z20" s="32"/>
       <c r="AA20" s="42"/>
       <c r="AD20"/>
       <c r="AE20"/>
-      <c r="AF20" s="320" t="s">
-        <v>461</v>
+      <c r="AF20" s="308" t="s">
+        <v>459</v>
       </c>
       <c r="AG20"/>
     </row>
     <row r="21" spans="1:45" s="27" customFormat="1" ht="12" customHeight="1">
       <c r="A21" s="42"/>
-      <c r="B21" s="336"/>
-      <c r="C21" s="255" t="s">
+      <c r="B21" s="270"/>
+      <c r="C21" s="256" t="s">
         <v>79</v>
       </c>
-      <c r="D21" s="287"/>
-      <c r="E21" s="287"/>
-      <c r="F21" s="256"/>
-      <c r="G21" s="255" t="s">
+      <c r="D21" s="257"/>
+      <c r="E21" s="257"/>
+      <c r="F21" s="265"/>
+      <c r="G21" s="256" t="s">
         <v>107</v>
       </c>
-      <c r="H21" s="287"/>
-      <c r="I21" s="256"/>
-      <c r="J21" s="293" t="s">
+      <c r="H21" s="257"/>
+      <c r="I21" s="265"/>
+      <c r="J21" s="273" t="s">
         <v>135</v>
       </c>
-      <c r="K21" s="295"/>
-      <c r="L21" s="293" t="s">
+      <c r="K21" s="275"/>
+      <c r="L21" s="273" t="s">
         <v>163</v>
       </c>
-      <c r="M21" s="294"/>
-      <c r="N21" s="295"/>
-      <c r="O21" s="293" t="s">
+      <c r="M21" s="274"/>
+      <c r="N21" s="275"/>
+      <c r="O21" s="273" t="s">
         <v>191</v>
       </c>
-      <c r="P21" s="295"/>
+      <c r="P21" s="275"/>
       <c r="Q21" s="173"/>
       <c r="S21" s="29"/>
       <c r="T21" s="29"/>
@@ -9094,7 +9089,7 @@
       <c r="AA21" s="42"/>
       <c r="AD21"/>
       <c r="AE21"/>
-      <c r="AF21" s="320"/>
+      <c r="AF21" s="308"/>
       <c r="AG21"/>
     </row>
     <row r="22" spans="1:45" s="27" customFormat="1" ht="12" customHeight="1">
@@ -9103,18 +9098,18 @@
       <c r="C22" s="167" t="s">
         <v>80</v>
       </c>
-      <c r="D22" s="263" t="s">
+      <c r="D22" s="258" t="s">
         <v>81</v>
       </c>
-      <c r="E22" s="263"/>
-      <c r="F22" s="264"/>
+      <c r="E22" s="258"/>
+      <c r="F22" s="259"/>
       <c r="G22" s="168" t="s">
         <v>108</v>
       </c>
-      <c r="H22" s="263" t="s">
+      <c r="H22" s="258" t="s">
         <v>109</v>
       </c>
-      <c r="I22" s="264"/>
+      <c r="I22" s="259"/>
       <c r="J22" s="169" t="s">
         <v>136</v>
       </c>
@@ -9124,10 +9119,10 @@
       <c r="L22" s="169" t="s">
         <v>164</v>
       </c>
-      <c r="M22" s="263" t="s">
+      <c r="M22" s="258" t="s">
         <v>165</v>
       </c>
-      <c r="N22" s="264"/>
+      <c r="N22" s="259"/>
       <c r="O22" s="171" t="s">
         <v>192</v>
       </c>
@@ -9166,10 +9161,10 @@
       <c r="G23" s="160" t="s">
         <v>256</v>
       </c>
-      <c r="H23" s="261" t="s">
+      <c r="H23" s="298" t="s">
         <v>138</v>
       </c>
-      <c r="I23" s="262"/>
+      <c r="I23" s="299"/>
       <c r="J23" s="50" t="s">
         <v>259</v>
       </c>
@@ -9179,10 +9174,10 @@
       <c r="L23" s="160" t="s">
         <v>262</v>
       </c>
-      <c r="M23" s="261" t="s">
+      <c r="M23" s="298" t="s">
         <v>194</v>
       </c>
-      <c r="N23" s="262"/>
+      <c r="N23" s="299"/>
       <c r="O23" s="50" t="s">
         <v>264</v>
       </c>
@@ -9190,7 +9185,7 @@
         <v>218</v>
       </c>
       <c r="Q23" s="179" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="S23" s="29"/>
       <c r="T23" s="31" t="s">
@@ -9212,42 +9207,42 @@
     <row r="24" spans="1:45" s="27" customFormat="1" ht="12" customHeight="1">
       <c r="A24" s="42"/>
       <c r="B24" s="43"/>
-      <c r="C24" s="255" t="s">
+      <c r="C24" s="256" t="s">
         <v>83</v>
       </c>
-      <c r="D24" s="287"/>
-      <c r="E24" s="255" t="s">
+      <c r="D24" s="257"/>
+      <c r="E24" s="256" t="s">
         <v>111</v>
       </c>
-      <c r="F24" s="287"/>
-      <c r="G24" s="270" t="s">
+      <c r="F24" s="257"/>
+      <c r="G24" s="276" t="s">
         <v>139</v>
       </c>
-      <c r="H24" s="271"/>
-      <c r="I24" s="272"/>
-      <c r="J24" s="255" t="s">
+      <c r="H24" s="277"/>
+      <c r="I24" s="278"/>
+      <c r="J24" s="256" t="s">
         <v>167</v>
       </c>
-      <c r="K24" s="287"/>
-      <c r="L24" s="270" t="s">
+      <c r="K24" s="257"/>
+      <c r="L24" s="276" t="s">
         <v>195</v>
       </c>
-      <c r="M24" s="271"/>
-      <c r="N24" s="272"/>
-      <c r="O24" s="255" t="s">
+      <c r="M24" s="277"/>
+      <c r="N24" s="278"/>
+      <c r="O24" s="256" t="s">
         <v>219</v>
       </c>
-      <c r="P24" s="287"/>
-      <c r="Q24" s="321" t="s">
-        <v>455</v>
+      <c r="P24" s="257"/>
+      <c r="Q24" s="304" t="s">
+        <v>453</v>
       </c>
       <c r="S24" s="29"/>
-      <c r="T24" s="302" t="s">
+      <c r="T24" s="306" t="s">
         <v>233</v>
       </c>
-      <c r="U24" s="302"/>
-      <c r="V24" s="302"/>
-      <c r="W24" s="302"/>
+      <c r="U24" s="306"/>
+      <c r="V24" s="306"/>
+      <c r="W24" s="306"/>
       <c r="X24" s="40"/>
       <c r="Y24" s="57" t="s">
         <v>234</v>
@@ -9278,10 +9273,10 @@
       <c r="G25" s="165" t="s">
         <v>140</v>
       </c>
-      <c r="H25" s="298" t="s">
+      <c r="H25" s="300" t="s">
         <v>141</v>
       </c>
-      <c r="I25" s="299"/>
+      <c r="I25" s="301"/>
       <c r="J25" s="163" t="s">
         <v>168</v>
       </c>
@@ -9291,17 +9286,17 @@
       <c r="L25" s="163" t="s">
         <v>196</v>
       </c>
-      <c r="M25" s="340" t="s">
+      <c r="M25" s="260" t="s">
         <v>197</v>
       </c>
-      <c r="N25" s="341"/>
+      <c r="N25" s="261"/>
       <c r="O25" s="163" t="s">
         <v>220</v>
       </c>
       <c r="P25" s="164" t="s">
         <v>221</v>
       </c>
-      <c r="Q25" s="321"/>
+      <c r="Q25" s="304"/>
       <c r="S25" s="29"/>
       <c r="T25" s="29"/>
       <c r="U25" s="29"/>
@@ -9331,8 +9326,8 @@
       <c r="G26" s="161" t="s">
         <v>244</v>
       </c>
-      <c r="H26" s="290"/>
-      <c r="I26" s="291"/>
+      <c r="H26" s="282"/>
+      <c r="I26" s="283"/>
       <c r="J26" s="58" t="s">
         <v>245</v>
       </c>
@@ -9340,19 +9335,19 @@
       <c r="L26" s="161" t="s">
         <v>246</v>
       </c>
-      <c r="M26" s="290"/>
-      <c r="N26" s="291"/>
+      <c r="M26" s="282"/>
+      <c r="N26" s="283"/>
       <c r="O26" s="34" t="s">
         <v>247</v>
       </c>
       <c r="P26" s="61"/>
       <c r="Q26" s="43"/>
       <c r="S26" s="29"/>
-      <c r="T26" s="322" t="s">
+      <c r="T26" s="307" t="s">
         <v>38</v>
       </c>
-      <c r="U26" s="322"/>
-      <c r="V26" s="322"/>
+      <c r="U26" s="307"/>
+      <c r="V26" s="307"/>
       <c r="W26" s="32" t="s">
         <v>8</v>
       </c>
@@ -9371,40 +9366,40 @@
     <row r="27" spans="1:45" s="27" customFormat="1" ht="12" customHeight="1">
       <c r="A27" s="42"/>
       <c r="B27" s="33"/>
-      <c r="C27" s="257" t="s">
+      <c r="C27" s="254" t="s">
         <v>86</v>
       </c>
-      <c r="D27" s="292"/>
-      <c r="E27" s="257" t="s">
+      <c r="D27" s="255"/>
+      <c r="E27" s="254" t="s">
         <v>114</v>
       </c>
-      <c r="F27" s="292"/>
-      <c r="G27" s="257" t="s">
+      <c r="F27" s="255"/>
+      <c r="G27" s="254" t="s">
         <v>142</v>
       </c>
-      <c r="H27" s="292"/>
-      <c r="I27" s="258"/>
-      <c r="J27" s="257" t="s">
+      <c r="H27" s="255"/>
+      <c r="I27" s="268"/>
+      <c r="J27" s="254" t="s">
         <v>170</v>
       </c>
-      <c r="K27" s="292"/>
-      <c r="L27" s="257" t="s">
+      <c r="K27" s="255"/>
+      <c r="L27" s="254" t="s">
         <v>198</v>
       </c>
-      <c r="M27" s="292"/>
-      <c r="N27" s="258"/>
-      <c r="O27" s="257" t="s">
+      <c r="M27" s="255"/>
+      <c r="N27" s="268"/>
+      <c r="O27" s="254" t="s">
         <v>222</v>
       </c>
-      <c r="P27" s="258"/>
+      <c r="P27" s="268"/>
       <c r="Q27" s="62"/>
       <c r="R27" s="29"/>
       <c r="S27" s="31"/>
-      <c r="T27" s="322" t="s">
+      <c r="T27" s="307" t="s">
         <v>61</v>
       </c>
-      <c r="U27" s="322"/>
-      <c r="V27" s="322"/>
+      <c r="U27" s="307"/>
+      <c r="V27" s="307"/>
       <c r="W27" s="32" t="s">
         <v>8</v>
       </c>
@@ -9440,11 +9435,11 @@
       <c r="Q28" s="62"/>
       <c r="R28" s="29"/>
       <c r="S28" s="31"/>
-      <c r="T28" s="302" t="s">
+      <c r="T28" s="306" t="s">
         <v>40</v>
       </c>
-      <c r="U28" s="302"/>
-      <c r="V28" s="302"/>
+      <c r="U28" s="306"/>
+      <c r="V28" s="306"/>
       <c r="W28" s="32" t="s">
         <v>8</v>
       </c>
@@ -9563,12 +9558,12 @@
       <c r="Q31" s="25"/>
       <c r="R31" s="65"/>
       <c r="S31" s="69"/>
-      <c r="T31" s="323" t="s">
+      <c r="T31" s="291" t="s">
         <v>37</v>
       </c>
-      <c r="U31" s="323"/>
-      <c r="V31" s="323"/>
-      <c r="W31" s="323"/>
+      <c r="U31" s="291"/>
+      <c r="V31" s="291"/>
+      <c r="W31" s="291"/>
       <c r="X31" s="67"/>
       <c r="Y31" s="68"/>
       <c r="Z31" s="32"/>
@@ -9599,32 +9594,32 @@
       <c r="Q32" s="70"/>
       <c r="R32" s="70"/>
       <c r="S32" s="70"/>
-      <c r="T32" s="324" t="s">
+      <c r="T32" s="309" t="s">
         <v>69</v>
       </c>
-      <c r="U32" s="324"/>
-      <c r="V32" s="324"/>
-      <c r="W32" s="324"/>
+      <c r="U32" s="309"/>
+      <c r="V32" s="309"/>
+      <c r="W32" s="309"/>
       <c r="X32" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="Y32" s="316" t="s">
+      <c r="Y32" s="305" t="s">
         <v>70</v>
       </c>
-      <c r="Z32" s="316"/>
+      <c r="Z32" s="305"/>
       <c r="AD32"/>
       <c r="AE32"/>
       <c r="AF32"/>
       <c r="AG32"/>
       <c r="AH32"/>
       <c r="AI32"/>
-      <c r="AJ32" s="314"/>
-      <c r="AK32" s="314"/>
+      <c r="AJ32" s="310"/>
+      <c r="AK32" s="310"/>
       <c r="AL32" s="72"/>
       <c r="AM32" s="72"/>
       <c r="AN32" s="72"/>
-      <c r="AO32" s="314"/>
-      <c r="AP32" s="314"/>
+      <c r="AO32" s="310"/>
+      <c r="AP32" s="310"/>
       <c r="AQ32" s="72"/>
       <c r="AR32" s="72"/>
       <c r="AS32" s="72"/>
@@ -9643,8 +9638,8 @@
       <c r="G33" s="162" t="s">
         <v>267</v>
       </c>
-      <c r="H33" s="265"/>
-      <c r="I33" s="266"/>
+      <c r="H33" s="284"/>
+      <c r="I33" s="285"/>
       <c r="J33" s="156" t="s">
         <v>268</v>
       </c>
@@ -9652,8 +9647,8 @@
       <c r="L33" s="162" t="s">
         <v>269</v>
       </c>
-      <c r="M33" s="265"/>
-      <c r="N33" s="266"/>
+      <c r="M33" s="284"/>
+      <c r="N33" s="285"/>
       <c r="O33" s="156" t="s">
         <v>270</v>
       </c>
@@ -9675,46 +9670,46 @@
       <c r="AG33"/>
       <c r="AH33"/>
       <c r="AI33"/>
-      <c r="AJ33" s="313"/>
-      <c r="AK33" s="313"/>
-      <c r="AL33" s="313"/>
-      <c r="AM33" s="313"/>
-      <c r="AN33" s="313"/>
-      <c r="AO33" s="313"/>
-      <c r="AP33" s="313"/>
-      <c r="AQ33" s="313"/>
-      <c r="AR33" s="313"/>
-      <c r="AS33" s="313"/>
+      <c r="AJ33" s="311"/>
+      <c r="AK33" s="311"/>
+      <c r="AL33" s="311"/>
+      <c r="AM33" s="311"/>
+      <c r="AN33" s="311"/>
+      <c r="AO33" s="311"/>
+      <c r="AP33" s="311"/>
+      <c r="AQ33" s="311"/>
+      <c r="AR33" s="311"/>
+      <c r="AS33" s="311"/>
     </row>
     <row r="34" spans="1:45" s="27" customFormat="1" ht="12" customHeight="1">
       <c r="A34" s="75"/>
       <c r="B34" s="43"/>
-      <c r="C34" s="257" t="s">
+      <c r="C34" s="254" t="s">
         <v>87</v>
       </c>
-      <c r="D34" s="258"/>
-      <c r="E34" s="257" t="s">
+      <c r="D34" s="268"/>
+      <c r="E34" s="254" t="s">
         <v>115</v>
       </c>
-      <c r="F34" s="258"/>
-      <c r="G34" s="257" t="s">
+      <c r="F34" s="268"/>
+      <c r="G34" s="254" t="s">
         <v>143</v>
       </c>
-      <c r="H34" s="292"/>
-      <c r="I34" s="258"/>
-      <c r="J34" s="257" t="s">
+      <c r="H34" s="255"/>
+      <c r="I34" s="268"/>
+      <c r="J34" s="254" t="s">
         <v>171</v>
       </c>
-      <c r="K34" s="258"/>
-      <c r="L34" s="257" t="s">
+      <c r="K34" s="268"/>
+      <c r="L34" s="254" t="s">
         <v>199</v>
       </c>
-      <c r="M34" s="292"/>
-      <c r="N34" s="258"/>
-      <c r="O34" s="257" t="s">
+      <c r="M34" s="255"/>
+      <c r="N34" s="268"/>
+      <c r="O34" s="254" t="s">
         <v>223</v>
       </c>
-      <c r="P34" s="258"/>
+      <c r="P34" s="268"/>
       <c r="Q34" s="43"/>
       <c r="S34" s="73"/>
       <c r="T34" s="74"/>
@@ -9732,13 +9727,13 @@
       <c r="AG34"/>
       <c r="AH34"/>
       <c r="AI34"/>
-      <c r="AJ34" s="317"/>
-      <c r="AK34" s="317"/>
+      <c r="AJ34" s="312"/>
+      <c r="AK34" s="312"/>
       <c r="AL34" s="77"/>
       <c r="AM34" s="76"/>
       <c r="AN34" s="77"/>
-      <c r="AO34" s="317"/>
-      <c r="AP34" s="317"/>
+      <c r="AO34" s="312"/>
+      <c r="AP34" s="312"/>
       <c r="AQ34" s="77"/>
       <c r="AR34" s="76"/>
       <c r="AS34" s="77"/>
@@ -9761,10 +9756,10 @@
       <c r="G35" s="159" t="s">
         <v>273</v>
       </c>
-      <c r="H35" s="300" t="s">
+      <c r="H35" s="280" t="s">
         <v>144</v>
       </c>
-      <c r="I35" s="301"/>
+      <c r="I35" s="281"/>
       <c r="J35" s="159" t="s">
         <v>274</v>
       </c>
@@ -9774,10 +9769,10 @@
       <c r="L35" s="159" t="s">
         <v>275</v>
       </c>
-      <c r="M35" s="300" t="s">
+      <c r="M35" s="280" t="s">
         <v>200</v>
       </c>
-      <c r="N35" s="301"/>
+      <c r="N35" s="281"/>
       <c r="O35" s="159" t="s">
         <v>276</v>
       </c>
@@ -9785,7 +9780,7 @@
         <v>224</v>
       </c>
       <c r="Q35" s="183" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="S35" s="73"/>
       <c r="T35" s="74"/>
@@ -9806,48 +9801,48 @@
       <c r="AG35"/>
       <c r="AH35"/>
       <c r="AI35"/>
-      <c r="AJ35" s="313"/>
-      <c r="AK35" s="313"/>
-      <c r="AL35" s="313"/>
-      <c r="AM35" s="313"/>
-      <c r="AN35" s="313"/>
-      <c r="AO35" s="271"/>
-      <c r="AP35" s="271"/>
-      <c r="AQ35" s="271"/>
-      <c r="AR35" s="318"/>
-      <c r="AS35" s="318"/>
+      <c r="AJ35" s="311"/>
+      <c r="AK35" s="311"/>
+      <c r="AL35" s="311"/>
+      <c r="AM35" s="311"/>
+      <c r="AN35" s="311"/>
+      <c r="AO35" s="277"/>
+      <c r="AP35" s="277"/>
+      <c r="AQ35" s="277"/>
+      <c r="AR35" s="313"/>
+      <c r="AS35" s="313"/>
     </row>
     <row r="36" spans="1:45" s="27" customFormat="1" ht="12" customHeight="1">
       <c r="A36" s="75"/>
       <c r="B36" s="43"/>
-      <c r="C36" s="255" t="s">
+      <c r="C36" s="256" t="s">
         <v>89</v>
       </c>
-      <c r="D36" s="256"/>
-      <c r="E36" s="255" t="s">
+      <c r="D36" s="265"/>
+      <c r="E36" s="256" t="s">
         <v>117</v>
       </c>
-      <c r="F36" s="256"/>
-      <c r="G36" s="255" t="s">
+      <c r="F36" s="265"/>
+      <c r="G36" s="256" t="s">
         <v>145</v>
       </c>
-      <c r="H36" s="287"/>
-      <c r="I36" s="256"/>
-      <c r="J36" s="255" t="s">
+      <c r="H36" s="257"/>
+      <c r="I36" s="265"/>
+      <c r="J36" s="256" t="s">
         <v>173</v>
       </c>
-      <c r="K36" s="256"/>
-      <c r="L36" s="293" t="s">
+      <c r="K36" s="265"/>
+      <c r="L36" s="273" t="s">
         <v>201</v>
       </c>
-      <c r="M36" s="294"/>
-      <c r="N36" s="295"/>
-      <c r="O36" s="255" t="s">
+      <c r="M36" s="274"/>
+      <c r="N36" s="275"/>
+      <c r="O36" s="256" t="s">
         <v>225</v>
       </c>
-      <c r="P36" s="256"/>
-      <c r="Q36" s="321" t="s">
-        <v>458</v>
+      <c r="P36" s="265"/>
+      <c r="Q36" s="304" t="s">
+        <v>456</v>
       </c>
       <c r="S36" s="73"/>
       <c r="T36" s="74"/>
@@ -9879,7 +9874,7 @@
     <row r="37" spans="1:45" s="27" customFormat="1" ht="12" customHeight="1">
       <c r="A37" s="75"/>
       <c r="B37" s="181" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="C37" s="163" t="s">
         <v>90</v>
@@ -9896,10 +9891,10 @@
       <c r="G37" s="163" t="s">
         <v>146</v>
       </c>
-      <c r="H37" s="296" t="s">
+      <c r="H37" s="289" t="s">
         <v>147</v>
       </c>
-      <c r="I37" s="297"/>
+      <c r="I37" s="290"/>
       <c r="J37" s="163" t="s">
         <v>174</v>
       </c>
@@ -9909,17 +9904,17 @@
       <c r="L37" s="163" t="s">
         <v>202</v>
       </c>
-      <c r="M37" s="296" t="s">
+      <c r="M37" s="289" t="s">
         <v>203</v>
       </c>
-      <c r="N37" s="297"/>
+      <c r="N37" s="290"/>
       <c r="O37" s="166" t="s">
         <v>226</v>
       </c>
       <c r="P37" s="164" t="s">
         <v>227</v>
       </c>
-      <c r="Q37" s="321"/>
+      <c r="Q37" s="304"/>
       <c r="S37" s="83"/>
       <c r="T37" s="74"/>
       <c r="U37" s="74"/>
@@ -9933,42 +9928,42 @@
         <v>32</v>
       </c>
       <c r="AF37" s="182" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="AG37" s="176"/>
       <c r="AH37" s="176"/>
       <c r="AI37" s="176"/>
-      <c r="AJ37" s="315"/>
-      <c r="AK37" s="315"/>
+      <c r="AJ37" s="303"/>
+      <c r="AK37" s="303"/>
       <c r="AL37" s="77"/>
       <c r="AM37" s="55"/>
       <c r="AN37" s="78"/>
       <c r="AO37" s="55"/>
-      <c r="AP37" s="319"/>
-      <c r="AQ37" s="319"/>
+      <c r="AP37" s="314"/>
+      <c r="AQ37" s="314"/>
       <c r="AR37" s="55"/>
       <c r="AS37" s="77"/>
     </row>
     <row r="38" spans="1:45" s="27" customFormat="1" ht="12" customHeight="1">
       <c r="A38" s="75"/>
-      <c r="B38" s="336" t="s">
+      <c r="B38" s="270" t="s">
         <v>232</v>
       </c>
       <c r="C38" s="157" t="s">
         <v>277</v>
       </c>
-      <c r="D38" s="288" t="s">
+      <c r="D38" s="263" t="s">
         <v>92</v>
       </c>
-      <c r="E38" s="288"/>
-      <c r="F38" s="289"/>
+      <c r="E38" s="263"/>
+      <c r="F38" s="343"/>
       <c r="G38" s="160" t="s">
         <v>278</v>
       </c>
-      <c r="H38" s="261" t="s">
+      <c r="H38" s="298" t="s">
         <v>120</v>
       </c>
-      <c r="I38" s="262"/>
+      <c r="I38" s="299"/>
       <c r="J38" s="157" t="s">
         <v>279</v>
       </c>
@@ -9978,10 +9973,10 @@
       <c r="L38" s="53" t="s">
         <v>280</v>
       </c>
-      <c r="M38" s="285" t="s">
+      <c r="M38" s="266" t="s">
         <v>176</v>
       </c>
-      <c r="N38" s="286"/>
+      <c r="N38" s="267"/>
       <c r="O38" s="53" t="s">
         <v>281</v>
       </c>
@@ -9997,50 +9992,50 @@
       <c r="X38" s="29"/>
       <c r="Y38" s="84"/>
       <c r="Z38" s="29"/>
-      <c r="AF38" s="320" t="s">
-        <v>468</v>
+      <c r="AF38" s="308" t="s">
+        <v>466</v>
       </c>
       <c r="AG38" s="175"/>
       <c r="AH38" s="175"/>
       <c r="AI38" s="175"/>
-      <c r="AJ38" s="313"/>
-      <c r="AK38" s="313"/>
-      <c r="AL38" s="313"/>
-      <c r="AM38" s="271"/>
-      <c r="AN38" s="271"/>
-      <c r="AO38" s="271"/>
-      <c r="AP38" s="271"/>
-      <c r="AQ38" s="271"/>
-      <c r="AR38" s="271"/>
-      <c r="AS38" s="271"/>
+      <c r="AJ38" s="311"/>
+      <c r="AK38" s="311"/>
+      <c r="AL38" s="311"/>
+      <c r="AM38" s="277"/>
+      <c r="AN38" s="277"/>
+      <c r="AO38" s="277"/>
+      <c r="AP38" s="277"/>
+      <c r="AQ38" s="277"/>
+      <c r="AR38" s="277"/>
+      <c r="AS38" s="277"/>
     </row>
     <row r="39" spans="1:45" s="27" customFormat="1" ht="12" customHeight="1">
       <c r="A39" s="75"/>
-      <c r="B39" s="336"/>
-      <c r="C39" s="255" t="s">
+      <c r="B39" s="270"/>
+      <c r="C39" s="256" t="s">
         <v>93</v>
       </c>
-      <c r="D39" s="287"/>
-      <c r="E39" s="287"/>
-      <c r="F39" s="256"/>
-      <c r="G39" s="255" t="s">
+      <c r="D39" s="257"/>
+      <c r="E39" s="257"/>
+      <c r="F39" s="265"/>
+      <c r="G39" s="256" t="s">
         <v>121</v>
       </c>
-      <c r="H39" s="287"/>
-      <c r="I39" s="256"/>
-      <c r="J39" s="293" t="s">
+      <c r="H39" s="257"/>
+      <c r="I39" s="265"/>
+      <c r="J39" s="273" t="s">
         <v>149</v>
       </c>
-      <c r="K39" s="295"/>
-      <c r="L39" s="293" t="s">
+      <c r="K39" s="275"/>
+      <c r="L39" s="273" t="s">
         <v>177</v>
       </c>
-      <c r="M39" s="294"/>
-      <c r="N39" s="295"/>
-      <c r="O39" s="293" t="s">
+      <c r="M39" s="274"/>
+      <c r="N39" s="275"/>
+      <c r="O39" s="273" t="s">
         <v>205</v>
       </c>
-      <c r="P39" s="295"/>
+      <c r="P39" s="275"/>
       <c r="Q39" s="173"/>
       <c r="S39" s="83"/>
       <c r="T39" s="31" t="s">
@@ -10052,7 +10047,7 @@
       <c r="X39" s="29"/>
       <c r="Y39" s="84"/>
       <c r="Z39" s="32"/>
-      <c r="AF39" s="320"/>
+      <c r="AF39" s="308"/>
       <c r="AG39" s="177"/>
       <c r="AH39" s="177"/>
       <c r="AI39" s="82"/>
@@ -10073,18 +10068,18 @@
       <c r="C40" s="167" t="s">
         <v>94</v>
       </c>
-      <c r="D40" s="263" t="s">
+      <c r="D40" s="258" t="s">
         <v>95</v>
       </c>
-      <c r="E40" s="263"/>
-      <c r="F40" s="264"/>
+      <c r="E40" s="258"/>
+      <c r="F40" s="259"/>
       <c r="G40" s="168" t="s">
         <v>122</v>
       </c>
-      <c r="H40" s="263" t="s">
+      <c r="H40" s="258" t="s">
         <v>123</v>
       </c>
-      <c r="I40" s="264"/>
+      <c r="I40" s="259"/>
       <c r="J40" s="169" t="s">
         <v>150</v>
       </c>
@@ -10094,10 +10089,10 @@
       <c r="L40" s="169" t="s">
         <v>178</v>
       </c>
-      <c r="M40" s="263" t="s">
+      <c r="M40" s="258" t="s">
         <v>179</v>
       </c>
-      <c r="N40" s="264"/>
+      <c r="N40" s="259"/>
       <c r="O40" s="171" t="s">
         <v>206</v>
       </c>
@@ -10106,12 +10101,12 @@
       </c>
       <c r="Q40" s="56"/>
       <c r="S40" s="25"/>
-      <c r="T40" s="302" t="s">
+      <c r="T40" s="306" t="s">
         <v>233</v>
       </c>
-      <c r="U40" s="302"/>
-      <c r="V40" s="302"/>
-      <c r="W40" s="302"/>
+      <c r="U40" s="306"/>
+      <c r="V40" s="306"/>
+      <c r="W40" s="306"/>
       <c r="X40" s="40"/>
       <c r="Y40" s="85" t="s">
         <v>71</v>
@@ -10121,13 +10116,13 @@
       <c r="AG40" s="77"/>
       <c r="AH40" s="177"/>
       <c r="AI40" s="176"/>
-      <c r="AJ40" s="315"/>
-      <c r="AK40" s="315"/>
+      <c r="AJ40" s="303"/>
+      <c r="AK40" s="303"/>
       <c r="AL40" s="77"/>
       <c r="AM40" s="55"/>
       <c r="AN40" s="77"/>
-      <c r="AO40" s="315"/>
-      <c r="AP40" s="315"/>
+      <c r="AO40" s="303"/>
+      <c r="AP40" s="303"/>
       <c r="AQ40" s="77"/>
       <c r="AR40" s="55"/>
       <c r="AS40" s="77"/>
@@ -10150,10 +10145,10 @@
       <c r="G41" s="160" t="s">
         <v>284</v>
       </c>
-      <c r="H41" s="261" t="s">
+      <c r="H41" s="298" t="s">
         <v>152</v>
       </c>
-      <c r="I41" s="262"/>
+      <c r="I41" s="299"/>
       <c r="J41" s="157" t="s">
         <v>285</v>
       </c>
@@ -10163,10 +10158,10 @@
       <c r="L41" s="160" t="s">
         <v>286</v>
       </c>
-      <c r="M41" s="261" t="s">
+      <c r="M41" s="298" t="s">
         <v>208</v>
       </c>
-      <c r="N41" s="262"/>
+      <c r="N41" s="299"/>
       <c r="O41" s="157" t="s">
         <v>287</v>
       </c>
@@ -10174,7 +10169,7 @@
         <v>228</v>
       </c>
       <c r="Q41" s="183" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="S41" s="70"/>
       <c r="T41" s="29"/>
@@ -10188,55 +10183,55 @@
       <c r="AG41" s="174"/>
       <c r="AH41" s="174"/>
       <c r="AI41" s="174"/>
-      <c r="AJ41" s="271"/>
-      <c r="AK41" s="271"/>
-      <c r="AL41" s="271"/>
-      <c r="AM41" s="313"/>
-      <c r="AN41" s="313"/>
-      <c r="AO41" s="271"/>
-      <c r="AP41" s="271"/>
-      <c r="AQ41" s="271"/>
-      <c r="AR41" s="271"/>
-      <c r="AS41" s="271"/>
+      <c r="AJ41" s="277"/>
+      <c r="AK41" s="277"/>
+      <c r="AL41" s="277"/>
+      <c r="AM41" s="311"/>
+      <c r="AN41" s="311"/>
+      <c r="AO41" s="277"/>
+      <c r="AP41" s="277"/>
+      <c r="AQ41" s="277"/>
+      <c r="AR41" s="277"/>
+      <c r="AS41" s="277"/>
     </row>
     <row r="42" spans="1:45" s="27" customFormat="1" ht="12" customHeight="1">
       <c r="A42" s="75"/>
       <c r="B42" s="43"/>
-      <c r="C42" s="255" t="s">
+      <c r="C42" s="256" t="s">
         <v>97</v>
       </c>
-      <c r="D42" s="256"/>
-      <c r="E42" s="255" t="s">
+      <c r="D42" s="265"/>
+      <c r="E42" s="256" t="s">
         <v>125</v>
       </c>
-      <c r="F42" s="256"/>
-      <c r="G42" s="270" t="s">
+      <c r="F42" s="265"/>
+      <c r="G42" s="276" t="s">
         <v>153</v>
       </c>
-      <c r="H42" s="271"/>
-      <c r="I42" s="272"/>
-      <c r="J42" s="255" t="s">
+      <c r="H42" s="277"/>
+      <c r="I42" s="278"/>
+      <c r="J42" s="256" t="s">
         <v>181</v>
       </c>
-      <c r="K42" s="256"/>
-      <c r="L42" s="270" t="s">
+      <c r="K42" s="265"/>
+      <c r="L42" s="276" t="s">
         <v>209</v>
       </c>
-      <c r="M42" s="271"/>
-      <c r="N42" s="272"/>
-      <c r="O42" s="255" t="s">
+      <c r="M42" s="277"/>
+      <c r="N42" s="278"/>
+      <c r="O42" s="256" t="s">
         <v>229</v>
       </c>
-      <c r="P42" s="256"/>
-      <c r="Q42" s="321" t="s">
-        <v>456</v>
+      <c r="P42" s="265"/>
+      <c r="Q42" s="304" t="s">
+        <v>454</v>
       </c>
       <c r="S42" s="29"/>
-      <c r="T42" s="322" t="s">
+      <c r="T42" s="307" t="s">
         <v>38</v>
       </c>
-      <c r="U42" s="322"/>
-      <c r="V42" s="322"/>
+      <c r="U42" s="307"/>
+      <c r="V42" s="307"/>
       <c r="W42" s="32" t="s">
         <v>8</v>
       </c>
@@ -10278,10 +10273,10 @@
       <c r="G43" s="163" t="s">
         <v>154</v>
       </c>
-      <c r="H43" s="298" t="s">
+      <c r="H43" s="300" t="s">
         <v>155</v>
       </c>
-      <c r="I43" s="299"/>
+      <c r="I43" s="301"/>
       <c r="J43" s="163" t="s">
         <v>182</v>
       </c>
@@ -10291,23 +10286,23 @@
       <c r="L43" s="163" t="s">
         <v>210</v>
       </c>
-      <c r="M43" s="296" t="s">
+      <c r="M43" s="289" t="s">
         <v>211</v>
       </c>
-      <c r="N43" s="297"/>
+      <c r="N43" s="290"/>
       <c r="O43" s="163" t="s">
         <v>230</v>
       </c>
       <c r="P43" s="164" t="s">
         <v>231</v>
       </c>
-      <c r="Q43" s="321"/>
+      <c r="Q43" s="304"/>
       <c r="S43" s="29"/>
-      <c r="T43" s="322" t="s">
+      <c r="T43" s="307" t="s">
         <v>61</v>
       </c>
-      <c r="U43" s="322"/>
-      <c r="V43" s="322"/>
+      <c r="U43" s="307"/>
+      <c r="V43" s="307"/>
       <c r="W43" s="32" t="s">
         <v>8</v>
       </c>
@@ -10320,13 +10315,13 @@
       <c r="AG43" s="178"/>
       <c r="AH43" s="178"/>
       <c r="AI43" s="178"/>
-      <c r="AJ43" s="314"/>
-      <c r="AK43" s="314"/>
+      <c r="AJ43" s="310"/>
+      <c r="AK43" s="310"/>
       <c r="AL43" s="72"/>
       <c r="AM43" s="72"/>
       <c r="AN43" s="72"/>
-      <c r="AO43" s="314"/>
-      <c r="AP43" s="314"/>
+      <c r="AO43" s="310"/>
+      <c r="AP43" s="310"/>
       <c r="AQ43" s="72"/>
       <c r="AR43" s="72"/>
       <c r="AS43" s="72"/>
@@ -10345,8 +10340,8 @@
       <c r="G44" s="162" t="s">
         <v>290</v>
       </c>
-      <c r="H44" s="265"/>
-      <c r="I44" s="266"/>
+      <c r="H44" s="284"/>
+      <c r="I44" s="285"/>
       <c r="J44" s="58" t="s">
         <v>291</v>
       </c>
@@ -10354,19 +10349,19 @@
       <c r="L44" s="162" t="s">
         <v>292</v>
       </c>
-      <c r="M44" s="265"/>
-      <c r="N44" s="266"/>
+      <c r="M44" s="284"/>
+      <c r="N44" s="285"/>
       <c r="O44" s="34" t="s">
         <v>293</v>
       </c>
       <c r="P44" s="61"/>
       <c r="Q44" s="43"/>
       <c r="S44" s="29"/>
-      <c r="T44" s="302" t="s">
+      <c r="T44" s="306" t="s">
         <v>40</v>
       </c>
-      <c r="U44" s="302"/>
-      <c r="V44" s="302"/>
+      <c r="U44" s="306"/>
+      <c r="V44" s="306"/>
       <c r="W44" s="32" t="s">
         <v>8</v>
       </c>
@@ -10382,46 +10377,46 @@
       <c r="AG44" s="175"/>
       <c r="AH44" s="175"/>
       <c r="AI44" s="175"/>
-      <c r="AJ44" s="313"/>
-      <c r="AK44" s="313"/>
-      <c r="AL44" s="313"/>
-      <c r="AM44" s="313"/>
-      <c r="AN44" s="313"/>
-      <c r="AO44" s="313"/>
-      <c r="AP44" s="313"/>
-      <c r="AQ44" s="313"/>
-      <c r="AR44" s="313"/>
-      <c r="AS44" s="313"/>
+      <c r="AJ44" s="311"/>
+      <c r="AK44" s="311"/>
+      <c r="AL44" s="311"/>
+      <c r="AM44" s="311"/>
+      <c r="AN44" s="311"/>
+      <c r="AO44" s="311"/>
+      <c r="AP44" s="311"/>
+      <c r="AQ44" s="311"/>
+      <c r="AR44" s="311"/>
+      <c r="AS44" s="311"/>
     </row>
     <row r="45" spans="1:45" s="27" customFormat="1" ht="12" customHeight="1">
       <c r="A45" s="42"/>
       <c r="B45" s="33"/>
-      <c r="C45" s="257" t="s">
+      <c r="C45" s="254" t="s">
         <v>100</v>
       </c>
-      <c r="D45" s="258"/>
-      <c r="E45" s="257" t="s">
+      <c r="D45" s="268"/>
+      <c r="E45" s="254" t="s">
         <v>128</v>
       </c>
-      <c r="F45" s="258"/>
-      <c r="G45" s="257" t="s">
+      <c r="F45" s="268"/>
+      <c r="G45" s="254" t="s">
         <v>156</v>
       </c>
-      <c r="H45" s="292"/>
-      <c r="I45" s="258"/>
-      <c r="J45" s="257" t="s">
+      <c r="H45" s="255"/>
+      <c r="I45" s="268"/>
+      <c r="J45" s="254" t="s">
         <v>184</v>
       </c>
-      <c r="K45" s="258"/>
-      <c r="L45" s="257" t="s">
+      <c r="K45" s="268"/>
+      <c r="L45" s="254" t="s">
         <v>212</v>
       </c>
-      <c r="M45" s="292"/>
-      <c r="N45" s="258"/>
-      <c r="O45" s="257" t="s">
+      <c r="M45" s="255"/>
+      <c r="N45" s="268"/>
+      <c r="O45" s="254" t="s">
         <v>294</v>
       </c>
-      <c r="P45" s="258"/>
+      <c r="P45" s="268"/>
       <c r="Q45" s="62"/>
       <c r="R45" s="29"/>
       <c r="S45" s="31"/>
@@ -10436,18 +10431,18 @@
     <row r="46" spans="1:45" ht="17.25" customHeight="1">
       <c r="A46" s="18"/>
       <c r="B46" s="88"/>
-      <c r="C46" s="254"/>
-      <c r="D46" s="254"/>
-      <c r="E46" s="254"/>
-      <c r="F46" s="254"/>
-      <c r="G46" s="254"/>
-      <c r="H46" s="254"/>
-      <c r="I46" s="254"/>
-      <c r="J46" s="254"/>
-      <c r="K46" s="254"/>
-      <c r="L46" s="254"/>
-      <c r="M46" s="254"/>
-      <c r="N46" s="254"/>
+      <c r="C46" s="322"/>
+      <c r="D46" s="322"/>
+      <c r="E46" s="322"/>
+      <c r="F46" s="322"/>
+      <c r="G46" s="322"/>
+      <c r="H46" s="322"/>
+      <c r="I46" s="322"/>
+      <c r="J46" s="322"/>
+      <c r="K46" s="322"/>
+      <c r="L46" s="322"/>
+      <c r="M46" s="322"/>
+      <c r="N46" s="322"/>
       <c r="O46" s="71"/>
       <c r="P46" s="70"/>
       <c r="Q46" s="70"/>
@@ -10504,20 +10499,20 @@
       <c r="F48" s="90"/>
       <c r="G48" s="90"/>
       <c r="H48" s="90"/>
-      <c r="I48" s="309"/>
-      <c r="J48" s="309"/>
-      <c r="K48" s="309"/>
-      <c r="L48" s="309"/>
-      <c r="M48" s="273" t="s">
+      <c r="I48" s="321"/>
+      <c r="J48" s="321"/>
+      <c r="K48" s="321"/>
+      <c r="L48" s="321"/>
+      <c r="M48" s="331" t="s">
         <v>15</v>
       </c>
-      <c r="N48" s="274"/>
-      <c r="O48" s="274"/>
-      <c r="P48" s="274"/>
-      <c r="Q48" s="274"/>
-      <c r="R48" s="274"/>
-      <c r="S48" s="274"/>
-      <c r="T48" s="275"/>
+      <c r="N48" s="332"/>
+      <c r="O48" s="332"/>
+      <c r="P48" s="332"/>
+      <c r="Q48" s="332"/>
+      <c r="R48" s="332"/>
+      <c r="S48" s="332"/>
+      <c r="T48" s="333"/>
       <c r="U48" s="93"/>
       <c r="V48" s="93"/>
       <c r="W48" s="93"/>
@@ -10538,22 +10533,22 @@
       <c r="F49" s="199"/>
       <c r="G49" s="199"/>
       <c r="H49" s="200"/>
-      <c r="I49" s="260" t="s">
-        <v>516</v>
+      <c r="I49" s="323" t="s">
+        <v>514</v>
       </c>
-      <c r="J49" s="260"/>
-      <c r="K49" s="260"/>
-      <c r="L49" s="260"/>
-      <c r="M49" s="276" t="s">
+      <c r="J49" s="323"/>
+      <c r="K49" s="323"/>
+      <c r="L49" s="323"/>
+      <c r="M49" s="334" t="s">
         <v>235</v>
       </c>
-      <c r="N49" s="277"/>
-      <c r="O49" s="277"/>
-      <c r="P49" s="277"/>
-      <c r="Q49" s="277"/>
-      <c r="R49" s="277"/>
-      <c r="S49" s="277"/>
-      <c r="T49" s="278"/>
+      <c r="N49" s="335"/>
+      <c r="O49" s="335"/>
+      <c r="P49" s="335"/>
+      <c r="Q49" s="335"/>
+      <c r="R49" s="335"/>
+      <c r="S49" s="335"/>
+      <c r="T49" s="336"/>
       <c r="U49" s="93"/>
       <c r="V49" s="93"/>
       <c r="W49" s="93"/>
@@ -10574,20 +10569,20 @@
       <c r="F50" s="199"/>
       <c r="G50" s="199"/>
       <c r="H50" s="200"/>
-      <c r="I50" s="260" t="s">
-        <v>517</v>
+      <c r="I50" s="323" t="s">
+        <v>515</v>
       </c>
-      <c r="J50" s="260"/>
-      <c r="K50" s="260"/>
-      <c r="L50" s="260"/>
-      <c r="M50" s="279"/>
-      <c r="N50" s="280"/>
-      <c r="O50" s="280"/>
-      <c r="P50" s="280"/>
-      <c r="Q50" s="280"/>
-      <c r="R50" s="280"/>
-      <c r="S50" s="280"/>
-      <c r="T50" s="281"/>
+      <c r="J50" s="323"/>
+      <c r="K50" s="323"/>
+      <c r="L50" s="323"/>
+      <c r="M50" s="337"/>
+      <c r="N50" s="338"/>
+      <c r="O50" s="338"/>
+      <c r="P50" s="338"/>
+      <c r="Q50" s="338"/>
+      <c r="R50" s="338"/>
+      <c r="S50" s="338"/>
+      <c r="T50" s="339"/>
       <c r="U50" s="94"/>
       <c r="V50" s="93"/>
       <c r="W50" s="93"/>
@@ -10601,27 +10596,27 @@
       <c r="A51" s="92"/>
       <c r="B51" s="201"/>
       <c r="C51" s="199" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="D51" s="199"/>
       <c r="E51" s="199"/>
       <c r="F51" s="199"/>
       <c r="G51" s="199"/>
       <c r="H51" s="200"/>
-      <c r="I51" s="260" t="s">
-        <v>595</v>
+      <c r="I51" s="323" t="s">
+        <v>593</v>
       </c>
-      <c r="J51" s="260"/>
-      <c r="K51" s="260"/>
-      <c r="L51" s="260"/>
-      <c r="M51" s="279"/>
-      <c r="N51" s="280"/>
-      <c r="O51" s="280"/>
-      <c r="P51" s="280"/>
-      <c r="Q51" s="280"/>
-      <c r="R51" s="280"/>
-      <c r="S51" s="280"/>
-      <c r="T51" s="281"/>
+      <c r="J51" s="323"/>
+      <c r="K51" s="323"/>
+      <c r="L51" s="323"/>
+      <c r="M51" s="337"/>
+      <c r="N51" s="338"/>
+      <c r="O51" s="338"/>
+      <c r="P51" s="338"/>
+      <c r="Q51" s="338"/>
+      <c r="R51" s="338"/>
+      <c r="S51" s="338"/>
+      <c r="T51" s="339"/>
       <c r="U51" s="94"/>
       <c r="V51" s="93"/>
       <c r="W51" s="93"/>
@@ -10642,20 +10637,20 @@
       <c r="F52" s="199"/>
       <c r="G52" s="199"/>
       <c r="H52" s="200"/>
-      <c r="I52" s="260" t="s">
-        <v>518</v>
+      <c r="I52" s="323" t="s">
+        <v>516</v>
       </c>
-      <c r="J52" s="260"/>
-      <c r="K52" s="260"/>
-      <c r="L52" s="260"/>
-      <c r="M52" s="279"/>
-      <c r="N52" s="280"/>
-      <c r="O52" s="280"/>
-      <c r="P52" s="280"/>
-      <c r="Q52" s="280"/>
-      <c r="R52" s="280"/>
-      <c r="S52" s="280"/>
-      <c r="T52" s="281"/>
+      <c r="J52" s="323"/>
+      <c r="K52" s="323"/>
+      <c r="L52" s="323"/>
+      <c r="M52" s="337"/>
+      <c r="N52" s="338"/>
+      <c r="O52" s="338"/>
+      <c r="P52" s="338"/>
+      <c r="Q52" s="338"/>
+      <c r="R52" s="338"/>
+      <c r="S52" s="338"/>
+      <c r="T52" s="339"/>
       <c r="U52" s="94"/>
       <c r="V52" s="93"/>
       <c r="W52" s="93"/>
@@ -10676,20 +10671,20 @@
       <c r="F53" s="199"/>
       <c r="G53" s="199"/>
       <c r="H53" s="200"/>
-      <c r="I53" s="260" t="s">
-        <v>596</v>
+      <c r="I53" s="323" t="s">
+        <v>594</v>
       </c>
-      <c r="J53" s="260"/>
-      <c r="K53" s="260"/>
-      <c r="L53" s="260"/>
-      <c r="M53" s="279"/>
-      <c r="N53" s="280"/>
-      <c r="O53" s="280"/>
-      <c r="P53" s="280"/>
-      <c r="Q53" s="280"/>
-      <c r="R53" s="280"/>
-      <c r="S53" s="280"/>
-      <c r="T53" s="281"/>
+      <c r="J53" s="323"/>
+      <c r="K53" s="323"/>
+      <c r="L53" s="323"/>
+      <c r="M53" s="337"/>
+      <c r="N53" s="338"/>
+      <c r="O53" s="338"/>
+      <c r="P53" s="338"/>
+      <c r="Q53" s="338"/>
+      <c r="R53" s="338"/>
+      <c r="S53" s="338"/>
+      <c r="T53" s="339"/>
       <c r="U53" s="94"/>
       <c r="V53" s="93"/>
       <c r="W53" s="93"/>
@@ -10701,29 +10696,29 @@
     </row>
     <row r="54" spans="1:30" ht="13.2" customHeight="1">
       <c r="A54" s="92"/>
-      <c r="B54" s="267" t="s">
+      <c r="B54" s="328" t="s">
         <v>20</v>
       </c>
-      <c r="C54" s="268"/>
-      <c r="D54" s="268"/>
-      <c r="E54" s="268"/>
-      <c r="F54" s="268"/>
-      <c r="G54" s="268"/>
-      <c r="H54" s="269"/>
-      <c r="I54" s="259" t="s">
-        <v>519</v>
+      <c r="C54" s="329"/>
+      <c r="D54" s="329"/>
+      <c r="E54" s="329"/>
+      <c r="F54" s="329"/>
+      <c r="G54" s="329"/>
+      <c r="H54" s="330"/>
+      <c r="I54" s="327" t="s">
+        <v>517</v>
       </c>
-      <c r="J54" s="259"/>
-      <c r="K54" s="259"/>
-      <c r="L54" s="259"/>
-      <c r="M54" s="279"/>
-      <c r="N54" s="280"/>
-      <c r="O54" s="280"/>
-      <c r="P54" s="280"/>
-      <c r="Q54" s="280"/>
-      <c r="R54" s="280"/>
-      <c r="S54" s="280"/>
-      <c r="T54" s="281"/>
+      <c r="J54" s="327"/>
+      <c r="K54" s="327"/>
+      <c r="L54" s="327"/>
+      <c r="M54" s="337"/>
+      <c r="N54" s="338"/>
+      <c r="O54" s="338"/>
+      <c r="P54" s="338"/>
+      <c r="Q54" s="338"/>
+      <c r="R54" s="338"/>
+      <c r="S54" s="338"/>
+      <c r="T54" s="339"/>
       <c r="U54" s="94"/>
       <c r="V54" s="93"/>
       <c r="W54" s="93"/>
@@ -10746,18 +10741,18 @@
       <c r="F55" s="203"/>
       <c r="G55" s="203"/>
       <c r="H55" s="204"/>
-      <c r="I55" s="259"/>
-      <c r="J55" s="259"/>
-      <c r="K55" s="259"/>
-      <c r="L55" s="259"/>
-      <c r="M55" s="279"/>
-      <c r="N55" s="280"/>
-      <c r="O55" s="280"/>
-      <c r="P55" s="280"/>
-      <c r="Q55" s="280"/>
-      <c r="R55" s="280"/>
-      <c r="S55" s="280"/>
-      <c r="T55" s="281"/>
+      <c r="I55" s="327"/>
+      <c r="J55" s="327"/>
+      <c r="K55" s="327"/>
+      <c r="L55" s="327"/>
+      <c r="M55" s="337"/>
+      <c r="N55" s="338"/>
+      <c r="O55" s="338"/>
+      <c r="P55" s="338"/>
+      <c r="Q55" s="338"/>
+      <c r="R55" s="338"/>
+      <c r="S55" s="338"/>
+      <c r="T55" s="339"/>
       <c r="U55" s="94"/>
       <c r="V55" s="93"/>
       <c r="W55" s="93"/>
@@ -10780,18 +10775,18 @@
       <c r="F56" s="203"/>
       <c r="G56" s="203"/>
       <c r="H56" s="204"/>
-      <c r="I56" s="259"/>
-      <c r="J56" s="259"/>
-      <c r="K56" s="259"/>
-      <c r="L56" s="259"/>
-      <c r="M56" s="279"/>
-      <c r="N56" s="280"/>
-      <c r="O56" s="280"/>
-      <c r="P56" s="280"/>
-      <c r="Q56" s="280"/>
-      <c r="R56" s="280"/>
-      <c r="S56" s="280"/>
-      <c r="T56" s="281"/>
+      <c r="I56" s="327"/>
+      <c r="J56" s="327"/>
+      <c r="K56" s="327"/>
+      <c r="L56" s="327"/>
+      <c r="M56" s="337"/>
+      <c r="N56" s="338"/>
+      <c r="O56" s="338"/>
+      <c r="P56" s="338"/>
+      <c r="Q56" s="338"/>
+      <c r="R56" s="338"/>
+      <c r="S56" s="338"/>
+      <c r="T56" s="339"/>
       <c r="U56" s="94"/>
       <c r="V56" s="93"/>
       <c r="W56" s="93"/>
@@ -10814,18 +10809,18 @@
       <c r="F57" s="203"/>
       <c r="G57" s="203"/>
       <c r="H57" s="204"/>
-      <c r="I57" s="259"/>
-      <c r="J57" s="259"/>
-      <c r="K57" s="259"/>
-      <c r="L57" s="259"/>
-      <c r="M57" s="279"/>
-      <c r="N57" s="280"/>
-      <c r="O57" s="280"/>
-      <c r="P57" s="280"/>
-      <c r="Q57" s="280"/>
-      <c r="R57" s="280"/>
-      <c r="S57" s="280"/>
-      <c r="T57" s="281"/>
+      <c r="I57" s="327"/>
+      <c r="J57" s="327"/>
+      <c r="K57" s="327"/>
+      <c r="L57" s="327"/>
+      <c r="M57" s="337"/>
+      <c r="N57" s="338"/>
+      <c r="O57" s="338"/>
+      <c r="P57" s="338"/>
+      <c r="Q57" s="338"/>
+      <c r="R57" s="338"/>
+      <c r="S57" s="338"/>
+      <c r="T57" s="339"/>
       <c r="U57" s="94"/>
       <c r="V57" s="93"/>
       <c r="W57" s="93"/>
@@ -10848,18 +10843,18 @@
       <c r="F58" s="203"/>
       <c r="G58" s="203"/>
       <c r="H58" s="204"/>
-      <c r="I58" s="259"/>
-      <c r="J58" s="259"/>
-      <c r="K58" s="259"/>
-      <c r="L58" s="259"/>
-      <c r="M58" s="279"/>
-      <c r="N58" s="280"/>
-      <c r="O58" s="280"/>
-      <c r="P58" s="280"/>
-      <c r="Q58" s="280"/>
-      <c r="R58" s="280"/>
-      <c r="S58" s="280"/>
-      <c r="T58" s="281"/>
+      <c r="I58" s="327"/>
+      <c r="J58" s="327"/>
+      <c r="K58" s="327"/>
+      <c r="L58" s="327"/>
+      <c r="M58" s="337"/>
+      <c r="N58" s="338"/>
+      <c r="O58" s="338"/>
+      <c r="P58" s="338"/>
+      <c r="Q58" s="338"/>
+      <c r="R58" s="338"/>
+      <c r="S58" s="338"/>
+      <c r="T58" s="339"/>
       <c r="U58" s="94"/>
       <c r="V58" s="93"/>
       <c r="W58" s="93"/>
@@ -10882,18 +10877,18 @@
       <c r="F59" s="205"/>
       <c r="G59" s="205"/>
       <c r="H59" s="206"/>
-      <c r="I59" s="259"/>
-      <c r="J59" s="259"/>
-      <c r="K59" s="259"/>
-      <c r="L59" s="259"/>
-      <c r="M59" s="282"/>
-      <c r="N59" s="283"/>
-      <c r="O59" s="283"/>
-      <c r="P59" s="283"/>
-      <c r="Q59" s="283"/>
-      <c r="R59" s="283"/>
-      <c r="S59" s="283"/>
-      <c r="T59" s="284"/>
+      <c r="I59" s="327"/>
+      <c r="J59" s="327"/>
+      <c r="K59" s="327"/>
+      <c r="L59" s="327"/>
+      <c r="M59" s="340"/>
+      <c r="N59" s="341"/>
+      <c r="O59" s="341"/>
+      <c r="P59" s="341"/>
+      <c r="Q59" s="341"/>
+      <c r="R59" s="341"/>
+      <c r="S59" s="341"/>
+      <c r="T59" s="342"/>
       <c r="U59" s="94"/>
       <c r="V59" s="93"/>
       <c r="W59" s="93"/>
@@ -10940,7 +10935,7 @@
         <v>24</v>
       </c>
       <c r="B61" s="208" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="C61" s="96"/>
       <c r="D61" s="96"/>
@@ -10973,19 +10968,19 @@
     </row>
     <row r="62" spans="1:30" ht="17.25" customHeight="1">
       <c r="A62" s="27"/>
-      <c r="B62" s="310" t="s">
+      <c r="B62" s="324" t="s">
         <v>25</v>
       </c>
-      <c r="C62" s="311"/>
-      <c r="D62" s="311"/>
-      <c r="E62" s="312"/>
-      <c r="F62" s="305" t="s">
-        <v>522</v>
+      <c r="C62" s="325"/>
+      <c r="D62" s="325"/>
+      <c r="E62" s="326"/>
+      <c r="F62" s="317" t="s">
+        <v>520</v>
       </c>
-      <c r="G62" s="306"/>
-      <c r="H62" s="306"/>
-      <c r="I62" s="306"/>
-      <c r="J62" s="307"/>
+      <c r="G62" s="318"/>
+      <c r="H62" s="318"/>
+      <c r="I62" s="318"/>
+      <c r="J62" s="319"/>
       <c r="K62" s="189"/>
       <c r="L62" s="189"/>
       <c r="M62" s="189"/>
@@ -11010,18 +11005,18 @@
     <row r="63" spans="1:30" ht="17.25" customHeight="1">
       <c r="A63" s="27"/>
       <c r="B63" s="195" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="C63" s="196"/>
       <c r="D63" s="196"/>
       <c r="E63" s="197"/>
-      <c r="F63" s="308" t="s">
-        <v>523</v>
+      <c r="F63" s="320" t="s">
+        <v>521</v>
       </c>
-      <c r="G63" s="308"/>
-      <c r="H63" s="308"/>
-      <c r="I63" s="308"/>
-      <c r="J63" s="308"/>
+      <c r="G63" s="320"/>
+      <c r="H63" s="320"/>
+      <c r="I63" s="320"/>
+      <c r="J63" s="320"/>
       <c r="K63" s="189"/>
       <c r="L63" s="189"/>
       <c r="M63" s="189"/>
@@ -11045,19 +11040,19 @@
     </row>
     <row r="64" spans="1:30" ht="17.25" customHeight="1">
       <c r="A64" s="27"/>
-      <c r="B64" s="310" t="s">
+      <c r="B64" s="324" t="s">
         <v>26</v>
       </c>
-      <c r="C64" s="311"/>
-      <c r="D64" s="311"/>
-      <c r="E64" s="312"/>
-      <c r="F64" s="308" t="s">
-        <v>524</v>
+      <c r="C64" s="325"/>
+      <c r="D64" s="325"/>
+      <c r="E64" s="326"/>
+      <c r="F64" s="320" t="s">
+        <v>522</v>
       </c>
-      <c r="G64" s="308"/>
-      <c r="H64" s="308"/>
-      <c r="I64" s="308"/>
-      <c r="J64" s="308"/>
+      <c r="G64" s="320"/>
+      <c r="H64" s="320"/>
+      <c r="I64" s="320"/>
+      <c r="J64" s="320"/>
       <c r="K64" s="189"/>
       <c r="L64" s="189"/>
       <c r="M64" s="189"/>
@@ -11081,19 +11076,19 @@
     </row>
     <row r="65" spans="1:30" ht="17.25" customHeight="1">
       <c r="A65" s="27"/>
-      <c r="B65" s="310" t="s">
+      <c r="B65" s="324" t="s">
         <v>41</v>
       </c>
-      <c r="C65" s="311"/>
-      <c r="D65" s="311"/>
-      <c r="E65" s="312"/>
-      <c r="F65" s="308" t="s">
-        <v>525</v>
+      <c r="C65" s="325"/>
+      <c r="D65" s="325"/>
+      <c r="E65" s="326"/>
+      <c r="F65" s="320" t="s">
+        <v>523</v>
       </c>
-      <c r="G65" s="308"/>
-      <c r="H65" s="308"/>
-      <c r="I65" s="308"/>
-      <c r="J65" s="308"/>
+      <c r="G65" s="320"/>
+      <c r="H65" s="320"/>
+      <c r="I65" s="320"/>
+      <c r="J65" s="320"/>
       <c r="K65" s="192"/>
       <c r="L65" s="192"/>
       <c r="M65" s="192"/>
@@ -11117,19 +11112,19 @@
     </row>
     <row r="66" spans="1:30" ht="17.25" customHeight="1">
       <c r="A66" s="27"/>
-      <c r="B66" s="310" t="s">
-        <v>473</v>
+      <c r="B66" s="324" t="s">
+        <v>471</v>
       </c>
-      <c r="C66" s="311"/>
-      <c r="D66" s="311"/>
-      <c r="E66" s="312"/>
-      <c r="F66" s="308" t="s">
-        <v>526</v>
+      <c r="C66" s="325"/>
+      <c r="D66" s="325"/>
+      <c r="E66" s="326"/>
+      <c r="F66" s="320" t="s">
+        <v>524</v>
       </c>
-      <c r="G66" s="308"/>
-      <c r="H66" s="308"/>
-      <c r="I66" s="308"/>
-      <c r="J66" s="308"/>
+      <c r="G66" s="320"/>
+      <c r="H66" s="320"/>
+      <c r="I66" s="320"/>
+      <c r="J66" s="320"/>
       <c r="K66" s="192"/>
       <c r="L66" s="192"/>
       <c r="M66" s="192"/>
@@ -11153,19 +11148,19 @@
     </row>
     <row r="67" spans="1:30" ht="17.25" customHeight="1">
       <c r="A67" s="27"/>
-      <c r="B67" s="310" t="s">
-        <v>475</v>
+      <c r="B67" s="324" t="s">
+        <v>473</v>
       </c>
-      <c r="C67" s="311"/>
-      <c r="D67" s="311"/>
-      <c r="E67" s="312"/>
-      <c r="F67" s="308" t="s">
-        <v>527</v>
+      <c r="C67" s="325"/>
+      <c r="D67" s="325"/>
+      <c r="E67" s="326"/>
+      <c r="F67" s="320" t="s">
+        <v>525</v>
       </c>
-      <c r="G67" s="308"/>
-      <c r="H67" s="308"/>
-      <c r="I67" s="308"/>
-      <c r="J67" s="308"/>
+      <c r="G67" s="320"/>
+      <c r="H67" s="320"/>
+      <c r="I67" s="320"/>
+      <c r="J67" s="320"/>
       <c r="K67" s="194"/>
       <c r="L67" s="194"/>
       <c r="M67" s="194"/>
@@ -11189,19 +11184,19 @@
     </row>
     <row r="68" spans="1:30" ht="13.5" customHeight="1">
       <c r="A68" s="27"/>
-      <c r="B68" s="310" t="s">
+      <c r="B68" s="324" t="s">
         <v>27</v>
       </c>
-      <c r="C68" s="311"/>
-      <c r="D68" s="311"/>
-      <c r="E68" s="312"/>
-      <c r="F68" s="305" t="s">
-        <v>528</v>
+      <c r="C68" s="325"/>
+      <c r="D68" s="325"/>
+      <c r="E68" s="326"/>
+      <c r="F68" s="317" t="s">
+        <v>526</v>
       </c>
-      <c r="G68" s="306"/>
-      <c r="H68" s="306"/>
-      <c r="I68" s="306"/>
-      <c r="J68" s="307"/>
+      <c r="G68" s="318"/>
+      <c r="H68" s="318"/>
+      <c r="I68" s="318"/>
+      <c r="J68" s="319"/>
       <c r="K68" s="188"/>
       <c r="L68" s="189"/>
       <c r="M68" s="189"/>
@@ -11261,10 +11256,10 @@
       <c r="N70" s="101"/>
     </row>
     <row r="71" spans="1:30" ht="17.25" customHeight="1">
-      <c r="J71" s="303"/>
-      <c r="K71" s="304"/>
-      <c r="L71" s="304"/>
-      <c r="M71" s="304"/>
+      <c r="J71" s="315"/>
+      <c r="K71" s="316"/>
+      <c r="L71" s="316"/>
+      <c r="M71" s="316"/>
       <c r="W71" s="102"/>
     </row>
     <row r="73" spans="1:30" ht="17.25" customHeight="1">
@@ -11275,16 +11270,164 @@
   </sheetData>
   <sheetProtection selectLockedCells="1"/>
   <mergeCells count="192">
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="M25:N25"/>
-    <mergeCell ref="M22:N22"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="C21:F21"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="M20:N20"/>
+    <mergeCell ref="C46:F46"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="G46:H46"/>
+    <mergeCell ref="C45:D45"/>
+    <mergeCell ref="I54:L59"/>
+    <mergeCell ref="I49:L49"/>
+    <mergeCell ref="I50:L50"/>
+    <mergeCell ref="M41:N41"/>
+    <mergeCell ref="M40:N40"/>
+    <mergeCell ref="M44:N44"/>
+    <mergeCell ref="I51:L51"/>
+    <mergeCell ref="H38:I38"/>
+    <mergeCell ref="B54:H54"/>
+    <mergeCell ref="H40:I40"/>
+    <mergeCell ref="E42:F42"/>
+    <mergeCell ref="G42:I42"/>
+    <mergeCell ref="M48:T48"/>
+    <mergeCell ref="M49:T59"/>
+    <mergeCell ref="M38:N38"/>
+    <mergeCell ref="L42:N42"/>
+    <mergeCell ref="G39:I39"/>
+    <mergeCell ref="G36:I36"/>
+    <mergeCell ref="J36:K36"/>
+    <mergeCell ref="D38:F38"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="M15:N15"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="L27:N27"/>
+    <mergeCell ref="M46:N46"/>
+    <mergeCell ref="L39:N39"/>
+    <mergeCell ref="M43:N43"/>
+    <mergeCell ref="H43:I43"/>
+    <mergeCell ref="H44:I44"/>
+    <mergeCell ref="I46:J46"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="L24:N24"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="M17:N17"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="L36:N36"/>
+    <mergeCell ref="J34:K34"/>
+    <mergeCell ref="J42:K42"/>
+    <mergeCell ref="C39:F39"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="H37:I37"/>
+    <mergeCell ref="M37:N37"/>
+    <mergeCell ref="H41:I41"/>
+    <mergeCell ref="D40:F40"/>
+    <mergeCell ref="G34:I34"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="T44:V44"/>
+    <mergeCell ref="J71:M71"/>
+    <mergeCell ref="F68:J68"/>
+    <mergeCell ref="F66:J66"/>
+    <mergeCell ref="F67:J67"/>
+    <mergeCell ref="E45:F45"/>
+    <mergeCell ref="G45:I45"/>
+    <mergeCell ref="F64:J64"/>
+    <mergeCell ref="F63:J63"/>
+    <mergeCell ref="F65:J65"/>
+    <mergeCell ref="I48:L48"/>
+    <mergeCell ref="J45:K45"/>
+    <mergeCell ref="K46:L46"/>
+    <mergeCell ref="F62:J62"/>
+    <mergeCell ref="I52:L52"/>
+    <mergeCell ref="L45:N45"/>
+    <mergeCell ref="O45:P45"/>
+    <mergeCell ref="B62:E62"/>
+    <mergeCell ref="B64:E64"/>
+    <mergeCell ref="B65:E65"/>
+    <mergeCell ref="B66:E66"/>
+    <mergeCell ref="B67:E67"/>
+    <mergeCell ref="B68:E68"/>
+    <mergeCell ref="I53:L53"/>
+    <mergeCell ref="AR44:AS44"/>
+    <mergeCell ref="AJ43:AK43"/>
+    <mergeCell ref="AO43:AP43"/>
+    <mergeCell ref="AR41:AS41"/>
+    <mergeCell ref="AJ44:AL44"/>
+    <mergeCell ref="AM44:AN44"/>
+    <mergeCell ref="AO44:AQ44"/>
+    <mergeCell ref="AO41:AQ41"/>
+    <mergeCell ref="AJ41:AL41"/>
+    <mergeCell ref="AM41:AN41"/>
+    <mergeCell ref="AR38:AS38"/>
+    <mergeCell ref="AJ37:AK37"/>
+    <mergeCell ref="AJ32:AK32"/>
+    <mergeCell ref="Y32:Z32"/>
+    <mergeCell ref="AR33:AS33"/>
+    <mergeCell ref="AJ34:AK34"/>
+    <mergeCell ref="AO34:AP34"/>
+    <mergeCell ref="AJ35:AL35"/>
+    <mergeCell ref="AM35:AN35"/>
+    <mergeCell ref="AO35:AQ35"/>
+    <mergeCell ref="AR35:AS35"/>
+    <mergeCell ref="AP37:AQ37"/>
+    <mergeCell ref="AJ38:AL38"/>
+    <mergeCell ref="AM38:AN38"/>
+    <mergeCell ref="AO38:AQ38"/>
+    <mergeCell ref="AO32:AP32"/>
+    <mergeCell ref="AJ33:AL33"/>
+    <mergeCell ref="AM33:AN33"/>
+    <mergeCell ref="AO33:AQ33"/>
+    <mergeCell ref="AF38:AF39"/>
+    <mergeCell ref="AJ40:AK40"/>
+    <mergeCell ref="AO40:AP40"/>
+    <mergeCell ref="Q18:Q19"/>
+    <mergeCell ref="Y16:Z16"/>
+    <mergeCell ref="O39:P39"/>
+    <mergeCell ref="T24:W24"/>
+    <mergeCell ref="O24:P24"/>
+    <mergeCell ref="O34:P34"/>
+    <mergeCell ref="T43:V43"/>
+    <mergeCell ref="T27:V27"/>
+    <mergeCell ref="T28:V28"/>
+    <mergeCell ref="T42:V42"/>
+    <mergeCell ref="T40:W40"/>
+    <mergeCell ref="O27:P27"/>
+    <mergeCell ref="T31:W31"/>
+    <mergeCell ref="T26:V26"/>
+    <mergeCell ref="O42:P42"/>
+    <mergeCell ref="O36:P36"/>
+    <mergeCell ref="AF20:AF21"/>
+    <mergeCell ref="Q24:Q25"/>
+    <mergeCell ref="Q42:Q43"/>
+    <mergeCell ref="T32:W32"/>
+    <mergeCell ref="Q36:Q37"/>
+    <mergeCell ref="M33:N33"/>
+    <mergeCell ref="M35:N35"/>
+    <mergeCell ref="V5:Z5"/>
+    <mergeCell ref="V6:Z6"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="L18:N18"/>
+    <mergeCell ref="T18:W18"/>
+    <mergeCell ref="O21:P21"/>
+    <mergeCell ref="T19:W19"/>
+    <mergeCell ref="T20:W20"/>
+    <mergeCell ref="V7:Z7"/>
+    <mergeCell ref="M19:N19"/>
+    <mergeCell ref="T15:W15"/>
+    <mergeCell ref="P12:Z12"/>
+    <mergeCell ref="Y10:Z10"/>
+    <mergeCell ref="W11:Z11"/>
+    <mergeCell ref="T16:W16"/>
+    <mergeCell ref="P10:X10"/>
+    <mergeCell ref="P11:V11"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="M23:N23"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="D5:H5"/>
     <mergeCell ref="E16:F16"/>
     <mergeCell ref="E18:F18"/>
     <mergeCell ref="L3:O3"/>
@@ -11309,164 +11452,16 @@
     <mergeCell ref="H35:I35"/>
     <mergeCell ref="M26:N26"/>
     <mergeCell ref="H33:I33"/>
-    <mergeCell ref="M33:N33"/>
-    <mergeCell ref="M35:N35"/>
-    <mergeCell ref="V5:Z5"/>
-    <mergeCell ref="V6:Z6"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="L18:N18"/>
-    <mergeCell ref="T18:W18"/>
-    <mergeCell ref="O21:P21"/>
-    <mergeCell ref="T19:W19"/>
-    <mergeCell ref="T20:W20"/>
-    <mergeCell ref="V7:Z7"/>
-    <mergeCell ref="M19:N19"/>
-    <mergeCell ref="T15:W15"/>
-    <mergeCell ref="P12:Z12"/>
-    <mergeCell ref="Y10:Z10"/>
-    <mergeCell ref="W11:Z11"/>
-    <mergeCell ref="T16:W16"/>
-    <mergeCell ref="P10:X10"/>
-    <mergeCell ref="P11:V11"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="M23:N23"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="D5:H5"/>
-    <mergeCell ref="AJ40:AK40"/>
-    <mergeCell ref="AO40:AP40"/>
-    <mergeCell ref="Q18:Q19"/>
-    <mergeCell ref="Y16:Z16"/>
-    <mergeCell ref="O39:P39"/>
-    <mergeCell ref="T24:W24"/>
-    <mergeCell ref="O24:P24"/>
-    <mergeCell ref="O34:P34"/>
-    <mergeCell ref="T43:V43"/>
-    <mergeCell ref="T27:V27"/>
-    <mergeCell ref="T28:V28"/>
-    <mergeCell ref="T42:V42"/>
-    <mergeCell ref="T40:W40"/>
-    <mergeCell ref="O27:P27"/>
-    <mergeCell ref="T31:W31"/>
-    <mergeCell ref="T26:V26"/>
-    <mergeCell ref="O42:P42"/>
-    <mergeCell ref="O36:P36"/>
-    <mergeCell ref="AF20:AF21"/>
-    <mergeCell ref="Q24:Q25"/>
-    <mergeCell ref="Q42:Q43"/>
-    <mergeCell ref="T32:W32"/>
-    <mergeCell ref="Q36:Q37"/>
-    <mergeCell ref="AR38:AS38"/>
-    <mergeCell ref="AJ37:AK37"/>
-    <mergeCell ref="AJ32:AK32"/>
-    <mergeCell ref="Y32:Z32"/>
-    <mergeCell ref="AR33:AS33"/>
-    <mergeCell ref="AJ34:AK34"/>
-    <mergeCell ref="AO34:AP34"/>
-    <mergeCell ref="AJ35:AL35"/>
-    <mergeCell ref="AM35:AN35"/>
-    <mergeCell ref="AO35:AQ35"/>
-    <mergeCell ref="AR35:AS35"/>
-    <mergeCell ref="AP37:AQ37"/>
-    <mergeCell ref="AJ38:AL38"/>
-    <mergeCell ref="AM38:AN38"/>
-    <mergeCell ref="AO38:AQ38"/>
-    <mergeCell ref="AO32:AP32"/>
-    <mergeCell ref="AJ33:AL33"/>
-    <mergeCell ref="AM33:AN33"/>
-    <mergeCell ref="AO33:AQ33"/>
-    <mergeCell ref="AF38:AF39"/>
-    <mergeCell ref="AR44:AS44"/>
-    <mergeCell ref="AJ43:AK43"/>
-    <mergeCell ref="AO43:AP43"/>
-    <mergeCell ref="AR41:AS41"/>
-    <mergeCell ref="AJ44:AL44"/>
-    <mergeCell ref="AM44:AN44"/>
-    <mergeCell ref="AO44:AQ44"/>
-    <mergeCell ref="AO41:AQ41"/>
-    <mergeCell ref="AJ41:AL41"/>
-    <mergeCell ref="AM41:AN41"/>
-    <mergeCell ref="T44:V44"/>
-    <mergeCell ref="J71:M71"/>
-    <mergeCell ref="F68:J68"/>
-    <mergeCell ref="F66:J66"/>
-    <mergeCell ref="F67:J67"/>
-    <mergeCell ref="E45:F45"/>
-    <mergeCell ref="G45:I45"/>
-    <mergeCell ref="F64:J64"/>
-    <mergeCell ref="F63:J63"/>
-    <mergeCell ref="F65:J65"/>
-    <mergeCell ref="I48:L48"/>
-    <mergeCell ref="J45:K45"/>
-    <mergeCell ref="K46:L46"/>
-    <mergeCell ref="F62:J62"/>
-    <mergeCell ref="I52:L52"/>
-    <mergeCell ref="L45:N45"/>
-    <mergeCell ref="O45:P45"/>
-    <mergeCell ref="B62:E62"/>
-    <mergeCell ref="B64:E64"/>
-    <mergeCell ref="B65:E65"/>
-    <mergeCell ref="B66:E66"/>
-    <mergeCell ref="B67:E67"/>
-    <mergeCell ref="B68:E68"/>
-    <mergeCell ref="I53:L53"/>
-    <mergeCell ref="C39:F39"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="H37:I37"/>
-    <mergeCell ref="M37:N37"/>
-    <mergeCell ref="H41:I41"/>
-    <mergeCell ref="D40:F40"/>
-    <mergeCell ref="G34:I34"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="M15:N15"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="L27:N27"/>
-    <mergeCell ref="M46:N46"/>
-    <mergeCell ref="L39:N39"/>
-    <mergeCell ref="M43:N43"/>
-    <mergeCell ref="H43:I43"/>
-    <mergeCell ref="H44:I44"/>
-    <mergeCell ref="I46:J46"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="L24:N24"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="M17:N17"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="L36:N36"/>
-    <mergeCell ref="J34:K34"/>
-    <mergeCell ref="J42:K42"/>
-    <mergeCell ref="C46:F46"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="G46:H46"/>
-    <mergeCell ref="C45:D45"/>
-    <mergeCell ref="I54:L59"/>
-    <mergeCell ref="I49:L49"/>
-    <mergeCell ref="I50:L50"/>
-    <mergeCell ref="M41:N41"/>
-    <mergeCell ref="M40:N40"/>
-    <mergeCell ref="M44:N44"/>
-    <mergeCell ref="I51:L51"/>
-    <mergeCell ref="H38:I38"/>
-    <mergeCell ref="B54:H54"/>
-    <mergeCell ref="H40:I40"/>
-    <mergeCell ref="E42:F42"/>
-    <mergeCell ref="G42:I42"/>
-    <mergeCell ref="M48:T48"/>
-    <mergeCell ref="M49:T59"/>
-    <mergeCell ref="M38:N38"/>
-    <mergeCell ref="L42:N42"/>
-    <mergeCell ref="G39:I39"/>
-    <mergeCell ref="G36:I36"/>
-    <mergeCell ref="J36:K36"/>
-    <mergeCell ref="D38:F38"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="M25:N25"/>
+    <mergeCell ref="M22:N22"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="C21:F21"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="M20:N20"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <dataValidations disablePrompts="1" count="1">
@@ -11523,7 +11518,7 @@
         <v>5</v>
       </c>
       <c r="B1" s="248" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="C1" s="215"/>
       <c r="D1" s="215"/>
@@ -11550,207 +11545,207 @@
     </row>
     <row r="2" spans="1:24" s="219" customFormat="1" ht="18.75" customHeight="1">
       <c r="A2" s="218"/>
-      <c r="B2" s="344" t="s">
+      <c r="B2" s="427" t="s">
+        <v>475</v>
+      </c>
+      <c r="C2" s="377" t="s">
+        <v>476</v>
+      </c>
+      <c r="D2" s="378"/>
+      <c r="E2" s="378"/>
+      <c r="F2" s="378"/>
+      <c r="G2" s="378"/>
+      <c r="H2" s="379"/>
+      <c r="I2" s="421" t="s">
+        <v>548</v>
+      </c>
+      <c r="J2" s="429"/>
+      <c r="K2" s="429"/>
+      <c r="L2" s="422"/>
+      <c r="M2" s="412" t="s">
         <v>477</v>
       </c>
-      <c r="C2" s="346" t="s">
+      <c r="N2" s="413"/>
+      <c r="O2" s="414"/>
+      <c r="P2" s="421" t="s">
         <v>478</v>
       </c>
-      <c r="D2" s="347"/>
-      <c r="E2" s="347"/>
-      <c r="F2" s="347"/>
-      <c r="G2" s="347"/>
-      <c r="H2" s="348"/>
-      <c r="I2" s="352" t="s">
-        <v>550</v>
-      </c>
-      <c r="J2" s="353"/>
-      <c r="K2" s="353"/>
-      <c r="L2" s="354"/>
-      <c r="M2" s="358" t="s">
+      <c r="Q2" s="422"/>
+      <c r="R2" s="421" t="s">
         <v>479</v>
       </c>
-      <c r="N2" s="359"/>
-      <c r="O2" s="360"/>
-      <c r="P2" s="352" t="s">
+      <c r="S2" s="422"/>
+      <c r="T2" s="421" t="s">
         <v>480</v>
       </c>
-      <c r="Q2" s="354"/>
-      <c r="R2" s="352" t="s">
+      <c r="U2" s="422"/>
+      <c r="V2" s="412" t="s">
         <v>481</v>
       </c>
-      <c r="S2" s="354"/>
-      <c r="T2" s="352" t="s">
-        <v>482</v>
-      </c>
-      <c r="U2" s="354"/>
-      <c r="V2" s="358" t="s">
-        <v>483</v>
-      </c>
-      <c r="W2" s="359"/>
-      <c r="X2" s="360"/>
+      <c r="W2" s="413"/>
+      <c r="X2" s="414"/>
     </row>
     <row r="3" spans="1:24" s="219" customFormat="1" ht="28.5" customHeight="1">
       <c r="A3" s="218"/>
-      <c r="B3" s="345"/>
-      <c r="C3" s="349"/>
-      <c r="D3" s="350"/>
-      <c r="E3" s="350"/>
-      <c r="F3" s="350"/>
-      <c r="G3" s="350"/>
-      <c r="H3" s="351"/>
-      <c r="I3" s="355"/>
-      <c r="J3" s="356"/>
-      <c r="K3" s="356"/>
-      <c r="L3" s="357"/>
-      <c r="M3" s="361"/>
-      <c r="N3" s="362"/>
-      <c r="O3" s="363"/>
-      <c r="P3" s="355"/>
-      <c r="Q3" s="357"/>
-      <c r="R3" s="355"/>
-      <c r="S3" s="357"/>
-      <c r="T3" s="355"/>
-      <c r="U3" s="357"/>
-      <c r="V3" s="361"/>
-      <c r="W3" s="362"/>
-      <c r="X3" s="363"/>
+      <c r="B3" s="428"/>
+      <c r="C3" s="380"/>
+      <c r="D3" s="381"/>
+      <c r="E3" s="381"/>
+      <c r="F3" s="381"/>
+      <c r="G3" s="381"/>
+      <c r="H3" s="382"/>
+      <c r="I3" s="423"/>
+      <c r="J3" s="430"/>
+      <c r="K3" s="430"/>
+      <c r="L3" s="424"/>
+      <c r="M3" s="415"/>
+      <c r="N3" s="416"/>
+      <c r="O3" s="417"/>
+      <c r="P3" s="423"/>
+      <c r="Q3" s="424"/>
+      <c r="R3" s="423"/>
+      <c r="S3" s="424"/>
+      <c r="T3" s="423"/>
+      <c r="U3" s="424"/>
+      <c r="V3" s="415"/>
+      <c r="W3" s="416"/>
+      <c r="X3" s="417"/>
     </row>
     <row r="4" spans="1:24" s="219" customFormat="1" ht="19.5" customHeight="1">
       <c r="A4" s="218"/>
       <c r="B4" s="253" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
-      <c r="C4" s="364" t="s">
+      <c r="C4" s="418" t="s">
+        <v>528</v>
+      </c>
+      <c r="D4" s="419"/>
+      <c r="E4" s="419"/>
+      <c r="F4" s="419"/>
+      <c r="G4" s="419"/>
+      <c r="H4" s="420"/>
+      <c r="I4" s="393" t="s">
+        <v>529</v>
+      </c>
+      <c r="J4" s="394"/>
+      <c r="K4" s="394"/>
+      <c r="L4" s="395"/>
+      <c r="M4" s="396" t="s">
         <v>530</v>
       </c>
-      <c r="D4" s="365"/>
-      <c r="E4" s="365"/>
-      <c r="F4" s="365"/>
-      <c r="G4" s="365"/>
-      <c r="H4" s="366"/>
-      <c r="I4" s="367" t="s">
+      <c r="N4" s="397"/>
+      <c r="O4" s="398"/>
+      <c r="P4" s="399" t="s">
         <v>531</v>
       </c>
-      <c r="J4" s="368"/>
-      <c r="K4" s="368"/>
-      <c r="L4" s="369"/>
-      <c r="M4" s="370" t="s">
+      <c r="Q4" s="400"/>
+      <c r="R4" s="425" t="s">
         <v>532</v>
       </c>
-      <c r="N4" s="371"/>
-      <c r="O4" s="372"/>
-      <c r="P4" s="373" t="s">
+      <c r="S4" s="426"/>
+      <c r="T4" s="418"/>
+      <c r="U4" s="420"/>
+      <c r="V4" s="418" t="s">
         <v>533</v>
       </c>
-      <c r="Q4" s="374"/>
-      <c r="R4" s="375" t="s">
-        <v>534</v>
-      </c>
-      <c r="S4" s="376"/>
-      <c r="T4" s="364"/>
-      <c r="U4" s="366"/>
-      <c r="V4" s="364" t="s">
-        <v>535</v>
-      </c>
-      <c r="W4" s="365"/>
-      <c r="X4" s="366"/>
+      <c r="W4" s="419"/>
+      <c r="X4" s="420"/>
     </row>
     <row r="5" spans="1:24" s="219" customFormat="1" ht="19.5" customHeight="1">
       <c r="A5" s="218"/>
       <c r="B5" s="220" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
-      <c r="C5" s="377"/>
-      <c r="D5" s="378"/>
-      <c r="E5" s="378"/>
-      <c r="F5" s="378"/>
-      <c r="G5" s="378"/>
-      <c r="H5" s="379"/>
-      <c r="I5" s="380" t="s">
+      <c r="C5" s="383"/>
+      <c r="D5" s="385"/>
+      <c r="E5" s="385"/>
+      <c r="F5" s="385"/>
+      <c r="G5" s="385"/>
+      <c r="H5" s="384"/>
+      <c r="I5" s="404" t="s">
+        <v>534</v>
+      </c>
+      <c r="J5" s="405"/>
+      <c r="K5" s="405"/>
+      <c r="L5" s="406"/>
+      <c r="M5" s="407" t="s">
+        <v>535</v>
+      </c>
+      <c r="N5" s="408"/>
+      <c r="O5" s="409"/>
+      <c r="P5" s="410" t="s">
         <v>536</v>
       </c>
-      <c r="J5" s="381"/>
-      <c r="K5" s="381"/>
-      <c r="L5" s="382"/>
-      <c r="M5" s="383" t="s">
+      <c r="Q5" s="411"/>
+      <c r="R5" s="401" t="s">
         <v>537</v>
       </c>
-      <c r="N5" s="384"/>
-      <c r="O5" s="385"/>
-      <c r="P5" s="386" t="s">
-        <v>538</v>
-      </c>
-      <c r="Q5" s="387"/>
-      <c r="R5" s="388" t="s">
-        <v>539</v>
-      </c>
-      <c r="S5" s="379"/>
-      <c r="T5" s="377"/>
-      <c r="U5" s="379"/>
-      <c r="V5" s="377"/>
-      <c r="W5" s="378"/>
-      <c r="X5" s="379"/>
+      <c r="S5" s="384"/>
+      <c r="T5" s="383"/>
+      <c r="U5" s="384"/>
+      <c r="V5" s="383"/>
+      <c r="W5" s="385"/>
+      <c r="X5" s="384"/>
     </row>
     <row r="6" spans="1:24" s="219" customFormat="1" ht="30.75" customHeight="1">
       <c r="A6" s="218"/>
       <c r="B6" s="221"/>
-      <c r="C6" s="394"/>
-      <c r="D6" s="395"/>
-      <c r="E6" s="395"/>
-      <c r="F6" s="395"/>
-      <c r="G6" s="395"/>
-      <c r="H6" s="395"/>
-      <c r="I6" s="395"/>
-      <c r="J6" s="395"/>
-      <c r="K6" s="395"/>
-      <c r="L6" s="395"/>
-      <c r="M6" s="395"/>
-      <c r="N6" s="395"/>
-      <c r="O6" s="395"/>
-      <c r="P6" s="395"/>
-      <c r="Q6" s="395"/>
-      <c r="R6" s="395"/>
-      <c r="S6" s="395"/>
-      <c r="T6" s="395"/>
-      <c r="U6" s="395"/>
-      <c r="V6" s="395"/>
-      <c r="W6" s="395"/>
-      <c r="X6" s="396"/>
+      <c r="C6" s="390"/>
+      <c r="D6" s="391"/>
+      <c r="E6" s="391"/>
+      <c r="F6" s="391"/>
+      <c r="G6" s="391"/>
+      <c r="H6" s="391"/>
+      <c r="I6" s="391"/>
+      <c r="J6" s="391"/>
+      <c r="K6" s="391"/>
+      <c r="L6" s="391"/>
+      <c r="M6" s="391"/>
+      <c r="N6" s="391"/>
+      <c r="O6" s="391"/>
+      <c r="P6" s="391"/>
+      <c r="Q6" s="391"/>
+      <c r="R6" s="391"/>
+      <c r="S6" s="391"/>
+      <c r="T6" s="391"/>
+      <c r="U6" s="391"/>
+      <c r="V6" s="391"/>
+      <c r="W6" s="391"/>
+      <c r="X6" s="392"/>
     </row>
     <row r="7" spans="1:24" s="219" customFormat="1" ht="19.5" customHeight="1">
       <c r="A7" s="218"/>
-      <c r="B7" s="377" t="s">
-        <v>485</v>
+      <c r="B7" s="383" t="s">
+        <v>483</v>
       </c>
-      <c r="C7" s="378"/>
+      <c r="C7" s="385"/>
       <c r="D7" s="222"/>
       <c r="E7" s="222"/>
       <c r="F7" s="222"/>
       <c r="G7" s="222"/>
       <c r="H7" s="223"/>
-      <c r="I7" s="367" t="s">
+      <c r="I7" s="393" t="s">
+        <v>534</v>
+      </c>
+      <c r="J7" s="394"/>
+      <c r="K7" s="394"/>
+      <c r="L7" s="395"/>
+      <c r="M7" s="396" t="s">
+        <v>535</v>
+      </c>
+      <c r="N7" s="397"/>
+      <c r="O7" s="398"/>
+      <c r="P7" s="399" t="s">
         <v>536</v>
       </c>
-      <c r="J7" s="368"/>
-      <c r="K7" s="368"/>
-      <c r="L7" s="369"/>
-      <c r="M7" s="370" t="s">
-        <v>537</v>
-      </c>
-      <c r="N7" s="371"/>
-      <c r="O7" s="372"/>
-      <c r="P7" s="373" t="s">
-        <v>538</v>
-      </c>
-      <c r="Q7" s="374"/>
-      <c r="R7" s="388"/>
-      <c r="S7" s="397"/>
-      <c r="T7" s="377"/>
-      <c r="U7" s="379"/>
-      <c r="V7" s="377"/>
-      <c r="W7" s="378"/>
-      <c r="X7" s="379"/>
+      <c r="Q7" s="400"/>
+      <c r="R7" s="401"/>
+      <c r="S7" s="402"/>
+      <c r="T7" s="383"/>
+      <c r="U7" s="384"/>
+      <c r="V7" s="383"/>
+      <c r="W7" s="385"/>
+      <c r="X7" s="384"/>
     </row>
     <row r="8" spans="1:24" s="219" customFormat="1" ht="19.5" customHeight="1">
       <c r="A8" s="218"/>
@@ -11782,128 +11777,128 @@
       <c r="A9" s="214">
         <v>6</v>
       </c>
-      <c r="B9" s="406" t="s">
-        <v>486</v>
+      <c r="B9" s="355" t="s">
+        <v>484</v>
       </c>
-      <c r="C9" s="406"/>
-      <c r="D9" s="406"/>
+      <c r="C9" s="355"/>
+      <c r="D9" s="355"/>
     </row>
     <row r="10" spans="1:24" ht="19.5" customHeight="1">
       <c r="G10" s="231"/>
       <c r="H10" s="231"/>
-      <c r="O10" s="346" t="s">
-        <v>549</v>
+      <c r="O10" s="377" t="s">
+        <v>547</v>
       </c>
-      <c r="P10" s="347"/>
-      <c r="Q10" s="347"/>
-      <c r="R10" s="348"/>
-      <c r="S10" s="398" t="s">
-        <v>489</v>
+      <c r="P10" s="378"/>
+      <c r="Q10" s="378"/>
+      <c r="R10" s="379"/>
+      <c r="S10" s="403" t="s">
+        <v>487</v>
       </c>
-      <c r="T10" s="398"/>
-      <c r="U10" s="398"/>
-      <c r="V10" s="398" t="s">
-        <v>490</v>
+      <c r="T10" s="403"/>
+      <c r="U10" s="403"/>
+      <c r="V10" s="403" t="s">
+        <v>488</v>
       </c>
-      <c r="W10" s="398"/>
-      <c r="X10" s="398"/>
+      <c r="W10" s="403"/>
+      <c r="X10" s="403"/>
     </row>
     <row r="11" spans="1:24" ht="22.8" customHeight="1">
       <c r="B11" s="232" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="C11" s="232"/>
       <c r="D11" s="232"/>
-      <c r="E11" s="400" t="s">
-        <v>540</v>
+      <c r="E11" s="372" t="s">
+        <v>538</v>
       </c>
-      <c r="F11" s="400"/>
-      <c r="G11" s="400"/>
-      <c r="H11" s="400"/>
-      <c r="I11" s="400"/>
-      <c r="J11" s="400"/>
+      <c r="F11" s="372"/>
+      <c r="G11" s="372"/>
+      <c r="H11" s="372"/>
+      <c r="I11" s="372"/>
+      <c r="J11" s="372"/>
       <c r="K11" s="251" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="L11" s="233" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="M11" s="250" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
-      <c r="O11" s="349"/>
-      <c r="P11" s="350"/>
-      <c r="Q11" s="350"/>
-      <c r="R11" s="351"/>
-      <c r="S11" s="398"/>
-      <c r="T11" s="398"/>
-      <c r="U11" s="398"/>
-      <c r="V11" s="398"/>
-      <c r="W11" s="398"/>
-      <c r="X11" s="398"/>
+      <c r="O11" s="380"/>
+      <c r="P11" s="381"/>
+      <c r="Q11" s="381"/>
+      <c r="R11" s="382"/>
+      <c r="S11" s="403"/>
+      <c r="T11" s="403"/>
+      <c r="U11" s="403"/>
+      <c r="V11" s="403"/>
+      <c r="W11" s="403"/>
+      <c r="X11" s="403"/>
     </row>
     <row r="12" spans="1:24" ht="27.6" customHeight="1">
       <c r="B12" s="232" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="C12" s="232"/>
       <c r="D12" s="232"/>
-      <c r="E12" s="393" t="s">
+      <c r="E12" s="373" t="s">
+        <v>539</v>
+      </c>
+      <c r="F12" s="373"/>
+      <c r="G12" s="373"/>
+      <c r="H12" s="373"/>
+      <c r="I12" s="373"/>
+      <c r="J12" s="373"/>
+      <c r="K12" s="252" t="s">
+        <v>482</v>
+      </c>
+      <c r="L12" s="234" t="s">
+        <v>554</v>
+      </c>
+      <c r="M12" s="250" t="s">
+        <v>486</v>
+      </c>
+      <c r="O12" s="374" t="s">
         <v>541</v>
       </c>
-      <c r="F12" s="393"/>
-      <c r="G12" s="393"/>
-      <c r="H12" s="393"/>
-      <c r="I12" s="393"/>
-      <c r="J12" s="393"/>
-      <c r="K12" s="252" t="s">
-        <v>484</v>
+      <c r="P12" s="375"/>
+      <c r="Q12" s="375"/>
+      <c r="R12" s="376"/>
+      <c r="S12" s="386" t="s">
+        <v>542</v>
       </c>
-      <c r="L12" s="234" t="s">
-        <v>556</v>
-      </c>
-      <c r="M12" s="250" t="s">
-        <v>488</v>
-      </c>
-      <c r="O12" s="401" t="s">
+      <c r="T12" s="387"/>
+      <c r="U12" s="388"/>
+      <c r="V12" s="386" t="s">
         <v>543</v>
       </c>
-      <c r="P12" s="402"/>
-      <c r="Q12" s="402"/>
-      <c r="R12" s="403"/>
-      <c r="S12" s="389" t="s">
-        <v>544</v>
+      <c r="W12" s="387"/>
+      <c r="X12" s="388"/>
+    </row>
+    <row r="13" spans="1:24" ht="27" customHeight="1">
+      <c r="B13" s="389" t="s">
+        <v>490</v>
       </c>
-      <c r="T12" s="390"/>
-      <c r="U12" s="391"/>
-      <c r="V12" s="389" t="s">
-        <v>545</v>
+      <c r="C13" s="389"/>
+      <c r="D13" s="389"/>
+      <c r="E13" s="373" t="s">
+        <v>540</v>
       </c>
-      <c r="W12" s="390"/>
-      <c r="X12" s="391"/>
-    </row>
-    <row r="13" spans="1:24" ht="27" customHeight="1">
-      <c r="B13" s="392" t="s">
-        <v>492</v>
-      </c>
-      <c r="C13" s="392"/>
-      <c r="D13" s="392"/>
-      <c r="E13" s="393" t="s">
-        <v>542</v>
-      </c>
-      <c r="F13" s="393"/>
-      <c r="G13" s="393"/>
-      <c r="H13" s="393"/>
-      <c r="I13" s="393"/>
-      <c r="J13" s="393"/>
+      <c r="F13" s="373"/>
+      <c r="G13" s="373"/>
+      <c r="H13" s="373"/>
+      <c r="I13" s="373"/>
+      <c r="J13" s="373"/>
       <c r="K13" s="252" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="L13" s="234" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="M13" s="250" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="O13" s="235"/>
       <c r="P13" s="235"/>
@@ -11917,12 +11912,12 @@
       <c r="X13" s="235"/>
     </row>
     <row r="14" spans="1:24" ht="19.5" customHeight="1">
-      <c r="E14" s="399"/>
-      <c r="F14" s="399"/>
-      <c r="G14" s="399"/>
-      <c r="H14" s="399"/>
-      <c r="I14" s="399"/>
-      <c r="J14" s="399"/>
+      <c r="E14" s="371"/>
+      <c r="F14" s="371"/>
+      <c r="G14" s="371"/>
+      <c r="H14" s="371"/>
+      <c r="I14" s="371"/>
+      <c r="J14" s="371"/>
       <c r="O14" s="235"/>
       <c r="P14" s="235"/>
       <c r="Q14" s="235"/>
@@ -11935,23 +11930,23 @@
       <c r="X14" s="235"/>
     </row>
     <row r="15" spans="1:24" ht="18.75" customHeight="1">
-      <c r="A15" s="404"/>
-      <c r="B15" s="404"/>
-      <c r="C15" s="404" t="s">
-        <v>493</v>
+      <c r="A15" s="369"/>
+      <c r="B15" s="369"/>
+      <c r="C15" s="369" t="s">
+        <v>491</v>
       </c>
-      <c r="D15" s="404"/>
+      <c r="D15" s="369"/>
       <c r="E15" s="217" t="s">
         <v>8</v>
       </c>
-      <c r="F15" s="405" t="s">
-        <v>551</v>
+      <c r="F15" s="370" t="s">
+        <v>549</v>
       </c>
-      <c r="G15" s="405"/>
-      <c r="H15" s="405"/>
-      <c r="I15" s="405"/>
+      <c r="G15" s="370"/>
+      <c r="H15" s="370"/>
+      <c r="I15" s="370"/>
       <c r="J15" s="217" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="O15" s="235"/>
       <c r="P15" s="235"/>
@@ -11965,23 +11960,23 @@
       <c r="X15" s="235"/>
     </row>
     <row r="16" spans="1:24" ht="19.5" customHeight="1">
-      <c r="A16" s="404"/>
-      <c r="B16" s="404"/>
-      <c r="C16" s="404" t="s">
-        <v>495</v>
+      <c r="A16" s="369"/>
+      <c r="B16" s="369"/>
+      <c r="C16" s="369" t="s">
+        <v>493</v>
       </c>
-      <c r="D16" s="404"/>
+      <c r="D16" s="369"/>
       <c r="E16" s="217" t="s">
         <v>8</v>
       </c>
-      <c r="F16" s="405" t="s">
-        <v>552</v>
+      <c r="F16" s="370" t="s">
+        <v>550</v>
       </c>
-      <c r="G16" s="405"/>
-      <c r="H16" s="405"/>
-      <c r="I16" s="405"/>
+      <c r="G16" s="370"/>
+      <c r="H16" s="370"/>
+      <c r="I16" s="370"/>
       <c r="J16" s="217" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="O16" s="235"/>
       <c r="P16" s="235"/>
@@ -11995,23 +11990,23 @@
       <c r="X16" s="235"/>
     </row>
     <row r="17" spans="1:36" ht="19.5" customHeight="1">
-      <c r="A17" s="404"/>
-      <c r="B17" s="404"/>
-      <c r="C17" s="404" t="s">
+      <c r="A17" s="369"/>
+      <c r="B17" s="369"/>
+      <c r="C17" s="369" t="s">
+        <v>495</v>
+      </c>
+      <c r="D17" s="369"/>
+      <c r="E17" s="217" t="s">
+        <v>496</v>
+      </c>
+      <c r="F17" s="370" t="s">
+        <v>551</v>
+      </c>
+      <c r="G17" s="370"/>
+      <c r="H17" s="370"/>
+      <c r="I17" s="370"/>
+      <c r="J17" s="217" t="s">
         <v>497</v>
-      </c>
-      <c r="D17" s="404"/>
-      <c r="E17" s="217" t="s">
-        <v>498</v>
-      </c>
-      <c r="F17" s="405" t="s">
-        <v>553</v>
-      </c>
-      <c r="G17" s="405"/>
-      <c r="H17" s="405"/>
-      <c r="I17" s="405"/>
-      <c r="J17" s="217" t="s">
-        <v>499</v>
       </c>
     </row>
     <row r="18" spans="1:36" ht="18.75" customHeight="1">
@@ -12024,7 +12019,7 @@
         <v>7</v>
       </c>
       <c r="B19" s="247" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="C19" s="247"/>
       <c r="D19" s="247"/>
@@ -12047,119 +12042,119 @@
       <c r="U19" s="216"/>
     </row>
     <row r="20" spans="1:36" ht="19.5" customHeight="1">
-      <c r="B20" s="414" t="s">
-        <v>501</v>
+      <c r="B20" s="359" t="s">
+        <v>499</v>
       </c>
-      <c r="C20" s="415"/>
-      <c r="D20" s="415"/>
-      <c r="E20" s="415"/>
-      <c r="F20" s="424"/>
-      <c r="G20" s="429" t="s">
-        <v>558</v>
+      <c r="C20" s="360"/>
+      <c r="D20" s="360"/>
+      <c r="E20" s="360"/>
+      <c r="F20" s="368"/>
+      <c r="G20" s="351" t="s">
+        <v>556</v>
       </c>
-      <c r="H20" s="430"/>
-      <c r="I20" s="430"/>
-      <c r="J20" s="430"/>
-      <c r="K20" s="430"/>
-      <c r="L20" s="430"/>
+      <c r="H20" s="352"/>
+      <c r="I20" s="352"/>
+      <c r="J20" s="352"/>
+      <c r="K20" s="352"/>
+      <c r="L20" s="352"/>
       <c r="M20" s="238" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
-      <c r="N20" s="412" t="s">
-        <v>559</v>
+      <c r="N20" s="353" t="s">
+        <v>557</v>
       </c>
-      <c r="O20" s="413"/>
+      <c r="O20" s="354"/>
       <c r="P20" s="239"/>
       <c r="Q20" s="240" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="R20" s="240"/>
       <c r="S20" s="241"/>
-      <c r="T20" s="425" t="s">
-        <v>546</v>
+      <c r="T20" s="347" t="s">
+        <v>544</v>
       </c>
-      <c r="U20" s="425"/>
-      <c r="V20" s="425"/>
-      <c r="W20" s="425"/>
-      <c r="X20" s="425"/>
+      <c r="U20" s="347"/>
+      <c r="V20" s="347"/>
+      <c r="W20" s="347"/>
+      <c r="X20" s="347"/>
     </row>
     <row r="21" spans="1:36" ht="19.5" customHeight="1">
-      <c r="B21" s="409" t="s">
-        <v>505</v>
+      <c r="B21" s="356" t="s">
+        <v>503</v>
       </c>
-      <c r="C21" s="410"/>
-      <c r="D21" s="410"/>
-      <c r="E21" s="410"/>
-      <c r="F21" s="411"/>
-      <c r="G21" s="429" t="s">
-        <v>560</v>
+      <c r="C21" s="357"/>
+      <c r="D21" s="357"/>
+      <c r="E21" s="357"/>
+      <c r="F21" s="358"/>
+      <c r="G21" s="351" t="s">
+        <v>558</v>
       </c>
-      <c r="H21" s="430"/>
-      <c r="I21" s="430"/>
-      <c r="J21" s="430"/>
-      <c r="K21" s="430"/>
-      <c r="L21" s="430"/>
+      <c r="H21" s="352"/>
+      <c r="I21" s="352"/>
+      <c r="J21" s="352"/>
+      <c r="K21" s="352"/>
+      <c r="L21" s="352"/>
       <c r="M21" s="238" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
-      <c r="N21" s="412" t="s">
-        <v>561</v>
+      <c r="N21" s="353" t="s">
+        <v>559</v>
       </c>
-      <c r="O21" s="413"/>
+      <c r="O21" s="354"/>
       <c r="P21" s="242"/>
       <c r="Q21" s="243" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="R21" s="243"/>
       <c r="S21" s="244"/>
-      <c r="T21" s="426" t="s">
-        <v>547</v>
+      <c r="T21" s="348" t="s">
+        <v>545</v>
       </c>
-      <c r="U21" s="426" t="s">
-        <v>506</v>
-      </c>
-      <c r="V21" s="426" t="s">
-        <v>503</v>
-      </c>
-      <c r="W21" s="426" t="s">
+      <c r="U21" s="348" t="s">
         <v>504</v>
       </c>
-      <c r="X21" s="426"/>
-    </row>
-    <row r="22" spans="1:36" ht="18.75" customHeight="1">
-      <c r="B22" s="414" t="s">
-        <v>507</v>
+      <c r="V21" s="348" t="s">
+        <v>501</v>
       </c>
-      <c r="C22" s="415"/>
-      <c r="D22" s="415"/>
-      <c r="E22" s="415"/>
-      <c r="F22" s="245"/>
-      <c r="G22" s="427" t="s">
-        <v>548</v>
-      </c>
-      <c r="H22" s="428"/>
-      <c r="I22" s="428"/>
-      <c r="J22" s="428"/>
-      <c r="K22" s="428"/>
-      <c r="L22" s="428"/>
-      <c r="M22" s="238" t="s">
+      <c r="W21" s="348" t="s">
         <v>502</v>
       </c>
-      <c r="N22" s="412" t="s">
-        <v>562</v>
+      <c r="X21" s="348"/>
+    </row>
+    <row r="22" spans="1:36" ht="18.75" customHeight="1">
+      <c r="B22" s="359" t="s">
+        <v>505</v>
       </c>
-      <c r="O22" s="413"/>
-      <c r="P22" s="416" t="s">
-        <v>437</v>
+      <c r="C22" s="360"/>
+      <c r="D22" s="360"/>
+      <c r="E22" s="360"/>
+      <c r="F22" s="245"/>
+      <c r="G22" s="349" t="s">
+        <v>546</v>
       </c>
-      <c r="Q22" s="417"/>
-      <c r="R22" s="417"/>
-      <c r="S22" s="418"/>
-      <c r="T22" s="419"/>
-      <c r="U22" s="420"/>
-      <c r="V22" s="420"/>
-      <c r="W22" s="420"/>
-      <c r="X22" s="421"/>
+      <c r="H22" s="350"/>
+      <c r="I22" s="350"/>
+      <c r="J22" s="350"/>
+      <c r="K22" s="350"/>
+      <c r="L22" s="350"/>
+      <c r="M22" s="238" t="s">
+        <v>500</v>
+      </c>
+      <c r="N22" s="353" t="s">
+        <v>560</v>
+      </c>
+      <c r="O22" s="354"/>
+      <c r="P22" s="361" t="s">
+        <v>435</v>
+      </c>
+      <c r="Q22" s="362"/>
+      <c r="R22" s="362"/>
+      <c r="S22" s="363"/>
+      <c r="T22" s="364"/>
+      <c r="U22" s="365"/>
+      <c r="V22" s="365"/>
+      <c r="W22" s="365"/>
+      <c r="X22" s="366"/>
     </row>
     <row r="23" spans="1:36" ht="18.75" customHeight="1"/>
     <row r="24" spans="1:36" ht="18.75" customHeight="1">
@@ -12193,7 +12188,7 @@
     </row>
     <row r="25" spans="1:36" ht="19.5" customHeight="1">
       <c r="A25" s="212" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="B25" s="211"/>
       <c r="C25" s="211"/>
@@ -12224,7 +12219,7 @@
     </row>
     <row r="26" spans="1:36" ht="19.5" customHeight="1">
       <c r="A26" s="213" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="B26" s="211"/>
       <c r="C26" s="211"/>
@@ -12283,17 +12278,17 @@
     </row>
     <row r="28" spans="1:36" ht="19.5" customHeight="1">
       <c r="A28" s="211"/>
-      <c r="B28" s="422" t="s">
-        <v>424</v>
+      <c r="B28" s="367" t="s">
+        <v>422</v>
       </c>
-      <c r="C28" s="422"/>
-      <c r="D28" s="423" t="s">
+      <c r="C28" s="367"/>
+      <c r="D28" s="344" t="s">
         <v>55</v>
       </c>
-      <c r="E28" s="423"/>
-      <c r="F28" s="423"/>
-      <c r="G28" s="423"/>
-      <c r="H28" s="423"/>
+      <c r="E28" s="344"/>
+      <c r="F28" s="344"/>
+      <c r="G28" s="344"/>
+      <c r="H28" s="344"/>
       <c r="I28" s="2"/>
       <c r="J28" s="2"/>
       <c r="K28" s="2"/>
@@ -12303,15 +12298,15 @@
       <c r="O28" s="2"/>
       <c r="P28" s="2"/>
       <c r="Q28" s="209" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
-      <c r="R28" s="423" t="s">
+      <c r="R28" s="344" t="s">
         <v>54</v>
       </c>
-      <c r="S28" s="423"/>
-      <c r="T28" s="423"/>
-      <c r="U28" s="423"/>
-      <c r="V28" s="423"/>
+      <c r="S28" s="344"/>
+      <c r="T28" s="344"/>
+      <c r="U28" s="344"/>
+      <c r="V28" s="344"/>
       <c r="W28" s="210"/>
       <c r="X28" s="4"/>
       <c r="Y28" s="235"/>
@@ -12350,33 +12345,33 @@
     <row r="30" spans="1:36" ht="19.5" customHeight="1">
       <c r="A30" s="211"/>
       <c r="B30" s="209" t="s">
+        <v>424</v>
+      </c>
+      <c r="C30" s="345"/>
+      <c r="D30" s="345"/>
+      <c r="E30" s="345"/>
+      <c r="F30" s="345"/>
+      <c r="G30" s="345"/>
+      <c r="H30" s="2"/>
+      <c r="I30" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="J30" s="345"/>
+      <c r="K30" s="345"/>
+      <c r="L30" s="345"/>
+      <c r="M30" s="345"/>
+      <c r="N30" s="345"/>
+      <c r="O30" s="345"/>
+      <c r="P30" s="2"/>
+      <c r="Q30" s="1" t="s">
         <v>426</v>
       </c>
-      <c r="C30" s="407"/>
-      <c r="D30" s="407"/>
-      <c r="E30" s="407"/>
-      <c r="F30" s="407"/>
-      <c r="G30" s="407"/>
-      <c r="H30" s="2"/>
-      <c r="I30" s="1" t="s">
-        <v>427</v>
-      </c>
-      <c r="J30" s="407"/>
-      <c r="K30" s="407"/>
-      <c r="L30" s="407"/>
-      <c r="M30" s="407"/>
-      <c r="N30" s="407"/>
-      <c r="O30" s="407"/>
-      <c r="P30" s="2"/>
-      <c r="Q30" s="1" t="s">
-        <v>428</v>
-      </c>
-      <c r="R30" s="408"/>
-      <c r="S30" s="408"/>
-      <c r="T30" s="408"/>
-      <c r="U30" s="408"/>
-      <c r="V30" s="408"/>
-      <c r="W30" s="408"/>
+      <c r="R30" s="346"/>
+      <c r="S30" s="346"/>
+      <c r="T30" s="346"/>
+      <c r="U30" s="346"/>
+      <c r="V30" s="346"/>
+      <c r="W30" s="346"/>
       <c r="X30" s="4"/>
       <c r="Y30" s="235"/>
       <c r="Z30" s="235"/>
@@ -12385,33 +12380,33 @@
     <row r="31" spans="1:36" ht="19.5" customHeight="1">
       <c r="A31" s="211"/>
       <c r="B31" s="209" t="s">
+        <v>427</v>
+      </c>
+      <c r="C31" s="345"/>
+      <c r="D31" s="345"/>
+      <c r="E31" s="345"/>
+      <c r="F31" s="345"/>
+      <c r="G31" s="345"/>
+      <c r="H31" s="2"/>
+      <c r="I31" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="J31" s="345"/>
+      <c r="K31" s="345"/>
+      <c r="L31" s="345"/>
+      <c r="M31" s="345"/>
+      <c r="N31" s="345"/>
+      <c r="O31" s="345"/>
+      <c r="P31" s="2"/>
+      <c r="Q31" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="C31" s="407"/>
-      <c r="D31" s="407"/>
-      <c r="E31" s="407"/>
-      <c r="F31" s="407"/>
-      <c r="G31" s="407"/>
-      <c r="H31" s="2"/>
-      <c r="I31" s="1" t="s">
-        <v>430</v>
-      </c>
-      <c r="J31" s="407"/>
-      <c r="K31" s="407"/>
-      <c r="L31" s="407"/>
-      <c r="M31" s="407"/>
-      <c r="N31" s="407"/>
-      <c r="O31" s="407"/>
-      <c r="P31" s="2"/>
-      <c r="Q31" s="1" t="s">
-        <v>431</v>
-      </c>
-      <c r="R31" s="408"/>
-      <c r="S31" s="408"/>
-      <c r="T31" s="408"/>
-      <c r="U31" s="408"/>
-      <c r="V31" s="408"/>
-      <c r="W31" s="408"/>
+      <c r="R31" s="346"/>
+      <c r="S31" s="346"/>
+      <c r="T31" s="346"/>
+      <c r="U31" s="346"/>
+      <c r="V31" s="346"/>
+      <c r="W31" s="346"/>
       <c r="X31" s="4"/>
       <c r="Y31" s="235"/>
       <c r="Z31" s="235"/>
@@ -12423,33 +12418,33 @@
     <row r="32" spans="1:36" ht="19.5" customHeight="1">
       <c r="A32" s="211"/>
       <c r="B32" s="209" t="s">
+        <v>430</v>
+      </c>
+      <c r="C32" s="345"/>
+      <c r="D32" s="345"/>
+      <c r="E32" s="345"/>
+      <c r="F32" s="345"/>
+      <c r="G32" s="345"/>
+      <c r="H32" s="2"/>
+      <c r="I32" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="J32" s="345"/>
+      <c r="K32" s="345"/>
+      <c r="L32" s="345"/>
+      <c r="M32" s="345"/>
+      <c r="N32" s="345"/>
+      <c r="O32" s="345"/>
+      <c r="P32" s="2"/>
+      <c r="Q32" s="1" t="s">
         <v>432</v>
       </c>
-      <c r="C32" s="407"/>
-      <c r="D32" s="407"/>
-      <c r="E32" s="407"/>
-      <c r="F32" s="407"/>
-      <c r="G32" s="407"/>
-      <c r="H32" s="2"/>
-      <c r="I32" s="1" t="s">
-        <v>433</v>
-      </c>
-      <c r="J32" s="407"/>
-      <c r="K32" s="407"/>
-      <c r="L32" s="407"/>
-      <c r="M32" s="407"/>
-      <c r="N32" s="407"/>
-      <c r="O32" s="407"/>
-      <c r="P32" s="2"/>
-      <c r="Q32" s="1" t="s">
-        <v>434</v>
-      </c>
-      <c r="R32" s="408"/>
-      <c r="S32" s="408"/>
-      <c r="T32" s="408"/>
-      <c r="U32" s="408"/>
-      <c r="V32" s="408"/>
-      <c r="W32" s="408"/>
+      <c r="R32" s="346"/>
+      <c r="S32" s="346"/>
+      <c r="T32" s="346"/>
+      <c r="U32" s="346"/>
+      <c r="V32" s="346"/>
+      <c r="W32" s="346"/>
       <c r="X32" s="4"/>
       <c r="Y32" s="235"/>
       <c r="Z32" s="235"/>
@@ -13678,16 +13673,54 @@
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" selectLockedCells="1"/>
   <mergeCells count="74">
-    <mergeCell ref="R28:V28"/>
-    <mergeCell ref="C30:G30"/>
-    <mergeCell ref="J30:O30"/>
-    <mergeCell ref="R30:W30"/>
-    <mergeCell ref="T20:X20"/>
-    <mergeCell ref="T21:X21"/>
-    <mergeCell ref="G22:L22"/>
-    <mergeCell ref="G20:L20"/>
-    <mergeCell ref="G21:L21"/>
-    <mergeCell ref="N20:O20"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:H3"/>
+    <mergeCell ref="I2:L3"/>
+    <mergeCell ref="M2:O3"/>
+    <mergeCell ref="P2:Q3"/>
+    <mergeCell ref="V2:X3"/>
+    <mergeCell ref="C4:H4"/>
+    <mergeCell ref="I4:L4"/>
+    <mergeCell ref="M4:O4"/>
+    <mergeCell ref="P4:Q4"/>
+    <mergeCell ref="T4:U4"/>
+    <mergeCell ref="V4:X4"/>
+    <mergeCell ref="R2:S3"/>
+    <mergeCell ref="T2:U3"/>
+    <mergeCell ref="R4:S4"/>
+    <mergeCell ref="C5:H5"/>
+    <mergeCell ref="I5:L5"/>
+    <mergeCell ref="M5:O5"/>
+    <mergeCell ref="P5:Q5"/>
+    <mergeCell ref="R5:S5"/>
+    <mergeCell ref="T5:U5"/>
+    <mergeCell ref="V5:X5"/>
+    <mergeCell ref="S12:U12"/>
+    <mergeCell ref="V12:X12"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="E13:J13"/>
+    <mergeCell ref="C6:X6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="I7:L7"/>
+    <mergeCell ref="M7:O7"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="R7:S7"/>
+    <mergeCell ref="T7:U7"/>
+    <mergeCell ref="V7:X7"/>
+    <mergeCell ref="S10:U11"/>
+    <mergeCell ref="V10:X11"/>
+    <mergeCell ref="E14:J14"/>
+    <mergeCell ref="E11:J11"/>
+    <mergeCell ref="E12:J12"/>
+    <mergeCell ref="O12:R12"/>
+    <mergeCell ref="O10:R11"/>
+    <mergeCell ref="A15:B17"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="F15:I15"/>
+    <mergeCell ref="F16:I16"/>
+    <mergeCell ref="F17:I17"/>
     <mergeCell ref="B9:D9"/>
     <mergeCell ref="C32:G32"/>
     <mergeCell ref="J32:O32"/>
@@ -13704,54 +13737,16 @@
     <mergeCell ref="B28:C28"/>
     <mergeCell ref="D28:H28"/>
     <mergeCell ref="B20:F20"/>
-    <mergeCell ref="A15:B17"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="F15:I15"/>
-    <mergeCell ref="F16:I16"/>
-    <mergeCell ref="F17:I17"/>
-    <mergeCell ref="E14:J14"/>
-    <mergeCell ref="E11:J11"/>
-    <mergeCell ref="E12:J12"/>
-    <mergeCell ref="O12:R12"/>
-    <mergeCell ref="O10:R11"/>
-    <mergeCell ref="T5:U5"/>
-    <mergeCell ref="V5:X5"/>
-    <mergeCell ref="S12:U12"/>
-    <mergeCell ref="V12:X12"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="E13:J13"/>
-    <mergeCell ref="C6:X6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="I7:L7"/>
-    <mergeCell ref="M7:O7"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="R7:S7"/>
-    <mergeCell ref="T7:U7"/>
-    <mergeCell ref="V7:X7"/>
-    <mergeCell ref="S10:U11"/>
-    <mergeCell ref="V10:X11"/>
-    <mergeCell ref="C5:H5"/>
-    <mergeCell ref="I5:L5"/>
-    <mergeCell ref="M5:O5"/>
-    <mergeCell ref="P5:Q5"/>
-    <mergeCell ref="R5:S5"/>
-    <mergeCell ref="V2:X3"/>
-    <mergeCell ref="C4:H4"/>
-    <mergeCell ref="I4:L4"/>
-    <mergeCell ref="M4:O4"/>
-    <mergeCell ref="P4:Q4"/>
-    <mergeCell ref="T4:U4"/>
-    <mergeCell ref="V4:X4"/>
-    <mergeCell ref="R2:S3"/>
-    <mergeCell ref="T2:U3"/>
-    <mergeCell ref="R4:S4"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:H3"/>
-    <mergeCell ref="I2:L3"/>
-    <mergeCell ref="M2:O3"/>
-    <mergeCell ref="P2:Q3"/>
+    <mergeCell ref="R28:V28"/>
+    <mergeCell ref="C30:G30"/>
+    <mergeCell ref="J30:O30"/>
+    <mergeCell ref="R30:W30"/>
+    <mergeCell ref="T20:X20"/>
+    <mergeCell ref="T21:X21"/>
+    <mergeCell ref="G22:L22"/>
+    <mergeCell ref="G20:L20"/>
+    <mergeCell ref="G21:L21"/>
+    <mergeCell ref="N20:O20"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="W21">
@@ -13889,37 +13884,37 @@
       <c r="A2" s="106" t="s">
         <v>42</v>
       </c>
-      <c r="B2" s="478" t="s">
+      <c r="B2" s="476" t="s">
         <v>52</v>
       </c>
-      <c r="C2" s="478"/>
-      <c r="D2" s="478"/>
-      <c r="E2" s="487" t="s">
-        <v>508</v>
+      <c r="C2" s="476"/>
+      <c r="D2" s="476"/>
+      <c r="E2" s="455" t="s">
+        <v>506</v>
       </c>
-      <c r="F2" s="488"/>
-      <c r="G2" s="488"/>
-      <c r="H2" s="488"/>
-      <c r="I2" s="488"/>
-      <c r="J2" s="488"/>
-      <c r="K2" s="488"/>
-      <c r="L2" s="488"/>
-      <c r="M2" s="488"/>
-      <c r="N2" s="488"/>
-      <c r="O2" s="488"/>
-      <c r="P2" s="488"/>
-      <c r="Q2" s="488"/>
-      <c r="R2" s="488"/>
-      <c r="S2" s="488"/>
-      <c r="T2" s="488"/>
-      <c r="U2" s="488"/>
-      <c r="V2" s="488"/>
-      <c r="W2" s="488"/>
-      <c r="X2" s="488"/>
-      <c r="Y2" s="488"/>
-      <c r="Z2" s="488"/>
-      <c r="AA2" s="488"/>
-      <c r="AB2" s="489"/>
+      <c r="F2" s="456"/>
+      <c r="G2" s="456"/>
+      <c r="H2" s="456"/>
+      <c r="I2" s="456"/>
+      <c r="J2" s="456"/>
+      <c r="K2" s="456"/>
+      <c r="L2" s="456"/>
+      <c r="M2" s="456"/>
+      <c r="N2" s="456"/>
+      <c r="O2" s="456"/>
+      <c r="P2" s="456"/>
+      <c r="Q2" s="456"/>
+      <c r="R2" s="456"/>
+      <c r="S2" s="456"/>
+      <c r="T2" s="456"/>
+      <c r="U2" s="456"/>
+      <c r="V2" s="456"/>
+      <c r="W2" s="456"/>
+      <c r="X2" s="456"/>
+      <c r="Y2" s="456"/>
+      <c r="Z2" s="456"/>
+      <c r="AA2" s="456"/>
+      <c r="AB2" s="457"/>
       <c r="AC2" s="107"/>
       <c r="AD2" s="107"/>
       <c r="AE2" s="107"/>
@@ -13929,54 +13924,54 @@
       <c r="AI2" s="108"/>
       <c r="AJ2" s="108"/>
       <c r="AP2" s="105"/>
-      <c r="BF2" s="479"/>
-      <c r="BG2" s="479"/>
-      <c r="BH2" s="479"/>
-      <c r="BI2" s="479"/>
-      <c r="BJ2" s="479"/>
-      <c r="BK2" s="479"/>
-      <c r="BL2" s="479"/>
-      <c r="BM2" s="479"/>
-      <c r="BN2" s="479"/>
-      <c r="BO2" s="479"/>
-      <c r="BP2" s="479"/>
-      <c r="BQ2" s="479"/>
-      <c r="BR2" s="479"/>
-      <c r="BS2" s="479"/>
+      <c r="BF2" s="477"/>
+      <c r="BG2" s="477"/>
+      <c r="BH2" s="477"/>
+      <c r="BI2" s="477"/>
+      <c r="BJ2" s="477"/>
+      <c r="BK2" s="477"/>
+      <c r="BL2" s="477"/>
+      <c r="BM2" s="477"/>
+      <c r="BN2" s="477"/>
+      <c r="BO2" s="477"/>
+      <c r="BP2" s="477"/>
+      <c r="BQ2" s="477"/>
+      <c r="BR2" s="477"/>
+      <c r="BS2" s="477"/>
     </row>
     <row r="3" spans="1:75" ht="46.8" customHeight="1" thickBot="1">
       <c r="A3" s="106" t="s">
         <v>43</v>
       </c>
-      <c r="B3" s="478" t="s">
+      <c r="B3" s="476" t="s">
         <v>53</v>
       </c>
-      <c r="C3" s="478"/>
-      <c r="D3" s="478"/>
-      <c r="E3" s="490"/>
-      <c r="F3" s="491"/>
-      <c r="G3" s="491"/>
-      <c r="H3" s="491"/>
-      <c r="I3" s="491"/>
-      <c r="J3" s="491"/>
-      <c r="K3" s="491"/>
-      <c r="L3" s="491"/>
-      <c r="M3" s="491"/>
-      <c r="N3" s="491"/>
-      <c r="O3" s="491"/>
-      <c r="P3" s="491"/>
-      <c r="Q3" s="491"/>
-      <c r="R3" s="491"/>
-      <c r="S3" s="491"/>
-      <c r="T3" s="491"/>
-      <c r="U3" s="491"/>
-      <c r="V3" s="491"/>
-      <c r="W3" s="491"/>
-      <c r="X3" s="491"/>
-      <c r="Y3" s="491"/>
-      <c r="Z3" s="491"/>
-      <c r="AA3" s="491"/>
-      <c r="AB3" s="492"/>
+      <c r="C3" s="476"/>
+      <c r="D3" s="476"/>
+      <c r="E3" s="458"/>
+      <c r="F3" s="459"/>
+      <c r="G3" s="459"/>
+      <c r="H3" s="459"/>
+      <c r="I3" s="459"/>
+      <c r="J3" s="459"/>
+      <c r="K3" s="459"/>
+      <c r="L3" s="459"/>
+      <c r="M3" s="459"/>
+      <c r="N3" s="459"/>
+      <c r="O3" s="459"/>
+      <c r="P3" s="459"/>
+      <c r="Q3" s="459"/>
+      <c r="R3" s="459"/>
+      <c r="S3" s="459"/>
+      <c r="T3" s="459"/>
+      <c r="U3" s="459"/>
+      <c r="V3" s="459"/>
+      <c r="W3" s="459"/>
+      <c r="X3" s="459"/>
+      <c r="Y3" s="459"/>
+      <c r="Z3" s="459"/>
+      <c r="AA3" s="459"/>
+      <c r="AB3" s="460"/>
       <c r="AC3" s="107"/>
       <c r="AD3" s="107"/>
       <c r="AE3" s="107"/>
@@ -14085,22 +14080,22 @@
       <c r="BO4" s="103"/>
     </row>
     <row r="5" spans="1:75" ht="18" customHeight="1">
-      <c r="A5" s="471" t="s">
+      <c r="A5" s="482" t="s">
         <v>295</v>
       </c>
-      <c r="B5" s="493" t="s">
-        <v>388</v>
+      <c r="B5" s="461" t="s">
+        <v>386</v>
       </c>
-      <c r="C5" s="476" t="s">
+      <c r="C5" s="479" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="495" t="s">
-        <v>389</v>
+      <c r="D5" s="463" t="s">
+        <v>387</v>
       </c>
-      <c r="E5" s="497" t="s">
-        <v>385</v>
+      <c r="E5" s="468" t="s">
+        <v>383</v>
       </c>
-      <c r="F5" s="498"/>
+      <c r="F5" s="469"/>
       <c r="G5" s="113"/>
       <c r="H5" s="113"/>
       <c r="I5" s="113"/>
@@ -14127,10 +14122,10 @@
       <c r="AD5" s="117"/>
       <c r="AE5" s="118"/>
       <c r="AF5" s="118"/>
-      <c r="AG5" s="480"/>
-      <c r="AH5" s="480"/>
-      <c r="AI5" s="480"/>
-      <c r="AJ5" s="480"/>
+      <c r="AG5" s="478"/>
+      <c r="AH5" s="478"/>
+      <c r="AI5" s="478"/>
+      <c r="AJ5" s="478"/>
       <c r="AK5" s="119"/>
       <c r="AL5" s="120"/>
       <c r="AM5" s="121"/>
@@ -14172,12 +14167,12 @@
       <c r="BW5" s="121"/>
     </row>
     <row r="6" spans="1:75" ht="18" customHeight="1">
-      <c r="A6" s="472"/>
-      <c r="B6" s="494"/>
-      <c r="C6" s="477"/>
-      <c r="D6" s="496"/>
-      <c r="E6" s="499"/>
-      <c r="F6" s="500"/>
+      <c r="A6" s="483"/>
+      <c r="B6" s="462"/>
+      <c r="C6" s="480"/>
+      <c r="D6" s="464"/>
+      <c r="E6" s="470"/>
+      <c r="F6" s="471"/>
       <c r="G6" s="74"/>
       <c r="H6" s="74"/>
       <c r="I6" s="74"/>
@@ -14202,12 +14197,12 @@
       <c r="AB6" s="74"/>
       <c r="AC6" s="74"/>
       <c r="AD6" s="74"/>
-      <c r="AE6" s="466"/>
-      <c r="AF6" s="466"/>
+      <c r="AE6" s="481"/>
+      <c r="AF6" s="481"/>
       <c r="AG6" s="122"/>
       <c r="AH6" s="123"/>
-      <c r="AI6" s="466"/>
-      <c r="AJ6" s="466"/>
+      <c r="AI6" s="481"/>
+      <c r="AJ6" s="481"/>
       <c r="AK6" s="123"/>
       <c r="AL6" s="124"/>
       <c r="AM6" s="124"/>
@@ -14249,22 +14244,22 @@
       <c r="BW6" s="125"/>
     </row>
     <row r="7" spans="1:75">
-      <c r="A7" s="467" t="s">
+      <c r="A7" s="465" t="s">
+        <v>301</v>
+      </c>
+      <c r="B7" s="474" t="s">
+        <v>302</v>
+      </c>
+      <c r="C7" s="465" t="s">
         <v>303</v>
       </c>
-      <c r="B7" s="468" t="s">
+      <c r="D7" s="467" t="s">
         <v>304</v>
       </c>
-      <c r="C7" s="467" t="s">
-        <v>305</v>
+      <c r="E7" s="444" t="s">
+        <v>572</v>
       </c>
-      <c r="D7" s="470" t="s">
-        <v>306</v>
-      </c>
-      <c r="E7" s="435" t="s">
-        <v>574</v>
-      </c>
-      <c r="F7" s="436"/>
+      <c r="F7" s="445"/>
       <c r="G7" s="74"/>
       <c r="H7" s="74"/>
       <c r="I7" s="74"/>
@@ -14314,14 +14309,14 @@
       <c r="BW7" s="132"/>
     </row>
     <row r="8" spans="1:75">
-      <c r="A8" s="467"/>
-      <c r="B8" s="469"/>
-      <c r="C8" s="467"/>
-      <c r="D8" s="470"/>
-      <c r="E8" s="435" t="s">
-        <v>390</v>
+      <c r="A8" s="465"/>
+      <c r="B8" s="475"/>
+      <c r="C8" s="465"/>
+      <c r="D8" s="467"/>
+      <c r="E8" s="444" t="s">
+        <v>388</v>
       </c>
-      <c r="F8" s="436"/>
+      <c r="F8" s="445"/>
       <c r="G8" s="74"/>
       <c r="H8" s="74"/>
       <c r="I8" s="74"/>
@@ -14368,22 +14363,22 @@
       <c r="BW8" s="132"/>
     </row>
     <row r="9" spans="1:75" ht="15.6" customHeight="1">
-      <c r="A9" s="473" t="s">
+      <c r="A9" s="472" t="s">
+        <v>305</v>
+      </c>
+      <c r="B9" s="474" t="s">
+        <v>306</v>
+      </c>
+      <c r="C9" s="472" t="s">
         <v>307</v>
       </c>
-      <c r="B9" s="468" t="s">
+      <c r="D9" s="472" t="s">
         <v>308</v>
       </c>
-      <c r="C9" s="473" t="s">
-        <v>309</v>
+      <c r="E9" s="444" t="s">
+        <v>573</v>
       </c>
-      <c r="D9" s="473" t="s">
-        <v>310</v>
-      </c>
-      <c r="E9" s="435" t="s">
-        <v>575</v>
-      </c>
-      <c r="F9" s="436"/>
+      <c r="F9" s="445"/>
       <c r="G9" s="74"/>
       <c r="H9" s="74"/>
       <c r="I9" s="74"/>
@@ -14430,14 +14425,14 @@
       <c r="BW9" s="132"/>
     </row>
     <row r="10" spans="1:75" ht="15.6" customHeight="1">
-      <c r="A10" s="474"/>
-      <c r="B10" s="469"/>
-      <c r="C10" s="474"/>
-      <c r="D10" s="474"/>
-      <c r="E10" s="435" t="s">
-        <v>391</v>
+      <c r="A10" s="473"/>
+      <c r="B10" s="475"/>
+      <c r="C10" s="473"/>
+      <c r="D10" s="473"/>
+      <c r="E10" s="444" t="s">
+        <v>389</v>
       </c>
-      <c r="F10" s="436"/>
+      <c r="F10" s="445"/>
       <c r="G10" s="74"/>
       <c r="H10" s="74"/>
       <c r="I10" s="74"/>
@@ -14488,22 +14483,22 @@
       <c r="BW10" s="132"/>
     </row>
     <row r="11" spans="1:75" ht="15.6" customHeight="1">
-      <c r="A11" s="473" t="s">
+      <c r="A11" s="472" t="s">
+        <v>309</v>
+      </c>
+      <c r="B11" s="474" t="s">
+        <v>310</v>
+      </c>
+      <c r="C11" s="472" t="s">
         <v>311</v>
       </c>
-      <c r="B11" s="468" t="s">
+      <c r="D11" s="472" t="s">
         <v>312</v>
       </c>
-      <c r="C11" s="473" t="s">
-        <v>313</v>
+      <c r="E11" s="444" t="s">
+        <v>574</v>
       </c>
-      <c r="D11" s="473" t="s">
-        <v>314</v>
-      </c>
-      <c r="E11" s="435" t="s">
-        <v>576</v>
-      </c>
-      <c r="F11" s="436"/>
+      <c r="F11" s="445"/>
       <c r="G11" s="74"/>
       <c r="H11" s="74"/>
       <c r="I11" s="74"/>
@@ -14555,14 +14550,14 @@
       <c r="BW11" s="132"/>
     </row>
     <row r="12" spans="1:75" ht="15.6" customHeight="1">
-      <c r="A12" s="474"/>
-      <c r="B12" s="469"/>
-      <c r="C12" s="474"/>
-      <c r="D12" s="474"/>
-      <c r="E12" s="435" t="s">
-        <v>392</v>
+      <c r="A12" s="473"/>
+      <c r="B12" s="475"/>
+      <c r="C12" s="473"/>
+      <c r="D12" s="473"/>
+      <c r="E12" s="444" t="s">
+        <v>390</v>
       </c>
-      <c r="F12" s="436"/>
+      <c r="F12" s="445"/>
       <c r="G12" s="74"/>
       <c r="H12" s="74"/>
       <c r="I12" s="74"/>
@@ -14614,22 +14609,22 @@
       <c r="BW12" s="132"/>
     </row>
     <row r="13" spans="1:75" ht="15.6" customHeight="1">
-      <c r="A13" s="467" t="s">
+      <c r="A13" s="465" t="s">
+        <v>313</v>
+      </c>
+      <c r="B13" s="466" t="s">
+        <v>314</v>
+      </c>
+      <c r="C13" s="465" t="s">
         <v>315</v>
       </c>
-      <c r="B13" s="475" t="s">
+      <c r="D13" s="467" t="s">
         <v>316</v>
       </c>
-      <c r="C13" s="467" t="s">
-        <v>317</v>
+      <c r="E13" s="444" t="s">
+        <v>575</v>
       </c>
-      <c r="D13" s="470" t="s">
-        <v>318</v>
-      </c>
-      <c r="E13" s="435" t="s">
-        <v>577</v>
-      </c>
-      <c r="F13" s="436"/>
+      <c r="F13" s="445"/>
       <c r="G13" s="74"/>
       <c r="H13" s="74"/>
       <c r="I13" s="74"/>
@@ -14681,14 +14676,14 @@
       <c r="BW13" s="132"/>
     </row>
     <row r="14" spans="1:75">
-      <c r="A14" s="467"/>
-      <c r="B14" s="475"/>
-      <c r="C14" s="467"/>
-      <c r="D14" s="470"/>
-      <c r="E14" s="435" t="s">
-        <v>393</v>
+      <c r="A14" s="465"/>
+      <c r="B14" s="466"/>
+      <c r="C14" s="465"/>
+      <c r="D14" s="467"/>
+      <c r="E14" s="444" t="s">
+        <v>391</v>
       </c>
-      <c r="F14" s="436"/>
+      <c r="F14" s="445"/>
       <c r="G14" s="74"/>
       <c r="H14" s="74"/>
       <c r="I14" s="74"/>
@@ -14740,22 +14735,22 @@
       <c r="BW14" s="132"/>
     </row>
     <row r="15" spans="1:75" ht="15.6" customHeight="1">
-      <c r="A15" s="473" t="s">
+      <c r="A15" s="472" t="s">
+        <v>317</v>
+      </c>
+      <c r="B15" s="474" t="s">
+        <v>318</v>
+      </c>
+      <c r="C15" s="472" t="s">
         <v>319</v>
       </c>
-      <c r="B15" s="468" t="s">
+      <c r="D15" s="472" t="s">
         <v>320</v>
       </c>
-      <c r="C15" s="473" t="s">
-        <v>321</v>
+      <c r="E15" s="444" t="s">
+        <v>576</v>
       </c>
-      <c r="D15" s="473" t="s">
-        <v>322</v>
-      </c>
-      <c r="E15" s="435" t="s">
-        <v>578</v>
-      </c>
-      <c r="F15" s="436"/>
+      <c r="F15" s="445"/>
       <c r="G15" s="74"/>
       <c r="H15" s="74"/>
       <c r="I15" s="74"/>
@@ -14807,14 +14802,14 @@
       <c r="BW15" s="132"/>
     </row>
     <row r="16" spans="1:75" ht="15.6" customHeight="1">
-      <c r="A16" s="474"/>
-      <c r="B16" s="469"/>
-      <c r="C16" s="474"/>
-      <c r="D16" s="474"/>
-      <c r="E16" s="435" t="s">
-        <v>394</v>
+      <c r="A16" s="473"/>
+      <c r="B16" s="475"/>
+      <c r="C16" s="473"/>
+      <c r="D16" s="473"/>
+      <c r="E16" s="444" t="s">
+        <v>392</v>
       </c>
-      <c r="F16" s="436"/>
+      <c r="F16" s="445"/>
       <c r="G16" s="74"/>
       <c r="H16" s="74"/>
       <c r="I16" s="74"/>
@@ -14861,22 +14856,22 @@
       <c r="BW16" s="132"/>
     </row>
     <row r="17" spans="1:75" ht="15.6" customHeight="1">
-      <c r="A17" s="467" t="s">
+      <c r="A17" s="465" t="s">
+        <v>321</v>
+      </c>
+      <c r="B17" s="466" t="s">
+        <v>322</v>
+      </c>
+      <c r="C17" s="465" t="s">
         <v>323</v>
       </c>
-      <c r="B17" s="475" t="s">
+      <c r="D17" s="467" t="s">
         <v>324</v>
       </c>
-      <c r="C17" s="467" t="s">
-        <v>325</v>
+      <c r="E17" s="444" t="s">
+        <v>577</v>
       </c>
-      <c r="D17" s="470" t="s">
-        <v>326</v>
-      </c>
-      <c r="E17" s="435" t="s">
-        <v>579</v>
-      </c>
-      <c r="F17" s="436"/>
+      <c r="F17" s="445"/>
       <c r="G17" s="74"/>
       <c r="H17" s="74"/>
       <c r="I17" s="74"/>
@@ -14923,14 +14918,14 @@
       <c r="BW17" s="132"/>
     </row>
     <row r="18" spans="1:75">
-      <c r="A18" s="467"/>
-      <c r="B18" s="475"/>
-      <c r="C18" s="467"/>
-      <c r="D18" s="470"/>
-      <c r="E18" s="435" t="s">
-        <v>395</v>
+      <c r="A18" s="465"/>
+      <c r="B18" s="466"/>
+      <c r="C18" s="465"/>
+      <c r="D18" s="467"/>
+      <c r="E18" s="444" t="s">
+        <v>393</v>
       </c>
-      <c r="F18" s="436"/>
+      <c r="F18" s="445"/>
       <c r="G18" s="74"/>
       <c r="H18" s="74"/>
       <c r="I18" s="74"/>
@@ -14985,22 +14980,22 @@
       <c r="BW18" s="132"/>
     </row>
     <row r="19" spans="1:75" ht="15.6" customHeight="1">
-      <c r="A19" s="473" t="s">
+      <c r="A19" s="472" t="s">
+        <v>325</v>
+      </c>
+      <c r="B19" s="474" t="s">
+        <v>326</v>
+      </c>
+      <c r="C19" s="472" t="s">
         <v>327</v>
       </c>
-      <c r="B19" s="468" t="s">
+      <c r="D19" s="472" t="s">
         <v>328</v>
       </c>
-      <c r="C19" s="473" t="s">
-        <v>329</v>
+      <c r="E19" s="444" t="s">
+        <v>578</v>
       </c>
-      <c r="D19" s="473" t="s">
-        <v>330</v>
-      </c>
-      <c r="E19" s="435" t="s">
-        <v>580</v>
-      </c>
-      <c r="F19" s="436"/>
+      <c r="F19" s="445"/>
       <c r="G19" s="74"/>
       <c r="H19" s="74"/>
       <c r="I19" s="74"/>
@@ -15047,14 +15042,14 @@
       <c r="BW19" s="132"/>
     </row>
     <row r="20" spans="1:75" ht="15.6" customHeight="1">
-      <c r="A20" s="474"/>
-      <c r="B20" s="469"/>
-      <c r="C20" s="474"/>
-      <c r="D20" s="474"/>
-      <c r="E20" s="435" t="s">
-        <v>396</v>
+      <c r="A20" s="473"/>
+      <c r="B20" s="475"/>
+      <c r="C20" s="473"/>
+      <c r="D20" s="473"/>
+      <c r="E20" s="444" t="s">
+        <v>394</v>
       </c>
-      <c r="F20" s="436"/>
+      <c r="F20" s="445"/>
       <c r="G20" s="74"/>
       <c r="H20" s="74"/>
       <c r="I20" s="74"/>
@@ -15101,22 +15096,22 @@
       <c r="BW20" s="132"/>
     </row>
     <row r="21" spans="1:75" ht="15.6" customHeight="1">
-      <c r="A21" s="467" t="s">
+      <c r="A21" s="465" t="s">
+        <v>329</v>
+      </c>
+      <c r="B21" s="466" t="s">
+        <v>330</v>
+      </c>
+      <c r="C21" s="465" t="s">
         <v>331</v>
       </c>
-      <c r="B21" s="475" t="s">
+      <c r="D21" s="467" t="s">
         <v>332</v>
       </c>
-      <c r="C21" s="467" t="s">
-        <v>333</v>
+      <c r="E21" s="444" t="s">
+        <v>579</v>
       </c>
-      <c r="D21" s="470" t="s">
-        <v>334</v>
-      </c>
-      <c r="E21" s="435" t="s">
-        <v>581</v>
-      </c>
-      <c r="F21" s="436"/>
+      <c r="F21" s="445"/>
       <c r="G21" s="74"/>
       <c r="H21" s="74"/>
       <c r="I21" s="74"/>
@@ -15163,14 +15158,14 @@
       <c r="BW21" s="132"/>
     </row>
     <row r="22" spans="1:75">
-      <c r="A22" s="467"/>
-      <c r="B22" s="475"/>
-      <c r="C22" s="467"/>
-      <c r="D22" s="470"/>
-      <c r="E22" s="435" t="s">
-        <v>397</v>
+      <c r="A22" s="465"/>
+      <c r="B22" s="466"/>
+      <c r="C22" s="465"/>
+      <c r="D22" s="467"/>
+      <c r="E22" s="444" t="s">
+        <v>395</v>
       </c>
-      <c r="F22" s="436"/>
+      <c r="F22" s="445"/>
       <c r="G22" s="74"/>
       <c r="H22" s="74"/>
       <c r="I22" s="74"/>
@@ -15217,22 +15212,22 @@
       <c r="BW22" s="132"/>
     </row>
     <row r="23" spans="1:75" ht="15.6" customHeight="1">
-      <c r="A23" s="473" t="s">
+      <c r="A23" s="472" t="s">
+        <v>333</v>
+      </c>
+      <c r="B23" s="474" t="s">
+        <v>334</v>
+      </c>
+      <c r="C23" s="472" t="s">
         <v>335</v>
       </c>
-      <c r="B23" s="468" t="s">
+      <c r="D23" s="472" t="s">
         <v>336</v>
       </c>
-      <c r="C23" s="473" t="s">
-        <v>337</v>
+      <c r="E23" s="444" t="s">
+        <v>580</v>
       </c>
-      <c r="D23" s="473" t="s">
-        <v>338</v>
-      </c>
-      <c r="E23" s="435" t="s">
-        <v>582</v>
-      </c>
-      <c r="F23" s="436"/>
+      <c r="F23" s="445"/>
       <c r="G23" s="74"/>
       <c r="H23" s="74"/>
       <c r="I23" s="74"/>
@@ -15279,14 +15274,14 @@
       <c r="BW23" s="132"/>
     </row>
     <row r="24" spans="1:75" ht="15.6" customHeight="1">
-      <c r="A24" s="474"/>
-      <c r="B24" s="469"/>
-      <c r="C24" s="474"/>
-      <c r="D24" s="474"/>
-      <c r="E24" s="435" t="s">
-        <v>398</v>
+      <c r="A24" s="473"/>
+      <c r="B24" s="475"/>
+      <c r="C24" s="473"/>
+      <c r="D24" s="473"/>
+      <c r="E24" s="444" t="s">
+        <v>396</v>
       </c>
-      <c r="F24" s="436"/>
+      <c r="F24" s="445"/>
       <c r="G24" s="74"/>
       <c r="H24" s="74"/>
       <c r="I24" s="74"/>
@@ -15333,22 +15328,22 @@
       <c r="BW24" s="132"/>
     </row>
     <row r="25" spans="1:75" ht="15.6" customHeight="1">
-      <c r="A25" s="467" t="s">
+      <c r="A25" s="465" t="s">
+        <v>337</v>
+      </c>
+      <c r="B25" s="466" t="s">
+        <v>338</v>
+      </c>
+      <c r="C25" s="465" t="s">
         <v>339</v>
       </c>
-      <c r="B25" s="475" t="s">
+      <c r="D25" s="467" t="s">
         <v>340</v>
       </c>
-      <c r="C25" s="467" t="s">
-        <v>341</v>
+      <c r="E25" s="444" t="s">
+        <v>581</v>
       </c>
-      <c r="D25" s="470" t="s">
-        <v>342</v>
-      </c>
-      <c r="E25" s="435" t="s">
-        <v>583</v>
-      </c>
-      <c r="F25" s="436"/>
+      <c r="F25" s="445"/>
       <c r="G25" s="74"/>
       <c r="H25" s="74"/>
       <c r="I25" s="74"/>
@@ -15395,14 +15390,14 @@
       <c r="BW25" s="132"/>
     </row>
     <row r="26" spans="1:75">
-      <c r="A26" s="467"/>
-      <c r="B26" s="475"/>
-      <c r="C26" s="467"/>
-      <c r="D26" s="470"/>
-      <c r="E26" s="435" t="s">
-        <v>399</v>
+      <c r="A26" s="465"/>
+      <c r="B26" s="466"/>
+      <c r="C26" s="465"/>
+      <c r="D26" s="467"/>
+      <c r="E26" s="444" t="s">
+        <v>397</v>
       </c>
-      <c r="F26" s="436"/>
+      <c r="F26" s="445"/>
       <c r="G26" s="74"/>
       <c r="H26" s="74"/>
       <c r="I26" s="74"/>
@@ -15449,22 +15444,22 @@
       <c r="BW26" s="132"/>
     </row>
     <row r="27" spans="1:75" ht="15.6" customHeight="1">
-      <c r="A27" s="473" t="s">
+      <c r="A27" s="472" t="s">
+        <v>341</v>
+      </c>
+      <c r="B27" s="474" t="s">
+        <v>342</v>
+      </c>
+      <c r="C27" s="472" t="s">
         <v>343</v>
       </c>
-      <c r="B27" s="468" t="s">
+      <c r="D27" s="472" t="s">
         <v>344</v>
       </c>
-      <c r="C27" s="473" t="s">
-        <v>345</v>
+      <c r="E27" s="444" t="s">
+        <v>582</v>
       </c>
-      <c r="D27" s="473" t="s">
-        <v>346</v>
-      </c>
-      <c r="E27" s="435" t="s">
-        <v>584</v>
-      </c>
-      <c r="F27" s="436"/>
+      <c r="F27" s="445"/>
       <c r="G27" s="74"/>
       <c r="H27" s="74"/>
       <c r="I27" s="74"/>
@@ -15511,14 +15506,14 @@
       <c r="BW27" s="132"/>
     </row>
     <row r="28" spans="1:75" ht="15.6" customHeight="1">
-      <c r="A28" s="474"/>
-      <c r="B28" s="469"/>
-      <c r="C28" s="474"/>
-      <c r="D28" s="474"/>
-      <c r="E28" s="435" t="s">
-        <v>400</v>
+      <c r="A28" s="473"/>
+      <c r="B28" s="475"/>
+      <c r="C28" s="473"/>
+      <c r="D28" s="473"/>
+      <c r="E28" s="444" t="s">
+        <v>398</v>
       </c>
-      <c r="F28" s="436"/>
+      <c r="F28" s="445"/>
       <c r="G28" s="74"/>
       <c r="H28" s="74"/>
       <c r="I28" s="74"/>
@@ -15565,22 +15560,22 @@
       <c r="BW28" s="132"/>
     </row>
     <row r="29" spans="1:75" ht="15.6" customHeight="1">
-      <c r="A29" s="467" t="s">
+      <c r="A29" s="465" t="s">
+        <v>345</v>
+      </c>
+      <c r="B29" s="466" t="s">
+        <v>346</v>
+      </c>
+      <c r="C29" s="465" t="s">
         <v>347</v>
       </c>
-      <c r="B29" s="475" t="s">
+      <c r="D29" s="467" t="s">
         <v>348</v>
       </c>
-      <c r="C29" s="467" t="s">
-        <v>349</v>
+      <c r="E29" s="444" t="s">
+        <v>583</v>
       </c>
-      <c r="D29" s="470" t="s">
-        <v>350</v>
-      </c>
-      <c r="E29" s="435" t="s">
-        <v>585</v>
-      </c>
-      <c r="F29" s="436"/>
+      <c r="F29" s="445"/>
       <c r="G29" s="74"/>
       <c r="H29" s="74"/>
       <c r="I29" s="74"/>
@@ -15627,14 +15622,14 @@
       <c r="BW29" s="132"/>
     </row>
     <row r="30" spans="1:75">
-      <c r="A30" s="467"/>
-      <c r="B30" s="475"/>
-      <c r="C30" s="467"/>
-      <c r="D30" s="470"/>
-      <c r="E30" s="435" t="s">
-        <v>401</v>
+      <c r="A30" s="465"/>
+      <c r="B30" s="466"/>
+      <c r="C30" s="465"/>
+      <c r="D30" s="467"/>
+      <c r="E30" s="444" t="s">
+        <v>399</v>
       </c>
-      <c r="F30" s="436"/>
+      <c r="F30" s="445"/>
       <c r="G30" s="74"/>
       <c r="H30" s="74"/>
       <c r="I30" s="74"/>
@@ -15681,22 +15676,22 @@
       <c r="BW30" s="132"/>
     </row>
     <row r="31" spans="1:75" ht="15.6" customHeight="1">
-      <c r="A31" s="467" t="s">
+      <c r="A31" s="465" t="s">
+        <v>349</v>
+      </c>
+      <c r="B31" s="466" t="s">
+        <v>350</v>
+      </c>
+      <c r="C31" s="465" t="s">
         <v>351</v>
       </c>
-      <c r="B31" s="475" t="s">
+      <c r="D31" s="467" t="s">
         <v>352</v>
       </c>
-      <c r="C31" s="467" t="s">
-        <v>353</v>
+      <c r="E31" s="444" t="s">
+        <v>584</v>
       </c>
-      <c r="D31" s="470" t="s">
-        <v>354</v>
-      </c>
-      <c r="E31" s="435" t="s">
-        <v>586</v>
-      </c>
-      <c r="F31" s="436"/>
+      <c r="F31" s="445"/>
       <c r="G31" s="74"/>
       <c r="H31" s="74"/>
       <c r="I31" s="74"/>
@@ -15743,14 +15738,14 @@
       <c r="BW31" s="132"/>
     </row>
     <row r="32" spans="1:75">
-      <c r="A32" s="467"/>
-      <c r="B32" s="475"/>
-      <c r="C32" s="467"/>
-      <c r="D32" s="470"/>
-      <c r="E32" s="435" t="s">
-        <v>402</v>
+      <c r="A32" s="465"/>
+      <c r="B32" s="466"/>
+      <c r="C32" s="465"/>
+      <c r="D32" s="467"/>
+      <c r="E32" s="444" t="s">
+        <v>400</v>
       </c>
-      <c r="F32" s="436"/>
+      <c r="F32" s="445"/>
       <c r="G32" s="74"/>
       <c r="H32" s="74"/>
       <c r="I32" s="74"/>
@@ -15797,22 +15792,22 @@
       <c r="BW32" s="132"/>
     </row>
     <row r="33" spans="1:75" ht="15.6" customHeight="1">
-      <c r="A33" s="467" t="s">
+      <c r="A33" s="465" t="s">
+        <v>353</v>
+      </c>
+      <c r="B33" s="466" t="s">
+        <v>354</v>
+      </c>
+      <c r="C33" s="465" t="s">
         <v>355</v>
       </c>
-      <c r="B33" s="475" t="s">
+      <c r="D33" s="467" t="s">
         <v>356</v>
       </c>
-      <c r="C33" s="467" t="s">
-        <v>357</v>
+      <c r="E33" s="444" t="s">
+        <v>585</v>
       </c>
-      <c r="D33" s="470" t="s">
-        <v>358</v>
-      </c>
-      <c r="E33" s="435" t="s">
-        <v>587</v>
-      </c>
-      <c r="F33" s="436"/>
+      <c r="F33" s="445"/>
       <c r="G33" s="74"/>
       <c r="H33" s="74"/>
       <c r="I33" s="74"/>
@@ -15859,14 +15854,14 @@
       <c r="BW33" s="132"/>
     </row>
     <row r="34" spans="1:75">
-      <c r="A34" s="467"/>
-      <c r="B34" s="475"/>
-      <c r="C34" s="467"/>
-      <c r="D34" s="470"/>
-      <c r="E34" s="435" t="s">
-        <v>403</v>
+      <c r="A34" s="465"/>
+      <c r="B34" s="466"/>
+      <c r="C34" s="465"/>
+      <c r="D34" s="467"/>
+      <c r="E34" s="444" t="s">
+        <v>401</v>
       </c>
-      <c r="F34" s="436"/>
+      <c r="F34" s="445"/>
       <c r="G34" s="74"/>
       <c r="H34" s="74"/>
       <c r="I34" s="74"/>
@@ -15913,22 +15908,22 @@
       <c r="BW34" s="132"/>
     </row>
     <row r="35" spans="1:75" ht="15.6" customHeight="1">
-      <c r="A35" s="467" t="s">
+      <c r="A35" s="465" t="s">
+        <v>357</v>
+      </c>
+      <c r="B35" s="466" t="s">
+        <v>358</v>
+      </c>
+      <c r="C35" s="465" t="s">
         <v>359</v>
       </c>
-      <c r="B35" s="475" t="s">
+      <c r="D35" s="467" t="s">
         <v>360</v>
       </c>
-      <c r="C35" s="467" t="s">
-        <v>361</v>
+      <c r="E35" s="444" t="s">
+        <v>586</v>
       </c>
-      <c r="D35" s="470" t="s">
-        <v>362</v>
-      </c>
-      <c r="E35" s="435" t="s">
-        <v>588</v>
-      </c>
-      <c r="F35" s="436"/>
+      <c r="F35" s="445"/>
       <c r="G35" s="74"/>
       <c r="H35" s="74"/>
       <c r="I35" s="74"/>
@@ -15975,14 +15970,14 @@
       <c r="BW35" s="132"/>
     </row>
     <row r="36" spans="1:75">
-      <c r="A36" s="467"/>
-      <c r="B36" s="475"/>
-      <c r="C36" s="467"/>
-      <c r="D36" s="470"/>
-      <c r="E36" s="435" t="s">
-        <v>404</v>
+      <c r="A36" s="465"/>
+      <c r="B36" s="466"/>
+      <c r="C36" s="465"/>
+      <c r="D36" s="467"/>
+      <c r="E36" s="444" t="s">
+        <v>402</v>
       </c>
-      <c r="F36" s="436"/>
+      <c r="F36" s="445"/>
       <c r="G36" s="74"/>
       <c r="H36" s="74"/>
       <c r="I36" s="74"/>
@@ -16029,22 +16024,22 @@
       <c r="BW36" s="132"/>
     </row>
     <row r="37" spans="1:75" ht="15.6" customHeight="1">
-      <c r="A37" s="467" t="s">
+      <c r="A37" s="465" t="s">
+        <v>361</v>
+      </c>
+      <c r="B37" s="466" t="s">
+        <v>362</v>
+      </c>
+      <c r="C37" s="465" t="s">
         <v>363</v>
       </c>
-      <c r="B37" s="475" t="s">
+      <c r="D37" s="467" t="s">
         <v>364</v>
       </c>
-      <c r="C37" s="467" t="s">
-        <v>365</v>
+      <c r="E37" s="444" t="s">
+        <v>587</v>
       </c>
-      <c r="D37" s="470" t="s">
-        <v>366</v>
-      </c>
-      <c r="E37" s="435" t="s">
-        <v>589</v>
-      </c>
-      <c r="F37" s="436"/>
+      <c r="F37" s="445"/>
       <c r="G37" s="74"/>
       <c r="H37" s="74"/>
       <c r="I37" s="74"/>
@@ -16091,14 +16086,14 @@
       <c r="BW37" s="132"/>
     </row>
     <row r="38" spans="1:75">
-      <c r="A38" s="467"/>
-      <c r="B38" s="475"/>
-      <c r="C38" s="467"/>
-      <c r="D38" s="470"/>
-      <c r="E38" s="435" t="s">
-        <v>405</v>
+      <c r="A38" s="465"/>
+      <c r="B38" s="466"/>
+      <c r="C38" s="465"/>
+      <c r="D38" s="467"/>
+      <c r="E38" s="444" t="s">
+        <v>403</v>
       </c>
-      <c r="F38" s="436"/>
+      <c r="F38" s="445"/>
       <c r="G38" s="74"/>
       <c r="H38" s="74"/>
       <c r="I38" s="74"/>
@@ -16145,22 +16140,22 @@
       <c r="BW38" s="132"/>
     </row>
     <row r="39" spans="1:75" ht="15.6" customHeight="1">
-      <c r="A39" s="467" t="s">
+      <c r="A39" s="465" t="s">
+        <v>365</v>
+      </c>
+      <c r="B39" s="466" t="s">
+        <v>366</v>
+      </c>
+      <c r="C39" s="465" t="s">
         <v>367</v>
       </c>
-      <c r="B39" s="475" t="s">
+      <c r="D39" s="467" t="s">
         <v>368</v>
       </c>
-      <c r="C39" s="467" t="s">
-        <v>369</v>
+      <c r="E39" s="444" t="s">
+        <v>588</v>
       </c>
-      <c r="D39" s="470" t="s">
-        <v>370</v>
-      </c>
-      <c r="E39" s="435" t="s">
-        <v>590</v>
-      </c>
-      <c r="F39" s="436"/>
+      <c r="F39" s="445"/>
       <c r="G39" s="74"/>
       <c r="H39" s="74"/>
       <c r="I39" s="74"/>
@@ -16207,14 +16202,14 @@
       <c r="BW39" s="132"/>
     </row>
     <row r="40" spans="1:75">
-      <c r="A40" s="467"/>
-      <c r="B40" s="475"/>
-      <c r="C40" s="467"/>
-      <c r="D40" s="470"/>
-      <c r="E40" s="435" t="s">
-        <v>406</v>
+      <c r="A40" s="465"/>
+      <c r="B40" s="466"/>
+      <c r="C40" s="465"/>
+      <c r="D40" s="467"/>
+      <c r="E40" s="444" t="s">
+        <v>404</v>
       </c>
-      <c r="F40" s="436"/>
+      <c r="F40" s="445"/>
       <c r="G40" s="74"/>
       <c r="H40" s="74"/>
       <c r="I40" s="74"/>
@@ -16285,18 +16280,18 @@
       <c r="BW40" s="134"/>
     </row>
     <row r="41" spans="1:75" ht="22.2" customHeight="1">
-      <c r="A41" s="483" t="s">
-        <v>570</v>
+      <c r="A41" s="436" t="s">
+        <v>568</v>
       </c>
-      <c r="B41" s="484"/>
-      <c r="C41" s="484"/>
-      <c r="D41" s="484"/>
-      <c r="E41" s="485"/>
-      <c r="F41" s="486"/>
-      <c r="G41" s="481" t="s">
-        <v>515</v>
+      <c r="B41" s="437"/>
+      <c r="C41" s="437"/>
+      <c r="D41" s="437"/>
+      <c r="E41" s="438"/>
+      <c r="F41" s="439"/>
+      <c r="G41" s="440" t="s">
+        <v>513</v>
       </c>
-      <c r="H41" s="482"/>
+      <c r="H41" s="441"/>
       <c r="I41" s="74"/>
       <c r="J41" s="74"/>
       <c r="K41" s="74"/>
@@ -16364,18 +16359,18 @@
       <c r="BW41" s="105"/>
     </row>
     <row r="42" spans="1:75" ht="21.6" customHeight="1">
-      <c r="A42" s="483" t="s">
-        <v>569</v>
+      <c r="A42" s="436" t="s">
+        <v>567</v>
       </c>
-      <c r="B42" s="484"/>
-      <c r="C42" s="484"/>
-      <c r="D42" s="484"/>
-      <c r="E42" s="485"/>
-      <c r="F42" s="486"/>
-      <c r="G42" s="481" t="s">
-        <v>563</v>
+      <c r="B42" s="437"/>
+      <c r="C42" s="437"/>
+      <c r="D42" s="437"/>
+      <c r="E42" s="438"/>
+      <c r="F42" s="439"/>
+      <c r="G42" s="440" t="s">
+        <v>561</v>
       </c>
-      <c r="H42" s="482"/>
+      <c r="H42" s="441"/>
       <c r="I42" s="74"/>
       <c r="J42" s="74"/>
       <c r="K42" s="74"/>
@@ -16443,18 +16438,18 @@
       <c r="BW42" s="105"/>
     </row>
     <row r="43" spans="1:75" ht="37.799999999999997" customHeight="1">
-      <c r="A43" s="508" t="s">
-        <v>571</v>
+      <c r="A43" s="452" t="s">
+        <v>569</v>
       </c>
-      <c r="B43" s="509"/>
-      <c r="C43" s="509"/>
-      <c r="D43" s="509"/>
-      <c r="E43" s="509"/>
-      <c r="F43" s="510"/>
-      <c r="G43" s="504" t="s">
-        <v>529</v>
+      <c r="B43" s="453"/>
+      <c r="C43" s="453"/>
+      <c r="D43" s="453"/>
+      <c r="E43" s="453"/>
+      <c r="F43" s="454"/>
+      <c r="G43" s="442" t="s">
+        <v>527</v>
       </c>
-      <c r="H43" s="505"/>
+      <c r="H43" s="443"/>
       <c r="I43" s="74"/>
       <c r="J43" s="74"/>
       <c r="K43" s="74"/>
@@ -16522,18 +16517,18 @@
       <c r="BW43" s="105"/>
     </row>
     <row r="44" spans="1:75">
-      <c r="A44" s="442" t="s">
-        <v>509</v>
+      <c r="A44" s="446" t="s">
+        <v>507</v>
       </c>
-      <c r="B44" s="443"/>
-      <c r="C44" s="446" t="s">
-        <v>510</v>
+      <c r="B44" s="447"/>
+      <c r="C44" s="432" t="s">
+        <v>508</v>
       </c>
-      <c r="D44" s="447"/>
-      <c r="E44" s="435" t="s">
-        <v>564</v>
+      <c r="D44" s="433"/>
+      <c r="E44" s="444" t="s">
+        <v>562</v>
       </c>
-      <c r="F44" s="436"/>
+      <c r="F44" s="445"/>
       <c r="G44" s="187"/>
       <c r="H44" s="187"/>
       <c r="I44" s="74"/>
@@ -16603,12 +16598,12 @@
       <c r="BW44" s="105"/>
     </row>
     <row r="45" spans="1:75" ht="15.6" hidden="1" customHeight="1">
-      <c r="A45" s="444"/>
-      <c r="B45" s="445"/>
-      <c r="C45" s="446"/>
-      <c r="D45" s="447"/>
-      <c r="E45" s="435"/>
-      <c r="F45" s="436"/>
+      <c r="A45" s="448"/>
+      <c r="B45" s="449"/>
+      <c r="C45" s="432"/>
+      <c r="D45" s="433"/>
+      <c r="E45" s="444"/>
+      <c r="F45" s="445"/>
       <c r="G45" s="187"/>
       <c r="H45" s="187"/>
       <c r="I45" s="74"/>
@@ -16678,16 +16673,16 @@
       <c r="BW45" s="105"/>
     </row>
     <row r="46" spans="1:75">
-      <c r="A46" s="444"/>
-      <c r="B46" s="445"/>
-      <c r="C46" s="446" t="s">
-        <v>511</v>
+      <c r="A46" s="448"/>
+      <c r="B46" s="449"/>
+      <c r="C46" s="432" t="s">
+        <v>509</v>
       </c>
-      <c r="D46" s="447"/>
-      <c r="E46" s="435" t="s">
-        <v>565</v>
+      <c r="D46" s="433"/>
+      <c r="E46" s="444" t="s">
+        <v>563</v>
       </c>
-      <c r="F46" s="436"/>
+      <c r="F46" s="445"/>
       <c r="G46" s="187"/>
       <c r="H46" s="187"/>
       <c r="I46" s="74"/>
@@ -16757,12 +16752,12 @@
       <c r="BW46" s="105"/>
     </row>
     <row r="47" spans="1:75" ht="15.6" hidden="1" customHeight="1">
-      <c r="A47" s="444"/>
-      <c r="B47" s="445"/>
-      <c r="C47" s="446"/>
-      <c r="D47" s="447"/>
-      <c r="E47" s="435"/>
-      <c r="F47" s="436"/>
+      <c r="A47" s="448"/>
+      <c r="B47" s="449"/>
+      <c r="C47" s="432"/>
+      <c r="D47" s="433"/>
+      <c r="E47" s="444"/>
+      <c r="F47" s="445"/>
       <c r="G47" s="187"/>
       <c r="H47" s="187"/>
       <c r="I47" s="74"/>
@@ -16832,16 +16827,16 @@
       <c r="BW47" s="105"/>
     </row>
     <row r="48" spans="1:75">
-      <c r="A48" s="444"/>
-      <c r="B48" s="445"/>
-      <c r="C48" s="446" t="s">
-        <v>512</v>
+      <c r="A48" s="448"/>
+      <c r="B48" s="449"/>
+      <c r="C48" s="432" t="s">
+        <v>510</v>
       </c>
-      <c r="D48" s="447"/>
-      <c r="E48" s="435" t="s">
-        <v>566</v>
+      <c r="D48" s="433"/>
+      <c r="E48" s="444" t="s">
+        <v>564</v>
       </c>
-      <c r="F48" s="436"/>
+      <c r="F48" s="445"/>
       <c r="G48" s="187"/>
       <c r="H48" s="187"/>
       <c r="I48" s="74"/>
@@ -16911,12 +16906,12 @@
       <c r="BW48" s="105"/>
     </row>
     <row r="49" spans="1:75" ht="15.6" hidden="1" customHeight="1">
-      <c r="A49" s="444"/>
-      <c r="B49" s="445"/>
-      <c r="C49" s="446"/>
-      <c r="D49" s="447"/>
-      <c r="E49" s="435"/>
-      <c r="F49" s="436"/>
+      <c r="A49" s="448"/>
+      <c r="B49" s="449"/>
+      <c r="C49" s="432"/>
+      <c r="D49" s="433"/>
+      <c r="E49" s="444"/>
+      <c r="F49" s="445"/>
       <c r="G49" s="187"/>
       <c r="H49" s="187"/>
       <c r="I49" s="74"/>
@@ -16986,16 +16981,16 @@
       <c r="BW49" s="105"/>
     </row>
     <row r="50" spans="1:75">
-      <c r="A50" s="444"/>
-      <c r="B50" s="445"/>
-      <c r="C50" s="446" t="s">
-        <v>513</v>
+      <c r="A50" s="448"/>
+      <c r="B50" s="449"/>
+      <c r="C50" s="432" t="s">
+        <v>511</v>
       </c>
-      <c r="D50" s="447"/>
-      <c r="E50" s="435" t="s">
-        <v>567</v>
+      <c r="D50" s="433"/>
+      <c r="E50" s="444" t="s">
+        <v>565</v>
       </c>
-      <c r="F50" s="436"/>
+      <c r="F50" s="445"/>
       <c r="G50" s="187"/>
       <c r="H50" s="187"/>
       <c r="I50" s="74"/>
@@ -17065,12 +17060,12 @@
       <c r="BW50" s="105"/>
     </row>
     <row r="51" spans="1:75" ht="15.6" hidden="1" customHeight="1">
-      <c r="A51" s="444"/>
-      <c r="B51" s="445"/>
-      <c r="C51" s="446"/>
-      <c r="D51" s="447"/>
-      <c r="E51" s="435"/>
-      <c r="F51" s="436"/>
+      <c r="A51" s="448"/>
+      <c r="B51" s="449"/>
+      <c r="C51" s="432"/>
+      <c r="D51" s="433"/>
+      <c r="E51" s="444"/>
+      <c r="F51" s="445"/>
       <c r="G51" s="187"/>
       <c r="H51" s="187"/>
       <c r="I51" s="74"/>
@@ -17140,16 +17135,16 @@
       <c r="BW51" s="105"/>
     </row>
     <row r="52" spans="1:75">
-      <c r="A52" s="444"/>
-      <c r="B52" s="445"/>
-      <c r="C52" s="446" t="s">
-        <v>514</v>
+      <c r="A52" s="448"/>
+      <c r="B52" s="449"/>
+      <c r="C52" s="432" t="s">
+        <v>512</v>
       </c>
-      <c r="D52" s="447"/>
-      <c r="E52" s="435" t="s">
-        <v>568</v>
+      <c r="D52" s="433"/>
+      <c r="E52" s="444" t="s">
+        <v>566</v>
       </c>
-      <c r="F52" s="436"/>
+      <c r="F52" s="445"/>
       <c r="G52" s="187"/>
       <c r="H52" s="187"/>
       <c r="I52" s="74"/>
@@ -17219,12 +17214,12 @@
       <c r="BW52" s="105"/>
     </row>
     <row r="53" spans="1:75" ht="15.6" hidden="1" customHeight="1">
-      <c r="A53" s="506"/>
-      <c r="B53" s="507"/>
-      <c r="C53" s="502"/>
-      <c r="D53" s="503"/>
-      <c r="E53" s="435"/>
-      <c r="F53" s="436"/>
+      <c r="A53" s="450"/>
+      <c r="B53" s="451"/>
+      <c r="C53" s="434"/>
+      <c r="D53" s="435"/>
+      <c r="E53" s="444"/>
+      <c r="F53" s="445"/>
       <c r="G53" s="187"/>
       <c r="H53" s="187"/>
       <c r="I53" s="74"/>
@@ -17294,18 +17289,18 @@
       <c r="BW53" s="105"/>
     </row>
     <row r="54" spans="1:75" s="136" customFormat="1" ht="15" customHeight="1">
-      <c r="A54" s="448" t="s">
-        <v>302</v>
+      <c r="A54" s="498" t="s">
+        <v>300</v>
       </c>
-      <c r="B54" s="449"/>
-      <c r="C54" s="431" t="s">
-        <v>371</v>
+      <c r="B54" s="499"/>
+      <c r="C54" s="502" t="s">
+        <v>369</v>
       </c>
-      <c r="D54" s="432"/>
-      <c r="E54" s="435" t="s">
-        <v>440</v>
+      <c r="D54" s="503"/>
+      <c r="E54" s="444" t="s">
+        <v>438</v>
       </c>
-      <c r="F54" s="436"/>
+      <c r="F54" s="445"/>
       <c r="G54" s="74"/>
       <c r="H54" s="74"/>
       <c r="I54" s="74"/>
@@ -17375,14 +17370,14 @@
       <c r="BW54" s="137"/>
     </row>
     <row r="55" spans="1:75" s="136" customFormat="1" ht="15.6" customHeight="1">
-      <c r="A55" s="450"/>
-      <c r="B55" s="451"/>
-      <c r="C55" s="433"/>
-      <c r="D55" s="434"/>
-      <c r="E55" s="435" t="s">
-        <v>407</v>
+      <c r="A55" s="500"/>
+      <c r="B55" s="501"/>
+      <c r="C55" s="504"/>
+      <c r="D55" s="505"/>
+      <c r="E55" s="444" t="s">
+        <v>405</v>
       </c>
-      <c r="F55" s="436"/>
+      <c r="F55" s="445"/>
       <c r="G55" s="74"/>
       <c r="H55" s="74"/>
       <c r="I55" s="74"/>
@@ -17452,16 +17447,16 @@
       <c r="BW55" s="137"/>
     </row>
     <row r="56" spans="1:75" s="136" customFormat="1" ht="15.6" customHeight="1">
-      <c r="A56" s="450"/>
-      <c r="B56" s="451"/>
-      <c r="C56" s="431" t="s">
-        <v>372</v>
+      <c r="A56" s="500"/>
+      <c r="B56" s="501"/>
+      <c r="C56" s="502" t="s">
+        <v>370</v>
       </c>
-      <c r="D56" s="432"/>
-      <c r="E56" s="435" t="s">
-        <v>441</v>
+      <c r="D56" s="503"/>
+      <c r="E56" s="444" t="s">
+        <v>439</v>
       </c>
-      <c r="F56" s="436"/>
+      <c r="F56" s="445"/>
       <c r="G56" s="74"/>
       <c r="H56" s="74"/>
       <c r="I56" s="74"/>
@@ -17531,14 +17526,14 @@
       <c r="BW56" s="137"/>
     </row>
     <row r="57" spans="1:75" s="136" customFormat="1" ht="15.6" customHeight="1">
-      <c r="A57" s="450"/>
-      <c r="B57" s="451"/>
-      <c r="C57" s="433"/>
-      <c r="D57" s="434"/>
-      <c r="E57" s="435" t="s">
-        <v>408</v>
+      <c r="A57" s="500"/>
+      <c r="B57" s="501"/>
+      <c r="C57" s="504"/>
+      <c r="D57" s="505"/>
+      <c r="E57" s="444" t="s">
+        <v>406</v>
       </c>
-      <c r="F57" s="436"/>
+      <c r="F57" s="445"/>
       <c r="G57" s="74"/>
       <c r="H57" s="74"/>
       <c r="I57" s="74"/>
@@ -17608,16 +17603,16 @@
       <c r="BW57" s="137"/>
     </row>
     <row r="58" spans="1:75" s="136" customFormat="1" ht="15.6" customHeight="1">
-      <c r="A58" s="450"/>
-      <c r="B58" s="451"/>
-      <c r="C58" s="431" t="s">
-        <v>373</v>
+      <c r="A58" s="500"/>
+      <c r="B58" s="501"/>
+      <c r="C58" s="502" t="s">
+        <v>371</v>
       </c>
-      <c r="D58" s="432"/>
-      <c r="E58" s="435" t="s">
-        <v>442</v>
+      <c r="D58" s="503"/>
+      <c r="E58" s="444" t="s">
+        <v>440</v>
       </c>
-      <c r="F58" s="436"/>
+      <c r="F58" s="445"/>
       <c r="G58" s="74"/>
       <c r="H58" s="74"/>
       <c r="I58" s="74"/>
@@ -17642,10 +17637,10 @@
       <c r="AD58" s="74"/>
       <c r="AE58" s="74"/>
       <c r="AF58" s="74"/>
-      <c r="AG58" s="455"/>
-      <c r="AH58" s="455"/>
-      <c r="AI58" s="455"/>
-      <c r="AJ58" s="455"/>
+      <c r="AG58" s="484"/>
+      <c r="AH58" s="484"/>
+      <c r="AI58" s="484"/>
+      <c r="AJ58" s="484"/>
       <c r="AK58" s="137"/>
       <c r="AL58" s="137"/>
       <c r="AM58" s="137"/>
@@ -17687,14 +17682,14 @@
       <c r="BW58" s="137"/>
     </row>
     <row r="59" spans="1:75" s="136" customFormat="1" ht="15.6" customHeight="1">
-      <c r="A59" s="450"/>
-      <c r="B59" s="451"/>
-      <c r="C59" s="433"/>
-      <c r="D59" s="434"/>
-      <c r="E59" s="435" t="s">
-        <v>409</v>
+      <c r="A59" s="500"/>
+      <c r="B59" s="501"/>
+      <c r="C59" s="504"/>
+      <c r="D59" s="505"/>
+      <c r="E59" s="444" t="s">
+        <v>407</v>
       </c>
-      <c r="F59" s="436"/>
+      <c r="F59" s="445"/>
       <c r="G59" s="74"/>
       <c r="H59" s="74"/>
       <c r="I59" s="74"/>
@@ -17764,16 +17759,16 @@
       <c r="BW59" s="137"/>
     </row>
     <row r="60" spans="1:75" s="136" customFormat="1" ht="15.6" customHeight="1">
-      <c r="A60" s="450"/>
-      <c r="B60" s="451"/>
-      <c r="C60" s="431" t="s">
-        <v>374</v>
+      <c r="A60" s="500"/>
+      <c r="B60" s="501"/>
+      <c r="C60" s="502" t="s">
+        <v>372</v>
       </c>
-      <c r="D60" s="432"/>
-      <c r="E60" s="435" t="s">
-        <v>443</v>
+      <c r="D60" s="503"/>
+      <c r="E60" s="444" t="s">
+        <v>441</v>
       </c>
-      <c r="F60" s="436"/>
+      <c r="F60" s="445"/>
       <c r="G60" s="74"/>
       <c r="H60" s="74"/>
       <c r="I60" s="74"/>
@@ -17798,10 +17793,10 @@
       <c r="AD60" s="74"/>
       <c r="AE60" s="74"/>
       <c r="AF60" s="74"/>
-      <c r="AG60" s="455"/>
-      <c r="AH60" s="455"/>
-      <c r="AI60" s="455"/>
-      <c r="AJ60" s="455"/>
+      <c r="AG60" s="484"/>
+      <c r="AH60" s="484"/>
+      <c r="AI60" s="484"/>
+      <c r="AJ60" s="484"/>
       <c r="AK60" s="137"/>
       <c r="AL60" s="137"/>
       <c r="AM60" s="137"/>
@@ -17843,14 +17838,14 @@
       <c r="BW60" s="137"/>
     </row>
     <row r="61" spans="1:75" s="136" customFormat="1" ht="15.6" customHeight="1">
-      <c r="A61" s="450"/>
-      <c r="B61" s="451"/>
-      <c r="C61" s="433"/>
-      <c r="D61" s="434"/>
-      <c r="E61" s="435" t="s">
-        <v>410</v>
+      <c r="A61" s="500"/>
+      <c r="B61" s="501"/>
+      <c r="C61" s="504"/>
+      <c r="D61" s="505"/>
+      <c r="E61" s="444" t="s">
+        <v>408</v>
       </c>
-      <c r="F61" s="436"/>
+      <c r="F61" s="445"/>
       <c r="G61" s="74"/>
       <c r="H61" s="74"/>
       <c r="I61" s="74"/>
@@ -17920,16 +17915,16 @@
       <c r="BW61" s="137"/>
     </row>
     <row r="62" spans="1:75" s="136" customFormat="1" ht="15.6" customHeight="1">
-      <c r="A62" s="450"/>
-      <c r="B62" s="451"/>
-      <c r="C62" s="431" t="s">
-        <v>375</v>
+      <c r="A62" s="500"/>
+      <c r="B62" s="501"/>
+      <c r="C62" s="502" t="s">
+        <v>373</v>
       </c>
-      <c r="D62" s="432"/>
-      <c r="E62" s="435" t="s">
-        <v>444</v>
+      <c r="D62" s="503"/>
+      <c r="E62" s="444" t="s">
+        <v>442</v>
       </c>
-      <c r="F62" s="436"/>
+      <c r="F62" s="445"/>
       <c r="G62" s="74"/>
       <c r="H62" s="74"/>
       <c r="I62" s="74"/>
@@ -17954,10 +17949,10 @@
       <c r="AD62" s="74"/>
       <c r="AE62" s="74"/>
       <c r="AF62" s="74"/>
-      <c r="AG62" s="455"/>
-      <c r="AH62" s="455"/>
-      <c r="AI62" s="455"/>
-      <c r="AJ62" s="455"/>
+      <c r="AG62" s="484"/>
+      <c r="AH62" s="484"/>
+      <c r="AI62" s="484"/>
+      <c r="AJ62" s="484"/>
       <c r="AK62" s="137"/>
       <c r="AL62" s="137"/>
       <c r="AM62" s="137"/>
@@ -17999,14 +17994,14 @@
       <c r="BW62" s="137"/>
     </row>
     <row r="63" spans="1:75" s="136" customFormat="1" ht="15.6" customHeight="1">
-      <c r="A63" s="450"/>
-      <c r="B63" s="451"/>
-      <c r="C63" s="433"/>
-      <c r="D63" s="434"/>
-      <c r="E63" s="435" t="s">
-        <v>411</v>
+      <c r="A63" s="500"/>
+      <c r="B63" s="501"/>
+      <c r="C63" s="504"/>
+      <c r="D63" s="505"/>
+      <c r="E63" s="444" t="s">
+        <v>409</v>
       </c>
-      <c r="F63" s="436"/>
+      <c r="F63" s="445"/>
       <c r="G63" s="74"/>
       <c r="H63" s="74"/>
       <c r="I63" s="74"/>
@@ -18076,16 +18071,16 @@
       <c r="BW63" s="137"/>
     </row>
     <row r="64" spans="1:75" s="136" customFormat="1" ht="15.6" customHeight="1">
-      <c r="A64" s="450"/>
-      <c r="B64" s="451"/>
-      <c r="C64" s="431" t="s">
-        <v>376</v>
+      <c r="A64" s="500"/>
+      <c r="B64" s="501"/>
+      <c r="C64" s="502" t="s">
+        <v>374</v>
       </c>
-      <c r="D64" s="432"/>
-      <c r="E64" s="435" t="s">
-        <v>445</v>
+      <c r="D64" s="503"/>
+      <c r="E64" s="444" t="s">
+        <v>443</v>
       </c>
-      <c r="F64" s="436"/>
+      <c r="F64" s="445"/>
       <c r="G64" s="74"/>
       <c r="H64" s="74"/>
       <c r="I64" s="74"/>
@@ -18110,10 +18105,10 @@
       <c r="AD64" s="74"/>
       <c r="AE64" s="74"/>
       <c r="AF64" s="74"/>
-      <c r="AG64" s="455"/>
-      <c r="AH64" s="455"/>
-      <c r="AI64" s="455"/>
-      <c r="AJ64" s="455"/>
+      <c r="AG64" s="484"/>
+      <c r="AH64" s="484"/>
+      <c r="AI64" s="484"/>
+      <c r="AJ64" s="484"/>
       <c r="AK64" s="137"/>
       <c r="AL64" s="137"/>
       <c r="AM64" s="137"/>
@@ -18155,14 +18150,14 @@
       <c r="BW64" s="137"/>
     </row>
     <row r="65" spans="1:75" s="136" customFormat="1" ht="15.6" customHeight="1">
-      <c r="A65" s="450"/>
-      <c r="B65" s="451"/>
-      <c r="C65" s="433"/>
-      <c r="D65" s="434"/>
-      <c r="E65" s="435" t="s">
-        <v>412</v>
+      <c r="A65" s="500"/>
+      <c r="B65" s="501"/>
+      <c r="C65" s="504"/>
+      <c r="D65" s="505"/>
+      <c r="E65" s="444" t="s">
+        <v>410</v>
       </c>
-      <c r="F65" s="436"/>
+      <c r="F65" s="445"/>
       <c r="G65" s="74"/>
       <c r="H65" s="74"/>
       <c r="I65" s="74"/>
@@ -18232,16 +18227,16 @@
       <c r="BW65" s="137"/>
     </row>
     <row r="66" spans="1:75" s="136" customFormat="1" ht="15.6" customHeight="1">
-      <c r="A66" s="450"/>
-      <c r="B66" s="451"/>
-      <c r="C66" s="431" t="s">
-        <v>377</v>
+      <c r="A66" s="500"/>
+      <c r="B66" s="501"/>
+      <c r="C66" s="502" t="s">
+        <v>375</v>
       </c>
-      <c r="D66" s="432"/>
-      <c r="E66" s="435" t="s">
-        <v>446</v>
+      <c r="D66" s="503"/>
+      <c r="E66" s="444" t="s">
+        <v>444</v>
       </c>
-      <c r="F66" s="436"/>
+      <c r="F66" s="445"/>
       <c r="G66" s="74"/>
       <c r="H66" s="74"/>
       <c r="I66" s="74"/>
@@ -18266,10 +18261,10 @@
       <c r="AD66" s="74"/>
       <c r="AE66" s="74"/>
       <c r="AF66" s="74"/>
-      <c r="AG66" s="455"/>
-      <c r="AH66" s="455"/>
-      <c r="AI66" s="455"/>
-      <c r="AJ66" s="455"/>
+      <c r="AG66" s="484"/>
+      <c r="AH66" s="484"/>
+      <c r="AI66" s="484"/>
+      <c r="AJ66" s="484"/>
       <c r="AK66" s="137"/>
       <c r="AL66" s="137"/>
       <c r="AM66" s="137"/>
@@ -18311,14 +18306,14 @@
       <c r="BW66" s="137"/>
     </row>
     <row r="67" spans="1:75" s="136" customFormat="1" ht="15.6" customHeight="1">
-      <c r="A67" s="450"/>
-      <c r="B67" s="451"/>
-      <c r="C67" s="433"/>
-      <c r="D67" s="434"/>
-      <c r="E67" s="435" t="s">
-        <v>413</v>
+      <c r="A67" s="500"/>
+      <c r="B67" s="501"/>
+      <c r="C67" s="504"/>
+      <c r="D67" s="505"/>
+      <c r="E67" s="444" t="s">
+        <v>411</v>
       </c>
-      <c r="F67" s="436"/>
+      <c r="F67" s="445"/>
       <c r="G67" s="74"/>
       <c r="H67" s="74"/>
       <c r="I67" s="74"/>
@@ -18388,16 +18383,16 @@
       <c r="BW67" s="137"/>
     </row>
     <row r="68" spans="1:75" s="136" customFormat="1" ht="15.6" customHeight="1">
-      <c r="A68" s="450"/>
-      <c r="B68" s="451"/>
-      <c r="C68" s="431" t="s">
-        <v>378</v>
+      <c r="A68" s="500"/>
+      <c r="B68" s="501"/>
+      <c r="C68" s="502" t="s">
+        <v>376</v>
       </c>
-      <c r="D68" s="432"/>
-      <c r="E68" s="435" t="s">
-        <v>447</v>
+      <c r="D68" s="503"/>
+      <c r="E68" s="444" t="s">
+        <v>445</v>
       </c>
-      <c r="F68" s="436"/>
+      <c r="F68" s="445"/>
       <c r="G68" s="74"/>
       <c r="H68" s="74"/>
       <c r="I68" s="74"/>
@@ -18422,10 +18417,10 @@
       <c r="AD68" s="74"/>
       <c r="AE68" s="74"/>
       <c r="AF68" s="74"/>
-      <c r="AG68" s="455"/>
-      <c r="AH68" s="455"/>
-      <c r="AI68" s="455"/>
-      <c r="AJ68" s="455"/>
+      <c r="AG68" s="484"/>
+      <c r="AH68" s="484"/>
+      <c r="AI68" s="484"/>
+      <c r="AJ68" s="484"/>
       <c r="AK68" s="137"/>
       <c r="AL68" s="137"/>
       <c r="AM68" s="137"/>
@@ -18467,14 +18462,14 @@
       <c r="BW68" s="137"/>
     </row>
     <row r="69" spans="1:75" s="136" customFormat="1" ht="15.6" customHeight="1">
-      <c r="A69" s="450"/>
-      <c r="B69" s="451"/>
-      <c r="C69" s="433"/>
-      <c r="D69" s="434"/>
-      <c r="E69" s="435" t="s">
-        <v>414</v>
+      <c r="A69" s="500"/>
+      <c r="B69" s="501"/>
+      <c r="C69" s="504"/>
+      <c r="D69" s="505"/>
+      <c r="E69" s="444" t="s">
+        <v>412</v>
       </c>
-      <c r="F69" s="436"/>
+      <c r="F69" s="445"/>
       <c r="G69" s="74"/>
       <c r="H69" s="74"/>
       <c r="I69" s="74"/>
@@ -18544,16 +18539,16 @@
       <c r="BW69" s="137"/>
     </row>
     <row r="70" spans="1:75" s="136" customFormat="1" ht="15.6" customHeight="1">
-      <c r="A70" s="450"/>
-      <c r="B70" s="451"/>
-      <c r="C70" s="431" t="s">
-        <v>379</v>
+      <c r="A70" s="500"/>
+      <c r="B70" s="501"/>
+      <c r="C70" s="502" t="s">
+        <v>377</v>
       </c>
-      <c r="D70" s="432"/>
-      <c r="E70" s="435" t="s">
-        <v>448</v>
+      <c r="D70" s="503"/>
+      <c r="E70" s="444" t="s">
+        <v>446</v>
       </c>
-      <c r="F70" s="436"/>
+      <c r="F70" s="445"/>
       <c r="G70" s="74"/>
       <c r="H70" s="74"/>
       <c r="I70" s="74"/>
@@ -18578,10 +18573,10 @@
       <c r="AD70" s="74"/>
       <c r="AE70" s="74"/>
       <c r="AF70" s="74"/>
-      <c r="AG70" s="455"/>
-      <c r="AH70" s="455"/>
-      <c r="AI70" s="455"/>
-      <c r="AJ70" s="455"/>
+      <c r="AG70" s="484"/>
+      <c r="AH70" s="484"/>
+      <c r="AI70" s="484"/>
+      <c r="AJ70" s="484"/>
       <c r="AK70" s="137"/>
       <c r="AL70" s="139"/>
       <c r="AM70" s="137"/>
@@ -18623,14 +18618,14 @@
       <c r="BW70" s="137"/>
     </row>
     <row r="71" spans="1:75" s="136" customFormat="1" ht="15.6" customHeight="1">
-      <c r="A71" s="450"/>
-      <c r="B71" s="451"/>
-      <c r="C71" s="433"/>
-      <c r="D71" s="434"/>
-      <c r="E71" s="435" t="s">
-        <v>415</v>
+      <c r="A71" s="500"/>
+      <c r="B71" s="501"/>
+      <c r="C71" s="504"/>
+      <c r="D71" s="505"/>
+      <c r="E71" s="444" t="s">
+        <v>413</v>
       </c>
-      <c r="F71" s="436"/>
+      <c r="F71" s="445"/>
       <c r="G71" s="74"/>
       <c r="H71" s="74"/>
       <c r="I71" s="74"/>
@@ -18700,16 +18695,16 @@
       <c r="BW71" s="137"/>
     </row>
     <row r="72" spans="1:75" s="136" customFormat="1" ht="15.6" customHeight="1">
-      <c r="A72" s="450"/>
-      <c r="B72" s="451"/>
-      <c r="C72" s="431" t="s">
-        <v>380</v>
+      <c r="A72" s="500"/>
+      <c r="B72" s="501"/>
+      <c r="C72" s="502" t="s">
+        <v>378</v>
       </c>
-      <c r="D72" s="432"/>
-      <c r="E72" s="435" t="s">
-        <v>449</v>
+      <c r="D72" s="503"/>
+      <c r="E72" s="444" t="s">
+        <v>447</v>
       </c>
-      <c r="F72" s="436"/>
+      <c r="F72" s="445"/>
       <c r="G72" s="74"/>
       <c r="H72" s="74"/>
       <c r="I72" s="74"/>
@@ -18734,10 +18729,10 @@
       <c r="AD72" s="74"/>
       <c r="AE72" s="74"/>
       <c r="AF72" s="74"/>
-      <c r="AG72" s="455"/>
-      <c r="AH72" s="455"/>
-      <c r="AI72" s="455"/>
-      <c r="AJ72" s="455"/>
+      <c r="AG72" s="484"/>
+      <c r="AH72" s="484"/>
+      <c r="AI72" s="484"/>
+      <c r="AJ72" s="484"/>
       <c r="AK72" s="137"/>
       <c r="AL72" s="138"/>
       <c r="AM72" s="137"/>
@@ -18779,14 +18774,14 @@
       <c r="BW72" s="137"/>
     </row>
     <row r="73" spans="1:75" s="136" customFormat="1" ht="15.6" customHeight="1">
-      <c r="A73" s="450"/>
-      <c r="B73" s="451"/>
-      <c r="C73" s="433"/>
-      <c r="D73" s="434"/>
-      <c r="E73" s="435" t="s">
-        <v>416</v>
+      <c r="A73" s="500"/>
+      <c r="B73" s="501"/>
+      <c r="C73" s="504"/>
+      <c r="D73" s="505"/>
+      <c r="E73" s="444" t="s">
+        <v>414</v>
       </c>
-      <c r="F73" s="436"/>
+      <c r="F73" s="445"/>
       <c r="G73" s="74"/>
       <c r="H73" s="74"/>
       <c r="I73" s="74"/>
@@ -18856,16 +18851,16 @@
       <c r="BW73" s="137"/>
     </row>
     <row r="74" spans="1:75" s="136" customFormat="1" ht="15.6" customHeight="1">
-      <c r="A74" s="450"/>
-      <c r="B74" s="451"/>
-      <c r="C74" s="431" t="s">
-        <v>381</v>
+      <c r="A74" s="500"/>
+      <c r="B74" s="501"/>
+      <c r="C74" s="502" t="s">
+        <v>379</v>
       </c>
-      <c r="D74" s="432"/>
-      <c r="E74" s="435" t="s">
-        <v>450</v>
+      <c r="D74" s="503"/>
+      <c r="E74" s="444" t="s">
+        <v>448</v>
       </c>
-      <c r="F74" s="436"/>
+      <c r="F74" s="445"/>
       <c r="G74" s="74"/>
       <c r="H74" s="74"/>
       <c r="I74" s="74"/>
@@ -18890,10 +18885,10 @@
       <c r="AD74" s="74"/>
       <c r="AE74" s="74"/>
       <c r="AF74" s="74"/>
-      <c r="AG74" s="455"/>
-      <c r="AH74" s="455"/>
-      <c r="AI74" s="455"/>
-      <c r="AJ74" s="455"/>
+      <c r="AG74" s="484"/>
+      <c r="AH74" s="484"/>
+      <c r="AI74" s="484"/>
+      <c r="AJ74" s="484"/>
       <c r="AK74" s="143"/>
       <c r="AL74" s="139"/>
       <c r="AM74" s="137"/>
@@ -18935,14 +18930,14 @@
       <c r="BW74" s="137"/>
     </row>
     <row r="75" spans="1:75" s="136" customFormat="1" ht="15.6" customHeight="1">
-      <c r="A75" s="450"/>
-      <c r="B75" s="451"/>
-      <c r="C75" s="433"/>
-      <c r="D75" s="434"/>
-      <c r="E75" s="435" t="s">
-        <v>417</v>
+      <c r="A75" s="500"/>
+      <c r="B75" s="501"/>
+      <c r="C75" s="504"/>
+      <c r="D75" s="505"/>
+      <c r="E75" s="444" t="s">
+        <v>415</v>
       </c>
-      <c r="F75" s="436"/>
+      <c r="F75" s="445"/>
       <c r="G75" s="74"/>
       <c r="H75" s="74"/>
       <c r="I75" s="74"/>
@@ -19012,16 +19007,16 @@
       <c r="BW75" s="137"/>
     </row>
     <row r="76" spans="1:75" s="136" customFormat="1" ht="15.6" customHeight="1">
-      <c r="A76" s="450"/>
-      <c r="B76" s="451"/>
-      <c r="C76" s="431" t="s">
-        <v>382</v>
+      <c r="A76" s="500"/>
+      <c r="B76" s="501"/>
+      <c r="C76" s="502" t="s">
+        <v>380</v>
       </c>
-      <c r="D76" s="432"/>
-      <c r="E76" s="435" t="s">
-        <v>451</v>
+      <c r="D76" s="503"/>
+      <c r="E76" s="444" t="s">
+        <v>449</v>
       </c>
-      <c r="F76" s="436"/>
+      <c r="F76" s="445"/>
       <c r="G76" s="74"/>
       <c r="H76" s="74"/>
       <c r="I76" s="74"/>
@@ -19046,10 +19041,10 @@
       <c r="AD76" s="74"/>
       <c r="AE76" s="74"/>
       <c r="AF76" s="74"/>
-      <c r="AG76" s="455"/>
-      <c r="AH76" s="455"/>
-      <c r="AI76" s="455"/>
-      <c r="AJ76" s="455"/>
+      <c r="AG76" s="484"/>
+      <c r="AH76" s="484"/>
+      <c r="AI76" s="484"/>
+      <c r="AJ76" s="484"/>
       <c r="AK76" s="137"/>
       <c r="AL76" s="138"/>
       <c r="AM76" s="137"/>
@@ -19091,14 +19086,14 @@
       <c r="BW76" s="137"/>
     </row>
     <row r="77" spans="1:75" s="136" customFormat="1" ht="15.6" customHeight="1">
-      <c r="A77" s="450"/>
-      <c r="B77" s="451"/>
-      <c r="C77" s="433"/>
-      <c r="D77" s="434"/>
-      <c r="E77" s="435" t="s">
-        <v>418</v>
+      <c r="A77" s="500"/>
+      <c r="B77" s="501"/>
+      <c r="C77" s="504"/>
+      <c r="D77" s="505"/>
+      <c r="E77" s="444" t="s">
+        <v>416</v>
       </c>
-      <c r="F77" s="436"/>
+      <c r="F77" s="445"/>
       <c r="G77" s="74"/>
       <c r="H77" s="74"/>
       <c r="I77" s="74"/>
@@ -19168,16 +19163,16 @@
       <c r="BW77" s="137"/>
     </row>
     <row r="78" spans="1:75" s="136" customFormat="1" ht="15.6" customHeight="1">
-      <c r="A78" s="450"/>
-      <c r="B78" s="451"/>
-      <c r="C78" s="431" t="s">
-        <v>383</v>
+      <c r="A78" s="500"/>
+      <c r="B78" s="501"/>
+      <c r="C78" s="502" t="s">
+        <v>381</v>
       </c>
-      <c r="D78" s="432"/>
-      <c r="E78" s="435" t="s">
-        <v>452</v>
+      <c r="D78" s="503"/>
+      <c r="E78" s="444" t="s">
+        <v>450</v>
       </c>
-      <c r="F78" s="436"/>
+      <c r="F78" s="445"/>
       <c r="G78" s="74"/>
       <c r="H78" s="74"/>
       <c r="I78" s="74"/>
@@ -19202,10 +19197,10 @@
       <c r="AD78" s="74"/>
       <c r="AE78" s="74"/>
       <c r="AF78" s="74"/>
-      <c r="AG78" s="455"/>
-      <c r="AH78" s="455"/>
-      <c r="AI78" s="455"/>
-      <c r="AJ78" s="455"/>
+      <c r="AG78" s="484"/>
+      <c r="AH78" s="484"/>
+      <c r="AI78" s="484"/>
+      <c r="AJ78" s="484"/>
       <c r="AK78" s="143"/>
       <c r="AL78" s="139"/>
       <c r="AM78" s="137"/>
@@ -19247,14 +19242,14 @@
       <c r="BW78" s="137"/>
     </row>
     <row r="79" spans="1:75" s="136" customFormat="1" ht="15.6" customHeight="1">
-      <c r="A79" s="450"/>
-      <c r="B79" s="451"/>
-      <c r="C79" s="433"/>
-      <c r="D79" s="434"/>
-      <c r="E79" s="435" t="s">
-        <v>419</v>
+      <c r="A79" s="500"/>
+      <c r="B79" s="501"/>
+      <c r="C79" s="504"/>
+      <c r="D79" s="505"/>
+      <c r="E79" s="444" t="s">
+        <v>417</v>
       </c>
-      <c r="F79" s="436"/>
+      <c r="F79" s="445"/>
       <c r="G79" s="74"/>
       <c r="H79" s="74"/>
       <c r="I79" s="74"/>
@@ -19324,16 +19319,16 @@
       <c r="BW79" s="137"/>
     </row>
     <row r="80" spans="1:75" s="136" customFormat="1" ht="15.6" customHeight="1">
-      <c r="A80" s="450"/>
-      <c r="B80" s="451"/>
-      <c r="C80" s="431" t="s">
-        <v>384</v>
+      <c r="A80" s="500"/>
+      <c r="B80" s="501"/>
+      <c r="C80" s="502" t="s">
+        <v>382</v>
       </c>
-      <c r="D80" s="432"/>
-      <c r="E80" s="435" t="s">
-        <v>453</v>
+      <c r="D80" s="503"/>
+      <c r="E80" s="444" t="s">
+        <v>451</v>
       </c>
-      <c r="F80" s="436"/>
+      <c r="F80" s="445"/>
       <c r="G80" s="74"/>
       <c r="H80" s="74"/>
       <c r="I80" s="74"/>
@@ -19360,10 +19355,10 @@
       <c r="AD80" s="74"/>
       <c r="AE80" s="74"/>
       <c r="AF80" s="74"/>
-      <c r="AG80" s="455"/>
-      <c r="AH80" s="455"/>
-      <c r="AI80" s="455"/>
-      <c r="AJ80" s="455"/>
+      <c r="AG80" s="484"/>
+      <c r="AH80" s="484"/>
+      <c r="AI80" s="484"/>
+      <c r="AJ80" s="484"/>
       <c r="AK80" s="138"/>
       <c r="AL80" s="138"/>
       <c r="AM80" s="137"/>
@@ -19405,14 +19400,14 @@
       <c r="BW80" s="137"/>
     </row>
     <row r="81" spans="1:75" s="136" customFormat="1" ht="15.6" customHeight="1">
-      <c r="A81" s="450"/>
-      <c r="B81" s="451"/>
-      <c r="C81" s="433"/>
-      <c r="D81" s="434"/>
-      <c r="E81" s="435" t="s">
-        <v>420</v>
+      <c r="A81" s="500"/>
+      <c r="B81" s="501"/>
+      <c r="C81" s="504"/>
+      <c r="D81" s="505"/>
+      <c r="E81" s="444" t="s">
+        <v>418</v>
       </c>
-      <c r="F81" s="436"/>
+      <c r="F81" s="445"/>
       <c r="G81" s="74"/>
       <c r="H81" s="74"/>
       <c r="I81" s="74"/>
@@ -19484,16 +19479,16 @@
       <c r="BW81" s="137"/>
     </row>
     <row r="82" spans="1:75" s="136" customFormat="1" ht="15.6" customHeight="1">
-      <c r="A82" s="450"/>
-      <c r="B82" s="451"/>
-      <c r="C82" s="431" t="s">
-        <v>386</v>
+      <c r="A82" s="500"/>
+      <c r="B82" s="501"/>
+      <c r="C82" s="502" t="s">
+        <v>384</v>
       </c>
-      <c r="D82" s="432"/>
-      <c r="E82" s="435" t="s">
-        <v>454</v>
+      <c r="D82" s="503"/>
+      <c r="E82" s="444" t="s">
+        <v>452</v>
       </c>
-      <c r="F82" s="436"/>
+      <c r="F82" s="445"/>
       <c r="G82" s="74"/>
       <c r="H82" s="74"/>
       <c r="I82" s="74"/>
@@ -19565,14 +19560,14 @@
       <c r="BW82" s="137"/>
     </row>
     <row r="83" spans="1:75" s="136" customFormat="1" ht="15.6" customHeight="1">
-      <c r="A83" s="450"/>
-      <c r="B83" s="451"/>
-      <c r="C83" s="433"/>
-      <c r="D83" s="434"/>
-      <c r="E83" s="435" t="s">
-        <v>421</v>
+      <c r="A83" s="500"/>
+      <c r="B83" s="501"/>
+      <c r="C83" s="504"/>
+      <c r="D83" s="505"/>
+      <c r="E83" s="444" t="s">
+        <v>419</v>
       </c>
-      <c r="F83" s="436"/>
+      <c r="F83" s="445"/>
       <c r="G83" s="74"/>
       <c r="H83" s="74"/>
       <c r="I83" s="74"/>
@@ -19646,14 +19641,14 @@
     <row r="84" spans="1:75" s="136" customFormat="1" ht="18">
       <c r="A84" s="184"/>
       <c r="B84" s="185"/>
-      <c r="C84" s="446" t="s">
+      <c r="C84" s="432" t="s">
         <v>31</v>
       </c>
-      <c r="D84" s="447"/>
-      <c r="E84" s="437" t="s">
-        <v>572</v>
+      <c r="D84" s="433"/>
+      <c r="E84" s="496" t="s">
+        <v>570</v>
       </c>
-      <c r="F84" s="438"/>
+      <c r="F84" s="497"/>
       <c r="G84" s="74"/>
       <c r="H84"/>
       <c r="I84"/>
@@ -19727,14 +19722,14 @@
     <row r="85" spans="1:75" s="136" customFormat="1" ht="18">
       <c r="A85" s="184"/>
       <c r="B85" s="185"/>
-      <c r="C85" s="446" t="s">
+      <c r="C85" s="432" t="s">
         <v>3</v>
       </c>
-      <c r="D85" s="447"/>
-      <c r="E85" s="437" t="s">
-        <v>573</v>
+      <c r="D85" s="433"/>
+      <c r="E85" s="496" t="s">
+        <v>571</v>
       </c>
-      <c r="F85" s="438"/>
+      <c r="F85" s="497"/>
       <c r="G85" s="74"/>
       <c r="H85"/>
       <c r="I85"/>
@@ -19808,14 +19803,14 @@
     <row r="86" spans="1:75" s="136" customFormat="1" ht="18">
       <c r="A86" s="184"/>
       <c r="B86" s="185"/>
-      <c r="C86" s="446" t="s">
+      <c r="C86" s="432" t="s">
         <v>4</v>
       </c>
-      <c r="D86" s="447"/>
-      <c r="E86" s="437" t="s">
-        <v>594</v>
+      <c r="D86" s="433"/>
+      <c r="E86" s="496" t="s">
+        <v>592</v>
       </c>
-      <c r="F86" s="438"/>
+      <c r="F86" s="497"/>
       <c r="G86" s="74"/>
       <c r="H86"/>
       <c r="I86"/>
@@ -19887,18 +19882,18 @@
       <c r="BW86" s="137"/>
     </row>
     <row r="87" spans="1:75" s="136" customFormat="1" ht="27" customHeight="1">
-      <c r="A87" s="442" t="s">
+      <c r="A87" s="446" t="s">
         <v>1</v>
       </c>
-      <c r="B87" s="443"/>
-      <c r="C87" s="440" t="s">
+      <c r="B87" s="447"/>
+      <c r="C87" s="509" t="s">
         <v>5</v>
       </c>
-      <c r="D87" s="441"/>
-      <c r="E87" s="435" t="s">
+      <c r="D87" s="510"/>
+      <c r="E87" s="444" t="s">
         <v>296</v>
       </c>
-      <c r="F87" s="436"/>
+      <c r="F87" s="445"/>
       <c r="G87" s="74"/>
       <c r="H87"/>
       <c r="I87"/>
@@ -19925,10 +19920,10 @@
       <c r="AD87" s="74"/>
       <c r="AE87" s="74"/>
       <c r="AF87" s="74"/>
-      <c r="AG87" s="453"/>
-      <c r="AH87" s="453"/>
-      <c r="AI87" s="453"/>
-      <c r="AJ87" s="453"/>
+      <c r="AG87" s="507"/>
+      <c r="AH87" s="507"/>
+      <c r="AI87" s="507"/>
+      <c r="AJ87" s="507"/>
       <c r="AK87" s="143"/>
       <c r="AL87" s="137"/>
       <c r="AM87" s="137"/>
@@ -19970,16 +19965,16 @@
       <c r="BW87" s="137"/>
     </row>
     <row r="88" spans="1:75" s="136" customFormat="1" ht="27" customHeight="1">
-      <c r="A88" s="444"/>
-      <c r="B88" s="445"/>
-      <c r="C88" s="440" t="s">
+      <c r="A88" s="448"/>
+      <c r="B88" s="449"/>
+      <c r="C88" s="509" t="s">
         <v>6</v>
       </c>
-      <c r="D88" s="441"/>
-      <c r="E88" s="435" t="s">
+      <c r="D88" s="510"/>
+      <c r="E88" s="444" t="s">
         <v>297</v>
       </c>
-      <c r="F88" s="436"/>
+      <c r="F88" s="445"/>
       <c r="G88" s="74"/>
       <c r="H88" s="74"/>
       <c r="I88" s="74"/>
@@ -20006,10 +20001,10 @@
       <c r="AD88" s="74"/>
       <c r="AE88" s="74"/>
       <c r="AF88" s="74"/>
-      <c r="AG88" s="453"/>
-      <c r="AH88" s="453"/>
-      <c r="AI88" s="453"/>
-      <c r="AJ88" s="453"/>
+      <c r="AG88" s="507"/>
+      <c r="AH88" s="507"/>
+      <c r="AI88" s="507"/>
+      <c r="AJ88" s="507"/>
       <c r="AK88" s="143"/>
       <c r="AL88" s="137"/>
       <c r="AM88" s="137"/>
@@ -20051,16 +20046,16 @@
       <c r="BW88" s="137"/>
     </row>
     <row r="89" spans="1:75" s="136" customFormat="1" ht="27" customHeight="1">
-      <c r="A89" s="444"/>
-      <c r="B89" s="445"/>
-      <c r="C89" s="440" t="s">
+      <c r="A89" s="448"/>
+      <c r="B89" s="449"/>
+      <c r="C89" s="509" t="s">
         <v>0</v>
       </c>
-      <c r="D89" s="441"/>
-      <c r="E89" s="435" t="s">
+      <c r="D89" s="510"/>
+      <c r="E89" s="444" t="s">
         <v>298</v>
       </c>
-      <c r="F89" s="436"/>
+      <c r="F89" s="445"/>
       <c r="G89" s="74"/>
       <c r="H89" s="74"/>
       <c r="I89" s="74"/>
@@ -20087,10 +20082,10 @@
       <c r="AD89" s="74"/>
       <c r="AE89" s="74"/>
       <c r="AF89" s="74"/>
-      <c r="AG89" s="454"/>
-      <c r="AH89" s="454"/>
-      <c r="AI89" s="454"/>
-      <c r="AJ89" s="454"/>
+      <c r="AG89" s="508"/>
+      <c r="AH89" s="508"/>
+      <c r="AI89" s="508"/>
+      <c r="AJ89" s="508"/>
       <c r="AK89" s="143"/>
       <c r="AL89" s="137"/>
       <c r="AM89" s="137"/>
@@ -20132,16 +20127,16 @@
       <c r="BW89" s="137"/>
     </row>
     <row r="90" spans="1:75" s="136" customFormat="1" ht="27" customHeight="1">
-      <c r="A90" s="444"/>
-      <c r="B90" s="445"/>
-      <c r="C90" s="440" t="s">
+      <c r="A90" s="448"/>
+      <c r="B90" s="449"/>
+      <c r="C90" s="509" t="s">
         <v>48</v>
       </c>
-      <c r="D90" s="441"/>
-      <c r="E90" s="435" t="s">
+      <c r="D90" s="510"/>
+      <c r="E90" s="444" t="s">
         <v>299</v>
       </c>
-      <c r="F90" s="436"/>
+      <c r="F90" s="445"/>
       <c r="G90" s="74"/>
       <c r="H90" s="74"/>
       <c r="I90" s="74"/>
@@ -20213,16 +20208,16 @@
       <c r="BW90" s="137"/>
     </row>
     <row r="91" spans="1:75" s="136" customFormat="1" ht="27" customHeight="1">
-      <c r="A91" s="444"/>
-      <c r="B91" s="445"/>
-      <c r="C91" s="440" t="s">
+      <c r="A91" s="448"/>
+      <c r="B91" s="449"/>
+      <c r="C91" s="509" t="s">
         <v>34</v>
       </c>
-      <c r="D91" s="441"/>
-      <c r="E91" s="435" t="s">
-        <v>387</v>
+      <c r="D91" s="510"/>
+      <c r="E91" s="444" t="s">
+        <v>385</v>
       </c>
-      <c r="F91" s="436"/>
+      <c r="F91" s="445"/>
       <c r="G91" s="74"/>
       <c r="H91" s="74"/>
       <c r="I91" s="74"/>
@@ -20249,10 +20244,10 @@
       <c r="AD91" s="74"/>
       <c r="AE91" s="74"/>
       <c r="AF91" s="74"/>
-      <c r="AG91" s="454"/>
-      <c r="AH91" s="454"/>
-      <c r="AI91" s="454"/>
-      <c r="AJ91" s="454"/>
+      <c r="AG91" s="508"/>
+      <c r="AH91" s="508"/>
+      <c r="AI91" s="508"/>
+      <c r="AJ91" s="508"/>
       <c r="AK91" s="143"/>
       <c r="AL91" s="137"/>
       <c r="AM91" s="137"/>
@@ -20294,16 +20289,16 @@
       <c r="BW91" s="137"/>
     </row>
     <row r="92" spans="1:75" s="136" customFormat="1" ht="32.25" customHeight="1">
-      <c r="A92" s="439" t="s">
+      <c r="A92" s="495" t="s">
         <v>44</v>
       </c>
-      <c r="B92" s="439"/>
-      <c r="C92" s="439"/>
-      <c r="D92" s="439"/>
-      <c r="E92" s="435" t="s">
-        <v>300</v>
+      <c r="B92" s="495"/>
+      <c r="C92" s="495"/>
+      <c r="D92" s="495"/>
+      <c r="E92" s="444" t="s">
+        <v>595</v>
       </c>
-      <c r="F92" s="436"/>
+      <c r="F92" s="445"/>
       <c r="G92" s="74"/>
       <c r="H92" s="74"/>
       <c r="I92" s="74"/>
@@ -20330,10 +20325,10 @@
       <c r="AD92" s="74"/>
       <c r="AE92" s="74"/>
       <c r="AF92" s="74"/>
-      <c r="AG92" s="452"/>
-      <c r="AH92" s="452"/>
-      <c r="AI92" s="452"/>
-      <c r="AJ92" s="452"/>
+      <c r="AG92" s="506"/>
+      <c r="AH92" s="506"/>
+      <c r="AI92" s="506"/>
+      <c r="AJ92" s="506"/>
       <c r="AK92" s="143"/>
       <c r="AL92" s="137"/>
       <c r="AM92" s="137"/>
@@ -20375,16 +20370,16 @@
       <c r="BW92" s="137"/>
     </row>
     <row r="93" spans="1:75" s="136" customFormat="1" ht="32.25" customHeight="1">
-      <c r="A93" s="439" t="s">
+      <c r="A93" s="495" t="s">
         <v>45</v>
       </c>
-      <c r="B93" s="439"/>
-      <c r="C93" s="439"/>
-      <c r="D93" s="439"/>
-      <c r="E93" s="435" t="s">
-        <v>301</v>
+      <c r="B93" s="495"/>
+      <c r="C93" s="495"/>
+      <c r="D93" s="495"/>
+      <c r="E93" s="444" t="s">
+        <v>596</v>
       </c>
-      <c r="F93" s="436"/>
+      <c r="F93" s="445"/>
       <c r="G93" s="74"/>
       <c r="H93" s="74"/>
       <c r="I93" s="74"/>
@@ -20411,10 +20406,10 @@
       <c r="AD93" s="74"/>
       <c r="AE93" s="74"/>
       <c r="AF93" s="74"/>
-      <c r="AG93" s="452"/>
-      <c r="AH93" s="452"/>
-      <c r="AI93" s="452"/>
-      <c r="AJ93" s="452"/>
+      <c r="AG93" s="506"/>
+      <c r="AH93" s="506"/>
+      <c r="AI93" s="506"/>
+      <c r="AJ93" s="506"/>
       <c r="AK93" s="143"/>
       <c r="AL93" s="137"/>
       <c r="AM93" s="137"/>
@@ -20462,17 +20457,17 @@
       <c r="D94" s="146"/>
       <c r="E94" s="146"/>
       <c r="F94" s="146"/>
-      <c r="G94" s="456"/>
-      <c r="H94" s="456"/>
-      <c r="I94" s="456"/>
+      <c r="G94" s="485"/>
+      <c r="H94" s="485"/>
+      <c r="I94" s="485"/>
       <c r="J94" s="146"/>
       <c r="K94" s="146"/>
       <c r="L94" s="146"/>
       <c r="M94" s="146"/>
       <c r="N94" s="146"/>
-      <c r="O94" s="456"/>
-      <c r="P94" s="456"/>
-      <c r="Q94" s="456"/>
+      <c r="O94" s="485"/>
+      <c r="P94" s="485"/>
+      <c r="Q94" s="485"/>
       <c r="R94" s="146"/>
       <c r="S94" s="146"/>
       <c r="T94" s="146"/>
@@ -20498,13 +20493,13 @@
     <row r="95" spans="1:75" ht="14.1" customHeight="1" thickBot="1">
       <c r="A95" s="145"/>
       <c r="B95" s="154" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="C95" s="153"/>
-      <c r="D95" s="465" t="s">
+      <c r="D95" s="494" t="s">
         <v>54</v>
       </c>
-      <c r="E95" s="465"/>
+      <c r="E95" s="494"/>
       <c r="F95" s="146"/>
       <c r="G95" s="152"/>
       <c r="H95" s="152"/>
@@ -20542,13 +20537,13 @@
     <row r="96" spans="1:75" ht="13.8" customHeight="1" thickBot="1">
       <c r="A96" s="145"/>
       <c r="B96" s="155" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="C96" s="153"/>
-      <c r="D96" s="465" t="s">
+      <c r="D96" s="494" t="s">
         <v>55</v>
       </c>
-      <c r="E96" s="465"/>
+      <c r="E96" s="494"/>
       <c r="F96" s="146"/>
       <c r="G96" s="152"/>
       <c r="H96" s="152"/>
@@ -20590,9 +20585,9 @@
       <c r="D97" s="146"/>
       <c r="E97" s="146"/>
       <c r="F97" s="146"/>
-      <c r="G97" s="458"/>
-      <c r="H97" s="458"/>
-      <c r="I97" s="458"/>
+      <c r="G97" s="487"/>
+      <c r="H97" s="487"/>
+      <c r="I97" s="487"/>
       <c r="J97" s="146"/>
       <c r="K97" s="146"/>
       <c r="L97" s="146"/>
@@ -20625,35 +20620,35 @@
     </row>
     <row r="98" spans="1:75" ht="14.1" customHeight="1">
       <c r="A98" s="145"/>
-      <c r="B98" s="457" t="s">
+      <c r="B98" s="486" t="s">
         <v>36</v>
       </c>
-      <c r="C98" s="459"/>
-      <c r="D98" s="460"/>
-      <c r="E98" s="460"/>
-      <c r="F98" s="460"/>
-      <c r="G98" s="460"/>
-      <c r="H98" s="460"/>
-      <c r="I98" s="460"/>
-      <c r="J98" s="460"/>
-      <c r="K98" s="460"/>
-      <c r="L98" s="460"/>
-      <c r="M98" s="460"/>
-      <c r="N98" s="460"/>
-      <c r="O98" s="460"/>
-      <c r="P98" s="460"/>
-      <c r="Q98" s="460"/>
-      <c r="R98" s="460"/>
-      <c r="S98" s="460"/>
-      <c r="T98" s="460"/>
-      <c r="U98" s="460"/>
-      <c r="V98" s="460"/>
-      <c r="W98" s="460"/>
-      <c r="X98" s="460"/>
-      <c r="Y98" s="460"/>
-      <c r="Z98" s="460"/>
-      <c r="AA98" s="460"/>
-      <c r="AB98" s="461"/>
+      <c r="C98" s="488"/>
+      <c r="D98" s="489"/>
+      <c r="E98" s="489"/>
+      <c r="F98" s="489"/>
+      <c r="G98" s="489"/>
+      <c r="H98" s="489"/>
+      <c r="I98" s="489"/>
+      <c r="J98" s="489"/>
+      <c r="K98" s="489"/>
+      <c r="L98" s="489"/>
+      <c r="M98" s="489"/>
+      <c r="N98" s="489"/>
+      <c r="O98" s="489"/>
+      <c r="P98" s="489"/>
+      <c r="Q98" s="489"/>
+      <c r="R98" s="489"/>
+      <c r="S98" s="489"/>
+      <c r="T98" s="489"/>
+      <c r="U98" s="489"/>
+      <c r="V98" s="489"/>
+      <c r="W98" s="489"/>
+      <c r="X98" s="489"/>
+      <c r="Y98" s="489"/>
+      <c r="Z98" s="489"/>
+      <c r="AA98" s="489"/>
+      <c r="AB98" s="490"/>
       <c r="AC98" s="148"/>
       <c r="AD98" s="148"/>
       <c r="AE98" s="148"/>
@@ -20674,33 +20669,33 @@
     </row>
     <row r="99" spans="1:75" ht="28.5" customHeight="1">
       <c r="A99" s="145"/>
-      <c r="B99" s="457"/>
-      <c r="C99" s="462"/>
-      <c r="D99" s="463"/>
-      <c r="E99" s="463"/>
-      <c r="F99" s="463"/>
-      <c r="G99" s="463"/>
-      <c r="H99" s="463"/>
-      <c r="I99" s="463"/>
-      <c r="J99" s="463"/>
-      <c r="K99" s="463"/>
-      <c r="L99" s="463"/>
-      <c r="M99" s="463"/>
-      <c r="N99" s="463"/>
-      <c r="O99" s="463"/>
-      <c r="P99" s="463"/>
-      <c r="Q99" s="463"/>
-      <c r="R99" s="463"/>
-      <c r="S99" s="463"/>
-      <c r="T99" s="463"/>
-      <c r="U99" s="463"/>
-      <c r="V99" s="463"/>
-      <c r="W99" s="463"/>
-      <c r="X99" s="463"/>
-      <c r="Y99" s="463"/>
-      <c r="Z99" s="463"/>
-      <c r="AA99" s="463"/>
-      <c r="AB99" s="464"/>
+      <c r="B99" s="486"/>
+      <c r="C99" s="491"/>
+      <c r="D99" s="492"/>
+      <c r="E99" s="492"/>
+      <c r="F99" s="492"/>
+      <c r="G99" s="492"/>
+      <c r="H99" s="492"/>
+      <c r="I99" s="492"/>
+      <c r="J99" s="492"/>
+      <c r="K99" s="492"/>
+      <c r="L99" s="492"/>
+      <c r="M99" s="492"/>
+      <c r="N99" s="492"/>
+      <c r="O99" s="492"/>
+      <c r="P99" s="492"/>
+      <c r="Q99" s="492"/>
+      <c r="R99" s="492"/>
+      <c r="S99" s="492"/>
+      <c r="T99" s="492"/>
+      <c r="U99" s="492"/>
+      <c r="V99" s="492"/>
+      <c r="W99" s="492"/>
+      <c r="X99" s="492"/>
+      <c r="Y99" s="492"/>
+      <c r="Z99" s="492"/>
+      <c r="AA99" s="492"/>
+      <c r="AB99" s="493"/>
       <c r="AC99" s="148"/>
       <c r="AD99" s="148"/>
       <c r="AE99" s="148"/>
@@ -20786,20 +20781,20 @@
       <c r="BO101" s="103"/>
     </row>
     <row r="102" spans="1:75" ht="14.1" customHeight="1">
-      <c r="C102" s="501" t="s">
+      <c r="C102" s="431" t="s">
+        <v>589</v>
+      </c>
+      <c r="D102" s="431"/>
+      <c r="E102" s="105"/>
+      <c r="F102" s="431" t="s">
+        <v>590</v>
+      </c>
+      <c r="G102" s="431"/>
+      <c r="H102" s="105"/>
+      <c r="I102" s="431" t="s">
         <v>591</v>
       </c>
-      <c r="D102" s="501"/>
-      <c r="E102" s="105"/>
-      <c r="F102" s="501" t="s">
-        <v>592</v>
-      </c>
-      <c r="G102" s="501"/>
-      <c r="H102" s="105"/>
-      <c r="I102" s="501" t="s">
-        <v>593</v>
-      </c>
-      <c r="J102" s="501"/>
+      <c r="J102" s="431"/>
       <c r="K102" s="105"/>
       <c r="M102" s="105"/>
       <c r="N102" s="105"/>
@@ -65552,6 +65547,236 @@
   </sheetData>
   <sheetProtection formatColumns="0" formatRows="0"/>
   <mergeCells count="254">
+    <mergeCell ref="C70:D71"/>
+    <mergeCell ref="C72:D73"/>
+    <mergeCell ref="C74:D75"/>
+    <mergeCell ref="C76:D77"/>
+    <mergeCell ref="E67:F67"/>
+    <mergeCell ref="E68:F68"/>
+    <mergeCell ref="E69:F69"/>
+    <mergeCell ref="E70:F70"/>
+    <mergeCell ref="E71:F71"/>
+    <mergeCell ref="E72:F72"/>
+    <mergeCell ref="E73:F73"/>
+    <mergeCell ref="E74:F74"/>
+    <mergeCell ref="E75:F75"/>
+    <mergeCell ref="E76:F76"/>
+    <mergeCell ref="E77:F77"/>
+    <mergeCell ref="C56:D57"/>
+    <mergeCell ref="C58:D59"/>
+    <mergeCell ref="E65:F65"/>
+    <mergeCell ref="E66:F66"/>
+    <mergeCell ref="C60:D61"/>
+    <mergeCell ref="C62:D63"/>
+    <mergeCell ref="C64:D65"/>
+    <mergeCell ref="C66:D67"/>
+    <mergeCell ref="C68:D69"/>
+    <mergeCell ref="E78:F78"/>
+    <mergeCell ref="E79:F79"/>
+    <mergeCell ref="E80:F80"/>
+    <mergeCell ref="C78:D79"/>
+    <mergeCell ref="E84:F84"/>
+    <mergeCell ref="E85:F85"/>
+    <mergeCell ref="E92:F92"/>
+    <mergeCell ref="A92:D92"/>
+    <mergeCell ref="C87:D87"/>
+    <mergeCell ref="C88:D88"/>
+    <mergeCell ref="C89:D89"/>
+    <mergeCell ref="C90:D90"/>
+    <mergeCell ref="C91:D91"/>
+    <mergeCell ref="E81:F81"/>
+    <mergeCell ref="E87:F87"/>
+    <mergeCell ref="E88:F88"/>
+    <mergeCell ref="E89:F89"/>
+    <mergeCell ref="E90:F90"/>
+    <mergeCell ref="E91:F91"/>
+    <mergeCell ref="A87:B91"/>
+    <mergeCell ref="E82:F82"/>
+    <mergeCell ref="E83:F83"/>
+    <mergeCell ref="C80:D81"/>
+    <mergeCell ref="C82:D83"/>
+    <mergeCell ref="E86:F86"/>
+    <mergeCell ref="C84:D84"/>
+    <mergeCell ref="C85:D85"/>
+    <mergeCell ref="C86:D86"/>
+    <mergeCell ref="A54:B83"/>
+    <mergeCell ref="C54:D55"/>
+    <mergeCell ref="AG93:AH93"/>
+    <mergeCell ref="AI93:AJ93"/>
+    <mergeCell ref="AG87:AH87"/>
+    <mergeCell ref="AI87:AJ87"/>
+    <mergeCell ref="AG88:AH88"/>
+    <mergeCell ref="AI88:AJ88"/>
+    <mergeCell ref="AG89:AH89"/>
+    <mergeCell ref="AG92:AH92"/>
+    <mergeCell ref="AI89:AJ89"/>
+    <mergeCell ref="AI91:AJ91"/>
+    <mergeCell ref="AG91:AH91"/>
+    <mergeCell ref="AI92:AJ92"/>
+    <mergeCell ref="AG78:AH78"/>
+    <mergeCell ref="AI78:AJ78"/>
+    <mergeCell ref="AG80:AH80"/>
+    <mergeCell ref="AI80:AJ80"/>
+    <mergeCell ref="AG66:AH66"/>
+    <mergeCell ref="AI66:AJ66"/>
+    <mergeCell ref="G94:I94"/>
+    <mergeCell ref="O94:Q94"/>
+    <mergeCell ref="B98:B99"/>
+    <mergeCell ref="G97:I97"/>
+    <mergeCell ref="C98:AB99"/>
+    <mergeCell ref="D96:E96"/>
+    <mergeCell ref="D95:E95"/>
+    <mergeCell ref="E93:F93"/>
+    <mergeCell ref="A93:D93"/>
+    <mergeCell ref="AG68:AH68"/>
+    <mergeCell ref="AI68:AJ68"/>
+    <mergeCell ref="AG70:AH70"/>
+    <mergeCell ref="AI70:AJ70"/>
+    <mergeCell ref="AG72:AH72"/>
+    <mergeCell ref="AI72:AJ72"/>
+    <mergeCell ref="AG74:AH74"/>
+    <mergeCell ref="AI74:AJ74"/>
+    <mergeCell ref="AG76:AH76"/>
+    <mergeCell ref="AI76:AJ76"/>
+    <mergeCell ref="AG58:AH58"/>
+    <mergeCell ref="AI58:AJ58"/>
+    <mergeCell ref="AG60:AH60"/>
+    <mergeCell ref="AI60:AJ60"/>
+    <mergeCell ref="AG62:AH62"/>
+    <mergeCell ref="AI62:AJ62"/>
+    <mergeCell ref="AG64:AH64"/>
+    <mergeCell ref="AI64:AJ64"/>
+    <mergeCell ref="E54:F54"/>
+    <mergeCell ref="E55:F55"/>
+    <mergeCell ref="E56:F56"/>
+    <mergeCell ref="E57:F57"/>
+    <mergeCell ref="E58:F58"/>
+    <mergeCell ref="E59:F59"/>
+    <mergeCell ref="E60:F60"/>
+    <mergeCell ref="E61:F61"/>
+    <mergeCell ref="E62:F62"/>
+    <mergeCell ref="E63:F63"/>
+    <mergeCell ref="E64:F64"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="E38:F38"/>
+    <mergeCell ref="E39:F39"/>
+    <mergeCell ref="E40:F40"/>
+    <mergeCell ref="AE6:AF6"/>
+    <mergeCell ref="AI6:AJ6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="BF2:BS2"/>
+    <mergeCell ref="AG5:AJ5"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="D33:D34"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="C51:D51"/>
+    <mergeCell ref="G41:H41"/>
+    <mergeCell ref="A41:F41"/>
+    <mergeCell ref="E2:AB3"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="C39:C40"/>
+    <mergeCell ref="D39:D40"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="C35:C36"/>
+    <mergeCell ref="D35:D36"/>
+    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="C37:C38"/>
+    <mergeCell ref="D37:D38"/>
+    <mergeCell ref="E5:F6"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="A31:A32"/>
     <mergeCell ref="C102:D102"/>
     <mergeCell ref="F102:G102"/>
     <mergeCell ref="I102:J102"/>
@@ -65576,236 +65801,6 @@
     <mergeCell ref="C45:D45"/>
     <mergeCell ref="C46:D46"/>
     <mergeCell ref="C47:D47"/>
-    <mergeCell ref="C48:D48"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="C50:D50"/>
-    <mergeCell ref="C51:D51"/>
-    <mergeCell ref="G41:H41"/>
-    <mergeCell ref="A41:F41"/>
-    <mergeCell ref="E2:AB3"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="A39:A40"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="C39:C40"/>
-    <mergeCell ref="D39:D40"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="C35:C36"/>
-    <mergeCell ref="D35:D36"/>
-    <mergeCell ref="A37:A38"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="C37:C38"/>
-    <mergeCell ref="D37:D38"/>
-    <mergeCell ref="E5:F6"/>
-    <mergeCell ref="D29:D30"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="C31:C32"/>
-    <mergeCell ref="D31:D32"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="C33:C34"/>
-    <mergeCell ref="D33:D34"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="BF2:BS2"/>
-    <mergeCell ref="AG5:AJ5"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="E38:F38"/>
-    <mergeCell ref="E39:F39"/>
-    <mergeCell ref="E40:F40"/>
-    <mergeCell ref="AE6:AF6"/>
-    <mergeCell ref="AI6:AJ6"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="AG58:AH58"/>
-    <mergeCell ref="AI58:AJ58"/>
-    <mergeCell ref="AG60:AH60"/>
-    <mergeCell ref="AI60:AJ60"/>
-    <mergeCell ref="AG62:AH62"/>
-    <mergeCell ref="AI62:AJ62"/>
-    <mergeCell ref="AG64:AH64"/>
-    <mergeCell ref="AI64:AJ64"/>
-    <mergeCell ref="E54:F54"/>
-    <mergeCell ref="E55:F55"/>
-    <mergeCell ref="E56:F56"/>
-    <mergeCell ref="E57:F57"/>
-    <mergeCell ref="E58:F58"/>
-    <mergeCell ref="E59:F59"/>
-    <mergeCell ref="E60:F60"/>
-    <mergeCell ref="E61:F61"/>
-    <mergeCell ref="E62:F62"/>
-    <mergeCell ref="E63:F63"/>
-    <mergeCell ref="E64:F64"/>
-    <mergeCell ref="AG68:AH68"/>
-    <mergeCell ref="AI68:AJ68"/>
-    <mergeCell ref="AG70:AH70"/>
-    <mergeCell ref="AI70:AJ70"/>
-    <mergeCell ref="AG72:AH72"/>
-    <mergeCell ref="AI72:AJ72"/>
-    <mergeCell ref="AG74:AH74"/>
-    <mergeCell ref="AI74:AJ74"/>
-    <mergeCell ref="AG76:AH76"/>
-    <mergeCell ref="AI76:AJ76"/>
-    <mergeCell ref="G94:I94"/>
-    <mergeCell ref="O94:Q94"/>
-    <mergeCell ref="B98:B99"/>
-    <mergeCell ref="G97:I97"/>
-    <mergeCell ref="C98:AB99"/>
-    <mergeCell ref="D96:E96"/>
-    <mergeCell ref="D95:E95"/>
-    <mergeCell ref="E93:F93"/>
-    <mergeCell ref="A93:D93"/>
-    <mergeCell ref="E86:F86"/>
-    <mergeCell ref="C84:D84"/>
-    <mergeCell ref="C85:D85"/>
-    <mergeCell ref="C86:D86"/>
-    <mergeCell ref="A54:B83"/>
-    <mergeCell ref="C54:D55"/>
-    <mergeCell ref="AG93:AH93"/>
-    <mergeCell ref="AI93:AJ93"/>
-    <mergeCell ref="AG87:AH87"/>
-    <mergeCell ref="AI87:AJ87"/>
-    <mergeCell ref="AG88:AH88"/>
-    <mergeCell ref="AI88:AJ88"/>
-    <mergeCell ref="AG89:AH89"/>
-    <mergeCell ref="AG92:AH92"/>
-    <mergeCell ref="AI89:AJ89"/>
-    <mergeCell ref="AI91:AJ91"/>
-    <mergeCell ref="AG91:AH91"/>
-    <mergeCell ref="AI92:AJ92"/>
-    <mergeCell ref="AG78:AH78"/>
-    <mergeCell ref="AI78:AJ78"/>
-    <mergeCell ref="AG80:AH80"/>
-    <mergeCell ref="AI80:AJ80"/>
-    <mergeCell ref="AG66:AH66"/>
-    <mergeCell ref="AI66:AJ66"/>
-    <mergeCell ref="E78:F78"/>
-    <mergeCell ref="E79:F79"/>
-    <mergeCell ref="E80:F80"/>
-    <mergeCell ref="C78:D79"/>
-    <mergeCell ref="E84:F84"/>
-    <mergeCell ref="E85:F85"/>
-    <mergeCell ref="E92:F92"/>
-    <mergeCell ref="A92:D92"/>
-    <mergeCell ref="C87:D87"/>
-    <mergeCell ref="C88:D88"/>
-    <mergeCell ref="C89:D89"/>
-    <mergeCell ref="C90:D90"/>
-    <mergeCell ref="C91:D91"/>
-    <mergeCell ref="E81:F81"/>
-    <mergeCell ref="E87:F87"/>
-    <mergeCell ref="E88:F88"/>
-    <mergeCell ref="E89:F89"/>
-    <mergeCell ref="E90:F90"/>
-    <mergeCell ref="E91:F91"/>
-    <mergeCell ref="A87:B91"/>
-    <mergeCell ref="E82:F82"/>
-    <mergeCell ref="E83:F83"/>
-    <mergeCell ref="C80:D81"/>
-    <mergeCell ref="C82:D83"/>
-    <mergeCell ref="C56:D57"/>
-    <mergeCell ref="C58:D59"/>
-    <mergeCell ref="E65:F65"/>
-    <mergeCell ref="E66:F66"/>
-    <mergeCell ref="C60:D61"/>
-    <mergeCell ref="C62:D63"/>
-    <mergeCell ref="C64:D65"/>
-    <mergeCell ref="C66:D67"/>
-    <mergeCell ref="C68:D69"/>
-    <mergeCell ref="C70:D71"/>
-    <mergeCell ref="C72:D73"/>
-    <mergeCell ref="C74:D75"/>
-    <mergeCell ref="C76:D77"/>
-    <mergeCell ref="E67:F67"/>
-    <mergeCell ref="E68:F68"/>
-    <mergeCell ref="E69:F69"/>
-    <mergeCell ref="E70:F70"/>
-    <mergeCell ref="E71:F71"/>
-    <mergeCell ref="E72:F72"/>
-    <mergeCell ref="E73:F73"/>
-    <mergeCell ref="E74:F74"/>
-    <mergeCell ref="E75:F75"/>
-    <mergeCell ref="E76:F76"/>
-    <mergeCell ref="E77:F77"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.118110236220472" right="0.118110236220472" top="0.35433070866141703" bottom="0.55118110236220497" header="0.31496062992126" footer="0.31496062992126"/>
@@ -66000,18 +65995,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -66033,6 +66028,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5458833A-D997-4113-BB83-F938CBB9D86E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ECA946AD-4EA3-4FCA-B864-262800288FDF}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
@@ -66046,12 +66049,4 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5458833A-D997-4113-BB83-F938CBB9D86E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/api/cp-dss-api/gateway/src/main/resources/reports/discharging/Vessel_1_Discharging_Plan_Template.xlsx
+++ b/api/cp-dss-api/gateway/src/main/resources/reports/discharging/Vessel_1_Discharging_Plan_Template.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Sanal\Codebase\AOT-CP-DSS\api\cp-dss-api\gateway\src\main\resources\reports\discharging\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sreemanikandan.k\IdeaProjects\AOT-CP-DSS\api\cp-dss-api\gateway\src\main\resources\reports\discharging\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17316" windowHeight="6156" tabRatio="399"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17310" windowHeight="6150" tabRatio="399"/>
   </bookViews>
   <sheets>
     <sheet name="CRUD - 021 pg1" sheetId="27" r:id="rId1"/>
@@ -163,6 +163,7 @@
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Sanal Kumar</author>
+    <author>Sreemanikandan K K</author>
   </authors>
   <commentList>
     <comment ref="A1" authorId="0" shapeId="0">
@@ -176,7 +177,7 @@
             <family val="2"/>
           </rPr>
           <t>Author:
-jx:area(lastCell="AZ68")</t>
+jx:area(lastCell="AZ80")</t>
         </r>
       </text>
     </comment>
@@ -329,6 +330,49 @@
           </rPr>
           <t>Author:
 jx:each(items="sheetOne.cargoTobeDischarged"  var="cargoTobeDischargedDetails"  direction ="RIGHT" lastCell="J68")</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A69" authorId="1" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>jx:if(condition="sheetOne.loadingPlanCommingleDetailsList.isEmpty()", lastCell="F69", areas=["A69:F69"])</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A70" authorId="1" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>jx:if(condition="!sheetOne.loadingPlanCommingleDetailsList.isEmpty()", lastCell="K79", areas=["A70:K79"])</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F71" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:
+jx:each(items="sheetOne.loadingPlanCommingleDetailsList" var="loadingPlanCommingleDetails"  direction ="RIGHT" lastCell="K78")</t>
         </r>
       </text>
     </comment>
@@ -2401,7 +2445,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="650" uniqueCount="597">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="673" uniqueCount="619">
   <si>
     <t>TRIM</t>
   </si>
@@ -4222,6 +4266,72 @@
     <t>${bm.frameNumber}/
 ${bm.percentage}%</t>
   </si>
+  <si>
+    <t xml:space="preserve">    Grade</t>
+  </si>
+  <si>
+    <t>${loadingPlanCommingleDetails.abbreviation}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Tank</t>
+  </si>
+  <si>
+    <t>${loadingPlanCommingleDetails.tankName}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Quantity</t>
+  </si>
+  <si>
+    <t>${loadingPlanCommingleDetails.quantityMT}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    API</t>
+  </si>
+  <si>
+    <t>${loadingPlanCommingleDetails.api}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Temp</t>
+  </si>
+  <si>
+    <t>(°F)</t>
+  </si>
+  <si>
+    <t>${loadingPlanCommingleDetails.temperature}</t>
+  </si>
+  <si>
+    <t>Composition Breakdown</t>
+  </si>
+  <si>
+    <t>Cargo code</t>
+  </si>
+  <si>
+    <t>${loadingPlanCommingleDetails.cargo1Abbreviation}</t>
+  </si>
+  <si>
+    <t>${loadingPlanCommingleDetails.cargo2Abbreviation}</t>
+  </si>
+  <si>
+    <t>Cargo percentage</t>
+  </si>
+  <si>
+    <t>${loadingPlanCommingleDetails.cargo1Percentage}</t>
+  </si>
+  <si>
+    <t>${loadingPlanCommingleDetails.cargo2Percentage}</t>
+  </si>
+  <si>
+    <t>Cargo quantity</t>
+  </si>
+  <si>
+    <t>${loadingPlanCommingleDetails.quantity1MT}</t>
+  </si>
+  <si>
+    <t>${loadingPlanCommingleDetails.quantity2MT}</t>
+  </si>
+  <si>
+    <t>DISCHARGE PLAN COMMINGLE DETAILS</t>
+  </si>
 </sst>
 </file>
 
@@ -4247,7 +4357,7 @@
     <numFmt numFmtId="180" formatCode="#,##0.0"/>
     <numFmt numFmtId="181" formatCode="####.##"/>
   </numFmts>
-  <fonts count="57">
+  <fonts count="58">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -4636,8 +4746,15 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4676,6 +4793,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="41"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5044,7 +5167,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="511">
+  <cellXfs count="524">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -5682,20 +5805,39 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="173" fontId="29" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="173" fontId="29" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
     </xf>
     <xf numFmtId="173" fontId="29" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="173" fontId="29" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="173" fontId="29" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="173" fontId="29" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="173" fontId="29" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="16" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="16" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="9" fontId="48" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -5706,68 +5848,22 @@
       <alignment horizontal="right" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="174" fontId="47" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="174" fontId="47" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" wrapText="1"/>
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="14" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" wrapText="1"/>
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="8" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="173" fontId="29" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="9" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" wrapText="1" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" wrapText="1" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="173" fontId="29" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="173" fontId="33" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="173" fontId="33" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="173" fontId="33" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
     </xf>
     <xf numFmtId="173" fontId="33" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
@@ -5780,196 +5876,6 @@
     <xf numFmtId="173" fontId="33" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="176" fontId="24" fillId="0" borderId="10" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="174" fontId="47" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="174" fontId="47" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="174" fontId="47" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="174" fontId="47" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="3" fontId="33" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="33" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="173" fontId="29" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="173" fontId="34" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="4" fontId="20" fillId="2" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="8" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="16" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="16" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="16" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="14" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="8" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="9" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -6016,129 +5922,227 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" wrapText="1" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" wrapText="1" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="173" fontId="29" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="173" fontId="29" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="173" fontId="33" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="173" fontId="33" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="173" fontId="33" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="174" fontId="47" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="174" fontId="47" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="174" fontId="47" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="174" fontId="47" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="16" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="173" fontId="29" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="173" fontId="34" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="3" fontId="33" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="3" fontId="33" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="176" fontId="24" fillId="0" borderId="10" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="16" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="16" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="18" fillId="0" borderId="3" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="18" fillId="0" borderId="4" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="16" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="16" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="16" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="16" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="16" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="174" fontId="47" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="8" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="15" fillId="0" borderId="10" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="174" fontId="47" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="181" fontId="15" fillId="0" borderId="10" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" textRotation="45"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" textRotation="45"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="4" borderId="14" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -6159,116 +6163,28 @@
     <xf numFmtId="0" fontId="15" fillId="4" borderId="11" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="16" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="177" fontId="18" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="177" fontId="18" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="177" fontId="18" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="179" fontId="18" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="179" fontId="18" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="178" fontId="18" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="178" fontId="18" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="16" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="18" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="177" fontId="18" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="177" fontId="18" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="179" fontId="18" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="179" fontId="18" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -6307,20 +6223,36 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="177" fontId="18" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="177" fontId="18" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="177" fontId="18" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="179" fontId="18" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="179" fontId="18" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="178" fontId="18" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -6331,70 +6263,218 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" textRotation="45"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" textRotation="45"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="177" fontId="18" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="177" fontId="18" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="177" fontId="18" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="179" fontId="18" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="179" fontId="18" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="178" fontId="18" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="16" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="181" fontId="15" fillId="0" borderId="10" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="178" fontId="18" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="16" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="8" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="15" fillId="0" borderId="10" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="56" fillId="7" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="7" borderId="16" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="56" fillId="6" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="16" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="4" borderId="3" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="16" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="16" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="4" borderId="4" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="16" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="4" borderId="10" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="4" borderId="11" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="3" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="16" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="28" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="16" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="3" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="3" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="28" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="4" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="16" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="16" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="36" fillId="0" borderId="3" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" wrapText="1"/>
@@ -6402,6 +6482,26 @@
     </xf>
     <xf numFmtId="0" fontId="36" fillId="0" borderId="28" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="3" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="28" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="4" borderId="16" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="37" fillId="0" borderId="14" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="37" fillId="0" borderId="9" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="49" fontId="37" fillId="4" borderId="14" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -6420,124 +6520,37 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="37" fillId="4" borderId="6" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="56" fillId="7" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="7" borderId="16" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="37" fillId="4" borderId="11" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="49" fontId="43" fillId="4" borderId="14" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="4" borderId="14" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="49" fontId="43" fillId="4" borderId="9" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="4" borderId="8" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="49" fontId="43" fillId="4" borderId="7" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="4" borderId="9" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="49" fontId="43" fillId="4" borderId="2" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="4" borderId="21" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
+    <xf numFmtId="172" fontId="41" fillId="0" borderId="0" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="4" borderId="20" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
+    <xf numFmtId="171" fontId="41" fillId="2" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="4" borderId="22" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="4" borderId="23" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="4" borderId="24" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="4" borderId="25" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="4" borderId="19" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="4" borderId="15" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="4" borderId="1" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="4" borderId="6" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="3" borderId="1" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="3" borderId="29" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="3" borderId="6" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="3" borderId="30" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="9" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="38" fontId="23" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="171" fontId="36" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="4" borderId="19" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="4" borderId="15" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="4" borderId="17" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="4" borderId="18" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="170" fontId="36" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -6578,62 +6591,213 @@
     <xf numFmtId="0" fontId="45" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="19" fillId="4" borderId="16" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="4" borderId="17" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="4" borderId="18" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="4" borderId="19" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="4" borderId="15" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="9" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="38" fontId="23" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="3" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="28" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="4" borderId="3" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="4" borderId="4" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="4" borderId="10" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="4" borderId="11" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="4" borderId="21" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="4" borderId="20" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="4" borderId="22" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="4" borderId="23" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="4" borderId="24" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="4" borderId="25" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="4" borderId="19" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="4" borderId="15" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="4" borderId="1" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="4" borderId="6" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="3" borderId="1" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="3" borderId="29" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="3" borderId="6" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="3" borderId="30" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="6" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="16" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="36" fillId="0" borderId="3" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="28" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="37" fillId="4" borderId="6" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="28" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="37" fillId="4" borderId="11" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="43" fillId="4" borderId="14" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="43" fillId="4" borderId="9" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="43" fillId="4" borderId="7" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="43" fillId="4" borderId="2" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="172" fontId="41" fillId="0" borderId="0" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="41" fillId="2" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="36" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="37" fillId="0" borderId="14" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="43" fillId="4" borderId="14" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="37" fillId="0" borderId="9" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="43" fillId="4" borderId="8" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="4" borderId="9" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="8" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="8" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="16" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="17">
@@ -6760,7 +6924,7 @@
         <xdr:cNvPr id="30643" name="Line 59">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{26C26646-7311-46E9-9E78-CC1D2B3F626E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{26C26646-7311-46E9-9E78-CC1D2B3F626E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6814,7 +6978,7 @@
         <xdr:cNvPr id="30644" name="Line 60">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B49276F8-0941-4D7D-8146-C269E6ACE4D6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B49276F8-0941-4D7D-8146-C269E6ACE4D6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6868,7 +7032,7 @@
         <xdr:cNvPr id="30645" name="Line 62">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{49720863-AFF1-493D-8C5B-3E8A332597CC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{49720863-AFF1-493D-8C5B-3E8A332597CC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6922,7 +7086,7 @@
         <xdr:cNvPr id="30646" name="Line 62">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7695EED5-68DE-4941-B396-30D3C770B8B0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7695EED5-68DE-4941-B396-30D3C770B8B0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6976,7 +7140,7 @@
         <xdr:cNvPr id="30647" name="Line 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD58331C-81A7-4159-9782-8A7161F85FB4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD58331C-81A7-4159-9782-8A7161F85FB4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7030,7 +7194,7 @@
         <xdr:cNvPr id="30648" name="Line 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D0300261-277A-4B07-916A-FC3A4EA535EC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D0300261-277A-4B07-916A-FC3A4EA535EC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7084,7 +7248,7 @@
         <xdr:cNvPr id="30649" name="Line 62">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{92E06221-417C-4981-B737-76380BAE82BA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{92E06221-417C-4981-B737-76380BAE82BA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7138,7 +7302,7 @@
         <xdr:cNvPr id="30650" name="Line 62">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EC93D721-69B8-4DB6-8611-B0CA263C6701}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EC93D721-69B8-4DB6-8611-B0CA263C6701}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7192,7 +7356,7 @@
         <xdr:cNvPr id="30651" name="Line 62">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8FFC3F25-367F-4CB6-8861-0D589CD691A0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8FFC3F25-367F-4CB6-8861-0D589CD691A0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7246,7 +7410,7 @@
         <xdr:cNvPr id="30652" name="Line 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{132B4608-E2CC-4568-8160-0038A8B8A9B4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{132B4608-E2CC-4568-8160-0038A8B8A9B4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7300,7 +7464,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{95E86656-9F63-45D0-BC52-81A2571E9B65}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{95E86656-9F63-45D0-BC52-81A2571E9B65}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7350,7 +7514,7 @@
         <xdr:cNvPr id="17" name="Line 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{132B4608-E2CC-4568-8160-0038A8B8A9B4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{132B4608-E2CC-4568-8160-0038A8B8A9B4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7404,7 +7568,7 @@
         <xdr:cNvPr id="19" name="Line 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{132B4608-E2CC-4568-8160-0038A8B8A9B4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{132B4608-E2CC-4568-8160-0038A8B8A9B4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7458,7 +7622,7 @@
         <xdr:cNvPr id="21" name="Line 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{132B4608-E2CC-4568-8160-0038A8B8A9B4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{132B4608-E2CC-4568-8160-0038A8B8A9B4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7512,7 +7676,7 @@
         <xdr:cNvPr id="16" name="Line 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{132B4608-E2CC-4568-8160-0038A8B8A9B4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{132B4608-E2CC-4568-8160-0038A8B8A9B4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7566,7 +7730,7 @@
         <xdr:cNvPr id="18" name="Line 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{132B4608-E2CC-4568-8160-0038A8B8A9B4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{132B4608-E2CC-4568-8160-0038A8B8A9B4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7620,7 +7784,7 @@
         <xdr:cNvPr id="29" name="Line 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{132B4608-E2CC-4568-8160-0038A8B8A9B4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{132B4608-E2CC-4568-8160-0038A8B8A9B4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7674,7 +7838,7 @@
         <xdr:cNvPr id="30" name="Line 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{132B4608-E2CC-4568-8160-0038A8B8A9B4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{132B4608-E2CC-4568-8160-0038A8B8A9B4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7737,10 +7901,10 @@
           </xdr:nvGrpSpPr>
           <xdr:grpSpPr>
             <a:xfrm>
-              <a:off x="380552" y="3921604"/>
-              <a:ext cx="418203" cy="725651"/>
-              <a:chOff x="376566" y="3942673"/>
-              <a:chExt cx="297180" cy="732377"/>
+              <a:off x="380552" y="3921601"/>
+              <a:ext cx="418203" cy="725659"/>
+              <a:chOff x="376566" y="3942670"/>
+              <a:chExt cx="297180" cy="732385"/>
             </a:xfrm>
           </xdr:grpSpPr>
           <xdr:sp macro="" textlink="">
@@ -7751,7 +7915,7 @@
                     <a14:compatExt spid="_x0000_s33793"/>
                   </a:ext>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-0000056C0000}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-0000056C0000}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -7759,7 +7923,7 @@
             </xdr:nvSpPr>
             <xdr:spPr bwMode="auto">
               <a:xfrm>
-                <a:off x="376566" y="3942673"/>
+                <a:off x="376566" y="3942670"/>
                 <a:ext cx="297180" cy="194983"/>
               </a:xfrm>
               <a:prstGeom prst="rect">
@@ -7793,7 +7957,7 @@
                     <a14:compatExt spid="_x0000_s33794"/>
                   </a:ext>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-0000066C0000}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-0000066C0000}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -7835,7 +7999,7 @@
                     <a14:compatExt spid="_x0000_s33795"/>
                   </a:ext>
                   <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-0000076C0000}"/>
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-0000076C0000}"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPr>
@@ -7843,8 +8007,8 @@
             </xdr:nvSpPr>
             <xdr:spPr bwMode="auto">
               <a:xfrm>
-                <a:off x="392430" y="4404371"/>
-                <a:ext cx="243840" cy="270679"/>
+                <a:off x="392430" y="4404375"/>
+                <a:ext cx="243840" cy="270680"/>
               </a:xfrm>
               <a:prstGeom prst="rect">
                 <a:avLst/>
@@ -8303,44 +8467,44 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AS73"/>
+  <dimension ref="A1:AS79"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="17.25" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="17.25" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="3.6640625" style="7" customWidth="1"/>
-    <col min="2" max="2" width="8.88671875" style="7" customWidth="1"/>
-    <col min="3" max="3" width="7.44140625" style="7" customWidth="1"/>
-    <col min="4" max="4" width="6.6640625" style="7" customWidth="1"/>
-    <col min="5" max="5" width="6.88671875" style="7" customWidth="1"/>
-    <col min="6" max="6" width="6.77734375" style="7" customWidth="1"/>
-    <col min="7" max="7" width="6.88671875" style="7" customWidth="1"/>
-    <col min="8" max="8" width="3.5546875" style="7" customWidth="1"/>
-    <col min="9" max="9" width="5.88671875" style="7" customWidth="1"/>
-    <col min="10" max="10" width="7.33203125" style="7" customWidth="1"/>
-    <col min="11" max="11" width="8.88671875" style="7" customWidth="1"/>
-    <col min="12" max="12" width="7.44140625" style="7" customWidth="1"/>
+    <col min="1" max="1" width="3.7109375" style="7" customWidth="1"/>
+    <col min="2" max="2" width="8.85546875" style="7" customWidth="1"/>
+    <col min="3" max="3" width="7.42578125" style="7" customWidth="1"/>
+    <col min="4" max="4" width="6.7109375" style="7" customWidth="1"/>
+    <col min="5" max="5" width="6.85546875" style="7" customWidth="1"/>
+    <col min="6" max="6" width="6.7109375" style="7" customWidth="1"/>
+    <col min="7" max="7" width="6.85546875" style="7" customWidth="1"/>
+    <col min="8" max="8" width="3.5703125" style="7" customWidth="1"/>
+    <col min="9" max="9" width="5.85546875" style="7" customWidth="1"/>
+    <col min="10" max="10" width="7.28515625" style="7" customWidth="1"/>
+    <col min="11" max="11" width="8.85546875" style="7" customWidth="1"/>
+    <col min="12" max="12" width="7.42578125" style="7" customWidth="1"/>
     <col min="13" max="13" width="4" style="7" customWidth="1"/>
-    <col min="14" max="14" width="5.88671875" style="7" customWidth="1"/>
-    <col min="15" max="15" width="7.109375" style="7" customWidth="1"/>
-    <col min="16" max="16" width="7.44140625" style="7" customWidth="1"/>
-    <col min="17" max="17" width="8.109375" style="7" customWidth="1"/>
+    <col min="14" max="14" width="5.85546875" style="7" customWidth="1"/>
+    <col min="15" max="15" width="7.140625" style="7" customWidth="1"/>
+    <col min="16" max="16" width="7.42578125" style="7" customWidth="1"/>
+    <col min="17" max="17" width="8.140625" style="7" customWidth="1"/>
     <col min="18" max="18" width="10" style="7" customWidth="1"/>
-    <col min="19" max="19" width="7.5546875" style="7" customWidth="1"/>
-    <col min="20" max="20" width="2.109375" style="7" customWidth="1"/>
-    <col min="21" max="21" width="4.109375" style="7" customWidth="1"/>
-    <col min="22" max="22" width="2.44140625" style="7" customWidth="1"/>
-    <col min="23" max="23" width="7.33203125" style="7" customWidth="1"/>
-    <col min="24" max="24" width="3.44140625" style="7" customWidth="1"/>
-    <col min="25" max="25" width="11.6640625" style="7" customWidth="1"/>
+    <col min="19" max="19" width="7.5703125" style="7" customWidth="1"/>
+    <col min="20" max="20" width="2.140625" style="7" customWidth="1"/>
+    <col min="21" max="21" width="4.140625" style="7" customWidth="1"/>
+    <col min="22" max="22" width="2.42578125" style="7" customWidth="1"/>
+    <col min="23" max="23" width="7.28515625" style="7" customWidth="1"/>
+    <col min="24" max="24" width="3.42578125" style="7" customWidth="1"/>
+    <col min="25" max="25" width="11.7109375" style="7" customWidth="1"/>
     <col min="26" max="26" width="4" style="7" customWidth="1"/>
     <col min="27" max="27" width="6" style="7" customWidth="1"/>
-    <col min="28" max="28" width="6.33203125" style="7" customWidth="1"/>
-    <col min="29" max="29" width="1.88671875" style="7" customWidth="1"/>
+    <col min="28" max="28" width="6.28515625" style="7" customWidth="1"/>
+    <col min="29" max="29" width="1.85546875" style="7" customWidth="1"/>
     <col min="30" max="30" width="4" style="7" customWidth="1"/>
-    <col min="31" max="31" width="4.6640625" style="7" customWidth="1"/>
-    <col min="32" max="16384" width="9.109375" style="7"/>
+    <col min="31" max="31" width="4.7109375" style="7" customWidth="1"/>
+    <col min="32" max="16384" width="9.140625" style="7"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:32" ht="72" customHeight="1">
@@ -8361,12 +8525,12 @@
       <c r="I3" s="10"/>
       <c r="J3" s="9"/>
       <c r="K3" s="9"/>
-      <c r="L3" s="269" t="s">
+      <c r="L3" s="333" t="s">
         <v>468</v>
       </c>
-      <c r="M3" s="269"/>
-      <c r="N3" s="269"/>
-      <c r="O3" s="269"/>
+      <c r="M3" s="333"/>
+      <c r="N3" s="333"/>
+      <c r="O3" s="333"/>
       <c r="P3" s="9"/>
       <c r="Q3" s="9"/>
       <c r="R3" s="9"/>
@@ -8386,13 +8550,13 @@
         <v>30</v>
       </c>
       <c r="C4" s="9"/>
-      <c r="D4" s="271" t="s">
+      <c r="D4" s="335" t="s">
         <v>52</v>
       </c>
-      <c r="E4" s="271"/>
-      <c r="F4" s="271"/>
-      <c r="G4" s="271"/>
-      <c r="H4" s="271"/>
+      <c r="E4" s="335"/>
+      <c r="F4" s="335"/>
+      <c r="G4" s="335"/>
+      <c r="H4" s="335"/>
       <c r="I4" s="9"/>
       <c r="J4" s="9"/>
       <c r="K4" s="9"/>
@@ -8419,13 +8583,13 @@
         <v>28</v>
       </c>
       <c r="C5" s="13"/>
-      <c r="D5" s="302" t="s">
+      <c r="D5" s="332" t="s">
         <v>53</v>
       </c>
-      <c r="E5" s="302"/>
-      <c r="F5" s="302"/>
-      <c r="G5" s="302"/>
-      <c r="H5" s="302"/>
+      <c r="E5" s="332"/>
+      <c r="F5" s="332"/>
+      <c r="G5" s="332"/>
+      <c r="H5" s="332"/>
       <c r="I5" s="14"/>
       <c r="J5" s="14"/>
       <c r="K5" s="14"/>
@@ -8443,13 +8607,13 @@
       <c r="U5" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="V5" s="286" t="s">
+      <c r="V5" s="323" t="s">
         <v>56</v>
       </c>
-      <c r="W5" s="286"/>
-      <c r="X5" s="286"/>
-      <c r="Y5" s="286"/>
-      <c r="Z5" s="286"/>
+      <c r="W5" s="323"/>
+      <c r="X5" s="323"/>
+      <c r="Y5" s="323"/>
+      <c r="Z5" s="323"/>
       <c r="AA5" s="10"/>
       <c r="AB5" s="18"/>
     </row>
@@ -8479,13 +8643,13 @@
       <c r="U6" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="V6" s="287" t="s">
+      <c r="V6" s="324" t="s">
         <v>57</v>
       </c>
-      <c r="W6" s="287"/>
-      <c r="X6" s="287"/>
-      <c r="Y6" s="287"/>
-      <c r="Z6" s="287"/>
+      <c r="W6" s="324"/>
+      <c r="X6" s="324"/>
+      <c r="Y6" s="324"/>
+      <c r="Z6" s="324"/>
       <c r="AA6" s="10"/>
       <c r="AB6" s="18"/>
     </row>
@@ -8494,24 +8658,24 @@
       <c r="B7" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="C7" s="272" t="s">
+      <c r="C7" s="336" t="s">
         <v>54</v>
       </c>
-      <c r="D7" s="272"/>
-      <c r="E7" s="272"/>
-      <c r="F7" s="272"/>
-      <c r="G7" s="272"/>
-      <c r="H7" s="279" t="s">
+      <c r="D7" s="336"/>
+      <c r="E7" s="336"/>
+      <c r="F7" s="336"/>
+      <c r="G7" s="336"/>
+      <c r="H7" s="337" t="s">
         <v>519</v>
       </c>
-      <c r="I7" s="279"/>
-      <c r="J7" s="272" t="s">
+      <c r="I7" s="337"/>
+      <c r="J7" s="336" t="s">
         <v>55</v>
       </c>
-      <c r="K7" s="272"/>
-      <c r="L7" s="272"/>
-      <c r="M7" s="272"/>
-      <c r="N7" s="272"/>
+      <c r="K7" s="336"/>
+      <c r="L7" s="336"/>
+      <c r="M7" s="336"/>
+      <c r="N7" s="336"/>
       <c r="O7" s="21"/>
       <c r="P7" s="21"/>
       <c r="Q7" s="21"/>
@@ -8523,13 +8687,13 @@
       <c r="U7" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="V7" s="287" t="s">
+      <c r="V7" s="324" t="s">
         <v>58</v>
       </c>
-      <c r="W7" s="287"/>
-      <c r="X7" s="287"/>
-      <c r="Y7" s="287"/>
-      <c r="Z7" s="287"/>
+      <c r="W7" s="324"/>
+      <c r="X7" s="324"/>
+      <c r="Y7" s="324"/>
+      <c r="Z7" s="324"/>
       <c r="AA7" s="10"/>
       <c r="AB7" s="18"/>
     </row>
@@ -8609,21 +8773,21 @@
       <c r="M10" s="22"/>
       <c r="N10" s="22"/>
       <c r="O10" s="22"/>
-      <c r="P10" s="296" t="s">
+      <c r="P10" s="330" t="s">
         <v>50</v>
       </c>
-      <c r="Q10" s="296"/>
-      <c r="R10" s="296"/>
-      <c r="S10" s="296"/>
-      <c r="T10" s="296"/>
-      <c r="U10" s="296"/>
-      <c r="V10" s="296"/>
-      <c r="W10" s="296"/>
-      <c r="X10" s="296"/>
-      <c r="Y10" s="293" t="s">
+      <c r="Q10" s="330"/>
+      <c r="R10" s="330"/>
+      <c r="S10" s="330"/>
+      <c r="T10" s="330"/>
+      <c r="U10" s="330"/>
+      <c r="V10" s="330"/>
+      <c r="W10" s="330"/>
+      <c r="X10" s="330"/>
+      <c r="Y10" s="327" t="s">
         <v>59</v>
       </c>
-      <c r="Z10" s="293"/>
+      <c r="Z10" s="327"/>
       <c r="AB10" s="18"/>
     </row>
     <row r="11" spans="1:32" ht="17.25" customHeight="1">
@@ -8646,21 +8810,21 @@
       <c r="M11" s="25"/>
       <c r="N11" s="25"/>
       <c r="O11" s="26"/>
-      <c r="P11" s="297" t="s">
+      <c r="P11" s="331" t="s">
         <v>46</v>
       </c>
-      <c r="Q11" s="297"/>
-      <c r="R11" s="297"/>
-      <c r="S11" s="297"/>
-      <c r="T11" s="297"/>
-      <c r="U11" s="297"/>
-      <c r="V11" s="297"/>
-      <c r="W11" s="294" t="s">
+      <c r="Q11" s="331"/>
+      <c r="R11" s="331"/>
+      <c r="S11" s="331"/>
+      <c r="T11" s="331"/>
+      <c r="U11" s="331"/>
+      <c r="V11" s="331"/>
+      <c r="W11" s="328" t="s">
         <v>467</v>
       </c>
-      <c r="X11" s="294"/>
-      <c r="Y11" s="294"/>
-      <c r="Z11" s="294"/>
+      <c r="X11" s="328"/>
+      <c r="Y11" s="328"/>
+      <c r="Z11" s="328"/>
       <c r="AA11" s="27"/>
     </row>
     <row r="12" spans="1:32" s="27" customFormat="1" ht="17.25" customHeight="1">
@@ -8679,19 +8843,19 @@
       <c r="M12" s="29"/>
       <c r="N12" s="29"/>
       <c r="O12" s="29"/>
-      <c r="P12" s="292" t="s">
+      <c r="P12" s="326" t="s">
         <v>518</v>
       </c>
-      <c r="Q12" s="292"/>
-      <c r="R12" s="292"/>
-      <c r="S12" s="292"/>
-      <c r="T12" s="292"/>
-      <c r="U12" s="292"/>
-      <c r="V12" s="292"/>
-      <c r="W12" s="292"/>
-      <c r="X12" s="292"/>
-      <c r="Y12" s="292"/>
-      <c r="Z12" s="292"/>
+      <c r="Q12" s="326"/>
+      <c r="R12" s="326"/>
+      <c r="S12" s="326"/>
+      <c r="T12" s="326"/>
+      <c r="U12" s="326"/>
+      <c r="V12" s="326"/>
+      <c r="W12" s="326"/>
+      <c r="X12" s="326"/>
+      <c r="Y12" s="326"/>
+      <c r="Z12" s="326"/>
     </row>
     <row r="13" spans="1:32" s="27" customFormat="1" ht="17.25" customHeight="1">
       <c r="A13" s="28"/>
@@ -8752,8 +8916,8 @@
       <c r="G15" s="162" t="s">
         <v>238</v>
       </c>
-      <c r="H15" s="284"/>
-      <c r="I15" s="285"/>
+      <c r="H15" s="265"/>
+      <c r="I15" s="266"/>
       <c r="J15" s="37" t="s">
         <v>239</v>
       </c>
@@ -8761,8 +8925,8 @@
       <c r="L15" s="162" t="s">
         <v>240</v>
       </c>
-      <c r="M15" s="284"/>
-      <c r="N15" s="285"/>
+      <c r="M15" s="265"/>
+      <c r="N15" s="266"/>
       <c r="O15" s="37" t="s">
         <v>241</v>
       </c>
@@ -8770,12 +8934,12 @@
       <c r="Q15" s="39"/>
       <c r="R15" s="29"/>
       <c r="S15" s="29"/>
-      <c r="T15" s="291" t="s">
+      <c r="T15" s="321" t="s">
         <v>37</v>
       </c>
-      <c r="U15" s="291"/>
-      <c r="V15" s="291"/>
-      <c r="W15" s="291"/>
+      <c r="U15" s="321"/>
+      <c r="V15" s="321"/>
+      <c r="W15" s="321"/>
       <c r="X15" s="40"/>
       <c r="Y15" s="41"/>
       <c r="Z15" s="32"/>
@@ -8783,47 +8947,47 @@
     <row r="16" spans="1:32" s="27" customFormat="1" ht="12" customHeight="1">
       <c r="A16" s="42"/>
       <c r="B16" s="43"/>
-      <c r="C16" s="254" t="s">
+      <c r="C16" s="257" t="s">
         <v>73</v>
       </c>
-      <c r="D16" s="255"/>
-      <c r="E16" s="254" t="s">
+      <c r="D16" s="292"/>
+      <c r="E16" s="257" t="s">
         <v>101</v>
       </c>
-      <c r="F16" s="268"/>
-      <c r="G16" s="254" t="s">
+      <c r="F16" s="258"/>
+      <c r="G16" s="257" t="s">
         <v>129</v>
       </c>
-      <c r="H16" s="255"/>
-      <c r="I16" s="268"/>
-      <c r="J16" s="254" t="s">
+      <c r="H16" s="292"/>
+      <c r="I16" s="258"/>
+      <c r="J16" s="257" t="s">
         <v>157</v>
       </c>
-      <c r="K16" s="268"/>
-      <c r="L16" s="254" t="s">
+      <c r="K16" s="258"/>
+      <c r="L16" s="257" t="s">
         <v>185</v>
       </c>
-      <c r="M16" s="255"/>
-      <c r="N16" s="268"/>
-      <c r="O16" s="254" t="s">
+      <c r="M16" s="292"/>
+      <c r="N16" s="258"/>
+      <c r="O16" s="257" t="s">
         <v>213</v>
       </c>
-      <c r="P16" s="268"/>
+      <c r="P16" s="258"/>
       <c r="Q16" s="43"/>
       <c r="S16" s="29"/>
-      <c r="T16" s="295" t="s">
+      <c r="T16" s="329" t="s">
         <v>60</v>
       </c>
-      <c r="U16" s="295"/>
-      <c r="V16" s="295"/>
-      <c r="W16" s="295"/>
+      <c r="U16" s="329"/>
+      <c r="V16" s="329"/>
+      <c r="W16" s="329"/>
       <c r="X16" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="Y16" s="305" t="s">
+      <c r="Y16" s="314" t="s">
         <v>68</v>
       </c>
-      <c r="Z16" s="305"/>
+      <c r="Z16" s="314"/>
       <c r="AF16" s="62"/>
     </row>
     <row r="17" spans="1:45" s="27" customFormat="1" ht="12" customHeight="1">
@@ -8844,10 +9008,10 @@
       <c r="G17" s="159" t="s">
         <v>254</v>
       </c>
-      <c r="H17" s="280" t="s">
+      <c r="H17" s="300" t="s">
         <v>130</v>
       </c>
-      <c r="I17" s="281"/>
+      <c r="I17" s="301"/>
       <c r="J17" s="44" t="s">
         <v>257</v>
       </c>
@@ -8857,10 +9021,10 @@
       <c r="L17" s="159" t="s">
         <v>260</v>
       </c>
-      <c r="M17" s="280" t="s">
+      <c r="M17" s="300" t="s">
         <v>186</v>
       </c>
-      <c r="N17" s="281"/>
+      <c r="N17" s="301"/>
       <c r="O17" s="44" t="s">
         <v>263</v>
       </c>
@@ -8889,40 +9053,40 @@
     <row r="18" spans="1:45" s="27" customFormat="1" ht="12" customHeight="1">
       <c r="A18" s="42"/>
       <c r="B18" s="49"/>
-      <c r="C18" s="256" t="s">
+      <c r="C18" s="255" t="s">
         <v>75</v>
       </c>
-      <c r="D18" s="257"/>
-      <c r="E18" s="256" t="s">
+      <c r="D18" s="287"/>
+      <c r="E18" s="255" t="s">
         <v>103</v>
       </c>
-      <c r="F18" s="265"/>
-      <c r="G18" s="256" t="s">
+      <c r="F18" s="256"/>
+      <c r="G18" s="255" t="s">
         <v>131</v>
       </c>
-      <c r="H18" s="257"/>
-      <c r="I18" s="265"/>
-      <c r="J18" s="257" t="s">
+      <c r="H18" s="287"/>
+      <c r="I18" s="256"/>
+      <c r="J18" s="287" t="s">
         <v>159</v>
       </c>
-      <c r="K18" s="257"/>
-      <c r="L18" s="273" t="s">
+      <c r="K18" s="287"/>
+      <c r="L18" s="293" t="s">
         <v>187</v>
       </c>
-      <c r="M18" s="274"/>
-      <c r="N18" s="275"/>
-      <c r="O18" s="257" t="s">
+      <c r="M18" s="294"/>
+      <c r="N18" s="295"/>
+      <c r="O18" s="287" t="s">
         <v>215</v>
       </c>
-      <c r="P18" s="257"/>
-      <c r="Q18" s="304" t="s">
+      <c r="P18" s="287"/>
+      <c r="Q18" s="319" t="s">
         <v>455</v>
       </c>
       <c r="S18" s="29"/>
-      <c r="T18" s="288"/>
-      <c r="U18" s="288"/>
-      <c r="V18" s="288"/>
-      <c r="W18" s="288"/>
+      <c r="T18" s="325"/>
+      <c r="U18" s="325"/>
+      <c r="V18" s="325"/>
+      <c r="W18" s="325"/>
       <c r="X18" s="40"/>
       <c r="Y18" s="48"/>
       <c r="Z18" s="32"/>
@@ -8951,10 +9115,10 @@
       <c r="G19" s="165" t="s">
         <v>132</v>
       </c>
-      <c r="H19" s="289" t="s">
+      <c r="H19" s="296" t="s">
         <v>133</v>
       </c>
-      <c r="I19" s="290"/>
+      <c r="I19" s="297"/>
       <c r="J19" s="163" t="s">
         <v>160</v>
       </c>
@@ -8964,22 +9128,22 @@
       <c r="L19" s="163" t="s">
         <v>188</v>
       </c>
-      <c r="M19" s="289" t="s">
+      <c r="M19" s="296" t="s">
         <v>189</v>
       </c>
-      <c r="N19" s="290"/>
+      <c r="N19" s="297"/>
       <c r="O19" s="166" t="s">
         <v>216</v>
       </c>
       <c r="P19" s="164" t="s">
         <v>217</v>
       </c>
-      <c r="Q19" s="304"/>
+      <c r="Q19" s="319"/>
       <c r="S19" s="29"/>
-      <c r="T19" s="288"/>
-      <c r="U19" s="288"/>
-      <c r="V19" s="288"/>
-      <c r="W19" s="288"/>
+      <c r="T19" s="325"/>
+      <c r="U19" s="325"/>
+      <c r="V19" s="325"/>
+      <c r="W19" s="325"/>
       <c r="X19" s="40"/>
       <c r="Y19" s="48"/>
       <c r="Z19" s="32"/>
@@ -8996,24 +9160,24 @@
     </row>
     <row r="20" spans="1:45" s="27" customFormat="1" ht="12" customHeight="1">
       <c r="A20" s="42"/>
-      <c r="B20" s="270" t="s">
+      <c r="B20" s="334" t="s">
         <v>72</v>
       </c>
       <c r="C20" s="50" t="s">
         <v>249</v>
       </c>
-      <c r="D20" s="262" t="s">
+      <c r="D20" s="340" t="s">
         <v>78</v>
       </c>
-      <c r="E20" s="263"/>
-      <c r="F20" s="264"/>
+      <c r="E20" s="288"/>
+      <c r="F20" s="341"/>
       <c r="G20" s="160" t="s">
         <v>253</v>
       </c>
-      <c r="H20" s="298" t="s">
+      <c r="H20" s="261" t="s">
         <v>106</v>
       </c>
-      <c r="I20" s="299"/>
+      <c r="I20" s="262"/>
       <c r="J20" s="50" t="s">
         <v>255</v>
       </c>
@@ -9023,10 +9187,10 @@
       <c r="L20" s="53" t="s">
         <v>258</v>
       </c>
-      <c r="M20" s="266" t="s">
+      <c r="M20" s="285" t="s">
         <v>162</v>
       </c>
-      <c r="N20" s="267"/>
+      <c r="N20" s="286"/>
       <c r="O20" s="53" t="s">
         <v>261</v>
       </c>
@@ -9035,48 +9199,48 @@
       </c>
       <c r="Q20" s="172"/>
       <c r="S20" s="29"/>
-      <c r="T20" s="288"/>
-      <c r="U20" s="288"/>
-      <c r="V20" s="288"/>
-      <c r="W20" s="288"/>
+      <c r="T20" s="325"/>
+      <c r="U20" s="325"/>
+      <c r="V20" s="325"/>
+      <c r="W20" s="325"/>
       <c r="X20" s="40"/>
       <c r="Y20" s="48"/>
       <c r="Z20" s="32"/>
       <c r="AA20" s="42"/>
       <c r="AD20"/>
       <c r="AE20"/>
-      <c r="AF20" s="308" t="s">
+      <c r="AF20" s="318" t="s">
         <v>459</v>
       </c>
       <c r="AG20"/>
     </row>
     <row r="21" spans="1:45" s="27" customFormat="1" ht="12" customHeight="1">
       <c r="A21" s="42"/>
-      <c r="B21" s="270"/>
-      <c r="C21" s="256" t="s">
+      <c r="B21" s="334"/>
+      <c r="C21" s="255" t="s">
         <v>79</v>
       </c>
-      <c r="D21" s="257"/>
-      <c r="E21" s="257"/>
-      <c r="F21" s="265"/>
-      <c r="G21" s="256" t="s">
+      <c r="D21" s="287"/>
+      <c r="E21" s="287"/>
+      <c r="F21" s="256"/>
+      <c r="G21" s="255" t="s">
         <v>107</v>
       </c>
-      <c r="H21" s="257"/>
-      <c r="I21" s="265"/>
-      <c r="J21" s="273" t="s">
+      <c r="H21" s="287"/>
+      <c r="I21" s="256"/>
+      <c r="J21" s="293" t="s">
         <v>135</v>
       </c>
-      <c r="K21" s="275"/>
-      <c r="L21" s="273" t="s">
+      <c r="K21" s="295"/>
+      <c r="L21" s="293" t="s">
         <v>163</v>
       </c>
-      <c r="M21" s="274"/>
-      <c r="N21" s="275"/>
-      <c r="O21" s="273" t="s">
+      <c r="M21" s="294"/>
+      <c r="N21" s="295"/>
+      <c r="O21" s="293" t="s">
         <v>191</v>
       </c>
-      <c r="P21" s="275"/>
+      <c r="P21" s="295"/>
       <c r="Q21" s="173"/>
       <c r="S21" s="29"/>
       <c r="T21" s="29"/>
@@ -9089,7 +9253,7 @@
       <c r="AA21" s="42"/>
       <c r="AD21"/>
       <c r="AE21"/>
-      <c r="AF21" s="308"/>
+      <c r="AF21" s="318"/>
       <c r="AG21"/>
     </row>
     <row r="22" spans="1:45" s="27" customFormat="1" ht="12" customHeight="1">
@@ -9098,18 +9262,18 @@
       <c r="C22" s="167" t="s">
         <v>80</v>
       </c>
-      <c r="D22" s="258" t="s">
+      <c r="D22" s="263" t="s">
         <v>81</v>
       </c>
-      <c r="E22" s="258"/>
-      <c r="F22" s="259"/>
+      <c r="E22" s="263"/>
+      <c r="F22" s="264"/>
       <c r="G22" s="168" t="s">
         <v>108</v>
       </c>
-      <c r="H22" s="258" t="s">
+      <c r="H22" s="263" t="s">
         <v>109</v>
       </c>
-      <c r="I22" s="259"/>
+      <c r="I22" s="264"/>
       <c r="J22" s="169" t="s">
         <v>136</v>
       </c>
@@ -9119,10 +9283,10 @@
       <c r="L22" s="169" t="s">
         <v>164</v>
       </c>
-      <c r="M22" s="258" t="s">
+      <c r="M22" s="263" t="s">
         <v>165</v>
       </c>
-      <c r="N22" s="259"/>
+      <c r="N22" s="264"/>
       <c r="O22" s="171" t="s">
         <v>192</v>
       </c>
@@ -9161,10 +9325,10 @@
       <c r="G23" s="160" t="s">
         <v>256</v>
       </c>
-      <c r="H23" s="298" t="s">
+      <c r="H23" s="261" t="s">
         <v>138</v>
       </c>
-      <c r="I23" s="299"/>
+      <c r="I23" s="262"/>
       <c r="J23" s="50" t="s">
         <v>259</v>
       </c>
@@ -9174,10 +9338,10 @@
       <c r="L23" s="160" t="s">
         <v>262</v>
       </c>
-      <c r="M23" s="298" t="s">
+      <c r="M23" s="261" t="s">
         <v>194</v>
       </c>
-      <c r="N23" s="299"/>
+      <c r="N23" s="262"/>
       <c r="O23" s="50" t="s">
         <v>264</v>
       </c>
@@ -9207,42 +9371,42 @@
     <row r="24" spans="1:45" s="27" customFormat="1" ht="12" customHeight="1">
       <c r="A24" s="42"/>
       <c r="B24" s="43"/>
-      <c r="C24" s="256" t="s">
+      <c r="C24" s="255" t="s">
         <v>83</v>
       </c>
-      <c r="D24" s="257"/>
-      <c r="E24" s="256" t="s">
+      <c r="D24" s="287"/>
+      <c r="E24" s="255" t="s">
         <v>111</v>
       </c>
-      <c r="F24" s="257"/>
-      <c r="G24" s="276" t="s">
+      <c r="F24" s="287"/>
+      <c r="G24" s="270" t="s">
         <v>139</v>
       </c>
-      <c r="H24" s="277"/>
-      <c r="I24" s="278"/>
-      <c r="J24" s="256" t="s">
+      <c r="H24" s="271"/>
+      <c r="I24" s="272"/>
+      <c r="J24" s="255" t="s">
         <v>167</v>
       </c>
-      <c r="K24" s="257"/>
-      <c r="L24" s="276" t="s">
+      <c r="K24" s="287"/>
+      <c r="L24" s="270" t="s">
         <v>195</v>
       </c>
-      <c r="M24" s="277"/>
-      <c r="N24" s="278"/>
-      <c r="O24" s="256" t="s">
+      <c r="M24" s="271"/>
+      <c r="N24" s="272"/>
+      <c r="O24" s="255" t="s">
         <v>219</v>
       </c>
-      <c r="P24" s="257"/>
-      <c r="Q24" s="304" t="s">
+      <c r="P24" s="287"/>
+      <c r="Q24" s="319" t="s">
         <v>453</v>
       </c>
       <c r="S24" s="29"/>
-      <c r="T24" s="306" t="s">
+      <c r="T24" s="302" t="s">
         <v>233</v>
       </c>
-      <c r="U24" s="306"/>
-      <c r="V24" s="306"/>
-      <c r="W24" s="306"/>
+      <c r="U24" s="302"/>
+      <c r="V24" s="302"/>
+      <c r="W24" s="302"/>
       <c r="X24" s="40"/>
       <c r="Y24" s="57" t="s">
         <v>234</v>
@@ -9273,10 +9437,10 @@
       <c r="G25" s="165" t="s">
         <v>140</v>
       </c>
-      <c r="H25" s="300" t="s">
+      <c r="H25" s="298" t="s">
         <v>141</v>
       </c>
-      <c r="I25" s="301"/>
+      <c r="I25" s="299"/>
       <c r="J25" s="163" t="s">
         <v>168</v>
       </c>
@@ -9286,17 +9450,17 @@
       <c r="L25" s="163" t="s">
         <v>196</v>
       </c>
-      <c r="M25" s="260" t="s">
+      <c r="M25" s="338" t="s">
         <v>197</v>
       </c>
-      <c r="N25" s="261"/>
+      <c r="N25" s="339"/>
       <c r="O25" s="163" t="s">
         <v>220</v>
       </c>
       <c r="P25" s="164" t="s">
         <v>221</v>
       </c>
-      <c r="Q25" s="304"/>
+      <c r="Q25" s="319"/>
       <c r="S25" s="29"/>
       <c r="T25" s="29"/>
       <c r="U25" s="29"/>
@@ -9326,8 +9490,8 @@
       <c r="G26" s="161" t="s">
         <v>244</v>
       </c>
-      <c r="H26" s="282"/>
-      <c r="I26" s="283"/>
+      <c r="H26" s="290"/>
+      <c r="I26" s="291"/>
       <c r="J26" s="58" t="s">
         <v>245</v>
       </c>
@@ -9335,19 +9499,19 @@
       <c r="L26" s="161" t="s">
         <v>246</v>
       </c>
-      <c r="M26" s="282"/>
-      <c r="N26" s="283"/>
+      <c r="M26" s="290"/>
+      <c r="N26" s="291"/>
       <c r="O26" s="34" t="s">
         <v>247</v>
       </c>
       <c r="P26" s="61"/>
       <c r="Q26" s="43"/>
       <c r="S26" s="29"/>
-      <c r="T26" s="307" t="s">
+      <c r="T26" s="320" t="s">
         <v>38</v>
       </c>
-      <c r="U26" s="307"/>
-      <c r="V26" s="307"/>
+      <c r="U26" s="320"/>
+      <c r="V26" s="320"/>
       <c r="W26" s="32" t="s">
         <v>8</v>
       </c>
@@ -9366,40 +9530,40 @@
     <row r="27" spans="1:45" s="27" customFormat="1" ht="12" customHeight="1">
       <c r="A27" s="42"/>
       <c r="B27" s="33"/>
-      <c r="C27" s="254" t="s">
+      <c r="C27" s="257" t="s">
         <v>86</v>
       </c>
-      <c r="D27" s="255"/>
-      <c r="E27" s="254" t="s">
+      <c r="D27" s="292"/>
+      <c r="E27" s="257" t="s">
         <v>114</v>
       </c>
-      <c r="F27" s="255"/>
-      <c r="G27" s="254" t="s">
+      <c r="F27" s="292"/>
+      <c r="G27" s="257" t="s">
         <v>142</v>
       </c>
-      <c r="H27" s="255"/>
-      <c r="I27" s="268"/>
-      <c r="J27" s="254" t="s">
+      <c r="H27" s="292"/>
+      <c r="I27" s="258"/>
+      <c r="J27" s="257" t="s">
         <v>170</v>
       </c>
-      <c r="K27" s="255"/>
-      <c r="L27" s="254" t="s">
+      <c r="K27" s="292"/>
+      <c r="L27" s="257" t="s">
         <v>198</v>
       </c>
-      <c r="M27" s="255"/>
-      <c r="N27" s="268"/>
-      <c r="O27" s="254" t="s">
+      <c r="M27" s="292"/>
+      <c r="N27" s="258"/>
+      <c r="O27" s="257" t="s">
         <v>222</v>
       </c>
-      <c r="P27" s="268"/>
+      <c r="P27" s="258"/>
       <c r="Q27" s="62"/>
       <c r="R27" s="29"/>
       <c r="S27" s="31"/>
-      <c r="T27" s="307" t="s">
+      <c r="T27" s="320" t="s">
         <v>61</v>
       </c>
-      <c r="U27" s="307"/>
-      <c r="V27" s="307"/>
+      <c r="U27" s="320"/>
+      <c r="V27" s="320"/>
       <c r="W27" s="32" t="s">
         <v>8</v>
       </c>
@@ -9435,11 +9599,11 @@
       <c r="Q28" s="62"/>
       <c r="R28" s="29"/>
       <c r="S28" s="31"/>
-      <c r="T28" s="306" t="s">
+      <c r="T28" s="302" t="s">
         <v>40</v>
       </c>
-      <c r="U28" s="306"/>
-      <c r="V28" s="306"/>
+      <c r="U28" s="302"/>
+      <c r="V28" s="302"/>
       <c r="W28" s="32" t="s">
         <v>8</v>
       </c>
@@ -9558,12 +9722,12 @@
       <c r="Q31" s="25"/>
       <c r="R31" s="65"/>
       <c r="S31" s="69"/>
-      <c r="T31" s="291" t="s">
+      <c r="T31" s="321" t="s">
         <v>37</v>
       </c>
-      <c r="U31" s="291"/>
-      <c r="V31" s="291"/>
-      <c r="W31" s="291"/>
+      <c r="U31" s="321"/>
+      <c r="V31" s="321"/>
+      <c r="W31" s="321"/>
       <c r="X31" s="67"/>
       <c r="Y31" s="68"/>
       <c r="Z31" s="32"/>
@@ -9574,7 +9738,7 @@
       <c r="AH31"/>
       <c r="AI31"/>
     </row>
-    <row r="32" spans="1:45" ht="13.8">
+    <row r="32" spans="1:45" ht="12.75">
       <c r="A32" s="18"/>
       <c r="B32" s="70"/>
       <c r="C32" s="70"/>
@@ -9594,32 +9758,32 @@
       <c r="Q32" s="70"/>
       <c r="R32" s="70"/>
       <c r="S32" s="70"/>
-      <c r="T32" s="309" t="s">
+      <c r="T32" s="322" t="s">
         <v>69</v>
       </c>
-      <c r="U32" s="309"/>
-      <c r="V32" s="309"/>
-      <c r="W32" s="309"/>
+      <c r="U32" s="322"/>
+      <c r="V32" s="322"/>
+      <c r="W32" s="322"/>
       <c r="X32" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="Y32" s="305" t="s">
+      <c r="Y32" s="314" t="s">
         <v>70</v>
       </c>
-      <c r="Z32" s="305"/>
+      <c r="Z32" s="314"/>
       <c r="AD32"/>
       <c r="AE32"/>
       <c r="AF32"/>
       <c r="AG32"/>
       <c r="AH32"/>
       <c r="AI32"/>
-      <c r="AJ32" s="310"/>
-      <c r="AK32" s="310"/>
+      <c r="AJ32" s="312"/>
+      <c r="AK32" s="312"/>
       <c r="AL32" s="72"/>
       <c r="AM32" s="72"/>
       <c r="AN32" s="72"/>
-      <c r="AO32" s="310"/>
-      <c r="AP32" s="310"/>
+      <c r="AO32" s="312"/>
+      <c r="AP32" s="312"/>
       <c r="AQ32" s="72"/>
       <c r="AR32" s="72"/>
       <c r="AS32" s="72"/>
@@ -9638,8 +9802,8 @@
       <c r="G33" s="162" t="s">
         <v>267</v>
       </c>
-      <c r="H33" s="284"/>
-      <c r="I33" s="285"/>
+      <c r="H33" s="265"/>
+      <c r="I33" s="266"/>
       <c r="J33" s="156" t="s">
         <v>268</v>
       </c>
@@ -9647,8 +9811,8 @@
       <c r="L33" s="162" t="s">
         <v>269</v>
       </c>
-      <c r="M33" s="284"/>
-      <c r="N33" s="285"/>
+      <c r="M33" s="265"/>
+      <c r="N33" s="266"/>
       <c r="O33" s="156" t="s">
         <v>270</v>
       </c>
@@ -9684,32 +9848,32 @@
     <row r="34" spans="1:45" s="27" customFormat="1" ht="12" customHeight="1">
       <c r="A34" s="75"/>
       <c r="B34" s="43"/>
-      <c r="C34" s="254" t="s">
+      <c r="C34" s="257" t="s">
         <v>87</v>
       </c>
-      <c r="D34" s="268"/>
-      <c r="E34" s="254" t="s">
+      <c r="D34" s="258"/>
+      <c r="E34" s="257" t="s">
         <v>115</v>
       </c>
-      <c r="F34" s="268"/>
-      <c r="G34" s="254" t="s">
+      <c r="F34" s="258"/>
+      <c r="G34" s="257" t="s">
         <v>143</v>
       </c>
-      <c r="H34" s="255"/>
-      <c r="I34" s="268"/>
-      <c r="J34" s="254" t="s">
+      <c r="H34" s="292"/>
+      <c r="I34" s="258"/>
+      <c r="J34" s="257" t="s">
         <v>171</v>
       </c>
-      <c r="K34" s="268"/>
-      <c r="L34" s="254" t="s">
+      <c r="K34" s="258"/>
+      <c r="L34" s="257" t="s">
         <v>199</v>
       </c>
-      <c r="M34" s="255"/>
-      <c r="N34" s="268"/>
-      <c r="O34" s="254" t="s">
+      <c r="M34" s="292"/>
+      <c r="N34" s="258"/>
+      <c r="O34" s="257" t="s">
         <v>223</v>
       </c>
-      <c r="P34" s="268"/>
+      <c r="P34" s="258"/>
       <c r="Q34" s="43"/>
       <c r="S34" s="73"/>
       <c r="T34" s="74"/>
@@ -9727,13 +9891,13 @@
       <c r="AG34"/>
       <c r="AH34"/>
       <c r="AI34"/>
-      <c r="AJ34" s="312"/>
-      <c r="AK34" s="312"/>
+      <c r="AJ34" s="315"/>
+      <c r="AK34" s="315"/>
       <c r="AL34" s="77"/>
       <c r="AM34" s="76"/>
       <c r="AN34" s="77"/>
-      <c r="AO34" s="312"/>
-      <c r="AP34" s="312"/>
+      <c r="AO34" s="315"/>
+      <c r="AP34" s="315"/>
       <c r="AQ34" s="77"/>
       <c r="AR34" s="76"/>
       <c r="AS34" s="77"/>
@@ -9756,10 +9920,10 @@
       <c r="G35" s="159" t="s">
         <v>273</v>
       </c>
-      <c r="H35" s="280" t="s">
+      <c r="H35" s="300" t="s">
         <v>144</v>
       </c>
-      <c r="I35" s="281"/>
+      <c r="I35" s="301"/>
       <c r="J35" s="159" t="s">
         <v>274</v>
       </c>
@@ -9769,10 +9933,10 @@
       <c r="L35" s="159" t="s">
         <v>275</v>
       </c>
-      <c r="M35" s="280" t="s">
+      <c r="M35" s="300" t="s">
         <v>200</v>
       </c>
-      <c r="N35" s="281"/>
+      <c r="N35" s="301"/>
       <c r="O35" s="159" t="s">
         <v>276</v>
       </c>
@@ -9806,42 +9970,42 @@
       <c r="AL35" s="311"/>
       <c r="AM35" s="311"/>
       <c r="AN35" s="311"/>
-      <c r="AO35" s="277"/>
-      <c r="AP35" s="277"/>
-      <c r="AQ35" s="277"/>
-      <c r="AR35" s="313"/>
-      <c r="AS35" s="313"/>
+      <c r="AO35" s="271"/>
+      <c r="AP35" s="271"/>
+      <c r="AQ35" s="271"/>
+      <c r="AR35" s="316"/>
+      <c r="AS35" s="316"/>
     </row>
     <row r="36" spans="1:45" s="27" customFormat="1" ht="12" customHeight="1">
       <c r="A36" s="75"/>
       <c r="B36" s="43"/>
-      <c r="C36" s="256" t="s">
+      <c r="C36" s="255" t="s">
         <v>89</v>
       </c>
-      <c r="D36" s="265"/>
-      <c r="E36" s="256" t="s">
+      <c r="D36" s="256"/>
+      <c r="E36" s="255" t="s">
         <v>117</v>
       </c>
-      <c r="F36" s="265"/>
-      <c r="G36" s="256" t="s">
+      <c r="F36" s="256"/>
+      <c r="G36" s="255" t="s">
         <v>145</v>
       </c>
-      <c r="H36" s="257"/>
-      <c r="I36" s="265"/>
-      <c r="J36" s="256" t="s">
+      <c r="H36" s="287"/>
+      <c r="I36" s="256"/>
+      <c r="J36" s="255" t="s">
         <v>173</v>
       </c>
-      <c r="K36" s="265"/>
-      <c r="L36" s="273" t="s">
+      <c r="K36" s="256"/>
+      <c r="L36" s="293" t="s">
         <v>201</v>
       </c>
-      <c r="M36" s="274"/>
-      <c r="N36" s="275"/>
-      <c r="O36" s="256" t="s">
+      <c r="M36" s="294"/>
+      <c r="N36" s="295"/>
+      <c r="O36" s="255" t="s">
         <v>225</v>
       </c>
-      <c r="P36" s="265"/>
-      <c r="Q36" s="304" t="s">
+      <c r="P36" s="256"/>
+      <c r="Q36" s="319" t="s">
         <v>456</v>
       </c>
       <c r="S36" s="73"/>
@@ -9891,10 +10055,10 @@
       <c r="G37" s="163" t="s">
         <v>146</v>
       </c>
-      <c r="H37" s="289" t="s">
+      <c r="H37" s="296" t="s">
         <v>147</v>
       </c>
-      <c r="I37" s="290"/>
+      <c r="I37" s="297"/>
       <c r="J37" s="163" t="s">
         <v>174</v>
       </c>
@@ -9904,17 +10068,17 @@
       <c r="L37" s="163" t="s">
         <v>202</v>
       </c>
-      <c r="M37" s="289" t="s">
+      <c r="M37" s="296" t="s">
         <v>203</v>
       </c>
-      <c r="N37" s="290"/>
+      <c r="N37" s="297"/>
       <c r="O37" s="166" t="s">
         <v>226</v>
       </c>
       <c r="P37" s="164" t="s">
         <v>227</v>
       </c>
-      <c r="Q37" s="304"/>
+      <c r="Q37" s="319"/>
       <c r="S37" s="83"/>
       <c r="T37" s="74"/>
       <c r="U37" s="74"/>
@@ -9933,37 +10097,37 @@
       <c r="AG37" s="176"/>
       <c r="AH37" s="176"/>
       <c r="AI37" s="176"/>
-      <c r="AJ37" s="303"/>
-      <c r="AK37" s="303"/>
+      <c r="AJ37" s="313"/>
+      <c r="AK37" s="313"/>
       <c r="AL37" s="77"/>
       <c r="AM37" s="55"/>
       <c r="AN37" s="78"/>
       <c r="AO37" s="55"/>
-      <c r="AP37" s="314"/>
-      <c r="AQ37" s="314"/>
+      <c r="AP37" s="317"/>
+      <c r="AQ37" s="317"/>
       <c r="AR37" s="55"/>
       <c r="AS37" s="77"/>
     </row>
     <row r="38" spans="1:45" s="27" customFormat="1" ht="12" customHeight="1">
       <c r="A38" s="75"/>
-      <c r="B38" s="270" t="s">
+      <c r="B38" s="334" t="s">
         <v>232</v>
       </c>
       <c r="C38" s="157" t="s">
         <v>277</v>
       </c>
-      <c r="D38" s="263" t="s">
+      <c r="D38" s="288" t="s">
         <v>92</v>
       </c>
-      <c r="E38" s="263"/>
-      <c r="F38" s="343"/>
+      <c r="E38" s="288"/>
+      <c r="F38" s="289"/>
       <c r="G38" s="160" t="s">
         <v>278</v>
       </c>
-      <c r="H38" s="298" t="s">
+      <c r="H38" s="261" t="s">
         <v>120</v>
       </c>
-      <c r="I38" s="299"/>
+      <c r="I38" s="262"/>
       <c r="J38" s="157" t="s">
         <v>279</v>
       </c>
@@ -9973,10 +10137,10 @@
       <c r="L38" s="53" t="s">
         <v>280</v>
       </c>
-      <c r="M38" s="266" t="s">
+      <c r="M38" s="285" t="s">
         <v>176</v>
       </c>
-      <c r="N38" s="267"/>
+      <c r="N38" s="286"/>
       <c r="O38" s="53" t="s">
         <v>281</v>
       </c>
@@ -9992,7 +10156,7 @@
       <c r="X38" s="29"/>
       <c r="Y38" s="84"/>
       <c r="Z38" s="29"/>
-      <c r="AF38" s="308" t="s">
+      <c r="AF38" s="318" t="s">
         <v>466</v>
       </c>
       <c r="AG38" s="175"/>
@@ -10001,41 +10165,41 @@
       <c r="AJ38" s="311"/>
       <c r="AK38" s="311"/>
       <c r="AL38" s="311"/>
-      <c r="AM38" s="277"/>
-      <c r="AN38" s="277"/>
-      <c r="AO38" s="277"/>
-      <c r="AP38" s="277"/>
-      <c r="AQ38" s="277"/>
-      <c r="AR38" s="277"/>
-      <c r="AS38" s="277"/>
+      <c r="AM38" s="271"/>
+      <c r="AN38" s="271"/>
+      <c r="AO38" s="271"/>
+      <c r="AP38" s="271"/>
+      <c r="AQ38" s="271"/>
+      <c r="AR38" s="271"/>
+      <c r="AS38" s="271"/>
     </row>
     <row r="39" spans="1:45" s="27" customFormat="1" ht="12" customHeight="1">
       <c r="A39" s="75"/>
-      <c r="B39" s="270"/>
-      <c r="C39" s="256" t="s">
+      <c r="B39" s="334"/>
+      <c r="C39" s="255" t="s">
         <v>93</v>
       </c>
-      <c r="D39" s="257"/>
-      <c r="E39" s="257"/>
-      <c r="F39" s="265"/>
-      <c r="G39" s="256" t="s">
+      <c r="D39" s="287"/>
+      <c r="E39" s="287"/>
+      <c r="F39" s="256"/>
+      <c r="G39" s="255" t="s">
         <v>121</v>
       </c>
-      <c r="H39" s="257"/>
-      <c r="I39" s="265"/>
-      <c r="J39" s="273" t="s">
+      <c r="H39" s="287"/>
+      <c r="I39" s="256"/>
+      <c r="J39" s="293" t="s">
         <v>149</v>
       </c>
-      <c r="K39" s="275"/>
-      <c r="L39" s="273" t="s">
+      <c r="K39" s="295"/>
+      <c r="L39" s="293" t="s">
         <v>177</v>
       </c>
-      <c r="M39" s="274"/>
-      <c r="N39" s="275"/>
-      <c r="O39" s="273" t="s">
+      <c r="M39" s="294"/>
+      <c r="N39" s="295"/>
+      <c r="O39" s="293" t="s">
         <v>205</v>
       </c>
-      <c r="P39" s="275"/>
+      <c r="P39" s="295"/>
       <c r="Q39" s="173"/>
       <c r="S39" s="83"/>
       <c r="T39" s="31" t="s">
@@ -10047,7 +10211,7 @@
       <c r="X39" s="29"/>
       <c r="Y39" s="84"/>
       <c r="Z39" s="32"/>
-      <c r="AF39" s="308"/>
+      <c r="AF39" s="318"/>
       <c r="AG39" s="177"/>
       <c r="AH39" s="177"/>
       <c r="AI39" s="82"/>
@@ -10068,18 +10232,18 @@
       <c r="C40" s="167" t="s">
         <v>94</v>
       </c>
-      <c r="D40" s="258" t="s">
+      <c r="D40" s="263" t="s">
         <v>95</v>
       </c>
-      <c r="E40" s="258"/>
-      <c r="F40" s="259"/>
+      <c r="E40" s="263"/>
+      <c r="F40" s="264"/>
       <c r="G40" s="168" t="s">
         <v>122</v>
       </c>
-      <c r="H40" s="258" t="s">
+      <c r="H40" s="263" t="s">
         <v>123</v>
       </c>
-      <c r="I40" s="259"/>
+      <c r="I40" s="264"/>
       <c r="J40" s="169" t="s">
         <v>150</v>
       </c>
@@ -10089,10 +10253,10 @@
       <c r="L40" s="169" t="s">
         <v>178</v>
       </c>
-      <c r="M40" s="258" t="s">
+      <c r="M40" s="263" t="s">
         <v>179</v>
       </c>
-      <c r="N40" s="259"/>
+      <c r="N40" s="264"/>
       <c r="O40" s="171" t="s">
         <v>206</v>
       </c>
@@ -10101,12 +10265,12 @@
       </c>
       <c r="Q40" s="56"/>
       <c r="S40" s="25"/>
-      <c r="T40" s="306" t="s">
+      <c r="T40" s="302" t="s">
         <v>233</v>
       </c>
-      <c r="U40" s="306"/>
-      <c r="V40" s="306"/>
-      <c r="W40" s="306"/>
+      <c r="U40" s="302"/>
+      <c r="V40" s="302"/>
+      <c r="W40" s="302"/>
       <c r="X40" s="40"/>
       <c r="Y40" s="85" t="s">
         <v>71</v>
@@ -10116,13 +10280,13 @@
       <c r="AG40" s="77"/>
       <c r="AH40" s="177"/>
       <c r="AI40" s="176"/>
-      <c r="AJ40" s="303"/>
-      <c r="AK40" s="303"/>
+      <c r="AJ40" s="313"/>
+      <c r="AK40" s="313"/>
       <c r="AL40" s="77"/>
       <c r="AM40" s="55"/>
       <c r="AN40" s="77"/>
-      <c r="AO40" s="303"/>
-      <c r="AP40" s="303"/>
+      <c r="AO40" s="313"/>
+      <c r="AP40" s="313"/>
       <c r="AQ40" s="77"/>
       <c r="AR40" s="55"/>
       <c r="AS40" s="77"/>
@@ -10145,10 +10309,10 @@
       <c r="G41" s="160" t="s">
         <v>284</v>
       </c>
-      <c r="H41" s="298" t="s">
+      <c r="H41" s="261" t="s">
         <v>152</v>
       </c>
-      <c r="I41" s="299"/>
+      <c r="I41" s="262"/>
       <c r="J41" s="157" t="s">
         <v>285</v>
       </c>
@@ -10158,10 +10322,10 @@
       <c r="L41" s="160" t="s">
         <v>286</v>
       </c>
-      <c r="M41" s="298" t="s">
+      <c r="M41" s="261" t="s">
         <v>208</v>
       </c>
-      <c r="N41" s="299"/>
+      <c r="N41" s="262"/>
       <c r="O41" s="157" t="s">
         <v>287</v>
       </c>
@@ -10183,55 +10347,55 @@
       <c r="AG41" s="174"/>
       <c r="AH41" s="174"/>
       <c r="AI41" s="174"/>
-      <c r="AJ41" s="277"/>
-      <c r="AK41" s="277"/>
-      <c r="AL41" s="277"/>
+      <c r="AJ41" s="271"/>
+      <c r="AK41" s="271"/>
+      <c r="AL41" s="271"/>
       <c r="AM41" s="311"/>
       <c r="AN41" s="311"/>
-      <c r="AO41" s="277"/>
-      <c r="AP41" s="277"/>
-      <c r="AQ41" s="277"/>
-      <c r="AR41" s="277"/>
-      <c r="AS41" s="277"/>
+      <c r="AO41" s="271"/>
+      <c r="AP41" s="271"/>
+      <c r="AQ41" s="271"/>
+      <c r="AR41" s="271"/>
+      <c r="AS41" s="271"/>
     </row>
     <row r="42" spans="1:45" s="27" customFormat="1" ht="12" customHeight="1">
       <c r="A42" s="75"/>
       <c r="B42" s="43"/>
-      <c r="C42" s="256" t="s">
+      <c r="C42" s="255" t="s">
         <v>97</v>
       </c>
-      <c r="D42" s="265"/>
-      <c r="E42" s="256" t="s">
+      <c r="D42" s="256"/>
+      <c r="E42" s="255" t="s">
         <v>125</v>
       </c>
-      <c r="F42" s="265"/>
-      <c r="G42" s="276" t="s">
+      <c r="F42" s="256"/>
+      <c r="G42" s="270" t="s">
         <v>153</v>
       </c>
-      <c r="H42" s="277"/>
-      <c r="I42" s="278"/>
-      <c r="J42" s="256" t="s">
+      <c r="H42" s="271"/>
+      <c r="I42" s="272"/>
+      <c r="J42" s="255" t="s">
         <v>181</v>
       </c>
-      <c r="K42" s="265"/>
-      <c r="L42" s="276" t="s">
+      <c r="K42" s="256"/>
+      <c r="L42" s="270" t="s">
         <v>209</v>
       </c>
-      <c r="M42" s="277"/>
-      <c r="N42" s="278"/>
-      <c r="O42" s="256" t="s">
+      <c r="M42" s="271"/>
+      <c r="N42" s="272"/>
+      <c r="O42" s="255" t="s">
         <v>229</v>
       </c>
-      <c r="P42" s="265"/>
-      <c r="Q42" s="304" t="s">
+      <c r="P42" s="256"/>
+      <c r="Q42" s="319" t="s">
         <v>454</v>
       </c>
       <c r="S42" s="29"/>
-      <c r="T42" s="307" t="s">
+      <c r="T42" s="320" t="s">
         <v>38</v>
       </c>
-      <c r="U42" s="307"/>
-      <c r="V42" s="307"/>
+      <c r="U42" s="320"/>
+      <c r="V42" s="320"/>
       <c r="W42" s="32" t="s">
         <v>8</v>
       </c>
@@ -10273,10 +10437,10 @@
       <c r="G43" s="163" t="s">
         <v>154</v>
       </c>
-      <c r="H43" s="300" t="s">
+      <c r="H43" s="298" t="s">
         <v>155</v>
       </c>
-      <c r="I43" s="301"/>
+      <c r="I43" s="299"/>
       <c r="J43" s="163" t="s">
         <v>182</v>
       </c>
@@ -10286,23 +10450,23 @@
       <c r="L43" s="163" t="s">
         <v>210</v>
       </c>
-      <c r="M43" s="289" t="s">
+      <c r="M43" s="296" t="s">
         <v>211</v>
       </c>
-      <c r="N43" s="290"/>
+      <c r="N43" s="297"/>
       <c r="O43" s="163" t="s">
         <v>230</v>
       </c>
       <c r="P43" s="164" t="s">
         <v>231</v>
       </c>
-      <c r="Q43" s="304"/>
+      <c r="Q43" s="319"/>
       <c r="S43" s="29"/>
-      <c r="T43" s="307" t="s">
+      <c r="T43" s="320" t="s">
         <v>61</v>
       </c>
-      <c r="U43" s="307"/>
-      <c r="V43" s="307"/>
+      <c r="U43" s="320"/>
+      <c r="V43" s="320"/>
       <c r="W43" s="32" t="s">
         <v>8</v>
       </c>
@@ -10315,13 +10479,13 @@
       <c r="AG43" s="178"/>
       <c r="AH43" s="178"/>
       <c r="AI43" s="178"/>
-      <c r="AJ43" s="310"/>
-      <c r="AK43" s="310"/>
+      <c r="AJ43" s="312"/>
+      <c r="AK43" s="312"/>
       <c r="AL43" s="72"/>
       <c r="AM43" s="72"/>
       <c r="AN43" s="72"/>
-      <c r="AO43" s="310"/>
-      <c r="AP43" s="310"/>
+      <c r="AO43" s="312"/>
+      <c r="AP43" s="312"/>
       <c r="AQ43" s="72"/>
       <c r="AR43" s="72"/>
       <c r="AS43" s="72"/>
@@ -10340,8 +10504,8 @@
       <c r="G44" s="162" t="s">
         <v>290</v>
       </c>
-      <c r="H44" s="284"/>
-      <c r="I44" s="285"/>
+      <c r="H44" s="265"/>
+      <c r="I44" s="266"/>
       <c r="J44" s="58" t="s">
         <v>291</v>
       </c>
@@ -10349,19 +10513,19 @@
       <c r="L44" s="162" t="s">
         <v>292</v>
       </c>
-      <c r="M44" s="284"/>
-      <c r="N44" s="285"/>
+      <c r="M44" s="265"/>
+      <c r="N44" s="266"/>
       <c r="O44" s="34" t="s">
         <v>293</v>
       </c>
       <c r="P44" s="61"/>
       <c r="Q44" s="43"/>
       <c r="S44" s="29"/>
-      <c r="T44" s="306" t="s">
+      <c r="T44" s="302" t="s">
         <v>40</v>
       </c>
-      <c r="U44" s="306"/>
-      <c r="V44" s="306"/>
+      <c r="U44" s="302"/>
+      <c r="V44" s="302"/>
       <c r="W44" s="32" t="s">
         <v>8</v>
       </c>
@@ -10391,32 +10555,32 @@
     <row r="45" spans="1:45" s="27" customFormat="1" ht="12" customHeight="1">
       <c r="A45" s="42"/>
       <c r="B45" s="33"/>
-      <c r="C45" s="254" t="s">
+      <c r="C45" s="257" t="s">
         <v>100</v>
       </c>
-      <c r="D45" s="268"/>
-      <c r="E45" s="254" t="s">
+      <c r="D45" s="258"/>
+      <c r="E45" s="257" t="s">
         <v>128</v>
       </c>
-      <c r="F45" s="268"/>
-      <c r="G45" s="254" t="s">
+      <c r="F45" s="258"/>
+      <c r="G45" s="257" t="s">
         <v>156</v>
       </c>
-      <c r="H45" s="255"/>
-      <c r="I45" s="268"/>
-      <c r="J45" s="254" t="s">
+      <c r="H45" s="292"/>
+      <c r="I45" s="258"/>
+      <c r="J45" s="257" t="s">
         <v>184</v>
       </c>
-      <c r="K45" s="268"/>
-      <c r="L45" s="254" t="s">
+      <c r="K45" s="258"/>
+      <c r="L45" s="257" t="s">
         <v>212</v>
       </c>
-      <c r="M45" s="255"/>
-      <c r="N45" s="268"/>
-      <c r="O45" s="254" t="s">
+      <c r="M45" s="292"/>
+      <c r="N45" s="258"/>
+      <c r="O45" s="257" t="s">
         <v>294</v>
       </c>
-      <c r="P45" s="268"/>
+      <c r="P45" s="258"/>
       <c r="Q45" s="62"/>
       <c r="R45" s="29"/>
       <c r="S45" s="31"/>
@@ -10431,18 +10595,18 @@
     <row r="46" spans="1:45" ht="17.25" customHeight="1">
       <c r="A46" s="18"/>
       <c r="B46" s="88"/>
-      <c r="C46" s="322"/>
-      <c r="D46" s="322"/>
-      <c r="E46" s="322"/>
-      <c r="F46" s="322"/>
-      <c r="G46" s="322"/>
-      <c r="H46" s="322"/>
-      <c r="I46" s="322"/>
-      <c r="J46" s="322"/>
-      <c r="K46" s="322"/>
-      <c r="L46" s="322"/>
-      <c r="M46" s="322"/>
-      <c r="N46" s="322"/>
+      <c r="C46" s="254"/>
+      <c r="D46" s="254"/>
+      <c r="E46" s="254"/>
+      <c r="F46" s="254"/>
+      <c r="G46" s="254"/>
+      <c r="H46" s="254"/>
+      <c r="I46" s="254"/>
+      <c r="J46" s="254"/>
+      <c r="K46" s="254"/>
+      <c r="L46" s="254"/>
+      <c r="M46" s="254"/>
+      <c r="N46" s="254"/>
       <c r="O46" s="71"/>
       <c r="P46" s="70"/>
       <c r="Q46" s="70"/>
@@ -10499,20 +10663,20 @@
       <c r="F48" s="90"/>
       <c r="G48" s="90"/>
       <c r="H48" s="90"/>
-      <c r="I48" s="321"/>
-      <c r="J48" s="321"/>
-      <c r="K48" s="321"/>
-      <c r="L48" s="321"/>
-      <c r="M48" s="331" t="s">
+      <c r="I48" s="307"/>
+      <c r="J48" s="307"/>
+      <c r="K48" s="307"/>
+      <c r="L48" s="307"/>
+      <c r="M48" s="273" t="s">
         <v>15</v>
       </c>
-      <c r="N48" s="332"/>
-      <c r="O48" s="332"/>
-      <c r="P48" s="332"/>
-      <c r="Q48" s="332"/>
-      <c r="R48" s="332"/>
-      <c r="S48" s="332"/>
-      <c r="T48" s="333"/>
+      <c r="N48" s="274"/>
+      <c r="O48" s="274"/>
+      <c r="P48" s="274"/>
+      <c r="Q48" s="274"/>
+      <c r="R48" s="274"/>
+      <c r="S48" s="274"/>
+      <c r="T48" s="275"/>
       <c r="U48" s="93"/>
       <c r="V48" s="93"/>
       <c r="W48" s="93"/>
@@ -10533,22 +10697,22 @@
       <c r="F49" s="199"/>
       <c r="G49" s="199"/>
       <c r="H49" s="200"/>
-      <c r="I49" s="323" t="s">
+      <c r="I49" s="260" t="s">
         <v>514</v>
       </c>
-      <c r="J49" s="323"/>
-      <c r="K49" s="323"/>
-      <c r="L49" s="323"/>
-      <c r="M49" s="334" t="s">
+      <c r="J49" s="260"/>
+      <c r="K49" s="260"/>
+      <c r="L49" s="260"/>
+      <c r="M49" s="276" t="s">
         <v>235</v>
       </c>
-      <c r="N49" s="335"/>
-      <c r="O49" s="335"/>
-      <c r="P49" s="335"/>
-      <c r="Q49" s="335"/>
-      <c r="R49" s="335"/>
-      <c r="S49" s="335"/>
-      <c r="T49" s="336"/>
+      <c r="N49" s="277"/>
+      <c r="O49" s="277"/>
+      <c r="P49" s="277"/>
+      <c r="Q49" s="277"/>
+      <c r="R49" s="277"/>
+      <c r="S49" s="277"/>
+      <c r="T49" s="278"/>
       <c r="U49" s="93"/>
       <c r="V49" s="93"/>
       <c r="W49" s="93"/>
@@ -10558,7 +10722,7 @@
       <c r="AA49" s="94"/>
       <c r="AB49" s="18"/>
     </row>
-    <row r="50" spans="1:30" ht="13.8">
+    <row r="50" spans="1:30" ht="12.75">
       <c r="A50" s="92"/>
       <c r="B50" s="201"/>
       <c r="C50" s="199" t="s">
@@ -10569,20 +10733,20 @@
       <c r="F50" s="199"/>
       <c r="G50" s="199"/>
       <c r="H50" s="200"/>
-      <c r="I50" s="323" t="s">
+      <c r="I50" s="260" t="s">
         <v>515</v>
       </c>
-      <c r="J50" s="323"/>
-      <c r="K50" s="323"/>
-      <c r="L50" s="323"/>
-      <c r="M50" s="337"/>
-      <c r="N50" s="338"/>
-      <c r="O50" s="338"/>
-      <c r="P50" s="338"/>
-      <c r="Q50" s="338"/>
-      <c r="R50" s="338"/>
-      <c r="S50" s="338"/>
-      <c r="T50" s="339"/>
+      <c r="J50" s="260"/>
+      <c r="K50" s="260"/>
+      <c r="L50" s="260"/>
+      <c r="M50" s="279"/>
+      <c r="N50" s="280"/>
+      <c r="O50" s="280"/>
+      <c r="P50" s="280"/>
+      <c r="Q50" s="280"/>
+      <c r="R50" s="280"/>
+      <c r="S50" s="280"/>
+      <c r="T50" s="281"/>
       <c r="U50" s="94"/>
       <c r="V50" s="93"/>
       <c r="W50" s="93"/>
@@ -10592,7 +10756,7 @@
       <c r="AA50" s="94"/>
       <c r="AB50" s="18"/>
     </row>
-    <row r="51" spans="1:30" ht="13.8">
+    <row r="51" spans="1:30" ht="12.75">
       <c r="A51" s="92"/>
       <c r="B51" s="201"/>
       <c r="C51" s="199" t="s">
@@ -10603,20 +10767,20 @@
       <c r="F51" s="199"/>
       <c r="G51" s="199"/>
       <c r="H51" s="200"/>
-      <c r="I51" s="323" t="s">
+      <c r="I51" s="260" t="s">
         <v>593</v>
       </c>
-      <c r="J51" s="323"/>
-      <c r="K51" s="323"/>
-      <c r="L51" s="323"/>
-      <c r="M51" s="337"/>
-      <c r="N51" s="338"/>
-      <c r="O51" s="338"/>
-      <c r="P51" s="338"/>
-      <c r="Q51" s="338"/>
-      <c r="R51" s="338"/>
-      <c r="S51" s="338"/>
-      <c r="T51" s="339"/>
+      <c r="J51" s="260"/>
+      <c r="K51" s="260"/>
+      <c r="L51" s="260"/>
+      <c r="M51" s="279"/>
+      <c r="N51" s="280"/>
+      <c r="O51" s="280"/>
+      <c r="P51" s="280"/>
+      <c r="Q51" s="280"/>
+      <c r="R51" s="280"/>
+      <c r="S51" s="280"/>
+      <c r="T51" s="281"/>
       <c r="U51" s="94"/>
       <c r="V51" s="93"/>
       <c r="W51" s="93"/>
@@ -10626,7 +10790,7 @@
       <c r="AA51" s="94"/>
       <c r="AB51" s="18"/>
     </row>
-    <row r="52" spans="1:30" ht="13.8">
+    <row r="52" spans="1:30" ht="12.75">
       <c r="A52" s="92"/>
       <c r="B52" s="201"/>
       <c r="C52" s="199" t="s">
@@ -10637,20 +10801,20 @@
       <c r="F52" s="199"/>
       <c r="G52" s="199"/>
       <c r="H52" s="200"/>
-      <c r="I52" s="323" t="s">
+      <c r="I52" s="260" t="s">
         <v>516</v>
       </c>
-      <c r="J52" s="323"/>
-      <c r="K52" s="323"/>
-      <c r="L52" s="323"/>
-      <c r="M52" s="337"/>
-      <c r="N52" s="338"/>
-      <c r="O52" s="338"/>
-      <c r="P52" s="338"/>
-      <c r="Q52" s="338"/>
-      <c r="R52" s="338"/>
-      <c r="S52" s="338"/>
-      <c r="T52" s="339"/>
+      <c r="J52" s="260"/>
+      <c r="K52" s="260"/>
+      <c r="L52" s="260"/>
+      <c r="M52" s="279"/>
+      <c r="N52" s="280"/>
+      <c r="O52" s="280"/>
+      <c r="P52" s="280"/>
+      <c r="Q52" s="280"/>
+      <c r="R52" s="280"/>
+      <c r="S52" s="280"/>
+      <c r="T52" s="281"/>
       <c r="U52" s="94"/>
       <c r="V52" s="93"/>
       <c r="W52" s="93"/>
@@ -10660,7 +10824,7 @@
       <c r="AA52" s="94"/>
       <c r="AB52" s="18"/>
     </row>
-    <row r="53" spans="1:30" ht="13.8">
+    <row r="53" spans="1:30" ht="12.75">
       <c r="A53" s="92"/>
       <c r="B53" s="201"/>
       <c r="C53" s="199" t="s">
@@ -10671,20 +10835,20 @@
       <c r="F53" s="199"/>
       <c r="G53" s="199"/>
       <c r="H53" s="200"/>
-      <c r="I53" s="323" t="s">
+      <c r="I53" s="260" t="s">
         <v>594</v>
       </c>
-      <c r="J53" s="323"/>
-      <c r="K53" s="323"/>
-      <c r="L53" s="323"/>
-      <c r="M53" s="337"/>
-      <c r="N53" s="338"/>
-      <c r="O53" s="338"/>
-      <c r="P53" s="338"/>
-      <c r="Q53" s="338"/>
-      <c r="R53" s="338"/>
-      <c r="S53" s="338"/>
-      <c r="T53" s="339"/>
+      <c r="J53" s="260"/>
+      <c r="K53" s="260"/>
+      <c r="L53" s="260"/>
+      <c r="M53" s="279"/>
+      <c r="N53" s="280"/>
+      <c r="O53" s="280"/>
+      <c r="P53" s="280"/>
+      <c r="Q53" s="280"/>
+      <c r="R53" s="280"/>
+      <c r="S53" s="280"/>
+      <c r="T53" s="281"/>
       <c r="U53" s="94"/>
       <c r="V53" s="93"/>
       <c r="W53" s="93"/>
@@ -10694,31 +10858,31 @@
       <c r="AA53" s="94"/>
       <c r="AB53" s="18"/>
     </row>
-    <row r="54" spans="1:30" ht="13.2" customHeight="1">
+    <row r="54" spans="1:30" ht="13.15" customHeight="1">
       <c r="A54" s="92"/>
-      <c r="B54" s="328" t="s">
+      <c r="B54" s="267" t="s">
         <v>20</v>
       </c>
-      <c r="C54" s="329"/>
-      <c r="D54" s="329"/>
-      <c r="E54" s="329"/>
-      <c r="F54" s="329"/>
-      <c r="G54" s="329"/>
-      <c r="H54" s="330"/>
-      <c r="I54" s="327" t="s">
+      <c r="C54" s="268"/>
+      <c r="D54" s="268"/>
+      <c r="E54" s="268"/>
+      <c r="F54" s="268"/>
+      <c r="G54" s="268"/>
+      <c r="H54" s="269"/>
+      <c r="I54" s="259" t="s">
         <v>517</v>
       </c>
-      <c r="J54" s="327"/>
-      <c r="K54" s="327"/>
-      <c r="L54" s="327"/>
-      <c r="M54" s="337"/>
-      <c r="N54" s="338"/>
-      <c r="O54" s="338"/>
-      <c r="P54" s="338"/>
-      <c r="Q54" s="338"/>
-      <c r="R54" s="338"/>
-      <c r="S54" s="338"/>
-      <c r="T54" s="339"/>
+      <c r="J54" s="259"/>
+      <c r="K54" s="259"/>
+      <c r="L54" s="259"/>
+      <c r="M54" s="279"/>
+      <c r="N54" s="280"/>
+      <c r="O54" s="280"/>
+      <c r="P54" s="280"/>
+      <c r="Q54" s="280"/>
+      <c r="R54" s="280"/>
+      <c r="S54" s="280"/>
+      <c r="T54" s="281"/>
       <c r="U54" s="94"/>
       <c r="V54" s="93"/>
       <c r="W54" s="93"/>
@@ -10728,7 +10892,7 @@
       <c r="AA54" s="94"/>
       <c r="AB54" s="18"/>
     </row>
-    <row r="55" spans="1:30" ht="13.8" customHeight="1">
+    <row r="55" spans="1:30" ht="13.9" customHeight="1">
       <c r="A55" s="92"/>
       <c r="B55" s="202">
         <v>1</v>
@@ -10741,18 +10905,18 @@
       <c r="F55" s="203"/>
       <c r="G55" s="203"/>
       <c r="H55" s="204"/>
-      <c r="I55" s="327"/>
-      <c r="J55" s="327"/>
-      <c r="K55" s="327"/>
-      <c r="L55" s="327"/>
-      <c r="M55" s="337"/>
-      <c r="N55" s="338"/>
-      <c r="O55" s="338"/>
-      <c r="P55" s="338"/>
-      <c r="Q55" s="338"/>
-      <c r="R55" s="338"/>
-      <c r="S55" s="338"/>
-      <c r="T55" s="339"/>
+      <c r="I55" s="259"/>
+      <c r="J55" s="259"/>
+      <c r="K55" s="259"/>
+      <c r="L55" s="259"/>
+      <c r="M55" s="279"/>
+      <c r="N55" s="280"/>
+      <c r="O55" s="280"/>
+      <c r="P55" s="280"/>
+      <c r="Q55" s="280"/>
+      <c r="R55" s="280"/>
+      <c r="S55" s="280"/>
+      <c r="T55" s="281"/>
       <c r="U55" s="94"/>
       <c r="V55" s="93"/>
       <c r="W55" s="93"/>
@@ -10762,7 +10926,7 @@
       <c r="AA55" s="94"/>
       <c r="AB55" s="18"/>
     </row>
-    <row r="56" spans="1:30" ht="13.8">
+    <row r="56" spans="1:30" ht="12.75">
       <c r="A56" s="92"/>
       <c r="B56" s="202">
         <v>2</v>
@@ -10775,18 +10939,18 @@
       <c r="F56" s="203"/>
       <c r="G56" s="203"/>
       <c r="H56" s="204"/>
-      <c r="I56" s="327"/>
-      <c r="J56" s="327"/>
-      <c r="K56" s="327"/>
-      <c r="L56" s="327"/>
-      <c r="M56" s="337"/>
-      <c r="N56" s="338"/>
-      <c r="O56" s="338"/>
-      <c r="P56" s="338"/>
-      <c r="Q56" s="338"/>
-      <c r="R56" s="338"/>
-      <c r="S56" s="338"/>
-      <c r="T56" s="339"/>
+      <c r="I56" s="259"/>
+      <c r="J56" s="259"/>
+      <c r="K56" s="259"/>
+      <c r="L56" s="259"/>
+      <c r="M56" s="279"/>
+      <c r="N56" s="280"/>
+      <c r="O56" s="280"/>
+      <c r="P56" s="280"/>
+      <c r="Q56" s="280"/>
+      <c r="R56" s="280"/>
+      <c r="S56" s="280"/>
+      <c r="T56" s="281"/>
       <c r="U56" s="94"/>
       <c r="V56" s="93"/>
       <c r="W56" s="93"/>
@@ -10796,7 +10960,7 @@
       <c r="AA56" s="94"/>
       <c r="AB56" s="18"/>
     </row>
-    <row r="57" spans="1:30" ht="13.8">
+    <row r="57" spans="1:30" ht="12.75">
       <c r="A57" s="92"/>
       <c r="B57" s="202">
         <v>3</v>
@@ -10809,18 +10973,18 @@
       <c r="F57" s="203"/>
       <c r="G57" s="203"/>
       <c r="H57" s="204"/>
-      <c r="I57" s="327"/>
-      <c r="J57" s="327"/>
-      <c r="K57" s="327"/>
-      <c r="L57" s="327"/>
-      <c r="M57" s="337"/>
-      <c r="N57" s="338"/>
-      <c r="O57" s="338"/>
-      <c r="P57" s="338"/>
-      <c r="Q57" s="338"/>
-      <c r="R57" s="338"/>
-      <c r="S57" s="338"/>
-      <c r="T57" s="339"/>
+      <c r="I57" s="259"/>
+      <c r="J57" s="259"/>
+      <c r="K57" s="259"/>
+      <c r="L57" s="259"/>
+      <c r="M57" s="279"/>
+      <c r="N57" s="280"/>
+      <c r="O57" s="280"/>
+      <c r="P57" s="280"/>
+      <c r="Q57" s="280"/>
+      <c r="R57" s="280"/>
+      <c r="S57" s="280"/>
+      <c r="T57" s="281"/>
       <c r="U57" s="94"/>
       <c r="V57" s="93"/>
       <c r="W57" s="93"/>
@@ -10830,7 +10994,7 @@
       <c r="AA57" s="94"/>
       <c r="AB57" s="18"/>
     </row>
-    <row r="58" spans="1:30" ht="13.8">
+    <row r="58" spans="1:30" ht="12.75">
       <c r="A58" s="92"/>
       <c r="B58" s="202">
         <v>4</v>
@@ -10843,18 +11007,18 @@
       <c r="F58" s="203"/>
       <c r="G58" s="203"/>
       <c r="H58" s="204"/>
-      <c r="I58" s="327"/>
-      <c r="J58" s="327"/>
-      <c r="K58" s="327"/>
-      <c r="L58" s="327"/>
-      <c r="M58" s="337"/>
-      <c r="N58" s="338"/>
-      <c r="O58" s="338"/>
-      <c r="P58" s="338"/>
-      <c r="Q58" s="338"/>
-      <c r="R58" s="338"/>
-      <c r="S58" s="338"/>
-      <c r="T58" s="339"/>
+      <c r="I58" s="259"/>
+      <c r="J58" s="259"/>
+      <c r="K58" s="259"/>
+      <c r="L58" s="259"/>
+      <c r="M58" s="279"/>
+      <c r="N58" s="280"/>
+      <c r="O58" s="280"/>
+      <c r="P58" s="280"/>
+      <c r="Q58" s="280"/>
+      <c r="R58" s="280"/>
+      <c r="S58" s="280"/>
+      <c r="T58" s="281"/>
       <c r="U58" s="94"/>
       <c r="V58" s="93"/>
       <c r="W58" s="93"/>
@@ -10864,7 +11028,7 @@
       <c r="AA58" s="94"/>
       <c r="AB58" s="18"/>
     </row>
-    <row r="59" spans="1:30" ht="13.8">
+    <row r="59" spans="1:30" ht="12.75">
       <c r="A59" s="92"/>
       <c r="B59" s="201">
         <v>5</v>
@@ -10877,18 +11041,18 @@
       <c r="F59" s="205"/>
       <c r="G59" s="205"/>
       <c r="H59" s="206"/>
-      <c r="I59" s="327"/>
-      <c r="J59" s="327"/>
-      <c r="K59" s="327"/>
-      <c r="L59" s="327"/>
-      <c r="M59" s="340"/>
-      <c r="N59" s="341"/>
-      <c r="O59" s="341"/>
-      <c r="P59" s="341"/>
-      <c r="Q59" s="341"/>
-      <c r="R59" s="341"/>
-      <c r="S59" s="341"/>
-      <c r="T59" s="342"/>
+      <c r="I59" s="259"/>
+      <c r="J59" s="259"/>
+      <c r="K59" s="259"/>
+      <c r="L59" s="259"/>
+      <c r="M59" s="282"/>
+      <c r="N59" s="283"/>
+      <c r="O59" s="283"/>
+      <c r="P59" s="283"/>
+      <c r="Q59" s="283"/>
+      <c r="R59" s="283"/>
+      <c r="S59" s="283"/>
+      <c r="T59" s="284"/>
       <c r="U59" s="94"/>
       <c r="V59" s="93"/>
       <c r="W59" s="93"/>
@@ -10968,19 +11132,19 @@
     </row>
     <row r="62" spans="1:30" ht="17.25" customHeight="1">
       <c r="A62" s="27"/>
-      <c r="B62" s="324" t="s">
+      <c r="B62" s="308" t="s">
         <v>25</v>
       </c>
-      <c r="C62" s="325"/>
-      <c r="D62" s="325"/>
-      <c r="E62" s="326"/>
-      <c r="F62" s="317" t="s">
+      <c r="C62" s="309"/>
+      <c r="D62" s="309"/>
+      <c r="E62" s="310"/>
+      <c r="F62" s="303" t="s">
         <v>520</v>
       </c>
-      <c r="G62" s="318"/>
-      <c r="H62" s="318"/>
-      <c r="I62" s="318"/>
-      <c r="J62" s="319"/>
+      <c r="G62" s="304"/>
+      <c r="H62" s="304"/>
+      <c r="I62" s="304"/>
+      <c r="J62" s="305"/>
       <c r="K62" s="189"/>
       <c r="L62" s="189"/>
       <c r="M62" s="189"/>
@@ -11010,13 +11174,13 @@
       <c r="C63" s="196"/>
       <c r="D63" s="196"/>
       <c r="E63" s="197"/>
-      <c r="F63" s="320" t="s">
+      <c r="F63" s="306" t="s">
         <v>521</v>
       </c>
-      <c r="G63" s="320"/>
-      <c r="H63" s="320"/>
-      <c r="I63" s="320"/>
-      <c r="J63" s="320"/>
+      <c r="G63" s="306"/>
+      <c r="H63" s="306"/>
+      <c r="I63" s="306"/>
+      <c r="J63" s="306"/>
       <c r="K63" s="189"/>
       <c r="L63" s="189"/>
       <c r="M63" s="189"/>
@@ -11040,19 +11204,19 @@
     </row>
     <row r="64" spans="1:30" ht="17.25" customHeight="1">
       <c r="A64" s="27"/>
-      <c r="B64" s="324" t="s">
+      <c r="B64" s="308" t="s">
         <v>26</v>
       </c>
-      <c r="C64" s="325"/>
-      <c r="D64" s="325"/>
-      <c r="E64" s="326"/>
-      <c r="F64" s="320" t="s">
+      <c r="C64" s="309"/>
+      <c r="D64" s="309"/>
+      <c r="E64" s="310"/>
+      <c r="F64" s="306" t="s">
         <v>522</v>
       </c>
-      <c r="G64" s="320"/>
-      <c r="H64" s="320"/>
-      <c r="I64" s="320"/>
-      <c r="J64" s="320"/>
+      <c r="G64" s="306"/>
+      <c r="H64" s="306"/>
+      <c r="I64" s="306"/>
+      <c r="J64" s="306"/>
       <c r="K64" s="189"/>
       <c r="L64" s="189"/>
       <c r="M64" s="189"/>
@@ -11076,19 +11240,19 @@
     </row>
     <row r="65" spans="1:30" ht="17.25" customHeight="1">
       <c r="A65" s="27"/>
-      <c r="B65" s="324" t="s">
+      <c r="B65" s="308" t="s">
         <v>41</v>
       </c>
-      <c r="C65" s="325"/>
-      <c r="D65" s="325"/>
-      <c r="E65" s="326"/>
-      <c r="F65" s="320" t="s">
+      <c r="C65" s="309"/>
+      <c r="D65" s="309"/>
+      <c r="E65" s="310"/>
+      <c r="F65" s="306" t="s">
         <v>523</v>
       </c>
-      <c r="G65" s="320"/>
-      <c r="H65" s="320"/>
-      <c r="I65" s="320"/>
-      <c r="J65" s="320"/>
+      <c r="G65" s="306"/>
+      <c r="H65" s="306"/>
+      <c r="I65" s="306"/>
+      <c r="J65" s="306"/>
       <c r="K65" s="192"/>
       <c r="L65" s="192"/>
       <c r="M65" s="192"/>
@@ -11112,19 +11276,19 @@
     </row>
     <row r="66" spans="1:30" ht="17.25" customHeight="1">
       <c r="A66" s="27"/>
-      <c r="B66" s="324" t="s">
+      <c r="B66" s="308" t="s">
         <v>471</v>
       </c>
-      <c r="C66" s="325"/>
-      <c r="D66" s="325"/>
-      <c r="E66" s="326"/>
-      <c r="F66" s="320" t="s">
+      <c r="C66" s="309"/>
+      <c r="D66" s="309"/>
+      <c r="E66" s="310"/>
+      <c r="F66" s="306" t="s">
         <v>524</v>
       </c>
-      <c r="G66" s="320"/>
-      <c r="H66" s="320"/>
-      <c r="I66" s="320"/>
-      <c r="J66" s="320"/>
+      <c r="G66" s="306"/>
+      <c r="H66" s="306"/>
+      <c r="I66" s="306"/>
+      <c r="J66" s="306"/>
       <c r="K66" s="192"/>
       <c r="L66" s="192"/>
       <c r="M66" s="192"/>
@@ -11148,19 +11312,19 @@
     </row>
     <row r="67" spans="1:30" ht="17.25" customHeight="1">
       <c r="A67" s="27"/>
-      <c r="B67" s="324" t="s">
+      <c r="B67" s="308" t="s">
         <v>473</v>
       </c>
-      <c r="C67" s="325"/>
-      <c r="D67" s="325"/>
-      <c r="E67" s="326"/>
-      <c r="F67" s="320" t="s">
+      <c r="C67" s="309"/>
+      <c r="D67" s="309"/>
+      <c r="E67" s="310"/>
+      <c r="F67" s="306" t="s">
         <v>525</v>
       </c>
-      <c r="G67" s="320"/>
-      <c r="H67" s="320"/>
-      <c r="I67" s="320"/>
-      <c r="J67" s="320"/>
+      <c r="G67" s="306"/>
+      <c r="H67" s="306"/>
+      <c r="I67" s="306"/>
+      <c r="J67" s="306"/>
       <c r="K67" s="194"/>
       <c r="L67" s="194"/>
       <c r="M67" s="194"/>
@@ -11184,19 +11348,19 @@
     </row>
     <row r="68" spans="1:30" ht="13.5" customHeight="1">
       <c r="A68" s="27"/>
-      <c r="B68" s="324" t="s">
+      <c r="B68" s="308" t="s">
         <v>27</v>
       </c>
-      <c r="C68" s="325"/>
-      <c r="D68" s="325"/>
-      <c r="E68" s="326"/>
-      <c r="F68" s="317" t="s">
+      <c r="C68" s="309"/>
+      <c r="D68" s="309"/>
+      <c r="E68" s="310"/>
+      <c r="F68" s="303" t="s">
         <v>526</v>
       </c>
-      <c r="G68" s="318"/>
-      <c r="H68" s="318"/>
-      <c r="I68" s="318"/>
-      <c r="J68" s="319"/>
+      <c r="G68" s="304"/>
+      <c r="H68" s="304"/>
+      <c r="I68" s="304"/>
+      <c r="J68" s="305"/>
       <c r="K68" s="188"/>
       <c r="L68" s="189"/>
       <c r="M68" s="189"/>
@@ -11253,23 +11417,364 @@
       <c r="AD69" s="18"/>
     </row>
     <row r="70" spans="1:30" ht="17.25" customHeight="1">
+      <c r="A70" s="510"/>
+      <c r="B70" s="509" t="s">
+        <v>618</v>
+      </c>
+      <c r="C70" s="509"/>
+      <c r="D70" s="509"/>
       <c r="N70" s="101"/>
     </row>
     <row r="71" spans="1:30" ht="17.25" customHeight="1">
-      <c r="J71" s="315"/>
-      <c r="K71" s="316"/>
-      <c r="L71" s="316"/>
-      <c r="M71" s="316"/>
+      <c r="B71" s="511" t="s">
+        <v>597</v>
+      </c>
+      <c r="C71" s="512"/>
+      <c r="D71" s="512"/>
+      <c r="E71" s="513"/>
+      <c r="F71" s="514" t="s">
+        <v>598</v>
+      </c>
+      <c r="G71" s="514"/>
+      <c r="H71" s="514"/>
+      <c r="I71" s="514"/>
+      <c r="J71" s="514"/>
+      <c r="K71" s="514"/>
+      <c r="L71" s="509"/>
+      <c r="M71" s="509"/>
       <c r="W71" s="102"/>
     </row>
+    <row r="72" spans="1:30" ht="17.25" customHeight="1">
+      <c r="B72" s="511" t="s">
+        <v>599</v>
+      </c>
+      <c r="C72" s="512"/>
+      <c r="D72" s="512"/>
+      <c r="E72" s="513"/>
+      <c r="F72" s="514" t="s">
+        <v>600</v>
+      </c>
+      <c r="G72" s="514"/>
+      <c r="H72" s="514"/>
+      <c r="I72" s="514"/>
+      <c r="J72" s="514"/>
+      <c r="K72" s="514"/>
+    </row>
     <row r="73" spans="1:30" ht="17.25" customHeight="1">
+      <c r="B73" s="511" t="s">
+        <v>601</v>
+      </c>
+      <c r="C73" s="512"/>
+      <c r="D73" s="512"/>
+      <c r="E73" s="513"/>
+      <c r="F73" s="514" t="s">
+        <v>602</v>
+      </c>
+      <c r="G73" s="514"/>
+      <c r="H73" s="514"/>
+      <c r="I73" s="514"/>
+      <c r="J73" s="514"/>
+      <c r="K73" s="514"/>
       <c r="R73" s="7" t="s">
         <v>32</v>
       </c>
     </row>
+    <row r="74" spans="1:30" ht="17.25" customHeight="1">
+      <c r="B74" s="511" t="s">
+        <v>603</v>
+      </c>
+      <c r="C74" s="512"/>
+      <c r="D74" s="512"/>
+      <c r="E74" s="513"/>
+      <c r="F74" s="514" t="s">
+        <v>604</v>
+      </c>
+      <c r="G74" s="514"/>
+      <c r="H74" s="514"/>
+      <c r="I74" s="514"/>
+      <c r="J74" s="514"/>
+      <c r="K74" s="514"/>
+    </row>
+    <row r="75" spans="1:30" ht="17.25" customHeight="1">
+      <c r="B75" s="511" t="s">
+        <v>605</v>
+      </c>
+      <c r="C75" s="512"/>
+      <c r="D75" s="512" t="s">
+        <v>606</v>
+      </c>
+      <c r="E75" s="513"/>
+      <c r="F75" s="514" t="s">
+        <v>607</v>
+      </c>
+      <c r="G75" s="514"/>
+      <c r="H75" s="514"/>
+      <c r="I75" s="514"/>
+      <c r="J75" s="514"/>
+      <c r="K75" s="514"/>
+    </row>
+    <row r="76" spans="1:30" ht="17.25" customHeight="1">
+      <c r="B76" s="515" t="s">
+        <v>608</v>
+      </c>
+      <c r="C76" s="516"/>
+      <c r="D76" s="512" t="s">
+        <v>609</v>
+      </c>
+      <c r="E76" s="513"/>
+      <c r="F76" s="514" t="s">
+        <v>610</v>
+      </c>
+      <c r="G76" s="514"/>
+      <c r="H76" s="514"/>
+      <c r="I76" s="514" t="s">
+        <v>611</v>
+      </c>
+      <c r="J76" s="514"/>
+      <c r="K76" s="514"/>
+    </row>
+    <row r="77" spans="1:30" ht="17.25" customHeight="1">
+      <c r="B77" s="517"/>
+      <c r="C77" s="518"/>
+      <c r="D77" s="512" t="s">
+        <v>612</v>
+      </c>
+      <c r="E77" s="513"/>
+      <c r="F77" s="519" t="s">
+        <v>613</v>
+      </c>
+      <c r="G77" s="520"/>
+      <c r="H77" s="521"/>
+      <c r="I77" s="519" t="s">
+        <v>614</v>
+      </c>
+      <c r="J77" s="520"/>
+      <c r="K77" s="521"/>
+    </row>
+    <row r="78" spans="1:30" ht="17.25" customHeight="1">
+      <c r="B78" s="522"/>
+      <c r="C78" s="523"/>
+      <c r="D78" s="512" t="s">
+        <v>615</v>
+      </c>
+      <c r="E78" s="513"/>
+      <c r="F78" s="519" t="s">
+        <v>616</v>
+      </c>
+      <c r="G78" s="520"/>
+      <c r="H78" s="521"/>
+      <c r="I78" s="519" t="s">
+        <v>617</v>
+      </c>
+      <c r="J78" s="520"/>
+      <c r="K78" s="521"/>
+    </row>
+    <row r="79" spans="1:30" ht="17.25" customHeight="1">
+      <c r="A79" s="98" t="s">
+        <v>51</v>
+      </c>
+      <c r="B79" s="27"/>
+      <c r="C79" s="99"/>
+      <c r="D79" s="99"/>
+      <c r="E79" s="99"/>
+      <c r="F79" s="99"/>
+      <c r="G79" s="100"/>
+      <c r="H79" s="100"/>
+      <c r="I79" s="100"/>
+      <c r="J79" s="100"/>
+      <c r="K79" s="100"/>
+    </row>
   </sheetData>
   <sheetProtection selectLockedCells="1"/>
-  <mergeCells count="192">
+  <mergeCells count="212">
+    <mergeCell ref="B76:C78"/>
+    <mergeCell ref="D76:E76"/>
+    <mergeCell ref="F76:H76"/>
+    <mergeCell ref="I76:K76"/>
+    <mergeCell ref="D77:E77"/>
+    <mergeCell ref="F77:H77"/>
+    <mergeCell ref="I77:K77"/>
+    <mergeCell ref="D78:E78"/>
+    <mergeCell ref="F78:H78"/>
+    <mergeCell ref="I78:K78"/>
+    <mergeCell ref="B71:E71"/>
+    <mergeCell ref="F71:K71"/>
+    <mergeCell ref="B72:E72"/>
+    <mergeCell ref="F72:K72"/>
+    <mergeCell ref="B73:E73"/>
+    <mergeCell ref="F73:K73"/>
+    <mergeCell ref="B74:E74"/>
+    <mergeCell ref="F74:K74"/>
+    <mergeCell ref="B75:C75"/>
+    <mergeCell ref="D75:E75"/>
+    <mergeCell ref="F75:K75"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="M25:N25"/>
+    <mergeCell ref="M22:N22"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="C21:F21"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="M20:N20"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="L3:O3"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="B38:B39"/>
+    <mergeCell ref="L34:N34"/>
+    <mergeCell ref="O16:P16"/>
+    <mergeCell ref="O18:P18"/>
+    <mergeCell ref="D4:H4"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="J7:N7"/>
+    <mergeCell ref="L16:N16"/>
+    <mergeCell ref="L21:N21"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="J27:K27"/>
+    <mergeCell ref="J39:K39"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="H35:I35"/>
+    <mergeCell ref="M26:N26"/>
+    <mergeCell ref="H33:I33"/>
+    <mergeCell ref="M33:N33"/>
+    <mergeCell ref="M35:N35"/>
+    <mergeCell ref="V5:Z5"/>
+    <mergeCell ref="V6:Z6"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="L18:N18"/>
+    <mergeCell ref="T18:W18"/>
+    <mergeCell ref="O21:P21"/>
+    <mergeCell ref="T19:W19"/>
+    <mergeCell ref="T20:W20"/>
+    <mergeCell ref="V7:Z7"/>
+    <mergeCell ref="M19:N19"/>
+    <mergeCell ref="T15:W15"/>
+    <mergeCell ref="P12:Z12"/>
+    <mergeCell ref="Y10:Z10"/>
+    <mergeCell ref="W11:Z11"/>
+    <mergeCell ref="T16:W16"/>
+    <mergeCell ref="P10:X10"/>
+    <mergeCell ref="P11:V11"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="M23:N23"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="D5:H5"/>
+    <mergeCell ref="AJ40:AK40"/>
+    <mergeCell ref="AO40:AP40"/>
+    <mergeCell ref="Q18:Q19"/>
+    <mergeCell ref="Y16:Z16"/>
+    <mergeCell ref="O39:P39"/>
+    <mergeCell ref="T24:W24"/>
+    <mergeCell ref="O24:P24"/>
+    <mergeCell ref="O34:P34"/>
+    <mergeCell ref="T43:V43"/>
+    <mergeCell ref="T27:V27"/>
+    <mergeCell ref="T28:V28"/>
+    <mergeCell ref="T42:V42"/>
+    <mergeCell ref="T40:W40"/>
+    <mergeCell ref="O27:P27"/>
+    <mergeCell ref="T31:W31"/>
+    <mergeCell ref="T26:V26"/>
+    <mergeCell ref="O42:P42"/>
+    <mergeCell ref="O36:P36"/>
+    <mergeCell ref="AF20:AF21"/>
+    <mergeCell ref="Q24:Q25"/>
+    <mergeCell ref="Q42:Q43"/>
+    <mergeCell ref="T32:W32"/>
+    <mergeCell ref="Q36:Q37"/>
+    <mergeCell ref="AR38:AS38"/>
+    <mergeCell ref="AJ37:AK37"/>
+    <mergeCell ref="AJ32:AK32"/>
+    <mergeCell ref="Y32:Z32"/>
+    <mergeCell ref="AR33:AS33"/>
+    <mergeCell ref="AJ34:AK34"/>
+    <mergeCell ref="AO34:AP34"/>
+    <mergeCell ref="AJ35:AL35"/>
+    <mergeCell ref="AM35:AN35"/>
+    <mergeCell ref="AO35:AQ35"/>
+    <mergeCell ref="AR35:AS35"/>
+    <mergeCell ref="AP37:AQ37"/>
+    <mergeCell ref="AJ38:AL38"/>
+    <mergeCell ref="AM38:AN38"/>
+    <mergeCell ref="AO38:AQ38"/>
+    <mergeCell ref="AO32:AP32"/>
+    <mergeCell ref="AJ33:AL33"/>
+    <mergeCell ref="AM33:AN33"/>
+    <mergeCell ref="AO33:AQ33"/>
+    <mergeCell ref="AF38:AF39"/>
+    <mergeCell ref="AR44:AS44"/>
+    <mergeCell ref="AJ43:AK43"/>
+    <mergeCell ref="AO43:AP43"/>
+    <mergeCell ref="AR41:AS41"/>
+    <mergeCell ref="AJ44:AL44"/>
+    <mergeCell ref="AM44:AN44"/>
+    <mergeCell ref="AO44:AQ44"/>
+    <mergeCell ref="AO41:AQ41"/>
+    <mergeCell ref="AJ41:AL41"/>
+    <mergeCell ref="AM41:AN41"/>
+    <mergeCell ref="T44:V44"/>
+    <mergeCell ref="F68:J68"/>
+    <mergeCell ref="F66:J66"/>
+    <mergeCell ref="F67:J67"/>
+    <mergeCell ref="E45:F45"/>
+    <mergeCell ref="G45:I45"/>
+    <mergeCell ref="F64:J64"/>
+    <mergeCell ref="F63:J63"/>
+    <mergeCell ref="F65:J65"/>
+    <mergeCell ref="I48:L48"/>
+    <mergeCell ref="J45:K45"/>
+    <mergeCell ref="K46:L46"/>
+    <mergeCell ref="F62:J62"/>
+    <mergeCell ref="I52:L52"/>
+    <mergeCell ref="L45:N45"/>
+    <mergeCell ref="O45:P45"/>
+    <mergeCell ref="B62:E62"/>
+    <mergeCell ref="B64:E64"/>
+    <mergeCell ref="B65:E65"/>
+    <mergeCell ref="B66:E66"/>
+    <mergeCell ref="B67:E67"/>
+    <mergeCell ref="B68:E68"/>
+    <mergeCell ref="I53:L53"/>
+    <mergeCell ref="C39:F39"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="H37:I37"/>
+    <mergeCell ref="M37:N37"/>
+    <mergeCell ref="H41:I41"/>
+    <mergeCell ref="D40:F40"/>
+    <mergeCell ref="G34:I34"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="M15:N15"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="L27:N27"/>
+    <mergeCell ref="M46:N46"/>
+    <mergeCell ref="L39:N39"/>
+    <mergeCell ref="M43:N43"/>
+    <mergeCell ref="H43:I43"/>
+    <mergeCell ref="H44:I44"/>
+    <mergeCell ref="I46:J46"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="L24:N24"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="M17:N17"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="L36:N36"/>
+    <mergeCell ref="J34:K34"/>
+    <mergeCell ref="J42:K42"/>
     <mergeCell ref="C46:F46"/>
     <mergeCell ref="E36:F36"/>
     <mergeCell ref="G46:H46"/>
@@ -11294,174 +11799,6 @@
     <mergeCell ref="G36:I36"/>
     <mergeCell ref="J36:K36"/>
     <mergeCell ref="D38:F38"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="M15:N15"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="L27:N27"/>
-    <mergeCell ref="M46:N46"/>
-    <mergeCell ref="L39:N39"/>
-    <mergeCell ref="M43:N43"/>
-    <mergeCell ref="H43:I43"/>
-    <mergeCell ref="H44:I44"/>
-    <mergeCell ref="I46:J46"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="L24:N24"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="M17:N17"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="L36:N36"/>
-    <mergeCell ref="J34:K34"/>
-    <mergeCell ref="J42:K42"/>
-    <mergeCell ref="C39:F39"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="H37:I37"/>
-    <mergeCell ref="M37:N37"/>
-    <mergeCell ref="H41:I41"/>
-    <mergeCell ref="D40:F40"/>
-    <mergeCell ref="G34:I34"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="T44:V44"/>
-    <mergeCell ref="J71:M71"/>
-    <mergeCell ref="F68:J68"/>
-    <mergeCell ref="F66:J66"/>
-    <mergeCell ref="F67:J67"/>
-    <mergeCell ref="E45:F45"/>
-    <mergeCell ref="G45:I45"/>
-    <mergeCell ref="F64:J64"/>
-    <mergeCell ref="F63:J63"/>
-    <mergeCell ref="F65:J65"/>
-    <mergeCell ref="I48:L48"/>
-    <mergeCell ref="J45:K45"/>
-    <mergeCell ref="K46:L46"/>
-    <mergeCell ref="F62:J62"/>
-    <mergeCell ref="I52:L52"/>
-    <mergeCell ref="L45:N45"/>
-    <mergeCell ref="O45:P45"/>
-    <mergeCell ref="B62:E62"/>
-    <mergeCell ref="B64:E64"/>
-    <mergeCell ref="B65:E65"/>
-    <mergeCell ref="B66:E66"/>
-    <mergeCell ref="B67:E67"/>
-    <mergeCell ref="B68:E68"/>
-    <mergeCell ref="I53:L53"/>
-    <mergeCell ref="AR44:AS44"/>
-    <mergeCell ref="AJ43:AK43"/>
-    <mergeCell ref="AO43:AP43"/>
-    <mergeCell ref="AR41:AS41"/>
-    <mergeCell ref="AJ44:AL44"/>
-    <mergeCell ref="AM44:AN44"/>
-    <mergeCell ref="AO44:AQ44"/>
-    <mergeCell ref="AO41:AQ41"/>
-    <mergeCell ref="AJ41:AL41"/>
-    <mergeCell ref="AM41:AN41"/>
-    <mergeCell ref="AR38:AS38"/>
-    <mergeCell ref="AJ37:AK37"/>
-    <mergeCell ref="AJ32:AK32"/>
-    <mergeCell ref="Y32:Z32"/>
-    <mergeCell ref="AR33:AS33"/>
-    <mergeCell ref="AJ34:AK34"/>
-    <mergeCell ref="AO34:AP34"/>
-    <mergeCell ref="AJ35:AL35"/>
-    <mergeCell ref="AM35:AN35"/>
-    <mergeCell ref="AO35:AQ35"/>
-    <mergeCell ref="AR35:AS35"/>
-    <mergeCell ref="AP37:AQ37"/>
-    <mergeCell ref="AJ38:AL38"/>
-    <mergeCell ref="AM38:AN38"/>
-    <mergeCell ref="AO38:AQ38"/>
-    <mergeCell ref="AO32:AP32"/>
-    <mergeCell ref="AJ33:AL33"/>
-    <mergeCell ref="AM33:AN33"/>
-    <mergeCell ref="AO33:AQ33"/>
-    <mergeCell ref="AF38:AF39"/>
-    <mergeCell ref="AJ40:AK40"/>
-    <mergeCell ref="AO40:AP40"/>
-    <mergeCell ref="Q18:Q19"/>
-    <mergeCell ref="Y16:Z16"/>
-    <mergeCell ref="O39:P39"/>
-    <mergeCell ref="T24:W24"/>
-    <mergeCell ref="O24:P24"/>
-    <mergeCell ref="O34:P34"/>
-    <mergeCell ref="T43:V43"/>
-    <mergeCell ref="T27:V27"/>
-    <mergeCell ref="T28:V28"/>
-    <mergeCell ref="T42:V42"/>
-    <mergeCell ref="T40:W40"/>
-    <mergeCell ref="O27:P27"/>
-    <mergeCell ref="T31:W31"/>
-    <mergeCell ref="T26:V26"/>
-    <mergeCell ref="O42:P42"/>
-    <mergeCell ref="O36:P36"/>
-    <mergeCell ref="AF20:AF21"/>
-    <mergeCell ref="Q24:Q25"/>
-    <mergeCell ref="Q42:Q43"/>
-    <mergeCell ref="T32:W32"/>
-    <mergeCell ref="Q36:Q37"/>
-    <mergeCell ref="M33:N33"/>
-    <mergeCell ref="M35:N35"/>
-    <mergeCell ref="V5:Z5"/>
-    <mergeCell ref="V6:Z6"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="L18:N18"/>
-    <mergeCell ref="T18:W18"/>
-    <mergeCell ref="O21:P21"/>
-    <mergeCell ref="T19:W19"/>
-    <mergeCell ref="T20:W20"/>
-    <mergeCell ref="V7:Z7"/>
-    <mergeCell ref="M19:N19"/>
-    <mergeCell ref="T15:W15"/>
-    <mergeCell ref="P12:Z12"/>
-    <mergeCell ref="Y10:Z10"/>
-    <mergeCell ref="W11:Z11"/>
-    <mergeCell ref="T16:W16"/>
-    <mergeCell ref="P10:X10"/>
-    <mergeCell ref="P11:V11"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="M23:N23"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="D5:H5"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="L3:O3"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="B38:B39"/>
-    <mergeCell ref="L34:N34"/>
-    <mergeCell ref="O16:P16"/>
-    <mergeCell ref="O18:P18"/>
-    <mergeCell ref="D4:H4"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="J7:N7"/>
-    <mergeCell ref="L16:N16"/>
-    <mergeCell ref="L21:N21"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J24:K24"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="J27:K27"/>
-    <mergeCell ref="J39:K39"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="H35:I35"/>
-    <mergeCell ref="M26:N26"/>
-    <mergeCell ref="H33:I33"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="M25:N25"/>
-    <mergeCell ref="M22:N22"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="C21:F21"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="M20:N20"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <dataValidations disablePrompts="1" count="1">
@@ -11489,28 +11826,28 @@
   <sheetViews>
     <sheetView showGridLines="0" showRowColHeaders="0" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="5.6640625" defaultRowHeight="17.25" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="5.7109375" defaultRowHeight="17.25" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="3.6640625" style="230" customWidth="1"/>
-    <col min="2" max="2" width="7.33203125" style="217" customWidth="1"/>
-    <col min="3" max="4" width="5.6640625" style="217" customWidth="1"/>
-    <col min="5" max="5" width="5.109375" style="217" customWidth="1"/>
-    <col min="6" max="6" width="3.21875" style="217" customWidth="1"/>
-    <col min="7" max="7" width="5.6640625" style="217" customWidth="1"/>
-    <col min="8" max="8" width="4.88671875" style="217" customWidth="1"/>
-    <col min="9" max="9" width="5.88671875" style="217" customWidth="1"/>
-    <col min="10" max="12" width="5.6640625" style="217" customWidth="1"/>
-    <col min="13" max="13" width="6.44140625" style="217" customWidth="1"/>
-    <col min="14" max="14" width="5.44140625" style="217" customWidth="1"/>
-    <col min="15" max="15" width="5.6640625" style="217"/>
+    <col min="1" max="1" width="3.7109375" style="230" customWidth="1"/>
+    <col min="2" max="2" width="7.28515625" style="217" customWidth="1"/>
+    <col min="3" max="4" width="5.7109375" style="217" customWidth="1"/>
+    <col min="5" max="5" width="5.140625" style="217" customWidth="1"/>
+    <col min="6" max="6" width="3.28515625" style="217" customWidth="1"/>
+    <col min="7" max="7" width="5.7109375" style="217" customWidth="1"/>
+    <col min="8" max="8" width="4.85546875" style="217" customWidth="1"/>
+    <col min="9" max="9" width="5.85546875" style="217" customWidth="1"/>
+    <col min="10" max="12" width="5.7109375" style="217" customWidth="1"/>
+    <col min="13" max="13" width="6.42578125" style="217" customWidth="1"/>
+    <col min="14" max="14" width="5.42578125" style="217" customWidth="1"/>
+    <col min="15" max="15" width="5.7109375" style="217"/>
     <col min="16" max="16" width="8" style="217" customWidth="1"/>
-    <col min="17" max="17" width="9.88671875" style="217" customWidth="1"/>
-    <col min="18" max="20" width="5.6640625" style="217"/>
-    <col min="21" max="21" width="4.5546875" style="217" customWidth="1"/>
-    <col min="22" max="23" width="5.6640625" style="217"/>
-    <col min="24" max="24" width="4.33203125" style="217" customWidth="1"/>
-    <col min="25" max="25" width="13.5546875" style="217" customWidth="1"/>
-    <col min="26" max="16384" width="5.6640625" style="217"/>
+    <col min="17" max="17" width="9.85546875" style="217" customWidth="1"/>
+    <col min="18" max="20" width="5.7109375" style="217"/>
+    <col min="21" max="21" width="4.5703125" style="217" customWidth="1"/>
+    <col min="22" max="23" width="5.7109375" style="217"/>
+    <col min="24" max="24" width="4.28515625" style="217" customWidth="1"/>
+    <col min="25" max="25" width="13.5703125" style="217" customWidth="1"/>
+    <col min="26" max="16384" width="5.7109375" style="217"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="18.75" customHeight="1">
@@ -11545,207 +11882,207 @@
     </row>
     <row r="2" spans="1:24" s="219" customFormat="1" ht="18.75" customHeight="1">
       <c r="A2" s="218"/>
-      <c r="B2" s="427" t="s">
+      <c r="B2" s="342" t="s">
         <v>475</v>
       </c>
-      <c r="C2" s="377" t="s">
+      <c r="C2" s="344" t="s">
         <v>476</v>
       </c>
-      <c r="D2" s="378"/>
-      <c r="E2" s="378"/>
-      <c r="F2" s="378"/>
-      <c r="G2" s="378"/>
-      <c r="H2" s="379"/>
-      <c r="I2" s="421" t="s">
+      <c r="D2" s="345"/>
+      <c r="E2" s="345"/>
+      <c r="F2" s="345"/>
+      <c r="G2" s="345"/>
+      <c r="H2" s="346"/>
+      <c r="I2" s="350" t="s">
         <v>548</v>
       </c>
-      <c r="J2" s="429"/>
-      <c r="K2" s="429"/>
-      <c r="L2" s="422"/>
-      <c r="M2" s="412" t="s">
+      <c r="J2" s="351"/>
+      <c r="K2" s="351"/>
+      <c r="L2" s="352"/>
+      <c r="M2" s="356" t="s">
         <v>477</v>
       </c>
-      <c r="N2" s="413"/>
-      <c r="O2" s="414"/>
-      <c r="P2" s="421" t="s">
+      <c r="N2" s="357"/>
+      <c r="O2" s="358"/>
+      <c r="P2" s="350" t="s">
         <v>478</v>
       </c>
-      <c r="Q2" s="422"/>
-      <c r="R2" s="421" t="s">
+      <c r="Q2" s="352"/>
+      <c r="R2" s="350" t="s">
         <v>479</v>
       </c>
-      <c r="S2" s="422"/>
-      <c r="T2" s="421" t="s">
+      <c r="S2" s="352"/>
+      <c r="T2" s="350" t="s">
         <v>480</v>
       </c>
-      <c r="U2" s="422"/>
-      <c r="V2" s="412" t="s">
+      <c r="U2" s="352"/>
+      <c r="V2" s="356" t="s">
         <v>481</v>
       </c>
-      <c r="W2" s="413"/>
-      <c r="X2" s="414"/>
+      <c r="W2" s="357"/>
+      <c r="X2" s="358"/>
     </row>
     <row r="3" spans="1:24" s="219" customFormat="1" ht="28.5" customHeight="1">
       <c r="A3" s="218"/>
-      <c r="B3" s="428"/>
-      <c r="C3" s="380"/>
-      <c r="D3" s="381"/>
-      <c r="E3" s="381"/>
-      <c r="F3" s="381"/>
-      <c r="G3" s="381"/>
-      <c r="H3" s="382"/>
-      <c r="I3" s="423"/>
-      <c r="J3" s="430"/>
-      <c r="K3" s="430"/>
-      <c r="L3" s="424"/>
-      <c r="M3" s="415"/>
-      <c r="N3" s="416"/>
-      <c r="O3" s="417"/>
-      <c r="P3" s="423"/>
-      <c r="Q3" s="424"/>
-      <c r="R3" s="423"/>
-      <c r="S3" s="424"/>
-      <c r="T3" s="423"/>
-      <c r="U3" s="424"/>
-      <c r="V3" s="415"/>
-      <c r="W3" s="416"/>
-      <c r="X3" s="417"/>
+      <c r="B3" s="343"/>
+      <c r="C3" s="347"/>
+      <c r="D3" s="348"/>
+      <c r="E3" s="348"/>
+      <c r="F3" s="348"/>
+      <c r="G3" s="348"/>
+      <c r="H3" s="349"/>
+      <c r="I3" s="353"/>
+      <c r="J3" s="354"/>
+      <c r="K3" s="354"/>
+      <c r="L3" s="355"/>
+      <c r="M3" s="359"/>
+      <c r="N3" s="360"/>
+      <c r="O3" s="361"/>
+      <c r="P3" s="353"/>
+      <c r="Q3" s="355"/>
+      <c r="R3" s="353"/>
+      <c r="S3" s="355"/>
+      <c r="T3" s="353"/>
+      <c r="U3" s="355"/>
+      <c r="V3" s="359"/>
+      <c r="W3" s="360"/>
+      <c r="X3" s="361"/>
     </row>
     <row r="4" spans="1:24" s="219" customFormat="1" ht="19.5" customHeight="1">
       <c r="A4" s="218"/>
       <c r="B4" s="253" t="s">
         <v>552</v>
       </c>
-      <c r="C4" s="418" t="s">
+      <c r="C4" s="362" t="s">
         <v>528</v>
       </c>
-      <c r="D4" s="419"/>
-      <c r="E4" s="419"/>
-      <c r="F4" s="419"/>
-      <c r="G4" s="419"/>
-      <c r="H4" s="420"/>
-      <c r="I4" s="393" t="s">
+      <c r="D4" s="363"/>
+      <c r="E4" s="363"/>
+      <c r="F4" s="363"/>
+      <c r="G4" s="363"/>
+      <c r="H4" s="364"/>
+      <c r="I4" s="365" t="s">
         <v>529</v>
       </c>
-      <c r="J4" s="394"/>
-      <c r="K4" s="394"/>
-      <c r="L4" s="395"/>
-      <c r="M4" s="396" t="s">
+      <c r="J4" s="366"/>
+      <c r="K4" s="366"/>
+      <c r="L4" s="367"/>
+      <c r="M4" s="368" t="s">
         <v>530</v>
       </c>
-      <c r="N4" s="397"/>
-      <c r="O4" s="398"/>
-      <c r="P4" s="399" t="s">
+      <c r="N4" s="369"/>
+      <c r="O4" s="370"/>
+      <c r="P4" s="371" t="s">
         <v>531</v>
       </c>
-      <c r="Q4" s="400"/>
-      <c r="R4" s="425" t="s">
+      <c r="Q4" s="372"/>
+      <c r="R4" s="373" t="s">
         <v>532</v>
       </c>
-      <c r="S4" s="426"/>
-      <c r="T4" s="418"/>
-      <c r="U4" s="420"/>
-      <c r="V4" s="418" t="s">
+      <c r="S4" s="374"/>
+      <c r="T4" s="362"/>
+      <c r="U4" s="364"/>
+      <c r="V4" s="362" t="s">
         <v>533</v>
       </c>
-      <c r="W4" s="419"/>
-      <c r="X4" s="420"/>
+      <c r="W4" s="363"/>
+      <c r="X4" s="364"/>
     </row>
     <row r="5" spans="1:24" s="219" customFormat="1" ht="19.5" customHeight="1">
       <c r="A5" s="218"/>
       <c r="B5" s="220" t="s">
         <v>482</v>
       </c>
-      <c r="C5" s="383"/>
-      <c r="D5" s="385"/>
-      <c r="E5" s="385"/>
-      <c r="F5" s="385"/>
-      <c r="G5" s="385"/>
-      <c r="H5" s="384"/>
-      <c r="I5" s="404" t="s">
+      <c r="C5" s="375"/>
+      <c r="D5" s="376"/>
+      <c r="E5" s="376"/>
+      <c r="F5" s="376"/>
+      <c r="G5" s="376"/>
+      <c r="H5" s="377"/>
+      <c r="I5" s="378" t="s">
         <v>534</v>
       </c>
-      <c r="J5" s="405"/>
-      <c r="K5" s="405"/>
-      <c r="L5" s="406"/>
-      <c r="M5" s="407" t="s">
+      <c r="J5" s="379"/>
+      <c r="K5" s="379"/>
+      <c r="L5" s="380"/>
+      <c r="M5" s="381" t="s">
         <v>535</v>
       </c>
-      <c r="N5" s="408"/>
-      <c r="O5" s="409"/>
-      <c r="P5" s="410" t="s">
+      <c r="N5" s="382"/>
+      <c r="O5" s="383"/>
+      <c r="P5" s="384" t="s">
         <v>536</v>
       </c>
-      <c r="Q5" s="411"/>
-      <c r="R5" s="401" t="s">
+      <c r="Q5" s="385"/>
+      <c r="R5" s="386" t="s">
         <v>537</v>
       </c>
-      <c r="S5" s="384"/>
-      <c r="T5" s="383"/>
-      <c r="U5" s="384"/>
-      <c r="V5" s="383"/>
-      <c r="W5" s="385"/>
-      <c r="X5" s="384"/>
+      <c r="S5" s="377"/>
+      <c r="T5" s="375"/>
+      <c r="U5" s="377"/>
+      <c r="V5" s="375"/>
+      <c r="W5" s="376"/>
+      <c r="X5" s="377"/>
     </row>
     <row r="6" spans="1:24" s="219" customFormat="1" ht="30.75" customHeight="1">
       <c r="A6" s="218"/>
       <c r="B6" s="221"/>
-      <c r="C6" s="390"/>
-      <c r="D6" s="391"/>
-      <c r="E6" s="391"/>
-      <c r="F6" s="391"/>
-      <c r="G6" s="391"/>
-      <c r="H6" s="391"/>
-      <c r="I6" s="391"/>
-      <c r="J6" s="391"/>
-      <c r="K6" s="391"/>
-      <c r="L6" s="391"/>
-      <c r="M6" s="391"/>
-      <c r="N6" s="391"/>
-      <c r="O6" s="391"/>
-      <c r="P6" s="391"/>
-      <c r="Q6" s="391"/>
-      <c r="R6" s="391"/>
-      <c r="S6" s="391"/>
-      <c r="T6" s="391"/>
-      <c r="U6" s="391"/>
-      <c r="V6" s="391"/>
-      <c r="W6" s="391"/>
-      <c r="X6" s="392"/>
+      <c r="C6" s="392"/>
+      <c r="D6" s="393"/>
+      <c r="E6" s="393"/>
+      <c r="F6" s="393"/>
+      <c r="G6" s="393"/>
+      <c r="H6" s="393"/>
+      <c r="I6" s="393"/>
+      <c r="J6" s="393"/>
+      <c r="K6" s="393"/>
+      <c r="L6" s="393"/>
+      <c r="M6" s="393"/>
+      <c r="N6" s="393"/>
+      <c r="O6" s="393"/>
+      <c r="P6" s="393"/>
+      <c r="Q6" s="393"/>
+      <c r="R6" s="393"/>
+      <c r="S6" s="393"/>
+      <c r="T6" s="393"/>
+      <c r="U6" s="393"/>
+      <c r="V6" s="393"/>
+      <c r="W6" s="393"/>
+      <c r="X6" s="394"/>
     </row>
     <row r="7" spans="1:24" s="219" customFormat="1" ht="19.5" customHeight="1">
       <c r="A7" s="218"/>
-      <c r="B7" s="383" t="s">
+      <c r="B7" s="375" t="s">
         <v>483</v>
       </c>
-      <c r="C7" s="385"/>
+      <c r="C7" s="376"/>
       <c r="D7" s="222"/>
       <c r="E7" s="222"/>
       <c r="F7" s="222"/>
       <c r="G7" s="222"/>
       <c r="H7" s="223"/>
-      <c r="I7" s="393" t="s">
+      <c r="I7" s="365" t="s">
         <v>534</v>
       </c>
-      <c r="J7" s="394"/>
-      <c r="K7" s="394"/>
-      <c r="L7" s="395"/>
-      <c r="M7" s="396" t="s">
+      <c r="J7" s="366"/>
+      <c r="K7" s="366"/>
+      <c r="L7" s="367"/>
+      <c r="M7" s="368" t="s">
         <v>535</v>
       </c>
-      <c r="N7" s="397"/>
-      <c r="O7" s="398"/>
-      <c r="P7" s="399" t="s">
+      <c r="N7" s="369"/>
+      <c r="O7" s="370"/>
+      <c r="P7" s="371" t="s">
         <v>536</v>
       </c>
-      <c r="Q7" s="400"/>
-      <c r="R7" s="401"/>
-      <c r="S7" s="402"/>
-      <c r="T7" s="383"/>
-      <c r="U7" s="384"/>
-      <c r="V7" s="383"/>
-      <c r="W7" s="385"/>
-      <c r="X7" s="384"/>
+      <c r="Q7" s="372"/>
+      <c r="R7" s="386"/>
+      <c r="S7" s="395"/>
+      <c r="T7" s="375"/>
+      <c r="U7" s="377"/>
+      <c r="V7" s="375"/>
+      <c r="W7" s="376"/>
+      <c r="X7" s="377"/>
     </row>
     <row r="8" spans="1:24" s="219" customFormat="1" ht="19.5" customHeight="1">
       <c r="A8" s="218"/>
@@ -11777,46 +12114,46 @@
       <c r="A9" s="214">
         <v>6</v>
       </c>
-      <c r="B9" s="355" t="s">
+      <c r="B9" s="404" t="s">
         <v>484</v>
       </c>
-      <c r="C9" s="355"/>
-      <c r="D9" s="355"/>
+      <c r="C9" s="404"/>
+      <c r="D9" s="404"/>
     </row>
     <row r="10" spans="1:24" ht="19.5" customHeight="1">
       <c r="G10" s="231"/>
       <c r="H10" s="231"/>
-      <c r="O10" s="377" t="s">
+      <c r="O10" s="344" t="s">
         <v>547</v>
       </c>
-      <c r="P10" s="378"/>
-      <c r="Q10" s="378"/>
-      <c r="R10" s="379"/>
-      <c r="S10" s="403" t="s">
+      <c r="P10" s="345"/>
+      <c r="Q10" s="345"/>
+      <c r="R10" s="346"/>
+      <c r="S10" s="396" t="s">
         <v>487</v>
       </c>
-      <c r="T10" s="403"/>
-      <c r="U10" s="403"/>
-      <c r="V10" s="403" t="s">
+      <c r="T10" s="396"/>
+      <c r="U10" s="396"/>
+      <c r="V10" s="396" t="s">
         <v>488</v>
       </c>
-      <c r="W10" s="403"/>
-      <c r="X10" s="403"/>
-    </row>
-    <row r="11" spans="1:24" ht="22.8" customHeight="1">
+      <c r="W10" s="396"/>
+      <c r="X10" s="396"/>
+    </row>
+    <row r="11" spans="1:24" ht="22.9" customHeight="1">
       <c r="B11" s="232" t="s">
         <v>485</v>
       </c>
       <c r="C11" s="232"/>
       <c r="D11" s="232"/>
-      <c r="E11" s="372" t="s">
+      <c r="E11" s="398" t="s">
         <v>538</v>
       </c>
-      <c r="F11" s="372"/>
-      <c r="G11" s="372"/>
-      <c r="H11" s="372"/>
-      <c r="I11" s="372"/>
-      <c r="J11" s="372"/>
+      <c r="F11" s="398"/>
+      <c r="G11" s="398"/>
+      <c r="H11" s="398"/>
+      <c r="I11" s="398"/>
+      <c r="J11" s="398"/>
       <c r="K11" s="251" t="s">
         <v>482</v>
       </c>
@@ -11826,16 +12163,16 @@
       <c r="M11" s="250" t="s">
         <v>486</v>
       </c>
-      <c r="O11" s="380"/>
-      <c r="P11" s="381"/>
-      <c r="Q11" s="381"/>
-      <c r="R11" s="382"/>
-      <c r="S11" s="403"/>
-      <c r="T11" s="403"/>
-      <c r="U11" s="403"/>
-      <c r="V11" s="403"/>
-      <c r="W11" s="403"/>
-      <c r="X11" s="403"/>
+      <c r="O11" s="347"/>
+      <c r="P11" s="348"/>
+      <c r="Q11" s="348"/>
+      <c r="R11" s="349"/>
+      <c r="S11" s="396"/>
+      <c r="T11" s="396"/>
+      <c r="U11" s="396"/>
+      <c r="V11" s="396"/>
+      <c r="W11" s="396"/>
+      <c r="X11" s="396"/>
     </row>
     <row r="12" spans="1:24" ht="27.6" customHeight="1">
       <c r="B12" s="232" t="s">
@@ -11843,14 +12180,14 @@
       </c>
       <c r="C12" s="232"/>
       <c r="D12" s="232"/>
-      <c r="E12" s="373" t="s">
+      <c r="E12" s="391" t="s">
         <v>539</v>
       </c>
-      <c r="F12" s="373"/>
-      <c r="G12" s="373"/>
-      <c r="H12" s="373"/>
-      <c r="I12" s="373"/>
-      <c r="J12" s="373"/>
+      <c r="F12" s="391"/>
+      <c r="G12" s="391"/>
+      <c r="H12" s="391"/>
+      <c r="I12" s="391"/>
+      <c r="J12" s="391"/>
       <c r="K12" s="252" t="s">
         <v>482</v>
       </c>
@@ -11860,37 +12197,37 @@
       <c r="M12" s="250" t="s">
         <v>486</v>
       </c>
-      <c r="O12" s="374" t="s">
+      <c r="O12" s="399" t="s">
         <v>541</v>
       </c>
-      <c r="P12" s="375"/>
-      <c r="Q12" s="375"/>
-      <c r="R12" s="376"/>
-      <c r="S12" s="386" t="s">
+      <c r="P12" s="400"/>
+      <c r="Q12" s="400"/>
+      <c r="R12" s="401"/>
+      <c r="S12" s="387" t="s">
         <v>542</v>
       </c>
-      <c r="T12" s="387"/>
-      <c r="U12" s="388"/>
-      <c r="V12" s="386" t="s">
+      <c r="T12" s="388"/>
+      <c r="U12" s="389"/>
+      <c r="V12" s="387" t="s">
         <v>543</v>
       </c>
-      <c r="W12" s="387"/>
-      <c r="X12" s="388"/>
+      <c r="W12" s="388"/>
+      <c r="X12" s="389"/>
     </row>
     <row r="13" spans="1:24" ht="27" customHeight="1">
-      <c r="B13" s="389" t="s">
+      <c r="B13" s="390" t="s">
         <v>490</v>
       </c>
-      <c r="C13" s="389"/>
-      <c r="D13" s="389"/>
-      <c r="E13" s="373" t="s">
+      <c r="C13" s="390"/>
+      <c r="D13" s="390"/>
+      <c r="E13" s="391" t="s">
         <v>540</v>
       </c>
-      <c r="F13" s="373"/>
-      <c r="G13" s="373"/>
-      <c r="H13" s="373"/>
-      <c r="I13" s="373"/>
-      <c r="J13" s="373"/>
+      <c r="F13" s="391"/>
+      <c r="G13" s="391"/>
+      <c r="H13" s="391"/>
+      <c r="I13" s="391"/>
+      <c r="J13" s="391"/>
       <c r="K13" s="252" t="s">
         <v>482</v>
       </c>
@@ -11912,12 +12249,12 @@
       <c r="X13" s="235"/>
     </row>
     <row r="14" spans="1:24" ht="19.5" customHeight="1">
-      <c r="E14" s="371"/>
-      <c r="F14" s="371"/>
-      <c r="G14" s="371"/>
-      <c r="H14" s="371"/>
-      <c r="I14" s="371"/>
-      <c r="J14" s="371"/>
+      <c r="E14" s="397"/>
+      <c r="F14" s="397"/>
+      <c r="G14" s="397"/>
+      <c r="H14" s="397"/>
+      <c r="I14" s="397"/>
+      <c r="J14" s="397"/>
       <c r="O14" s="235"/>
       <c r="P14" s="235"/>
       <c r="Q14" s="235"/>
@@ -11930,21 +12267,21 @@
       <c r="X14" s="235"/>
     </row>
     <row r="15" spans="1:24" ht="18.75" customHeight="1">
-      <c r="A15" s="369"/>
-      <c r="B15" s="369"/>
-      <c r="C15" s="369" t="s">
+      <c r="A15" s="402"/>
+      <c r="B15" s="402"/>
+      <c r="C15" s="402" t="s">
         <v>491</v>
       </c>
-      <c r="D15" s="369"/>
+      <c r="D15" s="402"/>
       <c r="E15" s="217" t="s">
         <v>8</v>
       </c>
-      <c r="F15" s="370" t="s">
+      <c r="F15" s="403" t="s">
         <v>549</v>
       </c>
-      <c r="G15" s="370"/>
-      <c r="H15" s="370"/>
-      <c r="I15" s="370"/>
+      <c r="G15" s="403"/>
+      <c r="H15" s="403"/>
+      <c r="I15" s="403"/>
       <c r="J15" s="217" t="s">
         <v>492</v>
       </c>
@@ -11960,21 +12297,21 @@
       <c r="X15" s="235"/>
     </row>
     <row r="16" spans="1:24" ht="19.5" customHeight="1">
-      <c r="A16" s="369"/>
-      <c r="B16" s="369"/>
-      <c r="C16" s="369" t="s">
+      <c r="A16" s="402"/>
+      <c r="B16" s="402"/>
+      <c r="C16" s="402" t="s">
         <v>493</v>
       </c>
-      <c r="D16" s="369"/>
+      <c r="D16" s="402"/>
       <c r="E16" s="217" t="s">
         <v>8</v>
       </c>
-      <c r="F16" s="370" t="s">
+      <c r="F16" s="403" t="s">
         <v>550</v>
       </c>
-      <c r="G16" s="370"/>
-      <c r="H16" s="370"/>
-      <c r="I16" s="370"/>
+      <c r="G16" s="403"/>
+      <c r="H16" s="403"/>
+      <c r="I16" s="403"/>
       <c r="J16" s="217" t="s">
         <v>494</v>
       </c>
@@ -11990,21 +12327,21 @@
       <c r="X16" s="235"/>
     </row>
     <row r="17" spans="1:36" ht="19.5" customHeight="1">
-      <c r="A17" s="369"/>
-      <c r="B17" s="369"/>
-      <c r="C17" s="369" t="s">
+      <c r="A17" s="402"/>
+      <c r="B17" s="402"/>
+      <c r="C17" s="402" t="s">
         <v>495</v>
       </c>
-      <c r="D17" s="369"/>
+      <c r="D17" s="402"/>
       <c r="E17" s="217" t="s">
         <v>496</v>
       </c>
-      <c r="F17" s="370" t="s">
+      <c r="F17" s="403" t="s">
         <v>551</v>
       </c>
-      <c r="G17" s="370"/>
-      <c r="H17" s="370"/>
-      <c r="I17" s="370"/>
+      <c r="G17" s="403"/>
+      <c r="H17" s="403"/>
+      <c r="I17" s="403"/>
       <c r="J17" s="217" t="s">
         <v>497</v>
       </c>
@@ -12042,119 +12379,119 @@
       <c r="U19" s="216"/>
     </row>
     <row r="20" spans="1:36" ht="19.5" customHeight="1">
-      <c r="B20" s="359" t="s">
+      <c r="B20" s="412" t="s">
         <v>499</v>
       </c>
-      <c r="C20" s="360"/>
-      <c r="D20" s="360"/>
-      <c r="E20" s="360"/>
-      <c r="F20" s="368"/>
-      <c r="G20" s="351" t="s">
+      <c r="C20" s="413"/>
+      <c r="D20" s="413"/>
+      <c r="E20" s="413"/>
+      <c r="F20" s="422"/>
+      <c r="G20" s="427" t="s">
         <v>556</v>
       </c>
-      <c r="H20" s="352"/>
-      <c r="I20" s="352"/>
-      <c r="J20" s="352"/>
-      <c r="K20" s="352"/>
-      <c r="L20" s="352"/>
+      <c r="H20" s="428"/>
+      <c r="I20" s="428"/>
+      <c r="J20" s="428"/>
+      <c r="K20" s="428"/>
+      <c r="L20" s="428"/>
       <c r="M20" s="238" t="s">
         <v>500</v>
       </c>
-      <c r="N20" s="353" t="s">
+      <c r="N20" s="410" t="s">
         <v>557</v>
       </c>
-      <c r="O20" s="354"/>
+      <c r="O20" s="411"/>
       <c r="P20" s="239"/>
       <c r="Q20" s="240" t="s">
         <v>433</v>
       </c>
       <c r="R20" s="240"/>
       <c r="S20" s="241"/>
-      <c r="T20" s="347" t="s">
+      <c r="T20" s="423" t="s">
         <v>544</v>
       </c>
-      <c r="U20" s="347"/>
-      <c r="V20" s="347"/>
-      <c r="W20" s="347"/>
-      <c r="X20" s="347"/>
+      <c r="U20" s="423"/>
+      <c r="V20" s="423"/>
+      <c r="W20" s="423"/>
+      <c r="X20" s="423"/>
     </row>
     <row r="21" spans="1:36" ht="19.5" customHeight="1">
-      <c r="B21" s="356" t="s">
+      <c r="B21" s="407" t="s">
         <v>503</v>
       </c>
-      <c r="C21" s="357"/>
-      <c r="D21" s="357"/>
-      <c r="E21" s="357"/>
-      <c r="F21" s="358"/>
-      <c r="G21" s="351" t="s">
+      <c r="C21" s="408"/>
+      <c r="D21" s="408"/>
+      <c r="E21" s="408"/>
+      <c r="F21" s="409"/>
+      <c r="G21" s="427" t="s">
         <v>558</v>
       </c>
-      <c r="H21" s="352"/>
-      <c r="I21" s="352"/>
-      <c r="J21" s="352"/>
-      <c r="K21" s="352"/>
-      <c r="L21" s="352"/>
+      <c r="H21" s="428"/>
+      <c r="I21" s="428"/>
+      <c r="J21" s="428"/>
+      <c r="K21" s="428"/>
+      <c r="L21" s="428"/>
       <c r="M21" s="238" t="s">
         <v>500</v>
       </c>
-      <c r="N21" s="353" t="s">
+      <c r="N21" s="410" t="s">
         <v>559</v>
       </c>
-      <c r="O21" s="354"/>
+      <c r="O21" s="411"/>
       <c r="P21" s="242"/>
       <c r="Q21" s="243" t="s">
         <v>434</v>
       </c>
       <c r="R21" s="243"/>
       <c r="S21" s="244"/>
-      <c r="T21" s="348" t="s">
+      <c r="T21" s="424" t="s">
         <v>545</v>
       </c>
-      <c r="U21" s="348" t="s">
+      <c r="U21" s="424" t="s">
         <v>504</v>
       </c>
-      <c r="V21" s="348" t="s">
+      <c r="V21" s="424" t="s">
         <v>501</v>
       </c>
-      <c r="W21" s="348" t="s">
+      <c r="W21" s="424" t="s">
         <v>502</v>
       </c>
-      <c r="X21" s="348"/>
+      <c r="X21" s="424"/>
     </row>
     <row r="22" spans="1:36" ht="18.75" customHeight="1">
-      <c r="B22" s="359" t="s">
+      <c r="B22" s="412" t="s">
         <v>505</v>
       </c>
-      <c r="C22" s="360"/>
-      <c r="D22" s="360"/>
-      <c r="E22" s="360"/>
+      <c r="C22" s="413"/>
+      <c r="D22" s="413"/>
+      <c r="E22" s="413"/>
       <c r="F22" s="245"/>
-      <c r="G22" s="349" t="s">
+      <c r="G22" s="425" t="s">
         <v>546</v>
       </c>
-      <c r="H22" s="350"/>
-      <c r="I22" s="350"/>
-      <c r="J22" s="350"/>
-      <c r="K22" s="350"/>
-      <c r="L22" s="350"/>
+      <c r="H22" s="426"/>
+      <c r="I22" s="426"/>
+      <c r="J22" s="426"/>
+      <c r="K22" s="426"/>
+      <c r="L22" s="426"/>
       <c r="M22" s="238" t="s">
         <v>500</v>
       </c>
-      <c r="N22" s="353" t="s">
+      <c r="N22" s="410" t="s">
         <v>560</v>
       </c>
-      <c r="O22" s="354"/>
-      <c r="P22" s="361" t="s">
+      <c r="O22" s="411"/>
+      <c r="P22" s="414" t="s">
         <v>435</v>
       </c>
-      <c r="Q22" s="362"/>
-      <c r="R22" s="362"/>
-      <c r="S22" s="363"/>
-      <c r="T22" s="364"/>
-      <c r="U22" s="365"/>
-      <c r="V22" s="365"/>
-      <c r="W22" s="365"/>
-      <c r="X22" s="366"/>
+      <c r="Q22" s="415"/>
+      <c r="R22" s="415"/>
+      <c r="S22" s="416"/>
+      <c r="T22" s="417"/>
+      <c r="U22" s="418"/>
+      <c r="V22" s="418"/>
+      <c r="W22" s="418"/>
+      <c r="X22" s="419"/>
     </row>
     <row r="23" spans="1:36" ht="18.75" customHeight="1"/>
     <row r="24" spans="1:36" ht="18.75" customHeight="1">
@@ -12278,17 +12615,17 @@
     </row>
     <row r="28" spans="1:36" ht="19.5" customHeight="1">
       <c r="A28" s="211"/>
-      <c r="B28" s="367" t="s">
+      <c r="B28" s="420" t="s">
         <v>422</v>
       </c>
-      <c r="C28" s="367"/>
-      <c r="D28" s="344" t="s">
+      <c r="C28" s="420"/>
+      <c r="D28" s="421" t="s">
         <v>55</v>
       </c>
-      <c r="E28" s="344"/>
-      <c r="F28" s="344"/>
-      <c r="G28" s="344"/>
-      <c r="H28" s="344"/>
+      <c r="E28" s="421"/>
+      <c r="F28" s="421"/>
+      <c r="G28" s="421"/>
+      <c r="H28" s="421"/>
       <c r="I28" s="2"/>
       <c r="J28" s="2"/>
       <c r="K28" s="2"/>
@@ -12300,13 +12637,13 @@
       <c r="Q28" s="209" t="s">
         <v>423</v>
       </c>
-      <c r="R28" s="344" t="s">
+      <c r="R28" s="421" t="s">
         <v>54</v>
       </c>
-      <c r="S28" s="344"/>
-      <c r="T28" s="344"/>
-      <c r="U28" s="344"/>
-      <c r="V28" s="344"/>
+      <c r="S28" s="421"/>
+      <c r="T28" s="421"/>
+      <c r="U28" s="421"/>
+      <c r="V28" s="421"/>
       <c r="W28" s="210"/>
       <c r="X28" s="4"/>
       <c r="Y28" s="235"/>
@@ -12347,31 +12684,31 @@
       <c r="B30" s="209" t="s">
         <v>424</v>
       </c>
-      <c r="C30" s="345"/>
-      <c r="D30" s="345"/>
-      <c r="E30" s="345"/>
-      <c r="F30" s="345"/>
-      <c r="G30" s="345"/>
+      <c r="C30" s="405"/>
+      <c r="D30" s="405"/>
+      <c r="E30" s="405"/>
+      <c r="F30" s="405"/>
+      <c r="G30" s="405"/>
       <c r="H30" s="2"/>
       <c r="I30" s="1" t="s">
         <v>425</v>
       </c>
-      <c r="J30" s="345"/>
-      <c r="K30" s="345"/>
-      <c r="L30" s="345"/>
-      <c r="M30" s="345"/>
-      <c r="N30" s="345"/>
-      <c r="O30" s="345"/>
+      <c r="J30" s="405"/>
+      <c r="K30" s="405"/>
+      <c r="L30" s="405"/>
+      <c r="M30" s="405"/>
+      <c r="N30" s="405"/>
+      <c r="O30" s="405"/>
       <c r="P30" s="2"/>
       <c r="Q30" s="1" t="s">
         <v>426</v>
       </c>
-      <c r="R30" s="346"/>
-      <c r="S30" s="346"/>
-      <c r="T30" s="346"/>
-      <c r="U30" s="346"/>
-      <c r="V30" s="346"/>
-      <c r="W30" s="346"/>
+      <c r="R30" s="406"/>
+      <c r="S30" s="406"/>
+      <c r="T30" s="406"/>
+      <c r="U30" s="406"/>
+      <c r="V30" s="406"/>
+      <c r="W30" s="406"/>
       <c r="X30" s="4"/>
       <c r="Y30" s="235"/>
       <c r="Z30" s="235"/>
@@ -12382,31 +12719,31 @@
       <c r="B31" s="209" t="s">
         <v>427</v>
       </c>
-      <c r="C31" s="345"/>
-      <c r="D31" s="345"/>
-      <c r="E31" s="345"/>
-      <c r="F31" s="345"/>
-      <c r="G31" s="345"/>
+      <c r="C31" s="405"/>
+      <c r="D31" s="405"/>
+      <c r="E31" s="405"/>
+      <c r="F31" s="405"/>
+      <c r="G31" s="405"/>
       <c r="H31" s="2"/>
       <c r="I31" s="1" t="s">
         <v>428</v>
       </c>
-      <c r="J31" s="345"/>
-      <c r="K31" s="345"/>
-      <c r="L31" s="345"/>
-      <c r="M31" s="345"/>
-      <c r="N31" s="345"/>
-      <c r="O31" s="345"/>
+      <c r="J31" s="405"/>
+      <c r="K31" s="405"/>
+      <c r="L31" s="405"/>
+      <c r="M31" s="405"/>
+      <c r="N31" s="405"/>
+      <c r="O31" s="405"/>
       <c r="P31" s="2"/>
       <c r="Q31" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="R31" s="346"/>
-      <c r="S31" s="346"/>
-      <c r="T31" s="346"/>
-      <c r="U31" s="346"/>
-      <c r="V31" s="346"/>
-      <c r="W31" s="346"/>
+      <c r="R31" s="406"/>
+      <c r="S31" s="406"/>
+      <c r="T31" s="406"/>
+      <c r="U31" s="406"/>
+      <c r="V31" s="406"/>
+      <c r="W31" s="406"/>
       <c r="X31" s="4"/>
       <c r="Y31" s="235"/>
       <c r="Z31" s="235"/>
@@ -12420,31 +12757,31 @@
       <c r="B32" s="209" t="s">
         <v>430</v>
       </c>
-      <c r="C32" s="345"/>
-      <c r="D32" s="345"/>
-      <c r="E32" s="345"/>
-      <c r="F32" s="345"/>
-      <c r="G32" s="345"/>
+      <c r="C32" s="405"/>
+      <c r="D32" s="405"/>
+      <c r="E32" s="405"/>
+      <c r="F32" s="405"/>
+      <c r="G32" s="405"/>
       <c r="H32" s="2"/>
       <c r="I32" s="1" t="s">
         <v>431</v>
       </c>
-      <c r="J32" s="345"/>
-      <c r="K32" s="345"/>
-      <c r="L32" s="345"/>
-      <c r="M32" s="345"/>
-      <c r="N32" s="345"/>
-      <c r="O32" s="345"/>
+      <c r="J32" s="405"/>
+      <c r="K32" s="405"/>
+      <c r="L32" s="405"/>
+      <c r="M32" s="405"/>
+      <c r="N32" s="405"/>
+      <c r="O32" s="405"/>
       <c r="P32" s="2"/>
       <c r="Q32" s="1" t="s">
         <v>432</v>
       </c>
-      <c r="R32" s="346"/>
-      <c r="S32" s="346"/>
-      <c r="T32" s="346"/>
-      <c r="U32" s="346"/>
-      <c r="V32" s="346"/>
-      <c r="W32" s="346"/>
+      <c r="R32" s="406"/>
+      <c r="S32" s="406"/>
+      <c r="T32" s="406"/>
+      <c r="U32" s="406"/>
+      <c r="V32" s="406"/>
+      <c r="W32" s="406"/>
       <c r="X32" s="4"/>
       <c r="Y32" s="235"/>
       <c r="Z32" s="235"/>
@@ -13673,26 +14010,44 @@
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" selectLockedCells="1"/>
   <mergeCells count="74">
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:H3"/>
-    <mergeCell ref="I2:L3"/>
-    <mergeCell ref="M2:O3"/>
-    <mergeCell ref="P2:Q3"/>
-    <mergeCell ref="V2:X3"/>
-    <mergeCell ref="C4:H4"/>
-    <mergeCell ref="I4:L4"/>
-    <mergeCell ref="M4:O4"/>
-    <mergeCell ref="P4:Q4"/>
-    <mergeCell ref="T4:U4"/>
-    <mergeCell ref="V4:X4"/>
-    <mergeCell ref="R2:S3"/>
-    <mergeCell ref="T2:U3"/>
-    <mergeCell ref="R4:S4"/>
-    <mergeCell ref="C5:H5"/>
-    <mergeCell ref="I5:L5"/>
-    <mergeCell ref="M5:O5"/>
-    <mergeCell ref="P5:Q5"/>
-    <mergeCell ref="R5:S5"/>
+    <mergeCell ref="R28:V28"/>
+    <mergeCell ref="C30:G30"/>
+    <mergeCell ref="J30:O30"/>
+    <mergeCell ref="R30:W30"/>
+    <mergeCell ref="T20:X20"/>
+    <mergeCell ref="T21:X21"/>
+    <mergeCell ref="G22:L22"/>
+    <mergeCell ref="G20:L20"/>
+    <mergeCell ref="G21:L21"/>
+    <mergeCell ref="N20:O20"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="C32:G32"/>
+    <mergeCell ref="J32:O32"/>
+    <mergeCell ref="R32:W32"/>
+    <mergeCell ref="C31:G31"/>
+    <mergeCell ref="J31:O31"/>
+    <mergeCell ref="R31:W31"/>
+    <mergeCell ref="B21:F21"/>
+    <mergeCell ref="N21:O21"/>
+    <mergeCell ref="B22:E22"/>
+    <mergeCell ref="N22:O22"/>
+    <mergeCell ref="P22:S22"/>
+    <mergeCell ref="T22:X22"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:H28"/>
+    <mergeCell ref="B20:F20"/>
+    <mergeCell ref="A15:B17"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="F15:I15"/>
+    <mergeCell ref="F16:I16"/>
+    <mergeCell ref="F17:I17"/>
+    <mergeCell ref="E14:J14"/>
+    <mergeCell ref="E11:J11"/>
+    <mergeCell ref="E12:J12"/>
+    <mergeCell ref="O12:R12"/>
+    <mergeCell ref="O10:R11"/>
     <mergeCell ref="T5:U5"/>
     <mergeCell ref="V5:X5"/>
     <mergeCell ref="S12:U12"/>
@@ -13709,44 +14064,26 @@
     <mergeCell ref="V7:X7"/>
     <mergeCell ref="S10:U11"/>
     <mergeCell ref="V10:X11"/>
-    <mergeCell ref="E14:J14"/>
-    <mergeCell ref="E11:J11"/>
-    <mergeCell ref="E12:J12"/>
-    <mergeCell ref="O12:R12"/>
-    <mergeCell ref="O10:R11"/>
-    <mergeCell ref="A15:B17"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="F15:I15"/>
-    <mergeCell ref="F16:I16"/>
-    <mergeCell ref="F17:I17"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="C32:G32"/>
-    <mergeCell ref="J32:O32"/>
-    <mergeCell ref="R32:W32"/>
-    <mergeCell ref="C31:G31"/>
-    <mergeCell ref="J31:O31"/>
-    <mergeCell ref="R31:W31"/>
-    <mergeCell ref="B21:F21"/>
-    <mergeCell ref="N21:O21"/>
-    <mergeCell ref="B22:E22"/>
-    <mergeCell ref="N22:O22"/>
-    <mergeCell ref="P22:S22"/>
-    <mergeCell ref="T22:X22"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:H28"/>
-    <mergeCell ref="B20:F20"/>
-    <mergeCell ref="R28:V28"/>
-    <mergeCell ref="C30:G30"/>
-    <mergeCell ref="J30:O30"/>
-    <mergeCell ref="R30:W30"/>
-    <mergeCell ref="T20:X20"/>
-    <mergeCell ref="T21:X21"/>
-    <mergeCell ref="G22:L22"/>
-    <mergeCell ref="G20:L20"/>
-    <mergeCell ref="G21:L21"/>
-    <mergeCell ref="N20:O20"/>
+    <mergeCell ref="C5:H5"/>
+    <mergeCell ref="I5:L5"/>
+    <mergeCell ref="M5:O5"/>
+    <mergeCell ref="P5:Q5"/>
+    <mergeCell ref="R5:S5"/>
+    <mergeCell ref="V2:X3"/>
+    <mergeCell ref="C4:H4"/>
+    <mergeCell ref="I4:L4"/>
+    <mergeCell ref="M4:O4"/>
+    <mergeCell ref="P4:Q4"/>
+    <mergeCell ref="T4:U4"/>
+    <mergeCell ref="V4:X4"/>
+    <mergeCell ref="R2:S3"/>
+    <mergeCell ref="T2:U3"/>
+    <mergeCell ref="R4:S4"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:H3"/>
+    <mergeCell ref="I2:L3"/>
+    <mergeCell ref="M2:O3"/>
+    <mergeCell ref="P2:Q3"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="W21">
@@ -13773,15 +14110,15 @@
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>1</xdr:col>
-                <xdr:colOff>129540</xdr:colOff>
+                <xdr:colOff>133350</xdr:colOff>
                 <xdr:row>14</xdr:row>
-                <xdr:rowOff>45720</xdr:rowOff>
+                <xdr:rowOff>47625</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>2</xdr:col>
-                <xdr:colOff>45720</xdr:colOff>
+                <xdr:colOff>47625</xdr:colOff>
                 <xdr:row>15</xdr:row>
-                <xdr:rowOff>7620</xdr:rowOff>
+                <xdr:rowOff>9525</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
@@ -13798,15 +14135,15 @@
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>1</xdr:col>
-                <xdr:colOff>198120</xdr:colOff>
+                <xdr:colOff>200025</xdr:colOff>
                 <xdr:row>15</xdr:row>
-                <xdr:rowOff>68580</xdr:rowOff>
+                <xdr:rowOff>66675</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>1</xdr:col>
-                <xdr:colOff>449580</xdr:colOff>
+                <xdr:colOff>447675</xdr:colOff>
                 <xdr:row>16</xdr:row>
-                <xdr:rowOff>15240</xdr:rowOff>
+                <xdr:rowOff>19050</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
@@ -13825,13 +14162,13 @@
                 <xdr:col>1</xdr:col>
                 <xdr:colOff>152400</xdr:colOff>
                 <xdr:row>16</xdr:row>
-                <xdr:rowOff>30480</xdr:rowOff>
+                <xdr:rowOff>28575</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>2</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
                 <xdr:row>17</xdr:row>
-                <xdr:rowOff>60960</xdr:rowOff>
+                <xdr:rowOff>57150</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
@@ -13851,31 +14188,31 @@
   <sheetViews>
     <sheetView showGridLines="0" showRowColHeaders="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.33203125" defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultColWidth="10.28515625" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="13.77734375" style="103" customWidth="1"/>
-    <col min="2" max="2" width="14.5546875" style="103" customWidth="1"/>
-    <col min="3" max="3" width="13.88671875" style="103" customWidth="1"/>
-    <col min="4" max="4" width="13.5546875" style="103" customWidth="1"/>
-    <col min="5" max="10" width="12.6640625" style="103" customWidth="1"/>
-    <col min="11" max="11" width="12.6640625" style="104" customWidth="1"/>
-    <col min="12" max="12" width="12.6640625" style="105" customWidth="1"/>
-    <col min="13" max="13" width="12.6640625" style="151" customWidth="1"/>
-    <col min="14" max="18" width="12.6640625" style="103" customWidth="1"/>
-    <col min="19" max="19" width="12.6640625" style="104" customWidth="1"/>
-    <col min="20" max="28" width="12.6640625" style="103" customWidth="1"/>
-    <col min="29" max="30" width="5.6640625" style="105" customWidth="1"/>
-    <col min="31" max="33" width="4.33203125" style="105" customWidth="1"/>
-    <col min="34" max="34" width="4.33203125" style="151" customWidth="1"/>
-    <col min="35" max="38" width="4.33203125" style="105" customWidth="1"/>
-    <col min="39" max="41" width="3.88671875" style="105" customWidth="1"/>
-    <col min="42" max="42" width="3.88671875" style="151" customWidth="1"/>
-    <col min="43" max="67" width="3.88671875" style="105" customWidth="1"/>
-    <col min="68" max="75" width="3.88671875" style="103" customWidth="1"/>
-    <col min="76" max="16384" width="10.33203125" style="103"/>
+    <col min="1" max="1" width="13.7109375" style="103" customWidth="1"/>
+    <col min="2" max="2" width="14.5703125" style="103" customWidth="1"/>
+    <col min="3" max="3" width="13.85546875" style="103" customWidth="1"/>
+    <col min="4" max="4" width="13.5703125" style="103" customWidth="1"/>
+    <col min="5" max="10" width="12.7109375" style="103" customWidth="1"/>
+    <col min="11" max="11" width="12.7109375" style="104" customWidth="1"/>
+    <col min="12" max="12" width="12.7109375" style="105" customWidth="1"/>
+    <col min="13" max="13" width="12.7109375" style="151" customWidth="1"/>
+    <col min="14" max="18" width="12.7109375" style="103" customWidth="1"/>
+    <col min="19" max="19" width="12.7109375" style="104" customWidth="1"/>
+    <col min="20" max="28" width="12.7109375" style="103" customWidth="1"/>
+    <col min="29" max="30" width="5.7109375" style="105" customWidth="1"/>
+    <col min="31" max="33" width="4.28515625" style="105" customWidth="1"/>
+    <col min="34" max="34" width="4.28515625" style="151" customWidth="1"/>
+    <col min="35" max="38" width="4.28515625" style="105" customWidth="1"/>
+    <col min="39" max="41" width="3.85546875" style="105" customWidth="1"/>
+    <col min="42" max="42" width="3.85546875" style="151" customWidth="1"/>
+    <col min="43" max="67" width="3.85546875" style="105" customWidth="1"/>
+    <col min="68" max="75" width="3.85546875" style="103" customWidth="1"/>
+    <col min="76" max="16384" width="10.28515625" style="103"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:75" ht="16.2" thickBot="1">
+    <row r="1" spans="1:75" ht="16.5" thickBot="1">
       <c r="M1" s="105"/>
       <c r="AH1" s="105"/>
       <c r="AP1" s="105"/>
@@ -13889,32 +14226,32 @@
       </c>
       <c r="C2" s="476"/>
       <c r="D2" s="476"/>
-      <c r="E2" s="455" t="s">
+      <c r="E2" s="485" t="s">
         <v>506</v>
       </c>
-      <c r="F2" s="456"/>
-      <c r="G2" s="456"/>
-      <c r="H2" s="456"/>
-      <c r="I2" s="456"/>
-      <c r="J2" s="456"/>
-      <c r="K2" s="456"/>
-      <c r="L2" s="456"/>
-      <c r="M2" s="456"/>
-      <c r="N2" s="456"/>
-      <c r="O2" s="456"/>
-      <c r="P2" s="456"/>
-      <c r="Q2" s="456"/>
-      <c r="R2" s="456"/>
-      <c r="S2" s="456"/>
-      <c r="T2" s="456"/>
-      <c r="U2" s="456"/>
-      <c r="V2" s="456"/>
-      <c r="W2" s="456"/>
-      <c r="X2" s="456"/>
-      <c r="Y2" s="456"/>
-      <c r="Z2" s="456"/>
-      <c r="AA2" s="456"/>
-      <c r="AB2" s="457"/>
+      <c r="F2" s="486"/>
+      <c r="G2" s="486"/>
+      <c r="H2" s="486"/>
+      <c r="I2" s="486"/>
+      <c r="J2" s="486"/>
+      <c r="K2" s="486"/>
+      <c r="L2" s="486"/>
+      <c r="M2" s="486"/>
+      <c r="N2" s="486"/>
+      <c r="O2" s="486"/>
+      <c r="P2" s="486"/>
+      <c r="Q2" s="486"/>
+      <c r="R2" s="486"/>
+      <c r="S2" s="486"/>
+      <c r="T2" s="486"/>
+      <c r="U2" s="486"/>
+      <c r="V2" s="486"/>
+      <c r="W2" s="486"/>
+      <c r="X2" s="486"/>
+      <c r="Y2" s="486"/>
+      <c r="Z2" s="486"/>
+      <c r="AA2" s="486"/>
+      <c r="AB2" s="487"/>
       <c r="AC2" s="107"/>
       <c r="AD2" s="107"/>
       <c r="AE2" s="107"/>
@@ -13939,7 +14276,7 @@
       <c r="BR2" s="477"/>
       <c r="BS2" s="477"/>
     </row>
-    <row r="3" spans="1:75" ht="46.8" customHeight="1" thickBot="1">
+    <row r="3" spans="1:75" ht="46.9" customHeight="1" thickBot="1">
       <c r="A3" s="106" t="s">
         <v>43</v>
       </c>
@@ -13948,30 +14285,30 @@
       </c>
       <c r="C3" s="476"/>
       <c r="D3" s="476"/>
-      <c r="E3" s="458"/>
-      <c r="F3" s="459"/>
-      <c r="G3" s="459"/>
-      <c r="H3" s="459"/>
-      <c r="I3" s="459"/>
-      <c r="J3" s="459"/>
-      <c r="K3" s="459"/>
-      <c r="L3" s="459"/>
-      <c r="M3" s="459"/>
-      <c r="N3" s="459"/>
-      <c r="O3" s="459"/>
-      <c r="P3" s="459"/>
-      <c r="Q3" s="459"/>
-      <c r="R3" s="459"/>
-      <c r="S3" s="459"/>
-      <c r="T3" s="459"/>
-      <c r="U3" s="459"/>
-      <c r="V3" s="459"/>
-      <c r="W3" s="459"/>
-      <c r="X3" s="459"/>
-      <c r="Y3" s="459"/>
-      <c r="Z3" s="459"/>
-      <c r="AA3" s="459"/>
-      <c r="AB3" s="460"/>
+      <c r="E3" s="488"/>
+      <c r="F3" s="489"/>
+      <c r="G3" s="489"/>
+      <c r="H3" s="489"/>
+      <c r="I3" s="489"/>
+      <c r="J3" s="489"/>
+      <c r="K3" s="489"/>
+      <c r="L3" s="489"/>
+      <c r="M3" s="489"/>
+      <c r="N3" s="489"/>
+      <c r="O3" s="489"/>
+      <c r="P3" s="489"/>
+      <c r="Q3" s="489"/>
+      <c r="R3" s="489"/>
+      <c r="S3" s="489"/>
+      <c r="T3" s="489"/>
+      <c r="U3" s="489"/>
+      <c r="V3" s="489"/>
+      <c r="W3" s="489"/>
+      <c r="X3" s="489"/>
+      <c r="Y3" s="489"/>
+      <c r="Z3" s="489"/>
+      <c r="AA3" s="489"/>
+      <c r="AB3" s="490"/>
       <c r="AC3" s="107"/>
       <c r="AD3" s="107"/>
       <c r="AE3" s="107"/>
@@ -14080,22 +14417,22 @@
       <c r="BO4" s="103"/>
     </row>
     <row r="5" spans="1:75" ht="18" customHeight="1">
-      <c r="A5" s="482" t="s">
+      <c r="A5" s="469" t="s">
         <v>295</v>
       </c>
-      <c r="B5" s="461" t="s">
+      <c r="B5" s="491" t="s">
         <v>386</v>
       </c>
-      <c r="C5" s="479" t="s">
+      <c r="C5" s="474" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="463" t="s">
+      <c r="D5" s="493" t="s">
         <v>387</v>
       </c>
-      <c r="E5" s="468" t="s">
+      <c r="E5" s="495" t="s">
         <v>383</v>
       </c>
-      <c r="F5" s="469"/>
+      <c r="F5" s="496"/>
       <c r="G5" s="113"/>
       <c r="H5" s="113"/>
       <c r="I5" s="113"/>
@@ -14167,12 +14504,12 @@
       <c r="BW5" s="121"/>
     </row>
     <row r="6" spans="1:75" ht="18" customHeight="1">
-      <c r="A6" s="483"/>
-      <c r="B6" s="462"/>
-      <c r="C6" s="480"/>
-      <c r="D6" s="464"/>
-      <c r="E6" s="470"/>
-      <c r="F6" s="471"/>
+      <c r="A6" s="470"/>
+      <c r="B6" s="492"/>
+      <c r="C6" s="475"/>
+      <c r="D6" s="494"/>
+      <c r="E6" s="497"/>
+      <c r="F6" s="498"/>
       <c r="G6" s="74"/>
       <c r="H6" s="74"/>
       <c r="I6" s="74"/>
@@ -14197,12 +14534,12 @@
       <c r="AB6" s="74"/>
       <c r="AC6" s="74"/>
       <c r="AD6" s="74"/>
-      <c r="AE6" s="481"/>
-      <c r="AF6" s="481"/>
+      <c r="AE6" s="464"/>
+      <c r="AF6" s="464"/>
       <c r="AG6" s="122"/>
       <c r="AH6" s="123"/>
-      <c r="AI6" s="481"/>
-      <c r="AJ6" s="481"/>
+      <c r="AI6" s="464"/>
+      <c r="AJ6" s="464"/>
       <c r="AK6" s="123"/>
       <c r="AL6" s="124"/>
       <c r="AM6" s="124"/>
@@ -14247,19 +14584,19 @@
       <c r="A7" s="465" t="s">
         <v>301</v>
       </c>
-      <c r="B7" s="474" t="s">
+      <c r="B7" s="466" t="s">
         <v>302</v>
       </c>
       <c r="C7" s="465" t="s">
         <v>303</v>
       </c>
-      <c r="D7" s="467" t="s">
+      <c r="D7" s="468" t="s">
         <v>304</v>
       </c>
-      <c r="E7" s="444" t="s">
+      <c r="E7" s="433" t="s">
         <v>572</v>
       </c>
-      <c r="F7" s="445"/>
+      <c r="F7" s="434"/>
       <c r="G7" s="74"/>
       <c r="H7" s="74"/>
       <c r="I7" s="74"/>
@@ -14310,13 +14647,13 @@
     </row>
     <row r="8" spans="1:75">
       <c r="A8" s="465"/>
-      <c r="B8" s="475"/>
+      <c r="B8" s="467"/>
       <c r="C8" s="465"/>
-      <c r="D8" s="467"/>
-      <c r="E8" s="444" t="s">
+      <c r="D8" s="468"/>
+      <c r="E8" s="433" t="s">
         <v>388</v>
       </c>
-      <c r="F8" s="445"/>
+      <c r="F8" s="434"/>
       <c r="G8" s="74"/>
       <c r="H8" s="74"/>
       <c r="I8" s="74"/>
@@ -14363,22 +14700,22 @@
       <c r="BW8" s="132"/>
     </row>
     <row r="9" spans="1:75" ht="15.6" customHeight="1">
-      <c r="A9" s="472" t="s">
+      <c r="A9" s="471" t="s">
         <v>305</v>
       </c>
-      <c r="B9" s="474" t="s">
+      <c r="B9" s="466" t="s">
         <v>306</v>
       </c>
-      <c r="C9" s="472" t="s">
+      <c r="C9" s="471" t="s">
         <v>307</v>
       </c>
-      <c r="D9" s="472" t="s">
+      <c r="D9" s="471" t="s">
         <v>308</v>
       </c>
-      <c r="E9" s="444" t="s">
+      <c r="E9" s="433" t="s">
         <v>573</v>
       </c>
-      <c r="F9" s="445"/>
+      <c r="F9" s="434"/>
       <c r="G9" s="74"/>
       <c r="H9" s="74"/>
       <c r="I9" s="74"/>
@@ -14425,14 +14762,14 @@
       <c r="BW9" s="132"/>
     </row>
     <row r="10" spans="1:75" ht="15.6" customHeight="1">
-      <c r="A10" s="473"/>
-      <c r="B10" s="475"/>
-      <c r="C10" s="473"/>
-      <c r="D10" s="473"/>
-      <c r="E10" s="444" t="s">
+      <c r="A10" s="472"/>
+      <c r="B10" s="467"/>
+      <c r="C10" s="472"/>
+      <c r="D10" s="472"/>
+      <c r="E10" s="433" t="s">
         <v>389</v>
       </c>
-      <c r="F10" s="445"/>
+      <c r="F10" s="434"/>
       <c r="G10" s="74"/>
       <c r="H10" s="74"/>
       <c r="I10" s="74"/>
@@ -14483,22 +14820,22 @@
       <c r="BW10" s="132"/>
     </row>
     <row r="11" spans="1:75" ht="15.6" customHeight="1">
-      <c r="A11" s="472" t="s">
+      <c r="A11" s="471" t="s">
         <v>309</v>
       </c>
-      <c r="B11" s="474" t="s">
+      <c r="B11" s="466" t="s">
         <v>310</v>
       </c>
-      <c r="C11" s="472" t="s">
+      <c r="C11" s="471" t="s">
         <v>311</v>
       </c>
-      <c r="D11" s="472" t="s">
+      <c r="D11" s="471" t="s">
         <v>312</v>
       </c>
-      <c r="E11" s="444" t="s">
+      <c r="E11" s="433" t="s">
         <v>574</v>
       </c>
-      <c r="F11" s="445"/>
+      <c r="F11" s="434"/>
       <c r="G11" s="74"/>
       <c r="H11" s="74"/>
       <c r="I11" s="74"/>
@@ -14550,14 +14887,14 @@
       <c r="BW11" s="132"/>
     </row>
     <row r="12" spans="1:75" ht="15.6" customHeight="1">
-      <c r="A12" s="473"/>
-      <c r="B12" s="475"/>
-      <c r="C12" s="473"/>
-      <c r="D12" s="473"/>
-      <c r="E12" s="444" t="s">
+      <c r="A12" s="472"/>
+      <c r="B12" s="467"/>
+      <c r="C12" s="472"/>
+      <c r="D12" s="472"/>
+      <c r="E12" s="433" t="s">
         <v>390</v>
       </c>
-      <c r="F12" s="445"/>
+      <c r="F12" s="434"/>
       <c r="G12" s="74"/>
       <c r="H12" s="74"/>
       <c r="I12" s="74"/>
@@ -14612,19 +14949,19 @@
       <c r="A13" s="465" t="s">
         <v>313</v>
       </c>
-      <c r="B13" s="466" t="s">
+      <c r="B13" s="473" t="s">
         <v>314</v>
       </c>
       <c r="C13" s="465" t="s">
         <v>315</v>
       </c>
-      <c r="D13" s="467" t="s">
+      <c r="D13" s="468" t="s">
         <v>316</v>
       </c>
-      <c r="E13" s="444" t="s">
+      <c r="E13" s="433" t="s">
         <v>575</v>
       </c>
-      <c r="F13" s="445"/>
+      <c r="F13" s="434"/>
       <c r="G13" s="74"/>
       <c r="H13" s="74"/>
       <c r="I13" s="74"/>
@@ -14677,13 +15014,13 @@
     </row>
     <row r="14" spans="1:75">
       <c r="A14" s="465"/>
-      <c r="B14" s="466"/>
+      <c r="B14" s="473"/>
       <c r="C14" s="465"/>
-      <c r="D14" s="467"/>
-      <c r="E14" s="444" t="s">
+      <c r="D14" s="468"/>
+      <c r="E14" s="433" t="s">
         <v>391</v>
       </c>
-      <c r="F14" s="445"/>
+      <c r="F14" s="434"/>
       <c r="G14" s="74"/>
       <c r="H14" s="74"/>
       <c r="I14" s="74"/>
@@ -14735,22 +15072,22 @@
       <c r="BW14" s="132"/>
     </row>
     <row r="15" spans="1:75" ht="15.6" customHeight="1">
-      <c r="A15" s="472" t="s">
+      <c r="A15" s="471" t="s">
         <v>317</v>
       </c>
-      <c r="B15" s="474" t="s">
+      <c r="B15" s="466" t="s">
         <v>318</v>
       </c>
-      <c r="C15" s="472" t="s">
+      <c r="C15" s="471" t="s">
         <v>319</v>
       </c>
-      <c r="D15" s="472" t="s">
+      <c r="D15" s="471" t="s">
         <v>320</v>
       </c>
-      <c r="E15" s="444" t="s">
+      <c r="E15" s="433" t="s">
         <v>576</v>
       </c>
-      <c r="F15" s="445"/>
+      <c r="F15" s="434"/>
       <c r="G15" s="74"/>
       <c r="H15" s="74"/>
       <c r="I15" s="74"/>
@@ -14802,14 +15139,14 @@
       <c r="BW15" s="132"/>
     </row>
     <row r="16" spans="1:75" ht="15.6" customHeight="1">
-      <c r="A16" s="473"/>
-      <c r="B16" s="475"/>
-      <c r="C16" s="473"/>
-      <c r="D16" s="473"/>
-      <c r="E16" s="444" t="s">
+      <c r="A16" s="472"/>
+      <c r="B16" s="467"/>
+      <c r="C16" s="472"/>
+      <c r="D16" s="472"/>
+      <c r="E16" s="433" t="s">
         <v>392</v>
       </c>
-      <c r="F16" s="445"/>
+      <c r="F16" s="434"/>
       <c r="G16" s="74"/>
       <c r="H16" s="74"/>
       <c r="I16" s="74"/>
@@ -14859,19 +15196,19 @@
       <c r="A17" s="465" t="s">
         <v>321</v>
       </c>
-      <c r="B17" s="466" t="s">
+      <c r="B17" s="473" t="s">
         <v>322</v>
       </c>
       <c r="C17" s="465" t="s">
         <v>323</v>
       </c>
-      <c r="D17" s="467" t="s">
+      <c r="D17" s="468" t="s">
         <v>324</v>
       </c>
-      <c r="E17" s="444" t="s">
+      <c r="E17" s="433" t="s">
         <v>577</v>
       </c>
-      <c r="F17" s="445"/>
+      <c r="F17" s="434"/>
       <c r="G17" s="74"/>
       <c r="H17" s="74"/>
       <c r="I17" s="74"/>
@@ -14919,13 +15256,13 @@
     </row>
     <row r="18" spans="1:75">
       <c r="A18" s="465"/>
-      <c r="B18" s="466"/>
+      <c r="B18" s="473"/>
       <c r="C18" s="465"/>
-      <c r="D18" s="467"/>
-      <c r="E18" s="444" t="s">
+      <c r="D18" s="468"/>
+      <c r="E18" s="433" t="s">
         <v>393</v>
       </c>
-      <c r="F18" s="445"/>
+      <c r="F18" s="434"/>
       <c r="G18" s="74"/>
       <c r="H18" s="74"/>
       <c r="I18" s="74"/>
@@ -14980,22 +15317,22 @@
       <c r="BW18" s="132"/>
     </row>
     <row r="19" spans="1:75" ht="15.6" customHeight="1">
-      <c r="A19" s="472" t="s">
+      <c r="A19" s="471" t="s">
         <v>325</v>
       </c>
-      <c r="B19" s="474" t="s">
+      <c r="B19" s="466" t="s">
         <v>326</v>
       </c>
-      <c r="C19" s="472" t="s">
+      <c r="C19" s="471" t="s">
         <v>327</v>
       </c>
-      <c r="D19" s="472" t="s">
+      <c r="D19" s="471" t="s">
         <v>328</v>
       </c>
-      <c r="E19" s="444" t="s">
+      <c r="E19" s="433" t="s">
         <v>578</v>
       </c>
-      <c r="F19" s="445"/>
+      <c r="F19" s="434"/>
       <c r="G19" s="74"/>
       <c r="H19" s="74"/>
       <c r="I19" s="74"/>
@@ -15042,14 +15379,14 @@
       <c r="BW19" s="132"/>
     </row>
     <row r="20" spans="1:75" ht="15.6" customHeight="1">
-      <c r="A20" s="473"/>
-      <c r="B20" s="475"/>
-      <c r="C20" s="473"/>
-      <c r="D20" s="473"/>
-      <c r="E20" s="444" t="s">
+      <c r="A20" s="472"/>
+      <c r="B20" s="467"/>
+      <c r="C20" s="472"/>
+      <c r="D20" s="472"/>
+      <c r="E20" s="433" t="s">
         <v>394</v>
       </c>
-      <c r="F20" s="445"/>
+      <c r="F20" s="434"/>
       <c r="G20" s="74"/>
       <c r="H20" s="74"/>
       <c r="I20" s="74"/>
@@ -15099,19 +15436,19 @@
       <c r="A21" s="465" t="s">
         <v>329</v>
       </c>
-      <c r="B21" s="466" t="s">
+      <c r="B21" s="473" t="s">
         <v>330</v>
       </c>
       <c r="C21" s="465" t="s">
         <v>331</v>
       </c>
-      <c r="D21" s="467" t="s">
+      <c r="D21" s="468" t="s">
         <v>332</v>
       </c>
-      <c r="E21" s="444" t="s">
+      <c r="E21" s="433" t="s">
         <v>579</v>
       </c>
-      <c r="F21" s="445"/>
+      <c r="F21" s="434"/>
       <c r="G21" s="74"/>
       <c r="H21" s="74"/>
       <c r="I21" s="74"/>
@@ -15159,13 +15496,13 @@
     </row>
     <row r="22" spans="1:75">
       <c r="A22" s="465"/>
-      <c r="B22" s="466"/>
+      <c r="B22" s="473"/>
       <c r="C22" s="465"/>
-      <c r="D22" s="467"/>
-      <c r="E22" s="444" t="s">
+      <c r="D22" s="468"/>
+      <c r="E22" s="433" t="s">
         <v>395</v>
       </c>
-      <c r="F22" s="445"/>
+      <c r="F22" s="434"/>
       <c r="G22" s="74"/>
       <c r="H22" s="74"/>
       <c r="I22" s="74"/>
@@ -15212,22 +15549,22 @@
       <c r="BW22" s="132"/>
     </row>
     <row r="23" spans="1:75" ht="15.6" customHeight="1">
-      <c r="A23" s="472" t="s">
+      <c r="A23" s="471" t="s">
         <v>333</v>
       </c>
-      <c r="B23" s="474" t="s">
+      <c r="B23" s="466" t="s">
         <v>334</v>
       </c>
-      <c r="C23" s="472" t="s">
+      <c r="C23" s="471" t="s">
         <v>335</v>
       </c>
-      <c r="D23" s="472" t="s">
+      <c r="D23" s="471" t="s">
         <v>336</v>
       </c>
-      <c r="E23" s="444" t="s">
+      <c r="E23" s="433" t="s">
         <v>580</v>
       </c>
-      <c r="F23" s="445"/>
+      <c r="F23" s="434"/>
       <c r="G23" s="74"/>
       <c r="H23" s="74"/>
       <c r="I23" s="74"/>
@@ -15274,14 +15611,14 @@
       <c r="BW23" s="132"/>
     </row>
     <row r="24" spans="1:75" ht="15.6" customHeight="1">
-      <c r="A24" s="473"/>
-      <c r="B24" s="475"/>
-      <c r="C24" s="473"/>
-      <c r="D24" s="473"/>
-      <c r="E24" s="444" t="s">
+      <c r="A24" s="472"/>
+      <c r="B24" s="467"/>
+      <c r="C24" s="472"/>
+      <c r="D24" s="472"/>
+      <c r="E24" s="433" t="s">
         <v>396</v>
       </c>
-      <c r="F24" s="445"/>
+      <c r="F24" s="434"/>
       <c r="G24" s="74"/>
       <c r="H24" s="74"/>
       <c r="I24" s="74"/>
@@ -15331,19 +15668,19 @@
       <c r="A25" s="465" t="s">
         <v>337</v>
       </c>
-      <c r="B25" s="466" t="s">
+      <c r="B25" s="473" t="s">
         <v>338</v>
       </c>
       <c r="C25" s="465" t="s">
         <v>339</v>
       </c>
-      <c r="D25" s="467" t="s">
+      <c r="D25" s="468" t="s">
         <v>340</v>
       </c>
-      <c r="E25" s="444" t="s">
+      <c r="E25" s="433" t="s">
         <v>581</v>
       </c>
-      <c r="F25" s="445"/>
+      <c r="F25" s="434"/>
       <c r="G25" s="74"/>
       <c r="H25" s="74"/>
       <c r="I25" s="74"/>
@@ -15391,13 +15728,13 @@
     </row>
     <row r="26" spans="1:75">
       <c r="A26" s="465"/>
-      <c r="B26" s="466"/>
+      <c r="B26" s="473"/>
       <c r="C26" s="465"/>
-      <c r="D26" s="467"/>
-      <c r="E26" s="444" t="s">
+      <c r="D26" s="468"/>
+      <c r="E26" s="433" t="s">
         <v>397</v>
       </c>
-      <c r="F26" s="445"/>
+      <c r="F26" s="434"/>
       <c r="G26" s="74"/>
       <c r="H26" s="74"/>
       <c r="I26" s="74"/>
@@ -15444,22 +15781,22 @@
       <c r="BW26" s="132"/>
     </row>
     <row r="27" spans="1:75" ht="15.6" customHeight="1">
-      <c r="A27" s="472" t="s">
+      <c r="A27" s="471" t="s">
         <v>341</v>
       </c>
-      <c r="B27" s="474" t="s">
+      <c r="B27" s="466" t="s">
         <v>342</v>
       </c>
-      <c r="C27" s="472" t="s">
+      <c r="C27" s="471" t="s">
         <v>343</v>
       </c>
-      <c r="D27" s="472" t="s">
+      <c r="D27" s="471" t="s">
         <v>344</v>
       </c>
-      <c r="E27" s="444" t="s">
+      <c r="E27" s="433" t="s">
         <v>582</v>
       </c>
-      <c r="F27" s="445"/>
+      <c r="F27" s="434"/>
       <c r="G27" s="74"/>
       <c r="H27" s="74"/>
       <c r="I27" s="74"/>
@@ -15506,14 +15843,14 @@
       <c r="BW27" s="132"/>
     </row>
     <row r="28" spans="1:75" ht="15.6" customHeight="1">
-      <c r="A28" s="473"/>
-      <c r="B28" s="475"/>
-      <c r="C28" s="473"/>
-      <c r="D28" s="473"/>
-      <c r="E28" s="444" t="s">
+      <c r="A28" s="472"/>
+      <c r="B28" s="467"/>
+      <c r="C28" s="472"/>
+      <c r="D28" s="472"/>
+      <c r="E28" s="433" t="s">
         <v>398</v>
       </c>
-      <c r="F28" s="445"/>
+      <c r="F28" s="434"/>
       <c r="G28" s="74"/>
       <c r="H28" s="74"/>
       <c r="I28" s="74"/>
@@ -15563,19 +15900,19 @@
       <c r="A29" s="465" t="s">
         <v>345</v>
       </c>
-      <c r="B29" s="466" t="s">
+      <c r="B29" s="473" t="s">
         <v>346</v>
       </c>
       <c r="C29" s="465" t="s">
         <v>347</v>
       </c>
-      <c r="D29" s="467" t="s">
+      <c r="D29" s="468" t="s">
         <v>348</v>
       </c>
-      <c r="E29" s="444" t="s">
+      <c r="E29" s="433" t="s">
         <v>583</v>
       </c>
-      <c r="F29" s="445"/>
+      <c r="F29" s="434"/>
       <c r="G29" s="74"/>
       <c r="H29" s="74"/>
       <c r="I29" s="74"/>
@@ -15623,13 +15960,13 @@
     </row>
     <row r="30" spans="1:75">
       <c r="A30" s="465"/>
-      <c r="B30" s="466"/>
+      <c r="B30" s="473"/>
       <c r="C30" s="465"/>
-      <c r="D30" s="467"/>
-      <c r="E30" s="444" t="s">
+      <c r="D30" s="468"/>
+      <c r="E30" s="433" t="s">
         <v>399</v>
       </c>
-      <c r="F30" s="445"/>
+      <c r="F30" s="434"/>
       <c r="G30" s="74"/>
       <c r="H30" s="74"/>
       <c r="I30" s="74"/>
@@ -15679,19 +16016,19 @@
       <c r="A31" s="465" t="s">
         <v>349</v>
       </c>
-      <c r="B31" s="466" t="s">
+      <c r="B31" s="473" t="s">
         <v>350</v>
       </c>
       <c r="C31" s="465" t="s">
         <v>351</v>
       </c>
-      <c r="D31" s="467" t="s">
+      <c r="D31" s="468" t="s">
         <v>352</v>
       </c>
-      <c r="E31" s="444" t="s">
+      <c r="E31" s="433" t="s">
         <v>584</v>
       </c>
-      <c r="F31" s="445"/>
+      <c r="F31" s="434"/>
       <c r="G31" s="74"/>
       <c r="H31" s="74"/>
       <c r="I31" s="74"/>
@@ -15739,13 +16076,13 @@
     </row>
     <row r="32" spans="1:75">
       <c r="A32" s="465"/>
-      <c r="B32" s="466"/>
+      <c r="B32" s="473"/>
       <c r="C32" s="465"/>
-      <c r="D32" s="467"/>
-      <c r="E32" s="444" t="s">
+      <c r="D32" s="468"/>
+      <c r="E32" s="433" t="s">
         <v>400</v>
       </c>
-      <c r="F32" s="445"/>
+      <c r="F32" s="434"/>
       <c r="G32" s="74"/>
       <c r="H32" s="74"/>
       <c r="I32" s="74"/>
@@ -15795,19 +16132,19 @@
       <c r="A33" s="465" t="s">
         <v>353</v>
       </c>
-      <c r="B33" s="466" t="s">
+      <c r="B33" s="473" t="s">
         <v>354</v>
       </c>
       <c r="C33" s="465" t="s">
         <v>355</v>
       </c>
-      <c r="D33" s="467" t="s">
+      <c r="D33" s="468" t="s">
         <v>356</v>
       </c>
-      <c r="E33" s="444" t="s">
+      <c r="E33" s="433" t="s">
         <v>585</v>
       </c>
-      <c r="F33" s="445"/>
+      <c r="F33" s="434"/>
       <c r="G33" s="74"/>
       <c r="H33" s="74"/>
       <c r="I33" s="74"/>
@@ -15855,13 +16192,13 @@
     </row>
     <row r="34" spans="1:75">
       <c r="A34" s="465"/>
-      <c r="B34" s="466"/>
+      <c r="B34" s="473"/>
       <c r="C34" s="465"/>
-      <c r="D34" s="467"/>
-      <c r="E34" s="444" t="s">
+      <c r="D34" s="468"/>
+      <c r="E34" s="433" t="s">
         <v>401</v>
       </c>
-      <c r="F34" s="445"/>
+      <c r="F34" s="434"/>
       <c r="G34" s="74"/>
       <c r="H34" s="74"/>
       <c r="I34" s="74"/>
@@ -15911,19 +16248,19 @@
       <c r="A35" s="465" t="s">
         <v>357</v>
       </c>
-      <c r="B35" s="466" t="s">
+      <c r="B35" s="473" t="s">
         <v>358</v>
       </c>
       <c r="C35" s="465" t="s">
         <v>359</v>
       </c>
-      <c r="D35" s="467" t="s">
+      <c r="D35" s="468" t="s">
         <v>360</v>
       </c>
-      <c r="E35" s="444" t="s">
+      <c r="E35" s="433" t="s">
         <v>586</v>
       </c>
-      <c r="F35" s="445"/>
+      <c r="F35" s="434"/>
       <c r="G35" s="74"/>
       <c r="H35" s="74"/>
       <c r="I35" s="74"/>
@@ -15971,13 +16308,13 @@
     </row>
     <row r="36" spans="1:75">
       <c r="A36" s="465"/>
-      <c r="B36" s="466"/>
+      <c r="B36" s="473"/>
       <c r="C36" s="465"/>
-      <c r="D36" s="467"/>
-      <c r="E36" s="444" t="s">
+      <c r="D36" s="468"/>
+      <c r="E36" s="433" t="s">
         <v>402</v>
       </c>
-      <c r="F36" s="445"/>
+      <c r="F36" s="434"/>
       <c r="G36" s="74"/>
       <c r="H36" s="74"/>
       <c r="I36" s="74"/>
@@ -16027,19 +16364,19 @@
       <c r="A37" s="465" t="s">
         <v>361</v>
       </c>
-      <c r="B37" s="466" t="s">
+      <c r="B37" s="473" t="s">
         <v>362</v>
       </c>
       <c r="C37" s="465" t="s">
         <v>363</v>
       </c>
-      <c r="D37" s="467" t="s">
+      <c r="D37" s="468" t="s">
         <v>364</v>
       </c>
-      <c r="E37" s="444" t="s">
+      <c r="E37" s="433" t="s">
         <v>587</v>
       </c>
-      <c r="F37" s="445"/>
+      <c r="F37" s="434"/>
       <c r="G37" s="74"/>
       <c r="H37" s="74"/>
       <c r="I37" s="74"/>
@@ -16087,13 +16424,13 @@
     </row>
     <row r="38" spans="1:75">
       <c r="A38" s="465"/>
-      <c r="B38" s="466"/>
+      <c r="B38" s="473"/>
       <c r="C38" s="465"/>
-      <c r="D38" s="467"/>
-      <c r="E38" s="444" t="s">
+      <c r="D38" s="468"/>
+      <c r="E38" s="433" t="s">
         <v>403</v>
       </c>
-      <c r="F38" s="445"/>
+      <c r="F38" s="434"/>
       <c r="G38" s="74"/>
       <c r="H38" s="74"/>
       <c r="I38" s="74"/>
@@ -16143,19 +16480,19 @@
       <c r="A39" s="465" t="s">
         <v>365</v>
       </c>
-      <c r="B39" s="466" t="s">
+      <c r="B39" s="473" t="s">
         <v>366</v>
       </c>
       <c r="C39" s="465" t="s">
         <v>367</v>
       </c>
-      <c r="D39" s="467" t="s">
+      <c r="D39" s="468" t="s">
         <v>368</v>
       </c>
-      <c r="E39" s="444" t="s">
+      <c r="E39" s="433" t="s">
         <v>588</v>
       </c>
-      <c r="F39" s="445"/>
+      <c r="F39" s="434"/>
       <c r="G39" s="74"/>
       <c r="H39" s="74"/>
       <c r="I39" s="74"/>
@@ -16203,13 +16540,13 @@
     </row>
     <row r="40" spans="1:75">
       <c r="A40" s="465"/>
-      <c r="B40" s="466"/>
+      <c r="B40" s="473"/>
       <c r="C40" s="465"/>
-      <c r="D40" s="467"/>
-      <c r="E40" s="444" t="s">
+      <c r="D40" s="468"/>
+      <c r="E40" s="433" t="s">
         <v>404</v>
       </c>
-      <c r="F40" s="445"/>
+      <c r="F40" s="434"/>
       <c r="G40" s="74"/>
       <c r="H40" s="74"/>
       <c r="I40" s="74"/>
@@ -16279,19 +16616,19 @@
       <c r="BV40" s="134"/>
       <c r="BW40" s="134"/>
     </row>
-    <row r="41" spans="1:75" ht="22.2" customHeight="1">
-      <c r="A41" s="436" t="s">
+    <row r="41" spans="1:75" ht="22.15" customHeight="1">
+      <c r="A41" s="481" t="s">
         <v>568</v>
       </c>
-      <c r="B41" s="437"/>
-      <c r="C41" s="437"/>
-      <c r="D41" s="437"/>
-      <c r="E41" s="438"/>
-      <c r="F41" s="439"/>
-      <c r="G41" s="440" t="s">
+      <c r="B41" s="482"/>
+      <c r="C41" s="482"/>
+      <c r="D41" s="482"/>
+      <c r="E41" s="483"/>
+      <c r="F41" s="484"/>
+      <c r="G41" s="479" t="s">
         <v>513</v>
       </c>
-      <c r="H41" s="441"/>
+      <c r="H41" s="480"/>
       <c r="I41" s="74"/>
       <c r="J41" s="74"/>
       <c r="K41" s="74"/>
@@ -16359,18 +16696,18 @@
       <c r="BW41" s="105"/>
     </row>
     <row r="42" spans="1:75" ht="21.6" customHeight="1">
-      <c r="A42" s="436" t="s">
+      <c r="A42" s="481" t="s">
         <v>567</v>
       </c>
-      <c r="B42" s="437"/>
-      <c r="C42" s="437"/>
-      <c r="D42" s="437"/>
-      <c r="E42" s="438"/>
-      <c r="F42" s="439"/>
-      <c r="G42" s="440" t="s">
+      <c r="B42" s="482"/>
+      <c r="C42" s="482"/>
+      <c r="D42" s="482"/>
+      <c r="E42" s="483"/>
+      <c r="F42" s="484"/>
+      <c r="G42" s="479" t="s">
         <v>561</v>
       </c>
-      <c r="H42" s="441"/>
+      <c r="H42" s="480"/>
       <c r="I42" s="74"/>
       <c r="J42" s="74"/>
       <c r="K42" s="74"/>
@@ -16437,19 +16774,19 @@
       <c r="BV42" s="105"/>
       <c r="BW42" s="105"/>
     </row>
-    <row r="43" spans="1:75" ht="37.799999999999997" customHeight="1">
-      <c r="A43" s="452" t="s">
+    <row r="43" spans="1:75" ht="37.9" customHeight="1">
+      <c r="A43" s="506" t="s">
         <v>569</v>
       </c>
-      <c r="B43" s="453"/>
-      <c r="C43" s="453"/>
-      <c r="D43" s="453"/>
-      <c r="E43" s="453"/>
-      <c r="F43" s="454"/>
-      <c r="G43" s="442" t="s">
+      <c r="B43" s="507"/>
+      <c r="C43" s="507"/>
+      <c r="D43" s="507"/>
+      <c r="E43" s="507"/>
+      <c r="F43" s="508"/>
+      <c r="G43" s="502" t="s">
         <v>527</v>
       </c>
-      <c r="H43" s="443"/>
+      <c r="H43" s="503"/>
       <c r="I43" s="74"/>
       <c r="J43" s="74"/>
       <c r="K43" s="74"/>
@@ -16517,18 +16854,18 @@
       <c r="BW43" s="105"/>
     </row>
     <row r="44" spans="1:75">
-      <c r="A44" s="446" t="s">
+      <c r="A44" s="440" t="s">
         <v>507</v>
       </c>
-      <c r="B44" s="447"/>
-      <c r="C44" s="432" t="s">
+      <c r="B44" s="441"/>
+      <c r="C44" s="444" t="s">
         <v>508</v>
       </c>
-      <c r="D44" s="433"/>
-      <c r="E44" s="444" t="s">
+      <c r="D44" s="445"/>
+      <c r="E44" s="433" t="s">
         <v>562</v>
       </c>
-      <c r="F44" s="445"/>
+      <c r="F44" s="434"/>
       <c r="G44" s="187"/>
       <c r="H44" s="187"/>
       <c r="I44" s="74"/>
@@ -16598,12 +16935,12 @@
       <c r="BW44" s="105"/>
     </row>
     <row r="45" spans="1:75" ht="15.6" hidden="1" customHeight="1">
-      <c r="A45" s="448"/>
-      <c r="B45" s="449"/>
-      <c r="C45" s="432"/>
-      <c r="D45" s="433"/>
-      <c r="E45" s="444"/>
-      <c r="F45" s="445"/>
+      <c r="A45" s="442"/>
+      <c r="B45" s="443"/>
+      <c r="C45" s="444"/>
+      <c r="D45" s="445"/>
+      <c r="E45" s="433"/>
+      <c r="F45" s="434"/>
       <c r="G45" s="187"/>
       <c r="H45" s="187"/>
       <c r="I45" s="74"/>
@@ -16673,16 +17010,16 @@
       <c r="BW45" s="105"/>
     </row>
     <row r="46" spans="1:75">
-      <c r="A46" s="448"/>
-      <c r="B46" s="449"/>
-      <c r="C46" s="432" t="s">
+      <c r="A46" s="442"/>
+      <c r="B46" s="443"/>
+      <c r="C46" s="444" t="s">
         <v>509</v>
       </c>
-      <c r="D46" s="433"/>
-      <c r="E46" s="444" t="s">
+      <c r="D46" s="445"/>
+      <c r="E46" s="433" t="s">
         <v>563</v>
       </c>
-      <c r="F46" s="445"/>
+      <c r="F46" s="434"/>
       <c r="G46" s="187"/>
       <c r="H46" s="187"/>
       <c r="I46" s="74"/>
@@ -16752,12 +17089,12 @@
       <c r="BW46" s="105"/>
     </row>
     <row r="47" spans="1:75" ht="15.6" hidden="1" customHeight="1">
-      <c r="A47" s="448"/>
-      <c r="B47" s="449"/>
-      <c r="C47" s="432"/>
-      <c r="D47" s="433"/>
-      <c r="E47" s="444"/>
-      <c r="F47" s="445"/>
+      <c r="A47" s="442"/>
+      <c r="B47" s="443"/>
+      <c r="C47" s="444"/>
+      <c r="D47" s="445"/>
+      <c r="E47" s="433"/>
+      <c r="F47" s="434"/>
       <c r="G47" s="187"/>
       <c r="H47" s="187"/>
       <c r="I47" s="74"/>
@@ -16827,16 +17164,16 @@
       <c r="BW47" s="105"/>
     </row>
     <row r="48" spans="1:75">
-      <c r="A48" s="448"/>
-      <c r="B48" s="449"/>
-      <c r="C48" s="432" t="s">
+      <c r="A48" s="442"/>
+      <c r="B48" s="443"/>
+      <c r="C48" s="444" t="s">
         <v>510</v>
       </c>
-      <c r="D48" s="433"/>
-      <c r="E48" s="444" t="s">
+      <c r="D48" s="445"/>
+      <c r="E48" s="433" t="s">
         <v>564</v>
       </c>
-      <c r="F48" s="445"/>
+      <c r="F48" s="434"/>
       <c r="G48" s="187"/>
       <c r="H48" s="187"/>
       <c r="I48" s="74"/>
@@ -16906,12 +17243,12 @@
       <c r="BW48" s="105"/>
     </row>
     <row r="49" spans="1:75" ht="15.6" hidden="1" customHeight="1">
-      <c r="A49" s="448"/>
-      <c r="B49" s="449"/>
-      <c r="C49" s="432"/>
-      <c r="D49" s="433"/>
-      <c r="E49" s="444"/>
-      <c r="F49" s="445"/>
+      <c r="A49" s="442"/>
+      <c r="B49" s="443"/>
+      <c r="C49" s="444"/>
+      <c r="D49" s="445"/>
+      <c r="E49" s="433"/>
+      <c r="F49" s="434"/>
       <c r="G49" s="187"/>
       <c r="H49" s="187"/>
       <c r="I49" s="74"/>
@@ -16981,16 +17318,16 @@
       <c r="BW49" s="105"/>
     </row>
     <row r="50" spans="1:75">
-      <c r="A50" s="448"/>
-      <c r="B50" s="449"/>
-      <c r="C50" s="432" t="s">
+      <c r="A50" s="442"/>
+      <c r="B50" s="443"/>
+      <c r="C50" s="444" t="s">
         <v>511</v>
       </c>
-      <c r="D50" s="433"/>
-      <c r="E50" s="444" t="s">
+      <c r="D50" s="445"/>
+      <c r="E50" s="433" t="s">
         <v>565</v>
       </c>
-      <c r="F50" s="445"/>
+      <c r="F50" s="434"/>
       <c r="G50" s="187"/>
       <c r="H50" s="187"/>
       <c r="I50" s="74"/>
@@ -17060,12 +17397,12 @@
       <c r="BW50" s="105"/>
     </row>
     <row r="51" spans="1:75" ht="15.6" hidden="1" customHeight="1">
-      <c r="A51" s="448"/>
-      <c r="B51" s="449"/>
-      <c r="C51" s="432"/>
-      <c r="D51" s="433"/>
-      <c r="E51" s="444"/>
-      <c r="F51" s="445"/>
+      <c r="A51" s="442"/>
+      <c r="B51" s="443"/>
+      <c r="C51" s="444"/>
+      <c r="D51" s="445"/>
+      <c r="E51" s="433"/>
+      <c r="F51" s="434"/>
       <c r="G51" s="187"/>
       <c r="H51" s="187"/>
       <c r="I51" s="74"/>
@@ -17135,16 +17472,16 @@
       <c r="BW51" s="105"/>
     </row>
     <row r="52" spans="1:75">
-      <c r="A52" s="448"/>
-      <c r="B52" s="449"/>
-      <c r="C52" s="432" t="s">
+      <c r="A52" s="442"/>
+      <c r="B52" s="443"/>
+      <c r="C52" s="444" t="s">
         <v>512</v>
       </c>
-      <c r="D52" s="433"/>
-      <c r="E52" s="444" t="s">
+      <c r="D52" s="445"/>
+      <c r="E52" s="433" t="s">
         <v>566</v>
       </c>
-      <c r="F52" s="445"/>
+      <c r="F52" s="434"/>
       <c r="G52" s="187"/>
       <c r="H52" s="187"/>
       <c r="I52" s="74"/>
@@ -17214,12 +17551,12 @@
       <c r="BW52" s="105"/>
     </row>
     <row r="53" spans="1:75" ht="15.6" hidden="1" customHeight="1">
-      <c r="A53" s="450"/>
-      <c r="B53" s="451"/>
-      <c r="C53" s="434"/>
-      <c r="D53" s="435"/>
-      <c r="E53" s="444"/>
-      <c r="F53" s="445"/>
+      <c r="A53" s="504"/>
+      <c r="B53" s="505"/>
+      <c r="C53" s="500"/>
+      <c r="D53" s="501"/>
+      <c r="E53" s="433"/>
+      <c r="F53" s="434"/>
       <c r="G53" s="187"/>
       <c r="H53" s="187"/>
       <c r="I53" s="74"/>
@@ -17289,18 +17626,18 @@
       <c r="BW53" s="105"/>
     </row>
     <row r="54" spans="1:75" s="136" customFormat="1" ht="15" customHeight="1">
-      <c r="A54" s="498" t="s">
+      <c r="A54" s="446" t="s">
         <v>300</v>
       </c>
-      <c r="B54" s="499"/>
-      <c r="C54" s="502" t="s">
+      <c r="B54" s="447"/>
+      <c r="C54" s="429" t="s">
         <v>369</v>
       </c>
-      <c r="D54" s="503"/>
-      <c r="E54" s="444" t="s">
+      <c r="D54" s="430"/>
+      <c r="E54" s="433" t="s">
         <v>438</v>
       </c>
-      <c r="F54" s="445"/>
+      <c r="F54" s="434"/>
       <c r="G54" s="74"/>
       <c r="H54" s="74"/>
       <c r="I54" s="74"/>
@@ -17370,14 +17707,14 @@
       <c r="BW54" s="137"/>
     </row>
     <row r="55" spans="1:75" s="136" customFormat="1" ht="15.6" customHeight="1">
-      <c r="A55" s="500"/>
-      <c r="B55" s="501"/>
-      <c r="C55" s="504"/>
-      <c r="D55" s="505"/>
-      <c r="E55" s="444" t="s">
+      <c r="A55" s="448"/>
+      <c r="B55" s="449"/>
+      <c r="C55" s="431"/>
+      <c r="D55" s="432"/>
+      <c r="E55" s="433" t="s">
         <v>405</v>
       </c>
-      <c r="F55" s="445"/>
+      <c r="F55" s="434"/>
       <c r="G55" s="74"/>
       <c r="H55" s="74"/>
       <c r="I55" s="74"/>
@@ -17447,16 +17784,16 @@
       <c r="BW55" s="137"/>
     </row>
     <row r="56" spans="1:75" s="136" customFormat="1" ht="15.6" customHeight="1">
-      <c r="A56" s="500"/>
-      <c r="B56" s="501"/>
-      <c r="C56" s="502" t="s">
+      <c r="A56" s="448"/>
+      <c r="B56" s="449"/>
+      <c r="C56" s="429" t="s">
         <v>370</v>
       </c>
-      <c r="D56" s="503"/>
-      <c r="E56" s="444" t="s">
+      <c r="D56" s="430"/>
+      <c r="E56" s="433" t="s">
         <v>439</v>
       </c>
-      <c r="F56" s="445"/>
+      <c r="F56" s="434"/>
       <c r="G56" s="74"/>
       <c r="H56" s="74"/>
       <c r="I56" s="74"/>
@@ -17526,14 +17863,14 @@
       <c r="BW56" s="137"/>
     </row>
     <row r="57" spans="1:75" s="136" customFormat="1" ht="15.6" customHeight="1">
-      <c r="A57" s="500"/>
-      <c r="B57" s="501"/>
-      <c r="C57" s="504"/>
-      <c r="D57" s="505"/>
-      <c r="E57" s="444" t="s">
+      <c r="A57" s="448"/>
+      <c r="B57" s="449"/>
+      <c r="C57" s="431"/>
+      <c r="D57" s="432"/>
+      <c r="E57" s="433" t="s">
         <v>406</v>
       </c>
-      <c r="F57" s="445"/>
+      <c r="F57" s="434"/>
       <c r="G57" s="74"/>
       <c r="H57" s="74"/>
       <c r="I57" s="74"/>
@@ -17603,16 +17940,16 @@
       <c r="BW57" s="137"/>
     </row>
     <row r="58" spans="1:75" s="136" customFormat="1" ht="15.6" customHeight="1">
-      <c r="A58" s="500"/>
-      <c r="B58" s="501"/>
-      <c r="C58" s="502" t="s">
+      <c r="A58" s="448"/>
+      <c r="B58" s="449"/>
+      <c r="C58" s="429" t="s">
         <v>371</v>
       </c>
-      <c r="D58" s="503"/>
-      <c r="E58" s="444" t="s">
+      <c r="D58" s="430"/>
+      <c r="E58" s="433" t="s">
         <v>440</v>
       </c>
-      <c r="F58" s="445"/>
+      <c r="F58" s="434"/>
       <c r="G58" s="74"/>
       <c r="H58" s="74"/>
       <c r="I58" s="74"/>
@@ -17637,10 +17974,10 @@
       <c r="AD58" s="74"/>
       <c r="AE58" s="74"/>
       <c r="AF58" s="74"/>
-      <c r="AG58" s="484"/>
-      <c r="AH58" s="484"/>
-      <c r="AI58" s="484"/>
-      <c r="AJ58" s="484"/>
+      <c r="AG58" s="453"/>
+      <c r="AH58" s="453"/>
+      <c r="AI58" s="453"/>
+      <c r="AJ58" s="453"/>
       <c r="AK58" s="137"/>
       <c r="AL58" s="137"/>
       <c r="AM58" s="137"/>
@@ -17682,14 +18019,14 @@
       <c r="BW58" s="137"/>
     </row>
     <row r="59" spans="1:75" s="136" customFormat="1" ht="15.6" customHeight="1">
-      <c r="A59" s="500"/>
-      <c r="B59" s="501"/>
-      <c r="C59" s="504"/>
-      <c r="D59" s="505"/>
-      <c r="E59" s="444" t="s">
+      <c r="A59" s="448"/>
+      <c r="B59" s="449"/>
+      <c r="C59" s="431"/>
+      <c r="D59" s="432"/>
+      <c r="E59" s="433" t="s">
         <v>407</v>
       </c>
-      <c r="F59" s="445"/>
+      <c r="F59" s="434"/>
       <c r="G59" s="74"/>
       <c r="H59" s="74"/>
       <c r="I59" s="74"/>
@@ -17759,16 +18096,16 @@
       <c r="BW59" s="137"/>
     </row>
     <row r="60" spans="1:75" s="136" customFormat="1" ht="15.6" customHeight="1">
-      <c r="A60" s="500"/>
-      <c r="B60" s="501"/>
-      <c r="C60" s="502" t="s">
+      <c r="A60" s="448"/>
+      <c r="B60" s="449"/>
+      <c r="C60" s="429" t="s">
         <v>372</v>
       </c>
-      <c r="D60" s="503"/>
-      <c r="E60" s="444" t="s">
+      <c r="D60" s="430"/>
+      <c r="E60" s="433" t="s">
         <v>441</v>
       </c>
-      <c r="F60" s="445"/>
+      <c r="F60" s="434"/>
       <c r="G60" s="74"/>
       <c r="H60" s="74"/>
       <c r="I60" s="74"/>
@@ -17793,10 +18130,10 @@
       <c r="AD60" s="74"/>
       <c r="AE60" s="74"/>
       <c r="AF60" s="74"/>
-      <c r="AG60" s="484"/>
-      <c r="AH60" s="484"/>
-      <c r="AI60" s="484"/>
-      <c r="AJ60" s="484"/>
+      <c r="AG60" s="453"/>
+      <c r="AH60" s="453"/>
+      <c r="AI60" s="453"/>
+      <c r="AJ60" s="453"/>
       <c r="AK60" s="137"/>
       <c r="AL60" s="137"/>
       <c r="AM60" s="137"/>
@@ -17838,14 +18175,14 @@
       <c r="BW60" s="137"/>
     </row>
     <row r="61" spans="1:75" s="136" customFormat="1" ht="15.6" customHeight="1">
-      <c r="A61" s="500"/>
-      <c r="B61" s="501"/>
-      <c r="C61" s="504"/>
-      <c r="D61" s="505"/>
-      <c r="E61" s="444" t="s">
+      <c r="A61" s="448"/>
+      <c r="B61" s="449"/>
+      <c r="C61" s="431"/>
+      <c r="D61" s="432"/>
+      <c r="E61" s="433" t="s">
         <v>408</v>
       </c>
-      <c r="F61" s="445"/>
+      <c r="F61" s="434"/>
       <c r="G61" s="74"/>
       <c r="H61" s="74"/>
       <c r="I61" s="74"/>
@@ -17915,16 +18252,16 @@
       <c r="BW61" s="137"/>
     </row>
     <row r="62" spans="1:75" s="136" customFormat="1" ht="15.6" customHeight="1">
-      <c r="A62" s="500"/>
-      <c r="B62" s="501"/>
-      <c r="C62" s="502" t="s">
+      <c r="A62" s="448"/>
+      <c r="B62" s="449"/>
+      <c r="C62" s="429" t="s">
         <v>373</v>
       </c>
-      <c r="D62" s="503"/>
-      <c r="E62" s="444" t="s">
+      <c r="D62" s="430"/>
+      <c r="E62" s="433" t="s">
         <v>442</v>
       </c>
-      <c r="F62" s="445"/>
+      <c r="F62" s="434"/>
       <c r="G62" s="74"/>
       <c r="H62" s="74"/>
       <c r="I62" s="74"/>
@@ -17949,10 +18286,10 @@
       <c r="AD62" s="74"/>
       <c r="AE62" s="74"/>
       <c r="AF62" s="74"/>
-      <c r="AG62" s="484"/>
-      <c r="AH62" s="484"/>
-      <c r="AI62" s="484"/>
-      <c r="AJ62" s="484"/>
+      <c r="AG62" s="453"/>
+      <c r="AH62" s="453"/>
+      <c r="AI62" s="453"/>
+      <c r="AJ62" s="453"/>
       <c r="AK62" s="137"/>
       <c r="AL62" s="137"/>
       <c r="AM62" s="137"/>
@@ -17994,14 +18331,14 @@
       <c r="BW62" s="137"/>
     </row>
     <row r="63" spans="1:75" s="136" customFormat="1" ht="15.6" customHeight="1">
-      <c r="A63" s="500"/>
-      <c r="B63" s="501"/>
-      <c r="C63" s="504"/>
-      <c r="D63" s="505"/>
-      <c r="E63" s="444" t="s">
+      <c r="A63" s="448"/>
+      <c r="B63" s="449"/>
+      <c r="C63" s="431"/>
+      <c r="D63" s="432"/>
+      <c r="E63" s="433" t="s">
         <v>409</v>
       </c>
-      <c r="F63" s="445"/>
+      <c r="F63" s="434"/>
       <c r="G63" s="74"/>
       <c r="H63" s="74"/>
       <c r="I63" s="74"/>
@@ -18071,16 +18408,16 @@
       <c r="BW63" s="137"/>
     </row>
     <row r="64" spans="1:75" s="136" customFormat="1" ht="15.6" customHeight="1">
-      <c r="A64" s="500"/>
-      <c r="B64" s="501"/>
-      <c r="C64" s="502" t="s">
+      <c r="A64" s="448"/>
+      <c r="B64" s="449"/>
+      <c r="C64" s="429" t="s">
         <v>374</v>
       </c>
-      <c r="D64" s="503"/>
-      <c r="E64" s="444" t="s">
+      <c r="D64" s="430"/>
+      <c r="E64" s="433" t="s">
         <v>443</v>
       </c>
-      <c r="F64" s="445"/>
+      <c r="F64" s="434"/>
       <c r="G64" s="74"/>
       <c r="H64" s="74"/>
       <c r="I64" s="74"/>
@@ -18105,10 +18442,10 @@
       <c r="AD64" s="74"/>
       <c r="AE64" s="74"/>
       <c r="AF64" s="74"/>
-      <c r="AG64" s="484"/>
-      <c r="AH64" s="484"/>
-      <c r="AI64" s="484"/>
-      <c r="AJ64" s="484"/>
+      <c r="AG64" s="453"/>
+      <c r="AH64" s="453"/>
+      <c r="AI64" s="453"/>
+      <c r="AJ64" s="453"/>
       <c r="AK64" s="137"/>
       <c r="AL64" s="137"/>
       <c r="AM64" s="137"/>
@@ -18150,14 +18487,14 @@
       <c r="BW64" s="137"/>
     </row>
     <row r="65" spans="1:75" s="136" customFormat="1" ht="15.6" customHeight="1">
-      <c r="A65" s="500"/>
-      <c r="B65" s="501"/>
-      <c r="C65" s="504"/>
-      <c r="D65" s="505"/>
-      <c r="E65" s="444" t="s">
+      <c r="A65" s="448"/>
+      <c r="B65" s="449"/>
+      <c r="C65" s="431"/>
+      <c r="D65" s="432"/>
+      <c r="E65" s="433" t="s">
         <v>410</v>
       </c>
-      <c r="F65" s="445"/>
+      <c r="F65" s="434"/>
       <c r="G65" s="74"/>
       <c r="H65" s="74"/>
       <c r="I65" s="74"/>
@@ -18227,16 +18564,16 @@
       <c r="BW65" s="137"/>
     </row>
     <row r="66" spans="1:75" s="136" customFormat="1" ht="15.6" customHeight="1">
-      <c r="A66" s="500"/>
-      <c r="B66" s="501"/>
-      <c r="C66" s="502" t="s">
+      <c r="A66" s="448"/>
+      <c r="B66" s="449"/>
+      <c r="C66" s="429" t="s">
         <v>375</v>
       </c>
-      <c r="D66" s="503"/>
-      <c r="E66" s="444" t="s">
+      <c r="D66" s="430"/>
+      <c r="E66" s="433" t="s">
         <v>444</v>
       </c>
-      <c r="F66" s="445"/>
+      <c r="F66" s="434"/>
       <c r="G66" s="74"/>
       <c r="H66" s="74"/>
       <c r="I66" s="74"/>
@@ -18261,10 +18598,10 @@
       <c r="AD66" s="74"/>
       <c r="AE66" s="74"/>
       <c r="AF66" s="74"/>
-      <c r="AG66" s="484"/>
-      <c r="AH66" s="484"/>
-      <c r="AI66" s="484"/>
-      <c r="AJ66" s="484"/>
+      <c r="AG66" s="453"/>
+      <c r="AH66" s="453"/>
+      <c r="AI66" s="453"/>
+      <c r="AJ66" s="453"/>
       <c r="AK66" s="137"/>
       <c r="AL66" s="137"/>
       <c r="AM66" s="137"/>
@@ -18306,14 +18643,14 @@
       <c r="BW66" s="137"/>
     </row>
     <row r="67" spans="1:75" s="136" customFormat="1" ht="15.6" customHeight="1">
-      <c r="A67" s="500"/>
-      <c r="B67" s="501"/>
-      <c r="C67" s="504"/>
-      <c r="D67" s="505"/>
-      <c r="E67" s="444" t="s">
+      <c r="A67" s="448"/>
+      <c r="B67" s="449"/>
+      <c r="C67" s="431"/>
+      <c r="D67" s="432"/>
+      <c r="E67" s="433" t="s">
         <v>411</v>
       </c>
-      <c r="F67" s="445"/>
+      <c r="F67" s="434"/>
       <c r="G67" s="74"/>
       <c r="H67" s="74"/>
       <c r="I67" s="74"/>
@@ -18383,16 +18720,16 @@
       <c r="BW67" s="137"/>
     </row>
     <row r="68" spans="1:75" s="136" customFormat="1" ht="15.6" customHeight="1">
-      <c r="A68" s="500"/>
-      <c r="B68" s="501"/>
-      <c r="C68" s="502" t="s">
+      <c r="A68" s="448"/>
+      <c r="B68" s="449"/>
+      <c r="C68" s="429" t="s">
         <v>376</v>
       </c>
-      <c r="D68" s="503"/>
-      <c r="E68" s="444" t="s">
+      <c r="D68" s="430"/>
+      <c r="E68" s="433" t="s">
         <v>445</v>
       </c>
-      <c r="F68" s="445"/>
+      <c r="F68" s="434"/>
       <c r="G68" s="74"/>
       <c r="H68" s="74"/>
       <c r="I68" s="74"/>
@@ -18417,10 +18754,10 @@
       <c r="AD68" s="74"/>
       <c r="AE68" s="74"/>
       <c r="AF68" s="74"/>
-      <c r="AG68" s="484"/>
-      <c r="AH68" s="484"/>
-      <c r="AI68" s="484"/>
-      <c r="AJ68" s="484"/>
+      <c r="AG68" s="453"/>
+      <c r="AH68" s="453"/>
+      <c r="AI68" s="453"/>
+      <c r="AJ68" s="453"/>
       <c r="AK68" s="137"/>
       <c r="AL68" s="137"/>
       <c r="AM68" s="137"/>
@@ -18462,14 +18799,14 @@
       <c r="BW68" s="137"/>
     </row>
     <row r="69" spans="1:75" s="136" customFormat="1" ht="15.6" customHeight="1">
-      <c r="A69" s="500"/>
-      <c r="B69" s="501"/>
-      <c r="C69" s="504"/>
-      <c r="D69" s="505"/>
-      <c r="E69" s="444" t="s">
+      <c r="A69" s="448"/>
+      <c r="B69" s="449"/>
+      <c r="C69" s="431"/>
+      <c r="D69" s="432"/>
+      <c r="E69" s="433" t="s">
         <v>412</v>
       </c>
-      <c r="F69" s="445"/>
+      <c r="F69" s="434"/>
       <c r="G69" s="74"/>
       <c r="H69" s="74"/>
       <c r="I69" s="74"/>
@@ -18539,16 +18876,16 @@
       <c r="BW69" s="137"/>
     </row>
     <row r="70" spans="1:75" s="136" customFormat="1" ht="15.6" customHeight="1">
-      <c r="A70" s="500"/>
-      <c r="B70" s="501"/>
-      <c r="C70" s="502" t="s">
+      <c r="A70" s="448"/>
+      <c r="B70" s="449"/>
+      <c r="C70" s="429" t="s">
         <v>377</v>
       </c>
-      <c r="D70" s="503"/>
-      <c r="E70" s="444" t="s">
+      <c r="D70" s="430"/>
+      <c r="E70" s="433" t="s">
         <v>446</v>
       </c>
-      <c r="F70" s="445"/>
+      <c r="F70" s="434"/>
       <c r="G70" s="74"/>
       <c r="H70" s="74"/>
       <c r="I70" s="74"/>
@@ -18573,10 +18910,10 @@
       <c r="AD70" s="74"/>
       <c r="AE70" s="74"/>
       <c r="AF70" s="74"/>
-      <c r="AG70" s="484"/>
-      <c r="AH70" s="484"/>
-      <c r="AI70" s="484"/>
-      <c r="AJ70" s="484"/>
+      <c r="AG70" s="453"/>
+      <c r="AH70" s="453"/>
+      <c r="AI70" s="453"/>
+      <c r="AJ70" s="453"/>
       <c r="AK70" s="137"/>
       <c r="AL70" s="139"/>
       <c r="AM70" s="137"/>
@@ -18618,14 +18955,14 @@
       <c r="BW70" s="137"/>
     </row>
     <row r="71" spans="1:75" s="136" customFormat="1" ht="15.6" customHeight="1">
-      <c r="A71" s="500"/>
-      <c r="B71" s="501"/>
-      <c r="C71" s="504"/>
-      <c r="D71" s="505"/>
-      <c r="E71" s="444" t="s">
+      <c r="A71" s="448"/>
+      <c r="B71" s="449"/>
+      <c r="C71" s="431"/>
+      <c r="D71" s="432"/>
+      <c r="E71" s="433" t="s">
         <v>413</v>
       </c>
-      <c r="F71" s="445"/>
+      <c r="F71" s="434"/>
       <c r="G71" s="74"/>
       <c r="H71" s="74"/>
       <c r="I71" s="74"/>
@@ -18695,16 +19032,16 @@
       <c r="BW71" s="137"/>
     </row>
     <row r="72" spans="1:75" s="136" customFormat="1" ht="15.6" customHeight="1">
-      <c r="A72" s="500"/>
-      <c r="B72" s="501"/>
-      <c r="C72" s="502" t="s">
+      <c r="A72" s="448"/>
+      <c r="B72" s="449"/>
+      <c r="C72" s="429" t="s">
         <v>378</v>
       </c>
-      <c r="D72" s="503"/>
-      <c r="E72" s="444" t="s">
+      <c r="D72" s="430"/>
+      <c r="E72" s="433" t="s">
         <v>447</v>
       </c>
-      <c r="F72" s="445"/>
+      <c r="F72" s="434"/>
       <c r="G72" s="74"/>
       <c r="H72" s="74"/>
       <c r="I72" s="74"/>
@@ -18729,10 +19066,10 @@
       <c r="AD72" s="74"/>
       <c r="AE72" s="74"/>
       <c r="AF72" s="74"/>
-      <c r="AG72" s="484"/>
-      <c r="AH72" s="484"/>
-      <c r="AI72" s="484"/>
-      <c r="AJ72" s="484"/>
+      <c r="AG72" s="453"/>
+      <c r="AH72" s="453"/>
+      <c r="AI72" s="453"/>
+      <c r="AJ72" s="453"/>
       <c r="AK72" s="137"/>
       <c r="AL72" s="138"/>
       <c r="AM72" s="137"/>
@@ -18774,14 +19111,14 @@
       <c r="BW72" s="137"/>
     </row>
     <row r="73" spans="1:75" s="136" customFormat="1" ht="15.6" customHeight="1">
-      <c r="A73" s="500"/>
-      <c r="B73" s="501"/>
-      <c r="C73" s="504"/>
-      <c r="D73" s="505"/>
-      <c r="E73" s="444" t="s">
+      <c r="A73" s="448"/>
+      <c r="B73" s="449"/>
+      <c r="C73" s="431"/>
+      <c r="D73" s="432"/>
+      <c r="E73" s="433" t="s">
         <v>414</v>
       </c>
-      <c r="F73" s="445"/>
+      <c r="F73" s="434"/>
       <c r="G73" s="74"/>
       <c r="H73" s="74"/>
       <c r="I73" s="74"/>
@@ -18851,16 +19188,16 @@
       <c r="BW73" s="137"/>
     </row>
     <row r="74" spans="1:75" s="136" customFormat="1" ht="15.6" customHeight="1">
-      <c r="A74" s="500"/>
-      <c r="B74" s="501"/>
-      <c r="C74" s="502" t="s">
+      <c r="A74" s="448"/>
+      <c r="B74" s="449"/>
+      <c r="C74" s="429" t="s">
         <v>379</v>
       </c>
-      <c r="D74" s="503"/>
-      <c r="E74" s="444" t="s">
+      <c r="D74" s="430"/>
+      <c r="E74" s="433" t="s">
         <v>448</v>
       </c>
-      <c r="F74" s="445"/>
+      <c r="F74" s="434"/>
       <c r="G74" s="74"/>
       <c r="H74" s="74"/>
       <c r="I74" s="74"/>
@@ -18885,10 +19222,10 @@
       <c r="AD74" s="74"/>
       <c r="AE74" s="74"/>
       <c r="AF74" s="74"/>
-      <c r="AG74" s="484"/>
-      <c r="AH74" s="484"/>
-      <c r="AI74" s="484"/>
-      <c r="AJ74" s="484"/>
+      <c r="AG74" s="453"/>
+      <c r="AH74" s="453"/>
+      <c r="AI74" s="453"/>
+      <c r="AJ74" s="453"/>
       <c r="AK74" s="143"/>
       <c r="AL74" s="139"/>
       <c r="AM74" s="137"/>
@@ -18930,14 +19267,14 @@
       <c r="BW74" s="137"/>
     </row>
     <row r="75" spans="1:75" s="136" customFormat="1" ht="15.6" customHeight="1">
-      <c r="A75" s="500"/>
-      <c r="B75" s="501"/>
-      <c r="C75" s="504"/>
-      <c r="D75" s="505"/>
-      <c r="E75" s="444" t="s">
+      <c r="A75" s="448"/>
+      <c r="B75" s="449"/>
+      <c r="C75" s="431"/>
+      <c r="D75" s="432"/>
+      <c r="E75" s="433" t="s">
         <v>415</v>
       </c>
-      <c r="F75" s="445"/>
+      <c r="F75" s="434"/>
       <c r="G75" s="74"/>
       <c r="H75" s="74"/>
       <c r="I75" s="74"/>
@@ -19007,16 +19344,16 @@
       <c r="BW75" s="137"/>
     </row>
     <row r="76" spans="1:75" s="136" customFormat="1" ht="15.6" customHeight="1">
-      <c r="A76" s="500"/>
-      <c r="B76" s="501"/>
-      <c r="C76" s="502" t="s">
+      <c r="A76" s="448"/>
+      <c r="B76" s="449"/>
+      <c r="C76" s="429" t="s">
         <v>380</v>
       </c>
-      <c r="D76" s="503"/>
-      <c r="E76" s="444" t="s">
+      <c r="D76" s="430"/>
+      <c r="E76" s="433" t="s">
         <v>449</v>
       </c>
-      <c r="F76" s="445"/>
+      <c r="F76" s="434"/>
       <c r="G76" s="74"/>
       <c r="H76" s="74"/>
       <c r="I76" s="74"/>
@@ -19041,10 +19378,10 @@
       <c r="AD76" s="74"/>
       <c r="AE76" s="74"/>
       <c r="AF76" s="74"/>
-      <c r="AG76" s="484"/>
-      <c r="AH76" s="484"/>
-      <c r="AI76" s="484"/>
-      <c r="AJ76" s="484"/>
+      <c r="AG76" s="453"/>
+      <c r="AH76" s="453"/>
+      <c r="AI76" s="453"/>
+      <c r="AJ76" s="453"/>
       <c r="AK76" s="137"/>
       <c r="AL76" s="138"/>
       <c r="AM76" s="137"/>
@@ -19086,14 +19423,14 @@
       <c r="BW76" s="137"/>
     </row>
     <row r="77" spans="1:75" s="136" customFormat="1" ht="15.6" customHeight="1">
-      <c r="A77" s="500"/>
-      <c r="B77" s="501"/>
-      <c r="C77" s="504"/>
-      <c r="D77" s="505"/>
-      <c r="E77" s="444" t="s">
+      <c r="A77" s="448"/>
+      <c r="B77" s="449"/>
+      <c r="C77" s="431"/>
+      <c r="D77" s="432"/>
+      <c r="E77" s="433" t="s">
         <v>416</v>
       </c>
-      <c r="F77" s="445"/>
+      <c r="F77" s="434"/>
       <c r="G77" s="74"/>
       <c r="H77" s="74"/>
       <c r="I77" s="74"/>
@@ -19163,16 +19500,16 @@
       <c r="BW77" s="137"/>
     </row>
     <row r="78" spans="1:75" s="136" customFormat="1" ht="15.6" customHeight="1">
-      <c r="A78" s="500"/>
-      <c r="B78" s="501"/>
-      <c r="C78" s="502" t="s">
+      <c r="A78" s="448"/>
+      <c r="B78" s="449"/>
+      <c r="C78" s="429" t="s">
         <v>381</v>
       </c>
-      <c r="D78" s="503"/>
-      <c r="E78" s="444" t="s">
+      <c r="D78" s="430"/>
+      <c r="E78" s="433" t="s">
         <v>450</v>
       </c>
-      <c r="F78" s="445"/>
+      <c r="F78" s="434"/>
       <c r="G78" s="74"/>
       <c r="H78" s="74"/>
       <c r="I78" s="74"/>
@@ -19197,10 +19534,10 @@
       <c r="AD78" s="74"/>
       <c r="AE78" s="74"/>
       <c r="AF78" s="74"/>
-      <c r="AG78" s="484"/>
-      <c r="AH78" s="484"/>
-      <c r="AI78" s="484"/>
-      <c r="AJ78" s="484"/>
+      <c r="AG78" s="453"/>
+      <c r="AH78" s="453"/>
+      <c r="AI78" s="453"/>
+      <c r="AJ78" s="453"/>
       <c r="AK78" s="143"/>
       <c r="AL78" s="139"/>
       <c r="AM78" s="137"/>
@@ -19242,14 +19579,14 @@
       <c r="BW78" s="137"/>
     </row>
     <row r="79" spans="1:75" s="136" customFormat="1" ht="15.6" customHeight="1">
-      <c r="A79" s="500"/>
-      <c r="B79" s="501"/>
-      <c r="C79" s="504"/>
-      <c r="D79" s="505"/>
-      <c r="E79" s="444" t="s">
+      <c r="A79" s="448"/>
+      <c r="B79" s="449"/>
+      <c r="C79" s="431"/>
+      <c r="D79" s="432"/>
+      <c r="E79" s="433" t="s">
         <v>417</v>
       </c>
-      <c r="F79" s="445"/>
+      <c r="F79" s="434"/>
       <c r="G79" s="74"/>
       <c r="H79" s="74"/>
       <c r="I79" s="74"/>
@@ -19319,16 +19656,16 @@
       <c r="BW79" s="137"/>
     </row>
     <row r="80" spans="1:75" s="136" customFormat="1" ht="15.6" customHeight="1">
-      <c r="A80" s="500"/>
-      <c r="B80" s="501"/>
-      <c r="C80" s="502" t="s">
+      <c r="A80" s="448"/>
+      <c r="B80" s="449"/>
+      <c r="C80" s="429" t="s">
         <v>382</v>
       </c>
-      <c r="D80" s="503"/>
-      <c r="E80" s="444" t="s">
+      <c r="D80" s="430"/>
+      <c r="E80" s="433" t="s">
         <v>451</v>
       </c>
-      <c r="F80" s="445"/>
+      <c r="F80" s="434"/>
       <c r="G80" s="74"/>
       <c r="H80" s="74"/>
       <c r="I80" s="74"/>
@@ -19355,10 +19692,10 @@
       <c r="AD80" s="74"/>
       <c r="AE80" s="74"/>
       <c r="AF80" s="74"/>
-      <c r="AG80" s="484"/>
-      <c r="AH80" s="484"/>
-      <c r="AI80" s="484"/>
-      <c r="AJ80" s="484"/>
+      <c r="AG80" s="453"/>
+      <c r="AH80" s="453"/>
+      <c r="AI80" s="453"/>
+      <c r="AJ80" s="453"/>
       <c r="AK80" s="138"/>
       <c r="AL80" s="138"/>
       <c r="AM80" s="137"/>
@@ -19400,14 +19737,14 @@
       <c r="BW80" s="137"/>
     </row>
     <row r="81" spans="1:75" s="136" customFormat="1" ht="15.6" customHeight="1">
-      <c r="A81" s="500"/>
-      <c r="B81" s="501"/>
-      <c r="C81" s="504"/>
-      <c r="D81" s="505"/>
-      <c r="E81" s="444" t="s">
+      <c r="A81" s="448"/>
+      <c r="B81" s="449"/>
+      <c r="C81" s="431"/>
+      <c r="D81" s="432"/>
+      <c r="E81" s="433" t="s">
         <v>418</v>
       </c>
-      <c r="F81" s="445"/>
+      <c r="F81" s="434"/>
       <c r="G81" s="74"/>
       <c r="H81" s="74"/>
       <c r="I81" s="74"/>
@@ -19479,16 +19816,16 @@
       <c r="BW81" s="137"/>
     </row>
     <row r="82" spans="1:75" s="136" customFormat="1" ht="15.6" customHeight="1">
-      <c r="A82" s="500"/>
-      <c r="B82" s="501"/>
-      <c r="C82" s="502" t="s">
+      <c r="A82" s="448"/>
+      <c r="B82" s="449"/>
+      <c r="C82" s="429" t="s">
         <v>384</v>
       </c>
-      <c r="D82" s="503"/>
-      <c r="E82" s="444" t="s">
+      <c r="D82" s="430"/>
+      <c r="E82" s="433" t="s">
         <v>452</v>
       </c>
-      <c r="F82" s="445"/>
+      <c r="F82" s="434"/>
       <c r="G82" s="74"/>
       <c r="H82" s="74"/>
       <c r="I82" s="74"/>
@@ -19560,14 +19897,14 @@
       <c r="BW82" s="137"/>
     </row>
     <row r="83" spans="1:75" s="136" customFormat="1" ht="15.6" customHeight="1">
-      <c r="A83" s="500"/>
-      <c r="B83" s="501"/>
-      <c r="C83" s="504"/>
-      <c r="D83" s="505"/>
-      <c r="E83" s="444" t="s">
+      <c r="A83" s="448"/>
+      <c r="B83" s="449"/>
+      <c r="C83" s="431"/>
+      <c r="D83" s="432"/>
+      <c r="E83" s="433" t="s">
         <v>419</v>
       </c>
-      <c r="F83" s="445"/>
+      <c r="F83" s="434"/>
       <c r="G83" s="74"/>
       <c r="H83" s="74"/>
       <c r="I83" s="74"/>
@@ -19638,17 +19975,17 @@
       <c r="BV83" s="137"/>
       <c r="BW83" s="137"/>
     </row>
-    <row r="84" spans="1:75" s="136" customFormat="1" ht="18">
+    <row r="84" spans="1:75" s="136" customFormat="1" ht="18.75">
       <c r="A84" s="184"/>
       <c r="B84" s="185"/>
-      <c r="C84" s="432" t="s">
+      <c r="C84" s="444" t="s">
         <v>31</v>
       </c>
-      <c r="D84" s="433"/>
-      <c r="E84" s="496" t="s">
+      <c r="D84" s="445"/>
+      <c r="E84" s="435" t="s">
         <v>570</v>
       </c>
-      <c r="F84" s="497"/>
+      <c r="F84" s="436"/>
       <c r="G84" s="74"/>
       <c r="H84"/>
       <c r="I84"/>
@@ -19719,17 +20056,17 @@
       <c r="BV84" s="137"/>
       <c r="BW84" s="137"/>
     </row>
-    <row r="85" spans="1:75" s="136" customFormat="1" ht="18">
+    <row r="85" spans="1:75" s="136" customFormat="1" ht="18.75">
       <c r="A85" s="184"/>
       <c r="B85" s="185"/>
-      <c r="C85" s="432" t="s">
+      <c r="C85" s="444" t="s">
         <v>3</v>
       </c>
-      <c r="D85" s="433"/>
-      <c r="E85" s="496" t="s">
+      <c r="D85" s="445"/>
+      <c r="E85" s="435" t="s">
         <v>571</v>
       </c>
-      <c r="F85" s="497"/>
+      <c r="F85" s="436"/>
       <c r="G85" s="74"/>
       <c r="H85"/>
       <c r="I85"/>
@@ -19800,17 +20137,17 @@
       <c r="BV85" s="137"/>
       <c r="BW85" s="137"/>
     </row>
-    <row r="86" spans="1:75" s="136" customFormat="1" ht="18">
+    <row r="86" spans="1:75" s="136" customFormat="1" ht="18.75">
       <c r="A86" s="184"/>
       <c r="B86" s="185"/>
-      <c r="C86" s="432" t="s">
+      <c r="C86" s="444" t="s">
         <v>4</v>
       </c>
-      <c r="D86" s="433"/>
-      <c r="E86" s="496" t="s">
+      <c r="D86" s="445"/>
+      <c r="E86" s="435" t="s">
         <v>592</v>
       </c>
-      <c r="F86" s="497"/>
+      <c r="F86" s="436"/>
       <c r="G86" s="74"/>
       <c r="H86"/>
       <c r="I86"/>
@@ -19882,18 +20219,18 @@
       <c r="BW86" s="137"/>
     </row>
     <row r="87" spans="1:75" s="136" customFormat="1" ht="27" customHeight="1">
-      <c r="A87" s="446" t="s">
+      <c r="A87" s="440" t="s">
         <v>1</v>
       </c>
-      <c r="B87" s="447"/>
-      <c r="C87" s="509" t="s">
+      <c r="B87" s="441"/>
+      <c r="C87" s="438" t="s">
         <v>5</v>
       </c>
-      <c r="D87" s="510"/>
-      <c r="E87" s="444" t="s">
+      <c r="D87" s="439"/>
+      <c r="E87" s="433" t="s">
         <v>296</v>
       </c>
-      <c r="F87" s="445"/>
+      <c r="F87" s="434"/>
       <c r="G87" s="74"/>
       <c r="H87"/>
       <c r="I87"/>
@@ -19920,10 +20257,10 @@
       <c r="AD87" s="74"/>
       <c r="AE87" s="74"/>
       <c r="AF87" s="74"/>
-      <c r="AG87" s="507"/>
-      <c r="AH87" s="507"/>
-      <c r="AI87" s="507"/>
-      <c r="AJ87" s="507"/>
+      <c r="AG87" s="451"/>
+      <c r="AH87" s="451"/>
+      <c r="AI87" s="451"/>
+      <c r="AJ87" s="451"/>
       <c r="AK87" s="143"/>
       <c r="AL87" s="137"/>
       <c r="AM87" s="137"/>
@@ -19965,16 +20302,16 @@
       <c r="BW87" s="137"/>
     </row>
     <row r="88" spans="1:75" s="136" customFormat="1" ht="27" customHeight="1">
-      <c r="A88" s="448"/>
-      <c r="B88" s="449"/>
-      <c r="C88" s="509" t="s">
+      <c r="A88" s="442"/>
+      <c r="B88" s="443"/>
+      <c r="C88" s="438" t="s">
         <v>6</v>
       </c>
-      <c r="D88" s="510"/>
-      <c r="E88" s="444" t="s">
+      <c r="D88" s="439"/>
+      <c r="E88" s="433" t="s">
         <v>297</v>
       </c>
-      <c r="F88" s="445"/>
+      <c r="F88" s="434"/>
       <c r="G88" s="74"/>
       <c r="H88" s="74"/>
       <c r="I88" s="74"/>
@@ -20001,10 +20338,10 @@
       <c r="AD88" s="74"/>
       <c r="AE88" s="74"/>
       <c r="AF88" s="74"/>
-      <c r="AG88" s="507"/>
-      <c r="AH88" s="507"/>
-      <c r="AI88" s="507"/>
-      <c r="AJ88" s="507"/>
+      <c r="AG88" s="451"/>
+      <c r="AH88" s="451"/>
+      <c r="AI88" s="451"/>
+      <c r="AJ88" s="451"/>
       <c r="AK88" s="143"/>
       <c r="AL88" s="137"/>
       <c r="AM88" s="137"/>
@@ -20046,16 +20383,16 @@
       <c r="BW88" s="137"/>
     </row>
     <row r="89" spans="1:75" s="136" customFormat="1" ht="27" customHeight="1">
-      <c r="A89" s="448"/>
-      <c r="B89" s="449"/>
-      <c r="C89" s="509" t="s">
+      <c r="A89" s="442"/>
+      <c r="B89" s="443"/>
+      <c r="C89" s="438" t="s">
         <v>0</v>
       </c>
-      <c r="D89" s="510"/>
-      <c r="E89" s="444" t="s">
+      <c r="D89" s="439"/>
+      <c r="E89" s="433" t="s">
         <v>298</v>
       </c>
-      <c r="F89" s="445"/>
+      <c r="F89" s="434"/>
       <c r="G89" s="74"/>
       <c r="H89" s="74"/>
       <c r="I89" s="74"/>
@@ -20082,10 +20419,10 @@
       <c r="AD89" s="74"/>
       <c r="AE89" s="74"/>
       <c r="AF89" s="74"/>
-      <c r="AG89" s="508"/>
-      <c r="AH89" s="508"/>
-      <c r="AI89" s="508"/>
-      <c r="AJ89" s="508"/>
+      <c r="AG89" s="452"/>
+      <c r="AH89" s="452"/>
+      <c r="AI89" s="452"/>
+      <c r="AJ89" s="452"/>
       <c r="AK89" s="143"/>
       <c r="AL89" s="137"/>
       <c r="AM89" s="137"/>
@@ -20127,16 +20464,16 @@
       <c r="BW89" s="137"/>
     </row>
     <row r="90" spans="1:75" s="136" customFormat="1" ht="27" customHeight="1">
-      <c r="A90" s="448"/>
-      <c r="B90" s="449"/>
-      <c r="C90" s="509" t="s">
+      <c r="A90" s="442"/>
+      <c r="B90" s="443"/>
+      <c r="C90" s="438" t="s">
         <v>48</v>
       </c>
-      <c r="D90" s="510"/>
-      <c r="E90" s="444" t="s">
+      <c r="D90" s="439"/>
+      <c r="E90" s="433" t="s">
         <v>299</v>
       </c>
-      <c r="F90" s="445"/>
+      <c r="F90" s="434"/>
       <c r="G90" s="74"/>
       <c r="H90" s="74"/>
       <c r="I90" s="74"/>
@@ -20208,16 +20545,16 @@
       <c r="BW90" s="137"/>
     </row>
     <row r="91" spans="1:75" s="136" customFormat="1" ht="27" customHeight="1">
-      <c r="A91" s="448"/>
-      <c r="B91" s="449"/>
-      <c r="C91" s="509" t="s">
+      <c r="A91" s="442"/>
+      <c r="B91" s="443"/>
+      <c r="C91" s="438" t="s">
         <v>34</v>
       </c>
-      <c r="D91" s="510"/>
-      <c r="E91" s="444" t="s">
+      <c r="D91" s="439"/>
+      <c r="E91" s="433" t="s">
         <v>385</v>
       </c>
-      <c r="F91" s="445"/>
+      <c r="F91" s="434"/>
       <c r="G91" s="74"/>
       <c r="H91" s="74"/>
       <c r="I91" s="74"/>
@@ -20244,10 +20581,10 @@
       <c r="AD91" s="74"/>
       <c r="AE91" s="74"/>
       <c r="AF91" s="74"/>
-      <c r="AG91" s="508"/>
-      <c r="AH91" s="508"/>
-      <c r="AI91" s="508"/>
-      <c r="AJ91" s="508"/>
+      <c r="AG91" s="452"/>
+      <c r="AH91" s="452"/>
+      <c r="AI91" s="452"/>
+      <c r="AJ91" s="452"/>
       <c r="AK91" s="143"/>
       <c r="AL91" s="137"/>
       <c r="AM91" s="137"/>
@@ -20289,16 +20626,16 @@
       <c r="BW91" s="137"/>
     </row>
     <row r="92" spans="1:75" s="136" customFormat="1" ht="32.25" customHeight="1">
-      <c r="A92" s="495" t="s">
+      <c r="A92" s="437" t="s">
         <v>44</v>
       </c>
-      <c r="B92" s="495"/>
-      <c r="C92" s="495"/>
-      <c r="D92" s="495"/>
-      <c r="E92" s="444" t="s">
+      <c r="B92" s="437"/>
+      <c r="C92" s="437"/>
+      <c r="D92" s="437"/>
+      <c r="E92" s="433" t="s">
         <v>595</v>
       </c>
-      <c r="F92" s="445"/>
+      <c r="F92" s="434"/>
       <c r="G92" s="74"/>
       <c r="H92" s="74"/>
       <c r="I92" s="74"/>
@@ -20325,10 +20662,10 @@
       <c r="AD92" s="74"/>
       <c r="AE92" s="74"/>
       <c r="AF92" s="74"/>
-      <c r="AG92" s="506"/>
-      <c r="AH92" s="506"/>
-      <c r="AI92" s="506"/>
-      <c r="AJ92" s="506"/>
+      <c r="AG92" s="450"/>
+      <c r="AH92" s="450"/>
+      <c r="AI92" s="450"/>
+      <c r="AJ92" s="450"/>
       <c r="AK92" s="143"/>
       <c r="AL92" s="137"/>
       <c r="AM92" s="137"/>
@@ -20370,16 +20707,16 @@
       <c r="BW92" s="137"/>
     </row>
     <row r="93" spans="1:75" s="136" customFormat="1" ht="32.25" customHeight="1">
-      <c r="A93" s="495" t="s">
+      <c r="A93" s="437" t="s">
         <v>45</v>
       </c>
-      <c r="B93" s="495"/>
-      <c r="C93" s="495"/>
-      <c r="D93" s="495"/>
-      <c r="E93" s="444" t="s">
+      <c r="B93" s="437"/>
+      <c r="C93" s="437"/>
+      <c r="D93" s="437"/>
+      <c r="E93" s="433" t="s">
         <v>596</v>
       </c>
-      <c r="F93" s="445"/>
+      <c r="F93" s="434"/>
       <c r="G93" s="74"/>
       <c r="H93" s="74"/>
       <c r="I93" s="74"/>
@@ -20406,10 +20743,10 @@
       <c r="AD93" s="74"/>
       <c r="AE93" s="74"/>
       <c r="AF93" s="74"/>
-      <c r="AG93" s="506"/>
-      <c r="AH93" s="506"/>
-      <c r="AI93" s="506"/>
-      <c r="AJ93" s="506"/>
+      <c r="AG93" s="450"/>
+      <c r="AH93" s="450"/>
+      <c r="AI93" s="450"/>
+      <c r="AJ93" s="450"/>
       <c r="AK93" s="143"/>
       <c r="AL93" s="137"/>
       <c r="AM93" s="137"/>
@@ -20457,17 +20794,17 @@
       <c r="D94" s="146"/>
       <c r="E94" s="146"/>
       <c r="F94" s="146"/>
-      <c r="G94" s="485"/>
-      <c r="H94" s="485"/>
-      <c r="I94" s="485"/>
+      <c r="G94" s="454"/>
+      <c r="H94" s="454"/>
+      <c r="I94" s="454"/>
       <c r="J94" s="146"/>
       <c r="K94" s="146"/>
       <c r="L94" s="146"/>
       <c r="M94" s="146"/>
       <c r="N94" s="146"/>
-      <c r="O94" s="485"/>
-      <c r="P94" s="485"/>
-      <c r="Q94" s="485"/>
+      <c r="O94" s="454"/>
+      <c r="P94" s="454"/>
+      <c r="Q94" s="454"/>
       <c r="R94" s="146"/>
       <c r="S94" s="146"/>
       <c r="T94" s="146"/>
@@ -20496,10 +20833,10 @@
         <v>436</v>
       </c>
       <c r="C95" s="153"/>
-      <c r="D95" s="494" t="s">
+      <c r="D95" s="463" t="s">
         <v>54</v>
       </c>
-      <c r="E95" s="494"/>
+      <c r="E95" s="463"/>
       <c r="F95" s="146"/>
       <c r="G95" s="152"/>
       <c r="H95" s="152"/>
@@ -20534,16 +20871,16 @@
       <c r="BV95" s="105"/>
       <c r="BW95" s="105"/>
     </row>
-    <row r="96" spans="1:75" ht="13.8" customHeight="1" thickBot="1">
+    <row r="96" spans="1:75" ht="13.9" customHeight="1" thickBot="1">
       <c r="A96" s="145"/>
       <c r="B96" s="155" t="s">
         <v>437</v>
       </c>
       <c r="C96" s="153"/>
-      <c r="D96" s="494" t="s">
+      <c r="D96" s="463" t="s">
         <v>55</v>
       </c>
-      <c r="E96" s="494"/>
+      <c r="E96" s="463"/>
       <c r="F96" s="146"/>
       <c r="G96" s="152"/>
       <c r="H96" s="152"/>
@@ -20585,9 +20922,9 @@
       <c r="D97" s="146"/>
       <c r="E97" s="146"/>
       <c r="F97" s="146"/>
-      <c r="G97" s="487"/>
-      <c r="H97" s="487"/>
-      <c r="I97" s="487"/>
+      <c r="G97" s="456"/>
+      <c r="H97" s="456"/>
+      <c r="I97" s="456"/>
       <c r="J97" s="146"/>
       <c r="K97" s="146"/>
       <c r="L97" s="146"/>
@@ -20620,35 +20957,35 @@
     </row>
     <row r="98" spans="1:75" ht="14.1" customHeight="1">
       <c r="A98" s="145"/>
-      <c r="B98" s="486" t="s">
+      <c r="B98" s="455" t="s">
         <v>36</v>
       </c>
-      <c r="C98" s="488"/>
-      <c r="D98" s="489"/>
-      <c r="E98" s="489"/>
-      <c r="F98" s="489"/>
-      <c r="G98" s="489"/>
-      <c r="H98" s="489"/>
-      <c r="I98" s="489"/>
-      <c r="J98" s="489"/>
-      <c r="K98" s="489"/>
-      <c r="L98" s="489"/>
-      <c r="M98" s="489"/>
-      <c r="N98" s="489"/>
-      <c r="O98" s="489"/>
-      <c r="P98" s="489"/>
-      <c r="Q98" s="489"/>
-      <c r="R98" s="489"/>
-      <c r="S98" s="489"/>
-      <c r="T98" s="489"/>
-      <c r="U98" s="489"/>
-      <c r="V98" s="489"/>
-      <c r="W98" s="489"/>
-      <c r="X98" s="489"/>
-      <c r="Y98" s="489"/>
-      <c r="Z98" s="489"/>
-      <c r="AA98" s="489"/>
-      <c r="AB98" s="490"/>
+      <c r="C98" s="457"/>
+      <c r="D98" s="458"/>
+      <c r="E98" s="458"/>
+      <c r="F98" s="458"/>
+      <c r="G98" s="458"/>
+      <c r="H98" s="458"/>
+      <c r="I98" s="458"/>
+      <c r="J98" s="458"/>
+      <c r="K98" s="458"/>
+      <c r="L98" s="458"/>
+      <c r="M98" s="458"/>
+      <c r="N98" s="458"/>
+      <c r="O98" s="458"/>
+      <c r="P98" s="458"/>
+      <c r="Q98" s="458"/>
+      <c r="R98" s="458"/>
+      <c r="S98" s="458"/>
+      <c r="T98" s="458"/>
+      <c r="U98" s="458"/>
+      <c r="V98" s="458"/>
+      <c r="W98" s="458"/>
+      <c r="X98" s="458"/>
+      <c r="Y98" s="458"/>
+      <c r="Z98" s="458"/>
+      <c r="AA98" s="458"/>
+      <c r="AB98" s="459"/>
       <c r="AC98" s="148"/>
       <c r="AD98" s="148"/>
       <c r="AE98" s="148"/>
@@ -20669,33 +21006,33 @@
     </row>
     <row r="99" spans="1:75" ht="28.5" customHeight="1">
       <c r="A99" s="145"/>
-      <c r="B99" s="486"/>
-      <c r="C99" s="491"/>
-      <c r="D99" s="492"/>
-      <c r="E99" s="492"/>
-      <c r="F99" s="492"/>
-      <c r="G99" s="492"/>
-      <c r="H99" s="492"/>
-      <c r="I99" s="492"/>
-      <c r="J99" s="492"/>
-      <c r="K99" s="492"/>
-      <c r="L99" s="492"/>
-      <c r="M99" s="492"/>
-      <c r="N99" s="492"/>
-      <c r="O99" s="492"/>
-      <c r="P99" s="492"/>
-      <c r="Q99" s="492"/>
-      <c r="R99" s="492"/>
-      <c r="S99" s="492"/>
-      <c r="T99" s="492"/>
-      <c r="U99" s="492"/>
-      <c r="V99" s="492"/>
-      <c r="W99" s="492"/>
-      <c r="X99" s="492"/>
-      <c r="Y99" s="492"/>
-      <c r="Z99" s="492"/>
-      <c r="AA99" s="492"/>
-      <c r="AB99" s="493"/>
+      <c r="B99" s="455"/>
+      <c r="C99" s="460"/>
+      <c r="D99" s="461"/>
+      <c r="E99" s="461"/>
+      <c r="F99" s="461"/>
+      <c r="G99" s="461"/>
+      <c r="H99" s="461"/>
+      <c r="I99" s="461"/>
+      <c r="J99" s="461"/>
+      <c r="K99" s="461"/>
+      <c r="L99" s="461"/>
+      <c r="M99" s="461"/>
+      <c r="N99" s="461"/>
+      <c r="O99" s="461"/>
+      <c r="P99" s="461"/>
+      <c r="Q99" s="461"/>
+      <c r="R99" s="461"/>
+      <c r="S99" s="461"/>
+      <c r="T99" s="461"/>
+      <c r="U99" s="461"/>
+      <c r="V99" s="461"/>
+      <c r="W99" s="461"/>
+      <c r="X99" s="461"/>
+      <c r="Y99" s="461"/>
+      <c r="Z99" s="461"/>
+      <c r="AA99" s="461"/>
+      <c r="AB99" s="462"/>
       <c r="AC99" s="148"/>
       <c r="AD99" s="148"/>
       <c r="AE99" s="148"/>
@@ -20706,7 +21043,7 @@
       <c r="AJ99" s="149"/>
       <c r="AP99" s="105"/>
     </row>
-    <row r="100" spans="1:75" ht="13.8" customHeight="1">
+    <row r="100" spans="1:75" ht="13.9" customHeight="1">
       <c r="M100" s="105"/>
       <c r="N100" s="105"/>
       <c r="O100" s="105"/>
@@ -20781,20 +21118,20 @@
       <c r="BO101" s="103"/>
     </row>
     <row r="102" spans="1:75" ht="14.1" customHeight="1">
-      <c r="C102" s="431" t="s">
+      <c r="C102" s="499" t="s">
         <v>589</v>
       </c>
-      <c r="D102" s="431"/>
+      <c r="D102" s="499"/>
       <c r="E102" s="105"/>
-      <c r="F102" s="431" t="s">
+      <c r="F102" s="499" t="s">
         <v>590</v>
       </c>
-      <c r="G102" s="431"/>
+      <c r="G102" s="499"/>
       <c r="H102" s="105"/>
-      <c r="I102" s="431" t="s">
+      <c r="I102" s="499" t="s">
         <v>591</v>
       </c>
-      <c r="J102" s="431"/>
+      <c r="J102" s="499"/>
       <c r="K102" s="105"/>
       <c r="M102" s="105"/>
       <c r="N102" s="105"/>
@@ -20894,7 +21231,7 @@
       <c r="BN103" s="103"/>
       <c r="BO103" s="103"/>
     </row>
-    <row r="104" spans="1:75" ht="13.8" customHeight="1">
+    <row r="104" spans="1:75" ht="13.9" customHeight="1">
       <c r="K104" s="103"/>
       <c r="L104" s="103"/>
       <c r="M104" s="105"/>
@@ -65547,30 +65884,212 @@
   </sheetData>
   <sheetProtection formatColumns="0" formatRows="0"/>
   <mergeCells count="254">
-    <mergeCell ref="C70:D71"/>
-    <mergeCell ref="C72:D73"/>
-    <mergeCell ref="C74:D75"/>
-    <mergeCell ref="C76:D77"/>
-    <mergeCell ref="E67:F67"/>
-    <mergeCell ref="E68:F68"/>
-    <mergeCell ref="E69:F69"/>
-    <mergeCell ref="E70:F70"/>
-    <mergeCell ref="E71:F71"/>
-    <mergeCell ref="E72:F72"/>
-    <mergeCell ref="E73:F73"/>
-    <mergeCell ref="E74:F74"/>
-    <mergeCell ref="E75:F75"/>
-    <mergeCell ref="E76:F76"/>
-    <mergeCell ref="E77:F77"/>
-    <mergeCell ref="C56:D57"/>
-    <mergeCell ref="C58:D59"/>
-    <mergeCell ref="E65:F65"/>
-    <mergeCell ref="E66:F66"/>
-    <mergeCell ref="C60:D61"/>
-    <mergeCell ref="C62:D63"/>
-    <mergeCell ref="C64:D65"/>
-    <mergeCell ref="C66:D67"/>
-    <mergeCell ref="C68:D69"/>
+    <mergeCell ref="C102:D102"/>
+    <mergeCell ref="F102:G102"/>
+    <mergeCell ref="I102:J102"/>
+    <mergeCell ref="C52:D52"/>
+    <mergeCell ref="C53:D53"/>
+    <mergeCell ref="A42:F42"/>
+    <mergeCell ref="G42:H42"/>
+    <mergeCell ref="G43:H43"/>
+    <mergeCell ref="E44:F44"/>
+    <mergeCell ref="E45:F45"/>
+    <mergeCell ref="E46:F46"/>
+    <mergeCell ref="E47:F47"/>
+    <mergeCell ref="E48:F48"/>
+    <mergeCell ref="A44:B53"/>
+    <mergeCell ref="E49:F49"/>
+    <mergeCell ref="E50:F50"/>
+    <mergeCell ref="E51:F51"/>
+    <mergeCell ref="E52:F52"/>
+    <mergeCell ref="E53:F53"/>
+    <mergeCell ref="A43:F43"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="C45:D45"/>
+    <mergeCell ref="C46:D46"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="C51:D51"/>
+    <mergeCell ref="G41:H41"/>
+    <mergeCell ref="A41:F41"/>
+    <mergeCell ref="E2:AB3"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="C39:C40"/>
+    <mergeCell ref="D39:D40"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="C35:C36"/>
+    <mergeCell ref="D35:D36"/>
+    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="C37:C38"/>
+    <mergeCell ref="D37:D38"/>
+    <mergeCell ref="E5:F6"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="D33:D34"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="BF2:BS2"/>
+    <mergeCell ref="AG5:AJ5"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="E38:F38"/>
+    <mergeCell ref="E39:F39"/>
+    <mergeCell ref="E40:F40"/>
+    <mergeCell ref="AE6:AF6"/>
+    <mergeCell ref="AI6:AJ6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="AG58:AH58"/>
+    <mergeCell ref="AI58:AJ58"/>
+    <mergeCell ref="AG60:AH60"/>
+    <mergeCell ref="AI60:AJ60"/>
+    <mergeCell ref="AG62:AH62"/>
+    <mergeCell ref="AI62:AJ62"/>
+    <mergeCell ref="AG64:AH64"/>
+    <mergeCell ref="AI64:AJ64"/>
+    <mergeCell ref="E54:F54"/>
+    <mergeCell ref="E55:F55"/>
+    <mergeCell ref="E56:F56"/>
+    <mergeCell ref="E57:F57"/>
+    <mergeCell ref="E58:F58"/>
+    <mergeCell ref="E59:F59"/>
+    <mergeCell ref="E60:F60"/>
+    <mergeCell ref="E61:F61"/>
+    <mergeCell ref="E62:F62"/>
+    <mergeCell ref="E63:F63"/>
+    <mergeCell ref="E64:F64"/>
+    <mergeCell ref="AG68:AH68"/>
+    <mergeCell ref="AI68:AJ68"/>
+    <mergeCell ref="AG70:AH70"/>
+    <mergeCell ref="AI70:AJ70"/>
+    <mergeCell ref="AG72:AH72"/>
+    <mergeCell ref="AI72:AJ72"/>
+    <mergeCell ref="AG74:AH74"/>
+    <mergeCell ref="AI74:AJ74"/>
+    <mergeCell ref="AG76:AH76"/>
+    <mergeCell ref="AI76:AJ76"/>
+    <mergeCell ref="G94:I94"/>
+    <mergeCell ref="O94:Q94"/>
+    <mergeCell ref="B98:B99"/>
+    <mergeCell ref="G97:I97"/>
+    <mergeCell ref="C98:AB99"/>
+    <mergeCell ref="D96:E96"/>
+    <mergeCell ref="D95:E95"/>
+    <mergeCell ref="E93:F93"/>
+    <mergeCell ref="A93:D93"/>
+    <mergeCell ref="E86:F86"/>
+    <mergeCell ref="C84:D84"/>
+    <mergeCell ref="C85:D85"/>
+    <mergeCell ref="C86:D86"/>
+    <mergeCell ref="A54:B83"/>
+    <mergeCell ref="C54:D55"/>
+    <mergeCell ref="AG93:AH93"/>
+    <mergeCell ref="AI93:AJ93"/>
+    <mergeCell ref="AG87:AH87"/>
+    <mergeCell ref="AI87:AJ87"/>
+    <mergeCell ref="AG88:AH88"/>
+    <mergeCell ref="AI88:AJ88"/>
+    <mergeCell ref="AG89:AH89"/>
+    <mergeCell ref="AG92:AH92"/>
+    <mergeCell ref="AI89:AJ89"/>
+    <mergeCell ref="AI91:AJ91"/>
+    <mergeCell ref="AG91:AH91"/>
+    <mergeCell ref="AI92:AJ92"/>
+    <mergeCell ref="AG78:AH78"/>
+    <mergeCell ref="AI78:AJ78"/>
+    <mergeCell ref="AG80:AH80"/>
+    <mergeCell ref="AI80:AJ80"/>
+    <mergeCell ref="AG66:AH66"/>
+    <mergeCell ref="AI66:AJ66"/>
     <mergeCell ref="E78:F78"/>
     <mergeCell ref="E79:F79"/>
     <mergeCell ref="E80:F80"/>
@@ -65595,212 +66114,30 @@
     <mergeCell ref="E83:F83"/>
     <mergeCell ref="C80:D81"/>
     <mergeCell ref="C82:D83"/>
-    <mergeCell ref="E86:F86"/>
-    <mergeCell ref="C84:D84"/>
-    <mergeCell ref="C85:D85"/>
-    <mergeCell ref="C86:D86"/>
-    <mergeCell ref="A54:B83"/>
-    <mergeCell ref="C54:D55"/>
-    <mergeCell ref="AG93:AH93"/>
-    <mergeCell ref="AI93:AJ93"/>
-    <mergeCell ref="AG87:AH87"/>
-    <mergeCell ref="AI87:AJ87"/>
-    <mergeCell ref="AG88:AH88"/>
-    <mergeCell ref="AI88:AJ88"/>
-    <mergeCell ref="AG89:AH89"/>
-    <mergeCell ref="AG92:AH92"/>
-    <mergeCell ref="AI89:AJ89"/>
-    <mergeCell ref="AI91:AJ91"/>
-    <mergeCell ref="AG91:AH91"/>
-    <mergeCell ref="AI92:AJ92"/>
-    <mergeCell ref="AG78:AH78"/>
-    <mergeCell ref="AI78:AJ78"/>
-    <mergeCell ref="AG80:AH80"/>
-    <mergeCell ref="AI80:AJ80"/>
-    <mergeCell ref="AG66:AH66"/>
-    <mergeCell ref="AI66:AJ66"/>
-    <mergeCell ref="G94:I94"/>
-    <mergeCell ref="O94:Q94"/>
-    <mergeCell ref="B98:B99"/>
-    <mergeCell ref="G97:I97"/>
-    <mergeCell ref="C98:AB99"/>
-    <mergeCell ref="D96:E96"/>
-    <mergeCell ref="D95:E95"/>
-    <mergeCell ref="E93:F93"/>
-    <mergeCell ref="A93:D93"/>
-    <mergeCell ref="AG68:AH68"/>
-    <mergeCell ref="AI68:AJ68"/>
-    <mergeCell ref="AG70:AH70"/>
-    <mergeCell ref="AI70:AJ70"/>
-    <mergeCell ref="AG72:AH72"/>
-    <mergeCell ref="AI72:AJ72"/>
-    <mergeCell ref="AG74:AH74"/>
-    <mergeCell ref="AI74:AJ74"/>
-    <mergeCell ref="AG76:AH76"/>
-    <mergeCell ref="AI76:AJ76"/>
-    <mergeCell ref="AG58:AH58"/>
-    <mergeCell ref="AI58:AJ58"/>
-    <mergeCell ref="AG60:AH60"/>
-    <mergeCell ref="AI60:AJ60"/>
-    <mergeCell ref="AG62:AH62"/>
-    <mergeCell ref="AI62:AJ62"/>
-    <mergeCell ref="AG64:AH64"/>
-    <mergeCell ref="AI64:AJ64"/>
-    <mergeCell ref="E54:F54"/>
-    <mergeCell ref="E55:F55"/>
-    <mergeCell ref="E56:F56"/>
-    <mergeCell ref="E57:F57"/>
-    <mergeCell ref="E58:F58"/>
-    <mergeCell ref="E59:F59"/>
-    <mergeCell ref="E60:F60"/>
-    <mergeCell ref="E61:F61"/>
-    <mergeCell ref="E62:F62"/>
-    <mergeCell ref="E63:F63"/>
-    <mergeCell ref="E64:F64"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="E38:F38"/>
-    <mergeCell ref="E39:F39"/>
-    <mergeCell ref="E40:F40"/>
-    <mergeCell ref="AE6:AF6"/>
-    <mergeCell ref="AI6:AJ6"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="BF2:BS2"/>
-    <mergeCell ref="AG5:AJ5"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="C31:C32"/>
-    <mergeCell ref="D31:D32"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="C33:C34"/>
-    <mergeCell ref="D33:D34"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="C48:D48"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="C50:D50"/>
-    <mergeCell ref="C51:D51"/>
-    <mergeCell ref="G41:H41"/>
-    <mergeCell ref="A41:F41"/>
-    <mergeCell ref="E2:AB3"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="A39:A40"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="C39:C40"/>
-    <mergeCell ref="D39:D40"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="C35:C36"/>
-    <mergeCell ref="D35:D36"/>
-    <mergeCell ref="A37:A38"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="C37:C38"/>
-    <mergeCell ref="D37:D38"/>
-    <mergeCell ref="E5:F6"/>
-    <mergeCell ref="D29:D30"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="C102:D102"/>
-    <mergeCell ref="F102:G102"/>
-    <mergeCell ref="I102:J102"/>
-    <mergeCell ref="C52:D52"/>
-    <mergeCell ref="C53:D53"/>
-    <mergeCell ref="A42:F42"/>
-    <mergeCell ref="G42:H42"/>
-    <mergeCell ref="G43:H43"/>
-    <mergeCell ref="E44:F44"/>
-    <mergeCell ref="E45:F45"/>
-    <mergeCell ref="E46:F46"/>
-    <mergeCell ref="E47:F47"/>
-    <mergeCell ref="E48:F48"/>
-    <mergeCell ref="A44:B53"/>
-    <mergeCell ref="E49:F49"/>
-    <mergeCell ref="E50:F50"/>
-    <mergeCell ref="E51:F51"/>
-    <mergeCell ref="E52:F52"/>
-    <mergeCell ref="E53:F53"/>
-    <mergeCell ref="A43:F43"/>
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="C45:D45"/>
-    <mergeCell ref="C46:D46"/>
-    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="C56:D57"/>
+    <mergeCell ref="C58:D59"/>
+    <mergeCell ref="E65:F65"/>
+    <mergeCell ref="E66:F66"/>
+    <mergeCell ref="C60:D61"/>
+    <mergeCell ref="C62:D63"/>
+    <mergeCell ref="C64:D65"/>
+    <mergeCell ref="C66:D67"/>
+    <mergeCell ref="C68:D69"/>
+    <mergeCell ref="C70:D71"/>
+    <mergeCell ref="C72:D73"/>
+    <mergeCell ref="C74:D75"/>
+    <mergeCell ref="C76:D77"/>
+    <mergeCell ref="E67:F67"/>
+    <mergeCell ref="E68:F68"/>
+    <mergeCell ref="E69:F69"/>
+    <mergeCell ref="E70:F70"/>
+    <mergeCell ref="E71:F71"/>
+    <mergeCell ref="E72:F72"/>
+    <mergeCell ref="E73:F73"/>
+    <mergeCell ref="E74:F74"/>
+    <mergeCell ref="E75:F75"/>
+    <mergeCell ref="E76:F76"/>
+    <mergeCell ref="E77:F77"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.118110236220472" right="0.118110236220472" top="0.35433070866141703" bottom="0.55118110236220497" header="0.31496062992126" footer="0.31496062992126"/>
@@ -65995,18 +66332,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -66028,14 +66365,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5458833A-D997-4113-BB83-F938CBB9D86E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ECA946AD-4EA3-4FCA-B864-262800288FDF}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
@@ -66049,4 +66378,12 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5458833A-D997-4113-BB83-F938CBB9D86E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/api/cp-dss-api/gateway/src/main/resources/reports/discharging/Vessel_1_Discharging_Plan_Template.xlsx
+++ b/api/cp-dss-api/gateway/src/main/resources/reports/discharging/Vessel_1_Discharging_Plan_Template.xlsx
@@ -41,7 +41,7 @@
     <definedName name="B" localSheetId="0">#REF!</definedName>
     <definedName name="B" localSheetId="1">#REF!</definedName>
     <definedName name="B">#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'CRUD - 021 pg1'!$A$1:$Z$69</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'CRUD - 021 pg1'!$A$1:$Z$70</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">'CRUD - 021 pg3'!$A$1:$AM$99</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'CRUD-022 pg2 '!$A$1:$Y$72</definedName>
     <definedName name="_xlnm.Print_Area">#REF!</definedName>
@@ -118,7 +118,7 @@
     <definedName name="SSSN_PRESES" localSheetId="1">'CRUD-022 pg2 '!$B$63:$X$63</definedName>
     <definedName name="SSSN_PRESES">#REF!</definedName>
     <definedName name="SSSN_PRT">'CRUD - 021 pg1'!$V$5:$Z$7</definedName>
-    <definedName name="SSSN_REM">'CRUD - 021 pg1'!$F$62:$Y$68</definedName>
+    <definedName name="SSSN_REM">'CRUD - 021 pg1'!$F$62:$Y$67</definedName>
     <definedName name="SSSN_SAILCON">'CRUD - 021 pg1'!$C$33:$P$45</definedName>
     <definedName name="SSSN_SEG">'CRUD - 021 pg1'!$Y$24</definedName>
     <definedName name="SSSN_STG1" localSheetId="1">#REF!</definedName>
@@ -177,7 +177,7 @@
             <family val="2"/>
           </rPr>
           <t>Author:
-jx:area(lastCell="AZ80")</t>
+jx:area(lastCell="AZ81")</t>
         </r>
       </text>
     </comment>
@@ -329,21 +329,7 @@
             <family val="2"/>
           </rPr>
           <t>Author:
-jx:each(items="sheetOne.cargoTobeDischarged"  var="cargoTobeDischargedDetails"  direction ="RIGHT" lastCell="J68")</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="A69" authorId="1" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>jx:if(condition="sheetOne.loadingPlanCommingleDetailsList.isEmpty()", lastCell="F69", areas=["A69:F69"])</t>
+jx:each(items="sheetOne.cargoTobeDischarged"  var="cargoTobeDischargedDetails"  direction ="RIGHT" lastCell="J67")</t>
         </r>
       </text>
     </comment>
@@ -357,11 +343,25 @@
             <rFont val="Tahoma"/>
             <charset val="1"/>
           </rPr>
-          <t>jx:if(condition="!sheetOne.loadingPlanCommingleDetailsList.isEmpty()", lastCell="K79", areas=["A70:K79"])</t>
+          <t>jx:if(condition="sheetOne.loadingPlanCommingleDetailsList.isEmpty()", lastCell="F70", areas=["A70:F70"])</t>
         </r>
       </text>
     </comment>
-    <comment ref="F71" authorId="0" shapeId="0">
+    <comment ref="A71" authorId="1" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>jx:if(condition="!sheetOne.loadingPlanCommingleDetailsList.isEmpty()", lastCell="K80", areas=["A71:K80"])</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F72" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -372,7 +372,7 @@
             <family val="2"/>
           </rPr>
           <t>Author:
-jx:each(items="sheetOne.loadingPlanCommingleDetailsList" var="loadingPlanCommingleDetails"  direction ="RIGHT" lastCell="K78")</t>
+jx:each(items="sheetOne.loadingPlanCommingleDetailsList" var="loadingPlanCommingleDetails"  direction ="RIGHT" lastCell="K79")</t>
         </r>
       </text>
     </comment>
@@ -2445,7 +2445,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="673" uniqueCount="619">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="674" uniqueCount="619">
   <si>
     <t>TRIM</t>
   </si>
@@ -2526,9 +2526,6 @@
   </si>
   <si>
     <t xml:space="preserve">    Loading Port</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Slop      Qty</t>
   </si>
   <si>
     <t xml:space="preserve">VOY. NO. </t>
@@ -4029,9 +4026,6 @@
     <t>${cargoTobeDischargedDetails.timeRequiredForDischarging}</t>
   </si>
   <si>
-    <t>${cargoTobeDischargedDetails.slopQuantity}</t>
-  </si>
-  <si>
     <t>${dischargingRate.rate} M3/HR</t>
   </si>
   <si>
@@ -4331,6 +4325,12 @@
   </si>
   <si>
     <t>DISCHARGE PLAN COMMINGLE DETAILS</t>
+  </si>
+  <si>
+    <t>${sheetOne.slopQuantity}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Slop Qty (OBS M3)</t>
   </si>
 </sst>
 </file>
@@ -5167,7 +5167,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="524">
+  <cellXfs count="528">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -5805,16 +5805,26 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="173" fontId="29" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="8" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="8" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="173" fontId="29" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="173" fontId="29" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
@@ -5864,6 +5874,14 @@
     </xf>
     <xf numFmtId="0" fontId="20" fillId="5" borderId="9" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="173" fontId="29" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="173" fontId="29" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="173" fontId="33" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
@@ -5922,24 +5940,15 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" wrapText="1" shrinkToFit="1"/>
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" wrapText="1" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="173" fontId="29" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="16" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" wrapText="1"/>
+    <xf numFmtId="173" fontId="29" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -5948,10 +5957,6 @@
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="173" fontId="29" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="173" fontId="33" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -5982,6 +5987,10 @@
       <alignment horizontal="right"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="173" fontId="29" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
       <protection locked="0"/>
@@ -5990,27 +5999,21 @@
       <alignment horizontal="right"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" wrapText="1" shrinkToFit="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" wrapText="1" shrinkToFit="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="16" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" wrapText="1"/>
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -6029,12 +6032,30 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -6045,23 +6066,20 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
+    <xf numFmtId="3" fontId="33" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="3" fontId="33" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="3" fontId="33" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
@@ -6135,6 +6153,49 @@
     </xf>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="16" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -6751,53 +6812,6 @@
     <xf numFmtId="0" fontId="43" fillId="4" borderId="9" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="8" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="8" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="16" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="17">
@@ -7901,10 +7915,10 @@
           </xdr:nvGrpSpPr>
           <xdr:grpSpPr>
             <a:xfrm>
-              <a:off x="380552" y="3921601"/>
-              <a:ext cx="418203" cy="725659"/>
-              <a:chOff x="376566" y="3942670"/>
-              <a:chExt cx="297180" cy="732385"/>
+              <a:off x="380552" y="3921605"/>
+              <a:ext cx="418203" cy="725665"/>
+              <a:chOff x="376566" y="3942664"/>
+              <a:chExt cx="297180" cy="732389"/>
             </a:xfrm>
           </xdr:grpSpPr>
           <xdr:sp macro="" textlink="">
@@ -7923,8 +7937,8 @@
             </xdr:nvSpPr>
             <xdr:spPr bwMode="auto">
               <a:xfrm>
-                <a:off x="376566" y="3942670"/>
-                <a:ext cx="297180" cy="194983"/>
+                <a:off x="376566" y="3942664"/>
+                <a:ext cx="297180" cy="194982"/>
               </a:xfrm>
               <a:prstGeom prst="rect">
                 <a:avLst/>
@@ -8007,7 +8021,7 @@
             </xdr:nvSpPr>
             <xdr:spPr bwMode="auto">
               <a:xfrm>
-                <a:off x="392430" y="4404375"/>
+                <a:off x="392430" y="4404373"/>
                 <a:ext cx="243840" cy="270680"/>
               </a:xfrm>
               <a:prstGeom prst="rect">
@@ -8467,7 +8481,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AS79"/>
+  <dimension ref="A1:AS80"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
@@ -8525,12 +8539,12 @@
       <c r="I3" s="10"/>
       <c r="J3" s="9"/>
       <c r="K3" s="9"/>
-      <c r="L3" s="333" t="s">
-        <v>468</v>
-      </c>
-      <c r="M3" s="333"/>
-      <c r="N3" s="333"/>
-      <c r="O3" s="333"/>
+      <c r="L3" s="339" t="s">
+        <v>467</v>
+      </c>
+      <c r="M3" s="339"/>
+      <c r="N3" s="339"/>
+      <c r="O3" s="339"/>
       <c r="P3" s="9"/>
       <c r="Q3" s="9"/>
       <c r="R3" s="9"/>
@@ -8547,16 +8561,16 @@
     <row r="4" spans="1:32" ht="17.25" customHeight="1">
       <c r="A4" s="9"/>
       <c r="B4" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C4" s="9"/>
-      <c r="D4" s="335" t="s">
-        <v>52</v>
-      </c>
-      <c r="E4" s="335"/>
-      <c r="F4" s="335"/>
-      <c r="G4" s="335"/>
-      <c r="H4" s="335"/>
+      <c r="D4" s="341" t="s">
+        <v>51</v>
+      </c>
+      <c r="E4" s="341"/>
+      <c r="F4" s="341"/>
+      <c r="G4" s="341"/>
+      <c r="H4" s="341"/>
       <c r="I4" s="9"/>
       <c r="J4" s="9"/>
       <c r="K4" s="9"/>
@@ -8580,16 +8594,16 @@
     <row r="5" spans="1:32" ht="17.25" customHeight="1">
       <c r="A5" s="9"/>
       <c r="B5" s="12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C5" s="13"/>
-      <c r="D5" s="332" t="s">
-        <v>53</v>
-      </c>
-      <c r="E5" s="332"/>
-      <c r="F5" s="332"/>
-      <c r="G5" s="332"/>
-      <c r="H5" s="332"/>
+      <c r="D5" s="338" t="s">
+        <v>52</v>
+      </c>
+      <c r="E5" s="338"/>
+      <c r="F5" s="338"/>
+      <c r="G5" s="338"/>
+      <c r="H5" s="338"/>
       <c r="I5" s="14"/>
       <c r="J5" s="14"/>
       <c r="K5" s="14"/>
@@ -8607,13 +8621,13 @@
       <c r="U5" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="V5" s="323" t="s">
-        <v>56</v>
-      </c>
-      <c r="W5" s="323"/>
-      <c r="X5" s="323"/>
-      <c r="Y5" s="323"/>
-      <c r="Z5" s="323"/>
+      <c r="V5" s="329" t="s">
+        <v>55</v>
+      </c>
+      <c r="W5" s="329"/>
+      <c r="X5" s="329"/>
+      <c r="Y5" s="329"/>
+      <c r="Z5" s="329"/>
       <c r="AA5" s="10"/>
       <c r="AB5" s="18"/>
     </row>
@@ -8643,39 +8657,39 @@
       <c r="U6" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="V6" s="324" t="s">
-        <v>57</v>
-      </c>
-      <c r="W6" s="324"/>
-      <c r="X6" s="324"/>
-      <c r="Y6" s="324"/>
-      <c r="Z6" s="324"/>
+      <c r="V6" s="330" t="s">
+        <v>56</v>
+      </c>
+      <c r="W6" s="330"/>
+      <c r="X6" s="330"/>
+      <c r="Y6" s="330"/>
+      <c r="Z6" s="330"/>
       <c r="AA6" s="10"/>
       <c r="AB6" s="18"/>
     </row>
     <row r="7" spans="1:32" ht="17.25" customHeight="1">
       <c r="A7" s="19"/>
       <c r="B7" s="20" t="s">
-        <v>49</v>
-      </c>
-      <c r="C7" s="336" t="s">
+        <v>48</v>
+      </c>
+      <c r="C7" s="342" t="s">
+        <v>53</v>
+      </c>
+      <c r="D7" s="342"/>
+      <c r="E7" s="342"/>
+      <c r="F7" s="342"/>
+      <c r="G7" s="342"/>
+      <c r="H7" s="343" t="s">
+        <v>518</v>
+      </c>
+      <c r="I7" s="343"/>
+      <c r="J7" s="342" t="s">
         <v>54</v>
       </c>
-      <c r="D7" s="336"/>
-      <c r="E7" s="336"/>
-      <c r="F7" s="336"/>
-      <c r="G7" s="336"/>
-      <c r="H7" s="337" t="s">
-        <v>519</v>
-      </c>
-      <c r="I7" s="337"/>
-      <c r="J7" s="336" t="s">
-        <v>55</v>
-      </c>
-      <c r="K7" s="336"/>
-      <c r="L7" s="336"/>
-      <c r="M7" s="336"/>
-      <c r="N7" s="336"/>
+      <c r="K7" s="342"/>
+      <c r="L7" s="342"/>
+      <c r="M7" s="342"/>
+      <c r="N7" s="342"/>
       <c r="O7" s="21"/>
       <c r="P7" s="21"/>
       <c r="Q7" s="21"/>
@@ -8687,13 +8701,13 @@
       <c r="U7" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="V7" s="324" t="s">
-        <v>58</v>
-      </c>
-      <c r="W7" s="324"/>
-      <c r="X7" s="324"/>
-      <c r="Y7" s="324"/>
-      <c r="Z7" s="324"/>
+      <c r="V7" s="330" t="s">
+        <v>57</v>
+      </c>
+      <c r="W7" s="330"/>
+      <c r="X7" s="330"/>
+      <c r="Y7" s="330"/>
+      <c r="Z7" s="330"/>
       <c r="AA7" s="10"/>
       <c r="AB7" s="18"/>
     </row>
@@ -8773,29 +8787,29 @@
       <c r="M10" s="22"/>
       <c r="N10" s="22"/>
       <c r="O10" s="22"/>
-      <c r="P10" s="330" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q10" s="330"/>
-      <c r="R10" s="330"/>
-      <c r="S10" s="330"/>
-      <c r="T10" s="330"/>
-      <c r="U10" s="330"/>
-      <c r="V10" s="330"/>
-      <c r="W10" s="330"/>
-      <c r="X10" s="330"/>
-      <c r="Y10" s="327" t="s">
-        <v>59</v>
-      </c>
-      <c r="Z10" s="327"/>
+      <c r="P10" s="336" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q10" s="336"/>
+      <c r="R10" s="336"/>
+      <c r="S10" s="336"/>
+      <c r="T10" s="336"/>
+      <c r="U10" s="336"/>
+      <c r="V10" s="336"/>
+      <c r="W10" s="336"/>
+      <c r="X10" s="336"/>
+      <c r="Y10" s="333" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z10" s="333"/>
       <c r="AB10" s="18"/>
     </row>
     <row r="11" spans="1:32" ht="17.25" customHeight="1">
       <c r="A11" s="23" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B11" s="24" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C11" s="25"/>
       <c r="D11" s="25"/>
@@ -8810,21 +8824,21 @@
       <c r="M11" s="25"/>
       <c r="N11" s="25"/>
       <c r="O11" s="26"/>
-      <c r="P11" s="331" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q11" s="331"/>
-      <c r="R11" s="331"/>
-      <c r="S11" s="331"/>
-      <c r="T11" s="331"/>
-      <c r="U11" s="331"/>
-      <c r="V11" s="331"/>
-      <c r="W11" s="328" t="s">
-        <v>467</v>
-      </c>
-      <c r="X11" s="328"/>
-      <c r="Y11" s="328"/>
-      <c r="Z11" s="328"/>
+      <c r="P11" s="337" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q11" s="337"/>
+      <c r="R11" s="337"/>
+      <c r="S11" s="337"/>
+      <c r="T11" s="337"/>
+      <c r="U11" s="337"/>
+      <c r="V11" s="337"/>
+      <c r="W11" s="334" t="s">
+        <v>466</v>
+      </c>
+      <c r="X11" s="334"/>
+      <c r="Y11" s="334"/>
+      <c r="Z11" s="334"/>
       <c r="AA11" s="27"/>
     </row>
     <row r="12" spans="1:32" s="27" customFormat="1" ht="17.25" customHeight="1">
@@ -8843,19 +8857,19 @@
       <c r="M12" s="29"/>
       <c r="N12" s="29"/>
       <c r="O12" s="29"/>
-      <c r="P12" s="326" t="s">
-        <v>518</v>
-      </c>
-      <c r="Q12" s="326"/>
-      <c r="R12" s="326"/>
-      <c r="S12" s="326"/>
-      <c r="T12" s="326"/>
-      <c r="U12" s="326"/>
-      <c r="V12" s="326"/>
-      <c r="W12" s="326"/>
-      <c r="X12" s="326"/>
-      <c r="Y12" s="326"/>
-      <c r="Z12" s="326"/>
+      <c r="P12" s="332" t="s">
+        <v>517</v>
+      </c>
+      <c r="Q12" s="332"/>
+      <c r="R12" s="332"/>
+      <c r="S12" s="332"/>
+      <c r="T12" s="332"/>
+      <c r="U12" s="332"/>
+      <c r="V12" s="332"/>
+      <c r="W12" s="332"/>
+      <c r="X12" s="332"/>
+      <c r="Y12" s="332"/>
+      <c r="Z12" s="332"/>
     </row>
     <row r="13" spans="1:32" s="27" customFormat="1" ht="17.25" customHeight="1">
       <c r="A13" s="28"/>
@@ -8906,40 +8920,40 @@
       <c r="A15" s="28"/>
       <c r="B15" s="33"/>
       <c r="C15" s="34" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D15" s="35"/>
       <c r="E15" s="34" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F15" s="36"/>
       <c r="G15" s="162" t="s">
+        <v>237</v>
+      </c>
+      <c r="H15" s="269"/>
+      <c r="I15" s="270"/>
+      <c r="J15" s="37" t="s">
         <v>238</v>
-      </c>
-      <c r="H15" s="265"/>
-      <c r="I15" s="266"/>
-      <c r="J15" s="37" t="s">
-        <v>239</v>
       </c>
       <c r="K15" s="38"/>
       <c r="L15" s="162" t="s">
+        <v>239</v>
+      </c>
+      <c r="M15" s="269"/>
+      <c r="N15" s="270"/>
+      <c r="O15" s="37" t="s">
         <v>240</v>
-      </c>
-      <c r="M15" s="265"/>
-      <c r="N15" s="266"/>
-      <c r="O15" s="37" t="s">
-        <v>241</v>
       </c>
       <c r="P15" s="38"/>
       <c r="Q15" s="39"/>
       <c r="R15" s="29"/>
       <c r="S15" s="29"/>
-      <c r="T15" s="321" t="s">
-        <v>37</v>
-      </c>
-      <c r="U15" s="321"/>
-      <c r="V15" s="321"/>
-      <c r="W15" s="321"/>
+      <c r="T15" s="326" t="s">
+        <v>36</v>
+      </c>
+      <c r="U15" s="326"/>
+      <c r="V15" s="326"/>
+      <c r="W15" s="326"/>
       <c r="X15" s="40"/>
       <c r="Y15" s="41"/>
       <c r="Z15" s="32"/>
@@ -8947,92 +8961,92 @@
     <row r="16" spans="1:32" s="27" customFormat="1" ht="12" customHeight="1">
       <c r="A16" s="42"/>
       <c r="B16" s="43"/>
-      <c r="C16" s="257" t="s">
-        <v>73</v>
-      </c>
-      <c r="D16" s="292"/>
-      <c r="E16" s="257" t="s">
-        <v>101</v>
-      </c>
-      <c r="F16" s="258"/>
-      <c r="G16" s="257" t="s">
-        <v>129</v>
-      </c>
-      <c r="H16" s="292"/>
-      <c r="I16" s="258"/>
-      <c r="J16" s="257" t="s">
-        <v>157</v>
-      </c>
-      <c r="K16" s="258"/>
-      <c r="L16" s="257" t="s">
-        <v>185</v>
-      </c>
-      <c r="M16" s="292"/>
-      <c r="N16" s="258"/>
-      <c r="O16" s="257" t="s">
-        <v>213</v>
-      </c>
-      <c r="P16" s="258"/>
+      <c r="C16" s="261" t="s">
+        <v>72</v>
+      </c>
+      <c r="D16" s="293"/>
+      <c r="E16" s="261" t="s">
+        <v>100</v>
+      </c>
+      <c r="F16" s="262"/>
+      <c r="G16" s="261" t="s">
+        <v>128</v>
+      </c>
+      <c r="H16" s="293"/>
+      <c r="I16" s="262"/>
+      <c r="J16" s="261" t="s">
+        <v>156</v>
+      </c>
+      <c r="K16" s="262"/>
+      <c r="L16" s="261" t="s">
+        <v>184</v>
+      </c>
+      <c r="M16" s="293"/>
+      <c r="N16" s="262"/>
+      <c r="O16" s="261" t="s">
+        <v>212</v>
+      </c>
+      <c r="P16" s="262"/>
       <c r="Q16" s="43"/>
       <c r="S16" s="29"/>
-      <c r="T16" s="329" t="s">
-        <v>60</v>
-      </c>
-      <c r="U16" s="329"/>
-      <c r="V16" s="329"/>
-      <c r="W16" s="329"/>
+      <c r="T16" s="335" t="s">
+        <v>59</v>
+      </c>
+      <c r="U16" s="335"/>
+      <c r="V16" s="335"/>
+      <c r="W16" s="335"/>
       <c r="X16" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="Y16" s="314" t="s">
-        <v>68</v>
-      </c>
-      <c r="Z16" s="314"/>
+      <c r="Y16" s="325" t="s">
+        <v>67</v>
+      </c>
+      <c r="Z16" s="325"/>
       <c r="AF16" s="62"/>
     </row>
     <row r="17" spans="1:45" s="27" customFormat="1" ht="12" customHeight="1">
       <c r="A17" s="42"/>
       <c r="B17" s="43"/>
       <c r="C17" s="44" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D17" s="45" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E17" s="44" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F17" s="46" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G17" s="159" t="s">
-        <v>254</v>
-      </c>
-      <c r="H17" s="300" t="s">
-        <v>130</v>
-      </c>
-      <c r="I17" s="301"/>
+        <v>253</v>
+      </c>
+      <c r="H17" s="304" t="s">
+        <v>129</v>
+      </c>
+      <c r="I17" s="305"/>
       <c r="J17" s="44" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="K17" s="45" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="L17" s="159" t="s">
-        <v>260</v>
-      </c>
-      <c r="M17" s="300" t="s">
-        <v>186</v>
-      </c>
-      <c r="N17" s="301"/>
+        <v>259</v>
+      </c>
+      <c r="M17" s="304" t="s">
+        <v>185</v>
+      </c>
+      <c r="N17" s="305"/>
       <c r="O17" s="44" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="P17" s="47" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="Q17" s="179" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="S17" s="29"/>
       <c r="T17" s="42"/>
@@ -9043,204 +9057,204 @@
       <c r="Y17" s="48"/>
       <c r="Z17" s="32"/>
       <c r="AB17" s="27" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="AD17" s="27" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="AF17" s="62"/>
     </row>
     <row r="18" spans="1:45" s="27" customFormat="1" ht="12" customHeight="1">
       <c r="A18" s="42"/>
       <c r="B18" s="49"/>
-      <c r="C18" s="255" t="s">
-        <v>75</v>
-      </c>
-      <c r="D18" s="287"/>
-      <c r="E18" s="255" t="s">
-        <v>103</v>
-      </c>
-      <c r="F18" s="256"/>
-      <c r="G18" s="255" t="s">
-        <v>131</v>
-      </c>
-      <c r="H18" s="287"/>
-      <c r="I18" s="256"/>
-      <c r="J18" s="287" t="s">
-        <v>159</v>
-      </c>
-      <c r="K18" s="287"/>
-      <c r="L18" s="293" t="s">
-        <v>187</v>
-      </c>
-      <c r="M18" s="294"/>
-      <c r="N18" s="295"/>
-      <c r="O18" s="287" t="s">
-        <v>215</v>
-      </c>
-      <c r="P18" s="287"/>
-      <c r="Q18" s="319" t="s">
-        <v>455</v>
+      <c r="C18" s="274" t="s">
+        <v>74</v>
+      </c>
+      <c r="D18" s="303"/>
+      <c r="E18" s="274" t="s">
+        <v>102</v>
+      </c>
+      <c r="F18" s="275"/>
+      <c r="G18" s="274" t="s">
+        <v>130</v>
+      </c>
+      <c r="H18" s="303"/>
+      <c r="I18" s="275"/>
+      <c r="J18" s="303" t="s">
+        <v>158</v>
+      </c>
+      <c r="K18" s="303"/>
+      <c r="L18" s="296" t="s">
+        <v>186</v>
+      </c>
+      <c r="M18" s="297"/>
+      <c r="N18" s="298"/>
+      <c r="O18" s="303" t="s">
+        <v>214</v>
+      </c>
+      <c r="P18" s="303"/>
+      <c r="Q18" s="324" t="s">
+        <v>454</v>
       </c>
       <c r="S18" s="29"/>
-      <c r="T18" s="325"/>
-      <c r="U18" s="325"/>
-      <c r="V18" s="325"/>
-      <c r="W18" s="325"/>
+      <c r="T18" s="331"/>
+      <c r="U18" s="331"/>
+      <c r="V18" s="331"/>
+      <c r="W18" s="331"/>
       <c r="X18" s="40"/>
       <c r="Y18" s="48"/>
       <c r="Z18" s="32"/>
       <c r="AC18" s="27" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="AF18" s="62"/>
     </row>
     <row r="19" spans="1:45" s="27" customFormat="1" ht="12" customHeight="1">
       <c r="A19" s="42"/>
       <c r="B19" s="179" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C19" s="163" t="s">
+        <v>75</v>
+      </c>
+      <c r="D19" s="164" t="s">
         <v>76</v>
       </c>
-      <c r="D19" s="164" t="s">
-        <v>77</v>
-      </c>
       <c r="E19" s="163" t="s">
+        <v>103</v>
+      </c>
+      <c r="F19" s="164" t="s">
         <v>104</v>
       </c>
-      <c r="F19" s="164" t="s">
-        <v>105</v>
-      </c>
       <c r="G19" s="165" t="s">
+        <v>131</v>
+      </c>
+      <c r="H19" s="299" t="s">
         <v>132</v>
       </c>
-      <c r="H19" s="296" t="s">
-        <v>133</v>
-      </c>
-      <c r="I19" s="297"/>
+      <c r="I19" s="300"/>
       <c r="J19" s="163" t="s">
+        <v>159</v>
+      </c>
+      <c r="K19" s="164" t="s">
         <v>160</v>
       </c>
-      <c r="K19" s="164" t="s">
-        <v>161</v>
-      </c>
       <c r="L19" s="163" t="s">
+        <v>187</v>
+      </c>
+      <c r="M19" s="299" t="s">
         <v>188</v>
       </c>
-      <c r="M19" s="296" t="s">
-        <v>189</v>
-      </c>
-      <c r="N19" s="297"/>
+      <c r="N19" s="300"/>
       <c r="O19" s="166" t="s">
+        <v>215</v>
+      </c>
+      <c r="P19" s="164" t="s">
         <v>216</v>
       </c>
-      <c r="P19" s="164" t="s">
-        <v>217</v>
-      </c>
-      <c r="Q19" s="319"/>
+      <c r="Q19" s="324"/>
       <c r="S19" s="29"/>
-      <c r="T19" s="325"/>
-      <c r="U19" s="325"/>
-      <c r="V19" s="325"/>
-      <c r="W19" s="325"/>
+      <c r="T19" s="331"/>
+      <c r="U19" s="331"/>
+      <c r="V19" s="331"/>
+      <c r="W19" s="331"/>
       <c r="X19" s="40"/>
       <c r="Y19" s="48"/>
       <c r="Z19" s="32"/>
       <c r="AA19" s="42"/>
       <c r="AC19" s="27" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="AD19"/>
       <c r="AE19"/>
       <c r="AF19" s="182" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="AG19"/>
     </row>
     <row r="20" spans="1:45" s="27" customFormat="1" ht="12" customHeight="1">
       <c r="A20" s="42"/>
-      <c r="B20" s="334" t="s">
-        <v>72</v>
+      <c r="B20" s="340" t="s">
+        <v>71</v>
       </c>
       <c r="C20" s="50" t="s">
-        <v>249</v>
-      </c>
-      <c r="D20" s="340" t="s">
-        <v>78</v>
-      </c>
-      <c r="E20" s="288"/>
-      <c r="F20" s="341"/>
+        <v>248</v>
+      </c>
+      <c r="D20" s="346" t="s">
+        <v>77</v>
+      </c>
+      <c r="E20" s="308"/>
+      <c r="F20" s="347"/>
       <c r="G20" s="160" t="s">
-        <v>253</v>
-      </c>
-      <c r="H20" s="261" t="s">
-        <v>106</v>
-      </c>
-      <c r="I20" s="262"/>
+        <v>252</v>
+      </c>
+      <c r="H20" s="265" t="s">
+        <v>105</v>
+      </c>
+      <c r="I20" s="266"/>
       <c r="J20" s="50" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="K20" s="52" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="L20" s="53" t="s">
-        <v>258</v>
-      </c>
-      <c r="M20" s="285" t="s">
-        <v>162</v>
-      </c>
-      <c r="N20" s="286"/>
+        <v>257</v>
+      </c>
+      <c r="M20" s="306" t="s">
+        <v>161</v>
+      </c>
+      <c r="N20" s="307"/>
       <c r="O20" s="53" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="P20" s="51" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="Q20" s="172"/>
       <c r="S20" s="29"/>
-      <c r="T20" s="325"/>
-      <c r="U20" s="325"/>
-      <c r="V20" s="325"/>
-      <c r="W20" s="325"/>
+      <c r="T20" s="331"/>
+      <c r="U20" s="331"/>
+      <c r="V20" s="331"/>
+      <c r="W20" s="331"/>
       <c r="X20" s="40"/>
       <c r="Y20" s="48"/>
       <c r="Z20" s="32"/>
       <c r="AA20" s="42"/>
       <c r="AD20"/>
       <c r="AE20"/>
-      <c r="AF20" s="318" t="s">
-        <v>459</v>
+      <c r="AF20" s="327" t="s">
+        <v>458</v>
       </c>
       <c r="AG20"/>
     </row>
     <row r="21" spans="1:45" s="27" customFormat="1" ht="12" customHeight="1">
       <c r="A21" s="42"/>
-      <c r="B21" s="334"/>
-      <c r="C21" s="255" t="s">
-        <v>79</v>
-      </c>
-      <c r="D21" s="287"/>
-      <c r="E21" s="287"/>
-      <c r="F21" s="256"/>
-      <c r="G21" s="255" t="s">
-        <v>107</v>
-      </c>
-      <c r="H21" s="287"/>
-      <c r="I21" s="256"/>
-      <c r="J21" s="293" t="s">
-        <v>135</v>
-      </c>
-      <c r="K21" s="295"/>
-      <c r="L21" s="293" t="s">
-        <v>163</v>
-      </c>
-      <c r="M21" s="294"/>
-      <c r="N21" s="295"/>
-      <c r="O21" s="293" t="s">
-        <v>191</v>
-      </c>
-      <c r="P21" s="295"/>
+      <c r="B21" s="340"/>
+      <c r="C21" s="274" t="s">
+        <v>78</v>
+      </c>
+      <c r="D21" s="303"/>
+      <c r="E21" s="303"/>
+      <c r="F21" s="275"/>
+      <c r="G21" s="274" t="s">
+        <v>106</v>
+      </c>
+      <c r="H21" s="303"/>
+      <c r="I21" s="275"/>
+      <c r="J21" s="296" t="s">
+        <v>134</v>
+      </c>
+      <c r="K21" s="298"/>
+      <c r="L21" s="296" t="s">
+        <v>162</v>
+      </c>
+      <c r="M21" s="297"/>
+      <c r="N21" s="298"/>
+      <c r="O21" s="296" t="s">
+        <v>190</v>
+      </c>
+      <c r="P21" s="298"/>
       <c r="Q21" s="173"/>
       <c r="S21" s="29"/>
       <c r="T21" s="29"/>
@@ -9253,45 +9267,45 @@
       <c r="AA21" s="42"/>
       <c r="AD21"/>
       <c r="AE21"/>
-      <c r="AF21" s="318"/>
+      <c r="AF21" s="327"/>
       <c r="AG21"/>
     </row>
     <row r="22" spans="1:45" s="27" customFormat="1" ht="12" customHeight="1">
       <c r="A22" s="42"/>
       <c r="B22" s="43"/>
       <c r="C22" s="167" t="s">
+        <v>79</v>
+      </c>
+      <c r="D22" s="267" t="s">
         <v>80</v>
       </c>
-      <c r="D22" s="263" t="s">
-        <v>81</v>
-      </c>
-      <c r="E22" s="263"/>
-      <c r="F22" s="264"/>
+      <c r="E22" s="267"/>
+      <c r="F22" s="268"/>
       <c r="G22" s="168" t="s">
+        <v>107</v>
+      </c>
+      <c r="H22" s="267" t="s">
         <v>108</v>
       </c>
-      <c r="H22" s="263" t="s">
-        <v>109</v>
-      </c>
-      <c r="I22" s="264"/>
+      <c r="I22" s="268"/>
       <c r="J22" s="169" t="s">
+        <v>135</v>
+      </c>
+      <c r="K22" s="170" t="s">
         <v>136</v>
       </c>
-      <c r="K22" s="170" t="s">
-        <v>137</v>
-      </c>
       <c r="L22" s="169" t="s">
+        <v>163</v>
+      </c>
+      <c r="M22" s="267" t="s">
         <v>164</v>
       </c>
-      <c r="M22" s="263" t="s">
-        <v>165</v>
-      </c>
-      <c r="N22" s="264"/>
+      <c r="N22" s="268"/>
       <c r="O22" s="171" t="s">
+        <v>191</v>
+      </c>
+      <c r="P22" s="170" t="s">
         <v>192</v>
-      </c>
-      <c r="P22" s="170" t="s">
-        <v>193</v>
       </c>
       <c r="Q22" s="56"/>
       <c r="S22" s="29"/>
@@ -9311,49 +9325,49 @@
       <c r="A23" s="42"/>
       <c r="B23" s="43"/>
       <c r="C23" s="50" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D23" s="47" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E23" s="50" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F23" s="47" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G23" s="160" t="s">
-        <v>256</v>
-      </c>
-      <c r="H23" s="261" t="s">
-        <v>138</v>
-      </c>
-      <c r="I23" s="262"/>
+        <v>255</v>
+      </c>
+      <c r="H23" s="265" t="s">
+        <v>137</v>
+      </c>
+      <c r="I23" s="266"/>
       <c r="J23" s="50" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="K23" s="47" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="L23" s="160" t="s">
-        <v>262</v>
-      </c>
-      <c r="M23" s="261" t="s">
-        <v>194</v>
-      </c>
-      <c r="N23" s="262"/>
+        <v>261</v>
+      </c>
+      <c r="M23" s="265" t="s">
+        <v>193</v>
+      </c>
+      <c r="N23" s="266"/>
       <c r="O23" s="50" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="P23" s="47" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="Q23" s="179" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="S23" s="29"/>
       <c r="T23" s="31" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="U23" s="31"/>
       <c r="V23" s="31"/>
@@ -9371,45 +9385,45 @@
     <row r="24" spans="1:45" s="27" customFormat="1" ht="12" customHeight="1">
       <c r="A24" s="42"/>
       <c r="B24" s="43"/>
-      <c r="C24" s="255" t="s">
-        <v>83</v>
-      </c>
-      <c r="D24" s="287"/>
-      <c r="E24" s="255" t="s">
-        <v>111</v>
-      </c>
-      <c r="F24" s="287"/>
-      <c r="G24" s="270" t="s">
-        <v>139</v>
-      </c>
-      <c r="H24" s="271"/>
-      <c r="I24" s="272"/>
-      <c r="J24" s="255" t="s">
-        <v>167</v>
-      </c>
-      <c r="K24" s="287"/>
-      <c r="L24" s="270" t="s">
-        <v>195</v>
-      </c>
-      <c r="M24" s="271"/>
-      <c r="N24" s="272"/>
-      <c r="O24" s="255" t="s">
-        <v>219</v>
-      </c>
-      <c r="P24" s="287"/>
-      <c r="Q24" s="319" t="s">
-        <v>453</v>
+      <c r="C24" s="274" t="s">
+        <v>82</v>
+      </c>
+      <c r="D24" s="303"/>
+      <c r="E24" s="274" t="s">
+        <v>110</v>
+      </c>
+      <c r="F24" s="303"/>
+      <c r="G24" s="276" t="s">
+        <v>138</v>
+      </c>
+      <c r="H24" s="277"/>
+      <c r="I24" s="278"/>
+      <c r="J24" s="274" t="s">
+        <v>166</v>
+      </c>
+      <c r="K24" s="303"/>
+      <c r="L24" s="276" t="s">
+        <v>194</v>
+      </c>
+      <c r="M24" s="277"/>
+      <c r="N24" s="278"/>
+      <c r="O24" s="274" t="s">
+        <v>218</v>
+      </c>
+      <c r="P24" s="303"/>
+      <c r="Q24" s="324" t="s">
+        <v>452</v>
       </c>
       <c r="S24" s="29"/>
-      <c r="T24" s="302" t="s">
-        <v>233</v>
-      </c>
-      <c r="U24" s="302"/>
-      <c r="V24" s="302"/>
-      <c r="W24" s="302"/>
+      <c r="T24" s="291" t="s">
+        <v>232</v>
+      </c>
+      <c r="U24" s="291"/>
+      <c r="V24" s="291"/>
+      <c r="W24" s="291"/>
       <c r="X24" s="40"/>
       <c r="Y24" s="57" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="Z24" s="32"/>
       <c r="AD24"/>
@@ -9423,44 +9437,44 @@
       <c r="A25" s="42"/>
       <c r="B25" s="43"/>
       <c r="C25" s="163" t="s">
+        <v>83</v>
+      </c>
+      <c r="D25" s="164" t="s">
         <v>84</v>
       </c>
-      <c r="D25" s="164" t="s">
-        <v>85</v>
-      </c>
       <c r="E25" s="163" t="s">
+        <v>111</v>
+      </c>
+      <c r="F25" s="164" t="s">
         <v>112</v>
       </c>
-      <c r="F25" s="164" t="s">
-        <v>113</v>
-      </c>
       <c r="G25" s="165" t="s">
+        <v>139</v>
+      </c>
+      <c r="H25" s="301" t="s">
         <v>140</v>
       </c>
-      <c r="H25" s="298" t="s">
-        <v>141</v>
-      </c>
-      <c r="I25" s="299"/>
+      <c r="I25" s="302"/>
       <c r="J25" s="163" t="s">
+        <v>167</v>
+      </c>
+      <c r="K25" s="164" t="s">
         <v>168</v>
       </c>
-      <c r="K25" s="164" t="s">
-        <v>169</v>
-      </c>
       <c r="L25" s="163" t="s">
+        <v>195</v>
+      </c>
+      <c r="M25" s="344" t="s">
         <v>196</v>
       </c>
-      <c r="M25" s="338" t="s">
-        <v>197</v>
-      </c>
-      <c r="N25" s="339"/>
+      <c r="N25" s="345"/>
       <c r="O25" s="163" t="s">
+        <v>219</v>
+      </c>
+      <c r="P25" s="164" t="s">
         <v>220</v>
       </c>
-      <c r="P25" s="164" t="s">
-        <v>221</v>
-      </c>
-      <c r="Q25" s="319"/>
+      <c r="Q25" s="324"/>
       <c r="S25" s="29"/>
       <c r="T25" s="29"/>
       <c r="U25" s="29"/>
@@ -9480,44 +9494,44 @@
       <c r="A26" s="28"/>
       <c r="B26" s="43"/>
       <c r="C26" s="58" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D26" s="59"/>
       <c r="E26" s="58" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F26" s="60"/>
       <c r="G26" s="161" t="s">
+        <v>243</v>
+      </c>
+      <c r="H26" s="294"/>
+      <c r="I26" s="295"/>
+      <c r="J26" s="58" t="s">
         <v>244</v>
-      </c>
-      <c r="H26" s="290"/>
-      <c r="I26" s="291"/>
-      <c r="J26" s="58" t="s">
-        <v>245</v>
       </c>
       <c r="K26" s="61"/>
       <c r="L26" s="161" t="s">
+        <v>245</v>
+      </c>
+      <c r="M26" s="294"/>
+      <c r="N26" s="295"/>
+      <c r="O26" s="34" t="s">
         <v>246</v>
-      </c>
-      <c r="M26" s="290"/>
-      <c r="N26" s="291"/>
-      <c r="O26" s="34" t="s">
-        <v>247</v>
       </c>
       <c r="P26" s="61"/>
       <c r="Q26" s="43"/>
       <c r="S26" s="29"/>
-      <c r="T26" s="320" t="s">
-        <v>38</v>
-      </c>
-      <c r="U26" s="320"/>
-      <c r="V26" s="320"/>
+      <c r="T26" s="315" t="s">
+        <v>37</v>
+      </c>
+      <c r="U26" s="315"/>
+      <c r="V26" s="315"/>
       <c r="W26" s="32" t="s">
         <v>8</v>
       </c>
       <c r="X26" s="40"/>
       <c r="Y26" s="57" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="Z26" s="29"/>
       <c r="AD26"/>
@@ -9530,46 +9544,46 @@
     <row r="27" spans="1:45" s="27" customFormat="1" ht="12" customHeight="1">
       <c r="A27" s="42"/>
       <c r="B27" s="33"/>
-      <c r="C27" s="257" t="s">
-        <v>86</v>
-      </c>
-      <c r="D27" s="292"/>
-      <c r="E27" s="257" t="s">
-        <v>114</v>
-      </c>
-      <c r="F27" s="292"/>
-      <c r="G27" s="257" t="s">
-        <v>142</v>
-      </c>
-      <c r="H27" s="292"/>
-      <c r="I27" s="258"/>
-      <c r="J27" s="257" t="s">
-        <v>170</v>
-      </c>
-      <c r="K27" s="292"/>
-      <c r="L27" s="257" t="s">
-        <v>198</v>
-      </c>
-      <c r="M27" s="292"/>
-      <c r="N27" s="258"/>
-      <c r="O27" s="257" t="s">
-        <v>222</v>
-      </c>
-      <c r="P27" s="258"/>
+      <c r="C27" s="261" t="s">
+        <v>85</v>
+      </c>
+      <c r="D27" s="293"/>
+      <c r="E27" s="261" t="s">
+        <v>113</v>
+      </c>
+      <c r="F27" s="293"/>
+      <c r="G27" s="261" t="s">
+        <v>141</v>
+      </c>
+      <c r="H27" s="293"/>
+      <c r="I27" s="262"/>
+      <c r="J27" s="261" t="s">
+        <v>169</v>
+      </c>
+      <c r="K27" s="293"/>
+      <c r="L27" s="261" t="s">
+        <v>197</v>
+      </c>
+      <c r="M27" s="293"/>
+      <c r="N27" s="262"/>
+      <c r="O27" s="261" t="s">
+        <v>221</v>
+      </c>
+      <c r="P27" s="262"/>
       <c r="Q27" s="62"/>
       <c r="R27" s="29"/>
       <c r="S27" s="31"/>
-      <c r="T27" s="320" t="s">
-        <v>61</v>
-      </c>
-      <c r="U27" s="320"/>
-      <c r="V27" s="320"/>
+      <c r="T27" s="315" t="s">
+        <v>60</v>
+      </c>
+      <c r="U27" s="315"/>
+      <c r="V27" s="315"/>
       <c r="W27" s="32" t="s">
         <v>8</v>
       </c>
       <c r="X27" s="40"/>
       <c r="Y27" s="57" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="Z27" s="31"/>
       <c r="AD27"/>
@@ -9599,17 +9613,17 @@
       <c r="Q28" s="62"/>
       <c r="R28" s="29"/>
       <c r="S28" s="31"/>
-      <c r="T28" s="302" t="s">
-        <v>40</v>
-      </c>
-      <c r="U28" s="302"/>
-      <c r="V28" s="302"/>
+      <c r="T28" s="291" t="s">
+        <v>39</v>
+      </c>
+      <c r="U28" s="291"/>
+      <c r="V28" s="291"/>
       <c r="W28" s="32" t="s">
         <v>8</v>
       </c>
       <c r="X28" s="31"/>
       <c r="Y28" s="57" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="Z28" s="31"/>
       <c r="AD28"/>
@@ -9636,12 +9650,12 @@
       <c r="N29" s="62"/>
       <c r="O29" s="62"/>
       <c r="P29" s="62" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Q29" s="62"/>
       <c r="R29" s="29"/>
       <c r="S29" s="31" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T29" s="29"/>
       <c r="U29" s="62"/>
@@ -9682,14 +9696,14 @@
       <c r="Q30" s="25"/>
       <c r="R30" s="65"/>
       <c r="S30" s="65" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T30" s="65"/>
       <c r="U30" s="65"/>
       <c r="V30" s="66"/>
       <c r="W30" s="66"/>
       <c r="X30" s="67" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Y30" s="68"/>
       <c r="Z30" s="25"/>
@@ -9707,7 +9721,7 @@
       <c r="D31" s="26"/>
       <c r="E31" s="26"/>
       <c r="F31" s="26" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G31" s="26"/>
       <c r="H31" s="26"/>
@@ -9722,12 +9736,12 @@
       <c r="Q31" s="25"/>
       <c r="R31" s="65"/>
       <c r="S31" s="69"/>
-      <c r="T31" s="321" t="s">
-        <v>37</v>
-      </c>
-      <c r="U31" s="321"/>
-      <c r="V31" s="321"/>
-      <c r="W31" s="321"/>
+      <c r="T31" s="326" t="s">
+        <v>36</v>
+      </c>
+      <c r="U31" s="326"/>
+      <c r="V31" s="326"/>
+      <c r="W31" s="326"/>
       <c r="X31" s="67"/>
       <c r="Y31" s="68"/>
       <c r="Z31" s="32"/>
@@ -9758,32 +9772,32 @@
       <c r="Q32" s="70"/>
       <c r="R32" s="70"/>
       <c r="S32" s="70"/>
-      <c r="T32" s="322" t="s">
-        <v>69</v>
-      </c>
-      <c r="U32" s="322"/>
-      <c r="V32" s="322"/>
-      <c r="W32" s="322"/>
+      <c r="T32" s="328" t="s">
+        <v>68</v>
+      </c>
+      <c r="U32" s="328"/>
+      <c r="V32" s="328"/>
+      <c r="W32" s="328"/>
       <c r="X32" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="Y32" s="314" t="s">
-        <v>70</v>
-      </c>
-      <c r="Z32" s="314"/>
+      <c r="Y32" s="325" t="s">
+        <v>69</v>
+      </c>
+      <c r="Z32" s="325"/>
       <c r="AD32"/>
       <c r="AE32"/>
       <c r="AF32"/>
       <c r="AG32"/>
       <c r="AH32"/>
       <c r="AI32"/>
-      <c r="AJ32" s="312"/>
-      <c r="AK32" s="312"/>
+      <c r="AJ32" s="314"/>
+      <c r="AK32" s="314"/>
       <c r="AL32" s="72"/>
       <c r="AM32" s="72"/>
       <c r="AN32" s="72"/>
-      <c r="AO32" s="312"/>
-      <c r="AP32" s="312"/>
+      <c r="AO32" s="314"/>
+      <c r="AP32" s="314"/>
       <c r="AQ32" s="72"/>
       <c r="AR32" s="72"/>
       <c r="AS32" s="72"/>
@@ -9792,29 +9806,29 @@
       <c r="A33" s="28"/>
       <c r="B33" s="33"/>
       <c r="C33" s="34" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D33" s="35"/>
       <c r="E33" s="34" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F33" s="36"/>
       <c r="G33" s="162" t="s">
+        <v>266</v>
+      </c>
+      <c r="H33" s="269"/>
+      <c r="I33" s="270"/>
+      <c r="J33" s="156" t="s">
         <v>267</v>
-      </c>
-      <c r="H33" s="265"/>
-      <c r="I33" s="266"/>
-      <c r="J33" s="156" t="s">
-        <v>268</v>
       </c>
       <c r="K33" s="38"/>
       <c r="L33" s="162" t="s">
+        <v>268</v>
+      </c>
+      <c r="M33" s="269"/>
+      <c r="N33" s="270"/>
+      <c r="O33" s="156" t="s">
         <v>269</v>
-      </c>
-      <c r="M33" s="265"/>
-      <c r="N33" s="266"/>
-      <c r="O33" s="156" t="s">
-        <v>270</v>
       </c>
       <c r="P33" s="38"/>
       <c r="Q33" s="39"/>
@@ -9834,46 +9848,46 @@
       <c r="AG33"/>
       <c r="AH33"/>
       <c r="AI33"/>
-      <c r="AJ33" s="311"/>
-      <c r="AK33" s="311"/>
-      <c r="AL33" s="311"/>
-      <c r="AM33" s="311"/>
-      <c r="AN33" s="311"/>
-      <c r="AO33" s="311"/>
-      <c r="AP33" s="311"/>
-      <c r="AQ33" s="311"/>
-      <c r="AR33" s="311"/>
-      <c r="AS33" s="311"/>
+      <c r="AJ33" s="313"/>
+      <c r="AK33" s="313"/>
+      <c r="AL33" s="313"/>
+      <c r="AM33" s="313"/>
+      <c r="AN33" s="313"/>
+      <c r="AO33" s="313"/>
+      <c r="AP33" s="313"/>
+      <c r="AQ33" s="313"/>
+      <c r="AR33" s="313"/>
+      <c r="AS33" s="313"/>
     </row>
     <row r="34" spans="1:45" s="27" customFormat="1" ht="12" customHeight="1">
       <c r="A34" s="75"/>
       <c r="B34" s="43"/>
-      <c r="C34" s="257" t="s">
-        <v>87</v>
-      </c>
-      <c r="D34" s="258"/>
-      <c r="E34" s="257" t="s">
-        <v>115</v>
-      </c>
-      <c r="F34" s="258"/>
-      <c r="G34" s="257" t="s">
-        <v>143</v>
-      </c>
-      <c r="H34" s="292"/>
-      <c r="I34" s="258"/>
-      <c r="J34" s="257" t="s">
-        <v>171</v>
-      </c>
-      <c r="K34" s="258"/>
-      <c r="L34" s="257" t="s">
-        <v>199</v>
-      </c>
-      <c r="M34" s="292"/>
-      <c r="N34" s="258"/>
-      <c r="O34" s="257" t="s">
-        <v>223</v>
-      </c>
-      <c r="P34" s="258"/>
+      <c r="C34" s="261" t="s">
+        <v>86</v>
+      </c>
+      <c r="D34" s="262"/>
+      <c r="E34" s="261" t="s">
+        <v>114</v>
+      </c>
+      <c r="F34" s="262"/>
+      <c r="G34" s="261" t="s">
+        <v>142</v>
+      </c>
+      <c r="H34" s="293"/>
+      <c r="I34" s="262"/>
+      <c r="J34" s="261" t="s">
+        <v>170</v>
+      </c>
+      <c r="K34" s="262"/>
+      <c r="L34" s="261" t="s">
+        <v>198</v>
+      </c>
+      <c r="M34" s="293"/>
+      <c r="N34" s="262"/>
+      <c r="O34" s="261" t="s">
+        <v>222</v>
+      </c>
+      <c r="P34" s="262"/>
       <c r="Q34" s="43"/>
       <c r="S34" s="73"/>
       <c r="T34" s="74"/>
@@ -9885,19 +9899,19 @@
       <c r="Z34" s="74"/>
       <c r="AA34" s="74"/>
       <c r="AB34" s="27" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="AF34" s="62"/>
       <c r="AG34"/>
       <c r="AH34"/>
       <c r="AI34"/>
-      <c r="AJ34" s="315"/>
-      <c r="AK34" s="315"/>
+      <c r="AJ34" s="322"/>
+      <c r="AK34" s="322"/>
       <c r="AL34" s="77"/>
       <c r="AM34" s="76"/>
       <c r="AN34" s="77"/>
-      <c r="AO34" s="315"/>
-      <c r="AP34" s="315"/>
+      <c r="AO34" s="322"/>
+      <c r="AP34" s="322"/>
       <c r="AQ34" s="77"/>
       <c r="AR34" s="76"/>
       <c r="AS34" s="77"/>
@@ -9906,45 +9920,45 @@
       <c r="A35" s="75"/>
       <c r="B35" s="43"/>
       <c r="C35" s="159" t="s">
+        <v>270</v>
+      </c>
+      <c r="D35" s="45" t="s">
+        <v>87</v>
+      </c>
+      <c r="E35" s="159" t="s">
         <v>271</v>
       </c>
-      <c r="D35" s="45" t="s">
-        <v>88</v>
-      </c>
-      <c r="E35" s="159" t="s">
+      <c r="F35" s="46" t="s">
+        <v>115</v>
+      </c>
+      <c r="G35" s="159" t="s">
         <v>272</v>
       </c>
-      <c r="F35" s="46" t="s">
-        <v>116</v>
-      </c>
-      <c r="G35" s="159" t="s">
+      <c r="H35" s="304" t="s">
+        <v>143</v>
+      </c>
+      <c r="I35" s="305"/>
+      <c r="J35" s="159" t="s">
         <v>273</v>
       </c>
-      <c r="H35" s="300" t="s">
-        <v>144</v>
-      </c>
-      <c r="I35" s="301"/>
-      <c r="J35" s="159" t="s">
+      <c r="K35" s="45" t="s">
+        <v>171</v>
+      </c>
+      <c r="L35" s="159" t="s">
         <v>274</v>
       </c>
-      <c r="K35" s="45" t="s">
-        <v>172</v>
-      </c>
-      <c r="L35" s="159" t="s">
+      <c r="M35" s="304" t="s">
+        <v>199</v>
+      </c>
+      <c r="N35" s="305"/>
+      <c r="O35" s="159" t="s">
         <v>275</v>
       </c>
-      <c r="M35" s="300" t="s">
-        <v>200</v>
-      </c>
-      <c r="N35" s="301"/>
-      <c r="O35" s="159" t="s">
-        <v>276</v>
-      </c>
       <c r="P35" s="47" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="Q35" s="183" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="S35" s="73"/>
       <c r="T35" s="74"/>
@@ -9956,57 +9970,57 @@
       <c r="Z35" s="74"/>
       <c r="AA35" s="74"/>
       <c r="AB35" s="27" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="AD35" s="27" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="AF35" s="62"/>
       <c r="AG35"/>
       <c r="AH35"/>
       <c r="AI35"/>
-      <c r="AJ35" s="311"/>
-      <c r="AK35" s="311"/>
-      <c r="AL35" s="311"/>
-      <c r="AM35" s="311"/>
-      <c r="AN35" s="311"/>
-      <c r="AO35" s="271"/>
-      <c r="AP35" s="271"/>
-      <c r="AQ35" s="271"/>
-      <c r="AR35" s="316"/>
-      <c r="AS35" s="316"/>
+      <c r="AJ35" s="313"/>
+      <c r="AK35" s="313"/>
+      <c r="AL35" s="313"/>
+      <c r="AM35" s="313"/>
+      <c r="AN35" s="313"/>
+      <c r="AO35" s="277"/>
+      <c r="AP35" s="277"/>
+      <c r="AQ35" s="277"/>
+      <c r="AR35" s="323"/>
+      <c r="AS35" s="323"/>
     </row>
     <row r="36" spans="1:45" s="27" customFormat="1" ht="12" customHeight="1">
       <c r="A36" s="75"/>
       <c r="B36" s="43"/>
-      <c r="C36" s="255" t="s">
-        <v>89</v>
-      </c>
-      <c r="D36" s="256"/>
-      <c r="E36" s="255" t="s">
-        <v>117</v>
-      </c>
-      <c r="F36" s="256"/>
-      <c r="G36" s="255" t="s">
-        <v>145</v>
-      </c>
-      <c r="H36" s="287"/>
-      <c r="I36" s="256"/>
-      <c r="J36" s="255" t="s">
-        <v>173</v>
-      </c>
-      <c r="K36" s="256"/>
-      <c r="L36" s="293" t="s">
-        <v>201</v>
-      </c>
-      <c r="M36" s="294"/>
-      <c r="N36" s="295"/>
-      <c r="O36" s="255" t="s">
-        <v>225</v>
-      </c>
-      <c r="P36" s="256"/>
-      <c r="Q36" s="319" t="s">
-        <v>456</v>
+      <c r="C36" s="274" t="s">
+        <v>88</v>
+      </c>
+      <c r="D36" s="275"/>
+      <c r="E36" s="274" t="s">
+        <v>116</v>
+      </c>
+      <c r="F36" s="275"/>
+      <c r="G36" s="274" t="s">
+        <v>144</v>
+      </c>
+      <c r="H36" s="303"/>
+      <c r="I36" s="275"/>
+      <c r="J36" s="274" t="s">
+        <v>172</v>
+      </c>
+      <c r="K36" s="275"/>
+      <c r="L36" s="296" t="s">
+        <v>200</v>
+      </c>
+      <c r="M36" s="297"/>
+      <c r="N36" s="298"/>
+      <c r="O36" s="274" t="s">
+        <v>224</v>
+      </c>
+      <c r="P36" s="275"/>
+      <c r="Q36" s="324" t="s">
+        <v>455</v>
       </c>
       <c r="S36" s="73"/>
       <c r="T36" s="74"/>
@@ -10018,7 +10032,7 @@
       <c r="Z36" s="74"/>
       <c r="AA36" s="74"/>
       <c r="AC36" s="27" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="AF36" s="62"/>
       <c r="AG36"/>
@@ -10038,47 +10052,47 @@
     <row r="37" spans="1:45" s="27" customFormat="1" ht="12" customHeight="1">
       <c r="A37" s="75"/>
       <c r="B37" s="181" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C37" s="163" t="s">
+        <v>89</v>
+      </c>
+      <c r="D37" s="164" t="s">
         <v>90</v>
       </c>
-      <c r="D37" s="164" t="s">
-        <v>91</v>
-      </c>
       <c r="E37" s="163" t="s">
+        <v>117</v>
+      </c>
+      <c r="F37" s="164" t="s">
         <v>118</v>
       </c>
-      <c r="F37" s="164" t="s">
-        <v>119</v>
-      </c>
       <c r="G37" s="163" t="s">
+        <v>145</v>
+      </c>
+      <c r="H37" s="299" t="s">
         <v>146</v>
       </c>
-      <c r="H37" s="296" t="s">
-        <v>147</v>
-      </c>
-      <c r="I37" s="297"/>
+      <c r="I37" s="300"/>
       <c r="J37" s="163" t="s">
+        <v>173</v>
+      </c>
+      <c r="K37" s="164" t="s">
         <v>174</v>
       </c>
-      <c r="K37" s="164" t="s">
-        <v>175</v>
-      </c>
       <c r="L37" s="163" t="s">
+        <v>201</v>
+      </c>
+      <c r="M37" s="299" t="s">
         <v>202</v>
       </c>
-      <c r="M37" s="296" t="s">
-        <v>203</v>
-      </c>
-      <c r="N37" s="297"/>
+      <c r="N37" s="300"/>
       <c r="O37" s="166" t="s">
+        <v>225</v>
+      </c>
+      <c r="P37" s="164" t="s">
         <v>226</v>
       </c>
-      <c r="P37" s="164" t="s">
-        <v>227</v>
-      </c>
-      <c r="Q37" s="319"/>
+      <c r="Q37" s="324"/>
       <c r="S37" s="83"/>
       <c r="T37" s="74"/>
       <c r="U37" s="74"/>
@@ -10089,63 +10103,63 @@
       <c r="Z37" s="74"/>
       <c r="AA37" s="74"/>
       <c r="AC37" s="27" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="AF37" s="182" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="AG37" s="176"/>
       <c r="AH37" s="176"/>
       <c r="AI37" s="176"/>
-      <c r="AJ37" s="313"/>
-      <c r="AK37" s="313"/>
+      <c r="AJ37" s="320"/>
+      <c r="AK37" s="320"/>
       <c r="AL37" s="77"/>
       <c r="AM37" s="55"/>
       <c r="AN37" s="78"/>
       <c r="AO37" s="55"/>
-      <c r="AP37" s="317"/>
-      <c r="AQ37" s="317"/>
+      <c r="AP37" s="321"/>
+      <c r="AQ37" s="321"/>
       <c r="AR37" s="55"/>
       <c r="AS37" s="77"/>
     </row>
     <row r="38" spans="1:45" s="27" customFormat="1" ht="12" customHeight="1">
       <c r="A38" s="75"/>
-      <c r="B38" s="334" t="s">
-        <v>232</v>
+      <c r="B38" s="340" t="s">
+        <v>231</v>
       </c>
       <c r="C38" s="157" t="s">
+        <v>276</v>
+      </c>
+      <c r="D38" s="308" t="s">
+        <v>91</v>
+      </c>
+      <c r="E38" s="308"/>
+      <c r="F38" s="309"/>
+      <c r="G38" s="160" t="s">
         <v>277</v>
       </c>
-      <c r="D38" s="288" t="s">
-        <v>92</v>
-      </c>
-      <c r="E38" s="288"/>
-      <c r="F38" s="289"/>
-      <c r="G38" s="160" t="s">
+      <c r="H38" s="265" t="s">
+        <v>119</v>
+      </c>
+      <c r="I38" s="266"/>
+      <c r="J38" s="157" t="s">
         <v>278</v>
       </c>
-      <c r="H38" s="261" t="s">
-        <v>120</v>
-      </c>
-      <c r="I38" s="262"/>
-      <c r="J38" s="157" t="s">
+      <c r="K38" s="158" t="s">
+        <v>147</v>
+      </c>
+      <c r="L38" s="53" t="s">
         <v>279</v>
       </c>
-      <c r="K38" s="158" t="s">
-        <v>148</v>
-      </c>
-      <c r="L38" s="53" t="s">
+      <c r="M38" s="306" t="s">
+        <v>175</v>
+      </c>
+      <c r="N38" s="307"/>
+      <c r="O38" s="53" t="s">
         <v>280</v>
       </c>
-      <c r="M38" s="285" t="s">
-        <v>176</v>
-      </c>
-      <c r="N38" s="286"/>
-      <c r="O38" s="53" t="s">
-        <v>281</v>
-      </c>
       <c r="P38" s="51" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="Q38" s="172"/>
       <c r="S38" s="73"/>
@@ -10156,54 +10170,54 @@
       <c r="X38" s="29"/>
       <c r="Y38" s="84"/>
       <c r="Z38" s="29"/>
-      <c r="AF38" s="318" t="s">
-        <v>466</v>
+      <c r="AF38" s="327" t="s">
+        <v>465</v>
       </c>
       <c r="AG38" s="175"/>
       <c r="AH38" s="175"/>
       <c r="AI38" s="175"/>
-      <c r="AJ38" s="311"/>
-      <c r="AK38" s="311"/>
-      <c r="AL38" s="311"/>
-      <c r="AM38" s="271"/>
-      <c r="AN38" s="271"/>
-      <c r="AO38" s="271"/>
-      <c r="AP38" s="271"/>
-      <c r="AQ38" s="271"/>
-      <c r="AR38" s="271"/>
-      <c r="AS38" s="271"/>
+      <c r="AJ38" s="313"/>
+      <c r="AK38" s="313"/>
+      <c r="AL38" s="313"/>
+      <c r="AM38" s="277"/>
+      <c r="AN38" s="277"/>
+      <c r="AO38" s="277"/>
+      <c r="AP38" s="277"/>
+      <c r="AQ38" s="277"/>
+      <c r="AR38" s="277"/>
+      <c r="AS38" s="277"/>
     </row>
     <row r="39" spans="1:45" s="27" customFormat="1" ht="12" customHeight="1">
       <c r="A39" s="75"/>
-      <c r="B39" s="334"/>
-      <c r="C39" s="255" t="s">
-        <v>93</v>
-      </c>
-      <c r="D39" s="287"/>
-      <c r="E39" s="287"/>
-      <c r="F39" s="256"/>
-      <c r="G39" s="255" t="s">
-        <v>121</v>
-      </c>
-      <c r="H39" s="287"/>
-      <c r="I39" s="256"/>
-      <c r="J39" s="293" t="s">
-        <v>149</v>
-      </c>
-      <c r="K39" s="295"/>
-      <c r="L39" s="293" t="s">
-        <v>177</v>
-      </c>
-      <c r="M39" s="294"/>
-      <c r="N39" s="295"/>
-      <c r="O39" s="293" t="s">
-        <v>205</v>
-      </c>
-      <c r="P39" s="295"/>
+      <c r="B39" s="340"/>
+      <c r="C39" s="274" t="s">
+        <v>92</v>
+      </c>
+      <c r="D39" s="303"/>
+      <c r="E39" s="303"/>
+      <c r="F39" s="275"/>
+      <c r="G39" s="274" t="s">
+        <v>120</v>
+      </c>
+      <c r="H39" s="303"/>
+      <c r="I39" s="275"/>
+      <c r="J39" s="296" t="s">
+        <v>148</v>
+      </c>
+      <c r="K39" s="298"/>
+      <c r="L39" s="296" t="s">
+        <v>176</v>
+      </c>
+      <c r="M39" s="297"/>
+      <c r="N39" s="298"/>
+      <c r="O39" s="296" t="s">
+        <v>204</v>
+      </c>
+      <c r="P39" s="298"/>
       <c r="Q39" s="173"/>
       <c r="S39" s="83"/>
       <c r="T39" s="31" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="U39" s="31"/>
       <c r="V39" s="31"/>
@@ -10211,7 +10225,7 @@
       <c r="X39" s="29"/>
       <c r="Y39" s="84"/>
       <c r="Z39" s="32"/>
-      <c r="AF39" s="318"/>
+      <c r="AF39" s="327"/>
       <c r="AG39" s="177"/>
       <c r="AH39" s="177"/>
       <c r="AI39" s="82"/>
@@ -10230,63 +10244,63 @@
       <c r="A40" s="75"/>
       <c r="B40" s="43"/>
       <c r="C40" s="167" t="s">
+        <v>93</v>
+      </c>
+      <c r="D40" s="267" t="s">
         <v>94</v>
       </c>
-      <c r="D40" s="263" t="s">
-        <v>95</v>
-      </c>
-      <c r="E40" s="263"/>
-      <c r="F40" s="264"/>
+      <c r="E40" s="267"/>
+      <c r="F40" s="268"/>
       <c r="G40" s="168" t="s">
+        <v>121</v>
+      </c>
+      <c r="H40" s="267" t="s">
         <v>122</v>
       </c>
-      <c r="H40" s="263" t="s">
-        <v>123</v>
-      </c>
-      <c r="I40" s="264"/>
+      <c r="I40" s="268"/>
       <c r="J40" s="169" t="s">
+        <v>149</v>
+      </c>
+      <c r="K40" s="170" t="s">
         <v>150</v>
       </c>
-      <c r="K40" s="170" t="s">
-        <v>151</v>
-      </c>
       <c r="L40" s="169" t="s">
+        <v>177</v>
+      </c>
+      <c r="M40" s="267" t="s">
         <v>178</v>
       </c>
-      <c r="M40" s="263" t="s">
-        <v>179</v>
-      </c>
-      <c r="N40" s="264"/>
+      <c r="N40" s="268"/>
       <c r="O40" s="171" t="s">
+        <v>205</v>
+      </c>
+      <c r="P40" s="170" t="s">
         <v>206</v>
-      </c>
-      <c r="P40" s="170" t="s">
-        <v>207</v>
       </c>
       <c r="Q40" s="56"/>
       <c r="S40" s="25"/>
-      <c r="T40" s="302" t="s">
-        <v>233</v>
-      </c>
-      <c r="U40" s="302"/>
-      <c r="V40" s="302"/>
-      <c r="W40" s="302"/>
+      <c r="T40" s="291" t="s">
+        <v>232</v>
+      </c>
+      <c r="U40" s="291"/>
+      <c r="V40" s="291"/>
+      <c r="W40" s="291"/>
       <c r="X40" s="40"/>
       <c r="Y40" s="85" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="Z40" s="32"/>
       <c r="AF40" s="180"/>
       <c r="AG40" s="77"/>
       <c r="AH40" s="177"/>
       <c r="AI40" s="176"/>
-      <c r="AJ40" s="313"/>
-      <c r="AK40" s="313"/>
+      <c r="AJ40" s="320"/>
+      <c r="AK40" s="320"/>
       <c r="AL40" s="77"/>
       <c r="AM40" s="55"/>
       <c r="AN40" s="77"/>
-      <c r="AO40" s="313"/>
-      <c r="AP40" s="313"/>
+      <c r="AO40" s="320"/>
+      <c r="AP40" s="320"/>
       <c r="AQ40" s="77"/>
       <c r="AR40" s="55"/>
       <c r="AS40" s="77"/>
@@ -10295,45 +10309,45 @@
       <c r="A41" s="75"/>
       <c r="B41" s="43"/>
       <c r="C41" s="157" t="s">
+        <v>281</v>
+      </c>
+      <c r="D41" s="47" t="s">
+        <v>95</v>
+      </c>
+      <c r="E41" s="157" t="s">
         <v>282</v>
       </c>
-      <c r="D41" s="47" t="s">
-        <v>96</v>
-      </c>
-      <c r="E41" s="157" t="s">
+      <c r="F41" s="47" t="s">
+        <v>123</v>
+      </c>
+      <c r="G41" s="160" t="s">
         <v>283</v>
       </c>
-      <c r="F41" s="47" t="s">
-        <v>124</v>
-      </c>
-      <c r="G41" s="160" t="s">
+      <c r="H41" s="265" t="s">
+        <v>151</v>
+      </c>
+      <c r="I41" s="266"/>
+      <c r="J41" s="157" t="s">
         <v>284</v>
       </c>
-      <c r="H41" s="261" t="s">
-        <v>152</v>
-      </c>
-      <c r="I41" s="262"/>
-      <c r="J41" s="157" t="s">
+      <c r="K41" s="47" t="s">
+        <v>179</v>
+      </c>
+      <c r="L41" s="160" t="s">
         <v>285</v>
       </c>
-      <c r="K41" s="47" t="s">
-        <v>180</v>
-      </c>
-      <c r="L41" s="160" t="s">
+      <c r="M41" s="265" t="s">
+        <v>207</v>
+      </c>
+      <c r="N41" s="266"/>
+      <c r="O41" s="157" t="s">
         <v>286</v>
       </c>
-      <c r="M41" s="261" t="s">
-        <v>208</v>
-      </c>
-      <c r="N41" s="262"/>
-      <c r="O41" s="157" t="s">
-        <v>287</v>
-      </c>
       <c r="P41" s="47" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="Q41" s="183" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="S41" s="70"/>
       <c r="T41" s="29"/>
@@ -10347,61 +10361,61 @@
       <c r="AG41" s="174"/>
       <c r="AH41" s="174"/>
       <c r="AI41" s="174"/>
-      <c r="AJ41" s="271"/>
-      <c r="AK41" s="271"/>
-      <c r="AL41" s="271"/>
-      <c r="AM41" s="311"/>
-      <c r="AN41" s="311"/>
-      <c r="AO41" s="271"/>
-      <c r="AP41" s="271"/>
-      <c r="AQ41" s="271"/>
-      <c r="AR41" s="271"/>
-      <c r="AS41" s="271"/>
+      <c r="AJ41" s="277"/>
+      <c r="AK41" s="277"/>
+      <c r="AL41" s="277"/>
+      <c r="AM41" s="313"/>
+      <c r="AN41" s="313"/>
+      <c r="AO41" s="277"/>
+      <c r="AP41" s="277"/>
+      <c r="AQ41" s="277"/>
+      <c r="AR41" s="277"/>
+      <c r="AS41" s="277"/>
     </row>
     <row r="42" spans="1:45" s="27" customFormat="1" ht="12" customHeight="1">
       <c r="A42" s="75"/>
       <c r="B42" s="43"/>
-      <c r="C42" s="255" t="s">
-        <v>97</v>
-      </c>
-      <c r="D42" s="256"/>
-      <c r="E42" s="255" t="s">
-        <v>125</v>
-      </c>
-      <c r="F42" s="256"/>
-      <c r="G42" s="270" t="s">
-        <v>153</v>
-      </c>
-      <c r="H42" s="271"/>
-      <c r="I42" s="272"/>
-      <c r="J42" s="255" t="s">
-        <v>181</v>
-      </c>
-      <c r="K42" s="256"/>
-      <c r="L42" s="270" t="s">
-        <v>209</v>
-      </c>
-      <c r="M42" s="271"/>
-      <c r="N42" s="272"/>
-      <c r="O42" s="255" t="s">
-        <v>229</v>
-      </c>
-      <c r="P42" s="256"/>
-      <c r="Q42" s="319" t="s">
-        <v>454</v>
+      <c r="C42" s="274" t="s">
+        <v>96</v>
+      </c>
+      <c r="D42" s="275"/>
+      <c r="E42" s="274" t="s">
+        <v>124</v>
+      </c>
+      <c r="F42" s="275"/>
+      <c r="G42" s="276" t="s">
+        <v>152</v>
+      </c>
+      <c r="H42" s="277"/>
+      <c r="I42" s="278"/>
+      <c r="J42" s="274" t="s">
+        <v>180</v>
+      </c>
+      <c r="K42" s="275"/>
+      <c r="L42" s="276" t="s">
+        <v>208</v>
+      </c>
+      <c r="M42" s="277"/>
+      <c r="N42" s="278"/>
+      <c r="O42" s="274" t="s">
+        <v>228</v>
+      </c>
+      <c r="P42" s="275"/>
+      <c r="Q42" s="324" t="s">
+        <v>453</v>
       </c>
       <c r="S42" s="29"/>
-      <c r="T42" s="320" t="s">
-        <v>38</v>
-      </c>
-      <c r="U42" s="320"/>
-      <c r="V42" s="320"/>
+      <c r="T42" s="315" t="s">
+        <v>37</v>
+      </c>
+      <c r="U42" s="315"/>
+      <c r="V42" s="315"/>
       <c r="W42" s="32" t="s">
         <v>8</v>
       </c>
       <c r="X42" s="40"/>
       <c r="Y42" s="85" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="Z42" s="29"/>
       <c r="AF42" s="62"/>
@@ -10423,69 +10437,69 @@
       <c r="A43" s="75"/>
       <c r="B43" s="43"/>
       <c r="C43" s="163" t="s">
+        <v>97</v>
+      </c>
+      <c r="D43" s="164" t="s">
         <v>98</v>
       </c>
-      <c r="D43" s="164" t="s">
-        <v>99</v>
-      </c>
       <c r="E43" s="163" t="s">
+        <v>125</v>
+      </c>
+      <c r="F43" s="164" t="s">
         <v>126</v>
       </c>
-      <c r="F43" s="164" t="s">
-        <v>127</v>
-      </c>
       <c r="G43" s="163" t="s">
+        <v>153</v>
+      </c>
+      <c r="H43" s="301" t="s">
         <v>154</v>
       </c>
-      <c r="H43" s="298" t="s">
-        <v>155</v>
-      </c>
-      <c r="I43" s="299"/>
+      <c r="I43" s="302"/>
       <c r="J43" s="163" t="s">
+        <v>181</v>
+      </c>
+      <c r="K43" s="164" t="s">
         <v>182</v>
       </c>
-      <c r="K43" s="164" t="s">
-        <v>183</v>
-      </c>
       <c r="L43" s="163" t="s">
+        <v>209</v>
+      </c>
+      <c r="M43" s="299" t="s">
         <v>210</v>
       </c>
-      <c r="M43" s="296" t="s">
-        <v>211</v>
-      </c>
-      <c r="N43" s="297"/>
+      <c r="N43" s="300"/>
       <c r="O43" s="163" t="s">
+        <v>229</v>
+      </c>
+      <c r="P43" s="164" t="s">
         <v>230</v>
       </c>
-      <c r="P43" s="164" t="s">
-        <v>231</v>
-      </c>
-      <c r="Q43" s="319"/>
+      <c r="Q43" s="324"/>
       <c r="S43" s="29"/>
-      <c r="T43" s="320" t="s">
-        <v>61</v>
-      </c>
-      <c r="U43" s="320"/>
-      <c r="V43" s="320"/>
+      <c r="T43" s="315" t="s">
+        <v>60</v>
+      </c>
+      <c r="U43" s="315"/>
+      <c r="V43" s="315"/>
       <c r="W43" s="32" t="s">
         <v>8</v>
       </c>
       <c r="X43" s="40"/>
       <c r="Y43" s="85" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="Z43" s="31"/>
       <c r="AF43" s="62"/>
       <c r="AG43" s="178"/>
       <c r="AH43" s="178"/>
       <c r="AI43" s="178"/>
-      <c r="AJ43" s="312"/>
-      <c r="AK43" s="312"/>
+      <c r="AJ43" s="314"/>
+      <c r="AK43" s="314"/>
       <c r="AL43" s="72"/>
       <c r="AM43" s="72"/>
       <c r="AN43" s="72"/>
-      <c r="AO43" s="312"/>
-      <c r="AP43" s="312"/>
+      <c r="AO43" s="314"/>
+      <c r="AP43" s="314"/>
       <c r="AQ43" s="72"/>
       <c r="AR43" s="72"/>
       <c r="AS43" s="72"/>
@@ -10494,93 +10508,93 @@
       <c r="A44" s="86"/>
       <c r="B44" s="43"/>
       <c r="C44" s="58" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D44" s="59"/>
       <c r="E44" s="58" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="F44" s="60"/>
       <c r="G44" s="162" t="s">
+        <v>289</v>
+      </c>
+      <c r="H44" s="269"/>
+      <c r="I44" s="270"/>
+      <c r="J44" s="58" t="s">
         <v>290</v>
-      </c>
-      <c r="H44" s="265"/>
-      <c r="I44" s="266"/>
-      <c r="J44" s="58" t="s">
-        <v>291</v>
       </c>
       <c r="K44" s="61"/>
       <c r="L44" s="162" t="s">
+        <v>291</v>
+      </c>
+      <c r="M44" s="269"/>
+      <c r="N44" s="270"/>
+      <c r="O44" s="34" t="s">
         <v>292</v>
-      </c>
-      <c r="M44" s="265"/>
-      <c r="N44" s="266"/>
-      <c r="O44" s="34" t="s">
-        <v>293</v>
       </c>
       <c r="P44" s="61"/>
       <c r="Q44" s="43"/>
       <c r="S44" s="29"/>
-      <c r="T44" s="302" t="s">
-        <v>40</v>
-      </c>
-      <c r="U44" s="302"/>
-      <c r="V44" s="302"/>
+      <c r="T44" s="291" t="s">
+        <v>39</v>
+      </c>
+      <c r="U44" s="291"/>
+      <c r="V44" s="291"/>
       <c r="W44" s="32" t="s">
         <v>8</v>
       </c>
       <c r="X44" s="31"/>
       <c r="Y44" s="85" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="Z44" s="31"/>
       <c r="AC44" s="27" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="AF44" s="62"/>
       <c r="AG44" s="175"/>
       <c r="AH44" s="175"/>
       <c r="AI44" s="175"/>
-      <c r="AJ44" s="311"/>
-      <c r="AK44" s="311"/>
-      <c r="AL44" s="311"/>
-      <c r="AM44" s="311"/>
-      <c r="AN44" s="311"/>
-      <c r="AO44" s="311"/>
-      <c r="AP44" s="311"/>
-      <c r="AQ44" s="311"/>
-      <c r="AR44" s="311"/>
-      <c r="AS44" s="311"/>
+      <c r="AJ44" s="313"/>
+      <c r="AK44" s="313"/>
+      <c r="AL44" s="313"/>
+      <c r="AM44" s="313"/>
+      <c r="AN44" s="313"/>
+      <c r="AO44" s="313"/>
+      <c r="AP44" s="313"/>
+      <c r="AQ44" s="313"/>
+      <c r="AR44" s="313"/>
+      <c r="AS44" s="313"/>
     </row>
     <row r="45" spans="1:45" s="27" customFormat="1" ht="12" customHeight="1">
       <c r="A45" s="42"/>
       <c r="B45" s="33"/>
-      <c r="C45" s="257" t="s">
-        <v>100</v>
-      </c>
-      <c r="D45" s="258"/>
-      <c r="E45" s="257" t="s">
-        <v>128</v>
-      </c>
-      <c r="F45" s="258"/>
-      <c r="G45" s="257" t="s">
-        <v>156</v>
-      </c>
-      <c r="H45" s="292"/>
-      <c r="I45" s="258"/>
-      <c r="J45" s="257" t="s">
-        <v>184</v>
-      </c>
-      <c r="K45" s="258"/>
-      <c r="L45" s="257" t="s">
-        <v>212</v>
-      </c>
-      <c r="M45" s="292"/>
-      <c r="N45" s="258"/>
-      <c r="O45" s="257" t="s">
-        <v>294</v>
-      </c>
-      <c r="P45" s="258"/>
+      <c r="C45" s="261" t="s">
+        <v>99</v>
+      </c>
+      <c r="D45" s="262"/>
+      <c r="E45" s="261" t="s">
+        <v>127</v>
+      </c>
+      <c r="F45" s="262"/>
+      <c r="G45" s="261" t="s">
+        <v>155</v>
+      </c>
+      <c r="H45" s="293"/>
+      <c r="I45" s="262"/>
+      <c r="J45" s="261" t="s">
+        <v>183</v>
+      </c>
+      <c r="K45" s="262"/>
+      <c r="L45" s="261" t="s">
+        <v>211</v>
+      </c>
+      <c r="M45" s="293"/>
+      <c r="N45" s="262"/>
+      <c r="O45" s="261" t="s">
+        <v>293</v>
+      </c>
+      <c r="P45" s="262"/>
       <c r="Q45" s="62"/>
       <c r="R45" s="29"/>
       <c r="S45" s="31"/>
@@ -10595,18 +10609,18 @@
     <row r="46" spans="1:45" ht="17.25" customHeight="1">
       <c r="A46" s="18"/>
       <c r="B46" s="88"/>
-      <c r="C46" s="254"/>
-      <c r="D46" s="254"/>
-      <c r="E46" s="254"/>
-      <c r="F46" s="254"/>
-      <c r="G46" s="254"/>
-      <c r="H46" s="254"/>
-      <c r="I46" s="254"/>
-      <c r="J46" s="254"/>
-      <c r="K46" s="254"/>
-      <c r="L46" s="254"/>
-      <c r="M46" s="254"/>
-      <c r="N46" s="254"/>
+      <c r="C46" s="260"/>
+      <c r="D46" s="260"/>
+      <c r="E46" s="260"/>
+      <c r="F46" s="260"/>
+      <c r="G46" s="260"/>
+      <c r="H46" s="260"/>
+      <c r="I46" s="260"/>
+      <c r="J46" s="260"/>
+      <c r="K46" s="260"/>
+      <c r="L46" s="260"/>
+      <c r="M46" s="260"/>
+      <c r="N46" s="260"/>
       <c r="O46" s="71"/>
       <c r="P46" s="70"/>
       <c r="Q46" s="70"/>
@@ -10663,20 +10677,20 @@
       <c r="F48" s="90"/>
       <c r="G48" s="90"/>
       <c r="H48" s="90"/>
-      <c r="I48" s="307"/>
-      <c r="J48" s="307"/>
-      <c r="K48" s="307"/>
-      <c r="L48" s="307"/>
-      <c r="M48" s="273" t="s">
+      <c r="I48" s="316"/>
+      <c r="J48" s="316"/>
+      <c r="K48" s="316"/>
+      <c r="L48" s="316"/>
+      <c r="M48" s="279" t="s">
         <v>15</v>
       </c>
-      <c r="N48" s="274"/>
-      <c r="O48" s="274"/>
-      <c r="P48" s="274"/>
-      <c r="Q48" s="274"/>
-      <c r="R48" s="274"/>
-      <c r="S48" s="274"/>
-      <c r="T48" s="275"/>
+      <c r="N48" s="280"/>
+      <c r="O48" s="280"/>
+      <c r="P48" s="280"/>
+      <c r="Q48" s="280"/>
+      <c r="R48" s="280"/>
+      <c r="S48" s="280"/>
+      <c r="T48" s="281"/>
       <c r="U48" s="93"/>
       <c r="V48" s="93"/>
       <c r="W48" s="93"/>
@@ -10697,22 +10711,22 @@
       <c r="F49" s="199"/>
       <c r="G49" s="199"/>
       <c r="H49" s="200"/>
-      <c r="I49" s="260" t="s">
-        <v>514</v>
-      </c>
-      <c r="J49" s="260"/>
-      <c r="K49" s="260"/>
-      <c r="L49" s="260"/>
-      <c r="M49" s="276" t="s">
-        <v>235</v>
-      </c>
-      <c r="N49" s="277"/>
-      <c r="O49" s="277"/>
-      <c r="P49" s="277"/>
-      <c r="Q49" s="277"/>
-      <c r="R49" s="277"/>
-      <c r="S49" s="277"/>
-      <c r="T49" s="278"/>
+      <c r="I49" s="264" t="s">
+        <v>513</v>
+      </c>
+      <c r="J49" s="264"/>
+      <c r="K49" s="264"/>
+      <c r="L49" s="264"/>
+      <c r="M49" s="282" t="s">
+        <v>234</v>
+      </c>
+      <c r="N49" s="283"/>
+      <c r="O49" s="283"/>
+      <c r="P49" s="283"/>
+      <c r="Q49" s="283"/>
+      <c r="R49" s="283"/>
+      <c r="S49" s="283"/>
+      <c r="T49" s="284"/>
       <c r="U49" s="93"/>
       <c r="V49" s="93"/>
       <c r="W49" s="93"/>
@@ -10733,20 +10747,20 @@
       <c r="F50" s="199"/>
       <c r="G50" s="199"/>
       <c r="H50" s="200"/>
-      <c r="I50" s="260" t="s">
-        <v>515</v>
-      </c>
-      <c r="J50" s="260"/>
-      <c r="K50" s="260"/>
-      <c r="L50" s="260"/>
-      <c r="M50" s="279"/>
-      <c r="N50" s="280"/>
-      <c r="O50" s="280"/>
-      <c r="P50" s="280"/>
-      <c r="Q50" s="280"/>
-      <c r="R50" s="280"/>
-      <c r="S50" s="280"/>
-      <c r="T50" s="281"/>
+      <c r="I50" s="264" t="s">
+        <v>514</v>
+      </c>
+      <c r="J50" s="264"/>
+      <c r="K50" s="264"/>
+      <c r="L50" s="264"/>
+      <c r="M50" s="285"/>
+      <c r="N50" s="286"/>
+      <c r="O50" s="286"/>
+      <c r="P50" s="286"/>
+      <c r="Q50" s="286"/>
+      <c r="R50" s="286"/>
+      <c r="S50" s="286"/>
+      <c r="T50" s="287"/>
       <c r="U50" s="94"/>
       <c r="V50" s="93"/>
       <c r="W50" s="93"/>
@@ -10760,27 +10774,27 @@
       <c r="A51" s="92"/>
       <c r="B51" s="201"/>
       <c r="C51" s="199" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="D51" s="199"/>
       <c r="E51" s="199"/>
       <c r="F51" s="199"/>
       <c r="G51" s="199"/>
       <c r="H51" s="200"/>
-      <c r="I51" s="260" t="s">
-        <v>593</v>
-      </c>
-      <c r="J51" s="260"/>
-      <c r="K51" s="260"/>
-      <c r="L51" s="260"/>
-      <c r="M51" s="279"/>
-      <c r="N51" s="280"/>
-      <c r="O51" s="280"/>
-      <c r="P51" s="280"/>
-      <c r="Q51" s="280"/>
-      <c r="R51" s="280"/>
-      <c r="S51" s="280"/>
-      <c r="T51" s="281"/>
+      <c r="I51" s="264" t="s">
+        <v>591</v>
+      </c>
+      <c r="J51" s="264"/>
+      <c r="K51" s="264"/>
+      <c r="L51" s="264"/>
+      <c r="M51" s="285"/>
+      <c r="N51" s="286"/>
+      <c r="O51" s="286"/>
+      <c r="P51" s="286"/>
+      <c r="Q51" s="286"/>
+      <c r="R51" s="286"/>
+      <c r="S51" s="286"/>
+      <c r="T51" s="287"/>
       <c r="U51" s="94"/>
       <c r="V51" s="93"/>
       <c r="W51" s="93"/>
@@ -10801,20 +10815,20 @@
       <c r="F52" s="199"/>
       <c r="G52" s="199"/>
       <c r="H52" s="200"/>
-      <c r="I52" s="260" t="s">
-        <v>516</v>
-      </c>
-      <c r="J52" s="260"/>
-      <c r="K52" s="260"/>
-      <c r="L52" s="260"/>
-      <c r="M52" s="279"/>
-      <c r="N52" s="280"/>
-      <c r="O52" s="280"/>
-      <c r="P52" s="280"/>
-      <c r="Q52" s="280"/>
-      <c r="R52" s="280"/>
-      <c r="S52" s="280"/>
-      <c r="T52" s="281"/>
+      <c r="I52" s="264" t="s">
+        <v>515</v>
+      </c>
+      <c r="J52" s="264"/>
+      <c r="K52" s="264"/>
+      <c r="L52" s="264"/>
+      <c r="M52" s="285"/>
+      <c r="N52" s="286"/>
+      <c r="O52" s="286"/>
+      <c r="P52" s="286"/>
+      <c r="Q52" s="286"/>
+      <c r="R52" s="286"/>
+      <c r="S52" s="286"/>
+      <c r="T52" s="287"/>
       <c r="U52" s="94"/>
       <c r="V52" s="93"/>
       <c r="W52" s="93"/>
@@ -10835,20 +10849,20 @@
       <c r="F53" s="199"/>
       <c r="G53" s="199"/>
       <c r="H53" s="200"/>
-      <c r="I53" s="260" t="s">
-        <v>594</v>
-      </c>
-      <c r="J53" s="260"/>
-      <c r="K53" s="260"/>
-      <c r="L53" s="260"/>
-      <c r="M53" s="279"/>
-      <c r="N53" s="280"/>
-      <c r="O53" s="280"/>
-      <c r="P53" s="280"/>
-      <c r="Q53" s="280"/>
-      <c r="R53" s="280"/>
-      <c r="S53" s="280"/>
-      <c r="T53" s="281"/>
+      <c r="I53" s="264" t="s">
+        <v>592</v>
+      </c>
+      <c r="J53" s="264"/>
+      <c r="K53" s="264"/>
+      <c r="L53" s="264"/>
+      <c r="M53" s="285"/>
+      <c r="N53" s="286"/>
+      <c r="O53" s="286"/>
+      <c r="P53" s="286"/>
+      <c r="Q53" s="286"/>
+      <c r="R53" s="286"/>
+      <c r="S53" s="286"/>
+      <c r="T53" s="287"/>
       <c r="U53" s="94"/>
       <c r="V53" s="93"/>
       <c r="W53" s="93"/>
@@ -10860,29 +10874,29 @@
     </row>
     <row r="54" spans="1:30" ht="13.15" customHeight="1">
       <c r="A54" s="92"/>
-      <c r="B54" s="267" t="s">
+      <c r="B54" s="271" t="s">
         <v>20</v>
       </c>
-      <c r="C54" s="268"/>
-      <c r="D54" s="268"/>
-      <c r="E54" s="268"/>
-      <c r="F54" s="268"/>
-      <c r="G54" s="268"/>
-      <c r="H54" s="269"/>
-      <c r="I54" s="259" t="s">
-        <v>517</v>
-      </c>
-      <c r="J54" s="259"/>
-      <c r="K54" s="259"/>
-      <c r="L54" s="259"/>
-      <c r="M54" s="279"/>
-      <c r="N54" s="280"/>
-      <c r="O54" s="280"/>
-      <c r="P54" s="280"/>
-      <c r="Q54" s="280"/>
-      <c r="R54" s="280"/>
-      <c r="S54" s="280"/>
-      <c r="T54" s="281"/>
+      <c r="C54" s="272"/>
+      <c r="D54" s="272"/>
+      <c r="E54" s="272"/>
+      <c r="F54" s="272"/>
+      <c r="G54" s="272"/>
+      <c r="H54" s="273"/>
+      <c r="I54" s="263" t="s">
+        <v>516</v>
+      </c>
+      <c r="J54" s="263"/>
+      <c r="K54" s="263"/>
+      <c r="L54" s="263"/>
+      <c r="M54" s="285"/>
+      <c r="N54" s="286"/>
+      <c r="O54" s="286"/>
+      <c r="P54" s="286"/>
+      <c r="Q54" s="286"/>
+      <c r="R54" s="286"/>
+      <c r="S54" s="286"/>
+      <c r="T54" s="287"/>
       <c r="U54" s="94"/>
       <c r="V54" s="93"/>
       <c r="W54" s="93"/>
@@ -10905,18 +10919,18 @@
       <c r="F55" s="203"/>
       <c r="G55" s="203"/>
       <c r="H55" s="204"/>
-      <c r="I55" s="259"/>
-      <c r="J55" s="259"/>
-      <c r="K55" s="259"/>
-      <c r="L55" s="259"/>
-      <c r="M55" s="279"/>
-      <c r="N55" s="280"/>
-      <c r="O55" s="280"/>
-      <c r="P55" s="280"/>
-      <c r="Q55" s="280"/>
-      <c r="R55" s="280"/>
-      <c r="S55" s="280"/>
-      <c r="T55" s="281"/>
+      <c r="I55" s="263"/>
+      <c r="J55" s="263"/>
+      <c r="K55" s="263"/>
+      <c r="L55" s="263"/>
+      <c r="M55" s="285"/>
+      <c r="N55" s="286"/>
+      <c r="O55" s="286"/>
+      <c r="P55" s="286"/>
+      <c r="Q55" s="286"/>
+      <c r="R55" s="286"/>
+      <c r="S55" s="286"/>
+      <c r="T55" s="287"/>
       <c r="U55" s="94"/>
       <c r="V55" s="93"/>
       <c r="W55" s="93"/>
@@ -10932,25 +10946,25 @@
         <v>2</v>
       </c>
       <c r="C56" s="203" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D56" s="203"/>
       <c r="E56" s="203"/>
       <c r="F56" s="203"/>
       <c r="G56" s="203"/>
       <c r="H56" s="204"/>
-      <c r="I56" s="259"/>
-      <c r="J56" s="259"/>
-      <c r="K56" s="259"/>
-      <c r="L56" s="259"/>
-      <c r="M56" s="279"/>
-      <c r="N56" s="280"/>
-      <c r="O56" s="280"/>
-      <c r="P56" s="280"/>
-      <c r="Q56" s="280"/>
-      <c r="R56" s="280"/>
-      <c r="S56" s="280"/>
-      <c r="T56" s="281"/>
+      <c r="I56" s="263"/>
+      <c r="J56" s="263"/>
+      <c r="K56" s="263"/>
+      <c r="L56" s="263"/>
+      <c r="M56" s="285"/>
+      <c r="N56" s="286"/>
+      <c r="O56" s="286"/>
+      <c r="P56" s="286"/>
+      <c r="Q56" s="286"/>
+      <c r="R56" s="286"/>
+      <c r="S56" s="286"/>
+      <c r="T56" s="287"/>
       <c r="U56" s="94"/>
       <c r="V56" s="93"/>
       <c r="W56" s="93"/>
@@ -10973,18 +10987,18 @@
       <c r="F57" s="203"/>
       <c r="G57" s="203"/>
       <c r="H57" s="204"/>
-      <c r="I57" s="259"/>
-      <c r="J57" s="259"/>
-      <c r="K57" s="259"/>
-      <c r="L57" s="259"/>
-      <c r="M57" s="279"/>
-      <c r="N57" s="280"/>
-      <c r="O57" s="280"/>
-      <c r="P57" s="280"/>
-      <c r="Q57" s="280"/>
-      <c r="R57" s="280"/>
-      <c r="S57" s="280"/>
-      <c r="T57" s="281"/>
+      <c r="I57" s="263"/>
+      <c r="J57" s="263"/>
+      <c r="K57" s="263"/>
+      <c r="L57" s="263"/>
+      <c r="M57" s="285"/>
+      <c r="N57" s="286"/>
+      <c r="O57" s="286"/>
+      <c r="P57" s="286"/>
+      <c r="Q57" s="286"/>
+      <c r="R57" s="286"/>
+      <c r="S57" s="286"/>
+      <c r="T57" s="287"/>
       <c r="U57" s="94"/>
       <c r="V57" s="93"/>
       <c r="W57" s="93"/>
@@ -11000,25 +11014,25 @@
         <v>4</v>
       </c>
       <c r="C58" s="203" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D58" s="203"/>
       <c r="E58" s="203"/>
       <c r="F58" s="203"/>
       <c r="G58" s="203"/>
       <c r="H58" s="204"/>
-      <c r="I58" s="259"/>
-      <c r="J58" s="259"/>
-      <c r="K58" s="259"/>
-      <c r="L58" s="259"/>
-      <c r="M58" s="279"/>
-      <c r="N58" s="280"/>
-      <c r="O58" s="280"/>
-      <c r="P58" s="280"/>
-      <c r="Q58" s="280"/>
-      <c r="R58" s="280"/>
-      <c r="S58" s="280"/>
-      <c r="T58" s="281"/>
+      <c r="I58" s="263"/>
+      <c r="J58" s="263"/>
+      <c r="K58" s="263"/>
+      <c r="L58" s="263"/>
+      <c r="M58" s="285"/>
+      <c r="N58" s="286"/>
+      <c r="O58" s="286"/>
+      <c r="P58" s="286"/>
+      <c r="Q58" s="286"/>
+      <c r="R58" s="286"/>
+      <c r="S58" s="286"/>
+      <c r="T58" s="287"/>
       <c r="U58" s="94"/>
       <c r="V58" s="93"/>
       <c r="W58" s="93"/>
@@ -11041,18 +11055,18 @@
       <c r="F59" s="205"/>
       <c r="G59" s="205"/>
       <c r="H59" s="206"/>
-      <c r="I59" s="259"/>
-      <c r="J59" s="259"/>
-      <c r="K59" s="259"/>
-      <c r="L59" s="259"/>
-      <c r="M59" s="282"/>
-      <c r="N59" s="283"/>
-      <c r="O59" s="283"/>
-      <c r="P59" s="283"/>
-      <c r="Q59" s="283"/>
-      <c r="R59" s="283"/>
-      <c r="S59" s="283"/>
-      <c r="T59" s="284"/>
+      <c r="I59" s="263"/>
+      <c r="J59" s="263"/>
+      <c r="K59" s="263"/>
+      <c r="L59" s="263"/>
+      <c r="M59" s="288"/>
+      <c r="N59" s="289"/>
+      <c r="O59" s="289"/>
+      <c r="P59" s="289"/>
+      <c r="Q59" s="289"/>
+      <c r="R59" s="289"/>
+      <c r="S59" s="289"/>
+      <c r="T59" s="290"/>
       <c r="U59" s="94"/>
       <c r="V59" s="93"/>
       <c r="W59" s="93"/>
@@ -11077,7 +11091,7 @@
       <c r="L60" s="90"/>
       <c r="M60" s="90"/>
       <c r="N60" s="90" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O60" s="90"/>
       <c r="P60" s="90"/>
@@ -11099,7 +11113,7 @@
         <v>24</v>
       </c>
       <c r="B61" s="208" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C61" s="96"/>
       <c r="D61" s="96"/>
@@ -11132,19 +11146,19 @@
     </row>
     <row r="62" spans="1:30" ht="17.25" customHeight="1">
       <c r="A62" s="27"/>
-      <c r="B62" s="308" t="s">
+      <c r="B62" s="310" t="s">
         <v>25</v>
       </c>
-      <c r="C62" s="309"/>
-      <c r="D62" s="309"/>
-      <c r="E62" s="310"/>
-      <c r="F62" s="303" t="s">
-        <v>520</v>
-      </c>
-      <c r="G62" s="304"/>
-      <c r="H62" s="304"/>
-      <c r="I62" s="304"/>
-      <c r="J62" s="305"/>
+      <c r="C62" s="311"/>
+      <c r="D62" s="311"/>
+      <c r="E62" s="312"/>
+      <c r="F62" s="317" t="s">
+        <v>519</v>
+      </c>
+      <c r="G62" s="318"/>
+      <c r="H62" s="318"/>
+      <c r="I62" s="318"/>
+      <c r="J62" s="319"/>
       <c r="K62" s="189"/>
       <c r="L62" s="189"/>
       <c r="M62" s="189"/>
@@ -11169,18 +11183,18 @@
     <row r="63" spans="1:30" ht="17.25" customHeight="1">
       <c r="A63" s="27"/>
       <c r="B63" s="195" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C63" s="196"/>
       <c r="D63" s="196"/>
       <c r="E63" s="197"/>
-      <c r="F63" s="306" t="s">
-        <v>521</v>
-      </c>
-      <c r="G63" s="306"/>
-      <c r="H63" s="306"/>
-      <c r="I63" s="306"/>
-      <c r="J63" s="306"/>
+      <c r="F63" s="292" t="s">
+        <v>520</v>
+      </c>
+      <c r="G63" s="292"/>
+      <c r="H63" s="292"/>
+      <c r="I63" s="292"/>
+      <c r="J63" s="292"/>
       <c r="K63" s="189"/>
       <c r="L63" s="189"/>
       <c r="M63" s="189"/>
@@ -11204,19 +11218,19 @@
     </row>
     <row r="64" spans="1:30" ht="17.25" customHeight="1">
       <c r="A64" s="27"/>
-      <c r="B64" s="308" t="s">
+      <c r="B64" s="310" t="s">
         <v>26</v>
       </c>
-      <c r="C64" s="309"/>
-      <c r="D64" s="309"/>
-      <c r="E64" s="310"/>
-      <c r="F64" s="306" t="s">
-        <v>522</v>
-      </c>
-      <c r="G64" s="306"/>
-      <c r="H64" s="306"/>
-      <c r="I64" s="306"/>
-      <c r="J64" s="306"/>
+      <c r="C64" s="311"/>
+      <c r="D64" s="311"/>
+      <c r="E64" s="312"/>
+      <c r="F64" s="292" t="s">
+        <v>521</v>
+      </c>
+      <c r="G64" s="292"/>
+      <c r="H64" s="292"/>
+      <c r="I64" s="292"/>
+      <c r="J64" s="292"/>
       <c r="K64" s="189"/>
       <c r="L64" s="189"/>
       <c r="M64" s="189"/>
@@ -11240,19 +11254,19 @@
     </row>
     <row r="65" spans="1:30" ht="17.25" customHeight="1">
       <c r="A65" s="27"/>
-      <c r="B65" s="308" t="s">
-        <v>41</v>
-      </c>
-      <c r="C65" s="309"/>
-      <c r="D65" s="309"/>
-      <c r="E65" s="310"/>
-      <c r="F65" s="306" t="s">
-        <v>523</v>
-      </c>
-      <c r="G65" s="306"/>
-      <c r="H65" s="306"/>
-      <c r="I65" s="306"/>
-      <c r="J65" s="306"/>
+      <c r="B65" s="310" t="s">
+        <v>40</v>
+      </c>
+      <c r="C65" s="311"/>
+      <c r="D65" s="311"/>
+      <c r="E65" s="312"/>
+      <c r="F65" s="292" t="s">
+        <v>522</v>
+      </c>
+      <c r="G65" s="292"/>
+      <c r="H65" s="292"/>
+      <c r="I65" s="292"/>
+      <c r="J65" s="292"/>
       <c r="K65" s="192"/>
       <c r="L65" s="192"/>
       <c r="M65" s="192"/>
@@ -11276,19 +11290,19 @@
     </row>
     <row r="66" spans="1:30" ht="17.25" customHeight="1">
       <c r="A66" s="27"/>
-      <c r="B66" s="308" t="s">
-        <v>471</v>
-      </c>
-      <c r="C66" s="309"/>
-      <c r="D66" s="309"/>
-      <c r="E66" s="310"/>
-      <c r="F66" s="306" t="s">
-        <v>524</v>
-      </c>
-      <c r="G66" s="306"/>
-      <c r="H66" s="306"/>
-      <c r="I66" s="306"/>
-      <c r="J66" s="306"/>
+      <c r="B66" s="310" t="s">
+        <v>470</v>
+      </c>
+      <c r="C66" s="311"/>
+      <c r="D66" s="311"/>
+      <c r="E66" s="312"/>
+      <c r="F66" s="292" t="s">
+        <v>523</v>
+      </c>
+      <c r="G66" s="292"/>
+      <c r="H66" s="292"/>
+      <c r="I66" s="292"/>
+      <c r="J66" s="292"/>
       <c r="K66" s="192"/>
       <c r="L66" s="192"/>
       <c r="M66" s="192"/>
@@ -11312,19 +11326,19 @@
     </row>
     <row r="67" spans="1:30" ht="17.25" customHeight="1">
       <c r="A67" s="27"/>
-      <c r="B67" s="308" t="s">
-        <v>473</v>
-      </c>
-      <c r="C67" s="309"/>
-      <c r="D67" s="309"/>
-      <c r="E67" s="310"/>
-      <c r="F67" s="306" t="s">
-        <v>525</v>
-      </c>
-      <c r="G67" s="306"/>
-      <c r="H67" s="306"/>
-      <c r="I67" s="306"/>
-      <c r="J67" s="306"/>
+      <c r="B67" s="310" t="s">
+        <v>472</v>
+      </c>
+      <c r="C67" s="311"/>
+      <c r="D67" s="311"/>
+      <c r="E67" s="312"/>
+      <c r="F67" s="292" t="s">
+        <v>524</v>
+      </c>
+      <c r="G67" s="292"/>
+      <c r="H67" s="292"/>
+      <c r="I67" s="292"/>
+      <c r="J67" s="292"/>
       <c r="K67" s="194"/>
       <c r="L67" s="194"/>
       <c r="M67" s="194"/>
@@ -11346,268 +11360,303 @@
       <c r="AC67" s="191"/>
       <c r="AD67" s="191"/>
     </row>
-    <row r="68" spans="1:30" ht="13.5" customHeight="1">
+    <row r="68" spans="1:30" ht="17.25" customHeight="1">
       <c r="A68" s="27"/>
-      <c r="B68" s="308" t="s">
-        <v>27</v>
-      </c>
-      <c r="C68" s="309"/>
-      <c r="D68" s="309"/>
-      <c r="E68" s="310"/>
-      <c r="F68" s="303" t="s">
-        <v>526</v>
-      </c>
-      <c r="G68" s="304"/>
-      <c r="H68" s="304"/>
-      <c r="I68" s="304"/>
-      <c r="J68" s="305"/>
-      <c r="K68" s="188"/>
-      <c r="L68" s="189"/>
-      <c r="M68" s="189"/>
-      <c r="N68" s="189"/>
-      <c r="O68" s="188"/>
-      <c r="P68" s="188"/>
-      <c r="Q68" s="189"/>
-      <c r="R68" s="189"/>
-      <c r="S68" s="189"/>
-      <c r="T68" s="188"/>
-      <c r="U68" s="188"/>
-      <c r="V68" s="189"/>
-      <c r="W68" s="189"/>
-      <c r="X68" s="189"/>
-      <c r="Y68" s="188"/>
-      <c r="Z68" s="18"/>
-      <c r="AA68" s="18"/>
-      <c r="AB68" s="18"/>
-      <c r="AC68" s="18"/>
-      <c r="AD68" s="18"/>
-    </row>
-    <row r="69" spans="1:30" ht="15.75" customHeight="1">
-      <c r="A69" s="98" t="s">
-        <v>51</v>
-      </c>
-      <c r="B69" s="27"/>
-      <c r="C69" s="99"/>
-      <c r="D69" s="99"/>
-      <c r="E69" s="99"/>
-      <c r="F69" s="99"/>
-      <c r="G69" s="100"/>
-      <c r="H69" s="100"/>
-      <c r="I69" s="100"/>
-      <c r="J69" s="100"/>
-      <c r="K69" s="100"/>
-      <c r="L69" s="100"/>
-      <c r="M69" s="100"/>
-      <c r="N69" s="100"/>
-      <c r="O69" s="100"/>
-      <c r="P69" s="100"/>
-      <c r="Q69" s="100"/>
-      <c r="R69" s="100"/>
-      <c r="S69" s="100"/>
-      <c r="T69" s="100"/>
-      <c r="U69" s="100"/>
-      <c r="V69" s="100"/>
-      <c r="W69" s="100"/>
-      <c r="X69" s="100"/>
-      <c r="Y69" s="100"/>
-      <c r="Z69" s="97"/>
+      <c r="B68" s="254"/>
+      <c r="C68" s="254"/>
+      <c r="D68" s="254"/>
+      <c r="E68" s="254"/>
+      <c r="F68" s="257"/>
+      <c r="G68" s="257"/>
+      <c r="H68" s="257"/>
+      <c r="I68" s="257"/>
+      <c r="J68" s="257"/>
+      <c r="K68" s="194"/>
+      <c r="L68" s="194"/>
+      <c r="M68" s="194"/>
+      <c r="N68" s="194"/>
+      <c r="O68" s="194"/>
+      <c r="P68" s="194"/>
+      <c r="Q68" s="194"/>
+      <c r="R68" s="194"/>
+      <c r="S68" s="194"/>
+      <c r="T68" s="194"/>
+      <c r="U68" s="194"/>
+      <c r="V68" s="194"/>
+      <c r="W68" s="194"/>
+      <c r="X68" s="194"/>
+      <c r="Y68" s="194"/>
+      <c r="Z68" s="191"/>
+      <c r="AA68" s="191"/>
+      <c r="AB68" s="191"/>
+      <c r="AC68" s="191"/>
+      <c r="AD68" s="191"/>
+    </row>
+    <row r="69" spans="1:30" ht="13.5" customHeight="1">
+      <c r="A69" s="27"/>
+      <c r="B69" s="291" t="s">
+        <v>618</v>
+      </c>
+      <c r="C69" s="291"/>
+      <c r="D69" s="291"/>
+      <c r="E69" s="258" t="s">
+        <v>8</v>
+      </c>
+      <c r="F69" s="259" t="s">
+        <v>617</v>
+      </c>
+      <c r="G69" s="259"/>
+      <c r="H69" s="259"/>
+      <c r="I69" s="259"/>
+      <c r="J69" s="259"/>
+      <c r="K69" s="188"/>
+      <c r="L69" s="189"/>
+      <c r="M69" s="189"/>
+      <c r="N69" s="189"/>
+      <c r="O69" s="188"/>
+      <c r="P69" s="188"/>
+      <c r="Q69" s="189"/>
+      <c r="R69" s="189"/>
+      <c r="S69" s="189"/>
+      <c r="T69" s="188"/>
+      <c r="U69" s="188"/>
+      <c r="V69" s="189"/>
+      <c r="W69" s="189"/>
+      <c r="X69" s="189"/>
+      <c r="Y69" s="188"/>
+      <c r="Z69" s="18"/>
       <c r="AA69" s="18"/>
       <c r="AB69" s="18"/>
       <c r="AC69" s="18"/>
       <c r="AD69" s="18"/>
     </row>
-    <row r="70" spans="1:30" ht="17.25" customHeight="1">
-      <c r="A70" s="510"/>
-      <c r="B70" s="509" t="s">
-        <v>618</v>
-      </c>
-      <c r="C70" s="509"/>
-      <c r="D70" s="509"/>
-      <c r="N70" s="101"/>
+    <row r="70" spans="1:30" ht="15.75" customHeight="1">
+      <c r="A70" s="98" t="s">
+        <v>50</v>
+      </c>
+      <c r="B70" s="27"/>
+      <c r="C70" s="99"/>
+      <c r="D70" s="99"/>
+      <c r="E70" s="99"/>
+      <c r="F70" s="99"/>
+      <c r="G70" s="100"/>
+      <c r="H70" s="100"/>
+      <c r="I70" s="100"/>
+      <c r="J70" s="100"/>
+      <c r="K70" s="100"/>
+      <c r="L70" s="100"/>
+      <c r="M70" s="100"/>
+      <c r="N70" s="100"/>
+      <c r="O70" s="100"/>
+      <c r="P70" s="100"/>
+      <c r="Q70" s="100"/>
+      <c r="R70" s="100"/>
+      <c r="S70" s="100"/>
+      <c r="T70" s="100"/>
+      <c r="U70" s="100"/>
+      <c r="V70" s="100"/>
+      <c r="W70" s="100"/>
+      <c r="X70" s="100"/>
+      <c r="Y70" s="100"/>
+      <c r="Z70" s="97"/>
+      <c r="AA70" s="18"/>
+      <c r="AB70" s="18"/>
+      <c r="AC70" s="18"/>
+      <c r="AD70" s="18"/>
     </row>
     <row r="71" spans="1:30" ht="17.25" customHeight="1">
-      <c r="B71" s="511" t="s">
+      <c r="A71" s="256"/>
+      <c r="B71" s="255" t="s">
+        <v>616</v>
+      </c>
+      <c r="C71" s="255"/>
+      <c r="D71" s="255"/>
+      <c r="N71" s="101"/>
+    </row>
+    <row r="72" spans="1:30" ht="17.25" customHeight="1">
+      <c r="B72" s="348" t="s">
+        <v>595</v>
+      </c>
+      <c r="C72" s="349"/>
+      <c r="D72" s="349"/>
+      <c r="E72" s="350"/>
+      <c r="F72" s="351" t="s">
+        <v>596</v>
+      </c>
+      <c r="G72" s="351"/>
+      <c r="H72" s="351"/>
+      <c r="I72" s="351"/>
+      <c r="J72" s="351"/>
+      <c r="K72" s="351"/>
+      <c r="L72" s="255"/>
+      <c r="M72" s="255"/>
+      <c r="W72" s="102"/>
+    </row>
+    <row r="73" spans="1:30" ht="17.25" customHeight="1">
+      <c r="B73" s="348" t="s">
         <v>597</v>
       </c>
-      <c r="C71" s="512"/>
-      <c r="D71" s="512"/>
-      <c r="E71" s="513"/>
-      <c r="F71" s="514" t="s">
+      <c r="C73" s="349"/>
+      <c r="D73" s="349"/>
+      <c r="E73" s="350"/>
+      <c r="F73" s="351" t="s">
         <v>598</v>
       </c>
-      <c r="G71" s="514"/>
-      <c r="H71" s="514"/>
-      <c r="I71" s="514"/>
-      <c r="J71" s="514"/>
-      <c r="K71" s="514"/>
-      <c r="L71" s="509"/>
-      <c r="M71" s="509"/>
-      <c r="W71" s="102"/>
-    </row>
-    <row r="72" spans="1:30" ht="17.25" customHeight="1">
-      <c r="B72" s="511" t="s">
+      <c r="G73" s="351"/>
+      <c r="H73" s="351"/>
+      <c r="I73" s="351"/>
+      <c r="J73" s="351"/>
+      <c r="K73" s="351"/>
+    </row>
+    <row r="74" spans="1:30" ht="17.25" customHeight="1">
+      <c r="B74" s="348" t="s">
         <v>599</v>
       </c>
-      <c r="C72" s="512"/>
-      <c r="D72" s="512"/>
-      <c r="E72" s="513"/>
-      <c r="F72" s="514" t="s">
+      <c r="C74" s="349"/>
+      <c r="D74" s="349"/>
+      <c r="E74" s="350"/>
+      <c r="F74" s="351" t="s">
         <v>600</v>
       </c>
-      <c r="G72" s="514"/>
-      <c r="H72" s="514"/>
-      <c r="I72" s="514"/>
-      <c r="J72" s="514"/>
-      <c r="K72" s="514"/>
-    </row>
-    <row r="73" spans="1:30" ht="17.25" customHeight="1">
-      <c r="B73" s="511" t="s">
+      <c r="G74" s="351"/>
+      <c r="H74" s="351"/>
+      <c r="I74" s="351"/>
+      <c r="J74" s="351"/>
+      <c r="K74" s="351"/>
+      <c r="R74" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="75" spans="1:30" ht="17.25" customHeight="1">
+      <c r="B75" s="348" t="s">
         <v>601</v>
       </c>
-      <c r="C73" s="512"/>
-      <c r="D73" s="512"/>
-      <c r="E73" s="513"/>
-      <c r="F73" s="514" t="s">
+      <c r="C75" s="349"/>
+      <c r="D75" s="349"/>
+      <c r="E75" s="350"/>
+      <c r="F75" s="351" t="s">
         <v>602</v>
       </c>
-      <c r="G73" s="514"/>
-      <c r="H73" s="514"/>
-      <c r="I73" s="514"/>
-      <c r="J73" s="514"/>
-      <c r="K73" s="514"/>
-      <c r="R73" s="7" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="74" spans="1:30" ht="17.25" customHeight="1">
-      <c r="B74" s="511" t="s">
+      <c r="G75" s="351"/>
+      <c r="H75" s="351"/>
+      <c r="I75" s="351"/>
+      <c r="J75" s="351"/>
+      <c r="K75" s="351"/>
+    </row>
+    <row r="76" spans="1:30" ht="17.25" customHeight="1">
+      <c r="B76" s="348" t="s">
         <v>603</v>
       </c>
-      <c r="C74" s="512"/>
-      <c r="D74" s="512"/>
-      <c r="E74" s="513"/>
-      <c r="F74" s="514" t="s">
+      <c r="C76" s="349"/>
+      <c r="D76" s="349" t="s">
         <v>604</v>
       </c>
-      <c r="G74" s="514"/>
-      <c r="H74" s="514"/>
-      <c r="I74" s="514"/>
-      <c r="J74" s="514"/>
-      <c r="K74" s="514"/>
-    </row>
-    <row r="75" spans="1:30" ht="17.25" customHeight="1">
-      <c r="B75" s="511" t="s">
+      <c r="E76" s="350"/>
+      <c r="F76" s="351" t="s">
         <v>605</v>
       </c>
-      <c r="C75" s="512"/>
-      <c r="D75" s="512" t="s">
+      <c r="G76" s="351"/>
+      <c r="H76" s="351"/>
+      <c r="I76" s="351"/>
+      <c r="J76" s="351"/>
+      <c r="K76" s="351"/>
+    </row>
+    <row r="77" spans="1:30" ht="17.25" customHeight="1">
+      <c r="B77" s="352" t="s">
         <v>606</v>
       </c>
-      <c r="E75" s="513"/>
-      <c r="F75" s="514" t="s">
+      <c r="C77" s="353"/>
+      <c r="D77" s="349" t="s">
         <v>607</v>
       </c>
-      <c r="G75" s="514"/>
-      <c r="H75" s="514"/>
-      <c r="I75" s="514"/>
-      <c r="J75" s="514"/>
-      <c r="K75" s="514"/>
-    </row>
-    <row r="76" spans="1:30" ht="17.25" customHeight="1">
-      <c r="B76" s="515" t="s">
+      <c r="E77" s="350"/>
+      <c r="F77" s="351" t="s">
         <v>608</v>
       </c>
-      <c r="C76" s="516"/>
-      <c r="D76" s="512" t="s">
+      <c r="G77" s="351"/>
+      <c r="H77" s="351"/>
+      <c r="I77" s="351" t="s">
         <v>609</v>
       </c>
-      <c r="E76" s="513"/>
-      <c r="F76" s="514" t="s">
+      <c r="J77" s="351"/>
+      <c r="K77" s="351"/>
+    </row>
+    <row r="78" spans="1:30" ht="17.25" customHeight="1">
+      <c r="B78" s="354"/>
+      <c r="C78" s="355"/>
+      <c r="D78" s="349" t="s">
         <v>610</v>
       </c>
-      <c r="G76" s="514"/>
-      <c r="H76" s="514"/>
-      <c r="I76" s="514" t="s">
+      <c r="E78" s="350"/>
+      <c r="F78" s="358" t="s">
         <v>611</v>
       </c>
-      <c r="J76" s="514"/>
-      <c r="K76" s="514"/>
-    </row>
-    <row r="77" spans="1:30" ht="17.25" customHeight="1">
-      <c r="B77" s="517"/>
-      <c r="C77" s="518"/>
-      <c r="D77" s="512" t="s">
+      <c r="G78" s="359"/>
+      <c r="H78" s="360"/>
+      <c r="I78" s="358" t="s">
         <v>612</v>
       </c>
-      <c r="E77" s="513"/>
-      <c r="F77" s="519" t="s">
+      <c r="J78" s="359"/>
+      <c r="K78" s="360"/>
+    </row>
+    <row r="79" spans="1:30" ht="17.25" customHeight="1">
+      <c r="B79" s="356"/>
+      <c r="C79" s="357"/>
+      <c r="D79" s="349" t="s">
         <v>613</v>
       </c>
-      <c r="G77" s="520"/>
-      <c r="H77" s="521"/>
-      <c r="I77" s="519" t="s">
+      <c r="E79" s="350"/>
+      <c r="F79" s="358" t="s">
         <v>614</v>
       </c>
-      <c r="J77" s="520"/>
-      <c r="K77" s="521"/>
-    </row>
-    <row r="78" spans="1:30" ht="17.25" customHeight="1">
-      <c r="B78" s="522"/>
-      <c r="C78" s="523"/>
-      <c r="D78" s="512" t="s">
+      <c r="G79" s="359"/>
+      <c r="H79" s="360"/>
+      <c r="I79" s="358" t="s">
         <v>615</v>
       </c>
-      <c r="E78" s="513"/>
-      <c r="F78" s="519" t="s">
-        <v>616</v>
-      </c>
-      <c r="G78" s="520"/>
-      <c r="H78" s="521"/>
-      <c r="I78" s="519" t="s">
-        <v>617</v>
-      </c>
-      <c r="J78" s="520"/>
-      <c r="K78" s="521"/>
-    </row>
-    <row r="79" spans="1:30" ht="17.25" customHeight="1">
-      <c r="A79" s="98" t="s">
-        <v>51</v>
-      </c>
-      <c r="B79" s="27"/>
-      <c r="C79" s="99"/>
-      <c r="D79" s="99"/>
-      <c r="E79" s="99"/>
-      <c r="F79" s="99"/>
-      <c r="G79" s="100"/>
-      <c r="H79" s="100"/>
-      <c r="I79" s="100"/>
-      <c r="J79" s="100"/>
-      <c r="K79" s="100"/>
+      <c r="J79" s="359"/>
+      <c r="K79" s="360"/>
+    </row>
+    <row r="80" spans="1:30" ht="17.25" customHeight="1">
+      <c r="A80" s="98" t="s">
+        <v>50</v>
+      </c>
+      <c r="B80" s="27"/>
+      <c r="C80" s="99"/>
+      <c r="D80" s="99"/>
+      <c r="E80" s="99"/>
+      <c r="F80" s="99"/>
+      <c r="G80" s="100"/>
+      <c r="H80" s="100"/>
+      <c r="I80" s="100"/>
+      <c r="J80" s="100"/>
+      <c r="K80" s="100"/>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1"/>
   <mergeCells count="212">
-    <mergeCell ref="B76:C78"/>
-    <mergeCell ref="D76:E76"/>
-    <mergeCell ref="F76:H76"/>
-    <mergeCell ref="I76:K76"/>
+    <mergeCell ref="B69:D69"/>
+    <mergeCell ref="B77:C79"/>
     <mergeCell ref="D77:E77"/>
     <mergeCell ref="F77:H77"/>
     <mergeCell ref="I77:K77"/>
     <mergeCell ref="D78:E78"/>
     <mergeCell ref="F78:H78"/>
     <mergeCell ref="I78:K78"/>
-    <mergeCell ref="B71:E71"/>
-    <mergeCell ref="F71:K71"/>
+    <mergeCell ref="D79:E79"/>
+    <mergeCell ref="F79:H79"/>
+    <mergeCell ref="I79:K79"/>
     <mergeCell ref="B72:E72"/>
     <mergeCell ref="F72:K72"/>
     <mergeCell ref="B73:E73"/>
     <mergeCell ref="F73:K73"/>
     <mergeCell ref="B74:E74"/>
     <mergeCell ref="F74:K74"/>
-    <mergeCell ref="B75:C75"/>
-    <mergeCell ref="D75:E75"/>
+    <mergeCell ref="B75:E75"/>
     <mergeCell ref="F75:K75"/>
+    <mergeCell ref="B76:C76"/>
+    <mergeCell ref="D76:E76"/>
+    <mergeCell ref="F76:K76"/>
     <mergeCell ref="E27:F27"/>
     <mergeCell ref="C24:D24"/>
     <mergeCell ref="E24:F24"/>
@@ -11666,17 +11715,6 @@
     <mergeCell ref="M23:N23"/>
     <mergeCell ref="H25:I25"/>
     <mergeCell ref="D5:H5"/>
-    <mergeCell ref="AJ40:AK40"/>
-    <mergeCell ref="AO40:AP40"/>
-    <mergeCell ref="Q18:Q19"/>
-    <mergeCell ref="Y16:Z16"/>
-    <mergeCell ref="O39:P39"/>
-    <mergeCell ref="T24:W24"/>
-    <mergeCell ref="O24:P24"/>
-    <mergeCell ref="O34:P34"/>
-    <mergeCell ref="T43:V43"/>
-    <mergeCell ref="T27:V27"/>
-    <mergeCell ref="T28:V28"/>
     <mergeCell ref="T42:V42"/>
     <mergeCell ref="T40:W40"/>
     <mergeCell ref="O27:P27"/>
@@ -11689,8 +11727,15 @@
     <mergeCell ref="Q42:Q43"/>
     <mergeCell ref="T32:W32"/>
     <mergeCell ref="Q36:Q37"/>
-    <mergeCell ref="AR38:AS38"/>
-    <mergeCell ref="AJ37:AK37"/>
+    <mergeCell ref="AF38:AF39"/>
+    <mergeCell ref="Q18:Q19"/>
+    <mergeCell ref="Y16:Z16"/>
+    <mergeCell ref="O39:P39"/>
+    <mergeCell ref="T24:W24"/>
+    <mergeCell ref="O24:P24"/>
+    <mergeCell ref="O34:P34"/>
+    <mergeCell ref="T27:V27"/>
+    <mergeCell ref="T28:V28"/>
     <mergeCell ref="AJ32:AK32"/>
     <mergeCell ref="Y32:Z32"/>
     <mergeCell ref="AR33:AS33"/>
@@ -11700,18 +11745,10 @@
     <mergeCell ref="AM35:AN35"/>
     <mergeCell ref="AO35:AQ35"/>
     <mergeCell ref="AR35:AS35"/>
-    <mergeCell ref="AP37:AQ37"/>
-    <mergeCell ref="AJ38:AL38"/>
-    <mergeCell ref="AM38:AN38"/>
-    <mergeCell ref="AO38:AQ38"/>
     <mergeCell ref="AO32:AP32"/>
     <mergeCell ref="AJ33:AL33"/>
     <mergeCell ref="AM33:AN33"/>
     <mergeCell ref="AO33:AQ33"/>
-    <mergeCell ref="AF38:AF39"/>
-    <mergeCell ref="AR44:AS44"/>
-    <mergeCell ref="AJ43:AK43"/>
-    <mergeCell ref="AO43:AP43"/>
     <mergeCell ref="AR41:AS41"/>
     <mergeCell ref="AJ44:AL44"/>
     <mergeCell ref="AM44:AN44"/>
@@ -11719,13 +11756,25 @@
     <mergeCell ref="AO41:AQ41"/>
     <mergeCell ref="AJ41:AL41"/>
     <mergeCell ref="AM41:AN41"/>
-    <mergeCell ref="T44:V44"/>
-    <mergeCell ref="F68:J68"/>
-    <mergeCell ref="F66:J66"/>
-    <mergeCell ref="F67:J67"/>
-    <mergeCell ref="E45:F45"/>
-    <mergeCell ref="G45:I45"/>
-    <mergeCell ref="F64:J64"/>
+    <mergeCell ref="AR38:AS38"/>
+    <mergeCell ref="AJ37:AK37"/>
+    <mergeCell ref="AP37:AQ37"/>
+    <mergeCell ref="AJ38:AL38"/>
+    <mergeCell ref="AM38:AN38"/>
+    <mergeCell ref="AO38:AQ38"/>
+    <mergeCell ref="AJ40:AK40"/>
+    <mergeCell ref="AO40:AP40"/>
+    <mergeCell ref="B62:E62"/>
+    <mergeCell ref="B64:E64"/>
+    <mergeCell ref="B65:E65"/>
+    <mergeCell ref="B66:E66"/>
+    <mergeCell ref="B67:E67"/>
+    <mergeCell ref="I53:L53"/>
+    <mergeCell ref="C46:F46"/>
+    <mergeCell ref="AR44:AS44"/>
+    <mergeCell ref="AJ43:AK43"/>
+    <mergeCell ref="AO43:AP43"/>
+    <mergeCell ref="T43:V43"/>
     <mergeCell ref="F63:J63"/>
     <mergeCell ref="F65:J65"/>
     <mergeCell ref="I48:L48"/>
@@ -11735,13 +11784,6 @@
     <mergeCell ref="I52:L52"/>
     <mergeCell ref="L45:N45"/>
     <mergeCell ref="O45:P45"/>
-    <mergeCell ref="B62:E62"/>
-    <mergeCell ref="B64:E64"/>
-    <mergeCell ref="B65:E65"/>
-    <mergeCell ref="B66:E66"/>
-    <mergeCell ref="B67:E67"/>
-    <mergeCell ref="B68:E68"/>
-    <mergeCell ref="I53:L53"/>
     <mergeCell ref="C39:F39"/>
     <mergeCell ref="C36:D36"/>
     <mergeCell ref="E34:F34"/>
@@ -11751,6 +11793,13 @@
     <mergeCell ref="D40:F40"/>
     <mergeCell ref="G34:I34"/>
     <mergeCell ref="C42:D42"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="H38:I38"/>
+    <mergeCell ref="M38:N38"/>
+    <mergeCell ref="G39:I39"/>
+    <mergeCell ref="G36:I36"/>
+    <mergeCell ref="J36:K36"/>
+    <mergeCell ref="D38:F38"/>
     <mergeCell ref="H15:I15"/>
     <mergeCell ref="M15:N15"/>
     <mergeCell ref="H26:I26"/>
@@ -11775,8 +11824,7 @@
     <mergeCell ref="L36:N36"/>
     <mergeCell ref="J34:K34"/>
     <mergeCell ref="J42:K42"/>
-    <mergeCell ref="C46:F46"/>
-    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="F69:J69"/>
     <mergeCell ref="G46:H46"/>
     <mergeCell ref="C45:D45"/>
     <mergeCell ref="I54:L59"/>
@@ -11786,19 +11834,19 @@
     <mergeCell ref="M40:N40"/>
     <mergeCell ref="M44:N44"/>
     <mergeCell ref="I51:L51"/>
-    <mergeCell ref="H38:I38"/>
     <mergeCell ref="B54:H54"/>
     <mergeCell ref="H40:I40"/>
     <mergeCell ref="E42:F42"/>
     <mergeCell ref="G42:I42"/>
     <mergeCell ref="M48:T48"/>
     <mergeCell ref="M49:T59"/>
-    <mergeCell ref="M38:N38"/>
     <mergeCell ref="L42:N42"/>
-    <mergeCell ref="G39:I39"/>
-    <mergeCell ref="G36:I36"/>
-    <mergeCell ref="J36:K36"/>
-    <mergeCell ref="D38:F38"/>
+    <mergeCell ref="T44:V44"/>
+    <mergeCell ref="F66:J66"/>
+    <mergeCell ref="F67:J67"/>
+    <mergeCell ref="E45:F45"/>
+    <mergeCell ref="G45:I45"/>
+    <mergeCell ref="F64:J64"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <dataValidations disablePrompts="1" count="1">
@@ -11855,7 +11903,7 @@
         <v>5</v>
       </c>
       <c r="B1" s="248" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C1" s="215"/>
       <c r="D1" s="215"/>
@@ -11882,207 +11930,207 @@
     </row>
     <row r="2" spans="1:24" s="219" customFormat="1" ht="18.75" customHeight="1">
       <c r="A2" s="218"/>
-      <c r="B2" s="342" t="s">
+      <c r="B2" s="361" t="s">
+        <v>474</v>
+      </c>
+      <c r="C2" s="363" t="s">
         <v>475</v>
       </c>
-      <c r="C2" s="344" t="s">
+      <c r="D2" s="364"/>
+      <c r="E2" s="364"/>
+      <c r="F2" s="364"/>
+      <c r="G2" s="364"/>
+      <c r="H2" s="365"/>
+      <c r="I2" s="369" t="s">
+        <v>546</v>
+      </c>
+      <c r="J2" s="370"/>
+      <c r="K2" s="370"/>
+      <c r="L2" s="371"/>
+      <c r="M2" s="375" t="s">
         <v>476</v>
       </c>
-      <c r="D2" s="345"/>
-      <c r="E2" s="345"/>
-      <c r="F2" s="345"/>
-      <c r="G2" s="345"/>
-      <c r="H2" s="346"/>
-      <c r="I2" s="350" t="s">
-        <v>548</v>
-      </c>
-      <c r="J2" s="351"/>
-      <c r="K2" s="351"/>
-      <c r="L2" s="352"/>
-      <c r="M2" s="356" t="s">
+      <c r="N2" s="376"/>
+      <c r="O2" s="377"/>
+      <c r="P2" s="369" t="s">
         <v>477</v>
       </c>
-      <c r="N2" s="357"/>
-      <c r="O2" s="358"/>
-      <c r="P2" s="350" t="s">
+      <c r="Q2" s="371"/>
+      <c r="R2" s="369" t="s">
         <v>478</v>
       </c>
-      <c r="Q2" s="352"/>
-      <c r="R2" s="350" t="s">
+      <c r="S2" s="371"/>
+      <c r="T2" s="369" t="s">
         <v>479</v>
       </c>
-      <c r="S2" s="352"/>
-      <c r="T2" s="350" t="s">
+      <c r="U2" s="371"/>
+      <c r="V2" s="375" t="s">
         <v>480</v>
       </c>
-      <c r="U2" s="352"/>
-      <c r="V2" s="356" t="s">
-        <v>481</v>
-      </c>
-      <c r="W2" s="357"/>
-      <c r="X2" s="358"/>
+      <c r="W2" s="376"/>
+      <c r="X2" s="377"/>
     </row>
     <row r="3" spans="1:24" s="219" customFormat="1" ht="28.5" customHeight="1">
       <c r="A3" s="218"/>
-      <c r="B3" s="343"/>
-      <c r="C3" s="347"/>
-      <c r="D3" s="348"/>
-      <c r="E3" s="348"/>
-      <c r="F3" s="348"/>
-      <c r="G3" s="348"/>
-      <c r="H3" s="349"/>
-      <c r="I3" s="353"/>
-      <c r="J3" s="354"/>
-      <c r="K3" s="354"/>
-      <c r="L3" s="355"/>
-      <c r="M3" s="359"/>
-      <c r="N3" s="360"/>
-      <c r="O3" s="361"/>
-      <c r="P3" s="353"/>
-      <c r="Q3" s="355"/>
-      <c r="R3" s="353"/>
-      <c r="S3" s="355"/>
-      <c r="T3" s="353"/>
-      <c r="U3" s="355"/>
-      <c r="V3" s="359"/>
-      <c r="W3" s="360"/>
-      <c r="X3" s="361"/>
+      <c r="B3" s="362"/>
+      <c r="C3" s="366"/>
+      <c r="D3" s="367"/>
+      <c r="E3" s="367"/>
+      <c r="F3" s="367"/>
+      <c r="G3" s="367"/>
+      <c r="H3" s="368"/>
+      <c r="I3" s="372"/>
+      <c r="J3" s="373"/>
+      <c r="K3" s="373"/>
+      <c r="L3" s="374"/>
+      <c r="M3" s="378"/>
+      <c r="N3" s="379"/>
+      <c r="O3" s="380"/>
+      <c r="P3" s="372"/>
+      <c r="Q3" s="374"/>
+      <c r="R3" s="372"/>
+      <c r="S3" s="374"/>
+      <c r="T3" s="372"/>
+      <c r="U3" s="374"/>
+      <c r="V3" s="378"/>
+      <c r="W3" s="379"/>
+      <c r="X3" s="380"/>
     </row>
     <row r="4" spans="1:24" s="219" customFormat="1" ht="19.5" customHeight="1">
       <c r="A4" s="218"/>
       <c r="B4" s="253" t="s">
-        <v>552</v>
-      </c>
-      <c r="C4" s="362" t="s">
+        <v>550</v>
+      </c>
+      <c r="C4" s="381" t="s">
+        <v>526</v>
+      </c>
+      <c r="D4" s="382"/>
+      <c r="E4" s="382"/>
+      <c r="F4" s="382"/>
+      <c r="G4" s="382"/>
+      <c r="H4" s="383"/>
+      <c r="I4" s="384" t="s">
+        <v>527</v>
+      </c>
+      <c r="J4" s="385"/>
+      <c r="K4" s="385"/>
+      <c r="L4" s="386"/>
+      <c r="M4" s="387" t="s">
         <v>528</v>
       </c>
-      <c r="D4" s="363"/>
-      <c r="E4" s="363"/>
-      <c r="F4" s="363"/>
-      <c r="G4" s="363"/>
-      <c r="H4" s="364"/>
-      <c r="I4" s="365" t="s">
+      <c r="N4" s="388"/>
+      <c r="O4" s="389"/>
+      <c r="P4" s="390" t="s">
         <v>529</v>
       </c>
-      <c r="J4" s="366"/>
-      <c r="K4" s="366"/>
-      <c r="L4" s="367"/>
-      <c r="M4" s="368" t="s">
+      <c r="Q4" s="391"/>
+      <c r="R4" s="392" t="s">
         <v>530</v>
       </c>
-      <c r="N4" s="369"/>
-      <c r="O4" s="370"/>
-      <c r="P4" s="371" t="s">
+      <c r="S4" s="393"/>
+      <c r="T4" s="381"/>
+      <c r="U4" s="383"/>
+      <c r="V4" s="381" t="s">
         <v>531</v>
       </c>
-      <c r="Q4" s="372"/>
-      <c r="R4" s="373" t="s">
-        <v>532</v>
-      </c>
-      <c r="S4" s="374"/>
-      <c r="T4" s="362"/>
-      <c r="U4" s="364"/>
-      <c r="V4" s="362" t="s">
-        <v>533</v>
-      </c>
-      <c r="W4" s="363"/>
-      <c r="X4" s="364"/>
+      <c r="W4" s="382"/>
+      <c r="X4" s="383"/>
     </row>
     <row r="5" spans="1:24" s="219" customFormat="1" ht="19.5" customHeight="1">
       <c r="A5" s="218"/>
       <c r="B5" s="220" t="s">
-        <v>482</v>
-      </c>
-      <c r="C5" s="375"/>
-      <c r="D5" s="376"/>
-      <c r="E5" s="376"/>
-      <c r="F5" s="376"/>
-      <c r="G5" s="376"/>
-      <c r="H5" s="377"/>
-      <c r="I5" s="378" t="s">
+        <v>481</v>
+      </c>
+      <c r="C5" s="394"/>
+      <c r="D5" s="395"/>
+      <c r="E5" s="395"/>
+      <c r="F5" s="395"/>
+      <c r="G5" s="395"/>
+      <c r="H5" s="396"/>
+      <c r="I5" s="397" t="s">
+        <v>532</v>
+      </c>
+      <c r="J5" s="398"/>
+      <c r="K5" s="398"/>
+      <c r="L5" s="399"/>
+      <c r="M5" s="400" t="s">
+        <v>533</v>
+      </c>
+      <c r="N5" s="401"/>
+      <c r="O5" s="402"/>
+      <c r="P5" s="403" t="s">
         <v>534</v>
       </c>
-      <c r="J5" s="379"/>
-      <c r="K5" s="379"/>
-      <c r="L5" s="380"/>
-      <c r="M5" s="381" t="s">
+      <c r="Q5" s="404"/>
+      <c r="R5" s="405" t="s">
         <v>535</v>
       </c>
-      <c r="N5" s="382"/>
-      <c r="O5" s="383"/>
-      <c r="P5" s="384" t="s">
-        <v>536</v>
-      </c>
-      <c r="Q5" s="385"/>
-      <c r="R5" s="386" t="s">
-        <v>537</v>
-      </c>
-      <c r="S5" s="377"/>
-      <c r="T5" s="375"/>
-      <c r="U5" s="377"/>
-      <c r="V5" s="375"/>
-      <c r="W5" s="376"/>
-      <c r="X5" s="377"/>
+      <c r="S5" s="396"/>
+      <c r="T5" s="394"/>
+      <c r="U5" s="396"/>
+      <c r="V5" s="394"/>
+      <c r="W5" s="395"/>
+      <c r="X5" s="396"/>
     </row>
     <row r="6" spans="1:24" s="219" customFormat="1" ht="30.75" customHeight="1">
       <c r="A6" s="218"/>
       <c r="B6" s="221"/>
-      <c r="C6" s="392"/>
-      <c r="D6" s="393"/>
-      <c r="E6" s="393"/>
-      <c r="F6" s="393"/>
-      <c r="G6" s="393"/>
-      <c r="H6" s="393"/>
-      <c r="I6" s="393"/>
-      <c r="J6" s="393"/>
-      <c r="K6" s="393"/>
-      <c r="L6" s="393"/>
-      <c r="M6" s="393"/>
-      <c r="N6" s="393"/>
-      <c r="O6" s="393"/>
-      <c r="P6" s="393"/>
-      <c r="Q6" s="393"/>
-      <c r="R6" s="393"/>
-      <c r="S6" s="393"/>
-      <c r="T6" s="393"/>
-      <c r="U6" s="393"/>
-      <c r="V6" s="393"/>
-      <c r="W6" s="393"/>
-      <c r="X6" s="394"/>
+      <c r="C6" s="411"/>
+      <c r="D6" s="412"/>
+      <c r="E6" s="412"/>
+      <c r="F6" s="412"/>
+      <c r="G6" s="412"/>
+      <c r="H6" s="412"/>
+      <c r="I6" s="412"/>
+      <c r="J6" s="412"/>
+      <c r="K6" s="412"/>
+      <c r="L6" s="412"/>
+      <c r="M6" s="412"/>
+      <c r="N6" s="412"/>
+      <c r="O6" s="412"/>
+      <c r="P6" s="412"/>
+      <c r="Q6" s="412"/>
+      <c r="R6" s="412"/>
+      <c r="S6" s="412"/>
+      <c r="T6" s="412"/>
+      <c r="U6" s="412"/>
+      <c r="V6" s="412"/>
+      <c r="W6" s="412"/>
+      <c r="X6" s="413"/>
     </row>
     <row r="7" spans="1:24" s="219" customFormat="1" ht="19.5" customHeight="1">
       <c r="A7" s="218"/>
-      <c r="B7" s="375" t="s">
-        <v>483</v>
-      </c>
-      <c r="C7" s="376"/>
+      <c r="B7" s="394" t="s">
+        <v>482</v>
+      </c>
+      <c r="C7" s="395"/>
       <c r="D7" s="222"/>
       <c r="E7" s="222"/>
       <c r="F7" s="222"/>
       <c r="G7" s="222"/>
       <c r="H7" s="223"/>
-      <c r="I7" s="365" t="s">
+      <c r="I7" s="384" t="s">
+        <v>532</v>
+      </c>
+      <c r="J7" s="385"/>
+      <c r="K7" s="385"/>
+      <c r="L7" s="386"/>
+      <c r="M7" s="387" t="s">
+        <v>533</v>
+      </c>
+      <c r="N7" s="388"/>
+      <c r="O7" s="389"/>
+      <c r="P7" s="390" t="s">
         <v>534</v>
       </c>
-      <c r="J7" s="366"/>
-      <c r="K7" s="366"/>
-      <c r="L7" s="367"/>
-      <c r="M7" s="368" t="s">
-        <v>535</v>
-      </c>
-      <c r="N7" s="369"/>
-      <c r="O7" s="370"/>
-      <c r="P7" s="371" t="s">
-        <v>536</v>
-      </c>
-      <c r="Q7" s="372"/>
-      <c r="R7" s="386"/>
-      <c r="S7" s="395"/>
-      <c r="T7" s="375"/>
-      <c r="U7" s="377"/>
-      <c r="V7" s="375"/>
-      <c r="W7" s="376"/>
-      <c r="X7" s="377"/>
+      <c r="Q7" s="391"/>
+      <c r="R7" s="405"/>
+      <c r="S7" s="414"/>
+      <c r="T7" s="394"/>
+      <c r="U7" s="396"/>
+      <c r="V7" s="394"/>
+      <c r="W7" s="395"/>
+      <c r="X7" s="396"/>
     </row>
     <row r="8" spans="1:24" s="219" customFormat="1" ht="19.5" customHeight="1">
       <c r="A8" s="218"/>
@@ -12114,128 +12162,128 @@
       <c r="A9" s="214">
         <v>6</v>
       </c>
-      <c r="B9" s="404" t="s">
-        <v>484</v>
-      </c>
-      <c r="C9" s="404"/>
-      <c r="D9" s="404"/>
+      <c r="B9" s="423" t="s">
+        <v>483</v>
+      </c>
+      <c r="C9" s="423"/>
+      <c r="D9" s="423"/>
     </row>
     <row r="10" spans="1:24" ht="19.5" customHeight="1">
       <c r="G10" s="231"/>
       <c r="H10" s="231"/>
-      <c r="O10" s="344" t="s">
-        <v>547</v>
-      </c>
-      <c r="P10" s="345"/>
-      <c r="Q10" s="345"/>
-      <c r="R10" s="346"/>
-      <c r="S10" s="396" t="s">
+      <c r="O10" s="363" t="s">
+        <v>545</v>
+      </c>
+      <c r="P10" s="364"/>
+      <c r="Q10" s="364"/>
+      <c r="R10" s="365"/>
+      <c r="S10" s="415" t="s">
+        <v>486</v>
+      </c>
+      <c r="T10" s="415"/>
+      <c r="U10" s="415"/>
+      <c r="V10" s="415" t="s">
         <v>487</v>
       </c>
-      <c r="T10" s="396"/>
-      <c r="U10" s="396"/>
-      <c r="V10" s="396" t="s">
-        <v>488</v>
-      </c>
-      <c r="W10" s="396"/>
-      <c r="X10" s="396"/>
+      <c r="W10" s="415"/>
+      <c r="X10" s="415"/>
     </row>
     <row r="11" spans="1:24" ht="22.9" customHeight="1">
       <c r="B11" s="232" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="C11" s="232"/>
       <c r="D11" s="232"/>
-      <c r="E11" s="398" t="s">
-        <v>538</v>
-      </c>
-      <c r="F11" s="398"/>
-      <c r="G11" s="398"/>
-      <c r="H11" s="398"/>
-      <c r="I11" s="398"/>
-      <c r="J11" s="398"/>
+      <c r="E11" s="417" t="s">
+        <v>536</v>
+      </c>
+      <c r="F11" s="417"/>
+      <c r="G11" s="417"/>
+      <c r="H11" s="417"/>
+      <c r="I11" s="417"/>
+      <c r="J11" s="417"/>
       <c r="K11" s="251" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="L11" s="233" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="M11" s="250" t="s">
-        <v>486</v>
-      </c>
-      <c r="O11" s="347"/>
-      <c r="P11" s="348"/>
-      <c r="Q11" s="348"/>
-      <c r="R11" s="349"/>
-      <c r="S11" s="396"/>
-      <c r="T11" s="396"/>
-      <c r="U11" s="396"/>
-      <c r="V11" s="396"/>
-      <c r="W11" s="396"/>
-      <c r="X11" s="396"/>
+        <v>485</v>
+      </c>
+      <c r="O11" s="366"/>
+      <c r="P11" s="367"/>
+      <c r="Q11" s="367"/>
+      <c r="R11" s="368"/>
+      <c r="S11" s="415"/>
+      <c r="T11" s="415"/>
+      <c r="U11" s="415"/>
+      <c r="V11" s="415"/>
+      <c r="W11" s="415"/>
+      <c r="X11" s="415"/>
     </row>
     <row r="12" spans="1:24" ht="27.6" customHeight="1">
       <c r="B12" s="232" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="C12" s="232"/>
       <c r="D12" s="232"/>
-      <c r="E12" s="391" t="s">
+      <c r="E12" s="410" t="s">
+        <v>537</v>
+      </c>
+      <c r="F12" s="410"/>
+      <c r="G12" s="410"/>
+      <c r="H12" s="410"/>
+      <c r="I12" s="410"/>
+      <c r="J12" s="410"/>
+      <c r="K12" s="252" t="s">
+        <v>481</v>
+      </c>
+      <c r="L12" s="234" t="s">
+        <v>552</v>
+      </c>
+      <c r="M12" s="250" t="s">
+        <v>485</v>
+      </c>
+      <c r="O12" s="418" t="s">
         <v>539</v>
       </c>
-      <c r="F12" s="391"/>
-      <c r="G12" s="391"/>
-      <c r="H12" s="391"/>
-      <c r="I12" s="391"/>
-      <c r="J12" s="391"/>
-      <c r="K12" s="252" t="s">
-        <v>482</v>
-      </c>
-      <c r="L12" s="234" t="s">
-        <v>554</v>
-      </c>
-      <c r="M12" s="250" t="s">
-        <v>486</v>
-      </c>
-      <c r="O12" s="399" t="s">
+      <c r="P12" s="419"/>
+      <c r="Q12" s="419"/>
+      <c r="R12" s="420"/>
+      <c r="S12" s="406" t="s">
+        <v>540</v>
+      </c>
+      <c r="T12" s="407"/>
+      <c r="U12" s="408"/>
+      <c r="V12" s="406" t="s">
         <v>541</v>
       </c>
-      <c r="P12" s="400"/>
-      <c r="Q12" s="400"/>
-      <c r="R12" s="401"/>
-      <c r="S12" s="387" t="s">
-        <v>542</v>
-      </c>
-      <c r="T12" s="388"/>
-      <c r="U12" s="389"/>
-      <c r="V12" s="387" t="s">
-        <v>543</v>
-      </c>
-      <c r="W12" s="388"/>
-      <c r="X12" s="389"/>
+      <c r="W12" s="407"/>
+      <c r="X12" s="408"/>
     </row>
     <row r="13" spans="1:24" ht="27" customHeight="1">
-      <c r="B13" s="390" t="s">
-        <v>490</v>
-      </c>
-      <c r="C13" s="390"/>
-      <c r="D13" s="390"/>
-      <c r="E13" s="391" t="s">
-        <v>540</v>
-      </c>
-      <c r="F13" s="391"/>
-      <c r="G13" s="391"/>
-      <c r="H13" s="391"/>
-      <c r="I13" s="391"/>
-      <c r="J13" s="391"/>
+      <c r="B13" s="409" t="s">
+        <v>489</v>
+      </c>
+      <c r="C13" s="409"/>
+      <c r="D13" s="409"/>
+      <c r="E13" s="410" t="s">
+        <v>538</v>
+      </c>
+      <c r="F13" s="410"/>
+      <c r="G13" s="410"/>
+      <c r="H13" s="410"/>
+      <c r="I13" s="410"/>
+      <c r="J13" s="410"/>
       <c r="K13" s="252" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="L13" s="234" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="M13" s="250" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="O13" s="235"/>
       <c r="P13" s="235"/>
@@ -12249,12 +12297,12 @@
       <c r="X13" s="235"/>
     </row>
     <row r="14" spans="1:24" ht="19.5" customHeight="1">
-      <c r="E14" s="397"/>
-      <c r="F14" s="397"/>
-      <c r="G14" s="397"/>
-      <c r="H14" s="397"/>
-      <c r="I14" s="397"/>
-      <c r="J14" s="397"/>
+      <c r="E14" s="416"/>
+      <c r="F14" s="416"/>
+      <c r="G14" s="416"/>
+      <c r="H14" s="416"/>
+      <c r="I14" s="416"/>
+      <c r="J14" s="416"/>
       <c r="O14" s="235"/>
       <c r="P14" s="235"/>
       <c r="Q14" s="235"/>
@@ -12267,23 +12315,23 @@
       <c r="X14" s="235"/>
     </row>
     <row r="15" spans="1:24" ht="18.75" customHeight="1">
-      <c r="A15" s="402"/>
-      <c r="B15" s="402"/>
-      <c r="C15" s="402" t="s">
-        <v>491</v>
-      </c>
-      <c r="D15" s="402"/>
+      <c r="A15" s="421"/>
+      <c r="B15" s="421"/>
+      <c r="C15" s="421" t="s">
+        <v>490</v>
+      </c>
+      <c r="D15" s="421"/>
       <c r="E15" s="217" t="s">
         <v>8</v>
       </c>
-      <c r="F15" s="403" t="s">
-        <v>549</v>
-      </c>
-      <c r="G15" s="403"/>
-      <c r="H15" s="403"/>
-      <c r="I15" s="403"/>
+      <c r="F15" s="422" t="s">
+        <v>547</v>
+      </c>
+      <c r="G15" s="422"/>
+      <c r="H15" s="422"/>
+      <c r="I15" s="422"/>
       <c r="J15" s="217" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="O15" s="235"/>
       <c r="P15" s="235"/>
@@ -12297,23 +12345,23 @@
       <c r="X15" s="235"/>
     </row>
     <row r="16" spans="1:24" ht="19.5" customHeight="1">
-      <c r="A16" s="402"/>
-      <c r="B16" s="402"/>
-      <c r="C16" s="402" t="s">
-        <v>493</v>
-      </c>
-      <c r="D16" s="402"/>
+      <c r="A16" s="421"/>
+      <c r="B16" s="421"/>
+      <c r="C16" s="421" t="s">
+        <v>492</v>
+      </c>
+      <c r="D16" s="421"/>
       <c r="E16" s="217" t="s">
         <v>8</v>
       </c>
-      <c r="F16" s="403" t="s">
-        <v>550</v>
-      </c>
-      <c r="G16" s="403"/>
-      <c r="H16" s="403"/>
-      <c r="I16" s="403"/>
+      <c r="F16" s="422" t="s">
+        <v>548</v>
+      </c>
+      <c r="G16" s="422"/>
+      <c r="H16" s="422"/>
+      <c r="I16" s="422"/>
       <c r="J16" s="217" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="O16" s="235"/>
       <c r="P16" s="235"/>
@@ -12327,28 +12375,28 @@
       <c r="X16" s="235"/>
     </row>
     <row r="17" spans="1:36" ht="19.5" customHeight="1">
-      <c r="A17" s="402"/>
-      <c r="B17" s="402"/>
-      <c r="C17" s="402" t="s">
+      <c r="A17" s="421"/>
+      <c r="B17" s="421"/>
+      <c r="C17" s="421" t="s">
+        <v>494</v>
+      </c>
+      <c r="D17" s="421"/>
+      <c r="E17" s="217" t="s">
         <v>495</v>
       </c>
-      <c r="D17" s="402"/>
-      <c r="E17" s="217" t="s">
+      <c r="F17" s="422" t="s">
+        <v>549</v>
+      </c>
+      <c r="G17" s="422"/>
+      <c r="H17" s="422"/>
+      <c r="I17" s="422"/>
+      <c r="J17" s="217" t="s">
         <v>496</v>
-      </c>
-      <c r="F17" s="403" t="s">
-        <v>551</v>
-      </c>
-      <c r="G17" s="403"/>
-      <c r="H17" s="403"/>
-      <c r="I17" s="403"/>
-      <c r="J17" s="217" t="s">
-        <v>497</v>
       </c>
     </row>
     <row r="18" spans="1:36" ht="18.75" customHeight="1">
       <c r="AJ18" s="217" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19" spans="1:36" ht="19.5" customHeight="1">
@@ -12356,7 +12404,7 @@
         <v>7</v>
       </c>
       <c r="B19" s="247" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="C19" s="247"/>
       <c r="D19" s="247"/>
@@ -12379,119 +12427,119 @@
       <c r="U19" s="216"/>
     </row>
     <row r="20" spans="1:36" ht="19.5" customHeight="1">
-      <c r="B20" s="412" t="s">
+      <c r="B20" s="431" t="s">
+        <v>498</v>
+      </c>
+      <c r="C20" s="432"/>
+      <c r="D20" s="432"/>
+      <c r="E20" s="432"/>
+      <c r="F20" s="441"/>
+      <c r="G20" s="446" t="s">
+        <v>554</v>
+      </c>
+      <c r="H20" s="447"/>
+      <c r="I20" s="447"/>
+      <c r="J20" s="447"/>
+      <c r="K20" s="447"/>
+      <c r="L20" s="447"/>
+      <c r="M20" s="238" t="s">
         <v>499</v>
       </c>
-      <c r="C20" s="413"/>
-      <c r="D20" s="413"/>
-      <c r="E20" s="413"/>
-      <c r="F20" s="422"/>
-      <c r="G20" s="427" t="s">
-        <v>556</v>
-      </c>
-      <c r="H20" s="428"/>
-      <c r="I20" s="428"/>
-      <c r="J20" s="428"/>
-      <c r="K20" s="428"/>
-      <c r="L20" s="428"/>
-      <c r="M20" s="238" t="s">
-        <v>500</v>
-      </c>
-      <c r="N20" s="410" t="s">
-        <v>557</v>
-      </c>
-      <c r="O20" s="411"/>
+      <c r="N20" s="429" t="s">
+        <v>555</v>
+      </c>
+      <c r="O20" s="430"/>
       <c r="P20" s="239"/>
       <c r="Q20" s="240" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="R20" s="240"/>
       <c r="S20" s="241"/>
-      <c r="T20" s="423" t="s">
-        <v>544</v>
-      </c>
-      <c r="U20" s="423"/>
-      <c r="V20" s="423"/>
-      <c r="W20" s="423"/>
-      <c r="X20" s="423"/>
+      <c r="T20" s="442" t="s">
+        <v>542</v>
+      </c>
+      <c r="U20" s="442"/>
+      <c r="V20" s="442"/>
+      <c r="W20" s="442"/>
+      <c r="X20" s="442"/>
     </row>
     <row r="21" spans="1:36" ht="19.5" customHeight="1">
-      <c r="B21" s="407" t="s">
-        <v>503</v>
-      </c>
-      <c r="C21" s="408"/>
-      <c r="D21" s="408"/>
-      <c r="E21" s="408"/>
-      <c r="F21" s="409"/>
-      <c r="G21" s="427" t="s">
-        <v>558</v>
-      </c>
-      <c r="H21" s="428"/>
-      <c r="I21" s="428"/>
-      <c r="J21" s="428"/>
-      <c r="K21" s="428"/>
-      <c r="L21" s="428"/>
+      <c r="B21" s="426" t="s">
+        <v>502</v>
+      </c>
+      <c r="C21" s="427"/>
+      <c r="D21" s="427"/>
+      <c r="E21" s="427"/>
+      <c r="F21" s="428"/>
+      <c r="G21" s="446" t="s">
+        <v>556</v>
+      </c>
+      <c r="H21" s="447"/>
+      <c r="I21" s="447"/>
+      <c r="J21" s="447"/>
+      <c r="K21" s="447"/>
+      <c r="L21" s="447"/>
       <c r="M21" s="238" t="s">
-        <v>500</v>
-      </c>
-      <c r="N21" s="410" t="s">
-        <v>559</v>
-      </c>
-      <c r="O21" s="411"/>
+        <v>499</v>
+      </c>
+      <c r="N21" s="429" t="s">
+        <v>557</v>
+      </c>
+      <c r="O21" s="430"/>
       <c r="P21" s="242"/>
       <c r="Q21" s="243" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="R21" s="243"/>
       <c r="S21" s="244"/>
-      <c r="T21" s="424" t="s">
-        <v>545</v>
-      </c>
-      <c r="U21" s="424" t="s">
+      <c r="T21" s="443" t="s">
+        <v>543</v>
+      </c>
+      <c r="U21" s="443" t="s">
+        <v>503</v>
+      </c>
+      <c r="V21" s="443" t="s">
+        <v>500</v>
+      </c>
+      <c r="W21" s="443" t="s">
+        <v>501</v>
+      </c>
+      <c r="X21" s="443"/>
+    </row>
+    <row r="22" spans="1:36" ht="18.75" customHeight="1">
+      <c r="B22" s="431" t="s">
         <v>504</v>
       </c>
-      <c r="V21" s="424" t="s">
-        <v>501</v>
-      </c>
-      <c r="W21" s="424" t="s">
-        <v>502</v>
-      </c>
-      <c r="X21" s="424"/>
-    </row>
-    <row r="22" spans="1:36" ht="18.75" customHeight="1">
-      <c r="B22" s="412" t="s">
-        <v>505</v>
-      </c>
-      <c r="C22" s="413"/>
-      <c r="D22" s="413"/>
-      <c r="E22" s="413"/>
+      <c r="C22" s="432"/>
+      <c r="D22" s="432"/>
+      <c r="E22" s="432"/>
       <c r="F22" s="245"/>
-      <c r="G22" s="425" t="s">
-        <v>546</v>
-      </c>
-      <c r="H22" s="426"/>
-      <c r="I22" s="426"/>
-      <c r="J22" s="426"/>
-      <c r="K22" s="426"/>
-      <c r="L22" s="426"/>
+      <c r="G22" s="444" t="s">
+        <v>544</v>
+      </c>
+      <c r="H22" s="445"/>
+      <c r="I22" s="445"/>
+      <c r="J22" s="445"/>
+      <c r="K22" s="445"/>
+      <c r="L22" s="445"/>
       <c r="M22" s="238" t="s">
-        <v>500</v>
-      </c>
-      <c r="N22" s="410" t="s">
-        <v>560</v>
-      </c>
-      <c r="O22" s="411"/>
-      <c r="P22" s="414" t="s">
-        <v>435</v>
-      </c>
-      <c r="Q22" s="415"/>
-      <c r="R22" s="415"/>
-      <c r="S22" s="416"/>
-      <c r="T22" s="417"/>
-      <c r="U22" s="418"/>
-      <c r="V22" s="418"/>
-      <c r="W22" s="418"/>
-      <c r="X22" s="419"/>
+        <v>499</v>
+      </c>
+      <c r="N22" s="429" t="s">
+        <v>558</v>
+      </c>
+      <c r="O22" s="430"/>
+      <c r="P22" s="433" t="s">
+        <v>434</v>
+      </c>
+      <c r="Q22" s="434"/>
+      <c r="R22" s="434"/>
+      <c r="S22" s="435"/>
+      <c r="T22" s="436"/>
+      <c r="U22" s="437"/>
+      <c r="V22" s="437"/>
+      <c r="W22" s="437"/>
+      <c r="X22" s="438"/>
     </row>
     <row r="23" spans="1:36" ht="18.75" customHeight="1"/>
     <row r="24" spans="1:36" ht="18.75" customHeight="1">
@@ -12525,7 +12573,7 @@
     </row>
     <row r="25" spans="1:36" ht="19.5" customHeight="1">
       <c r="A25" s="212" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B25" s="211"/>
       <c r="C25" s="211"/>
@@ -12556,7 +12604,7 @@
     </row>
     <row r="26" spans="1:36" ht="19.5" customHeight="1">
       <c r="A26" s="213" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B26" s="211"/>
       <c r="C26" s="211"/>
@@ -12615,17 +12663,17 @@
     </row>
     <row r="28" spans="1:36" ht="19.5" customHeight="1">
       <c r="A28" s="211"/>
-      <c r="B28" s="420" t="s">
-        <v>422</v>
-      </c>
-      <c r="C28" s="420"/>
-      <c r="D28" s="421" t="s">
-        <v>55</v>
-      </c>
-      <c r="E28" s="421"/>
-      <c r="F28" s="421"/>
-      <c r="G28" s="421"/>
-      <c r="H28" s="421"/>
+      <c r="B28" s="439" t="s">
+        <v>421</v>
+      </c>
+      <c r="C28" s="439"/>
+      <c r="D28" s="440" t="s">
+        <v>54</v>
+      </c>
+      <c r="E28" s="440"/>
+      <c r="F28" s="440"/>
+      <c r="G28" s="440"/>
+      <c r="H28" s="440"/>
       <c r="I28" s="2"/>
       <c r="J28" s="2"/>
       <c r="K28" s="2"/>
@@ -12635,15 +12683,15 @@
       <c r="O28" s="2"/>
       <c r="P28" s="2"/>
       <c r="Q28" s="209" t="s">
-        <v>423</v>
-      </c>
-      <c r="R28" s="421" t="s">
-        <v>54</v>
-      </c>
-      <c r="S28" s="421"/>
-      <c r="T28" s="421"/>
-      <c r="U28" s="421"/>
-      <c r="V28" s="421"/>
+        <v>422</v>
+      </c>
+      <c r="R28" s="440" t="s">
+        <v>53</v>
+      </c>
+      <c r="S28" s="440"/>
+      <c r="T28" s="440"/>
+      <c r="U28" s="440"/>
+      <c r="V28" s="440"/>
       <c r="W28" s="210"/>
       <c r="X28" s="4"/>
       <c r="Y28" s="235"/>
@@ -12682,33 +12730,33 @@
     <row r="30" spans="1:36" ht="19.5" customHeight="1">
       <c r="A30" s="211"/>
       <c r="B30" s="209" t="s">
-        <v>424</v>
-      </c>
-      <c r="C30" s="405"/>
-      <c r="D30" s="405"/>
-      <c r="E30" s="405"/>
-      <c r="F30" s="405"/>
-      <c r="G30" s="405"/>
+        <v>423</v>
+      </c>
+      <c r="C30" s="424"/>
+      <c r="D30" s="424"/>
+      <c r="E30" s="424"/>
+      <c r="F30" s="424"/>
+      <c r="G30" s="424"/>
       <c r="H30" s="2"/>
       <c r="I30" s="1" t="s">
-        <v>425</v>
-      </c>
-      <c r="J30" s="405"/>
-      <c r="K30" s="405"/>
-      <c r="L30" s="405"/>
-      <c r="M30" s="405"/>
-      <c r="N30" s="405"/>
-      <c r="O30" s="405"/>
+        <v>424</v>
+      </c>
+      <c r="J30" s="424"/>
+      <c r="K30" s="424"/>
+      <c r="L30" s="424"/>
+      <c r="M30" s="424"/>
+      <c r="N30" s="424"/>
+      <c r="O30" s="424"/>
       <c r="P30" s="2"/>
       <c r="Q30" s="1" t="s">
-        <v>426</v>
-      </c>
-      <c r="R30" s="406"/>
-      <c r="S30" s="406"/>
-      <c r="T30" s="406"/>
-      <c r="U30" s="406"/>
-      <c r="V30" s="406"/>
-      <c r="W30" s="406"/>
+        <v>425</v>
+      </c>
+      <c r="R30" s="425"/>
+      <c r="S30" s="425"/>
+      <c r="T30" s="425"/>
+      <c r="U30" s="425"/>
+      <c r="V30" s="425"/>
+      <c r="W30" s="425"/>
       <c r="X30" s="4"/>
       <c r="Y30" s="235"/>
       <c r="Z30" s="235"/>
@@ -12717,77 +12765,77 @@
     <row r="31" spans="1:36" ht="19.5" customHeight="1">
       <c r="A31" s="211"/>
       <c r="B31" s="209" t="s">
-        <v>427</v>
-      </c>
-      <c r="C31" s="405"/>
-      <c r="D31" s="405"/>
-      <c r="E31" s="405"/>
-      <c r="F31" s="405"/>
-      <c r="G31" s="405"/>
+        <v>426</v>
+      </c>
+      <c r="C31" s="424"/>
+      <c r="D31" s="424"/>
+      <c r="E31" s="424"/>
+      <c r="F31" s="424"/>
+      <c r="G31" s="424"/>
       <c r="H31" s="2"/>
       <c r="I31" s="1" t="s">
-        <v>428</v>
-      </c>
-      <c r="J31" s="405"/>
-      <c r="K31" s="405"/>
-      <c r="L31" s="405"/>
-      <c r="M31" s="405"/>
-      <c r="N31" s="405"/>
-      <c r="O31" s="405"/>
+        <v>427</v>
+      </c>
+      <c r="J31" s="424"/>
+      <c r="K31" s="424"/>
+      <c r="L31" s="424"/>
+      <c r="M31" s="424"/>
+      <c r="N31" s="424"/>
+      <c r="O31" s="424"/>
       <c r="P31" s="2"/>
       <c r="Q31" s="1" t="s">
-        <v>429</v>
-      </c>
-      <c r="R31" s="406"/>
-      <c r="S31" s="406"/>
-      <c r="T31" s="406"/>
-      <c r="U31" s="406"/>
-      <c r="V31" s="406"/>
-      <c r="W31" s="406"/>
+        <v>428</v>
+      </c>
+      <c r="R31" s="425"/>
+      <c r="S31" s="425"/>
+      <c r="T31" s="425"/>
+      <c r="U31" s="425"/>
+      <c r="V31" s="425"/>
+      <c r="W31" s="425"/>
       <c r="X31" s="4"/>
       <c r="Y31" s="235"/>
       <c r="Z31" s="235"/>
       <c r="AA31" s="235"/>
       <c r="AE31" s="217" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="32" spans="1:36" ht="19.5" customHeight="1">
       <c r="A32" s="211"/>
       <c r="B32" s="209" t="s">
-        <v>430</v>
-      </c>
-      <c r="C32" s="405"/>
-      <c r="D32" s="405"/>
-      <c r="E32" s="405"/>
-      <c r="F32" s="405"/>
-      <c r="G32" s="405"/>
+        <v>429</v>
+      </c>
+      <c r="C32" s="424"/>
+      <c r="D32" s="424"/>
+      <c r="E32" s="424"/>
+      <c r="F32" s="424"/>
+      <c r="G32" s="424"/>
       <c r="H32" s="2"/>
       <c r="I32" s="1" t="s">
-        <v>431</v>
-      </c>
-      <c r="J32" s="405"/>
-      <c r="K32" s="405"/>
-      <c r="L32" s="405"/>
-      <c r="M32" s="405"/>
-      <c r="N32" s="405"/>
-      <c r="O32" s="405"/>
+        <v>430</v>
+      </c>
+      <c r="J32" s="424"/>
+      <c r="K32" s="424"/>
+      <c r="L32" s="424"/>
+      <c r="M32" s="424"/>
+      <c r="N32" s="424"/>
+      <c r="O32" s="424"/>
       <c r="P32" s="2"/>
       <c r="Q32" s="1" t="s">
-        <v>432</v>
-      </c>
-      <c r="R32" s="406"/>
-      <c r="S32" s="406"/>
-      <c r="T32" s="406"/>
-      <c r="U32" s="406"/>
-      <c r="V32" s="406"/>
-      <c r="W32" s="406"/>
+        <v>431</v>
+      </c>
+      <c r="R32" s="425"/>
+      <c r="S32" s="425"/>
+      <c r="T32" s="425"/>
+      <c r="U32" s="425"/>
+      <c r="V32" s="425"/>
+      <c r="W32" s="425"/>
       <c r="X32" s="4"/>
       <c r="Y32" s="235"/>
       <c r="Z32" s="235"/>
       <c r="AA32" s="235"/>
       <c r="AC32" s="217" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="33" spans="1:27" ht="19.5" customHeight="1">
@@ -14219,39 +14267,39 @@
     </row>
     <row r="2" spans="1:75" ht="54.6" customHeight="1">
       <c r="A2" s="106" t="s">
-        <v>42</v>
-      </c>
-      <c r="B2" s="476" t="s">
-        <v>52</v>
-      </c>
-      <c r="C2" s="476"/>
-      <c r="D2" s="476"/>
-      <c r="E2" s="485" t="s">
-        <v>506</v>
-      </c>
-      <c r="F2" s="486"/>
-      <c r="G2" s="486"/>
-      <c r="H2" s="486"/>
-      <c r="I2" s="486"/>
-      <c r="J2" s="486"/>
-      <c r="K2" s="486"/>
-      <c r="L2" s="486"/>
-      <c r="M2" s="486"/>
-      <c r="N2" s="486"/>
-      <c r="O2" s="486"/>
-      <c r="P2" s="486"/>
-      <c r="Q2" s="486"/>
-      <c r="R2" s="486"/>
-      <c r="S2" s="486"/>
-      <c r="T2" s="486"/>
-      <c r="U2" s="486"/>
-      <c r="V2" s="486"/>
-      <c r="W2" s="486"/>
-      <c r="X2" s="486"/>
-      <c r="Y2" s="486"/>
-      <c r="Z2" s="486"/>
-      <c r="AA2" s="486"/>
-      <c r="AB2" s="487"/>
+        <v>41</v>
+      </c>
+      <c r="B2" s="495" t="s">
+        <v>51</v>
+      </c>
+      <c r="C2" s="495"/>
+      <c r="D2" s="495"/>
+      <c r="E2" s="504" t="s">
+        <v>505</v>
+      </c>
+      <c r="F2" s="505"/>
+      <c r="G2" s="505"/>
+      <c r="H2" s="505"/>
+      <c r="I2" s="505"/>
+      <c r="J2" s="505"/>
+      <c r="K2" s="505"/>
+      <c r="L2" s="505"/>
+      <c r="M2" s="505"/>
+      <c r="N2" s="505"/>
+      <c r="O2" s="505"/>
+      <c r="P2" s="505"/>
+      <c r="Q2" s="505"/>
+      <c r="R2" s="505"/>
+      <c r="S2" s="505"/>
+      <c r="T2" s="505"/>
+      <c r="U2" s="505"/>
+      <c r="V2" s="505"/>
+      <c r="W2" s="505"/>
+      <c r="X2" s="505"/>
+      <c r="Y2" s="505"/>
+      <c r="Z2" s="505"/>
+      <c r="AA2" s="505"/>
+      <c r="AB2" s="506"/>
       <c r="AC2" s="107"/>
       <c r="AD2" s="107"/>
       <c r="AE2" s="107"/>
@@ -14261,54 +14309,54 @@
       <c r="AI2" s="108"/>
       <c r="AJ2" s="108"/>
       <c r="AP2" s="105"/>
-      <c r="BF2" s="477"/>
-      <c r="BG2" s="477"/>
-      <c r="BH2" s="477"/>
-      <c r="BI2" s="477"/>
-      <c r="BJ2" s="477"/>
-      <c r="BK2" s="477"/>
-      <c r="BL2" s="477"/>
-      <c r="BM2" s="477"/>
-      <c r="BN2" s="477"/>
-      <c r="BO2" s="477"/>
-      <c r="BP2" s="477"/>
-      <c r="BQ2" s="477"/>
-      <c r="BR2" s="477"/>
-      <c r="BS2" s="477"/>
+      <c r="BF2" s="496"/>
+      <c r="BG2" s="496"/>
+      <c r="BH2" s="496"/>
+      <c r="BI2" s="496"/>
+      <c r="BJ2" s="496"/>
+      <c r="BK2" s="496"/>
+      <c r="BL2" s="496"/>
+      <c r="BM2" s="496"/>
+      <c r="BN2" s="496"/>
+      <c r="BO2" s="496"/>
+      <c r="BP2" s="496"/>
+      <c r="BQ2" s="496"/>
+      <c r="BR2" s="496"/>
+      <c r="BS2" s="496"/>
     </row>
     <row r="3" spans="1:75" ht="46.9" customHeight="1" thickBot="1">
       <c r="A3" s="106" t="s">
-        <v>43</v>
-      </c>
-      <c r="B3" s="476" t="s">
-        <v>53</v>
-      </c>
-      <c r="C3" s="476"/>
-      <c r="D3" s="476"/>
-      <c r="E3" s="488"/>
-      <c r="F3" s="489"/>
-      <c r="G3" s="489"/>
-      <c r="H3" s="489"/>
-      <c r="I3" s="489"/>
-      <c r="J3" s="489"/>
-      <c r="K3" s="489"/>
-      <c r="L3" s="489"/>
-      <c r="M3" s="489"/>
-      <c r="N3" s="489"/>
-      <c r="O3" s="489"/>
-      <c r="P3" s="489"/>
-      <c r="Q3" s="489"/>
-      <c r="R3" s="489"/>
-      <c r="S3" s="489"/>
-      <c r="T3" s="489"/>
-      <c r="U3" s="489"/>
-      <c r="V3" s="489"/>
-      <c r="W3" s="489"/>
-      <c r="X3" s="489"/>
-      <c r="Y3" s="489"/>
-      <c r="Z3" s="489"/>
-      <c r="AA3" s="489"/>
-      <c r="AB3" s="490"/>
+        <v>42</v>
+      </c>
+      <c r="B3" s="495" t="s">
+        <v>52</v>
+      </c>
+      <c r="C3" s="495"/>
+      <c r="D3" s="495"/>
+      <c r="E3" s="507"/>
+      <c r="F3" s="508"/>
+      <c r="G3" s="508"/>
+      <c r="H3" s="508"/>
+      <c r="I3" s="508"/>
+      <c r="J3" s="508"/>
+      <c r="K3" s="508"/>
+      <c r="L3" s="508"/>
+      <c r="M3" s="508"/>
+      <c r="N3" s="508"/>
+      <c r="O3" s="508"/>
+      <c r="P3" s="508"/>
+      <c r="Q3" s="508"/>
+      <c r="R3" s="508"/>
+      <c r="S3" s="508"/>
+      <c r="T3" s="508"/>
+      <c r="U3" s="508"/>
+      <c r="V3" s="508"/>
+      <c r="W3" s="508"/>
+      <c r="X3" s="508"/>
+      <c r="Y3" s="508"/>
+      <c r="Z3" s="508"/>
+      <c r="AA3" s="508"/>
+      <c r="AB3" s="509"/>
       <c r="AC3" s="107"/>
       <c r="AD3" s="107"/>
       <c r="AE3" s="107"/>
@@ -14417,22 +14465,22 @@
       <c r="BO4" s="103"/>
     </row>
     <row r="5" spans="1:75" ht="18" customHeight="1">
-      <c r="A5" s="469" t="s">
-        <v>295</v>
-      </c>
-      <c r="B5" s="491" t="s">
+      <c r="A5" s="488" t="s">
+        <v>294</v>
+      </c>
+      <c r="B5" s="510" t="s">
+        <v>385</v>
+      </c>
+      <c r="C5" s="493" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="512" t="s">
         <v>386</v>
       </c>
-      <c r="C5" s="474" t="s">
-        <v>2</v>
-      </c>
-      <c r="D5" s="493" t="s">
-        <v>387</v>
-      </c>
-      <c r="E5" s="495" t="s">
-        <v>383</v>
-      </c>
-      <c r="F5" s="496"/>
+      <c r="E5" s="514" t="s">
+        <v>382</v>
+      </c>
+      <c r="F5" s="515"/>
       <c r="G5" s="113"/>
       <c r="H5" s="113"/>
       <c r="I5" s="113"/>
@@ -14459,10 +14507,10 @@
       <c r="AD5" s="117"/>
       <c r="AE5" s="118"/>
       <c r="AF5" s="118"/>
-      <c r="AG5" s="478"/>
-      <c r="AH5" s="478"/>
-      <c r="AI5" s="478"/>
-      <c r="AJ5" s="478"/>
+      <c r="AG5" s="497"/>
+      <c r="AH5" s="497"/>
+      <c r="AI5" s="497"/>
+      <c r="AJ5" s="497"/>
       <c r="AK5" s="119"/>
       <c r="AL5" s="120"/>
       <c r="AM5" s="121"/>
@@ -14504,12 +14552,12 @@
       <c r="BW5" s="121"/>
     </row>
     <row r="6" spans="1:75" ht="18" customHeight="1">
-      <c r="A6" s="470"/>
-      <c r="B6" s="492"/>
-      <c r="C6" s="475"/>
-      <c r="D6" s="494"/>
-      <c r="E6" s="497"/>
-      <c r="F6" s="498"/>
+      <c r="A6" s="489"/>
+      <c r="B6" s="511"/>
+      <c r="C6" s="494"/>
+      <c r="D6" s="513"/>
+      <c r="E6" s="516"/>
+      <c r="F6" s="517"/>
       <c r="G6" s="74"/>
       <c r="H6" s="74"/>
       <c r="I6" s="74"/>
@@ -14534,12 +14582,12 @@
       <c r="AB6" s="74"/>
       <c r="AC6" s="74"/>
       <c r="AD6" s="74"/>
-      <c r="AE6" s="464"/>
-      <c r="AF6" s="464"/>
+      <c r="AE6" s="483"/>
+      <c r="AF6" s="483"/>
       <c r="AG6" s="122"/>
       <c r="AH6" s="123"/>
-      <c r="AI6" s="464"/>
-      <c r="AJ6" s="464"/>
+      <c r="AI6" s="483"/>
+      <c r="AJ6" s="483"/>
       <c r="AK6" s="123"/>
       <c r="AL6" s="124"/>
       <c r="AM6" s="124"/>
@@ -14581,22 +14629,22 @@
       <c r="BW6" s="125"/>
     </row>
     <row r="7" spans="1:75">
-      <c r="A7" s="465" t="s">
+      <c r="A7" s="484" t="s">
+        <v>300</v>
+      </c>
+      <c r="B7" s="485" t="s">
         <v>301</v>
       </c>
-      <c r="B7" s="466" t="s">
+      <c r="C7" s="484" t="s">
         <v>302</v>
       </c>
-      <c r="C7" s="465" t="s">
+      <c r="D7" s="487" t="s">
         <v>303</v>
       </c>
-      <c r="D7" s="468" t="s">
-        <v>304</v>
-      </c>
-      <c r="E7" s="433" t="s">
-        <v>572</v>
-      </c>
-      <c r="F7" s="434"/>
+      <c r="E7" s="452" t="s">
+        <v>570</v>
+      </c>
+      <c r="F7" s="453"/>
       <c r="G7" s="74"/>
       <c r="H7" s="74"/>
       <c r="I7" s="74"/>
@@ -14646,14 +14694,14 @@
       <c r="BW7" s="132"/>
     </row>
     <row r="8" spans="1:75">
-      <c r="A8" s="465"/>
-      <c r="B8" s="467"/>
-      <c r="C8" s="465"/>
-      <c r="D8" s="468"/>
-      <c r="E8" s="433" t="s">
-        <v>388</v>
-      </c>
-      <c r="F8" s="434"/>
+      <c r="A8" s="484"/>
+      <c r="B8" s="486"/>
+      <c r="C8" s="484"/>
+      <c r="D8" s="487"/>
+      <c r="E8" s="452" t="s">
+        <v>387</v>
+      </c>
+      <c r="F8" s="453"/>
       <c r="G8" s="74"/>
       <c r="H8" s="74"/>
       <c r="I8" s="74"/>
@@ -14700,22 +14748,22 @@
       <c r="BW8" s="132"/>
     </row>
     <row r="9" spans="1:75" ht="15.6" customHeight="1">
-      <c r="A9" s="471" t="s">
+      <c r="A9" s="490" t="s">
+        <v>304</v>
+      </c>
+      <c r="B9" s="485" t="s">
         <v>305</v>
       </c>
-      <c r="B9" s="466" t="s">
+      <c r="C9" s="490" t="s">
         <v>306</v>
       </c>
-      <c r="C9" s="471" t="s">
+      <c r="D9" s="490" t="s">
         <v>307</v>
       </c>
-      <c r="D9" s="471" t="s">
-        <v>308</v>
-      </c>
-      <c r="E9" s="433" t="s">
-        <v>573</v>
-      </c>
-      <c r="F9" s="434"/>
+      <c r="E9" s="452" t="s">
+        <v>571</v>
+      </c>
+      <c r="F9" s="453"/>
       <c r="G9" s="74"/>
       <c r="H9" s="74"/>
       <c r="I9" s="74"/>
@@ -14762,14 +14810,14 @@
       <c r="BW9" s="132"/>
     </row>
     <row r="10" spans="1:75" ht="15.6" customHeight="1">
-      <c r="A10" s="472"/>
-      <c r="B10" s="467"/>
-      <c r="C10" s="472"/>
-      <c r="D10" s="472"/>
-      <c r="E10" s="433" t="s">
-        <v>389</v>
-      </c>
-      <c r="F10" s="434"/>
+      <c r="A10" s="491"/>
+      <c r="B10" s="486"/>
+      <c r="C10" s="491"/>
+      <c r="D10" s="491"/>
+      <c r="E10" s="452" t="s">
+        <v>388</v>
+      </c>
+      <c r="F10" s="453"/>
       <c r="G10" s="74"/>
       <c r="H10" s="74"/>
       <c r="I10" s="74"/>
@@ -14820,22 +14868,22 @@
       <c r="BW10" s="132"/>
     </row>
     <row r="11" spans="1:75" ht="15.6" customHeight="1">
-      <c r="A11" s="471" t="s">
+      <c r="A11" s="490" t="s">
+        <v>308</v>
+      </c>
+      <c r="B11" s="485" t="s">
         <v>309</v>
       </c>
-      <c r="B11" s="466" t="s">
+      <c r="C11" s="490" t="s">
         <v>310</v>
       </c>
-      <c r="C11" s="471" t="s">
+      <c r="D11" s="490" t="s">
         <v>311</v>
       </c>
-      <c r="D11" s="471" t="s">
-        <v>312</v>
-      </c>
-      <c r="E11" s="433" t="s">
-        <v>574</v>
-      </c>
-      <c r="F11" s="434"/>
+      <c r="E11" s="452" t="s">
+        <v>572</v>
+      </c>
+      <c r="F11" s="453"/>
       <c r="G11" s="74"/>
       <c r="H11" s="74"/>
       <c r="I11" s="74"/>
@@ -14887,14 +14935,14 @@
       <c r="BW11" s="132"/>
     </row>
     <row r="12" spans="1:75" ht="15.6" customHeight="1">
-      <c r="A12" s="472"/>
-      <c r="B12" s="467"/>
-      <c r="C12" s="472"/>
-      <c r="D12" s="472"/>
-      <c r="E12" s="433" t="s">
-        <v>390</v>
-      </c>
-      <c r="F12" s="434"/>
+      <c r="A12" s="491"/>
+      <c r="B12" s="486"/>
+      <c r="C12" s="491"/>
+      <c r="D12" s="491"/>
+      <c r="E12" s="452" t="s">
+        <v>389</v>
+      </c>
+      <c r="F12" s="453"/>
       <c r="G12" s="74"/>
       <c r="H12" s="74"/>
       <c r="I12" s="74"/>
@@ -14946,22 +14994,22 @@
       <c r="BW12" s="132"/>
     </row>
     <row r="13" spans="1:75" ht="15.6" customHeight="1">
-      <c r="A13" s="465" t="s">
+      <c r="A13" s="484" t="s">
+        <v>312</v>
+      </c>
+      <c r="B13" s="492" t="s">
         <v>313</v>
       </c>
-      <c r="B13" s="473" t="s">
+      <c r="C13" s="484" t="s">
         <v>314</v>
       </c>
-      <c r="C13" s="465" t="s">
+      <c r="D13" s="487" t="s">
         <v>315</v>
       </c>
-      <c r="D13" s="468" t="s">
-        <v>316</v>
-      </c>
-      <c r="E13" s="433" t="s">
-        <v>575</v>
-      </c>
-      <c r="F13" s="434"/>
+      <c r="E13" s="452" t="s">
+        <v>573</v>
+      </c>
+      <c r="F13" s="453"/>
       <c r="G13" s="74"/>
       <c r="H13" s="74"/>
       <c r="I13" s="74"/>
@@ -15013,14 +15061,14 @@
       <c r="BW13" s="132"/>
     </row>
     <row r="14" spans="1:75">
-      <c r="A14" s="465"/>
-      <c r="B14" s="473"/>
-      <c r="C14" s="465"/>
-      <c r="D14" s="468"/>
-      <c r="E14" s="433" t="s">
-        <v>391</v>
-      </c>
-      <c r="F14" s="434"/>
+      <c r="A14" s="484"/>
+      <c r="B14" s="492"/>
+      <c r="C14" s="484"/>
+      <c r="D14" s="487"/>
+      <c r="E14" s="452" t="s">
+        <v>390</v>
+      </c>
+      <c r="F14" s="453"/>
       <c r="G14" s="74"/>
       <c r="H14" s="74"/>
       <c r="I14" s="74"/>
@@ -15072,22 +15120,22 @@
       <c r="BW14" s="132"/>
     </row>
     <row r="15" spans="1:75" ht="15.6" customHeight="1">
-      <c r="A15" s="471" t="s">
+      <c r="A15" s="490" t="s">
+        <v>316</v>
+      </c>
+      <c r="B15" s="485" t="s">
         <v>317</v>
       </c>
-      <c r="B15" s="466" t="s">
+      <c r="C15" s="490" t="s">
         <v>318</v>
       </c>
-      <c r="C15" s="471" t="s">
+      <c r="D15" s="490" t="s">
         <v>319</v>
       </c>
-      <c r="D15" s="471" t="s">
-        <v>320</v>
-      </c>
-      <c r="E15" s="433" t="s">
-        <v>576</v>
-      </c>
-      <c r="F15" s="434"/>
+      <c r="E15" s="452" t="s">
+        <v>574</v>
+      </c>
+      <c r="F15" s="453"/>
       <c r="G15" s="74"/>
       <c r="H15" s="74"/>
       <c r="I15" s="74"/>
@@ -15139,14 +15187,14 @@
       <c r="BW15" s="132"/>
     </row>
     <row r="16" spans="1:75" ht="15.6" customHeight="1">
-      <c r="A16" s="472"/>
-      <c r="B16" s="467"/>
-      <c r="C16" s="472"/>
-      <c r="D16" s="472"/>
-      <c r="E16" s="433" t="s">
-        <v>392</v>
-      </c>
-      <c r="F16" s="434"/>
+      <c r="A16" s="491"/>
+      <c r="B16" s="486"/>
+      <c r="C16" s="491"/>
+      <c r="D16" s="491"/>
+      <c r="E16" s="452" t="s">
+        <v>391</v>
+      </c>
+      <c r="F16" s="453"/>
       <c r="G16" s="74"/>
       <c r="H16" s="74"/>
       <c r="I16" s="74"/>
@@ -15193,22 +15241,22 @@
       <c r="BW16" s="132"/>
     </row>
     <row r="17" spans="1:75" ht="15.6" customHeight="1">
-      <c r="A17" s="465" t="s">
+      <c r="A17" s="484" t="s">
+        <v>320</v>
+      </c>
+      <c r="B17" s="492" t="s">
         <v>321</v>
       </c>
-      <c r="B17" s="473" t="s">
+      <c r="C17" s="484" t="s">
         <v>322</v>
       </c>
-      <c r="C17" s="465" t="s">
+      <c r="D17" s="487" t="s">
         <v>323</v>
       </c>
-      <c r="D17" s="468" t="s">
-        <v>324</v>
-      </c>
-      <c r="E17" s="433" t="s">
-        <v>577</v>
-      </c>
-      <c r="F17" s="434"/>
+      <c r="E17" s="452" t="s">
+        <v>575</v>
+      </c>
+      <c r="F17" s="453"/>
       <c r="G17" s="74"/>
       <c r="H17" s="74"/>
       <c r="I17" s="74"/>
@@ -15255,14 +15303,14 @@
       <c r="BW17" s="132"/>
     </row>
     <row r="18" spans="1:75">
-      <c r="A18" s="465"/>
-      <c r="B18" s="473"/>
-      <c r="C18" s="465"/>
-      <c r="D18" s="468"/>
-      <c r="E18" s="433" t="s">
-        <v>393</v>
-      </c>
-      <c r="F18" s="434"/>
+      <c r="A18" s="484"/>
+      <c r="B18" s="492"/>
+      <c r="C18" s="484"/>
+      <c r="D18" s="487"/>
+      <c r="E18" s="452" t="s">
+        <v>392</v>
+      </c>
+      <c r="F18" s="453"/>
       <c r="G18" s="74"/>
       <c r="H18" s="74"/>
       <c r="I18" s="74"/>
@@ -15317,22 +15365,22 @@
       <c r="BW18" s="132"/>
     </row>
     <row r="19" spans="1:75" ht="15.6" customHeight="1">
-      <c r="A19" s="471" t="s">
+      <c r="A19" s="490" t="s">
+        <v>324</v>
+      </c>
+      <c r="B19" s="485" t="s">
         <v>325</v>
       </c>
-      <c r="B19" s="466" t="s">
+      <c r="C19" s="490" t="s">
         <v>326</v>
       </c>
-      <c r="C19" s="471" t="s">
+      <c r="D19" s="490" t="s">
         <v>327</v>
       </c>
-      <c r="D19" s="471" t="s">
-        <v>328</v>
-      </c>
-      <c r="E19" s="433" t="s">
-        <v>578</v>
-      </c>
-      <c r="F19" s="434"/>
+      <c r="E19" s="452" t="s">
+        <v>576</v>
+      </c>
+      <c r="F19" s="453"/>
       <c r="G19" s="74"/>
       <c r="H19" s="74"/>
       <c r="I19" s="74"/>
@@ -15379,14 +15427,14 @@
       <c r="BW19" s="132"/>
     </row>
     <row r="20" spans="1:75" ht="15.6" customHeight="1">
-      <c r="A20" s="472"/>
-      <c r="B20" s="467"/>
-      <c r="C20" s="472"/>
-      <c r="D20" s="472"/>
-      <c r="E20" s="433" t="s">
-        <v>394</v>
-      </c>
-      <c r="F20" s="434"/>
+      <c r="A20" s="491"/>
+      <c r="B20" s="486"/>
+      <c r="C20" s="491"/>
+      <c r="D20" s="491"/>
+      <c r="E20" s="452" t="s">
+        <v>393</v>
+      </c>
+      <c r="F20" s="453"/>
       <c r="G20" s="74"/>
       <c r="H20" s="74"/>
       <c r="I20" s="74"/>
@@ -15433,22 +15481,22 @@
       <c r="BW20" s="132"/>
     </row>
     <row r="21" spans="1:75" ht="15.6" customHeight="1">
-      <c r="A21" s="465" t="s">
+      <c r="A21" s="484" t="s">
+        <v>328</v>
+      </c>
+      <c r="B21" s="492" t="s">
         <v>329</v>
       </c>
-      <c r="B21" s="473" t="s">
+      <c r="C21" s="484" t="s">
         <v>330</v>
       </c>
-      <c r="C21" s="465" t="s">
+      <c r="D21" s="487" t="s">
         <v>331</v>
       </c>
-      <c r="D21" s="468" t="s">
-        <v>332</v>
-      </c>
-      <c r="E21" s="433" t="s">
-        <v>579</v>
-      </c>
-      <c r="F21" s="434"/>
+      <c r="E21" s="452" t="s">
+        <v>577</v>
+      </c>
+      <c r="F21" s="453"/>
       <c r="G21" s="74"/>
       <c r="H21" s="74"/>
       <c r="I21" s="74"/>
@@ -15495,14 +15543,14 @@
       <c r="BW21" s="132"/>
     </row>
     <row r="22" spans="1:75">
-      <c r="A22" s="465"/>
-      <c r="B22" s="473"/>
-      <c r="C22" s="465"/>
-      <c r="D22" s="468"/>
-      <c r="E22" s="433" t="s">
-        <v>395</v>
-      </c>
-      <c r="F22" s="434"/>
+      <c r="A22" s="484"/>
+      <c r="B22" s="492"/>
+      <c r="C22" s="484"/>
+      <c r="D22" s="487"/>
+      <c r="E22" s="452" t="s">
+        <v>394</v>
+      </c>
+      <c r="F22" s="453"/>
       <c r="G22" s="74"/>
       <c r="H22" s="74"/>
       <c r="I22" s="74"/>
@@ -15549,22 +15597,22 @@
       <c r="BW22" s="132"/>
     </row>
     <row r="23" spans="1:75" ht="15.6" customHeight="1">
-      <c r="A23" s="471" t="s">
+      <c r="A23" s="490" t="s">
+        <v>332</v>
+      </c>
+      <c r="B23" s="485" t="s">
         <v>333</v>
       </c>
-      <c r="B23" s="466" t="s">
+      <c r="C23" s="490" t="s">
         <v>334</v>
       </c>
-      <c r="C23" s="471" t="s">
+      <c r="D23" s="490" t="s">
         <v>335</v>
       </c>
-      <c r="D23" s="471" t="s">
-        <v>336</v>
-      </c>
-      <c r="E23" s="433" t="s">
-        <v>580</v>
-      </c>
-      <c r="F23" s="434"/>
+      <c r="E23" s="452" t="s">
+        <v>578</v>
+      </c>
+      <c r="F23" s="453"/>
       <c r="G23" s="74"/>
       <c r="H23" s="74"/>
       <c r="I23" s="74"/>
@@ -15611,14 +15659,14 @@
       <c r="BW23" s="132"/>
     </row>
     <row r="24" spans="1:75" ht="15.6" customHeight="1">
-      <c r="A24" s="472"/>
-      <c r="B24" s="467"/>
-      <c r="C24" s="472"/>
-      <c r="D24" s="472"/>
-      <c r="E24" s="433" t="s">
-        <v>396</v>
-      </c>
-      <c r="F24" s="434"/>
+      <c r="A24" s="491"/>
+      <c r="B24" s="486"/>
+      <c r="C24" s="491"/>
+      <c r="D24" s="491"/>
+      <c r="E24" s="452" t="s">
+        <v>395</v>
+      </c>
+      <c r="F24" s="453"/>
       <c r="G24" s="74"/>
       <c r="H24" s="74"/>
       <c r="I24" s="74"/>
@@ -15665,22 +15713,22 @@
       <c r="BW24" s="132"/>
     </row>
     <row r="25" spans="1:75" ht="15.6" customHeight="1">
-      <c r="A25" s="465" t="s">
+      <c r="A25" s="484" t="s">
+        <v>336</v>
+      </c>
+      <c r="B25" s="492" t="s">
         <v>337</v>
       </c>
-      <c r="B25" s="473" t="s">
+      <c r="C25" s="484" t="s">
         <v>338</v>
       </c>
-      <c r="C25" s="465" t="s">
+      <c r="D25" s="487" t="s">
         <v>339</v>
       </c>
-      <c r="D25" s="468" t="s">
-        <v>340</v>
-      </c>
-      <c r="E25" s="433" t="s">
-        <v>581</v>
-      </c>
-      <c r="F25" s="434"/>
+      <c r="E25" s="452" t="s">
+        <v>579</v>
+      </c>
+      <c r="F25" s="453"/>
       <c r="G25" s="74"/>
       <c r="H25" s="74"/>
       <c r="I25" s="74"/>
@@ -15727,14 +15775,14 @@
       <c r="BW25" s="132"/>
     </row>
     <row r="26" spans="1:75">
-      <c r="A26" s="465"/>
-      <c r="B26" s="473"/>
-      <c r="C26" s="465"/>
-      <c r="D26" s="468"/>
-      <c r="E26" s="433" t="s">
-        <v>397</v>
-      </c>
-      <c r="F26" s="434"/>
+      <c r="A26" s="484"/>
+      <c r="B26" s="492"/>
+      <c r="C26" s="484"/>
+      <c r="D26" s="487"/>
+      <c r="E26" s="452" t="s">
+        <v>396</v>
+      </c>
+      <c r="F26" s="453"/>
       <c r="G26" s="74"/>
       <c r="H26" s="74"/>
       <c r="I26" s="74"/>
@@ -15781,22 +15829,22 @@
       <c r="BW26" s="132"/>
     </row>
     <row r="27" spans="1:75" ht="15.6" customHeight="1">
-      <c r="A27" s="471" t="s">
+      <c r="A27" s="490" t="s">
+        <v>340</v>
+      </c>
+      <c r="B27" s="485" t="s">
         <v>341</v>
       </c>
-      <c r="B27" s="466" t="s">
+      <c r="C27" s="490" t="s">
         <v>342</v>
       </c>
-      <c r="C27" s="471" t="s">
+      <c r="D27" s="490" t="s">
         <v>343</v>
       </c>
-      <c r="D27" s="471" t="s">
-        <v>344</v>
-      </c>
-      <c r="E27" s="433" t="s">
-        <v>582</v>
-      </c>
-      <c r="F27" s="434"/>
+      <c r="E27" s="452" t="s">
+        <v>580</v>
+      </c>
+      <c r="F27" s="453"/>
       <c r="G27" s="74"/>
       <c r="H27" s="74"/>
       <c r="I27" s="74"/>
@@ -15843,14 +15891,14 @@
       <c r="BW27" s="132"/>
     </row>
     <row r="28" spans="1:75" ht="15.6" customHeight="1">
-      <c r="A28" s="472"/>
-      <c r="B28" s="467"/>
-      <c r="C28" s="472"/>
-      <c r="D28" s="472"/>
-      <c r="E28" s="433" t="s">
-        <v>398</v>
-      </c>
-      <c r="F28" s="434"/>
+      <c r="A28" s="491"/>
+      <c r="B28" s="486"/>
+      <c r="C28" s="491"/>
+      <c r="D28" s="491"/>
+      <c r="E28" s="452" t="s">
+        <v>397</v>
+      </c>
+      <c r="F28" s="453"/>
       <c r="G28" s="74"/>
       <c r="H28" s="74"/>
       <c r="I28" s="74"/>
@@ -15897,22 +15945,22 @@
       <c r="BW28" s="132"/>
     </row>
     <row r="29" spans="1:75" ht="15.6" customHeight="1">
-      <c r="A29" s="465" t="s">
+      <c r="A29" s="484" t="s">
+        <v>344</v>
+      </c>
+      <c r="B29" s="492" t="s">
         <v>345</v>
       </c>
-      <c r="B29" s="473" t="s">
+      <c r="C29" s="484" t="s">
         <v>346</v>
       </c>
-      <c r="C29" s="465" t="s">
+      <c r="D29" s="487" t="s">
         <v>347</v>
       </c>
-      <c r="D29" s="468" t="s">
-        <v>348</v>
-      </c>
-      <c r="E29" s="433" t="s">
-        <v>583</v>
-      </c>
-      <c r="F29" s="434"/>
+      <c r="E29" s="452" t="s">
+        <v>581</v>
+      </c>
+      <c r="F29" s="453"/>
       <c r="G29" s="74"/>
       <c r="H29" s="74"/>
       <c r="I29" s="74"/>
@@ -15959,14 +16007,14 @@
       <c r="BW29" s="132"/>
     </row>
     <row r="30" spans="1:75">
-      <c r="A30" s="465"/>
-      <c r="B30" s="473"/>
-      <c r="C30" s="465"/>
-      <c r="D30" s="468"/>
-      <c r="E30" s="433" t="s">
-        <v>399</v>
-      </c>
-      <c r="F30" s="434"/>
+      <c r="A30" s="484"/>
+      <c r="B30" s="492"/>
+      <c r="C30" s="484"/>
+      <c r="D30" s="487"/>
+      <c r="E30" s="452" t="s">
+        <v>398</v>
+      </c>
+      <c r="F30" s="453"/>
       <c r="G30" s="74"/>
       <c r="H30" s="74"/>
       <c r="I30" s="74"/>
@@ -16013,22 +16061,22 @@
       <c r="BW30" s="132"/>
     </row>
     <row r="31" spans="1:75" ht="15.6" customHeight="1">
-      <c r="A31" s="465" t="s">
+      <c r="A31" s="484" t="s">
+        <v>348</v>
+      </c>
+      <c r="B31" s="492" t="s">
         <v>349</v>
       </c>
-      <c r="B31" s="473" t="s">
+      <c r="C31" s="484" t="s">
         <v>350</v>
       </c>
-      <c r="C31" s="465" t="s">
+      <c r="D31" s="487" t="s">
         <v>351</v>
       </c>
-      <c r="D31" s="468" t="s">
-        <v>352</v>
-      </c>
-      <c r="E31" s="433" t="s">
-        <v>584</v>
-      </c>
-      <c r="F31" s="434"/>
+      <c r="E31" s="452" t="s">
+        <v>582</v>
+      </c>
+      <c r="F31" s="453"/>
       <c r="G31" s="74"/>
       <c r="H31" s="74"/>
       <c r="I31" s="74"/>
@@ -16075,14 +16123,14 @@
       <c r="BW31" s="132"/>
     </row>
     <row r="32" spans="1:75">
-      <c r="A32" s="465"/>
-      <c r="B32" s="473"/>
-      <c r="C32" s="465"/>
-      <c r="D32" s="468"/>
-      <c r="E32" s="433" t="s">
-        <v>400</v>
-      </c>
-      <c r="F32" s="434"/>
+      <c r="A32" s="484"/>
+      <c r="B32" s="492"/>
+      <c r="C32" s="484"/>
+      <c r="D32" s="487"/>
+      <c r="E32" s="452" t="s">
+        <v>399</v>
+      </c>
+      <c r="F32" s="453"/>
       <c r="G32" s="74"/>
       <c r="H32" s="74"/>
       <c r="I32" s="74"/>
@@ -16129,22 +16177,22 @@
       <c r="BW32" s="132"/>
     </row>
     <row r="33" spans="1:75" ht="15.6" customHeight="1">
-      <c r="A33" s="465" t="s">
+      <c r="A33" s="484" t="s">
+        <v>352</v>
+      </c>
+      <c r="B33" s="492" t="s">
         <v>353</v>
       </c>
-      <c r="B33" s="473" t="s">
+      <c r="C33" s="484" t="s">
         <v>354</v>
       </c>
-      <c r="C33" s="465" t="s">
+      <c r="D33" s="487" t="s">
         <v>355</v>
       </c>
-      <c r="D33" s="468" t="s">
-        <v>356</v>
-      </c>
-      <c r="E33" s="433" t="s">
-        <v>585</v>
-      </c>
-      <c r="F33" s="434"/>
+      <c r="E33" s="452" t="s">
+        <v>583</v>
+      </c>
+      <c r="F33" s="453"/>
       <c r="G33" s="74"/>
       <c r="H33" s="74"/>
       <c r="I33" s="74"/>
@@ -16191,14 +16239,14 @@
       <c r="BW33" s="132"/>
     </row>
     <row r="34" spans="1:75">
-      <c r="A34" s="465"/>
-      <c r="B34" s="473"/>
-      <c r="C34" s="465"/>
-      <c r="D34" s="468"/>
-      <c r="E34" s="433" t="s">
-        <v>401</v>
-      </c>
-      <c r="F34" s="434"/>
+      <c r="A34" s="484"/>
+      <c r="B34" s="492"/>
+      <c r="C34" s="484"/>
+      <c r="D34" s="487"/>
+      <c r="E34" s="452" t="s">
+        <v>400</v>
+      </c>
+      <c r="F34" s="453"/>
       <c r="G34" s="74"/>
       <c r="H34" s="74"/>
       <c r="I34" s="74"/>
@@ -16245,22 +16293,22 @@
       <c r="BW34" s="132"/>
     </row>
     <row r="35" spans="1:75" ht="15.6" customHeight="1">
-      <c r="A35" s="465" t="s">
+      <c r="A35" s="484" t="s">
+        <v>356</v>
+      </c>
+      <c r="B35" s="492" t="s">
         <v>357</v>
       </c>
-      <c r="B35" s="473" t="s">
+      <c r="C35" s="484" t="s">
         <v>358</v>
       </c>
-      <c r="C35" s="465" t="s">
+      <c r="D35" s="487" t="s">
         <v>359</v>
       </c>
-      <c r="D35" s="468" t="s">
-        <v>360</v>
-      </c>
-      <c r="E35" s="433" t="s">
-        <v>586</v>
-      </c>
-      <c r="F35" s="434"/>
+      <c r="E35" s="452" t="s">
+        <v>584</v>
+      </c>
+      <c r="F35" s="453"/>
       <c r="G35" s="74"/>
       <c r="H35" s="74"/>
       <c r="I35" s="74"/>
@@ -16307,14 +16355,14 @@
       <c r="BW35" s="132"/>
     </row>
     <row r="36" spans="1:75">
-      <c r="A36" s="465"/>
-      <c r="B36" s="473"/>
-      <c r="C36" s="465"/>
-      <c r="D36" s="468"/>
-      <c r="E36" s="433" t="s">
-        <v>402</v>
-      </c>
-      <c r="F36" s="434"/>
+      <c r="A36" s="484"/>
+      <c r="B36" s="492"/>
+      <c r="C36" s="484"/>
+      <c r="D36" s="487"/>
+      <c r="E36" s="452" t="s">
+        <v>401</v>
+      </c>
+      <c r="F36" s="453"/>
       <c r="G36" s="74"/>
       <c r="H36" s="74"/>
       <c r="I36" s="74"/>
@@ -16361,22 +16409,22 @@
       <c r="BW36" s="132"/>
     </row>
     <row r="37" spans="1:75" ht="15.6" customHeight="1">
-      <c r="A37" s="465" t="s">
+      <c r="A37" s="484" t="s">
+        <v>360</v>
+      </c>
+      <c r="B37" s="492" t="s">
         <v>361</v>
       </c>
-      <c r="B37" s="473" t="s">
+      <c r="C37" s="484" t="s">
         <v>362</v>
       </c>
-      <c r="C37" s="465" t="s">
+      <c r="D37" s="487" t="s">
         <v>363</v>
       </c>
-      <c r="D37" s="468" t="s">
-        <v>364</v>
-      </c>
-      <c r="E37" s="433" t="s">
-        <v>587</v>
-      </c>
-      <c r="F37" s="434"/>
+      <c r="E37" s="452" t="s">
+        <v>585</v>
+      </c>
+      <c r="F37" s="453"/>
       <c r="G37" s="74"/>
       <c r="H37" s="74"/>
       <c r="I37" s="74"/>
@@ -16423,14 +16471,14 @@
       <c r="BW37" s="132"/>
     </row>
     <row r="38" spans="1:75">
-      <c r="A38" s="465"/>
-      <c r="B38" s="473"/>
-      <c r="C38" s="465"/>
-      <c r="D38" s="468"/>
-      <c r="E38" s="433" t="s">
-        <v>403</v>
-      </c>
-      <c r="F38" s="434"/>
+      <c r="A38" s="484"/>
+      <c r="B38" s="492"/>
+      <c r="C38" s="484"/>
+      <c r="D38" s="487"/>
+      <c r="E38" s="452" t="s">
+        <v>402</v>
+      </c>
+      <c r="F38" s="453"/>
       <c r="G38" s="74"/>
       <c r="H38" s="74"/>
       <c r="I38" s="74"/>
@@ -16477,22 +16525,22 @@
       <c r="BW38" s="132"/>
     </row>
     <row r="39" spans="1:75" ht="15.6" customHeight="1">
-      <c r="A39" s="465" t="s">
+      <c r="A39" s="484" t="s">
+        <v>364</v>
+      </c>
+      <c r="B39" s="492" t="s">
         <v>365</v>
       </c>
-      <c r="B39" s="473" t="s">
+      <c r="C39" s="484" t="s">
         <v>366</v>
       </c>
-      <c r="C39" s="465" t="s">
+      <c r="D39" s="487" t="s">
         <v>367</v>
       </c>
-      <c r="D39" s="468" t="s">
-        <v>368</v>
-      </c>
-      <c r="E39" s="433" t="s">
-        <v>588</v>
-      </c>
-      <c r="F39" s="434"/>
+      <c r="E39" s="452" t="s">
+        <v>586</v>
+      </c>
+      <c r="F39" s="453"/>
       <c r="G39" s="74"/>
       <c r="H39" s="74"/>
       <c r="I39" s="74"/>
@@ -16539,14 +16587,14 @@
       <c r="BW39" s="132"/>
     </row>
     <row r="40" spans="1:75">
-      <c r="A40" s="465"/>
-      <c r="B40" s="473"/>
-      <c r="C40" s="465"/>
-      <c r="D40" s="468"/>
-      <c r="E40" s="433" t="s">
-        <v>404</v>
-      </c>
-      <c r="F40" s="434"/>
+      <c r="A40" s="484"/>
+      <c r="B40" s="492"/>
+      <c r="C40" s="484"/>
+      <c r="D40" s="487"/>
+      <c r="E40" s="452" t="s">
+        <v>403</v>
+      </c>
+      <c r="F40" s="453"/>
       <c r="G40" s="74"/>
       <c r="H40" s="74"/>
       <c r="I40" s="74"/>
@@ -16617,18 +16665,18 @@
       <c r="BW40" s="134"/>
     </row>
     <row r="41" spans="1:75" ht="22.15" customHeight="1">
-      <c r="A41" s="481" t="s">
-        <v>568</v>
-      </c>
-      <c r="B41" s="482"/>
-      <c r="C41" s="482"/>
-      <c r="D41" s="482"/>
-      <c r="E41" s="483"/>
-      <c r="F41" s="484"/>
-      <c r="G41" s="479" t="s">
-        <v>513</v>
-      </c>
-      <c r="H41" s="480"/>
+      <c r="A41" s="500" t="s">
+        <v>566</v>
+      </c>
+      <c r="B41" s="501"/>
+      <c r="C41" s="501"/>
+      <c r="D41" s="501"/>
+      <c r="E41" s="502"/>
+      <c r="F41" s="503"/>
+      <c r="G41" s="498" t="s">
+        <v>512</v>
+      </c>
+      <c r="H41" s="499"/>
       <c r="I41" s="74"/>
       <c r="J41" s="74"/>
       <c r="K41" s="74"/>
@@ -16696,18 +16744,18 @@
       <c r="BW41" s="105"/>
     </row>
     <row r="42" spans="1:75" ht="21.6" customHeight="1">
-      <c r="A42" s="481" t="s">
-        <v>567</v>
-      </c>
-      <c r="B42" s="482"/>
-      <c r="C42" s="482"/>
-      <c r="D42" s="482"/>
-      <c r="E42" s="483"/>
-      <c r="F42" s="484"/>
-      <c r="G42" s="479" t="s">
-        <v>561</v>
-      </c>
-      <c r="H42" s="480"/>
+      <c r="A42" s="500" t="s">
+        <v>565</v>
+      </c>
+      <c r="B42" s="501"/>
+      <c r="C42" s="501"/>
+      <c r="D42" s="501"/>
+      <c r="E42" s="502"/>
+      <c r="F42" s="503"/>
+      <c r="G42" s="498" t="s">
+        <v>559</v>
+      </c>
+      <c r="H42" s="499"/>
       <c r="I42" s="74"/>
       <c r="J42" s="74"/>
       <c r="K42" s="74"/>
@@ -16775,18 +16823,18 @@
       <c r="BW42" s="105"/>
     </row>
     <row r="43" spans="1:75" ht="37.9" customHeight="1">
-      <c r="A43" s="506" t="s">
-        <v>569</v>
-      </c>
-      <c r="B43" s="507"/>
-      <c r="C43" s="507"/>
-      <c r="D43" s="507"/>
-      <c r="E43" s="507"/>
-      <c r="F43" s="508"/>
-      <c r="G43" s="502" t="s">
-        <v>527</v>
-      </c>
-      <c r="H43" s="503"/>
+      <c r="A43" s="525" t="s">
+        <v>567</v>
+      </c>
+      <c r="B43" s="526"/>
+      <c r="C43" s="526"/>
+      <c r="D43" s="526"/>
+      <c r="E43" s="526"/>
+      <c r="F43" s="527"/>
+      <c r="G43" s="521" t="s">
+        <v>525</v>
+      </c>
+      <c r="H43" s="522"/>
       <c r="I43" s="74"/>
       <c r="J43" s="74"/>
       <c r="K43" s="74"/>
@@ -16854,18 +16902,18 @@
       <c r="BW43" s="105"/>
     </row>
     <row r="44" spans="1:75">
-      <c r="A44" s="440" t="s">
+      <c r="A44" s="459" t="s">
+        <v>506</v>
+      </c>
+      <c r="B44" s="460"/>
+      <c r="C44" s="463" t="s">
         <v>507</v>
       </c>
-      <c r="B44" s="441"/>
-      <c r="C44" s="444" t="s">
-        <v>508</v>
-      </c>
-      <c r="D44" s="445"/>
-      <c r="E44" s="433" t="s">
-        <v>562</v>
-      </c>
-      <c r="F44" s="434"/>
+      <c r="D44" s="464"/>
+      <c r="E44" s="452" t="s">
+        <v>560</v>
+      </c>
+      <c r="F44" s="453"/>
       <c r="G44" s="187"/>
       <c r="H44" s="187"/>
       <c r="I44" s="74"/>
@@ -16935,12 +16983,12 @@
       <c r="BW44" s="105"/>
     </row>
     <row r="45" spans="1:75" ht="15.6" hidden="1" customHeight="1">
-      <c r="A45" s="442"/>
-      <c r="B45" s="443"/>
-      <c r="C45" s="444"/>
-      <c r="D45" s="445"/>
-      <c r="E45" s="433"/>
-      <c r="F45" s="434"/>
+      <c r="A45" s="461"/>
+      <c r="B45" s="462"/>
+      <c r="C45" s="463"/>
+      <c r="D45" s="464"/>
+      <c r="E45" s="452"/>
+      <c r="F45" s="453"/>
       <c r="G45" s="187"/>
       <c r="H45" s="187"/>
       <c r="I45" s="74"/>
@@ -17010,16 +17058,16 @@
       <c r="BW45" s="105"/>
     </row>
     <row r="46" spans="1:75">
-      <c r="A46" s="442"/>
-      <c r="B46" s="443"/>
-      <c r="C46" s="444" t="s">
-        <v>509</v>
-      </c>
-      <c r="D46" s="445"/>
-      <c r="E46" s="433" t="s">
-        <v>563</v>
-      </c>
-      <c r="F46" s="434"/>
+      <c r="A46" s="461"/>
+      <c r="B46" s="462"/>
+      <c r="C46" s="463" t="s">
+        <v>508</v>
+      </c>
+      <c r="D46" s="464"/>
+      <c r="E46" s="452" t="s">
+        <v>561</v>
+      </c>
+      <c r="F46" s="453"/>
       <c r="G46" s="187"/>
       <c r="H46" s="187"/>
       <c r="I46" s="74"/>
@@ -17089,12 +17137,12 @@
       <c r="BW46" s="105"/>
     </row>
     <row r="47" spans="1:75" ht="15.6" hidden="1" customHeight="1">
-      <c r="A47" s="442"/>
-      <c r="B47" s="443"/>
-      <c r="C47" s="444"/>
-      <c r="D47" s="445"/>
-      <c r="E47" s="433"/>
-      <c r="F47" s="434"/>
+      <c r="A47" s="461"/>
+      <c r="B47" s="462"/>
+      <c r="C47" s="463"/>
+      <c r="D47" s="464"/>
+      <c r="E47" s="452"/>
+      <c r="F47" s="453"/>
       <c r="G47" s="187"/>
       <c r="H47" s="187"/>
       <c r="I47" s="74"/>
@@ -17164,16 +17212,16 @@
       <c r="BW47" s="105"/>
     </row>
     <row r="48" spans="1:75">
-      <c r="A48" s="442"/>
-      <c r="B48" s="443"/>
-      <c r="C48" s="444" t="s">
-        <v>510</v>
-      </c>
-      <c r="D48" s="445"/>
-      <c r="E48" s="433" t="s">
-        <v>564</v>
-      </c>
-      <c r="F48" s="434"/>
+      <c r="A48" s="461"/>
+      <c r="B48" s="462"/>
+      <c r="C48" s="463" t="s">
+        <v>509</v>
+      </c>
+      <c r="D48" s="464"/>
+      <c r="E48" s="452" t="s">
+        <v>562</v>
+      </c>
+      <c r="F48" s="453"/>
       <c r="G48" s="187"/>
       <c r="H48" s="187"/>
       <c r="I48" s="74"/>
@@ -17243,12 +17291,12 @@
       <c r="BW48" s="105"/>
     </row>
     <row r="49" spans="1:75" ht="15.6" hidden="1" customHeight="1">
-      <c r="A49" s="442"/>
-      <c r="B49" s="443"/>
-      <c r="C49" s="444"/>
-      <c r="D49" s="445"/>
-      <c r="E49" s="433"/>
-      <c r="F49" s="434"/>
+      <c r="A49" s="461"/>
+      <c r="B49" s="462"/>
+      <c r="C49" s="463"/>
+      <c r="D49" s="464"/>
+      <c r="E49" s="452"/>
+      <c r="F49" s="453"/>
       <c r="G49" s="187"/>
       <c r="H49" s="187"/>
       <c r="I49" s="74"/>
@@ -17318,16 +17366,16 @@
       <c r="BW49" s="105"/>
     </row>
     <row r="50" spans="1:75">
-      <c r="A50" s="442"/>
-      <c r="B50" s="443"/>
-      <c r="C50" s="444" t="s">
-        <v>511</v>
-      </c>
-      <c r="D50" s="445"/>
-      <c r="E50" s="433" t="s">
-        <v>565</v>
-      </c>
-      <c r="F50" s="434"/>
+      <c r="A50" s="461"/>
+      <c r="B50" s="462"/>
+      <c r="C50" s="463" t="s">
+        <v>510</v>
+      </c>
+      <c r="D50" s="464"/>
+      <c r="E50" s="452" t="s">
+        <v>563</v>
+      </c>
+      <c r="F50" s="453"/>
       <c r="G50" s="187"/>
       <c r="H50" s="187"/>
       <c r="I50" s="74"/>
@@ -17397,12 +17445,12 @@
       <c r="BW50" s="105"/>
     </row>
     <row r="51" spans="1:75" ht="15.6" hidden="1" customHeight="1">
-      <c r="A51" s="442"/>
-      <c r="B51" s="443"/>
-      <c r="C51" s="444"/>
-      <c r="D51" s="445"/>
-      <c r="E51" s="433"/>
-      <c r="F51" s="434"/>
+      <c r="A51" s="461"/>
+      <c r="B51" s="462"/>
+      <c r="C51" s="463"/>
+      <c r="D51" s="464"/>
+      <c r="E51" s="452"/>
+      <c r="F51" s="453"/>
       <c r="G51" s="187"/>
       <c r="H51" s="187"/>
       <c r="I51" s="74"/>
@@ -17472,16 +17520,16 @@
       <c r="BW51" s="105"/>
     </row>
     <row r="52" spans="1:75">
-      <c r="A52" s="442"/>
-      <c r="B52" s="443"/>
-      <c r="C52" s="444" t="s">
-        <v>512</v>
-      </c>
-      <c r="D52" s="445"/>
-      <c r="E52" s="433" t="s">
-        <v>566</v>
-      </c>
-      <c r="F52" s="434"/>
+      <c r="A52" s="461"/>
+      <c r="B52" s="462"/>
+      <c r="C52" s="463" t="s">
+        <v>511</v>
+      </c>
+      <c r="D52" s="464"/>
+      <c r="E52" s="452" t="s">
+        <v>564</v>
+      </c>
+      <c r="F52" s="453"/>
       <c r="G52" s="187"/>
       <c r="H52" s="187"/>
       <c r="I52" s="74"/>
@@ -17551,12 +17599,12 @@
       <c r="BW52" s="105"/>
     </row>
     <row r="53" spans="1:75" ht="15.6" hidden="1" customHeight="1">
-      <c r="A53" s="504"/>
-      <c r="B53" s="505"/>
-      <c r="C53" s="500"/>
-      <c r="D53" s="501"/>
-      <c r="E53" s="433"/>
-      <c r="F53" s="434"/>
+      <c r="A53" s="523"/>
+      <c r="B53" s="524"/>
+      <c r="C53" s="519"/>
+      <c r="D53" s="520"/>
+      <c r="E53" s="452"/>
+      <c r="F53" s="453"/>
       <c r="G53" s="187"/>
       <c r="H53" s="187"/>
       <c r="I53" s="74"/>
@@ -17626,18 +17674,18 @@
       <c r="BW53" s="105"/>
     </row>
     <row r="54" spans="1:75" s="136" customFormat="1" ht="15" customHeight="1">
-      <c r="A54" s="446" t="s">
-        <v>300</v>
-      </c>
-      <c r="B54" s="447"/>
-      <c r="C54" s="429" t="s">
-        <v>369</v>
-      </c>
-      <c r="D54" s="430"/>
-      <c r="E54" s="433" t="s">
-        <v>438</v>
-      </c>
-      <c r="F54" s="434"/>
+      <c r="A54" s="465" t="s">
+        <v>299</v>
+      </c>
+      <c r="B54" s="466"/>
+      <c r="C54" s="448" t="s">
+        <v>368</v>
+      </c>
+      <c r="D54" s="449"/>
+      <c r="E54" s="452" t="s">
+        <v>437</v>
+      </c>
+      <c r="F54" s="453"/>
       <c r="G54" s="74"/>
       <c r="H54" s="74"/>
       <c r="I54" s="74"/>
@@ -17707,14 +17755,14 @@
       <c r="BW54" s="137"/>
     </row>
     <row r="55" spans="1:75" s="136" customFormat="1" ht="15.6" customHeight="1">
-      <c r="A55" s="448"/>
-      <c r="B55" s="449"/>
-      <c r="C55" s="431"/>
-      <c r="D55" s="432"/>
-      <c r="E55" s="433" t="s">
-        <v>405</v>
-      </c>
-      <c r="F55" s="434"/>
+      <c r="A55" s="467"/>
+      <c r="B55" s="468"/>
+      <c r="C55" s="450"/>
+      <c r="D55" s="451"/>
+      <c r="E55" s="452" t="s">
+        <v>404</v>
+      </c>
+      <c r="F55" s="453"/>
       <c r="G55" s="74"/>
       <c r="H55" s="74"/>
       <c r="I55" s="74"/>
@@ -17784,16 +17832,16 @@
       <c r="BW55" s="137"/>
     </row>
     <row r="56" spans="1:75" s="136" customFormat="1" ht="15.6" customHeight="1">
-      <c r="A56" s="448"/>
-      <c r="B56" s="449"/>
-      <c r="C56" s="429" t="s">
-        <v>370</v>
-      </c>
-      <c r="D56" s="430"/>
-      <c r="E56" s="433" t="s">
-        <v>439</v>
-      </c>
-      <c r="F56" s="434"/>
+      <c r="A56" s="467"/>
+      <c r="B56" s="468"/>
+      <c r="C56" s="448" t="s">
+        <v>369</v>
+      </c>
+      <c r="D56" s="449"/>
+      <c r="E56" s="452" t="s">
+        <v>438</v>
+      </c>
+      <c r="F56" s="453"/>
       <c r="G56" s="74"/>
       <c r="H56" s="74"/>
       <c r="I56" s="74"/>
@@ -17863,14 +17911,14 @@
       <c r="BW56" s="137"/>
     </row>
     <row r="57" spans="1:75" s="136" customFormat="1" ht="15.6" customHeight="1">
-      <c r="A57" s="448"/>
-      <c r="B57" s="449"/>
-      <c r="C57" s="431"/>
-      <c r="D57" s="432"/>
-      <c r="E57" s="433" t="s">
-        <v>406</v>
-      </c>
-      <c r="F57" s="434"/>
+      <c r="A57" s="467"/>
+      <c r="B57" s="468"/>
+      <c r="C57" s="450"/>
+      <c r="D57" s="451"/>
+      <c r="E57" s="452" t="s">
+        <v>405</v>
+      </c>
+      <c r="F57" s="453"/>
       <c r="G57" s="74"/>
       <c r="H57" s="74"/>
       <c r="I57" s="74"/>
@@ -17940,16 +17988,16 @@
       <c r="BW57" s="137"/>
     </row>
     <row r="58" spans="1:75" s="136" customFormat="1" ht="15.6" customHeight="1">
-      <c r="A58" s="448"/>
-      <c r="B58" s="449"/>
-      <c r="C58" s="429" t="s">
-        <v>371</v>
-      </c>
-      <c r="D58" s="430"/>
-      <c r="E58" s="433" t="s">
-        <v>440</v>
-      </c>
-      <c r="F58" s="434"/>
+      <c r="A58" s="467"/>
+      <c r="B58" s="468"/>
+      <c r="C58" s="448" t="s">
+        <v>370</v>
+      </c>
+      <c r="D58" s="449"/>
+      <c r="E58" s="452" t="s">
+        <v>439</v>
+      </c>
+      <c r="F58" s="453"/>
       <c r="G58" s="74"/>
       <c r="H58" s="74"/>
       <c r="I58" s="74"/>
@@ -17974,10 +18022,10 @@
       <c r="AD58" s="74"/>
       <c r="AE58" s="74"/>
       <c r="AF58" s="74"/>
-      <c r="AG58" s="453"/>
-      <c r="AH58" s="453"/>
-      <c r="AI58" s="453"/>
-      <c r="AJ58" s="453"/>
+      <c r="AG58" s="472"/>
+      <c r="AH58" s="472"/>
+      <c r="AI58" s="472"/>
+      <c r="AJ58" s="472"/>
       <c r="AK58" s="137"/>
       <c r="AL58" s="137"/>
       <c r="AM58" s="137"/>
@@ -18019,14 +18067,14 @@
       <c r="BW58" s="137"/>
     </row>
     <row r="59" spans="1:75" s="136" customFormat="1" ht="15.6" customHeight="1">
-      <c r="A59" s="448"/>
-      <c r="B59" s="449"/>
-      <c r="C59" s="431"/>
-      <c r="D59" s="432"/>
-      <c r="E59" s="433" t="s">
-        <v>407</v>
-      </c>
-      <c r="F59" s="434"/>
+      <c r="A59" s="467"/>
+      <c r="B59" s="468"/>
+      <c r="C59" s="450"/>
+      <c r="D59" s="451"/>
+      <c r="E59" s="452" t="s">
+        <v>406</v>
+      </c>
+      <c r="F59" s="453"/>
       <c r="G59" s="74"/>
       <c r="H59" s="74"/>
       <c r="I59" s="74"/>
@@ -18096,16 +18144,16 @@
       <c r="BW59" s="137"/>
     </row>
     <row r="60" spans="1:75" s="136" customFormat="1" ht="15.6" customHeight="1">
-      <c r="A60" s="448"/>
-      <c r="B60" s="449"/>
-      <c r="C60" s="429" t="s">
-        <v>372</v>
-      </c>
-      <c r="D60" s="430"/>
-      <c r="E60" s="433" t="s">
-        <v>441</v>
-      </c>
-      <c r="F60" s="434"/>
+      <c r="A60" s="467"/>
+      <c r="B60" s="468"/>
+      <c r="C60" s="448" t="s">
+        <v>371</v>
+      </c>
+      <c r="D60" s="449"/>
+      <c r="E60" s="452" t="s">
+        <v>440</v>
+      </c>
+      <c r="F60" s="453"/>
       <c r="G60" s="74"/>
       <c r="H60" s="74"/>
       <c r="I60" s="74"/>
@@ -18130,10 +18178,10 @@
       <c r="AD60" s="74"/>
       <c r="AE60" s="74"/>
       <c r="AF60" s="74"/>
-      <c r="AG60" s="453"/>
-      <c r="AH60" s="453"/>
-      <c r="AI60" s="453"/>
-      <c r="AJ60" s="453"/>
+      <c r="AG60" s="472"/>
+      <c r="AH60" s="472"/>
+      <c r="AI60" s="472"/>
+      <c r="AJ60" s="472"/>
       <c r="AK60" s="137"/>
       <c r="AL60" s="137"/>
       <c r="AM60" s="137"/>
@@ -18175,14 +18223,14 @@
       <c r="BW60" s="137"/>
     </row>
     <row r="61" spans="1:75" s="136" customFormat="1" ht="15.6" customHeight="1">
-      <c r="A61" s="448"/>
-      <c r="B61" s="449"/>
-      <c r="C61" s="431"/>
-      <c r="D61" s="432"/>
-      <c r="E61" s="433" t="s">
-        <v>408</v>
-      </c>
-      <c r="F61" s="434"/>
+      <c r="A61" s="467"/>
+      <c r="B61" s="468"/>
+      <c r="C61" s="450"/>
+      <c r="D61" s="451"/>
+      <c r="E61" s="452" t="s">
+        <v>407</v>
+      </c>
+      <c r="F61" s="453"/>
       <c r="G61" s="74"/>
       <c r="H61" s="74"/>
       <c r="I61" s="74"/>
@@ -18252,16 +18300,16 @@
       <c r="BW61" s="137"/>
     </row>
     <row r="62" spans="1:75" s="136" customFormat="1" ht="15.6" customHeight="1">
-      <c r="A62" s="448"/>
-      <c r="B62" s="449"/>
-      <c r="C62" s="429" t="s">
-        <v>373</v>
-      </c>
-      <c r="D62" s="430"/>
-      <c r="E62" s="433" t="s">
-        <v>442</v>
-      </c>
-      <c r="F62" s="434"/>
+      <c r="A62" s="467"/>
+      <c r="B62" s="468"/>
+      <c r="C62" s="448" t="s">
+        <v>372</v>
+      </c>
+      <c r="D62" s="449"/>
+      <c r="E62" s="452" t="s">
+        <v>441</v>
+      </c>
+      <c r="F62" s="453"/>
       <c r="G62" s="74"/>
       <c r="H62" s="74"/>
       <c r="I62" s="74"/>
@@ -18286,10 +18334,10 @@
       <c r="AD62" s="74"/>
       <c r="AE62" s="74"/>
       <c r="AF62" s="74"/>
-      <c r="AG62" s="453"/>
-      <c r="AH62" s="453"/>
-      <c r="AI62" s="453"/>
-      <c r="AJ62" s="453"/>
+      <c r="AG62" s="472"/>
+      <c r="AH62" s="472"/>
+      <c r="AI62" s="472"/>
+      <c r="AJ62" s="472"/>
       <c r="AK62" s="137"/>
       <c r="AL62" s="137"/>
       <c r="AM62" s="137"/>
@@ -18331,14 +18379,14 @@
       <c r="BW62" s="137"/>
     </row>
     <row r="63" spans="1:75" s="136" customFormat="1" ht="15.6" customHeight="1">
-      <c r="A63" s="448"/>
-      <c r="B63" s="449"/>
-      <c r="C63" s="431"/>
-      <c r="D63" s="432"/>
-      <c r="E63" s="433" t="s">
-        <v>409</v>
-      </c>
-      <c r="F63" s="434"/>
+      <c r="A63" s="467"/>
+      <c r="B63" s="468"/>
+      <c r="C63" s="450"/>
+      <c r="D63" s="451"/>
+      <c r="E63" s="452" t="s">
+        <v>408</v>
+      </c>
+      <c r="F63" s="453"/>
       <c r="G63" s="74"/>
       <c r="H63" s="74"/>
       <c r="I63" s="74"/>
@@ -18408,16 +18456,16 @@
       <c r="BW63" s="137"/>
     </row>
     <row r="64" spans="1:75" s="136" customFormat="1" ht="15.6" customHeight="1">
-      <c r="A64" s="448"/>
-      <c r="B64" s="449"/>
-      <c r="C64" s="429" t="s">
-        <v>374</v>
-      </c>
-      <c r="D64" s="430"/>
-      <c r="E64" s="433" t="s">
-        <v>443</v>
-      </c>
-      <c r="F64" s="434"/>
+      <c r="A64" s="467"/>
+      <c r="B64" s="468"/>
+      <c r="C64" s="448" t="s">
+        <v>373</v>
+      </c>
+      <c r="D64" s="449"/>
+      <c r="E64" s="452" t="s">
+        <v>442</v>
+      </c>
+      <c r="F64" s="453"/>
       <c r="G64" s="74"/>
       <c r="H64" s="74"/>
       <c r="I64" s="74"/>
@@ -18442,10 +18490,10 @@
       <c r="AD64" s="74"/>
       <c r="AE64" s="74"/>
       <c r="AF64" s="74"/>
-      <c r="AG64" s="453"/>
-      <c r="AH64" s="453"/>
-      <c r="AI64" s="453"/>
-      <c r="AJ64" s="453"/>
+      <c r="AG64" s="472"/>
+      <c r="AH64" s="472"/>
+      <c r="AI64" s="472"/>
+      <c r="AJ64" s="472"/>
       <c r="AK64" s="137"/>
       <c r="AL64" s="137"/>
       <c r="AM64" s="137"/>
@@ -18487,14 +18535,14 @@
       <c r="BW64" s="137"/>
     </row>
     <row r="65" spans="1:75" s="136" customFormat="1" ht="15.6" customHeight="1">
-      <c r="A65" s="448"/>
-      <c r="B65" s="449"/>
-      <c r="C65" s="431"/>
-      <c r="D65" s="432"/>
-      <c r="E65" s="433" t="s">
-        <v>410</v>
-      </c>
-      <c r="F65" s="434"/>
+      <c r="A65" s="467"/>
+      <c r="B65" s="468"/>
+      <c r="C65" s="450"/>
+      <c r="D65" s="451"/>
+      <c r="E65" s="452" t="s">
+        <v>409</v>
+      </c>
+      <c r="F65" s="453"/>
       <c r="G65" s="74"/>
       <c r="H65" s="74"/>
       <c r="I65" s="74"/>
@@ -18564,16 +18612,16 @@
       <c r="BW65" s="137"/>
     </row>
     <row r="66" spans="1:75" s="136" customFormat="1" ht="15.6" customHeight="1">
-      <c r="A66" s="448"/>
-      <c r="B66" s="449"/>
-      <c r="C66" s="429" t="s">
-        <v>375</v>
-      </c>
-      <c r="D66" s="430"/>
-      <c r="E66" s="433" t="s">
-        <v>444</v>
-      </c>
-      <c r="F66" s="434"/>
+      <c r="A66" s="467"/>
+      <c r="B66" s="468"/>
+      <c r="C66" s="448" t="s">
+        <v>374</v>
+      </c>
+      <c r="D66" s="449"/>
+      <c r="E66" s="452" t="s">
+        <v>443</v>
+      </c>
+      <c r="F66" s="453"/>
       <c r="G66" s="74"/>
       <c r="H66" s="74"/>
       <c r="I66" s="74"/>
@@ -18598,10 +18646,10 @@
       <c r="AD66" s="74"/>
       <c r="AE66" s="74"/>
       <c r="AF66" s="74"/>
-      <c r="AG66" s="453"/>
-      <c r="AH66" s="453"/>
-      <c r="AI66" s="453"/>
-      <c r="AJ66" s="453"/>
+      <c r="AG66" s="472"/>
+      <c r="AH66" s="472"/>
+      <c r="AI66" s="472"/>
+      <c r="AJ66" s="472"/>
       <c r="AK66" s="137"/>
       <c r="AL66" s="137"/>
       <c r="AM66" s="137"/>
@@ -18643,14 +18691,14 @@
       <c r="BW66" s="137"/>
     </row>
     <row r="67" spans="1:75" s="136" customFormat="1" ht="15.6" customHeight="1">
-      <c r="A67" s="448"/>
-      <c r="B67" s="449"/>
-      <c r="C67" s="431"/>
-      <c r="D67" s="432"/>
-      <c r="E67" s="433" t="s">
-        <v>411</v>
-      </c>
-      <c r="F67" s="434"/>
+      <c r="A67" s="467"/>
+      <c r="B67" s="468"/>
+      <c r="C67" s="450"/>
+      <c r="D67" s="451"/>
+      <c r="E67" s="452" t="s">
+        <v>410</v>
+      </c>
+      <c r="F67" s="453"/>
       <c r="G67" s="74"/>
       <c r="H67" s="74"/>
       <c r="I67" s="74"/>
@@ -18720,16 +18768,16 @@
       <c r="BW67" s="137"/>
     </row>
     <row r="68" spans="1:75" s="136" customFormat="1" ht="15.6" customHeight="1">
-      <c r="A68" s="448"/>
-      <c r="B68" s="449"/>
-      <c r="C68" s="429" t="s">
-        <v>376</v>
-      </c>
-      <c r="D68" s="430"/>
-      <c r="E68" s="433" t="s">
-        <v>445</v>
-      </c>
-      <c r="F68" s="434"/>
+      <c r="A68" s="467"/>
+      <c r="B68" s="468"/>
+      <c r="C68" s="448" t="s">
+        <v>375</v>
+      </c>
+      <c r="D68" s="449"/>
+      <c r="E68" s="452" t="s">
+        <v>444</v>
+      </c>
+      <c r="F68" s="453"/>
       <c r="G68" s="74"/>
       <c r="H68" s="74"/>
       <c r="I68" s="74"/>
@@ -18754,10 +18802,10 @@
       <c r="AD68" s="74"/>
       <c r="AE68" s="74"/>
       <c r="AF68" s="74"/>
-      <c r="AG68" s="453"/>
-      <c r="AH68" s="453"/>
-      <c r="AI68" s="453"/>
-      <c r="AJ68" s="453"/>
+      <c r="AG68" s="472"/>
+      <c r="AH68" s="472"/>
+      <c r="AI68" s="472"/>
+      <c r="AJ68" s="472"/>
       <c r="AK68" s="137"/>
       <c r="AL68" s="137"/>
       <c r="AM68" s="137"/>
@@ -18799,14 +18847,14 @@
       <c r="BW68" s="137"/>
     </row>
     <row r="69" spans="1:75" s="136" customFormat="1" ht="15.6" customHeight="1">
-      <c r="A69" s="448"/>
-      <c r="B69" s="449"/>
-      <c r="C69" s="431"/>
-      <c r="D69" s="432"/>
-      <c r="E69" s="433" t="s">
-        <v>412</v>
-      </c>
-      <c r="F69" s="434"/>
+      <c r="A69" s="467"/>
+      <c r="B69" s="468"/>
+      <c r="C69" s="450"/>
+      <c r="D69" s="451"/>
+      <c r="E69" s="452" t="s">
+        <v>411</v>
+      </c>
+      <c r="F69" s="453"/>
       <c r="G69" s="74"/>
       <c r="H69" s="74"/>
       <c r="I69" s="74"/>
@@ -18876,16 +18924,16 @@
       <c r="BW69" s="137"/>
     </row>
     <row r="70" spans="1:75" s="136" customFormat="1" ht="15.6" customHeight="1">
-      <c r="A70" s="448"/>
-      <c r="B70" s="449"/>
-      <c r="C70" s="429" t="s">
-        <v>377</v>
-      </c>
-      <c r="D70" s="430"/>
-      <c r="E70" s="433" t="s">
-        <v>446</v>
-      </c>
-      <c r="F70" s="434"/>
+      <c r="A70" s="467"/>
+      <c r="B70" s="468"/>
+      <c r="C70" s="448" t="s">
+        <v>376</v>
+      </c>
+      <c r="D70" s="449"/>
+      <c r="E70" s="452" t="s">
+        <v>445</v>
+      </c>
+      <c r="F70" s="453"/>
       <c r="G70" s="74"/>
       <c r="H70" s="74"/>
       <c r="I70" s="74"/>
@@ -18910,10 +18958,10 @@
       <c r="AD70" s="74"/>
       <c r="AE70" s="74"/>
       <c r="AF70" s="74"/>
-      <c r="AG70" s="453"/>
-      <c r="AH70" s="453"/>
-      <c r="AI70" s="453"/>
-      <c r="AJ70" s="453"/>
+      <c r="AG70" s="472"/>
+      <c r="AH70" s="472"/>
+      <c r="AI70" s="472"/>
+      <c r="AJ70" s="472"/>
       <c r="AK70" s="137"/>
       <c r="AL70" s="139"/>
       <c r="AM70" s="137"/>
@@ -18955,14 +19003,14 @@
       <c r="BW70" s="137"/>
     </row>
     <row r="71" spans="1:75" s="136" customFormat="1" ht="15.6" customHeight="1">
-      <c r="A71" s="448"/>
-      <c r="B71" s="449"/>
-      <c r="C71" s="431"/>
-      <c r="D71" s="432"/>
-      <c r="E71" s="433" t="s">
-        <v>413</v>
-      </c>
-      <c r="F71" s="434"/>
+      <c r="A71" s="467"/>
+      <c r="B71" s="468"/>
+      <c r="C71" s="450"/>
+      <c r="D71" s="451"/>
+      <c r="E71" s="452" t="s">
+        <v>412</v>
+      </c>
+      <c r="F71" s="453"/>
       <c r="G71" s="74"/>
       <c r="H71" s="74"/>
       <c r="I71" s="74"/>
@@ -19032,16 +19080,16 @@
       <c r="BW71" s="137"/>
     </row>
     <row r="72" spans="1:75" s="136" customFormat="1" ht="15.6" customHeight="1">
-      <c r="A72" s="448"/>
-      <c r="B72" s="449"/>
-      <c r="C72" s="429" t="s">
-        <v>378</v>
-      </c>
-      <c r="D72" s="430"/>
-      <c r="E72" s="433" t="s">
-        <v>447</v>
-      </c>
-      <c r="F72" s="434"/>
+      <c r="A72" s="467"/>
+      <c r="B72" s="468"/>
+      <c r="C72" s="448" t="s">
+        <v>377</v>
+      </c>
+      <c r="D72" s="449"/>
+      <c r="E72" s="452" t="s">
+        <v>446</v>
+      </c>
+      <c r="F72" s="453"/>
       <c r="G72" s="74"/>
       <c r="H72" s="74"/>
       <c r="I72" s="74"/>
@@ -19066,10 +19114,10 @@
       <c r="AD72" s="74"/>
       <c r="AE72" s="74"/>
       <c r="AF72" s="74"/>
-      <c r="AG72" s="453"/>
-      <c r="AH72" s="453"/>
-      <c r="AI72" s="453"/>
-      <c r="AJ72" s="453"/>
+      <c r="AG72" s="472"/>
+      <c r="AH72" s="472"/>
+      <c r="AI72" s="472"/>
+      <c r="AJ72" s="472"/>
       <c r="AK72" s="137"/>
       <c r="AL72" s="138"/>
       <c r="AM72" s="137"/>
@@ -19111,14 +19159,14 @@
       <c r="BW72" s="137"/>
     </row>
     <row r="73" spans="1:75" s="136" customFormat="1" ht="15.6" customHeight="1">
-      <c r="A73" s="448"/>
-      <c r="B73" s="449"/>
-      <c r="C73" s="431"/>
-      <c r="D73" s="432"/>
-      <c r="E73" s="433" t="s">
-        <v>414</v>
-      </c>
-      <c r="F73" s="434"/>
+      <c r="A73" s="467"/>
+      <c r="B73" s="468"/>
+      <c r="C73" s="450"/>
+      <c r="D73" s="451"/>
+      <c r="E73" s="452" t="s">
+        <v>413</v>
+      </c>
+      <c r="F73" s="453"/>
       <c r="G73" s="74"/>
       <c r="H73" s="74"/>
       <c r="I73" s="74"/>
@@ -19188,16 +19236,16 @@
       <c r="BW73" s="137"/>
     </row>
     <row r="74" spans="1:75" s="136" customFormat="1" ht="15.6" customHeight="1">
-      <c r="A74" s="448"/>
-      <c r="B74" s="449"/>
-      <c r="C74" s="429" t="s">
-        <v>379</v>
-      </c>
-      <c r="D74" s="430"/>
-      <c r="E74" s="433" t="s">
-        <v>448</v>
-      </c>
-      <c r="F74" s="434"/>
+      <c r="A74" s="467"/>
+      <c r="B74" s="468"/>
+      <c r="C74" s="448" t="s">
+        <v>378</v>
+      </c>
+      <c r="D74" s="449"/>
+      <c r="E74" s="452" t="s">
+        <v>447</v>
+      </c>
+      <c r="F74" s="453"/>
       <c r="G74" s="74"/>
       <c r="H74" s="74"/>
       <c r="I74" s="74"/>
@@ -19222,10 +19270,10 @@
       <c r="AD74" s="74"/>
       <c r="AE74" s="74"/>
       <c r="AF74" s="74"/>
-      <c r="AG74" s="453"/>
-      <c r="AH74" s="453"/>
-      <c r="AI74" s="453"/>
-      <c r="AJ74" s="453"/>
+      <c r="AG74" s="472"/>
+      <c r="AH74" s="472"/>
+      <c r="AI74" s="472"/>
+      <c r="AJ74" s="472"/>
       <c r="AK74" s="143"/>
       <c r="AL74" s="139"/>
       <c r="AM74" s="137"/>
@@ -19267,14 +19315,14 @@
       <c r="BW74" s="137"/>
     </row>
     <row r="75" spans="1:75" s="136" customFormat="1" ht="15.6" customHeight="1">
-      <c r="A75" s="448"/>
-      <c r="B75" s="449"/>
-      <c r="C75" s="431"/>
-      <c r="D75" s="432"/>
-      <c r="E75" s="433" t="s">
-        <v>415</v>
-      </c>
-      <c r="F75" s="434"/>
+      <c r="A75" s="467"/>
+      <c r="B75" s="468"/>
+      <c r="C75" s="450"/>
+      <c r="D75" s="451"/>
+      <c r="E75" s="452" t="s">
+        <v>414</v>
+      </c>
+      <c r="F75" s="453"/>
       <c r="G75" s="74"/>
       <c r="H75" s="74"/>
       <c r="I75" s="74"/>
@@ -19344,16 +19392,16 @@
       <c r="BW75" s="137"/>
     </row>
     <row r="76" spans="1:75" s="136" customFormat="1" ht="15.6" customHeight="1">
-      <c r="A76" s="448"/>
-      <c r="B76" s="449"/>
-      <c r="C76" s="429" t="s">
-        <v>380</v>
-      </c>
-      <c r="D76" s="430"/>
-      <c r="E76" s="433" t="s">
-        <v>449</v>
-      </c>
-      <c r="F76" s="434"/>
+      <c r="A76" s="467"/>
+      <c r="B76" s="468"/>
+      <c r="C76" s="448" t="s">
+        <v>379</v>
+      </c>
+      <c r="D76" s="449"/>
+      <c r="E76" s="452" t="s">
+        <v>448</v>
+      </c>
+      <c r="F76" s="453"/>
       <c r="G76" s="74"/>
       <c r="H76" s="74"/>
       <c r="I76" s="74"/>
@@ -19378,10 +19426,10 @@
       <c r="AD76" s="74"/>
       <c r="AE76" s="74"/>
       <c r="AF76" s="74"/>
-      <c r="AG76" s="453"/>
-      <c r="AH76" s="453"/>
-      <c r="AI76" s="453"/>
-      <c r="AJ76" s="453"/>
+      <c r="AG76" s="472"/>
+      <c r="AH76" s="472"/>
+      <c r="AI76" s="472"/>
+      <c r="AJ76" s="472"/>
       <c r="AK76" s="137"/>
       <c r="AL76" s="138"/>
       <c r="AM76" s="137"/>
@@ -19423,14 +19471,14 @@
       <c r="BW76" s="137"/>
     </row>
     <row r="77" spans="1:75" s="136" customFormat="1" ht="15.6" customHeight="1">
-      <c r="A77" s="448"/>
-      <c r="B77" s="449"/>
-      <c r="C77" s="431"/>
-      <c r="D77" s="432"/>
-      <c r="E77" s="433" t="s">
-        <v>416</v>
-      </c>
-      <c r="F77" s="434"/>
+      <c r="A77" s="467"/>
+      <c r="B77" s="468"/>
+      <c r="C77" s="450"/>
+      <c r="D77" s="451"/>
+      <c r="E77" s="452" t="s">
+        <v>415</v>
+      </c>
+      <c r="F77" s="453"/>
       <c r="G77" s="74"/>
       <c r="H77" s="74"/>
       <c r="I77" s="74"/>
@@ -19500,16 +19548,16 @@
       <c r="BW77" s="137"/>
     </row>
     <row r="78" spans="1:75" s="136" customFormat="1" ht="15.6" customHeight="1">
-      <c r="A78" s="448"/>
-      <c r="B78" s="449"/>
-      <c r="C78" s="429" t="s">
-        <v>381</v>
-      </c>
-      <c r="D78" s="430"/>
-      <c r="E78" s="433" t="s">
-        <v>450</v>
-      </c>
-      <c r="F78" s="434"/>
+      <c r="A78" s="467"/>
+      <c r="B78" s="468"/>
+      <c r="C78" s="448" t="s">
+        <v>380</v>
+      </c>
+      <c r="D78" s="449"/>
+      <c r="E78" s="452" t="s">
+        <v>449</v>
+      </c>
+      <c r="F78" s="453"/>
       <c r="G78" s="74"/>
       <c r="H78" s="74"/>
       <c r="I78" s="74"/>
@@ -19534,10 +19582,10 @@
       <c r="AD78" s="74"/>
       <c r="AE78" s="74"/>
       <c r="AF78" s="74"/>
-      <c r="AG78" s="453"/>
-      <c r="AH78" s="453"/>
-      <c r="AI78" s="453"/>
-      <c r="AJ78" s="453"/>
+      <c r="AG78" s="472"/>
+      <c r="AH78" s="472"/>
+      <c r="AI78" s="472"/>
+      <c r="AJ78" s="472"/>
       <c r="AK78" s="143"/>
       <c r="AL78" s="139"/>
       <c r="AM78" s="137"/>
@@ -19579,14 +19627,14 @@
       <c r="BW78" s="137"/>
     </row>
     <row r="79" spans="1:75" s="136" customFormat="1" ht="15.6" customHeight="1">
-      <c r="A79" s="448"/>
-      <c r="B79" s="449"/>
-      <c r="C79" s="431"/>
-      <c r="D79" s="432"/>
-      <c r="E79" s="433" t="s">
-        <v>417</v>
-      </c>
-      <c r="F79" s="434"/>
+      <c r="A79" s="467"/>
+      <c r="B79" s="468"/>
+      <c r="C79" s="450"/>
+      <c r="D79" s="451"/>
+      <c r="E79" s="452" t="s">
+        <v>416</v>
+      </c>
+      <c r="F79" s="453"/>
       <c r="G79" s="74"/>
       <c r="H79" s="74"/>
       <c r="I79" s="74"/>
@@ -19656,16 +19704,16 @@
       <c r="BW79" s="137"/>
     </row>
     <row r="80" spans="1:75" s="136" customFormat="1" ht="15.6" customHeight="1">
-      <c r="A80" s="448"/>
-      <c r="B80" s="449"/>
-      <c r="C80" s="429" t="s">
-        <v>382</v>
-      </c>
-      <c r="D80" s="430"/>
-      <c r="E80" s="433" t="s">
-        <v>451</v>
-      </c>
-      <c r="F80" s="434"/>
+      <c r="A80" s="467"/>
+      <c r="B80" s="468"/>
+      <c r="C80" s="448" t="s">
+        <v>381</v>
+      </c>
+      <c r="D80" s="449"/>
+      <c r="E80" s="452" t="s">
+        <v>450</v>
+      </c>
+      <c r="F80" s="453"/>
       <c r="G80" s="74"/>
       <c r="H80" s="74"/>
       <c r="I80" s="74"/>
@@ -19692,10 +19740,10 @@
       <c r="AD80" s="74"/>
       <c r="AE80" s="74"/>
       <c r="AF80" s="74"/>
-      <c r="AG80" s="453"/>
-      <c r="AH80" s="453"/>
-      <c r="AI80" s="453"/>
-      <c r="AJ80" s="453"/>
+      <c r="AG80" s="472"/>
+      <c r="AH80" s="472"/>
+      <c r="AI80" s="472"/>
+      <c r="AJ80" s="472"/>
       <c r="AK80" s="138"/>
       <c r="AL80" s="138"/>
       <c r="AM80" s="137"/>
@@ -19737,14 +19785,14 @@
       <c r="BW80" s="137"/>
     </row>
     <row r="81" spans="1:75" s="136" customFormat="1" ht="15.6" customHeight="1">
-      <c r="A81" s="448"/>
-      <c r="B81" s="449"/>
-      <c r="C81" s="431"/>
-      <c r="D81" s="432"/>
-      <c r="E81" s="433" t="s">
-        <v>418</v>
-      </c>
-      <c r="F81" s="434"/>
+      <c r="A81" s="467"/>
+      <c r="B81" s="468"/>
+      <c r="C81" s="450"/>
+      <c r="D81" s="451"/>
+      <c r="E81" s="452" t="s">
+        <v>417</v>
+      </c>
+      <c r="F81" s="453"/>
       <c r="G81" s="74"/>
       <c r="H81" s="74"/>
       <c r="I81" s="74"/>
@@ -19816,16 +19864,16 @@
       <c r="BW81" s="137"/>
     </row>
     <row r="82" spans="1:75" s="136" customFormat="1" ht="15.6" customHeight="1">
-      <c r="A82" s="448"/>
-      <c r="B82" s="449"/>
-      <c r="C82" s="429" t="s">
-        <v>384</v>
-      </c>
-      <c r="D82" s="430"/>
-      <c r="E82" s="433" t="s">
-        <v>452</v>
-      </c>
-      <c r="F82" s="434"/>
+      <c r="A82" s="467"/>
+      <c r="B82" s="468"/>
+      <c r="C82" s="448" t="s">
+        <v>383</v>
+      </c>
+      <c r="D82" s="449"/>
+      <c r="E82" s="452" t="s">
+        <v>451</v>
+      </c>
+      <c r="F82" s="453"/>
       <c r="G82" s="74"/>
       <c r="H82" s="74"/>
       <c r="I82" s="74"/>
@@ -19897,14 +19945,14 @@
       <c r="BW82" s="137"/>
     </row>
     <row r="83" spans="1:75" s="136" customFormat="1" ht="15.6" customHeight="1">
-      <c r="A83" s="448"/>
-      <c r="B83" s="449"/>
-      <c r="C83" s="431"/>
-      <c r="D83" s="432"/>
-      <c r="E83" s="433" t="s">
-        <v>419</v>
-      </c>
-      <c r="F83" s="434"/>
+      <c r="A83" s="467"/>
+      <c r="B83" s="468"/>
+      <c r="C83" s="450"/>
+      <c r="D83" s="451"/>
+      <c r="E83" s="452" t="s">
+        <v>418</v>
+      </c>
+      <c r="F83" s="453"/>
       <c r="G83" s="74"/>
       <c r="H83" s="74"/>
       <c r="I83" s="74"/>
@@ -19978,14 +20026,14 @@
     <row r="84" spans="1:75" s="136" customFormat="1" ht="18.75">
       <c r="A84" s="184"/>
       <c r="B84" s="185"/>
-      <c r="C84" s="444" t="s">
-        <v>31</v>
-      </c>
-      <c r="D84" s="445"/>
-      <c r="E84" s="435" t="s">
-        <v>570</v>
-      </c>
-      <c r="F84" s="436"/>
+      <c r="C84" s="463" t="s">
+        <v>30</v>
+      </c>
+      <c r="D84" s="464"/>
+      <c r="E84" s="454" t="s">
+        <v>568</v>
+      </c>
+      <c r="F84" s="455"/>
       <c r="G84" s="74"/>
       <c r="H84"/>
       <c r="I84"/>
@@ -20059,14 +20107,14 @@
     <row r="85" spans="1:75" s="136" customFormat="1" ht="18.75">
       <c r="A85" s="184"/>
       <c r="B85" s="185"/>
-      <c r="C85" s="444" t="s">
+      <c r="C85" s="463" t="s">
         <v>3</v>
       </c>
-      <c r="D85" s="445"/>
-      <c r="E85" s="435" t="s">
-        <v>571</v>
-      </c>
-      <c r="F85" s="436"/>
+      <c r="D85" s="464"/>
+      <c r="E85" s="454" t="s">
+        <v>569</v>
+      </c>
+      <c r="F85" s="455"/>
       <c r="G85" s="74"/>
       <c r="H85"/>
       <c r="I85"/>
@@ -20140,14 +20188,14 @@
     <row r="86" spans="1:75" s="136" customFormat="1" ht="18.75">
       <c r="A86" s="184"/>
       <c r="B86" s="185"/>
-      <c r="C86" s="444" t="s">
+      <c r="C86" s="463" t="s">
         <v>4</v>
       </c>
-      <c r="D86" s="445"/>
-      <c r="E86" s="435" t="s">
-        <v>592</v>
-      </c>
-      <c r="F86" s="436"/>
+      <c r="D86" s="464"/>
+      <c r="E86" s="454" t="s">
+        <v>590</v>
+      </c>
+      <c r="F86" s="455"/>
       <c r="G86" s="74"/>
       <c r="H86"/>
       <c r="I86"/>
@@ -20219,18 +20267,18 @@
       <c r="BW86" s="137"/>
     </row>
     <row r="87" spans="1:75" s="136" customFormat="1" ht="27" customHeight="1">
-      <c r="A87" s="440" t="s">
+      <c r="A87" s="459" t="s">
         <v>1</v>
       </c>
-      <c r="B87" s="441"/>
-      <c r="C87" s="438" t="s">
+      <c r="B87" s="460"/>
+      <c r="C87" s="457" t="s">
         <v>5</v>
       </c>
-      <c r="D87" s="439"/>
-      <c r="E87" s="433" t="s">
-        <v>296</v>
-      </c>
-      <c r="F87" s="434"/>
+      <c r="D87" s="458"/>
+      <c r="E87" s="452" t="s">
+        <v>295</v>
+      </c>
+      <c r="F87" s="453"/>
       <c r="G87" s="74"/>
       <c r="H87"/>
       <c r="I87"/>
@@ -20257,10 +20305,10 @@
       <c r="AD87" s="74"/>
       <c r="AE87" s="74"/>
       <c r="AF87" s="74"/>
-      <c r="AG87" s="451"/>
-      <c r="AH87" s="451"/>
-      <c r="AI87" s="451"/>
-      <c r="AJ87" s="451"/>
+      <c r="AG87" s="470"/>
+      <c r="AH87" s="470"/>
+      <c r="AI87" s="470"/>
+      <c r="AJ87" s="470"/>
       <c r="AK87" s="143"/>
       <c r="AL87" s="137"/>
       <c r="AM87" s="137"/>
@@ -20302,16 +20350,16 @@
       <c r="BW87" s="137"/>
     </row>
     <row r="88" spans="1:75" s="136" customFormat="1" ht="27" customHeight="1">
-      <c r="A88" s="442"/>
-      <c r="B88" s="443"/>
-      <c r="C88" s="438" t="s">
+      <c r="A88" s="461"/>
+      <c r="B88" s="462"/>
+      <c r="C88" s="457" t="s">
         <v>6</v>
       </c>
-      <c r="D88" s="439"/>
-      <c r="E88" s="433" t="s">
-        <v>297</v>
-      </c>
-      <c r="F88" s="434"/>
+      <c r="D88" s="458"/>
+      <c r="E88" s="452" t="s">
+        <v>296</v>
+      </c>
+      <c r="F88" s="453"/>
       <c r="G88" s="74"/>
       <c r="H88" s="74"/>
       <c r="I88" s="74"/>
@@ -20338,10 +20386,10 @@
       <c r="AD88" s="74"/>
       <c r="AE88" s="74"/>
       <c r="AF88" s="74"/>
-      <c r="AG88" s="451"/>
-      <c r="AH88" s="451"/>
-      <c r="AI88" s="451"/>
-      <c r="AJ88" s="451"/>
+      <c r="AG88" s="470"/>
+      <c r="AH88" s="470"/>
+      <c r="AI88" s="470"/>
+      <c r="AJ88" s="470"/>
       <c r="AK88" s="143"/>
       <c r="AL88" s="137"/>
       <c r="AM88" s="137"/>
@@ -20383,16 +20431,16 @@
       <c r="BW88" s="137"/>
     </row>
     <row r="89" spans="1:75" s="136" customFormat="1" ht="27" customHeight="1">
-      <c r="A89" s="442"/>
-      <c r="B89" s="443"/>
-      <c r="C89" s="438" t="s">
+      <c r="A89" s="461"/>
+      <c r="B89" s="462"/>
+      <c r="C89" s="457" t="s">
         <v>0</v>
       </c>
-      <c r="D89" s="439"/>
-      <c r="E89" s="433" t="s">
-        <v>298</v>
-      </c>
-      <c r="F89" s="434"/>
+      <c r="D89" s="458"/>
+      <c r="E89" s="452" t="s">
+        <v>297</v>
+      </c>
+      <c r="F89" s="453"/>
       <c r="G89" s="74"/>
       <c r="H89" s="74"/>
       <c r="I89" s="74"/>
@@ -20419,10 +20467,10 @@
       <c r="AD89" s="74"/>
       <c r="AE89" s="74"/>
       <c r="AF89" s="74"/>
-      <c r="AG89" s="452"/>
-      <c r="AH89" s="452"/>
-      <c r="AI89" s="452"/>
-      <c r="AJ89" s="452"/>
+      <c r="AG89" s="471"/>
+      <c r="AH89" s="471"/>
+      <c r="AI89" s="471"/>
+      <c r="AJ89" s="471"/>
       <c r="AK89" s="143"/>
       <c r="AL89" s="137"/>
       <c r="AM89" s="137"/>
@@ -20464,16 +20512,16 @@
       <c r="BW89" s="137"/>
     </row>
     <row r="90" spans="1:75" s="136" customFormat="1" ht="27" customHeight="1">
-      <c r="A90" s="442"/>
-      <c r="B90" s="443"/>
-      <c r="C90" s="438" t="s">
-        <v>48</v>
-      </c>
-      <c r="D90" s="439"/>
-      <c r="E90" s="433" t="s">
-        <v>299</v>
-      </c>
-      <c r="F90" s="434"/>
+      <c r="A90" s="461"/>
+      <c r="B90" s="462"/>
+      <c r="C90" s="457" t="s">
+        <v>47</v>
+      </c>
+      <c r="D90" s="458"/>
+      <c r="E90" s="452" t="s">
+        <v>298</v>
+      </c>
+      <c r="F90" s="453"/>
       <c r="G90" s="74"/>
       <c r="H90" s="74"/>
       <c r="I90" s="74"/>
@@ -20545,16 +20593,16 @@
       <c r="BW90" s="137"/>
     </row>
     <row r="91" spans="1:75" s="136" customFormat="1" ht="27" customHeight="1">
-      <c r="A91" s="442"/>
-      <c r="B91" s="443"/>
-      <c r="C91" s="438" t="s">
-        <v>34</v>
-      </c>
-      <c r="D91" s="439"/>
-      <c r="E91" s="433" t="s">
-        <v>385</v>
-      </c>
-      <c r="F91" s="434"/>
+      <c r="A91" s="461"/>
+      <c r="B91" s="462"/>
+      <c r="C91" s="457" t="s">
+        <v>33</v>
+      </c>
+      <c r="D91" s="458"/>
+      <c r="E91" s="452" t="s">
+        <v>384</v>
+      </c>
+      <c r="F91" s="453"/>
       <c r="G91" s="74"/>
       <c r="H91" s="74"/>
       <c r="I91" s="74"/>
@@ -20581,10 +20629,10 @@
       <c r="AD91" s="74"/>
       <c r="AE91" s="74"/>
       <c r="AF91" s="74"/>
-      <c r="AG91" s="452"/>
-      <c r="AH91" s="452"/>
-      <c r="AI91" s="452"/>
-      <c r="AJ91" s="452"/>
+      <c r="AG91" s="471"/>
+      <c r="AH91" s="471"/>
+      <c r="AI91" s="471"/>
+      <c r="AJ91" s="471"/>
       <c r="AK91" s="143"/>
       <c r="AL91" s="137"/>
       <c r="AM91" s="137"/>
@@ -20626,16 +20674,16 @@
       <c r="BW91" s="137"/>
     </row>
     <row r="92" spans="1:75" s="136" customFormat="1" ht="32.25" customHeight="1">
-      <c r="A92" s="437" t="s">
-        <v>44</v>
-      </c>
-      <c r="B92" s="437"/>
-      <c r="C92" s="437"/>
-      <c r="D92" s="437"/>
-      <c r="E92" s="433" t="s">
-        <v>595</v>
-      </c>
-      <c r="F92" s="434"/>
+      <c r="A92" s="456" t="s">
+        <v>43</v>
+      </c>
+      <c r="B92" s="456"/>
+      <c r="C92" s="456"/>
+      <c r="D92" s="456"/>
+      <c r="E92" s="452" t="s">
+        <v>593</v>
+      </c>
+      <c r="F92" s="453"/>
       <c r="G92" s="74"/>
       <c r="H92" s="74"/>
       <c r="I92" s="74"/>
@@ -20662,10 +20710,10 @@
       <c r="AD92" s="74"/>
       <c r="AE92" s="74"/>
       <c r="AF92" s="74"/>
-      <c r="AG92" s="450"/>
-      <c r="AH92" s="450"/>
-      <c r="AI92" s="450"/>
-      <c r="AJ92" s="450"/>
+      <c r="AG92" s="469"/>
+      <c r="AH92" s="469"/>
+      <c r="AI92" s="469"/>
+      <c r="AJ92" s="469"/>
       <c r="AK92" s="143"/>
       <c r="AL92" s="137"/>
       <c r="AM92" s="137"/>
@@ -20707,16 +20755,16 @@
       <c r="BW92" s="137"/>
     </row>
     <row r="93" spans="1:75" s="136" customFormat="1" ht="32.25" customHeight="1">
-      <c r="A93" s="437" t="s">
-        <v>45</v>
-      </c>
-      <c r="B93" s="437"/>
-      <c r="C93" s="437"/>
-      <c r="D93" s="437"/>
-      <c r="E93" s="433" t="s">
-        <v>596</v>
-      </c>
-      <c r="F93" s="434"/>
+      <c r="A93" s="456" t="s">
+        <v>44</v>
+      </c>
+      <c r="B93" s="456"/>
+      <c r="C93" s="456"/>
+      <c r="D93" s="456"/>
+      <c r="E93" s="452" t="s">
+        <v>594</v>
+      </c>
+      <c r="F93" s="453"/>
       <c r="G93" s="74"/>
       <c r="H93" s="74"/>
       <c r="I93" s="74"/>
@@ -20743,10 +20791,10 @@
       <c r="AD93" s="74"/>
       <c r="AE93" s="74"/>
       <c r="AF93" s="74"/>
-      <c r="AG93" s="450"/>
-      <c r="AH93" s="450"/>
-      <c r="AI93" s="450"/>
-      <c r="AJ93" s="450"/>
+      <c r="AG93" s="469"/>
+      <c r="AH93" s="469"/>
+      <c r="AI93" s="469"/>
+      <c r="AJ93" s="469"/>
       <c r="AK93" s="143"/>
       <c r="AL93" s="137"/>
       <c r="AM93" s="137"/>
@@ -20794,17 +20842,17 @@
       <c r="D94" s="146"/>
       <c r="E94" s="146"/>
       <c r="F94" s="146"/>
-      <c r="G94" s="454"/>
-      <c r="H94" s="454"/>
-      <c r="I94" s="454"/>
+      <c r="G94" s="473"/>
+      <c r="H94" s="473"/>
+      <c r="I94" s="473"/>
       <c r="J94" s="146"/>
       <c r="K94" s="146"/>
       <c r="L94" s="146"/>
       <c r="M94" s="146"/>
       <c r="N94" s="146"/>
-      <c r="O94" s="454"/>
-      <c r="P94" s="454"/>
-      <c r="Q94" s="454"/>
+      <c r="O94" s="473"/>
+      <c r="P94" s="473"/>
+      <c r="Q94" s="473"/>
       <c r="R94" s="146"/>
       <c r="S94" s="146"/>
       <c r="T94" s="146"/>
@@ -20830,13 +20878,13 @@
     <row r="95" spans="1:75" ht="14.1" customHeight="1" thickBot="1">
       <c r="A95" s="145"/>
       <c r="B95" s="154" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C95" s="153"/>
-      <c r="D95" s="463" t="s">
-        <v>54</v>
-      </c>
-      <c r="E95" s="463"/>
+      <c r="D95" s="482" t="s">
+        <v>53</v>
+      </c>
+      <c r="E95" s="482"/>
       <c r="F95" s="146"/>
       <c r="G95" s="152"/>
       <c r="H95" s="152"/>
@@ -20874,13 +20922,13 @@
     <row r="96" spans="1:75" ht="13.9" customHeight="1" thickBot="1">
       <c r="A96" s="145"/>
       <c r="B96" s="155" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C96" s="153"/>
-      <c r="D96" s="463" t="s">
-        <v>55</v>
-      </c>
-      <c r="E96" s="463"/>
+      <c r="D96" s="482" t="s">
+        <v>54</v>
+      </c>
+      <c r="E96" s="482"/>
       <c r="F96" s="146"/>
       <c r="G96" s="152"/>
       <c r="H96" s="152"/>
@@ -20922,9 +20970,9 @@
       <c r="D97" s="146"/>
       <c r="E97" s="146"/>
       <c r="F97" s="146"/>
-      <c r="G97" s="456"/>
-      <c r="H97" s="456"/>
-      <c r="I97" s="456"/>
+      <c r="G97" s="475"/>
+      <c r="H97" s="475"/>
+      <c r="I97" s="475"/>
       <c r="J97" s="146"/>
       <c r="K97" s="146"/>
       <c r="L97" s="146"/>
@@ -20957,35 +21005,35 @@
     </row>
     <row r="98" spans="1:75" ht="14.1" customHeight="1">
       <c r="A98" s="145"/>
-      <c r="B98" s="455" t="s">
-        <v>36</v>
-      </c>
-      <c r="C98" s="457"/>
-      <c r="D98" s="458"/>
-      <c r="E98" s="458"/>
-      <c r="F98" s="458"/>
-      <c r="G98" s="458"/>
-      <c r="H98" s="458"/>
-      <c r="I98" s="458"/>
-      <c r="J98" s="458"/>
-      <c r="K98" s="458"/>
-      <c r="L98" s="458"/>
-      <c r="M98" s="458"/>
-      <c r="N98" s="458"/>
-      <c r="O98" s="458"/>
-      <c r="P98" s="458"/>
-      <c r="Q98" s="458"/>
-      <c r="R98" s="458"/>
-      <c r="S98" s="458"/>
-      <c r="T98" s="458"/>
-      <c r="U98" s="458"/>
-      <c r="V98" s="458"/>
-      <c r="W98" s="458"/>
-      <c r="X98" s="458"/>
-      <c r="Y98" s="458"/>
-      <c r="Z98" s="458"/>
-      <c r="AA98" s="458"/>
-      <c r="AB98" s="459"/>
+      <c r="B98" s="474" t="s">
+        <v>35</v>
+      </c>
+      <c r="C98" s="476"/>
+      <c r="D98" s="477"/>
+      <c r="E98" s="477"/>
+      <c r="F98" s="477"/>
+      <c r="G98" s="477"/>
+      <c r="H98" s="477"/>
+      <c r="I98" s="477"/>
+      <c r="J98" s="477"/>
+      <c r="K98" s="477"/>
+      <c r="L98" s="477"/>
+      <c r="M98" s="477"/>
+      <c r="N98" s="477"/>
+      <c r="O98" s="477"/>
+      <c r="P98" s="477"/>
+      <c r="Q98" s="477"/>
+      <c r="R98" s="477"/>
+      <c r="S98" s="477"/>
+      <c r="T98" s="477"/>
+      <c r="U98" s="477"/>
+      <c r="V98" s="477"/>
+      <c r="W98" s="477"/>
+      <c r="X98" s="477"/>
+      <c r="Y98" s="477"/>
+      <c r="Z98" s="477"/>
+      <c r="AA98" s="477"/>
+      <c r="AB98" s="478"/>
       <c r="AC98" s="148"/>
       <c r="AD98" s="148"/>
       <c r="AE98" s="148"/>
@@ -21006,33 +21054,33 @@
     </row>
     <row r="99" spans="1:75" ht="28.5" customHeight="1">
       <c r="A99" s="145"/>
-      <c r="B99" s="455"/>
-      <c r="C99" s="460"/>
-      <c r="D99" s="461"/>
-      <c r="E99" s="461"/>
-      <c r="F99" s="461"/>
-      <c r="G99" s="461"/>
-      <c r="H99" s="461"/>
-      <c r="I99" s="461"/>
-      <c r="J99" s="461"/>
-      <c r="K99" s="461"/>
-      <c r="L99" s="461"/>
-      <c r="M99" s="461"/>
-      <c r="N99" s="461"/>
-      <c r="O99" s="461"/>
-      <c r="P99" s="461"/>
-      <c r="Q99" s="461"/>
-      <c r="R99" s="461"/>
-      <c r="S99" s="461"/>
-      <c r="T99" s="461"/>
-      <c r="U99" s="461"/>
-      <c r="V99" s="461"/>
-      <c r="W99" s="461"/>
-      <c r="X99" s="461"/>
-      <c r="Y99" s="461"/>
-      <c r="Z99" s="461"/>
-      <c r="AA99" s="461"/>
-      <c r="AB99" s="462"/>
+      <c r="B99" s="474"/>
+      <c r="C99" s="479"/>
+      <c r="D99" s="480"/>
+      <c r="E99" s="480"/>
+      <c r="F99" s="480"/>
+      <c r="G99" s="480"/>
+      <c r="H99" s="480"/>
+      <c r="I99" s="480"/>
+      <c r="J99" s="480"/>
+      <c r="K99" s="480"/>
+      <c r="L99" s="480"/>
+      <c r="M99" s="480"/>
+      <c r="N99" s="480"/>
+      <c r="O99" s="480"/>
+      <c r="P99" s="480"/>
+      <c r="Q99" s="480"/>
+      <c r="R99" s="480"/>
+      <c r="S99" s="480"/>
+      <c r="T99" s="480"/>
+      <c r="U99" s="480"/>
+      <c r="V99" s="480"/>
+      <c r="W99" s="480"/>
+      <c r="X99" s="480"/>
+      <c r="Y99" s="480"/>
+      <c r="Z99" s="480"/>
+      <c r="AA99" s="480"/>
+      <c r="AB99" s="481"/>
       <c r="AC99" s="148"/>
       <c r="AD99" s="148"/>
       <c r="AE99" s="148"/>
@@ -21118,20 +21166,20 @@
       <c r="BO101" s="103"/>
     </row>
     <row r="102" spans="1:75" ht="14.1" customHeight="1">
-      <c r="C102" s="499" t="s">
+      <c r="C102" s="518" t="s">
+        <v>587</v>
+      </c>
+      <c r="D102" s="518"/>
+      <c r="E102" s="105"/>
+      <c r="F102" s="518" t="s">
+        <v>588</v>
+      </c>
+      <c r="G102" s="518"/>
+      <c r="H102" s="105"/>
+      <c r="I102" s="518" t="s">
         <v>589</v>
       </c>
-      <c r="D102" s="499"/>
-      <c r="E102" s="105"/>
-      <c r="F102" s="499" t="s">
-        <v>590</v>
-      </c>
-      <c r="G102" s="499"/>
-      <c r="H102" s="105"/>
-      <c r="I102" s="499" t="s">
-        <v>591</v>
-      </c>
-      <c r="J102" s="499"/>
+      <c r="J102" s="518"/>
       <c r="K102" s="105"/>
       <c r="M102" s="105"/>
       <c r="N102" s="105"/>
